--- a/input/Watchlist.xlsx
+++ b/input/Watchlist.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23115"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bayergroup-my.sharepoint.com/personal/sivacharan_chandrasekar_ext_bayer_com/Documents/Personal Data/Analytics/us-stocks-analysis/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sivac\Documents\Analytics\us-stocks-analysis\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3267799D-0623-47CB-A8A5-A194C4E3E07F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="125" documentId="13_ncr:1_{6E1C2BE8-C219-4F37-B9FE-44AAFDD9C31D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00432006-A320-4D68-8FB1-70155BB7901E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="32281" windowHeight="13148" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fund List" sheetId="1" r:id="rId1"/>
     <sheet name="Stock List" sheetId="2" r:id="rId2"/>
     <sheet name="Strategy" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="2">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
@@ -40,13 +40,13 @@
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="24">
+  <futureMetadata name="XLRICHVALUE" count="56">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -141,49 +141,49 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="41"/>
+          <xlrd:rvb i="39"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="44"/>
+          <xlrd:rvb i="42"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="47"/>
+          <xlrd:rvb i="45"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="50"/>
+          <xlrd:rvb i="48"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="53"/>
+          <xlrd:rvb i="51"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="56"/>
+          <xlrd:rvb i="54"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="59"/>
+          <xlrd:rvb i="57"/>
         </ext>
       </extLst>
     </bk>
@@ -215,13 +215,237 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="72"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="75"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="77"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="80"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="83"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="86"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="89"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="92"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="99"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="102"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="109"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="115"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="121"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="127"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="130"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="133"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="139"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="146"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="152"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="155"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="161"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="167"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="174"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="180"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="186"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="192"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="195"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="198"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="201"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="207"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="213"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="219"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="24">
+  <valueMetadata count="56">
     <bk>
       <rc t="2" v="0"/>
     </bk>
@@ -293,13 +517,109 @@
     </bk>
     <bk>
       <rc t="2" v="23"/>
+    </bk>
+    <bk>
+      <rc t="2" v="24"/>
+    </bk>
+    <bk>
+      <rc t="2" v="25"/>
+    </bk>
+    <bk>
+      <rc t="2" v="26"/>
+    </bk>
+    <bk>
+      <rc t="2" v="27"/>
+    </bk>
+    <bk>
+      <rc t="2" v="28"/>
+    </bk>
+    <bk>
+      <rc t="2" v="29"/>
+    </bk>
+    <bk>
+      <rc t="2" v="30"/>
+    </bk>
+    <bk>
+      <rc t="2" v="31"/>
+    </bk>
+    <bk>
+      <rc t="2" v="32"/>
+    </bk>
+    <bk>
+      <rc t="2" v="33"/>
+    </bk>
+    <bk>
+      <rc t="2" v="34"/>
+    </bk>
+    <bk>
+      <rc t="2" v="35"/>
+    </bk>
+    <bk>
+      <rc t="2" v="36"/>
+    </bk>
+    <bk>
+      <rc t="2" v="37"/>
+    </bk>
+    <bk>
+      <rc t="2" v="38"/>
+    </bk>
+    <bk>
+      <rc t="2" v="39"/>
+    </bk>
+    <bk>
+      <rc t="2" v="40"/>
+    </bk>
+    <bk>
+      <rc t="2" v="41"/>
+    </bk>
+    <bk>
+      <rc t="2" v="42"/>
+    </bk>
+    <bk>
+      <rc t="2" v="43"/>
+    </bk>
+    <bk>
+      <rc t="2" v="44"/>
+    </bk>
+    <bk>
+      <rc t="2" v="45"/>
+    </bk>
+    <bk>
+      <rc t="2" v="46"/>
+    </bk>
+    <bk>
+      <rc t="2" v="47"/>
+    </bk>
+    <bk>
+      <rc t="2" v="48"/>
+    </bk>
+    <bk>
+      <rc t="2" v="49"/>
+    </bk>
+    <bk>
+      <rc t="2" v="50"/>
+    </bk>
+    <bk>
+      <rc t="2" v="51"/>
+    </bk>
+    <bk>
+      <rc t="2" v="52"/>
+    </bk>
+    <bk>
+      <rc t="2" v="53"/>
+    </bk>
+    <bk>
+      <rc t="2" v="54"/>
+    </bk>
+    <bk>
+      <rc t="2" v="55"/>
     </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="66">
   <si>
     <t>Funds</t>
   </si>
@@ -346,13 +666,13 @@
     <t>Healthcare</t>
   </si>
   <si>
+    <t>Technology</t>
+  </si>
+  <si>
     <t>Commodity</t>
   </si>
   <si>
     <t>Semiconductors</t>
-  </si>
-  <si>
-    <t>Technology</t>
   </si>
   <si>
     <t>Total Market</t>
@@ -367,6 +687,21 @@
     <t>Sector</t>
   </si>
   <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Financial Services</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Oil &amp; Gas</t>
+  </si>
+  <si>
+    <t>Consumer Cyclicals</t>
+  </si>
+  <si>
     <t>Fund / Stocks</t>
   </si>
   <si>
@@ -379,7 +714,13 @@
     <t>Yearly Allocation</t>
   </si>
   <si>
+    <t>International Funds to think about</t>
+  </si>
+  <si>
     <t>VTI, FSKAX</t>
+  </si>
+  <si>
+    <t>QYLD</t>
   </si>
   <si>
     <t>S&amp;P 500</t>
@@ -388,13 +729,28 @@
     <t>IVV, VOO, FXAIX, SPY</t>
   </si>
   <si>
+    <t>SRET</t>
+  </si>
+  <si>
     <t>VGT, FTEC, XLK, FSCSX, ARKW</t>
+  </si>
+  <si>
+    <t>VWO</t>
+  </si>
+  <si>
+    <t>Emerging Markets mostly in Asia</t>
   </si>
   <si>
     <t>Semiconductor</t>
   </si>
   <si>
     <t>SMH, XSD</t>
+  </si>
+  <si>
+    <t>VGK</t>
+  </si>
+  <si>
+    <t>Europe</t>
   </si>
   <si>
     <t>Healthcare Services</t>
@@ -412,7 +768,7 @@
     <t>Dividend Stocks</t>
   </si>
   <si>
-    <t>VYM (5.5%), SCHD (5.5%), WFC, KO, T, HBI</t>
+    <t>VYM (2.5%), SCHD (2.5%), QYLD (2.5), SRET (2.5),  SDIV, IDV, WFC, KO, T, HBI</t>
   </si>
   <si>
     <t>Other Stocks / ETF</t>
@@ -468,10 +824,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -529,7 +885,7 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="6" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -539,7 +895,299 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="33">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Source Sans Pro"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Source Sans Pro"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Source Sans Pro"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Source Sans Pro"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Source Sans Pro"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Source Sans Pro"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Source Sans Pro"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Source Sans Pro"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Source Sans Pro"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Source Sans Pro"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Source Sans Pro"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Source Sans Pro"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Source Sans Pro"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Source Sans Pro"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Source Sans Pro"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Source Sans Pro"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -805,6 +1453,16 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -853,6 +1511,13 @@
     </keyFlags>
   </global>
   <types>
+    <type name="_imageurl">
+      <keyFlags>
+        <key name="Blip Identifier">
+          <flag name="ShowInCardView" value="0"/>
+        </key>
+      </keyFlags>
+    </type>
     <type name="_linkedentity">
       <keyFlags>
         <key name="%cvi">
@@ -895,12 +1560,12 @@
           <flag name="ShowInDotNotation" value="0"/>
           <flag name="ShowInAutoComplete" value="0"/>
         </key>
-        <key name="%DataProviderExternalLink">
+        <key name="%DataProviderExternalLinkLogo">
           <flag name="ShowInCardView" value="0"/>
           <flag name="ShowInDotNotation" value="0"/>
           <flag name="ShowInAutoComplete" value="0"/>
         </key>
-        <key name="%DataProviderExternalLinkLogo">
+        <key name="%DataProviderExternalLink">
           <flag name="ShowInCardView" value="0"/>
           <flag name="ShowInDotNotation" value="0"/>
           <flag name="ShowInAutoComplete" value="0"/>
@@ -912,7 +1577,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="70">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="220">
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a25bqh&amp;q=ARCX%3aVHT&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
@@ -1002,6 +1667,53 @@
     <v>4</v>
   </rv>
   <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a239nm&amp;q=XNAS%3aSNSR&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="3">
+    <v>en-US</v>
+    <v>a239nm</v>
+    <v>268435456</v>
+    <v>268435459</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>5</v>
+    <v>Glbl X Itrnt of Things (XNAS:SNSR)</v>
+    <v>2</v>
+    <v>6</v>
+    <v>Finance</v>
+    <v>7</v>
+    <v>25.69</v>
+    <v>14.809699999999999</v>
+    <v>1.1566000000000001</v>
+    <v>0.27</v>
+    <v>-7.0070000000000002E-3</v>
+    <v>1.0621999999999999E-2</v>
+    <v>-0.18</v>
+    <v>USD</v>
+    <v>Nasdaq Stock Market</v>
+    <v>XNAS</v>
+    <v>6.8999999999999999E-3</v>
+    <v>25.69</v>
+    <v>ETF</v>
+    <v>44029.833350242967</v>
+    <v>6</v>
+    <v>25.41</v>
+    <v>221536400</v>
+    <v>Glbl X Itrnt of Things</v>
+    <v>25.51</v>
+    <v>25.42</v>
+    <v>25.69</v>
+    <v>25.51</v>
+    <v>SNSR</v>
+    <v>Glbl X Itrnt of Things (XNAS:SNSR)</v>
+    <v>29331</v>
+    <v>76170</v>
+  </rv>
+  <rv s="2">
+    <v>7</v>
+  </rv>
+  <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1vf8m&amp;q=ARCX%3aIHI&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
@@ -1030,7 +1742,7 @@
     <v>280</v>
     <v>ETF</v>
     <v>44028.788206018522</v>
-    <v>6</v>
+    <v>9</v>
     <v>276.72000000000003</v>
     <v>6604812034.3599997</v>
     <v>iShares:US Med Dev ETF</v>
@@ -1043,7 +1755,7 @@
     <v>272497</v>
   </rv>
   <rv s="2">
-    <v>7</v>
+    <v>10</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1smu2&amp;q=ARCX%3aFBT&amp;form=skydnc</v>
@@ -1074,7 +1786,7 @@
     <v>175.44</v>
     <v>ETF</v>
     <v>44028.787129629629</v>
-    <v>9</v>
+    <v>12</v>
     <v>172.98500000000001</v>
     <v>2154897908.5560002</v>
     <v>Frst Tr:NYSEArcaBiotech</v>
@@ -1087,7 +1799,7 @@
     <v>80031</v>
   </rv>
   <rv s="2">
-    <v>10</v>
+    <v>13</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a268hw&amp;q=ARCX%3aXLV&amp;form=skydnc</v>
@@ -1118,7 +1830,7 @@
     <v>104.54</v>
     <v>ETF</v>
     <v>44028.787924698438</v>
-    <v>12</v>
+    <v>15</v>
     <v>103.72499999999999</v>
     <v>23226194903.959999</v>
     <v>Sel Sector:H Care SPDR</v>
@@ -1131,23 +1843,23 @@
     <v>11380019</v>
   </rv>
   <rv s="2">
-    <v>13</v>
+    <v>16</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=b1o8hw&amp;q=ARCX%3aGLDM&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="3">
+  <rv s="4">
     <v>en-US</v>
     <v>b1o8hw</v>
     <v>268435456</v>
     <v>268435459</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>5</v>
+    <v>8</v>
     <v>SPDR Gold MiniShares Tr (ARCX:GLDM)</v>
     <v>2</v>
-    <v>6</v>
+    <v>9</v>
     <v>Finance</v>
     <v>4</v>
     <v>18.12</v>
@@ -1161,7 +1873,7 @@
     <v>18.03</v>
     <v>ETF</v>
     <v>44028.787431133591</v>
-    <v>15</v>
+    <v>18</v>
     <v>17.899999999999999</v>
     <v>2521087257.0999999</v>
     <v>SPDR Gold MiniShares Tr</v>
@@ -1174,7 +1886,147 @@
     <v>1966913</v>
   </rv>
   <rv s="2">
-    <v>16</v>
+    <v>19</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1ueyc&amp;q=ARCX%3aHACK&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="3">
+    <v>en-US</v>
+    <v>a1ueyc</v>
+    <v>268435456</v>
+    <v>268435459</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>5</v>
+    <v>ETFMG Prime Cybr Sec ETF (ARCX:HACK)</v>
+    <v>2</v>
+    <v>6</v>
+    <v>Finance</v>
+    <v>10</v>
+    <v>46.77</v>
+    <v>29.02</v>
+    <v>0.872</v>
+    <v>0.73</v>
+    <v>2.1780000000000001E-4</v>
+    <v>1.6153999999999998E-2</v>
+    <v>0.01</v>
+    <v>USD</v>
+    <v>NYSE Arca</v>
+    <v>ARCX</v>
+    <v>7.1999999999999998E-3</v>
+    <v>46.02</v>
+    <v>ETF</v>
+    <v>44029.863056967188</v>
+    <v>21</v>
+    <v>45.24</v>
+    <v>1412750896.53</v>
+    <v>ETFMG Prime Cybr Sec ETF</v>
+    <v>45.44</v>
+    <v>45.19</v>
+    <v>45.92</v>
+    <v>45.93</v>
+    <v>HACK</v>
+    <v>ETFMG Prime Cybr Sec ETF (ARCX:HACK)</v>
+    <v>95190</v>
+    <v>187819</v>
+  </rv>
+  <rv s="2">
+    <v>22</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1nq9c&amp;q=BATS%3aARKQ&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="3">
+    <v>en-US</v>
+    <v>a1nq9c</v>
+    <v>268435456</v>
+    <v>268435459</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>5</v>
+    <v>ARK Autonomous Tch &amp; Rob (BATS:ARKQ)</v>
+    <v>2</v>
+    <v>6</v>
+    <v>Finance</v>
+    <v>11</v>
+    <v>53.46</v>
+    <v>26.19</v>
+    <v>1.1907000000000001</v>
+    <v>0.76</v>
+    <v>4.4000000000000003E-3</v>
+    <v>1.4754E-2</v>
+    <v>0.23</v>
+    <v>USD</v>
+    <v>CBOE BZX Exchange</v>
+    <v>BATS</v>
+    <v>7.4999999999999997E-3</v>
+    <v>52.33</v>
+    <v>ETF</v>
+    <v>44029.994979385934</v>
+    <v>24</v>
+    <v>51.6601</v>
+    <v>316721107.10100001</v>
+    <v>ARK Autonomous Tch &amp; Rob</v>
+    <v>51.97</v>
+    <v>51.51</v>
+    <v>52.27</v>
+    <v>52.5</v>
+    <v>ARKQ</v>
+    <v>ARK Autonomous Tch &amp; Rob (BATS:ARKQ)</v>
+    <v>214727</v>
+    <v>183594</v>
+  </rv>
+  <rv s="2">
+    <v>25</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=bokc77&amp;q=ARCX%3aGDAT&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="5">
+    <v>en-US</v>
+    <v>bokc77</v>
+    <v>268435456</v>
+    <v>268435459</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>12</v>
+    <v>Goldman:Data-Dvn Wld (ARCX:GDAT)</v>
+    <v>2</v>
+    <v>13</v>
+    <v>Finance</v>
+    <v>10</v>
+    <v>67.260000000000005</v>
+    <v>41.99</v>
+    <v>0.56920000000000004</v>
+    <v>1.1169999999999999E-3</v>
+    <v>8.7609999999999997E-3</v>
+    <v>7.3200000000000001E-2</v>
+    <v>USD</v>
+    <v>NYSE Arca</v>
+    <v>ARCX</v>
+    <v>5.0000000000000001E-3</v>
+    <v>65.575000000000003</v>
+    <v>ETF</v>
+    <v>44029.840277777781</v>
+    <v>27</v>
+    <v>65.159599999999998</v>
+    <v>32948625.699999999</v>
+    <v>Goldman:Data-Dvn Wld</v>
+    <v>65.159599999999998</v>
+    <v>64.967600000000004</v>
+    <v>65.536799999999999</v>
+    <v>65.61</v>
+    <v>GDAT</v>
+    <v>Goldman:Data-Dvn Wld (ARCX:GDAT)</v>
+    <v>1609</v>
+    <v>3277</v>
+  </rv>
+  <rv s="2">
+    <v>28</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a233ur&amp;q=ARCX%3aSLV&amp;form=skydnc</v>
@@ -1205,7 +2057,7 @@
     <v>18.059999999999999</v>
     <v>ETF</v>
     <v>44028.787361111114</v>
-    <v>18</v>
+    <v>30</v>
     <v>17.809999999999999</v>
     <v>8883456887.2099991</v>
     <v>IShares:Silver Trust</v>
@@ -1218,7 +2070,7 @@
     <v>28799866</v>
   </rv>
   <rv s="2">
-    <v>19</v>
+    <v>31</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a235f2&amp;q=XNAS%3aSMH&amp;form=skydnc</v>
@@ -1249,7 +2101,7 @@
     <v>159.6532</v>
     <v>ETF</v>
     <v>44028.788197916409</v>
-    <v>21</v>
+    <v>33</v>
     <v>157.1</v>
     <v>2175612032.5799999</v>
     <v>VnEck Vctrs:Semicnd ETF</v>
@@ -1262,7 +2114,56 @@
     <v>3655494</v>
   </rv>
   <rv s="2">
-    <v>22</v>
+    <v>34</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=bqf977&amp;q=ARCX%3aIHAK&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="6">
+    <v>en-US</v>
+    <v>bqf977</v>
+    <v>268435456</v>
+    <v>268435459</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>14</v>
+    <v>iShares:Cybersec &amp; Tech (ARCX:IHAK)</v>
+    <v>2</v>
+    <v>15</v>
+    <v>Finance</v>
+    <v>10</v>
+    <v>33.1601</v>
+    <v>20.36</v>
+    <v>0.47</v>
+    <v>2.8029999999999998E-4</v>
+    <v>1.4855E-2</v>
+    <v>8.9999999999999993E-3</v>
+    <v>USD</v>
+    <v>NYSE Arca</v>
+    <v>ARCX</v>
+    <v>32.15</v>
+    <v>ETF</v>
+    <v>44029.840277777781</v>
+    <v>36</v>
+    <v>31.5883</v>
+    <v>73096955</v>
+    <v>iShares:Cybersec &amp; Tech</v>
+    <v>31.82</v>
+    <v>31.64</v>
+    <v>32.11</v>
+    <v>32.119</v>
+    <v>IHAK</v>
+    <v>iShares:Cybersec &amp; Tech (ARCX:IHAK)</v>
+    <v>41403</v>
+    <v>61294</v>
+  </rv>
+  <rv s="2">
+    <v>37</v>
+  </rv>
+  <rv s="7">
+    <v>12</v>
+    <v>Expense ratio</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1tf77&amp;q=ARCX%3aFTEC&amp;form=skydnc</v>
@@ -1293,7 +2194,7 @@
     <v>83.958299999999994</v>
     <v>ETF</v>
     <v>44028.788229166668</v>
-    <v>24</v>
+    <v>40</v>
     <v>83.02</v>
     <v>4067341583</v>
     <v>Fidelity MSCI Info Tech</v>
@@ -1306,7 +2207,7 @@
     <v>547092</v>
   </rv>
   <rv s="2">
-    <v>25</v>
+    <v>41</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a267zr&amp;q=ARCX%3aXLK&amp;form=skydnc</v>
@@ -1337,7 +2238,7 @@
     <v>106.79</v>
     <v>ETF</v>
     <v>44028.788055960154</v>
-    <v>27</v>
+    <v>43</v>
     <v>105.4906</v>
     <v>31691450861.5</v>
     <v>Sel Sector:Tech SPDR</v>
@@ -1350,7 +2251,7 @@
     <v>11759587</v>
   </rv>
   <rv s="2">
-    <v>28</v>
+    <v>44</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a25bf2&amp;q=ARCX%3aVGT&amp;form=skydnc</v>
@@ -1381,7 +2282,7 @@
     <v>284.5</v>
     <v>ETF</v>
     <v>44028.78806712963</v>
-    <v>30</v>
+    <v>46</v>
     <v>280.98</v>
     <v>32755672567</v>
     <v>Vanguard InfoTch Idx;ETF</v>
@@ -1394,7 +2295,7 @@
     <v>818721</v>
   </rv>
   <rv s="2">
-    <v>31</v>
+    <v>47</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a26aur&amp;q=ARCX%3aXSD&amp;form=skydnc</v>
@@ -1425,7 +2326,7 @@
     <v>117.182</v>
     <v>ETF</v>
     <v>44028.786807707809</v>
-    <v>33</v>
+    <v>49</v>
     <v>116.125</v>
     <v>498411802.41000003</v>
     <v>SPDR S&amp;P Semiconductor</v>
@@ -1438,7 +2339,7 @@
     <v>56644</v>
   </rv>
   <rv s="2">
-    <v>34</v>
+    <v>50</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1nq3m&amp;q=BATS%3aARKG&amp;form=skydnc</v>
@@ -1469,7 +2370,7 @@
     <v>57.155000000000001</v>
     <v>ETF</v>
     <v>44028.788275462961</v>
-    <v>36</v>
+    <v>52</v>
     <v>55.72</v>
     <v>1323941282.4159999</v>
     <v>ARK Genomic Revolution</v>
@@ -1482,7 +2383,54 @@
     <v>744478</v>
   </rv>
   <rv s="2">
-    <v>37</v>
+    <v>53</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a267a2&amp;q=ARCX%3aXITK&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="3">
+    <v>en-US</v>
+    <v>a267a2</v>
+    <v>268435456</v>
+    <v>268435459</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>5</v>
+    <v>SPDR FS Innovative Tech (ARCX:XITK)</v>
+    <v>2</v>
+    <v>6</v>
+    <v>Finance</v>
+    <v>10</v>
+    <v>159.9</v>
+    <v>81.5</v>
+    <v>1.1793</v>
+    <v>1.0039</v>
+    <v>-5.9614E-2</v>
+    <v>6.6839999999999998E-3</v>
+    <v>-9.0138999999999996</v>
+    <v>USD</v>
+    <v>NYSE Arca</v>
+    <v>ARCX</v>
+    <v>4.5000000000000005E-3</v>
+    <v>151.38</v>
+    <v>ETF</v>
+    <v>44029.925118680469</v>
+    <v>55</v>
+    <v>149.43700000000001</v>
+    <v>145300746.91</v>
+    <v>SPDR FS Innovative Tech</v>
+    <v>150.19999999999999</v>
+    <v>150.19999999999999</v>
+    <v>151.2039</v>
+    <v>142.19</v>
+    <v>XITK</v>
+    <v>SPDR FS Innovative Tech (ARCX:XITK)</v>
+    <v>19139</v>
+    <v>35048</v>
+  </rv>
+  <rv s="2">
+    <v>56</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a25hm7&amp;q=ARCX%3aVOO&amp;form=skydnc</v>
@@ -1513,7 +2461,7 @@
     <v>294.61</v>
     <v>ETF</v>
     <v>44028.788099930469</v>
-    <v>39</v>
+    <v>58</v>
     <v>293.14999999999998</v>
     <v>147733916353</v>
     <v>Vanguard 500 Idx;ETF</v>
@@ -1526,7 +2474,7 @@
     <v>4072396</v>
   </rv>
   <rv s="2">
-    <v>40</v>
+    <v>59</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1vwrw&amp;q=ARCX%3aIVV&amp;form=skydnc</v>
@@ -1557,7 +2505,7 @@
     <v>321.95999999999998</v>
     <v>ETF</v>
     <v>44028.788668981484</v>
-    <v>42</v>
+    <v>61</v>
     <v>320.38</v>
     <v>194759762074.48001</v>
     <v>iShares:Core S&amp;P 500</v>
@@ -1570,7 +2518,7 @@
     <v>4774649</v>
   </rv>
   <rv s="2">
-    <v>43</v>
+    <v>62</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a25lrw&amp;q=ARCX%3aVTI&amp;form=skydnc</v>
@@ -1601,7 +2549,7 @@
     <v>162.80000000000001</v>
     <v>ETF</v>
     <v>44028.82953703704</v>
-    <v>45</v>
+    <v>64</v>
     <v>161.68</v>
     <v>143380330706</v>
     <v>Vanguard TSM Idx;ETF</v>
@@ -1614,7 +2562,7 @@
     <v>3950169</v>
   </rv>
   <rv s="2">
-    <v>46</v>
+    <v>65</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a232h7&amp;q=XNAS%3aSKYY&amp;form=skydnc</v>
@@ -1645,7 +2593,7 @@
     <v>74.359899999999996</v>
     <v>ETF</v>
     <v>44028.788113610935</v>
-    <v>48</v>
+    <v>67</v>
     <v>73.31</v>
     <v>4448408839.3800001</v>
     <v>Frst Tr II:CloudComp</v>
@@ -1658,25 +2606,72 @@
     <v>571302</v>
   </rv>
   <rv s="2">
-    <v>49</v>
+    <v>68</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1nqf2&amp;q=ARCX%3aARKW&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="3">
+    <v>en-US</v>
+    <v>a1nqf2</v>
+    <v>268435456</v>
+    <v>268435459</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>5</v>
+    <v>ARK Next Gen Int ETF (ARCX:ARKW)</v>
+    <v>2</v>
+    <v>6</v>
+    <v>Finance</v>
+    <v>10</v>
+    <v>100.91</v>
+    <v>40.494999999999997</v>
+    <v>1.194</v>
+    <v>0.67</v>
+    <v>-4.2400000000000001E-4</v>
+    <v>7.1530000000000005E-3</v>
+    <v>-0.04</v>
+    <v>USD</v>
+    <v>NYSE Arca</v>
+    <v>ARCX</v>
+    <v>7.4999999999999997E-3</v>
+    <v>94.63</v>
+    <v>ETF</v>
+    <v>44029.994007337496</v>
+    <v>70</v>
+    <v>93.270099999999999</v>
+    <v>1305706301.7460001</v>
+    <v>ARK Next Gen Int ETF</v>
+    <v>94.02</v>
+    <v>93.67</v>
+    <v>94.34</v>
+    <v>94.3</v>
+    <v>ARKW</v>
+    <v>ARK Next Gen Int ETF (ARCX:ARKW)</v>
+    <v>351670</v>
+    <v>729292</v>
+  </rv>
+  <rv s="2">
+    <v>71</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=bprn6h&amp;q=XNAS%3aCLOU&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="3">
+  <rv s="4">
     <v>en-US</v>
     <v>bprn6h</v>
     <v>268435456</v>
     <v>268435459</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>5</v>
+    <v>8</v>
     <v>Glbl X Cloud Computing (XNAS:CLOU)</v>
     <v>2</v>
-    <v>6</v>
+    <v>9</v>
     <v>Finance</v>
-    <v>7</v>
+    <v>16</v>
     <v>23.19</v>
     <v>12.36</v>
     <v>-0.3</v>
@@ -1688,7 +2683,7 @@
     <v>21.7</v>
     <v>ETF</v>
     <v>44028.777220532029</v>
-    <v>51</v>
+    <v>73</v>
     <v>21.25</v>
     <v>806018350.36000001</v>
     <v>Glbl X Cloud Computing</v>
@@ -1701,11 +2696,7 @@
     <v>1112241</v>
   </rv>
   <rv s="2">
-    <v>52</v>
-  </rv>
-  <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=a1nqf2&amp;q=ARCX%3aARKW&amp;form=skydnc</v>
-    <v>Learn more on Bing</v>
+    <v>74</v>
   </rv>
   <rv s="1">
     <v>en-US</v>
@@ -1732,7 +2723,7 @@
     <v>94.349900000000005</v>
     <v>ETF</v>
     <v>44028.787849628905</v>
-    <v>54</v>
+    <v>70</v>
     <v>92.34</v>
     <v>1305706301.7460001</v>
     <v>ARK Next Gen Int ETF</v>
@@ -1745,25 +2736,25 @@
     <v>729648</v>
   </rv>
   <rv s="2">
-    <v>55</v>
+    <v>76</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=brfebh&amp;q=XNAS%3aWCLD&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="4">
+  <rv s="8">
     <v>en-US</v>
     <v>brfebh</v>
     <v>268435456</v>
     <v>268435459</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>8</v>
+    <v>17</v>
     <v>WisdomTree:Cloud Cmptng (XNAS:WCLD)</v>
     <v>2</v>
-    <v>9</v>
+    <v>18</v>
     <v>Finance</v>
-    <v>7</v>
+    <v>16</v>
     <v>42.77</v>
     <v>18.989999999999998</v>
     <v>-0.54</v>
@@ -1774,7 +2765,7 @@
     <v>38.99</v>
     <v>ETF</v>
     <v>44028.777310948441</v>
-    <v>57</v>
+    <v>78</v>
     <v>37.93</v>
     <v>418823144.10000002</v>
     <v>WisdomTree:Cloud Cmptng</v>
@@ -1787,29 +2778,25 @@
     <v>826931</v>
   </rv>
   <rv s="2">
-    <v>58</v>
-  </rv>
-  <rv s="5">
-    <v>12</v>
-    <v>Expense ratio</v>
+    <v>79</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a22m27&amp;q=ARCX%3aSCHD&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="6">
+  <rv s="3">
     <v>en-US</v>
     <v>a22m27</v>
     <v>268435456</v>
     <v>268435459</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>10</v>
+    <v>5</v>
     <v>Schwab Str:US Div Eq ETF (ARCX:SCHD)</v>
     <v>2</v>
-    <v>11</v>
+    <v>6</v>
     <v>Finance</v>
-    <v>12</v>
+    <v>10</v>
     <v>59.56</v>
     <v>38.825000000000003</v>
     <v>0.91039999999999999</v>
@@ -1824,7 +2811,7 @@
     <v>53.71</v>
     <v>ETF</v>
     <v>44028.8628025</v>
-    <v>61</v>
+    <v>81</v>
     <v>52.9</v>
     <v>11125665085.860001</v>
     <v>Schwab Str:US Div Eq ETF</v>
@@ -1838,25 +2825,25 @@
     <v>2108831</v>
   </rv>
   <rv s="2">
-    <v>62</v>
+    <v>82</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a25o5r&amp;q=ARCX%3aVYM&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="6">
+  <rv s="3">
     <v>en-US</v>
     <v>a25o5r</v>
     <v>268435456</v>
     <v>268435459</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>10</v>
+    <v>5</v>
     <v>Vanguard Hi Dv Yld;ETF (ARCX:VYM)</v>
     <v>2</v>
-    <v>11</v>
+    <v>6</v>
     <v>Finance</v>
-    <v>12</v>
+    <v>10</v>
     <v>94.86</v>
     <v>60.07</v>
     <v>0.88419999999999999</v>
@@ -1871,7 +2858,7 @@
     <v>81.650000000000006</v>
     <v>ETF</v>
     <v>44028.883526654688</v>
-    <v>64</v>
+    <v>84</v>
     <v>80.709999999999994</v>
     <v>25574121725</v>
     <v>Vanguard Hi Dv Yld;ETF</v>
@@ -1885,7 +2872,7 @@
     <v>1851464</v>
   </rv>
   <rv s="2">
-    <v>65</v>
+    <v>85</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1zgdm&amp;q=ARCX%3aPALL&amp;form=skydnc</v>
@@ -1916,7 +2903,7 @@
     <v>191.898</v>
     <v>ETF</v>
     <v>44028.78638888889</v>
-    <v>67</v>
+    <v>87</v>
     <v>186.5</v>
     <v>263816104.05000001</v>
     <v>Aberdeen:SP Palladium</v>
@@ -1929,13 +2916,1663 @@
     <v>25029</v>
   </rv>
   <rv s="2">
-    <v>68</v>
+    <v>88</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a267oc&amp;q=ARCX%3aXLE&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="3">
+    <v>en-US</v>
+    <v>a267oc</v>
+    <v>268435456</v>
+    <v>268435459</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>5</v>
+    <v>Sel Sector:Energy SPDR (ARCX:XLE)</v>
+    <v>2</v>
+    <v>6</v>
+    <v>Finance</v>
+    <v>10</v>
+    <v>62.0443</v>
+    <v>22.88</v>
+    <v>1.1377999999999999</v>
+    <v>-0.52</v>
+    <v>2.7260000000000001E-4</v>
+    <v>-1.3975E-2</v>
+    <v>0.01</v>
+    <v>USD</v>
+    <v>NYSE Arca</v>
+    <v>ARCX</v>
+    <v>1.4000000000000002E-3</v>
+    <v>37.74</v>
+    <v>ETF</v>
+    <v>44029.997933633596</v>
+    <v>90</v>
+    <v>36.53</v>
+    <v>10403779192.91</v>
+    <v>Sel Sector:Energy SPDR</v>
+    <v>37.33</v>
+    <v>37.21</v>
+    <v>36.69</v>
+    <v>36.700000000000003</v>
+    <v>XLE</v>
+    <v>Sel Sector:Energy SPDR (ARCX:XLE)</v>
+    <v>17716903</v>
+    <v>26838527</v>
+  </rv>
+  <rv s="2">
+    <v>91</v>
+  </rv>
+  <rv s="0">
+    <v>https://creativecommons.org/licenses/by-sa/4.0</v>
+    <v>CC BY-SA 4.0</v>
+  </rv>
+  <rv s="0">
+    <v>http://en.wikipedia.org/wiki/Wells_Fargo</v>
+    <v>Wikipedia</v>
+  </rv>
+  <rv s="9">
+    <v>93</v>
+    <v>94</v>
+  </rv>
+  <rv s="10">
+    <v>24</v>
+    <v>https://www.bing.com/th?id=AMMS_97bd8dad8c0360a49d8c3a8c9f408be5&amp;qlt=95</v>
+    <v>95</v>
+    <v>https://www.bing.com/images/search?form=xlimg&amp;q=wells+fargo</v>
+    <v>Image of WELLS FARGO &amp; COMPANY</v>
+    <v/>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a25tgh&amp;q=XNYS%3aWFC&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="11">
+    <v>en-US</v>
+    <v>a25tgh</v>
+    <v>268435456</v>
+    <v>268435457</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>19</v>
+    <v>WELLS FARGO &amp; COMPANY (XNYS:WFC)</v>
+    <v>21</v>
+    <v>22</v>
+    <v>Finance</v>
+    <v>23</v>
+    <v>54.75</v>
+    <v>22</v>
+    <v>1.1341000000000001</v>
+    <v>-0.51</v>
+    <v>4.0080000000000003E-3</v>
+    <v>-2.0031E-2</v>
+    <v>0.1</v>
+    <v>USD</v>
+    <v>Wells Fargo &amp; Company is a bank holding company. The Company is a diversified financial services company. It has three operating segments: Community Banking, Wholesale Banking, and Wealth and Investment Management. The Company offers its services under three categories: personal, small business and commercial. It provides retail, commercial and corporate banking services through banking locations and offices, the Internet and other distribution channels to individuals, businesses and institutions in all 50 states, the District of Columbia and in other countries. It provides other financial services through its subsidiaries engaged in various businesses, including wholesale banking, mortgage banking, consumer finance, equipment leasing, agricultural finance, commercial finance, securities brokerage and investment banking, computer and data processing services, investment advisory services, mortgage-backed securities servicing and venture capital investment.</v>
+    <v>262800</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>420 Montgomery St, SAN FRANCISCO, CA, 94104-1207 US</v>
+    <v>25.64</v>
+    <v>96</v>
+    <v>Banking Services</v>
+    <v>Stock</v>
+    <v>44029.999919837501</v>
+    <v>97</v>
+    <v>24.86</v>
+    <v>102783000000</v>
+    <v>WELLS FARGO &amp; COMPANY</v>
+    <v>WELLS FARGO &amp; COMPANY</v>
+    <v>25.49</v>
+    <v>29.215699999999998</v>
+    <v>25.46</v>
+    <v>24.95</v>
+    <v>25.05</v>
+    <v>4119559000</v>
+    <v>WFC</v>
+    <v>WELLS FARGO &amp; COMPANY (XNYS:WFC)</v>
+    <v>39642338</v>
+    <v>51935520</v>
+    <v>1929</v>
+  </rv>
+  <rv s="2">
+    <v>98</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1qa5r&amp;q=XNYS%3aCQP&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="12">
+    <v>en-US</v>
+    <v>a1qa5r</v>
+    <v>268435456</v>
+    <v>268435459</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>25</v>
+    <v>CHENIERE ENERGY PARTNERS UNT (XNYS:CQP)</v>
+    <v>2</v>
+    <v>26</v>
+    <v>Finance</v>
+    <v>10</v>
+    <v>49.3</v>
+    <v>17.75</v>
+    <v>-0.17</v>
+    <v>1.3115000000000002E-2</v>
+    <v>-5.0419999999999996E-3</v>
+    <v>0.44</v>
+    <v>USD</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>34.1</v>
+    <v>ETF</v>
+    <v>44029.899439548441</v>
+    <v>100</v>
+    <v>33.409999999999997</v>
+    <v>CHENIERE ENERGY PARTNERS UNT</v>
+    <v>33.630000000000003</v>
+    <v>33.72</v>
+    <v>33.549999999999997</v>
+    <v>33.99</v>
+    <v>CQP</v>
+    <v>CHENIERE ENERGY PARTNERS UNT (XNYS:CQP)</v>
+    <v>163400</v>
+    <v>394316</v>
+  </rv>
+  <rv s="2">
+    <v>101</v>
+  </rv>
+  <rv s="0">
+    <v>http://en.wikipedia.org/wiki/Public_domain</v>
+    <v>Public domain</v>
+  </rv>
+  <rv s="0">
+    <v>http://en.wikipedia.org/wiki/AT&amp;T</v>
+    <v>Wikipedia</v>
+  </rv>
+  <rv s="9">
+    <v>103</v>
+    <v>104</v>
+  </rv>
+  <rv s="10">
+    <v>24</v>
+    <v>https://www.bing.com/th?id=AMMS_25dbea32b4516ce1661da911a36f7ad2&amp;qlt=95</v>
+    <v>105</v>
+    <v>https://www.bing.com/images/search?form=xlimg&amp;q=at%26t</v>
+    <v>Image of AT&amp;T INC.</v>
+    <v/>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a23www&amp;q=XNYS%3aT&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="11">
+    <v>en-US</v>
+    <v>a23www</v>
+    <v>268435456</v>
+    <v>268435457</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>19</v>
+    <v>AT&amp;T INC. (XNYS:T)</v>
+    <v>21</v>
+    <v>22</v>
+    <v>Finance</v>
+    <v>23</v>
+    <v>39.700000000000003</v>
+    <v>26.08</v>
+    <v>0.67520000000000002</v>
+    <v>-0.14000000000000001</v>
+    <v>-6.6120000000000003E-4</v>
+    <v>-4.607E-3</v>
+    <v>-0.02</v>
+    <v>USD</v>
+    <v>AT&amp;T Inc. is a holding company. The Company is a provider of telecommunications, media and technology services globally. The Company operates through four segments: Communication segment, WarnerMedia segment, Latin America segment and Xandr segment. The Communications segment provides wireless and wireline telecom, video and broadband services to consumers.The business units of the Communication segment includes Mobility, Entertainment Group and Business Wireline. The WarnerMedia segment develops, produces and distributes feature films, television, gaming and other content over various physical and digital formats. The business units of the WarnerMedia segment includes Turner, Home Box Office and Warner Bros. Latin America segment provides entertainment services in Latin America and wireless services in Mexico. Viro and Mexico are the business units of the Latin America segment. The Xandr segment provides advertising services.</v>
+    <v>244000</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>208 S Akard St, DALLAS, TX, 75202-4206 US</v>
+    <v>30.53</v>
+    <v>106</v>
+    <v>Telecommunications Services</v>
+    <v>Stock</v>
+    <v>44029.999922314062</v>
+    <v>107</v>
+    <v>30.184100000000001</v>
+    <v>215531300000</v>
+    <v>AT&amp;T INC.</v>
+    <v>AT&amp;T INC.</v>
+    <v>30.48</v>
+    <v>15.4605</v>
+    <v>30.39</v>
+    <v>30.25</v>
+    <v>30.23</v>
+    <v>7125000000</v>
+    <v>T</v>
+    <v>AT&amp;T INC. (XNYS:T)</v>
+    <v>23156728</v>
+    <v>40481607</v>
+    <v>1983</v>
+  </rv>
+  <rv s="2">
+    <v>108</v>
+  </rv>
+  <rv s="0">
+    <v>http://en.wikipedia.org/wiki/The_Coca-Cola_Company</v>
+    <v>Wikipedia</v>
+  </rv>
+  <rv s="9">
+    <v>103</v>
+    <v>110</v>
+  </rv>
+  <rv s="10">
+    <v>24</v>
+    <v>https://www.bing.com/th?id=AMMS_c244bad2af0aa117b9f67bcd11fd44e9&amp;qlt=95</v>
+    <v>111</v>
+    <v>https://www.bing.com/images/search?form=xlimg&amp;q=the+coca-cola+company</v>
+    <v>Image of THE COCA-COLA COMPANY</v>
+    <v/>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1wljc&amp;q=XNYS%3aKO&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="11">
+    <v>en-US</v>
+    <v>a1wljc</v>
+    <v>268435456</v>
+    <v>268435457</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>19</v>
+    <v>THE COCA-COLA COMPANY (XNYS:KO)</v>
+    <v>21</v>
+    <v>22</v>
+    <v>Finance</v>
+    <v>23</v>
+    <v>60.13</v>
+    <v>36.270000000000003</v>
+    <v>0.54800000000000004</v>
+    <v>0.67</v>
+    <v>1.495E-3</v>
+    <v>1.4518E-2</v>
+    <v>7.0000000000000007E-2</v>
+    <v>USD</v>
+    <v>The Coca-Cola Company is a beverage company. The Company owns or licenses and markets non-alcoholic beverage brands, primarily sparkling beverages and a range of still beverages, such as waters, flavored waters and enhanced waters, juices and juice drinks, ready-to-drink teas and coffees, sports drinks, dairy and energy drinks. The Company's segments include Europe, Middle East and Africa; Latin America; North America; Asia Pacific; Bottling Investments, and Corporate. The Company owns and markets a range of non-alcoholic sparkling beverage brands, including Coca-Cola, Diet Coke, Fanta and Sprite. The Company owns or licenses and markets over 500 non-alcoholic beverage brands. The Company markets, manufactures and sells beverage concentrates, which are referred to as beverage bases, and syrups, including fountain syrups, and finished sparkling and still beverages.</v>
+    <v>86200</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>1 Coca Cola Plz NW, ATLANTA, GA, 30313-2420 US</v>
+    <v>46.91</v>
+    <v>112</v>
+    <v>Beverages</v>
+    <v>Stock</v>
+    <v>44029.999546503903</v>
+    <v>113</v>
+    <v>46.125</v>
+    <v>201086800000</v>
+    <v>THE COCA-COLA COMPANY</v>
+    <v>THE COCA-COLA COMPANY</v>
+    <v>46.47</v>
+    <v>19.895299999999999</v>
+    <v>46.15</v>
+    <v>46.82</v>
+    <v>46.89</v>
+    <v>4294891000</v>
+    <v>KO</v>
+    <v>THE COCA-COLA COMPANY (XNYS:KO)</v>
+    <v>13906056</v>
+    <v>17560368</v>
+    <v>1919</v>
+  </rv>
+  <rv s="2">
+    <v>114</v>
+  </rv>
+  <rv s="0">
+    <v>http://en.wikipedia.org/wiki/Bank_of_America</v>
+    <v>Wikipedia</v>
+  </rv>
+  <rv s="9">
+    <v>103</v>
+    <v>116</v>
+  </rv>
+  <rv s="10">
+    <v>24</v>
+    <v>https://www.bing.com/th?id=AMMS_0720042c42661f705c810fedd777349a&amp;qlt=95</v>
+    <v>117</v>
+    <v>https://www.bing.com/images/search?form=xlimg&amp;q=bank+of+america</v>
+    <v>Image of BANK OF AMERICA CORPORATION</v>
+    <v/>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1o4sm&amp;q=XNYS%3aBAC&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="11">
+    <v>en-US</v>
+    <v>a1o4sm</v>
+    <v>268435456</v>
+    <v>268435457</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>19</v>
+    <v>BANK OF AMERICA CORPORATION (XNYS:BAC)</v>
+    <v>21</v>
+    <v>22</v>
+    <v>Finance</v>
+    <v>23</v>
+    <v>35.72</v>
+    <v>17.95</v>
+    <v>1.5668</v>
+    <v>-0.71</v>
+    <v>1.2920000000000002E-3</v>
+    <v>-2.9670000000000002E-2</v>
+    <v>0.03</v>
+    <v>USD</v>
+    <v>Bank of America Corporation is a bank holding company and a financial holding company. The Company is a financial institution, serving individual consumers and others with a range of banking, investing, asset management and other financial and risk management products and services. The Company, through its banking and various non-bank subsidiaries, throughout the United States and in international markets, provides a range of banking and non-bank financial services and products through four business segments: Consumer Banking, which comprises Deposits and Consumer Lending; Global Wealth &amp; Investment Management, which consists of two primary businesses: Merrill Lynch Global Wealth Management and U.S. Trust, Bank of America Private Wealth Management; Global Banking, which provides a range of lending-related products and services; Global Markets, which offers sales and trading services, and All Other, which consists of equity investments, residual expense allocations and other.</v>
+    <v>209000</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>Bank of America Corporate Center, 100 N Tryon St, CHARLOTTE, NC, 28255-0001 US</v>
+    <v>23.975000000000001</v>
+    <v>118</v>
+    <v>Banking Services</v>
+    <v>Stock</v>
+    <v>44029.999928310157</v>
+    <v>119</v>
+    <v>23.2</v>
+    <v>201180000000</v>
+    <v>BANK OF AMERICA CORPORATION</v>
+    <v>BANK OF AMERICA CORPORATION</v>
+    <v>23.88</v>
+    <v>11.4937</v>
+    <v>23.93</v>
+    <v>23.22</v>
+    <v>23.25</v>
+    <v>8664082000</v>
+    <v>BAC</v>
+    <v>BANK OF AMERICA CORPORATION (XNYS:BAC)</v>
+    <v>66920234</v>
+    <v>73919920</v>
+    <v>1998</v>
+  </rv>
+  <rv s="2">
+    <v>120</v>
+  </rv>
+  <rv s="0">
+    <v>http://en.wikipedia.org/wiki/JPMorgan_Chase</v>
+    <v>Wikipedia</v>
+  </rv>
+  <rv s="9">
+    <v>103</v>
+    <v>122</v>
+  </rv>
+  <rv s="10">
+    <v>24</v>
+    <v>https://www.bing.com/th?id=AMMS_06392bb84e5fdc62d2356a2306f4ae1e&amp;qlt=95</v>
+    <v>123</v>
+    <v>https://www.bing.com/images/search?form=xlimg&amp;q=jpmorgan+chase</v>
+    <v>Image of JPMORGAN CHASE &amp; CO.</v>
+    <v/>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1waa2&amp;q=XNYS%3aJPM&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="11">
+    <v>en-US</v>
+    <v>a1waa2</v>
+    <v>268435456</v>
+    <v>268435457</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>19</v>
+    <v>JPMORGAN CHASE &amp; CO. (XNYS:JPM)</v>
+    <v>21</v>
+    <v>22</v>
+    <v>Finance</v>
+    <v>23</v>
+    <v>141.1</v>
+    <v>76.91</v>
+    <v>1.1706000000000001</v>
+    <v>-1.85</v>
+    <v>9.168999999999999E-4</v>
+    <v>-1.8498000000000001E-2</v>
+    <v>0.09</v>
+    <v>USD</v>
+    <v>JPMorgan Chase &amp; Co. is a financial holding company. The Company is engaged in investment banking, financial services. It operates in four segments, as well as a Corporate segment. Its segments are Consumer &amp; Community Banking, Corporate &amp; Investment Bank, Commercial Banking and Asset Management. The Consumer &amp; Community Banking segment offers services to consumers and businesses through bank branches, automatic teller machines (ATMs), online, mobile and telephone banking. The Corporate &amp; Investment Bank segment, comprising Banking and Markets &amp; Investor Services, offers investment banking, market-making, prime brokerage, and treasury and securities products and services to corporations, investors, financial institutions, and government and municipal entities. The Commercial Banking segment provides financial solutions, including lending, treasury services, investment banking and asset management. The Asset Management segment comprises investment and wealth management.</v>
+    <v>256720</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>383 Madison Ave, NEW YORK, NY, 10017-3217 US</v>
+    <v>100.08</v>
+    <v>124</v>
+    <v>Banking Services</v>
+    <v>Stock</v>
+    <v>44029.998655242969</v>
+    <v>125</v>
+    <v>98.14</v>
+    <v>299095800000</v>
+    <v>JPMORGAN CHASE &amp; CO.</v>
+    <v>JPMORGAN CHASE &amp; CO.</v>
+    <v>100</v>
+    <v>13.4818</v>
+    <v>100.01</v>
+    <v>98.16</v>
+    <v>98.25</v>
+    <v>3047023000</v>
+    <v>JPM</v>
+    <v>JPMORGAN CHASE &amp; CO. (XNYS:JPM)</v>
+    <v>16161547</v>
+    <v>24654724</v>
+    <v>1968</v>
+  </rv>
+  <rv s="2">
+    <v>126</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1zez2&amp;q=XNYS%3aOXY&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="13">
+    <v>en-US</v>
+    <v>a1zez2</v>
+    <v>268435456</v>
+    <v>268435457</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>27</v>
+    <v>OCCIDENTAL PETROLEUM CORPORATION (XNYS:OXY)</v>
+    <v>28</v>
+    <v>29</v>
+    <v>Finance</v>
+    <v>23</v>
+    <v>54.05</v>
+    <v>9</v>
+    <v>1.9438</v>
+    <v>-0.73</v>
+    <v>5.5279999999999999E-3</v>
+    <v>-4.2915999999999996E-2</v>
+    <v>0.09</v>
+    <v>USD</v>
+    <v>Occidental Petroleum Corp is an international oil and gas exploration and production company. The Company has operations in the United States, Middle East and Latin America. It operates through three segments: Oil and Gas, Chemical (OxyChem) and Midstream and Marketing. Its Oil and Gas segment explores for, develops and produces oil and condensate, natural gas liquids (NGLs) and natural gas. Its OxyChem segment primarily manufactures and markets basic chemicals and vinyls. OxyChem also manufactures polyvinyl chloride (PVC) resins, chlorine and caustic soda and has manufacturing facilities in the United States, Canada and Latin America. Midstream and Marketing segment purchases, markets, gathers, processes, transports and stores oil, condensate, NGL, natural gas, carbon dioxide and power. Through its subsidiary, Oxy Low Carbon Ventures, LLC it develops carbon capture, utilization and storage projects that source anthropogenic carbon dioxide.</v>
+    <v>14400</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>5 Greenway Plz Ste 110, HOUSTON, TX, 77046-0521 US</v>
+    <v>17.350000000000001</v>
+    <v>Oil &amp; Gas</v>
+    <v>Stock</v>
+    <v>44029.999805832813</v>
+    <v>128</v>
+    <v>16.16</v>
+    <v>14948330000</v>
+    <v>OCCIDENTAL PETROLEUM CORPORATION</v>
+    <v>OCCIDENTAL PETROLEUM CORPORATION</v>
+    <v>17.04</v>
+    <v>0</v>
+    <v>17.010000000000002</v>
+    <v>16.28</v>
+    <v>16.37</v>
+    <v>918202300</v>
+    <v>OXY</v>
+    <v>OCCIDENTAL PETROLEUM CORPORATION (XNYS:OXY)</v>
+    <v>21090995</v>
+    <v>32076511</v>
+    <v>1986</v>
+  </rv>
+  <rv s="2">
+    <v>129</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1xrr7&amp;q=XNYS%3aMMP&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="12">
+    <v>en-US</v>
+    <v>a1xrr7</v>
+    <v>268435456</v>
+    <v>268435459</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>25</v>
+    <v>MAGELLAN MIDSTREAM PARTNERS UNT (XNYS:MMP)</v>
+    <v>2</v>
+    <v>26</v>
+    <v>Finance</v>
+    <v>10</v>
+    <v>67.75</v>
+    <v>22.02</v>
+    <v>-0.51</v>
+    <v>0</v>
+    <v>-1.1849E-2</v>
+    <v>0</v>
+    <v>USD</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>43.44</v>
+    <v>ETF</v>
+    <v>44029.958333344533</v>
+    <v>131</v>
+    <v>42.21</v>
+    <v>MAGELLAN MIDSTREAM PARTNERS UNT</v>
+    <v>43</v>
+    <v>43.04</v>
+    <v>42.53</v>
+    <v>42.53</v>
+    <v>MMP</v>
+    <v>MAGELLAN MIDSTREAM PARTNERS UNT (XNYS:MMP)</v>
+    <v>639391</v>
+    <v>1448004</v>
+  </rv>
+  <rv s="2">
+    <v>132</v>
+  </rv>
+  <rv s="0">
+    <v>http://ja.wikipedia.org/wiki/コノコフィリップス</v>
+    <v>Wikipedia</v>
+  </rv>
+  <rv s="9">
+    <v>103</v>
+    <v>134</v>
+  </rv>
+  <rv s="10">
+    <v>24</v>
+    <v>https://www.bing.com/th?id=AMMS_328c42228a7a7c01496b8aa73b7a09ba&amp;qlt=95</v>
+    <v>135</v>
+    <v>https://www.bing.com/images/search?form=xlimg&amp;q=conocophillips</v>
+    <v>Image of CONOCOPHILLIPS</v>
+    <v/>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1q5nm&amp;q=XNYS%3aCOP&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="11">
+    <v>en-US</v>
+    <v>a1q5nm</v>
+    <v>268435456</v>
+    <v>268435457</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>19</v>
+    <v>CONOCOPHILLIPS (XNYS:COP)</v>
+    <v>21</v>
+    <v>22</v>
+    <v>Finance</v>
+    <v>23</v>
+    <v>67.13</v>
+    <v>20.84</v>
+    <v>1.6801999999999999</v>
+    <v>-1.63</v>
+    <v>3.754E-3</v>
+    <v>-3.9191999999999998E-2</v>
+    <v>0.15</v>
+    <v>USD</v>
+    <v>ConocoPhillips is an independent exploration and production company. The Company explores for, produces, transports and markets crude oil, bitumen, natural gas, liquefied natural gas (LNG) and natural gas liquids. The Company operates through six segments: Alaska, Lower 48, Canada, Europe and North Africa, Asia Pacific and Middle East, and Other International. The Alaska segment explores for, produces, transports and markets crude oil, natural gas liquids, natural gas and LNG. The Lower 48 segment consists of operations located in the United States Lower 48 states and the Gulf of Mexico. Its Canadian operations consists of oil sands developments in the Athabasca Region of northeastern Alberta. The Europe and North Africa segment consists of operations and exploration activities in Norway and Libya. The Asia Pacific and Middle East segment has exploration and production operations in China, Indonesia and Malaysia.</v>
+    <v>10400</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>925 N Eldridge Pkwy, HOUSTON, TX, 77079-2703 US</v>
+    <v>41.67</v>
+    <v>136</v>
+    <v>Oil &amp; Gas</v>
+    <v>Stock</v>
+    <v>44029.982499999998</v>
+    <v>137</v>
+    <v>39.774999999999999</v>
+    <v>42854110000</v>
+    <v>CONOCOPHILLIPS</v>
+    <v>CONOCOPHILLIPS</v>
+    <v>41.35</v>
+    <v>12.8935</v>
+    <v>41.59</v>
+    <v>39.96</v>
+    <v>40.11</v>
+    <v>1072425000</v>
+    <v>COP</v>
+    <v>CONOCOPHILLIPS (XNYS:COP)</v>
+    <v>6701032</v>
+    <v>6783769</v>
+    <v>2001</v>
+  </rv>
+  <rv s="2">
+    <v>138</v>
+  </rv>
+  <rv s="0">
+    <v>http://creativecommons.org/licenses/by-sa/3.0/</v>
+    <v>CC-BY-SA-3.0</v>
+  </rv>
+  <rv s="0">
+    <v>http://sv.wikipedia.org/wiki/Shell</v>
+    <v>Wikipedia</v>
+  </rv>
+  <rv s="9">
+    <v>140</v>
+    <v>141</v>
+  </rv>
+  <rv s="10">
+    <v>24</v>
+    <v>https://www.bing.com/th?id=AMMS_982b67ee8686548274ef55ed627e1e1f&amp;qlt=95</v>
+    <v>142</v>
+    <v>https://www.bing.com/images/search?form=xlimg&amp;q=royal+dutch+shell</v>
+    <v>Image of ROYAL DUTCH SHELL PLC</v>
+    <v/>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a21t52&amp;q=XNYS%3aRDS.A&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="11">
+    <v>en-US</v>
+    <v>a21t52</v>
+    <v>268435456</v>
+    <v>268435457</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>19</v>
+    <v>ROYAL DUTCH SHELL PLC (XNYS:RDS.A)</v>
+    <v>21</v>
+    <v>22</v>
+    <v>Finance</v>
+    <v>23</v>
+    <v>64.33</v>
+    <v>21.254999999999999</v>
+    <v>0.81910000000000005</v>
+    <v>-0.56999999999999995</v>
+    <v>2.735E-3</v>
+    <v>-1.7024999999999998E-2</v>
+    <v>0.09</v>
+    <v>USD</v>
+    <v>The Royal Dutch Shell plc is a company based in the Netherlands that explores for crude oil and natural gas around the world, both in conventional fields and from sources, such as tight rock, shale and coal formations. Its segments include Integrated Gas, Upstream, Downstream and Corporate. The Integrated Gas segment is engaged in the liquefaction and transportation of gas and the conversion of natural gas to liquids to provide fuels and other products, as well as projects with an integrated activity, ranging from producing to commercializing gas. The Upstream segment includes the operations of Upstream, which is engaged in the exploration for and extraction of crude oil, natural gas and natural gas liquids, and the marketing and transportation of oil and gas, and Oil Sands, which is engaged in the extraction of bitumen from mined oil sands and conversion into synthetic crude oil. The Downstream segment is engaged in oil products and chemicals manufacturing, and marketing activities.</v>
+    <v>83000</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>Carel van Bylandtlaan 30, 'S-GRAVENHAGE, ZUID-HOLLAND, 2596 HR NL</v>
+    <v>33.479999999999997</v>
+    <v>143</v>
+    <v>Oil &amp; Gas</v>
+    <v>Stock</v>
+    <v>44029.998707024999</v>
+    <v>144</v>
+    <v>32.82</v>
+    <v>125447300000</v>
+    <v>ROYAL DUTCH SHELL PLC</v>
+    <v>ROYAL DUTCH SHELL PLC</v>
+    <v>33.31</v>
+    <v>13.7903</v>
+    <v>33.479999999999997</v>
+    <v>32.909999999999997</v>
+    <v>33</v>
+    <v>3903712000</v>
+    <v>RDS.A</v>
+    <v>ROYAL DUTCH SHELL PLC (XNYS:RDS.A)</v>
+    <v>3616908</v>
+    <v>5187931</v>
+    <v>2002</v>
+  </rv>
+  <rv s="2">
+    <v>145</v>
+  </rv>
+  <rv s="0">
+    <v>http://en.wikipedia.org/wiki/ExxonMobil</v>
+    <v>Wikipedia</v>
+  </rv>
+  <rv s="9">
+    <v>103</v>
+    <v>147</v>
+  </rv>
+  <rv s="10">
+    <v>24</v>
+    <v>https://www.bing.com/th?id=AMMS_a92fdfeb8644bf85ee9299accf15739c&amp;qlt=95</v>
+    <v>148</v>
+    <v>https://www.bing.com/images/search?form=xlimg&amp;q=exxon+mobil</v>
+    <v>Image of EXXON MOBIL CORPORATION</v>
+    <v/>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a269ec&amp;q=XNYS%3aXOM&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="11">
+    <v>en-US</v>
+    <v>a269ec</v>
+    <v>268435456</v>
+    <v>268435457</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>19</v>
+    <v>EXXON MOBIL CORPORATION (XNYS:XOM)</v>
+    <v>21</v>
+    <v>22</v>
+    <v>Finance</v>
+    <v>23</v>
+    <v>76.05</v>
+    <v>30.11</v>
+    <v>1.3268</v>
+    <v>-0.76</v>
+    <v>-9.1910000000000006E-4</v>
+    <v>-1.7163999999999999E-2</v>
+    <v>-0.04</v>
+    <v>USD</v>
+    <v>Exxon Mobil Corporation is engaged in energy business. The Company is engaged in the exploration, production, transportation and sale of crude oil and natural gas, and the manufacture, transportation and sale of petroleum products. The Company also manufactures and markets commodity petrochemicals, including olefins, aromatics, polyethylene and polypropylene plastics, and a range of specialty products. The Company's segments include Upstream, Downstream, Chemical, and Corporate and Financing. The Upstream segment operates to explore for and produce crude oil and natural gas. The Downstream operates to manufacture and sell petroleum products. The Chemical segment operates to manufacture and sell petrochemicals. The Company has exploration and development activities in projects located in the United States, Canada/South America, Europe, Africa, Asia and Australia/Oceania.</v>
+    <v>74900</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>5959 LAS COLINAS BLVD, IRVING, TX, 75039-2298 US</v>
+    <v>44.685000000000002</v>
+    <v>149</v>
+    <v>Oil &amp; Gas</v>
+    <v>Stock</v>
+    <v>44029.999985450784</v>
+    <v>150</v>
+    <v>43.39</v>
+    <v>184011800000</v>
+    <v>EXXON MOBIL CORPORATION</v>
+    <v>EXXON MOBIL CORPORATION</v>
+    <v>44.33</v>
+    <v>17.7728</v>
+    <v>44.28</v>
+    <v>43.52</v>
+    <v>43.48</v>
+    <v>4228211000</v>
+    <v>XOM</v>
+    <v>EXXON MOBIL CORPORATION (XNYS:XOM)</v>
+    <v>17965089</v>
+    <v>23213913</v>
+    <v>1882</v>
+  </rv>
+  <rv s="2">
+    <v>151</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a25e77&amp;q=XNYS%3aVLO&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="13">
+    <v>en-US</v>
+    <v>a25e77</v>
+    <v>268435456</v>
+    <v>268435457</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>27</v>
+    <v>VALERO ENERGY CORPORATION (XNYS:VLO)</v>
+    <v>28</v>
+    <v>29</v>
+    <v>Finance</v>
+    <v>23</v>
+    <v>101.99</v>
+    <v>31</v>
+    <v>1.9297</v>
+    <v>-1.1100000000000001</v>
+    <v>5.4080000000000003E-4</v>
+    <v>-1.9618E-2</v>
+    <v>0.03</v>
+    <v>USD</v>
+    <v>Valero Energy Corporation (Valero) is an independent petroleum refiner and ethanol producer. The Company's segments include refining, ethanol and Valero Energy Partners LP (VLP). The refining segment includes its refining operations and the associated marketing activities. The ethanol segment includes its ethanol operations and the associated marketing activities, and logistics assets that support its ethanol operations. The Company owns logistics assets (crude oil pipelines, refined petroleum product pipelines, terminals, tanks, marine docks, truck rack bays and other assets) that support its refining operations. Some of these assets are owned by VLP, which is a midstream master limited partnership owned by the Company. VLP's assets include crude oil and refined petroleum products pipeline and terminal systems in the United States Gulf Coast and the United States Mid-Continent regions. Its refineries produce conventional gasolines, premium gasolines and lubricants, among others.</v>
+    <v>10222</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>PO Box 696000, SAN ANTONIO, TX, 78269-6000 US</v>
+    <v>57.92</v>
+    <v>Oil &amp; Gas</v>
+    <v>Stock</v>
+    <v>44029.992756735941</v>
+    <v>153</v>
+    <v>55.323</v>
+    <v>22615040000</v>
+    <v>VALERO ENERGY CORPORATION</v>
+    <v>VALERO ENERGY CORPORATION</v>
+    <v>56.98</v>
+    <v>57.5</v>
+    <v>56.58</v>
+    <v>55.47</v>
+    <v>55.5</v>
+    <v>407698600</v>
+    <v>VLO</v>
+    <v>VALERO ENERGY CORPORATION (XNYS:VLO)</v>
+    <v>3094520</v>
+    <v>4661406</v>
+    <v>1981</v>
+  </rv>
+  <rv s="2">
+    <v>154</v>
+  </rv>
+  <rv s="0">
+    <v>http://en.wikipedia.org/wiki/Chevron_Corporation</v>
+    <v>Wikipedia</v>
+  </rv>
+  <rv s="9">
+    <v>103</v>
+    <v>156</v>
+  </rv>
+  <rv s="10">
+    <v>24</v>
+    <v>https://www.bing.com/th?id=AMMS_2d49dc55c1faf81186e7649c0d153e02&amp;qlt=95</v>
+    <v>157</v>
+    <v>https://www.bing.com/images/search?form=xlimg&amp;q=chevron+corporation</v>
+    <v>Image of CHEVRON CORPORATION</v>
+    <v/>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1qlz2&amp;q=XNYS%3aCVX&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="11">
+    <v>en-US</v>
+    <v>a1qlz2</v>
+    <v>268435456</v>
+    <v>268435457</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>19</v>
+    <v>CHEVRON CORPORATION (XNYS:CVX)</v>
+    <v>21</v>
+    <v>22</v>
+    <v>Finance</v>
+    <v>23</v>
+    <v>127</v>
+    <v>51.6</v>
+    <v>1.2897000000000001</v>
+    <v>-1.17</v>
+    <v>1.9500000000000001E-3</v>
+    <v>-1.3241000000000001E-2</v>
+    <v>0.17</v>
+    <v>USD</v>
+    <v>Chevron Corporation (Chevron) manages its investments in subsidiaries and affiliates, and provides administrative, financial, management and technology support to the United States and international subsidiaries that engage in integrated energy and chemicals operations. The Company operates through two business segments: Upstream and Downstream. Upstream operations consist primarily of exploring for, developing and producing crude oil and natural gas; liquefaction, transportation and regasification associated with liquefied natural gas; transporting crude oil by international oil export pipelines; processing, transporting, storage and marketing of natural gas, and a gas-to-liquids plant. Downstream operations consist primarily of refining of crude oil into petroleum products; marketing of crude oil and refined products; transporting of crude oil and refined products, and manufacturing and marketing of commodity petrochemicals.</v>
+    <v>48200</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>6001 Bollinger Canyon Rd, SAN RAMON, CA, 94583-2324 US</v>
+    <v>89.11</v>
+    <v>158</v>
+    <v>Oil &amp; Gas</v>
+    <v>Stock</v>
+    <v>44029.999042303127</v>
+    <v>159</v>
+    <v>86.91</v>
+    <v>162781900000</v>
+    <v>CHEVRON CORPORATION</v>
+    <v>CHEVRON CORPORATION</v>
+    <v>88.41</v>
+    <v>43.787399999999998</v>
+    <v>88.36</v>
+    <v>87.19</v>
+    <v>87.36</v>
+    <v>1866979000</v>
+    <v>CVX</v>
+    <v>CHEVRON CORPORATION (XNYS:CVX)</v>
+    <v>5964361</v>
+    <v>8119820</v>
+    <v>1926</v>
+  </rv>
+  <rv s="2">
+    <v>160</v>
+  </rv>
+  <rv s="0">
+    <v>http://en.wikipedia.org/wiki/Wyndham_Destinations</v>
+    <v>Wikipedia</v>
+  </rv>
+  <rv s="9">
+    <v>103</v>
+    <v>162</v>
+  </rv>
+  <rv s="10">
+    <v>24</v>
+    <v>https://www.bing.com/th?id=AMMS_5a814ff30fd1ffac245379798a819c9e&amp;qlt=95</v>
+    <v>163</v>
+    <v>https://www.bing.com/images/search?form=xlimg&amp;q=wyndham+worldwide</v>
+    <v>Image of WYNDHAM DESTINATIONS, INC.</v>
+    <v/>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=b16nh7&amp;q=XNYS%3aWYND&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="11">
+    <v>en-US</v>
+    <v>b16nh7</v>
+    <v>268435456</v>
+    <v>268435457</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>19</v>
+    <v>WYNDHAM DESTINATIONS, INC. (XNYS:WYND)</v>
+    <v>21</v>
+    <v>22</v>
+    <v>Finance</v>
+    <v>23</v>
+    <v>53.13</v>
+    <v>13.74</v>
+    <v>1.9696</v>
+    <v>-0.69</v>
+    <v>0</v>
+    <v>-2.1968000000000001E-2</v>
+    <v>0</v>
+    <v>USD</v>
+    <v>Wyndham Destinations, Inc., formerly Wyndham Worldwide Corporation, is a vacation ownership and exchange company. The Company operates across 110 countries at more than 220 vacation ownership resorts and 4,300 affiliated exchange properties. The Company, through its Wyndham Vacation Clubs business, markets and sells vacation ownership interests and provides consumer financing to owners at a portfolio of brands including: CLUB WYNDHAM, WorldMark by Wyndham, CLUB WYNDHAM ASIA, WorldMark South Pacific Club by Wyndham, Shell Vacations Club, Margaritaville Vacation Club by Wyndham and WYNDHAM CLUB BRASILSM. The Company’s Resort Condominiums International (RCI) exchanges includes RCI India, Dial An Exchange (dae), Love Home Swap, The Registry Collection, TripBeat, @Work International and Armed Forces Vacation Club.</v>
+    <v>22500</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>6277 Sea Harbor Dr, ORLANDO, FL, 32821-8043 US</v>
+    <v>31.56</v>
+    <v>164</v>
+    <v>Hotels &amp; Entertainment Services</v>
+    <v>Stock</v>
+    <v>44029.958333367969</v>
+    <v>165</v>
+    <v>30.45</v>
+    <v>2615342000</v>
+    <v>WYNDHAM DESTINATIONS, INC.</v>
+    <v>WYNDHAM DESTINATIONS, INC.</v>
+    <v>31.3</v>
+    <v>10.7638</v>
+    <v>31.41</v>
+    <v>30.72</v>
+    <v>30.72</v>
+    <v>85134820</v>
+    <v>WYND</v>
+    <v>WYNDHAM DESTINATIONS, INC. (XNYS:WYND)</v>
+    <v>485360</v>
+    <v>1328051</v>
+    <v>2003</v>
+  </rv>
+  <rv s="2">
+    <v>166</v>
+  </rv>
+  <rv s="0">
+    <v>https://creativecommons.org/licenses/by/2.0</v>
+    <v>CC BY 2.0</v>
+  </rv>
+  <rv s="0">
+    <v>http://sv.wikipedia.org/wiki/Las_Vegas_Sands</v>
+    <v>Wikipedia</v>
+  </rv>
+  <rv s="9">
+    <v>168</v>
+    <v>169</v>
+  </rv>
+  <rv s="10">
+    <v>24</v>
+    <v>https://www.bing.com/th?id=AMMS_0906c9459990b0fab2037038e2dfe1bd&amp;qlt=95</v>
+    <v>170</v>
+    <v>https://www.bing.com/images/search?form=xlimg&amp;q=las+vegas+sands</v>
+    <v>Image of LAS VEGAS SANDS CORP.</v>
+    <v/>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1x7im&amp;q=XNYS%3aLVS&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="11">
+    <v>en-US</v>
+    <v>a1x7im</v>
+    <v>268435456</v>
+    <v>268435457</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>19</v>
+    <v>LAS VEGAS SANDS CORP. (XNYS:LVS)</v>
+    <v>21</v>
+    <v>22</v>
+    <v>Finance</v>
+    <v>23</v>
+    <v>74.290000000000006</v>
+    <v>33.299999999999997</v>
+    <v>1.6073</v>
+    <v>-1.02</v>
+    <v>6.3670000000000003E-3</v>
+    <v>-2.0518999999999999E-2</v>
+    <v>0.31</v>
+    <v>USD</v>
+    <v>Las Vegas Sands Corp. is a developer of destination properties (integrated resorts) that feature accommodations, gaming, entertainment and retail, convention and exhibition facilities, celebrity chef restaurants and other amenities. The Company owns and operates integrated resorts in Asia and the United States. The Company's principal operating and developmental activities occur in three geographic areas: Macao, Singapore and the United States. In Macao, the Company's segments include The Venetian Macao; Sands Cotai Central; The Parisian Macao; Four Seasons Macao; Sands Macao, and Other Asia (comprises the Company's ferry operations and various other operations). In Singapore, the Company's segments include Marina Bay Sands. In the United States, the Company's segment is Las Vegas Operating Properties. The Company also offers players club loyalty programs at its properties, which provides access to rewards, privileges and members-only events.</v>
+    <v>50000</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>3355 Las Vegas Blvd S Rm 1A, LAS VEGAS, NV, 89109-8941 US</v>
+    <v>49.87</v>
+    <v>171</v>
+    <v>Hotels &amp; Entertainment Services</v>
+    <v>Stock</v>
+    <v>44029.985339941406</v>
+    <v>172</v>
+    <v>48.28</v>
+    <v>37186000000</v>
+    <v>LAS VEGAS SANDS CORP.</v>
+    <v>LAS VEGAS SANDS CORP.</v>
+    <v>49.87</v>
+    <v>18.099</v>
+    <v>49.71</v>
+    <v>48.69</v>
+    <v>49</v>
+    <v>763729700</v>
+    <v>LVS</v>
+    <v>LAS VEGAS SANDS CORP. (XNYS:LVS)</v>
+    <v>3258800</v>
+    <v>6485473</v>
+    <v>2004</v>
+  </rv>
+  <rv s="2">
+    <v>173</v>
+  </rv>
+  <rv s="0">
+    <v>http://ja.wikipedia.org/wiki/シックス・フラッグス</v>
+    <v>Wikipedia</v>
+  </rv>
+  <rv s="9">
+    <v>103</v>
+    <v>175</v>
+  </rv>
+  <rv s="10">
+    <v>24</v>
+    <v>https://www.bing.com/th?id=AMMS_f277632c13de4db2ca85eddfe0a297c9&amp;qlt=95</v>
+    <v>176</v>
+    <v>https://www.bing.com/images/search?form=xlimg&amp;q=six+flags</v>
+    <v>Image of SIX FLAGS ENTERTAINMENT CORPORATION</v>
+    <v/>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a22zu2&amp;q=XNYS%3aSIX&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="11">
+    <v>en-US</v>
+    <v>a22zu2</v>
+    <v>268435456</v>
+    <v>268435457</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>19</v>
+    <v>SIX FLAGS ENTERTAINMENT CORPORATION (XNYS:SIX)</v>
+    <v>21</v>
+    <v>22</v>
+    <v>Finance</v>
+    <v>23</v>
+    <v>59.52</v>
+    <v>8.75</v>
+    <v>2.2052</v>
+    <v>-0.62</v>
+    <v>4.3800000000000002E-3</v>
+    <v>-2.9287000000000001E-2</v>
+    <v>0.09</v>
+    <v>USD</v>
+    <v>Six Flags Entertainment Corporation (Six Flags) is a regional theme park operator. The Company operates in the theme parks segment. The Company operates approximately 19 regional theme and water parks. Its parks occupy approximately 4,500 acres of land. Its parks are located in geographically diverse markets across North America. Its parks offer a selection of thrill rides, water attractions, themed areas, concerts and shows, restaurants, game venues and retail outlets. Its parks offer approximately 830 rides, including over 135 roller coasters. The Company's parks include Six Flags America, Six Flags Discovery Kingdom, Six Flags Fiesta Texas, Six Flags Great Adventure &amp; Safari/ Six Flags Hurricane Harbor, Six Flags Great America, Six Flags St. Louis, Six Flags Magic Mountain/ Six Flags Hurricane Harbor, Six Flags Mexico and Six Flags New England.</v>
+    <v>2450</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>1000 Ballpark Way Suite 400, ARLINGTON, TX, 76011 US</v>
+    <v>21.07</v>
+    <v>177</v>
+    <v>Hotels &amp; Entertainment Services</v>
+    <v>Stock</v>
+    <v>44029.98428732578</v>
+    <v>178</v>
+    <v>20.07</v>
+    <v>1740308000</v>
+    <v>SIX FLAGS ENTERTAINMENT CORPORATION</v>
+    <v>SIX FLAGS ENTERTAINMENT CORPORATION</v>
+    <v>21.03</v>
+    <v>11.020799999999999</v>
+    <v>21.17</v>
+    <v>20.55</v>
+    <v>20.64</v>
+    <v>84686500</v>
+    <v>SIX</v>
+    <v>SIX FLAGS ENTERTAINMENT CORPORATION (XNYS:SIX)</v>
+    <v>2076618</v>
+    <v>3085978</v>
+    <v>1997</v>
+  </rv>
+  <rv s="2">
+    <v>179</v>
+  </rv>
+  <rv s="0">
+    <v>http://en.wikipedia.org/wiki/H&amp;R_Block</v>
+    <v>Wikipedia</v>
+  </rv>
+  <rv s="9">
+    <v>103</v>
+    <v>181</v>
+  </rv>
+  <rv s="10">
+    <v>24</v>
+    <v>https://www.bing.com/th?id=AMMS_d132f0c8d3455e1bb112e94f5d892d58&amp;qlt=95</v>
+    <v>182</v>
+    <v>https://www.bing.com/images/search?form=xlimg&amp;q=h%26r+block</v>
+    <v>Image of H &amp; R BLOCK, INC.</v>
+    <v/>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1uuvh&amp;q=XNYS%3aHRB&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="11">
+    <v>en-US</v>
+    <v>a1uuvh</v>
+    <v>268435456</v>
+    <v>268435457</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>19</v>
+    <v>H &amp; R BLOCK, INC. (XNYS:HRB)</v>
+    <v>21</v>
+    <v>22</v>
+    <v>Finance</v>
+    <v>23</v>
+    <v>28.504999999999999</v>
+    <v>11.290100000000001</v>
+    <v>0.7913</v>
+    <v>-0.21</v>
+    <v>-8.1410000000000007E-3</v>
+    <v>-1.4047E-2</v>
+    <v>-0.12</v>
+    <v>USD</v>
+    <v>H&amp;R Block, Inc. (H&amp;R Block), through its subsidiaries, provides tax preparation and other services. The Company provides assisted income tax return preparation, digital do-it-yourself (DIY) tax solutions and other services and products related to income tax return preparation to the general public primarily in the United States, Canada, Australia and their respective territories. Assisted income tax return preparation and related services are provided by tax professionals through a system of retail offices operated directly by the Company or its franchisees. It offers tax support, planning, and business accounting and advisory services to its clients. The Company offers a range of online tax services, including preparation of federal and state income tax returns, review of tax returns by a tax professional, access to tax tips, advice and tax-related news, use of calculators for tax planning, error checking and electronic filing.</v>
+    <v>3500</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>1 H And R Block Way, KANSAS CITY, MO, 64105-1905 US</v>
+    <v>15.095000000000001</v>
+    <v>183</v>
+    <v>Personal &amp; Household Products &amp; Services</v>
+    <v>Stock</v>
+    <v>44029.993036087501</v>
+    <v>184</v>
+    <v>14.54</v>
+    <v>2837086000</v>
+    <v>H &amp; R BLOCK, INC.</v>
+    <v>H &amp; R BLOCK, INC.</v>
+    <v>14.99</v>
+    <v>156.84010000000001</v>
+    <v>14.95</v>
+    <v>14.74</v>
+    <v>14.62</v>
+    <v>192475300</v>
+    <v>HRB</v>
+    <v>H &amp; R BLOCK, INC. (XNYS:HRB)</v>
+    <v>3323908</v>
+    <v>4196761</v>
+    <v>1955</v>
+  </rv>
+  <rv s="2">
+    <v>185</v>
+  </rv>
+  <rv s="0">
+    <v>http://en.wikipedia.org/wiki/Honda</v>
+    <v>Wikipedia</v>
+  </rv>
+  <rv s="9">
+    <v>103</v>
+    <v>187</v>
+  </rv>
+  <rv s="10">
+    <v>24</v>
+    <v>https://www.bing.com/th?id=AMMS_65638ce82d623bac8d564989d24bda28&amp;qlt=95</v>
+    <v>188</v>
+    <v>https://www.bing.com/images/search?form=xlimg&amp;q=honda</v>
+    <v>Image of HONDA MOTOR CO., LTD.</v>
+    <v/>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1uqyc&amp;q=XNYS%3aHMC&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="11">
+    <v>en-US</v>
+    <v>a1uqyc</v>
+    <v>268435456</v>
+    <v>268435457</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>19</v>
+    <v>HONDA MOTOR CO., LTD. (XNYS:HMC)</v>
+    <v>21</v>
+    <v>30</v>
+    <v>Finance</v>
+    <v>23</v>
+    <v>29.44</v>
+    <v>19.38</v>
+    <v>0.92720000000000002</v>
+    <v>-0.21</v>
+    <v>-8.3870000000000004E-3</v>
+    <v>-7.9430000000000004E-3</v>
+    <v>-0.22</v>
+    <v>USD</v>
+    <v>HONDA MOTOR CO., LTD. is a Japan-based company principally engaged in the motorcycle business, the automobile business, the financial service business and the power product business. The Company operates in four business segments. The Motorcycle segment provides motorcycles, all-terrain vehicles (ATVs), side-by-side vehicles. The Automobile segment provides automobiles and related parts. The Company produces a range of motorcycles, with engine displacement ranging from the 50 cubic centimeters class to the 1,800 cubic centimeters class. Its automobiles use gasoline engines of three, four or six cylinder, diesel engines, gasoline-electric hybrid systems and gasoline-electric plug-in hybrid systems. The Financial Service segment is engaged in the sales financing and leasing. The Power Product segment and Others segment provides power products and related parts.</v>
+    <v>218674</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>2-1-1, Minami-Aoyama, MINATO-KU, TOKYO-TO, 107-8556 JP</v>
+    <v>26.37</v>
+    <v>189</v>
+    <v>Automobiles &amp; Auto Parts</v>
+    <v>Stock</v>
+    <v>44029.958333367969</v>
+    <v>190</v>
+    <v>26.15</v>
+    <v>47557170000</v>
+    <v>HONDA MOTOR CO., LTD.</v>
+    <v>HONDA MOTOR CO., LTD.</v>
+    <v>26.35</v>
+    <v>10.978</v>
+    <v>26.44</v>
+    <v>26.23</v>
+    <v>26.01</v>
+    <v>1811428000</v>
+    <v>HMC</v>
+    <v>HONDA MOTOR CO., LTD. (XNYS:HMC)</v>
+    <v>406086</v>
+    <v>740860</v>
+    <v>1948</v>
+  </rv>
+  <rv s="2">
+    <v>191</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1zfsm&amp;q=XNYS%3aPAG&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="13">
+    <v>en-US</v>
+    <v>a1zfsm</v>
+    <v>268435456</v>
+    <v>268435457</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>27</v>
+    <v>PENSKE AUTOMOTIVE GROUP, INC. (XNYS:PAG)</v>
+    <v>28</v>
+    <v>29</v>
+    <v>Finance</v>
+    <v>23</v>
+    <v>53.81</v>
+    <v>19.989999999999998</v>
+    <v>1.7097</v>
+    <v>-0.4</v>
+    <v>6.7579E-2</v>
+    <v>-8.6169999999999997E-3</v>
+    <v>3.11</v>
+    <v>USD</v>
+    <v>Penske Automotive Group, Inc. is an international transportation services company. The Company operates automotive and commercial truck dealerships principally in the United States, Canada and Western Europe, and distributes commercial vehicles, diesel engines, gas engines, power systems, and related parts and services principally in Australia and New Zealand. The Company's segments include Retail Automotive, consisting of its retail automotive dealership operations; Retail Commercial Truck, consisting of its retail commercial truck dealership operations in the United States and Canada; Other, consisting of its commercial vehicle and power systems distribution operations and other non-automotive consolidated operations, and Non-Automotive Investments, consisting of its equity method investments in non-automotive operations. The Company holds interests in Penske Truck Leasing Co., L.P. (PTL), a provider of transportation services and supply chain management.</v>
+    <v>27000</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>2555 S Telegraph Rd, BLOOMFIELD HILLS, MI, 48302-0912 US</v>
+    <v>46.38</v>
+    <v>Specialty Retailers</v>
+    <v>Stock</v>
+    <v>44029.958333333336</v>
+    <v>193</v>
+    <v>45.3</v>
+    <v>3702820000</v>
+    <v>PENSKE AUTOMOTIVE GROUP, INC.</v>
+    <v>PENSKE AUTOMOTIVE GROUP, INC.</v>
+    <v>45.81</v>
+    <v>8.7891999999999992</v>
+    <v>46.42</v>
+    <v>46.02</v>
+    <v>49.13</v>
+    <v>80461100</v>
+    <v>PAG</v>
+    <v>PENSKE AUTOMOTIVE GROUP, INC. (XNYS:PAG)</v>
+    <v>467096</v>
+    <v>425167</v>
+    <v>1990</v>
+  </rv>
+  <rv s="2">
+    <v>194</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1u4fr&amp;q=XNYS%3aGPC&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="13">
+    <v>en-US</v>
+    <v>a1u4fr</v>
+    <v>268435456</v>
+    <v>268435457</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>27</v>
+    <v>GENUINE PARTS COMPANY (XNYS:GPC)</v>
+    <v>28</v>
+    <v>29</v>
+    <v>Finance</v>
+    <v>23</v>
+    <v>108.58</v>
+    <v>49.680999999999997</v>
+    <v>1.1086</v>
+    <v>-0.78</v>
+    <v>0</v>
+    <v>-8.8000000000000005E-3</v>
+    <v>0</v>
+    <v>USD</v>
+    <v>Genuine Parts Company is a service organization engaged in the distribution of automotive replacement parts, industrial replacement parts, and electrical/electronic materials. The Company's segments include Automotive, Industrial and Other. The automotive segment distributes replacement parts for all makes and models of automobiles, trucks and other vehicles. The industrial segment distributes a range of industrial bearings, mechanical and fluid power transmission equipment, including hydraulic and pneumatic products, material handling components and related parts and supplies.</v>
+    <v>55000</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>2999 Wildwood Pkwy, ATLANTA, GA, 30339-8580 US</v>
+    <v>89.25</v>
+    <v>Automobiles &amp; Auto Parts</v>
+    <v>Stock</v>
+    <v>44029.958333356248</v>
+    <v>196</v>
+    <v>87.47</v>
+    <v>12674710000</v>
+    <v>GENUINE PARTS COMPANY</v>
+    <v>GENUINE PARTS COMPANY</v>
+    <v>89.25</v>
+    <v>21.7029</v>
+    <v>88.64</v>
+    <v>87.86</v>
+    <v>87.86</v>
+    <v>144260300</v>
+    <v>GPC</v>
+    <v>GENUINE PARTS COMPANY (XNYS:GPC)</v>
+    <v>452133</v>
+    <v>789843</v>
+    <v>1928</v>
+  </rv>
+  <rv s="2">
+    <v>197</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1r4dm&amp;q=XNYS%3aDKS&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="13">
+    <v>en-US</v>
+    <v>a1r4dm</v>
+    <v>268435456</v>
+    <v>268435457</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>27</v>
+    <v>DICK'S SPORTING GOODS, INC. (XNYS:DKS)</v>
+    <v>28</v>
+    <v>29</v>
+    <v>Finance</v>
+    <v>23</v>
+    <v>49.8</v>
+    <v>13.46</v>
+    <v>1.5999000000000001</v>
+    <v>-0.28000000000000003</v>
+    <v>-2.1707000000000001E-2</v>
+    <v>-6.783E-3</v>
+    <v>-0.89</v>
+    <v>USD</v>
+    <v>Dick's Sporting Goods, Inc. is an omni-channel sporting goods retailer offering an assortment of sports equipment, apparel, footwear and accessories in its specialty retail stores primarily in the eastern United States. The Company also owns and operates Golf Galaxy, Field &amp; Stream and other specialty concept stores, and Dick's Team Sports HQ, an all-in-one youth sports digital platform offering free league management services, mobile applications for scheduling, communications and live scorekeeping, custom uniforms and FanWear and access to donations and sponsorships. The Company offers its products through a content-rich e-commerce platform that is integrated with its store network and provides customers with the convenience and expertise of a 24-hour storefront. It offers products to its customers through its retail stores and online. The Company offers hardlines, which include items, such as sporting goods equipment, fitness equipment, golf equipment, and hunting and fishing gear.</v>
+    <v>15300</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>345 Court St, CORAOPOLIS, PA, 15108-3817 US</v>
+    <v>41.74</v>
+    <v>Specialty Retailers</v>
+    <v>Stock</v>
+    <v>44029.965803125</v>
+    <v>199</v>
+    <v>40.880000000000003</v>
+    <v>3667339000</v>
+    <v>DICK'S SPORTING GOODS, INC.</v>
+    <v>DICK'S SPORTING GOODS, INC.</v>
+    <v>41.44</v>
+    <v>40.204900000000002</v>
+    <v>41.28</v>
+    <v>41</v>
+    <v>40.11</v>
+    <v>89447300</v>
+    <v>DKS</v>
+    <v>DICK'S SPORTING GOODS, INC. (XNYS:DKS)</v>
+    <v>1026398</v>
+    <v>2307716</v>
+    <v>1996</v>
+  </rv>
+  <rv s="2">
+    <v>200</v>
+  </rv>
+  <rv s="0">
+    <v>http://zh.wikipedia.org/wiki/芝樂坊餐館</v>
+    <v>Wikipedia</v>
+  </rv>
+  <rv s="9">
+    <v>103</v>
+    <v>202</v>
+  </rv>
+  <rv s="10">
+    <v>24</v>
+    <v>https://www.bing.com/th?id=AMMS_b7e2eab1a0465d4acb936b45513ab111&amp;qlt=95</v>
+    <v>203</v>
+    <v>https://www.bing.com/images/search?form=xlimg&amp;q=the+cheesecake+factory</v>
+    <v>Image of THE CHEESECAKE FACTORY INCORPORATED</v>
+    <v/>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1p5h7&amp;q=XNAS%3aCAKE&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="11">
+    <v>en-US</v>
+    <v>a1p5h7</v>
+    <v>268435456</v>
+    <v>268435457</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>19</v>
+    <v>THE CHEESECAKE FACTORY INCORPORATED (XNAS:CAKE)</v>
+    <v>21</v>
+    <v>22</v>
+    <v>Finance</v>
+    <v>23</v>
+    <v>45.24</v>
+    <v>14.52</v>
+    <v>1.3856999999999999</v>
+    <v>-0.06</v>
+    <v>8.8570000000000001E-4</v>
+    <v>-2.65E-3</v>
+    <v>0.02</v>
+    <v>USD</v>
+    <v>The Cheesecake Factory Inc. is an experiential dining company. The Company owns and operates approximately 294 restaurants throughout the United States and Canada under brands, including The Cheesecake Factory, North Italia and a collection within the Fox Restaurant Concepts (FRC) subsidiary. Its segments include The Cheesecake Factory, North Italia, other FRC brands and Other. The Company’s Cheesecake Factory menu features approximately 250 items and menu offerings include appetizers, pizza, seafood, steaks, chicken, burgers, small plates, pastas, salads and sandwiches. It also operates two bakery production facilities, one in Calabasas Hills, California, and one in Rocky Mount, North Carolina. Its cheesecakes include the Original Cheesecake, Ultimate Red Velvet Cake Cheesecake, Godiva Chocolate Cheesecake and Oreo Dream Extreme Cheesecake. The Company also operates Grand Lux Cafe, RockSugar Southeast Asian Kitchen and Social Monk Asian Kitchen.</v>
+    <v>46250</v>
+    <v>Nasdaq Stock Market</v>
+    <v>XNAS</v>
+    <v>XNAS</v>
+    <v>26901 MALIBU HILLS RD, CALABASAS HILLS, CA, 91301-5354 US</v>
+    <v>23.05</v>
+    <v>204</v>
+    <v>Hotels &amp; Entertainment Services</v>
+    <v>Stock</v>
+    <v>44029.989577106251</v>
+    <v>205</v>
+    <v>22.26</v>
+    <v>1026535000</v>
+    <v>THE CHEESECAKE FACTORY INCORPORATED</v>
+    <v>THE CHEESECAKE FACTORY INCORPORATED</v>
+    <v>22.26</v>
+    <v>10.3302</v>
+    <v>22.64</v>
+    <v>22.58</v>
+    <v>22.6</v>
+    <v>45462130</v>
+    <v>CAKE</v>
+    <v>THE CHEESECAKE FACTORY INCORPORATED (XNAS:CAKE)</v>
+    <v>1704058</v>
+    <v>3506471</v>
+    <v>1992</v>
+  </rv>
+  <rv s="2">
+    <v>206</v>
+  </rv>
+  <rv s="0">
+    <v>http://pl.wikipedia.org/wiki/Starbucks</v>
+    <v>Wikipedia</v>
+  </rv>
+  <rv s="9">
+    <v>103</v>
+    <v>208</v>
+  </rv>
+  <rv s="10">
+    <v>24</v>
+    <v>https://www.bing.com/th?id=AMMS_e27b6f4d10a663f3cbffe838112b48be&amp;qlt=95</v>
+    <v>209</v>
+    <v>https://www.bing.com/images/search?form=xlimg&amp;q=starbucks</v>
+    <v>Image of STARBUCKS CORPORATION</v>
+    <v/>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a22k9c&amp;q=XNAS%3aSBUX&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="11">
+    <v>en-US</v>
+    <v>a22k9c</v>
+    <v>268435456</v>
+    <v>268435457</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>19</v>
+    <v>STARBUCKS CORPORATION (XNAS:SBUX)</v>
+    <v>21</v>
+    <v>22</v>
+    <v>Finance</v>
+    <v>23</v>
+    <v>99.72</v>
+    <v>50.02</v>
+    <v>0.77969999999999995</v>
+    <v>-0.23</v>
+    <v>2.562E-3</v>
+    <v>-3.0919999999999997E-3</v>
+    <v>0.19</v>
+    <v>USD</v>
+    <v>Starbucks Corporation (Starbucks) is a roaster, marketer and retailer of coffee. As of October 2, 2016, the Company operated in 75 countries. The Company operates through four segments: Americas, which is inclusive of the United States, Canada, and Latin America; China/Asia Pacific (CAP); Europe, Middle East, and Africa (EMEA), and Channel Development. The Company's Americas, CAP, and EMEA segments include both company-operated and licensed stores. Its Channel Development segment includes roasted whole bean and ground coffees, Tazo teas, Starbucks- and Tazo-branded single-serve products, a range of ready-to-drink beverages, such as Frappuccino, Starbucks Doubleshot and Starbucks Refreshers beverages and other branded products sold across the world through channels, such as grocery stores, warehouse clubs, specialty retailers, convenience stores and the United States foodservice accounts.</v>
+    <v>346000</v>
+    <v>Nasdaq Stock Market</v>
+    <v>XNAS</v>
+    <v>XNAS</v>
+    <v>2401 Utah Ave S, SEATTLE, WA, 98134-1436 US</v>
+    <v>74.55</v>
+    <v>210</v>
+    <v>Hotels &amp; Entertainment Services</v>
+    <v>Stock</v>
+    <v>44029.999394872655</v>
+    <v>211</v>
+    <v>73.210099999999997</v>
+    <v>86641130000</v>
+    <v>STARBUCKS CORPORATION</v>
+    <v>STARBUCKS CORPORATION</v>
+    <v>74.430000000000007</v>
+    <v>26.471599999999999</v>
+    <v>74.39</v>
+    <v>74.16</v>
+    <v>74.349999999999994</v>
+    <v>1168300000</v>
+    <v>SBUX</v>
+    <v>STARBUCKS CORPORATION (XNAS:SBUX)</v>
+    <v>6087543</v>
+    <v>10439751</v>
+    <v>1985</v>
+  </rv>
+  <rv s="2">
+    <v>212</v>
+  </rv>
+  <rv s="0">
+    <v>http://en.wikipedia.org/wiki/Lowe's</v>
+    <v>Wikipedia</v>
+  </rv>
+  <rv s="9">
+    <v>103</v>
+    <v>214</v>
+  </rv>
+  <rv s="10">
+    <v>24</v>
+    <v>https://www.bing.com/th?id=AMMS_4afbc0a090454dfb219470553edb70e4&amp;qlt=95</v>
+    <v>215</v>
+    <v>https://www.bing.com/images/search?form=xlimg&amp;q=lowe%27s</v>
+    <v>Image of LOWE`S COMPANIES, INC.</v>
+    <v/>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1x2ur&amp;q=XNYS%3aLOW&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="11">
+    <v>en-US</v>
+    <v>a1x2ur</v>
+    <v>268435456</v>
+    <v>268435457</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>19</v>
+    <v>LOWE`S COMPANIES, INC. (XNYS:LOW)</v>
+    <v>21</v>
+    <v>22</v>
+    <v>Finance</v>
+    <v>23</v>
+    <v>144.94</v>
+    <v>60</v>
+    <v>1.4238</v>
+    <v>1.64</v>
+    <v>4.2249999999999996E-3</v>
+    <v>1.1489000000000001E-2</v>
+    <v>0.61</v>
+    <v>USD</v>
+    <v>Lowe's Companies, Inc. (Lowe's) is a home improvement company. The Company operates approximately 2,370 home improvement and hardware stores. The Company offers a range of products for maintenance, repair, remodeling and decorating. The Company offers home improvement products in categories, including Lumber and Building Materials; Tools and Hardware; Appliances; Fashion Fixtures; Rough Plumbing and Electrical; Lawn and Garden; Seasonal and Outdoor Living; Paint; Flooring; Millwork, and Kitchens. The Company also supports the communities that focus on K-12 public education and community improvement projects. The Company serves its customers in the United States, Canada and Mexico.</v>
+    <v>200000</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>1000 Lowes Blvd, MOORESVILLE, NC, 28117-8520 US</v>
+    <v>144.63</v>
+    <v>216</v>
+    <v>Specialty Retailers</v>
+    <v>Stock</v>
+    <v>44029.99922672422</v>
+    <v>217</v>
+    <v>141.88499999999999</v>
+    <v>109014900000</v>
+    <v>LOWE`S COMPANIES, INC.</v>
+    <v>LOWE`S COMPANIES, INC.</v>
+    <v>144.29</v>
+    <v>24.0898</v>
+    <v>142.75</v>
+    <v>144.38999999999999</v>
+    <v>145</v>
+    <v>755002800</v>
+    <v>LOW</v>
+    <v>LOWE`S COMPANIES, INC. (XNYS:LOW)</v>
+    <v>3901389</v>
+    <v>4300343</v>
+    <v>1952</v>
+  </rv>
+  <rv s="2">
+    <v>218</v>
   </rv>
 </rvData>
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="7">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="14">
   <s t="_hyperlink">
     <k n="Address" t="s"/>
     <k n="Text" t="s"/>
@@ -1995,6 +4632,46 @@
     <k n="_SubLabel" t="spb"/>
     <k n="52 week high"/>
     <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change % (Extended hours)"/>
+    <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Currency" t="s"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="Expense ratio"/>
+    <k n="High"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Open"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Price (Extended hours)"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%EntitySubDomainId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
     <k n="Change"/>
     <k n="Change (%)"/>
     <k n="Currency" t="s"/>
@@ -2032,7 +4709,48 @@
     <k n="52 week high"/>
     <k n="52 week low"/>
     <k n="Change"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Currency" t="s"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="Expense ratio"/>
+    <k n="High"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Open"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Price (Extended hours)"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%EntitySubDomainId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Change"/>
+    <k n="Change % (Extended hours)"/>
+    <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Exchange" t="s"/>
     <k n="Exchange abbreviation" t="s"/>
@@ -2046,6 +4764,7 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
     <k n="Volume"/>
@@ -2070,15 +4789,11 @@
     <k n="_SubLabel" t="spb"/>
     <k n="52 week high"/>
     <k n="52 week low"/>
-    <k n="Beta"/>
     <k n="Change"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Exchange" t="s"/>
     <k n="Exchange abbreviation" t="s"/>
-    <k n="Expense ratio"/>
     <k n="High"/>
     <k n="Instrument type" t="s"/>
     <k n="Last trade time"/>
@@ -2089,18 +4804,163 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+  </s>
+  <s t="_sourceattribution">
+    <k n="License" t="r"/>
+    <k n="Source" t="r"/>
+  </s>
+  <s t="_imageurl">
+    <k n="_Provider" t="spb"/>
+    <k n="Address" t="s"/>
+    <k n="Attribution" t="r"/>
+    <k n="More Images Address" t="s"/>
+    <k n="Text" t="s"/>
+    <k n="Blip Identifier" t="s"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%EntitySubDomainId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change % (Extended hours)"/>
+    <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Image" t="r"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="P/E"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Price (Extended hours)"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%EntitySubDomainId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Change"/>
+    <k n="Change % (Extended hours)"/>
+    <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Currency" t="s"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="High"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Name" t="s"/>
+    <k n="Open"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
     <k n="Price (Extended hours)"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
     <k n="Volume"/>
     <k n="Volume average"/>
   </s>
+  <s t="_linkedentitycore">
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%EntitySubDomainId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change % (Extended hours)"/>
+    <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="P/E"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Price (Extended hours)"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
 </rvStructures>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <spbArrays count="4">
+  <spbArrays count="9">
     <a count="35">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
@@ -2119,6 +4979,46 @@
       <v t="s">Change</v>
       <v t="s">Expense ratio</v>
       <v t="s">Change (%)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">Instrument type</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">%ProviderInfo</v>
+      <v t="s">_Display</v>
+    </a>
+    <a count="38">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%EntitySubDomainId</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
+      <v t="s">Exchange</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
+      <v t="s">Expense ratio</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2174,6 +5074,83 @@
       <v t="s">%ProviderInfo</v>
       <v t="s">_Display</v>
     </a>
+    <a count="37">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%EntitySubDomainId</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
+      <v t="s">Exchange</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
+      <v t="s">Expense ratio</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Instrument type</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">%ProviderInfo</v>
+      <v t="s">_Display</v>
+    </a>
+    <a count="36">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%EntitySubDomainId</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
+      <v t="s">Exchange</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Instrument type</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">%ProviderInfo</v>
+      <v t="s">_Display</v>
+    </a>
     <a count="33">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
@@ -2209,7 +5186,56 @@
       <v t="s">%ProviderInfo</v>
       <v t="s">_Display</v>
     </a>
-    <a count="38">
+    <a count="47">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%EntitySubDomainId</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">P/E</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">Image</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+      <v t="s">_Display</v>
+    </a>
+    <a count="35">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%EntitySubDomainId</v>
@@ -2227,7 +5253,44 @@
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
       <v t="s">Change (Extended hours)</v>
-      <v t="s">Expense ratio</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Instrument type</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">%ProviderInfo</v>
+      <v t="s">_Display</v>
+    </a>
+    <a count="46">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%EntitySubDomainId</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
       <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
@@ -2241,16 +5304,24 @@
       <v t="s">Volume average</v>
       <v t="s">Market cap</v>
       <v t="s">Beta</v>
+      <v t="s">P/E</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
       <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
       <v t="s">_Flags</v>
       <v t="s">UniqueName</v>
       <v t="s">_DisplayString</v>
       <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
       <v t="s">%ProviderInfo</v>
       <v t="s">_Display</v>
     </a>
   </spbArrays>
-  <spbData count="13">
+  <spbData count="31">
     <spb s="0">
       <v>0</v>
     </spb>
@@ -2296,6 +5367,7 @@
     </spb>
     <spb s="5">
       <v>1</v>
+      <v>2</v>
       <v>1</v>
       <v>3</v>
       <v>1</v>
@@ -2313,6 +5385,112 @@
       <v>8</v>
       <v>9</v>
       <v>9</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+    </spb>
+    <spb s="6">
+      <v>at close</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq Last Sale</v>
+      <v>from previous close</v>
+      <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
+    </spb>
+    <spb s="0">
+      <v>2</v>
+    </spb>
+    <spb s="7">
+      <v>1</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>5</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+      <v>1</v>
+      <v>4</v>
+      <v>7</v>
+      <v>8</v>
+      <v>9</v>
+      <v>9</v>
+    </spb>
+    <spb s="6">
+      <v>at close</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq</v>
+      <v>from previous close</v>
+      <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
+    </spb>
+    <spb s="8">
+      <v>at close</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>GMT</v>
+      <v>BATS BZX Real-Time Last Price</v>
+      <v>from close</v>
+      <v>from close</v>
+    </spb>
+    <spb s="0">
+      <v>3</v>
+    </spb>
+    <spb s="9">
+      <v>1</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>5</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+      <v>1</v>
+      <v>4</v>
+      <v>7</v>
+      <v>8</v>
+      <v>9</v>
+      <v>9</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+    </spb>
+    <spb s="0">
+      <v>4</v>
+    </spb>
+    <spb s="10">
+      <v>1</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>5</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>7</v>
+      <v>8</v>
+      <v>9</v>
+      <v>9</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
       <v>Delayed 15 minutes</v>
@@ -2322,9 +5500,9 @@
       <v>GMT</v>
     </spb>
     <spb s="0">
-      <v>2</v>
+      <v>5</v>
     </spb>
-    <spb s="6">
+    <spb s="11">
       <v>1</v>
       <v>1</v>
       <v>3</v>
@@ -2344,22 +5522,73 @@
       <v>9</v>
     </spb>
     <spb s="0">
+      <v>6</v>
+    </spb>
+    <spb s="12">
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="13">
+      <v>20</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+    </spb>
+    <spb s="14">
+      <v>1</v>
+      <v>2</v>
+      <v>2</v>
+      <v>1</v>
       <v>3</v>
-    </spb>
-    <spb s="7">
-      <v>1</v>
-      <v>2</v>
-      <v>1</v>
-      <v>3</v>
-      <v>1</v>
-      <v>1</v>
-      <v>1</v>
+      <v>1</v>
+      <v>10</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
       <v>4</v>
       <v>5</v>
       <v>6</v>
       <v>1</v>
       <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>7</v>
+      <v>8</v>
+      <v>9</v>
+      <v>11</v>
+      <v>9</v>
+      <v>4</v>
+      <v>1</v>
+      <v>1</v>
       <v>5</v>
+    </spb>
+    <spb s="15">
+      <v>at close</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq</v>
+      <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
+    </spb>
+    <spb s="16">
+      <v>Powered by Refinitiv</v>
+    </spb>
+    <spb s="0">
+      <v>7</v>
+    </spb>
+    <spb s="17">
+      <v>1</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>5</v>
+      <v>1</v>
+      <v>1</v>
       <v>1</v>
       <v>4</v>
       <v>7</v>
@@ -2370,22 +5599,75 @@
       <v>1</v>
       <v>5</v>
     </spb>
-    <spb s="8">
-      <v>at close</v>
-      <v>from previous close</v>
-      <v>Source: Nasdaq</v>
-      <v>from previous close</v>
-      <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
+    <spb s="0">
+      <v>8</v>
+    </spb>
+    <spb s="18">
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+    </spb>
+    <spb s="19">
+      <v>1</v>
+      <v>2</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>4</v>
+      <v>5</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>7</v>
+      <v>8</v>
+      <v>9</v>
+      <v>11</v>
+      <v>9</v>
+      <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+    </spb>
+    <spb s="14">
+      <v>1</v>
+      <v>2</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>10</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>4</v>
+      <v>5</v>
+      <v>12</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>7</v>
+      <v>8</v>
+      <v>9</v>
+      <v>11</v>
+      <v>9</v>
+      <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="9">
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="20">
   <s>
     <k n="^Order" t="spba"/>
   </s>
@@ -2428,45 +5710,6 @@
   </s>
   <s>
     <k n="Low" t="i"/>
-    <k n="High" t="i"/>
-    <k n="Name" t="i"/>
-    <k n="Open" t="i"/>
-    <k n="Price" t="i"/>
-    <k n="Change" t="i"/>
-    <k n="Volume" t="i"/>
-    <k n="Change (%)" t="i"/>
-    <k n="Market cap" t="i"/>
-    <k n="52 week low" t="i"/>
-    <k n="52 week high" t="i"/>
-    <k n="Expense ratio" t="i"/>
-    <k n="Previous close" t="i"/>
-    <k n="Volume average" t="i"/>
-    <k n="_DisplayString" t="i"/>
-    <k n="Last trade time" t="i"/>
-    <k n="%EntityServiceId" t="i"/>
-    <k n="%EntitySubDomainId" t="i"/>
-  </s>
-  <s>
-    <k n="Low" t="i"/>
-    <k n="High" t="i"/>
-    <k n="Name" t="i"/>
-    <k n="Open" t="i"/>
-    <k n="Price" t="i"/>
-    <k n="Change" t="i"/>
-    <k n="Volume" t="i"/>
-    <k n="Change (%)" t="i"/>
-    <k n="Market cap" t="i"/>
-    <k n="52 week low" t="i"/>
-    <k n="52 week high" t="i"/>
-    <k n="Previous close" t="i"/>
-    <k n="Volume average" t="i"/>
-    <k n="_DisplayString" t="i"/>
-    <k n="Last trade time" t="i"/>
-    <k n="%EntityServiceId" t="i"/>
-    <k n="%EntitySubDomainId" t="i"/>
-  </s>
-  <s>
-    <k n="Low" t="i"/>
     <k n="Beta" t="i"/>
     <k n="High" t="i"/>
     <k n="Name" t="i"/>
@@ -2499,12 +5742,209 @@
     <k n="Change (Extended hours)" t="s"/>
     <k n="Change % (Extended hours)" t="s"/>
   </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Expense ratio" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="_DisplayString" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="%EntityServiceId" t="i"/>
+    <k n="%EntitySubDomainId" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Expense ratio" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="_DisplayString" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="%EntityServiceId" t="i"/>
+    <k n="%EntitySubDomainId" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="_DisplayString" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="%EntityServiceId" t="i"/>
+    <k n="%EntitySubDomainId" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="_DisplayString" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="%EntityServiceId" t="i"/>
+    <k n="%EntitySubDomainId" t="i"/>
+  </s>
+  <s>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="Image" t="spb"/>
+    <k n="ExchangeID" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="%ProviderInfo" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Image" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="_DisplayString" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="%EntityServiceId" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="%EntitySubDomainId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
+  </s>
+  <s>
+    <k n="name" t="s"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="_DisplayString" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="%EntityServiceId" t="i"/>
+    <k n="%EntitySubDomainId" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
+  </s>
+  <s>
+    <k n="ExchangeID" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="%ProviderInfo" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="_DisplayString" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="%EntityServiceId" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="%EntitySubDomainId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
+  </s>
 </spbStructures>
 </file>
 
 <file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
 <richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <dxfs count="7">
+  <dxfs count="9">
     <x:dxf>
       <x:numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </x:dxf>
@@ -2521,15 +5961,22 @@
       <x:numFmt numFmtId="164" formatCode="_([$$-409]* #,##0_);_([$$-409]* \(#,##0\);_([$$-409]* &quot;-&quot;_);_(@_)"/>
     </x:dxf>
     <x:dxf>
-      <x:numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
+      <x:numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
     </x:dxf>
     <x:dxf>
       <x:numFmt numFmtId="2" formatCode="0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="1" formatCode="0"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="175" formatCode="_-[$¥-411]* #,##0_-;\-[$¥-411]* #,##0_-;_-[$¥-411]* &quot;-&quot;_-;_-@_-"/>
     </x:dxf>
   </dxfs>
   <richProperties>
     <rPr n="IsTitleField" t="b"/>
     <rPr n="ShouldShowInCell" t="b"/>
+    <rPr n="IsHeroField" t="b"/>
   </richProperties>
   <richStyles>
     <rSty dxfid="0"/>
@@ -2545,49 +5992,100 @@
     </rSty>
     <rSty dxfid="5"/>
     <rSty dxfid="6"/>
+    <rSty>
+      <rpv i="2">1</rpv>
+    </rSty>
+    <rSty dxfid="7"/>
+    <rSty dxfid="8"/>
   </richStyles>
 </richStyleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{69112644-6D4F-4AA0-8CCC-1CEE1E0148D7}" name="Table1" displayName="Table1" ref="A1:M24" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:M24" xr:uid="{95189E96-064D-425D-BE39-47B18B49F5F0}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M24">
-    <sortCondition ref="M1:M24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{69112644-6D4F-4AA0-8CCC-1CEE1E0148D7}" name="Table1" displayName="Table1" ref="A1:M32" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+  <autoFilter ref="A1:M32" xr:uid="{95189E96-064D-425D-BE39-47B18B49F5F0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M31">
+    <sortCondition ref="M1:M31"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{BB2FF6EB-53FD-4E78-BD0B-C24026A8DB98}" name="Funds" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{B45FB7AC-F148-421D-9B37-4E7E7D8C8E6A}" name="Ticker" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{BB2FF6EB-53FD-4E78-BD0B-C24026A8DB98}" name="Funds" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{B45FB7AC-F148-421D-9B37-4E7E7D8C8E6A}" name="Ticker" dataDxfId="28">
       <calculatedColumnFormula array="1">_FV(A2,"Ticker symbol",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0E04398C-EA9A-4618-BD02-DA8ABAA2CF7C}" name="Account" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{84FCDA56-42CA-4155-A371-09849AF21EE5}" name="Bucket" dataDxfId="9"/>
-    <tableColumn id="14" xr3:uid="{4B646908-1DAD-4E96-87A0-816CCAEC36A5}" name="Expense Ratio" dataDxfId="8">
+    <tableColumn id="3" xr3:uid="{0E04398C-EA9A-4618-BD02-DA8ABAA2CF7C}" name="Account" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{84FCDA56-42CA-4155-A371-09849AF21EE5}" name="Bucket" dataDxfId="26"/>
+    <tableColumn id="14" xr3:uid="{4B646908-1DAD-4E96-87A0-816CCAEC36A5}" name="Expense Ratio" dataDxfId="25">
       <calculatedColumnFormula array="1">_FV(A2,"Expense ratio",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{315E67EE-D83C-47DE-877C-398E379B6F15}" name="Open" dataDxfId="7">
+    <tableColumn id="5" xr3:uid="{315E67EE-D83C-47DE-877C-398E379B6F15}" name="Open" dataDxfId="24">
       <calculatedColumnFormula array="1">_FV(A2,"Open")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{94216B5A-94A5-40EA-8CFA-BB6BCBAE0B5C}" name="High" dataDxfId="6">
+    <tableColumn id="6" xr3:uid="{94216B5A-94A5-40EA-8CFA-BB6BCBAE0B5C}" name="High" dataDxfId="23">
       <calculatedColumnFormula array="1">_FV(A2,"High")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{0995BD2E-CC80-4453-962B-4B371F66AD96}" name="Low" dataDxfId="5">
+    <tableColumn id="7" xr3:uid="{0995BD2E-CC80-4453-962B-4B371F66AD96}" name="Low" dataDxfId="22">
       <calculatedColumnFormula array="1">_FV(A2,"Low")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{59B32FD1-E741-455C-AB3F-CC8305A4082D}" name="Close" dataDxfId="4">
+    <tableColumn id="8" xr3:uid="{59B32FD1-E741-455C-AB3F-CC8305A4082D}" name="Close" dataDxfId="21">
       <calculatedColumnFormula array="1">_FV(A2,"Price")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{BFFB38B1-DFB9-43B1-881D-A7371E276BF4}" name="Change (%)" dataDxfId="3">
+    <tableColumn id="9" xr3:uid="{BFFB38B1-DFB9-43B1-881D-A7371E276BF4}" name="Change (%)" dataDxfId="20">
       <calculatedColumnFormula array="1">_FV(A2,"Change (%)",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{FBDD8949-4F7E-41F5-AC1F-CA98CC4626EE}" name="52 week high" dataDxfId="2">
+    <tableColumn id="11" xr3:uid="{FBDD8949-4F7E-41F5-AC1F-CA98CC4626EE}" name="52 week high" dataDxfId="19">
       <calculatedColumnFormula array="1">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{CD345540-5848-4748-B639-D5DB23BDEE94}" name="52 week low" dataDxfId="1">
+    <tableColumn id="12" xr3:uid="{CD345540-5848-4748-B639-D5DB23BDEE94}" name="52 week low" dataDxfId="18">
       <calculatedColumnFormula array="1">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{D10DB507-EF50-48A6-9A07-64B0D17CC79B}" name="Exchange abbreviation" dataDxfId="0">
+    <tableColumn id="13" xr3:uid="{D10DB507-EF50-48A6-9A07-64B0D17CC79B}" name="Exchange abbreviation" dataDxfId="17">
       <calculatedColumnFormula>(K2-I2)/K2</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D0CAA086-D84C-4EA4-B5F1-7030749A7F3E}" name="Table13" displayName="Table13" ref="A1:N25" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A1:N25" xr:uid="{7148AA24-1D57-4322-B6E6-30CB6857B1C8}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N2">
+    <sortCondition ref="N1:N2"/>
+  </sortState>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{57268FAB-0DAA-4F5F-B46D-3806B1FBF806}" name="Funds" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{A08DC65A-57D6-483A-BC4A-A7473C7F025B}" name="Ticker" dataDxfId="12">
+      <calculatedColumnFormula array="1">_FV(A2,"Ticker symbol",TRUE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{B68D1E78-2858-40F0-938D-30A7BD84787D}" name="Account" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{15A75516-1C6A-4B58-B9D6-851E503B9FB8}" name="Bucket" dataDxfId="10"/>
+    <tableColumn id="15" xr3:uid="{47D0498E-EC1F-4FEA-A214-7DB4FEA6AF04}" name="Sector" dataDxfId="9"/>
+    <tableColumn id="14" xr3:uid="{B112A09B-C1DB-49F3-8BB2-F1FCBE93700E}" name="Industry" dataDxfId="8">
+      <calculatedColumnFormula array="1">_FV(A2,"Industry")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{0FA6A548-B1BE-4B6C-B4B8-163F5654ABD5}" name="Open" dataDxfId="7">
+      <calculatedColumnFormula array="1">_FV(A2,"Open")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{B8CB571D-5B2B-453B-82BA-5EA66AB797D7}" name="High" dataDxfId="6">
+      <calculatedColumnFormula array="1">_FV(A2,"High")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{F44149AE-6680-4B2A-93F2-98C9F6507E5A}" name="Low" dataDxfId="5">
+      <calculatedColumnFormula array="1">_FV(A2,"Low")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{EE5B9F16-BFFA-4732-8F70-E2D37CF19600}" name="Close" dataDxfId="4">
+      <calculatedColumnFormula array="1">_FV(A2,"Price")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{2DE1F60D-5DEF-405B-808F-FEA1CD488B45}" name="Change (%)" dataDxfId="3">
+      <calculatedColumnFormula array="1">_FV(A2,"Change (%)",TRUE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{AF24AD6C-48A4-4E24-9504-7E6E23ABFAFF}" name="52 week high" dataDxfId="2">
+      <calculatedColumnFormula array="1">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{C74C9A6D-67EB-491D-A6D1-55C66BF936BE}" name="52 week low" dataDxfId="1">
+      <calculatedColumnFormula array="1">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{79973E41-98D9-4950-8B9A-E0B263B075E3}" name="Exchange abbreviation" dataDxfId="0">
+      <calculatedColumnFormula>(L2-J2)/L2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2891,13 +6389,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="41.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -2911,7 +6409,7 @@
     <col min="14" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2952,7 +6450,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
@@ -2999,11 +6497,11 @@
         <v>138.11000000000001</v>
       </c>
       <c r="M2" s="3">
-        <f t="shared" ref="M2:M24" si="0">(K2-I2)/K2</f>
+        <f>(K2-I2)/K2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
@@ -3050,68 +6548,68 @@
         <v>35.74</v>
       </c>
       <c r="M3" s="3">
-        <f t="shared" si="0"/>
+        <f>(K3-I3)/K3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="B4" s="1" t="str" cm="1">
+      <c r="B4" s="4" t="str" cm="1">
         <f t="array" ref="B4">_FV(A4,"Ticker symbol",TRUE)</f>
-        <v>IHI</v>
+        <v>SNSR</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="3" cm="1">
         <f t="array" ref="E4">_FV(A4,"Expense ratio",TRUE)</f>
-        <v>4.3E-3</v>
+        <v>6.8999999999999999E-3</v>
       </c>
       <c r="F4" s="2" cm="1">
         <f t="array" ref="F4">_FV(A4,"Open")</f>
-        <v>280</v>
+        <v>25.51</v>
       </c>
       <c r="G4" s="2" cm="1">
         <f t="array" ref="G4">_FV(A4,"High")</f>
-        <v>280</v>
+        <v>25.69</v>
       </c>
       <c r="H4" s="2" cm="1">
         <f t="array" ref="H4">_FV(A4,"Low")</f>
-        <v>276.72000000000003</v>
+        <v>25.41</v>
       </c>
       <c r="I4" s="2" cm="1">
         <f t="array" ref="I4">_FV(A4,"Price")</f>
-        <v>278.11500000000001</v>
+        <v>25.69</v>
       </c>
       <c r="J4" s="3" cm="1">
         <f t="array" ref="J4">_FV(A4,"Change (%)",TRUE)</f>
-        <v>-9.9150000000000002E-3</v>
+        <v>1.0621999999999999E-2</v>
       </c>
       <c r="K4" s="2" cm="1">
         <f t="array" ref="K4">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>278.19</v>
+        <v>25.69</v>
       </c>
       <c r="L4" s="2" cm="1">
         <f t="array" ref="L4">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>183.25</v>
+        <v>14.809699999999999</v>
       </c>
       <c r="M4" s="3">
-        <f t="shared" si="0"/>
-        <v>2.6959991372798675E-4</v>
+        <f>(K4-I4)/K4</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
       <c r="B5" s="1" t="str" cm="1">
         <f t="array" ref="B5">_FV(A5,"Ticker symbol",TRUE)</f>
-        <v>FBT</v>
+        <v>IHI</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -3121,48 +6619,48 @@
       </c>
       <c r="E5" s="3" cm="1">
         <f t="array" ref="E5">_FV(A5,"Expense ratio",TRUE)</f>
-        <v>5.6999999999999993E-3</v>
+        <v>4.3E-3</v>
       </c>
       <c r="F5" s="2" cm="1">
         <f t="array" ref="F5">_FV(A5,"Open")</f>
-        <v>175.44</v>
+        <v>280</v>
       </c>
       <c r="G5" s="2" cm="1">
         <f t="array" ref="G5">_FV(A5,"High")</f>
-        <v>175.44</v>
+        <v>280</v>
       </c>
       <c r="H5" s="2" cm="1">
         <f t="array" ref="H5">_FV(A5,"Low")</f>
-        <v>172.98500000000001</v>
+        <v>276.72000000000003</v>
       </c>
       <c r="I5" s="2" cm="1">
         <f t="array" ref="I5">_FV(A5,"Price")</f>
-        <v>175.01990000000001</v>
+        <v>278.11500000000001</v>
       </c>
       <c r="J5" s="3" cm="1">
         <f t="array" ref="J5">_FV(A5,"Change (%)",TRUE)</f>
-        <v>-5.6249999999999998E-3</v>
+        <v>-9.9150000000000002E-3</v>
       </c>
       <c r="K5" s="2" cm="1">
         <f t="array" ref="K5">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>175.83</v>
+        <v>278.19</v>
       </c>
       <c r="L5" s="2" cm="1">
         <f t="array" ref="L5">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>108.08</v>
+        <v>183.25</v>
       </c>
       <c r="M5" s="3">
-        <f t="shared" si="0"/>
-        <v>4.6072911334812351E-3</v>
+        <f>(K5-I5)/K5</f>
+        <v>2.6959991372798675E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="e" vm="5">
         <v>#VALUE!</v>
       </c>
       <c r="B6" s="1" t="str" cm="1">
         <f t="array" ref="B6">_FV(A6,"Ticker symbol",TRUE)</f>
-        <v>XLV</v>
+        <v>FBT</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
@@ -3172,360 +6670,360 @@
       </c>
       <c r="E6" s="3" cm="1">
         <f t="array" ref="E6">_FV(A6,"Expense ratio",TRUE)</f>
-        <v>1.4000000000000002E-3</v>
+        <v>5.6999999999999993E-3</v>
       </c>
       <c r="F6" s="2" cm="1">
         <f t="array" ref="F6">_FV(A6,"Open")</f>
-        <v>104.5</v>
+        <v>175.44</v>
       </c>
       <c r="G6" s="2" cm="1">
         <f t="array" ref="G6">_FV(A6,"High")</f>
-        <v>104.54</v>
+        <v>175.44</v>
       </c>
       <c r="H6" s="2" cm="1">
         <f t="array" ref="H6">_FV(A6,"Low")</f>
-        <v>103.72499999999999</v>
+        <v>172.98500000000001</v>
       </c>
       <c r="I6" s="2" cm="1">
         <f t="array" ref="I6">_FV(A6,"Price")</f>
-        <v>104.08</v>
+        <v>175.01990000000001</v>
       </c>
       <c r="J6" s="3" cm="1">
         <f t="array" ref="J6">_FV(A6,"Change (%)",TRUE)</f>
-        <v>-5.6369999999999996E-3</v>
+        <v>-5.6249999999999998E-3</v>
       </c>
       <c r="K6" s="2" cm="1">
         <f t="array" ref="K6">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>105.08</v>
+        <v>175.83</v>
       </c>
       <c r="L6" s="2" cm="1">
         <f t="array" ref="L6">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>73.540000000000006</v>
+        <v>108.08</v>
       </c>
       <c r="M6" s="3">
-        <f t="shared" si="0"/>
-        <v>9.5165588123334605E-3</v>
+        <f>(K6-I6)/K6</f>
+        <v>4.6072911334812351E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
       <c r="B7" s="1" t="str" cm="1">
         <f t="array" ref="B7">_FV(A7,"Ticker symbol",TRUE)</f>
-        <v>GLDM</v>
+        <v>XLV</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" s="3" cm="1">
         <f t="array" ref="E7">_FV(A7,"Expense ratio",TRUE)</f>
-        <v>1.8E-3</v>
+        <v>1.4000000000000002E-3</v>
       </c>
       <c r="F7" s="2" cm="1">
         <f t="array" ref="F7">_FV(A7,"Open")</f>
-        <v>18.010000000000002</v>
+        <v>104.5</v>
       </c>
       <c r="G7" s="2" cm="1">
         <f t="array" ref="G7">_FV(A7,"High")</f>
-        <v>18.03</v>
+        <v>104.54</v>
       </c>
       <c r="H7" s="2" cm="1">
         <f t="array" ref="H7">_FV(A7,"Low")</f>
-        <v>17.899999999999999</v>
+        <v>103.72499999999999</v>
       </c>
       <c r="I7" s="2" cm="1">
         <f t="array" ref="I7">_FV(A7,"Price")</f>
-        <v>17.900099999999998</v>
+        <v>104.08</v>
       </c>
       <c r="J7" s="3" cm="1">
         <f t="array" ref="J7">_FV(A7,"Change (%)",TRUE)</f>
-        <v>-9.127999999999999E-3</v>
+        <v>-5.6369999999999996E-3</v>
       </c>
       <c r="K7" s="2" cm="1">
         <f t="array" ref="K7">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>18.12</v>
+        <v>105.08</v>
       </c>
       <c r="L7" s="2" cm="1">
         <f t="array" ref="L7">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>13.99</v>
+        <v>73.540000000000006</v>
       </c>
       <c r="M7" s="3">
-        <f t="shared" si="0"/>
-        <v>1.2135761589404119E-2</v>
+        <f>(K7-I7)/K7</f>
+        <v>9.5165588123334605E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
       <c r="B8" s="1" t="str" cm="1">
         <f t="array" ref="B8">_FV(A8,"Ticker symbol",TRUE)</f>
-        <v>SLV</v>
+        <v>GLDM</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" s="3" cm="1">
         <f t="array" ref="E8">_FV(A8,"Expense ratio",TRUE)</f>
-        <v>5.0000000000000001E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="F8" s="2" cm="1">
         <f t="array" ref="F8">_FV(A8,"Open")</f>
-        <v>18</v>
+        <v>18.010000000000002</v>
       </c>
       <c r="G8" s="2" cm="1">
         <f t="array" ref="G8">_FV(A8,"High")</f>
-        <v>18.059999999999999</v>
+        <v>18.03</v>
       </c>
       <c r="H8" s="2" cm="1">
         <f t="array" ref="H8">_FV(A8,"Low")</f>
-        <v>17.809999999999999</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="I8" s="2" cm="1">
         <f t="array" ref="I8">_FV(A8,"Price")</f>
-        <v>17.844999999999999</v>
+        <v>17.900099999999998</v>
       </c>
       <c r="J8" s="3" cm="1">
         <f t="array" ref="J8">_FV(A8,"Change (%)",TRUE)</f>
-        <v>-1.7346E-2</v>
+        <v>-9.127999999999999E-3</v>
       </c>
       <c r="K8" s="2" cm="1">
         <f t="array" ref="K8">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>18.350000000000001</v>
+        <v>18.12</v>
       </c>
       <c r="L8" s="2" cm="1">
         <f t="array" ref="L8">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>10.86</v>
+        <v>13.99</v>
       </c>
       <c r="M8" s="3">
-        <f t="shared" si="0"/>
-        <v>2.7520435967302588E-2</v>
+        <f>(K8-I8)/K8</f>
+        <v>1.2135761589404119E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
-      <c r="B9" s="1" t="str" cm="1">
+      <c r="B9" s="4" t="str" cm="1">
         <f t="array" ref="B9">_FV(A9,"Ticker symbol",TRUE)</f>
-        <v>SMH</v>
+        <v>HACK</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="3" cm="1">
         <f t="array" ref="E9">_FV(A9,"Expense ratio",TRUE)</f>
-        <v>3.4999999999999996E-3</v>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="F9" s="2" cm="1">
         <f t="array" ref="F9">_FV(A9,"Open")</f>
-        <v>158.09</v>
+        <v>45.44</v>
       </c>
       <c r="G9" s="2" cm="1">
         <f t="array" ref="G9">_FV(A9,"High")</f>
-        <v>159.6532</v>
+        <v>46.02</v>
       </c>
       <c r="H9" s="2" cm="1">
         <f t="array" ref="H9">_FV(A9,"Low")</f>
-        <v>157.1</v>
+        <v>45.24</v>
       </c>
       <c r="I9" s="2" cm="1">
         <f t="array" ref="I9">_FV(A9,"Price")</f>
-        <v>158.93199999999999</v>
+        <v>45.92</v>
       </c>
       <c r="J9" s="3" cm="1">
         <f t="array" ref="J9">_FV(A9,"Change (%)",TRUE)</f>
-        <v>-4.1229999999999999E-3</v>
+        <v>1.6153999999999998E-2</v>
       </c>
       <c r="K9" s="2" cm="1">
         <f t="array" ref="K9">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>164.0539</v>
+        <v>46.77</v>
       </c>
       <c r="L9" s="2" cm="1">
         <f t="array" ref="L9">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>96</v>
+        <v>29.02</v>
       </c>
       <c r="M9" s="3">
-        <f t="shared" si="0"/>
-        <v>3.1220836566518754E-2</v>
+        <f>(K9-I9)/K9</f>
+        <v>1.8174043190079141E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="e" vm="9">
         <v>#VALUE!</v>
       </c>
-      <c r="B10" s="1" t="str" cm="1">
+      <c r="B10" s="4" t="str" cm="1">
         <f t="array" ref="B10">_FV(A10,"Ticker symbol",TRUE)</f>
-        <v>FTEC</v>
+        <v>ARKQ</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E10" s="3" cm="1">
         <f t="array" ref="E10">_FV(A10,"Expense ratio",TRUE)</f>
-        <v>8.0000000000000004E-4</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="F10" s="2" cm="1">
         <f t="array" ref="F10">_FV(A10,"Open")</f>
-        <v>83.92</v>
+        <v>51.97</v>
       </c>
       <c r="G10" s="2" cm="1">
         <f t="array" ref="G10">_FV(A10,"High")</f>
-        <v>83.958299999999994</v>
+        <v>52.33</v>
       </c>
       <c r="H10" s="2" cm="1">
         <f t="array" ref="H10">_FV(A10,"Low")</f>
-        <v>83.02</v>
+        <v>51.6601</v>
       </c>
       <c r="I10" s="2" cm="1">
         <f t="array" ref="I10">_FV(A10,"Price")</f>
-        <v>83.58</v>
+        <v>52.27</v>
       </c>
       <c r="J10" s="3" cm="1">
         <f t="array" ref="J10">_FV(A10,"Change (%)",TRUE)</f>
-        <v>-1.3455999999999999E-2</v>
+        <v>1.4754E-2</v>
       </c>
       <c r="K10" s="2" cm="1">
         <f t="array" ref="K10">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>86.4</v>
+        <v>53.46</v>
       </c>
       <c r="L10" s="2" cm="1">
         <f t="array" ref="L10">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>53</v>
+        <v>26.19</v>
       </c>
       <c r="M10" s="3">
-        <f t="shared" si="0"/>
-        <v>3.2638888888888974E-2</v>
+        <f>(K10-I10)/K10</f>
+        <v>2.225963337074444E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
-      <c r="B11" s="1" t="str" cm="1">
+      <c r="B11" s="4" t="str" cm="1">
         <f t="array" ref="B11">_FV(A11,"Ticker symbol",TRUE)</f>
-        <v>XLK</v>
+        <v>GDAT</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E11" s="3" cm="1">
         <f t="array" ref="E11">_FV(A11,"Expense ratio",TRUE)</f>
-        <v>1.4000000000000002E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F11" s="2" cm="1">
         <f t="array" ref="F11">_FV(A11,"Open")</f>
-        <v>106.495</v>
+        <v>65.159599999999998</v>
       </c>
       <c r="G11" s="2" cm="1">
         <f t="array" ref="G11">_FV(A11,"High")</f>
-        <v>106.79</v>
+        <v>65.575000000000003</v>
       </c>
       <c r="H11" s="2" cm="1">
         <f t="array" ref="H11">_FV(A11,"Low")</f>
-        <v>105.4906</v>
+        <v>65.159599999999998</v>
       </c>
       <c r="I11" s="2" cm="1">
         <f t="array" ref="I11">_FV(A11,"Price")</f>
-        <v>106.05</v>
+        <v>65.536799999999999</v>
       </c>
       <c r="J11" s="3" cm="1">
         <f t="array" ref="J11">_FV(A11,"Change (%)",TRUE)</f>
-        <v>-1.4588E-2</v>
+        <v>8.7609999999999997E-3</v>
       </c>
       <c r="K11" s="2" cm="1">
         <f t="array" ref="K11">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>109.72</v>
+        <v>67.260000000000005</v>
       </c>
       <c r="L11" s="2" cm="1">
         <f t="array" ref="L11">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>68.099999999999994</v>
+        <v>41.99</v>
       </c>
       <c r="M11" s="3">
-        <f t="shared" si="0"/>
-        <v>3.3448778709442233E-2</v>
+        <f>(K11-I11)/K11</f>
+        <v>2.5619982158786879E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="e" vm="11">
         <v>#VALUE!</v>
       </c>
       <c r="B12" s="1" t="str" cm="1">
         <f t="array" ref="B12">_FV(A12,"Ticker symbol",TRUE)</f>
-        <v>VGT</v>
+        <v>SLV</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" s="3" cm="1">
         <f t="array" ref="E12">_FV(A12,"Expense ratio",TRUE)</f>
-        <v>1E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F12" s="2" cm="1">
         <f t="array" ref="F12">_FV(A12,"Open")</f>
-        <v>283.22000000000003</v>
+        <v>18</v>
       </c>
       <c r="G12" s="2" cm="1">
         <f t="array" ref="G12">_FV(A12,"High")</f>
-        <v>284.5</v>
+        <v>18.059999999999999</v>
       </c>
       <c r="H12" s="2" cm="1">
         <f t="array" ref="H12">_FV(A12,"Low")</f>
-        <v>280.98</v>
+        <v>17.809999999999999</v>
       </c>
       <c r="I12" s="2" cm="1">
         <f t="array" ref="I12">_FV(A12,"Price")</f>
-        <v>282.64</v>
+        <v>17.844999999999999</v>
       </c>
       <c r="J12" s="3" cm="1">
         <f t="array" ref="J12">_FV(A12,"Change (%)",TRUE)</f>
-        <v>-1.4333E-2</v>
+        <v>-1.7346E-2</v>
       </c>
       <c r="K12" s="2" cm="1">
         <f t="array" ref="K12">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>292.44</v>
+        <v>18.350000000000001</v>
       </c>
       <c r="L12" s="2" cm="1">
         <f t="array" ref="L12">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>179.45</v>
+        <v>10.86</v>
       </c>
       <c r="M12" s="3">
-        <f t="shared" si="0"/>
-        <v>3.3511147585829612E-2</v>
+        <f>(K12-I12)/K12</f>
+        <v>2.7520435967302588E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="e" vm="12">
         <v>#VALUE!</v>
       </c>
       <c r="B13" s="1" t="str" cm="1">
         <f t="array" ref="B13">_FV(A13,"Ticker symbol",TRUE)</f>
-        <v>XSD</v>
+        <v>SMH</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E13" s="3" cm="1">
         <f t="array" ref="E13">_FV(A13,"Expense ratio",TRUE)</f>
@@ -3533,560 +7031,560 @@
       </c>
       <c r="F13" s="2" cm="1">
         <f t="array" ref="F13">_FV(A13,"Open")</f>
-        <v>117</v>
+        <v>158.09</v>
       </c>
       <c r="G13" s="2" cm="1">
         <f t="array" ref="G13">_FV(A13,"High")</f>
-        <v>117.182</v>
+        <v>159.6532</v>
       </c>
       <c r="H13" s="2" cm="1">
         <f t="array" ref="H13">_FV(A13,"Low")</f>
-        <v>116.125</v>
+        <v>157.1</v>
       </c>
       <c r="I13" s="2" cm="1">
         <f t="array" ref="I13">_FV(A13,"Price")</f>
-        <v>116.81010000000001</v>
+        <v>158.93199999999999</v>
       </c>
       <c r="J13" s="3" cm="1">
         <f t="array" ref="J13">_FV(A13,"Change (%)",TRUE)</f>
-        <v>-1.3512E-2</v>
+        <v>-4.1229999999999999E-3</v>
       </c>
       <c r="K13" s="2" cm="1">
         <f t="array" ref="K13">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>120.95</v>
+        <v>164.0539</v>
       </c>
       <c r="L13" s="2" cm="1">
         <f t="array" ref="L13">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>68.948099999999997</v>
+        <v>96</v>
       </c>
       <c r="M13" s="3">
-        <f t="shared" si="0"/>
-        <v>3.4228193468375336E-2</v>
+        <f>(K13-I13)/K13</f>
+        <v>3.1220836566518754E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="e" vm="13">
         <v>#VALUE!</v>
       </c>
-      <c r="B14" s="1" t="str" cm="1">
+      <c r="B14" s="4" t="str" cm="1">
         <f t="array" ref="B14">_FV(A14,"Ticker symbol",TRUE)</f>
-        <v>ARKG</v>
+        <v>IHAK</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="3" cm="1">
+        <v>15</v>
+      </c>
+      <c r="E14" s="3" t="e" cm="1" vm="14">
         <f t="array" ref="E14">_FV(A14,"Expense ratio",TRUE)</f>
-        <v>7.4999999999999997E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F14" s="2" cm="1">
         <f t="array" ref="F14">_FV(A14,"Open")</f>
-        <v>57.06</v>
+        <v>31.82</v>
       </c>
       <c r="G14" s="2" cm="1">
         <f t="array" ref="G14">_FV(A14,"High")</f>
-        <v>57.155000000000001</v>
+        <v>32.15</v>
       </c>
       <c r="H14" s="2" cm="1">
         <f t="array" ref="H14">_FV(A14,"Low")</f>
-        <v>55.72</v>
+        <v>31.5883</v>
       </c>
       <c r="I14" s="2" cm="1">
         <f t="array" ref="I14">_FV(A14,"Price")</f>
-        <v>56.094999999999999</v>
+        <v>32.11</v>
       </c>
       <c r="J14" s="3" cm="1">
         <f t="array" ref="J14">_FV(A14,"Change (%)",TRUE)</f>
-        <v>-2.579E-2</v>
+        <v>1.4855E-2</v>
       </c>
       <c r="K14" s="2" cm="1">
         <f t="array" ref="K14">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>58.47</v>
+        <v>33.1601</v>
       </c>
       <c r="L14" s="2" cm="1">
         <f t="array" ref="L14">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>24</v>
+        <v>20.36</v>
       </c>
       <c r="M14" s="3">
-        <f t="shared" si="0"/>
-        <v>4.0619120916709425E-2</v>
+        <f>(K14-I14)/K14</f>
+        <v>3.1667576394522348E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="e" vm="14">
+    <row r="15" spans="1:13">
+      <c r="A15" s="1" t="e" vm="15">
         <v>#VALUE!</v>
       </c>
       <c r="B15" s="1" t="str" cm="1">
         <f t="array" ref="B15">_FV(A15,"Ticker symbol",TRUE)</f>
-        <v>VOO</v>
+        <v>FTEC</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E15" s="3" cm="1">
         <f t="array" ref="E15">_FV(A15,"Expense ratio",TRUE)</f>
-        <v>4.0000000000000002E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="F15" s="2" cm="1">
         <f t="array" ref="F15">_FV(A15,"Open")</f>
-        <v>293.74</v>
+        <v>83.92</v>
       </c>
       <c r="G15" s="2" cm="1">
         <f t="array" ref="G15">_FV(A15,"High")</f>
-        <v>294.61</v>
+        <v>83.958299999999994</v>
       </c>
       <c r="H15" s="2" cm="1">
         <f t="array" ref="H15">_FV(A15,"Low")</f>
-        <v>293.14999999999998</v>
+        <v>83.02</v>
       </c>
       <c r="I15" s="2" cm="1">
         <f t="array" ref="I15">_FV(A15,"Price")</f>
-        <v>293.62</v>
+        <v>83.58</v>
       </c>
       <c r="J15" s="3" cm="1">
         <f t="array" ref="J15">_FV(A15,"Change (%)",TRUE)</f>
-        <v>-7.1349999999999998E-3</v>
+        <v>-1.3455999999999999E-2</v>
       </c>
       <c r="K15" s="2" cm="1">
         <f t="array" ref="K15">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>311.58999999999997</v>
+        <v>86.4</v>
       </c>
       <c r="L15" s="2" cm="1">
         <f t="array" ref="L15">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>200.55</v>
+        <v>53</v>
       </c>
       <c r="M15" s="3">
-        <f t="shared" si="0"/>
-        <v>5.7671940691292958E-2</v>
+        <f>(K15-I15)/K15</f>
+        <v>3.2638888888888974E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="e" vm="15">
+    <row r="16" spans="1:13">
+      <c r="A16" s="1" t="e" vm="16">
         <v>#VALUE!</v>
       </c>
       <c r="B16" s="1" t="str" cm="1">
         <f t="array" ref="B16">_FV(A16,"Ticker symbol",TRUE)</f>
-        <v>IVV</v>
+        <v>XLK</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E16" s="3" cm="1">
         <f t="array" ref="E16">_FV(A16,"Expense ratio",TRUE)</f>
-        <v>4.0000000000000002E-4</v>
+        <v>1.4000000000000002E-3</v>
       </c>
       <c r="F16" s="2" cm="1">
         <f t="array" ref="F16">_FV(A16,"Open")</f>
-        <v>320.91000000000003</v>
+        <v>106.495</v>
       </c>
       <c r="G16" s="2" cm="1">
         <f t="array" ref="G16">_FV(A16,"High")</f>
-        <v>321.95999999999998</v>
+        <v>106.79</v>
       </c>
       <c r="H16" s="2" cm="1">
         <f t="array" ref="H16">_FV(A16,"Low")</f>
-        <v>320.38</v>
+        <v>105.4906</v>
       </c>
       <c r="I16" s="2" cm="1">
         <f t="array" ref="I16">_FV(A16,"Price")</f>
-        <v>320.93</v>
+        <v>106.05</v>
       </c>
       <c r="J16" s="3" cm="1">
         <f t="array" ref="J16">_FV(A16,"Change (%)",TRUE)</f>
-        <v>-7.1770000000000002E-3</v>
+        <v>-1.4588E-2</v>
       </c>
       <c r="K16" s="2" cm="1">
         <f t="array" ref="K16">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>340.63119999999998</v>
+        <v>109.72</v>
       </c>
       <c r="L16" s="2" cm="1">
         <f t="array" ref="L16">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>220.2756</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="M16" s="3">
-        <f t="shared" si="0"/>
-        <v>5.7837332575524418E-2</v>
+        <f>(K16-I16)/K16</f>
+        <v>3.3448778709442233E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="e" vm="16">
+    <row r="17" spans="1:13">
+      <c r="A17" s="1" t="e" vm="17">
         <v>#VALUE!</v>
       </c>
-      <c r="B17" s="4" t="str" cm="1">
+      <c r="B17" s="1" t="str" cm="1">
         <f t="array" ref="B17">_FV(A17,"Ticker symbol",TRUE)</f>
-        <v>VTI</v>
+        <v>VGT</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E17" s="3" cm="1">
         <f t="array" ref="E17">_FV(A17,"Expense ratio",TRUE)</f>
-        <v>4.0000000000000002E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="F17" s="2" cm="1">
         <f t="array" ref="F17">_FV(A17,"Open")</f>
-        <v>162.1</v>
+        <v>283.22000000000003</v>
       </c>
       <c r="G17" s="2" cm="1">
         <f t="array" ref="G17">_FV(A17,"High")</f>
-        <v>162.80000000000001</v>
+        <v>284.5</v>
       </c>
       <c r="H17" s="2" cm="1">
         <f t="array" ref="H17">_FV(A17,"Low")</f>
-        <v>161.68</v>
+        <v>280.98</v>
       </c>
       <c r="I17" s="2" cm="1">
         <f t="array" ref="I17">_FV(A17,"Price")</f>
-        <v>162.47999999999999</v>
+        <v>282.64</v>
       </c>
       <c r="J17" s="3" cm="1">
         <f t="array" ref="J17">_FV(A17,"Change (%)",TRUE)</f>
-        <v>-4.4120000000000001E-3</v>
+        <v>-1.4333E-2</v>
       </c>
       <c r="K17" s="2" cm="1">
         <f t="array" ref="K17">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>172.55670000000001</v>
+        <v>292.44</v>
       </c>
       <c r="L17" s="2" cm="1">
         <f t="array" ref="L17">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>109.49</v>
+        <v>179.45</v>
       </c>
       <c r="M17" s="3">
-        <f t="shared" si="0"/>
-        <v>5.839645751222651E-2</v>
+        <f>(K17-I17)/K17</f>
+        <v>3.3511147585829612E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="e" vm="17">
+    <row r="18" spans="1:13">
+      <c r="A18" s="1" t="e" vm="18">
         <v>#VALUE!</v>
       </c>
       <c r="B18" s="1" t="str" cm="1">
         <f t="array" ref="B18">_FV(A18,"Ticker symbol",TRUE)</f>
-        <v>SKYY</v>
+        <v>XSD</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E18" s="3" cm="1">
         <f t="array" ref="E18">_FV(A18,"Expense ratio",TRUE)</f>
-        <v>6.0000000000000001E-3</v>
+        <v>3.4999999999999996E-3</v>
       </c>
       <c r="F18" s="2" cm="1">
         <f t="array" ref="F18">_FV(A18,"Open")</f>
-        <v>74.19</v>
+        <v>117</v>
       </c>
       <c r="G18" s="2" cm="1">
         <f t="array" ref="G18">_FV(A18,"High")</f>
-        <v>74.359899999999996</v>
+        <v>117.182</v>
       </c>
       <c r="H18" s="2" cm="1">
         <f t="array" ref="H18">_FV(A18,"Low")</f>
-        <v>73.31</v>
+        <v>116.125</v>
       </c>
       <c r="I18" s="2" cm="1">
         <f t="array" ref="I18">_FV(A18,"Price")</f>
-        <v>74.040000000000006</v>
+        <v>116.81010000000001</v>
       </c>
       <c r="J18" s="3" cm="1">
         <f t="array" ref="J18">_FV(A18,"Change (%)",TRUE)</f>
-        <v>-1.1482000000000001E-2</v>
+        <v>-1.3512E-2</v>
       </c>
       <c r="K18" s="2" cm="1">
         <f t="array" ref="K18">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>78.92</v>
+        <v>120.95</v>
       </c>
       <c r="L18" s="2" cm="1">
         <f t="array" ref="L18">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>45</v>
+        <v>68.948099999999997</v>
       </c>
       <c r="M18" s="3">
-        <f t="shared" si="0"/>
-        <v>6.1834769386720674E-2</v>
+        <f>(K18-I18)/K18</f>
+        <v>3.4228193468375336E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="e" vm="18">
+    <row r="19" spans="1:13">
+      <c r="A19" s="1" t="e" vm="19">
         <v>#VALUE!</v>
       </c>
       <c r="B19" s="1" t="str" cm="1">
         <f t="array" ref="B19">_FV(A19,"Ticker symbol",TRUE)</f>
-        <v>CLOU</v>
+        <v>ARKG</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E19" s="3" cm="1">
         <f t="array" ref="E19">_FV(A19,"Expense ratio",TRUE)</f>
-        <v>6.8000000000000005E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="F19" s="2" cm="1">
         <f t="array" ref="F19">_FV(A19,"Open")</f>
-        <v>21.69</v>
+        <v>57.06</v>
       </c>
       <c r="G19" s="2" cm="1">
         <f t="array" ref="G19">_FV(A19,"High")</f>
-        <v>21.7</v>
+        <v>57.155000000000001</v>
       </c>
       <c r="H19" s="2" cm="1">
         <f t="array" ref="H19">_FV(A19,"Low")</f>
-        <v>21.25</v>
+        <v>55.72</v>
       </c>
       <c r="I19" s="2" cm="1">
         <f t="array" ref="I19">_FV(A19,"Price")</f>
-        <v>21.63</v>
+        <v>56.094999999999999</v>
       </c>
       <c r="J19" s="3" cm="1">
         <f t="array" ref="J19">_FV(A19,"Change (%)",TRUE)</f>
-        <v>-1.3680000000000001E-2</v>
+        <v>-2.579E-2</v>
       </c>
       <c r="K19" s="2" cm="1">
         <f t="array" ref="K19">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>23.19</v>
+        <v>58.47</v>
       </c>
       <c r="L19" s="2" cm="1">
         <f t="array" ref="L19">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>12.36</v>
+        <v>24</v>
       </c>
       <c r="M19" s="3">
-        <f t="shared" si="0"/>
-        <v>6.7270375161707724E-2</v>
+        <f>(K19-I19)/K19</f>
+        <v>4.0619120916709425E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="e" vm="19">
+    <row r="20" spans="1:13">
+      <c r="A20" s="1" t="e" vm="20">
         <v>#VALUE!</v>
       </c>
-      <c r="B20" s="1" t="str" cm="1">
+      <c r="B20" s="4" t="str" cm="1">
         <f t="array" ref="B20">_FV(A20,"Ticker symbol",TRUE)</f>
-        <v>ARKW</v>
+        <v>XITK</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E20" s="3" cm="1">
         <f t="array" ref="E20">_FV(A20,"Expense ratio",TRUE)</f>
-        <v>7.4999999999999997E-3</v>
+        <v>4.5000000000000005E-3</v>
       </c>
       <c r="F20" s="2" cm="1">
         <f t="array" ref="F20">_FV(A20,"Open")</f>
-        <v>93</v>
+        <v>150.19999999999999</v>
       </c>
       <c r="G20" s="2" cm="1">
         <f t="array" ref="G20">_FV(A20,"High")</f>
-        <v>94.349900000000005</v>
+        <v>151.38</v>
       </c>
       <c r="H20" s="2" cm="1">
         <f t="array" ref="H20">_FV(A20,"Low")</f>
-        <v>92.34</v>
+        <v>149.43700000000001</v>
       </c>
       <c r="I20" s="2" cm="1">
         <f t="array" ref="I20">_FV(A20,"Price")</f>
-        <v>93.996200000000002</v>
+        <v>151.2039</v>
       </c>
       <c r="J20" s="3" cm="1">
         <f t="array" ref="J20">_FV(A20,"Change (%)",TRUE)</f>
-        <v>-6.803E-3</v>
+        <v>6.6839999999999998E-3</v>
       </c>
       <c r="K20" s="2" cm="1">
         <f t="array" ref="K20">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>100.91</v>
+        <v>159.9</v>
       </c>
       <c r="L20" s="2" cm="1">
         <f t="array" ref="L20">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>40.494999999999997</v>
+        <v>81.5</v>
       </c>
       <c r="M20" s="3">
-        <f t="shared" si="0"/>
-        <v>6.8514517887226192E-2</v>
+        <f>(K20-I20)/K20</f>
+        <v>5.4384615384615392E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="e" vm="20">
+    <row r="21" spans="1:13">
+      <c r="A21" s="1" t="e" vm="21">
         <v>#VALUE!</v>
       </c>
       <c r="B21" s="1" t="str" cm="1">
         <f t="array" ref="B21">_FV(A21,"Ticker symbol",TRUE)</f>
-        <v>WCLD</v>
+        <v>VOO</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="1" t="e" cm="1" vm="21">
+        <v>18</v>
+      </c>
+      <c r="E21" s="3" cm="1">
         <f t="array" ref="E21">_FV(A21,"Expense ratio",TRUE)</f>
-        <v>#VALUE!</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="F21" s="2" cm="1">
         <f t="array" ref="F21">_FV(A21,"Open")</f>
-        <v>38.9</v>
+        <v>293.74</v>
       </c>
       <c r="G21" s="2" cm="1">
         <f t="array" ref="G21">_FV(A21,"High")</f>
-        <v>38.99</v>
+        <v>294.61</v>
       </c>
       <c r="H21" s="2" cm="1">
         <f t="array" ref="H21">_FV(A21,"Low")</f>
-        <v>37.93</v>
+        <v>293.14999999999998</v>
       </c>
       <c r="I21" s="2" cm="1">
         <f t="array" ref="I21">_FV(A21,"Price")</f>
-        <v>38.74</v>
+        <v>293.62</v>
       </c>
       <c r="J21" s="3" cm="1">
         <f t="array" ref="J21">_FV(A21,"Change (%)",TRUE)</f>
-        <v>-1.3747000000000001E-2</v>
+        <v>-7.1349999999999998E-3</v>
       </c>
       <c r="K21" s="2" cm="1">
         <f t="array" ref="K21">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>42.77</v>
+        <v>311.58999999999997</v>
       </c>
       <c r="L21" s="2" cm="1">
         <f t="array" ref="L21">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>18.989999999999998</v>
+        <v>200.55</v>
       </c>
       <c r="M21" s="3">
-        <f t="shared" si="0"/>
-        <v>9.4224924012158068E-2</v>
+        <f>(K21-I21)/K21</f>
+        <v>5.7671940691292958E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="e" vm="22">
         <v>#VALUE!</v>
       </c>
-      <c r="B22" s="4" t="str" cm="1">
+      <c r="B22" s="1" t="str" cm="1">
         <f t="array" ref="B22">_FV(A22,"Ticker symbol",TRUE)</f>
-        <v>SCHD</v>
+        <v>IVV</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E22" s="3" cm="1">
         <f t="array" ref="E22">_FV(A22,"Expense ratio",TRUE)</f>
-        <v>7.000000000000001E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="F22" s="2" cm="1">
         <f t="array" ref="F22">_FV(A22,"Open")</f>
-        <v>53.13</v>
+        <v>320.91000000000003</v>
       </c>
       <c r="G22" s="2" cm="1">
         <f t="array" ref="G22">_FV(A22,"High")</f>
-        <v>53.71</v>
+        <v>321.95999999999998</v>
       </c>
       <c r="H22" s="2" cm="1">
         <f t="array" ref="H22">_FV(A22,"Low")</f>
-        <v>52.9</v>
+        <v>320.38</v>
       </c>
       <c r="I22" s="2" cm="1">
         <f t="array" ref="I22">_FV(A22,"Price")</f>
-        <v>53.43</v>
+        <v>320.93</v>
       </c>
       <c r="J22" s="3" cm="1">
         <f t="array" ref="J22">_FV(A22,"Change (%)",TRUE)</f>
-        <v>1.8749999999999999E-3</v>
+        <v>-7.1770000000000002E-3</v>
       </c>
       <c r="K22" s="2" cm="1">
         <f t="array" ref="K22">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>59.56</v>
+        <v>340.63119999999998</v>
       </c>
       <c r="L22" s="2" cm="1">
         <f t="array" ref="L22">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>38.825000000000003</v>
+        <v>220.2756</v>
       </c>
       <c r="M22" s="3">
-        <f t="shared" si="0"/>
-        <v>0.10292142377434524</v>
+        <f>(K22-I22)/K22</f>
+        <v>5.7837332575524418E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="e" vm="23">
         <v>#VALUE!</v>
       </c>
       <c r="B23" s="4" t="str" cm="1">
         <f t="array" ref="B23">_FV(A23,"Ticker symbol",TRUE)</f>
-        <v>VYM</v>
+        <v>VTI</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E23" s="3" cm="1">
         <f t="array" ref="E23">_FV(A23,"Expense ratio",TRUE)</f>
-        <v>8.0000000000000004E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="F23" s="2" cm="1">
         <f t="array" ref="F23">_FV(A23,"Open")</f>
-        <v>80.95</v>
+        <v>162.1</v>
       </c>
       <c r="G23" s="2" cm="1">
         <f t="array" ref="G23">_FV(A23,"High")</f>
-        <v>81.650000000000006</v>
+        <v>162.80000000000001</v>
       </c>
       <c r="H23" s="2" cm="1">
         <f t="array" ref="H23">_FV(A23,"Low")</f>
-        <v>80.709999999999994</v>
+        <v>161.68</v>
       </c>
       <c r="I23" s="2" cm="1">
         <f t="array" ref="I23">_FV(A23,"Price")</f>
-        <v>81.400000000000006</v>
+        <v>162.47999999999999</v>
       </c>
       <c r="J23" s="3" cm="1">
         <f t="array" ref="J23">_FV(A23,"Change (%)",TRUE)</f>
-        <v>1.6000000000000001E-3</v>
+        <v>-4.4120000000000001E-3</v>
       </c>
       <c r="K23" s="2" cm="1">
         <f t="array" ref="K23">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>94.86</v>
+        <v>172.55670000000001</v>
       </c>
       <c r="L23" s="2" cm="1">
         <f t="array" ref="L23">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>60.07</v>
+        <v>109.49</v>
       </c>
       <c r="M23" s="3">
-        <f t="shared" si="0"/>
-        <v>0.14189331646637143</v>
+        <f>(K23-I23)/K23</f>
+        <v>5.839645751222651E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="e" vm="24">
         <v>#VALUE!</v>
       </c>
       <c r="B24" s="1" t="str" cm="1">
         <f t="array" ref="B24">_FV(A24,"Ticker symbol",TRUE)</f>
-        <v>PALL</v>
+        <v>SKYY</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E24" s="3" cm="1">
         <f t="array" ref="E24">_FV(A24,"Expense ratio",TRUE)</f>
@@ -4094,38 +7592,449 @@
       </c>
       <c r="F24" s="2" cm="1">
         <f t="array" ref="F24">_FV(A24,"Open")</f>
-        <v>187.3</v>
+        <v>74.19</v>
       </c>
       <c r="G24" s="2" cm="1">
         <f t="array" ref="G24">_FV(A24,"High")</f>
-        <v>191.898</v>
+        <v>74.359899999999996</v>
       </c>
       <c r="H24" s="2" cm="1">
         <f t="array" ref="H24">_FV(A24,"Low")</f>
-        <v>186.5</v>
+        <v>73.31</v>
       </c>
       <c r="I24" s="2" cm="1">
         <f t="array" ref="I24">_FV(A24,"Price")</f>
-        <v>186.94</v>
+        <v>74.040000000000006</v>
       </c>
       <c r="J24" s="3" cm="1">
         <f t="array" ref="J24">_FV(A24,"Change (%)",TRUE)</f>
-        <v>-3.2089999999999999E-4</v>
+        <v>-1.1482000000000001E-2</v>
       </c>
       <c r="K24" s="2" cm="1">
         <f t="array" ref="K24">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>273.16379999999998</v>
+        <v>78.92</v>
       </c>
       <c r="L24" s="2" cm="1">
         <f t="array" ref="L24">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
+        <v>45</v>
+      </c>
+      <c r="M24" s="3">
+        <f>(K24-I24)/K24</f>
+        <v>6.1834769386720674E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="1" t="e" vm="25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B25" s="4" t="str" cm="1">
+        <f t="array" ref="B25">_FV(A25,"Ticker symbol",TRUE)</f>
+        <v>ARKW</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="3" cm="1">
+        <f t="array" ref="E25">_FV(A25,"Expense ratio",TRUE)</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="F25" s="2" cm="1">
+        <f t="array" ref="F25">_FV(A25,"Open")</f>
+        <v>94.02</v>
+      </c>
+      <c r="G25" s="2" cm="1">
+        <f t="array" ref="G25">_FV(A25,"High")</f>
+        <v>94.63</v>
+      </c>
+      <c r="H25" s="2" cm="1">
+        <f t="array" ref="H25">_FV(A25,"Low")</f>
+        <v>93.270099999999999</v>
+      </c>
+      <c r="I25" s="2" cm="1">
+        <f t="array" ref="I25">_FV(A25,"Price")</f>
+        <v>94.34</v>
+      </c>
+      <c r="J25" s="3" cm="1">
+        <f t="array" ref="J25">_FV(A25,"Change (%)",TRUE)</f>
+        <v>7.1530000000000005E-3</v>
+      </c>
+      <c r="K25" s="2" cm="1">
+        <f t="array" ref="K25">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
+        <v>100.91</v>
+      </c>
+      <c r="L25" s="2" cm="1">
+        <f t="array" ref="L25">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
+        <v>40.494999999999997</v>
+      </c>
+      <c r="M25" s="3">
+        <f>(K25-I25)/K25</f>
+        <v>6.5107521553859807E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="1" t="e" vm="26">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B26" s="1" t="str" cm="1">
+        <f t="array" ref="B26">_FV(A26,"Ticker symbol",TRUE)</f>
+        <v>CLOU</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="3" cm="1">
+        <f t="array" ref="E26">_FV(A26,"Expense ratio",TRUE)</f>
+        <v>6.8000000000000005E-3</v>
+      </c>
+      <c r="F26" s="2" cm="1">
+        <f t="array" ref="F26">_FV(A26,"Open")</f>
+        <v>21.69</v>
+      </c>
+      <c r="G26" s="2" cm="1">
+        <f t="array" ref="G26">_FV(A26,"High")</f>
+        <v>21.7</v>
+      </c>
+      <c r="H26" s="2" cm="1">
+        <f t="array" ref="H26">_FV(A26,"Low")</f>
+        <v>21.25</v>
+      </c>
+      <c r="I26" s="2" cm="1">
+        <f t="array" ref="I26">_FV(A26,"Price")</f>
+        <v>21.63</v>
+      </c>
+      <c r="J26" s="3" cm="1">
+        <f t="array" ref="J26">_FV(A26,"Change (%)",TRUE)</f>
+        <v>-1.3680000000000001E-2</v>
+      </c>
+      <c r="K26" s="2" cm="1">
+        <f t="array" ref="K26">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
+        <v>23.19</v>
+      </c>
+      <c r="L26" s="2" cm="1">
+        <f t="array" ref="L26">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
+        <v>12.36</v>
+      </c>
+      <c r="M26" s="3">
+        <f>(K26-I26)/K26</f>
+        <v>6.7270375161707724E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="1" t="e" vm="27">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B27" s="1" t="str" cm="1">
+        <f t="array" ref="B27">_FV(A27,"Ticker symbol",TRUE)</f>
+        <v>ARKW</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="3" cm="1">
+        <f t="array" ref="E27">_FV(A27,"Expense ratio",TRUE)</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="F27" s="2" cm="1">
+        <f t="array" ref="F27">_FV(A27,"Open")</f>
+        <v>93</v>
+      </c>
+      <c r="G27" s="2" cm="1">
+        <f t="array" ref="G27">_FV(A27,"High")</f>
+        <v>94.349900000000005</v>
+      </c>
+      <c r="H27" s="2" cm="1">
+        <f t="array" ref="H27">_FV(A27,"Low")</f>
+        <v>92.34</v>
+      </c>
+      <c r="I27" s="2" cm="1">
+        <f t="array" ref="I27">_FV(A27,"Price")</f>
+        <v>93.996200000000002</v>
+      </c>
+      <c r="J27" s="3" cm="1">
+        <f t="array" ref="J27">_FV(A27,"Change (%)",TRUE)</f>
+        <v>-6.803E-3</v>
+      </c>
+      <c r="K27" s="2" cm="1">
+        <f t="array" ref="K27">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
+        <v>100.91</v>
+      </c>
+      <c r="L27" s="2" cm="1">
+        <f t="array" ref="L27">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
+        <v>40.494999999999997</v>
+      </c>
+      <c r="M27" s="3">
+        <f>(K27-I27)/K27</f>
+        <v>6.8514517887226192E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="1" t="e" vm="28">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B28" s="1" t="str" cm="1">
+        <f t="array" ref="B28">_FV(A28,"Ticker symbol",TRUE)</f>
+        <v>WCLD</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="1" t="e" cm="1" vm="14">
+        <f t="array" ref="E28">_FV(A28,"Expense ratio",TRUE)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F28" s="2" cm="1">
+        <f t="array" ref="F28">_FV(A28,"Open")</f>
+        <v>38.9</v>
+      </c>
+      <c r="G28" s="2" cm="1">
+        <f t="array" ref="G28">_FV(A28,"High")</f>
+        <v>38.99</v>
+      </c>
+      <c r="H28" s="2" cm="1">
+        <f t="array" ref="H28">_FV(A28,"Low")</f>
+        <v>37.93</v>
+      </c>
+      <c r="I28" s="2" cm="1">
+        <f t="array" ref="I28">_FV(A28,"Price")</f>
+        <v>38.74</v>
+      </c>
+      <c r="J28" s="3" cm="1">
+        <f t="array" ref="J28">_FV(A28,"Change (%)",TRUE)</f>
+        <v>-1.3747000000000001E-2</v>
+      </c>
+      <c r="K28" s="2" cm="1">
+        <f t="array" ref="K28">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
+        <v>42.77</v>
+      </c>
+      <c r="L28" s="2" cm="1">
+        <f t="array" ref="L28">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
+        <v>18.989999999999998</v>
+      </c>
+      <c r="M28" s="3">
+        <f>(K28-I28)/K28</f>
+        <v>9.4224924012158068E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="1" t="e" vm="29">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B29" s="4" t="str" cm="1">
+        <f t="array" ref="B29">_FV(A29,"Ticker symbol",TRUE)</f>
+        <v>SCHD</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="3" cm="1">
+        <f t="array" ref="E29">_FV(A29,"Expense ratio",TRUE)</f>
+        <v>7.000000000000001E-4</v>
+      </c>
+      <c r="F29" s="2" cm="1">
+        <f t="array" ref="F29">_FV(A29,"Open")</f>
+        <v>53.13</v>
+      </c>
+      <c r="G29" s="2" cm="1">
+        <f t="array" ref="G29">_FV(A29,"High")</f>
+        <v>53.71</v>
+      </c>
+      <c r="H29" s="2" cm="1">
+        <f t="array" ref="H29">_FV(A29,"Low")</f>
+        <v>52.9</v>
+      </c>
+      <c r="I29" s="2" cm="1">
+        <f t="array" ref="I29">_FV(A29,"Price")</f>
+        <v>53.43</v>
+      </c>
+      <c r="J29" s="3" cm="1">
+        <f t="array" ref="J29">_FV(A29,"Change (%)",TRUE)</f>
+        <v>1.8749999999999999E-3</v>
+      </c>
+      <c r="K29" s="2" cm="1">
+        <f t="array" ref="K29">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
+        <v>59.56</v>
+      </c>
+      <c r="L29" s="2" cm="1">
+        <f t="array" ref="L29">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
+        <v>38.825000000000003</v>
+      </c>
+      <c r="M29" s="3">
+        <f>(K29-I29)/K29</f>
+        <v>0.10292142377434524</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="1" t="e" vm="30">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B30" s="4" t="str" cm="1">
+        <f t="array" ref="B30">_FV(A30,"Ticker symbol",TRUE)</f>
+        <v>VYM</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="3" cm="1">
+        <f t="array" ref="E30">_FV(A30,"Expense ratio",TRUE)</f>
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="F30" s="2" cm="1">
+        <f t="array" ref="F30">_FV(A30,"Open")</f>
+        <v>80.95</v>
+      </c>
+      <c r="G30" s="2" cm="1">
+        <f t="array" ref="G30">_FV(A30,"High")</f>
+        <v>81.650000000000006</v>
+      </c>
+      <c r="H30" s="2" cm="1">
+        <f t="array" ref="H30">_FV(A30,"Low")</f>
+        <v>80.709999999999994</v>
+      </c>
+      <c r="I30" s="2" cm="1">
+        <f t="array" ref="I30">_FV(A30,"Price")</f>
+        <v>81.400000000000006</v>
+      </c>
+      <c r="J30" s="3" cm="1">
+        <f t="array" ref="J30">_FV(A30,"Change (%)",TRUE)</f>
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="K30" s="2" cm="1">
+        <f t="array" ref="K30">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
+        <v>94.86</v>
+      </c>
+      <c r="L30" s="2" cm="1">
+        <f t="array" ref="L30">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
+        <v>60.07</v>
+      </c>
+      <c r="M30" s="3">
+        <f>(K30-I30)/K30</f>
+        <v>0.14189331646637143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="1" t="e" vm="31">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B31" s="1" t="str" cm="1">
+        <f t="array" ref="B31">_FV(A31,"Ticker symbol",TRUE)</f>
+        <v>PALL</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="3" cm="1">
+        <f t="array" ref="E31">_FV(A31,"Expense ratio",TRUE)</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F31" s="2" cm="1">
+        <f t="array" ref="F31">_FV(A31,"Open")</f>
+        <v>187.3</v>
+      </c>
+      <c r="G31" s="2" cm="1">
+        <f t="array" ref="G31">_FV(A31,"High")</f>
+        <v>191.898</v>
+      </c>
+      <c r="H31" s="2" cm="1">
+        <f t="array" ref="H31">_FV(A31,"Low")</f>
+        <v>186.5</v>
+      </c>
+      <c r="I31" s="2" cm="1">
+        <f t="array" ref="I31">_FV(A31,"Price")</f>
+        <v>186.94</v>
+      </c>
+      <c r="J31" s="3" cm="1">
+        <f t="array" ref="J31">_FV(A31,"Change (%)",TRUE)</f>
+        <v>-3.2089999999999999E-4</v>
+      </c>
+      <c r="K31" s="2" cm="1">
+        <f t="array" ref="K31">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
+        <v>273.16379999999998</v>
+      </c>
+      <c r="L31" s="2" cm="1">
+        <f t="array" ref="L31">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
         <v>130.04</v>
       </c>
-      <c r="M24" s="3">
-        <f t="shared" si="0"/>
+      <c r="M31" s="3">
+        <f>(K31-I31)/K31</f>
         <v>0.31564870601448652</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="1" t="e" vm="32">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B32" s="4" t="str" cm="1">
+        <f t="array" ref="B32">_FV(A32,"Ticker symbol",TRUE)</f>
+        <v>XLE</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="3" cm="1">
+        <f t="array" ref="E32">_FV(A32,"Expense ratio",TRUE)</f>
+        <v>1.4000000000000002E-3</v>
+      </c>
+      <c r="F32" s="2" cm="1">
+        <f t="array" ref="F32">_FV(A32,"Open")</f>
+        <v>37.33</v>
+      </c>
+      <c r="G32" s="2" cm="1">
+        <f t="array" ref="G32">_FV(A32,"High")</f>
+        <v>37.74</v>
+      </c>
+      <c r="H32" s="2" cm="1">
+        <f t="array" ref="H32">_FV(A32,"Low")</f>
+        <v>36.53</v>
+      </c>
+      <c r="I32" s="2" cm="1">
+        <f t="array" ref="I32">_FV(A32,"Price")</f>
+        <v>36.69</v>
+      </c>
+      <c r="J32" s="3" cm="1">
+        <f t="array" ref="J32">_FV(A32,"Change (%)",TRUE)</f>
+        <v>-1.3975E-2</v>
+      </c>
+      <c r="K32" s="2" cm="1">
+        <f t="array" ref="K32">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
+        <v>62.0443</v>
+      </c>
+      <c r="L32" s="2" cm="1">
+        <f t="array" ref="L32">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
+        <v>22.88</v>
+      </c>
+      <c r="M32" s="3">
+        <f>(K32-I32)/K32</f>
+        <v>0.40864833675293299</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="32" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
@@ -4139,17 +8048,1371 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B40D47B-739C-4A46-AE44-24FC67F0C8A6}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="41.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
+    <col min="7" max="10" width="11.42578125" style="1"/>
+    <col min="11" max="11" width="11.42578125" style="3"/>
+    <col min="12" max="13" width="11.42578125" style="1"/>
+    <col min="14" max="14" width="11.42578125" style="3"/>
+    <col min="15" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="e" vm="33">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B2" s="1" t="str" cm="1">
+        <f t="array" ref="B2">_FV(A2,"Ticker symbol",TRUE)</f>
+        <v>WFC</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="3" t="str" cm="1">
+        <f t="array" ref="F2">_FV(A2,"Industry")</f>
+        <v>Banking Services</v>
+      </c>
+      <c r="G2" s="2" cm="1">
+        <f t="array" ref="G2">_FV(A2,"Open")</f>
+        <v>25.49</v>
+      </c>
+      <c r="H2" s="2" cm="1">
+        <f t="array" ref="H2">_FV(A2,"High")</f>
+        <v>25.64</v>
+      </c>
+      <c r="I2" s="2" cm="1">
+        <f t="array" ref="I2">_FV(A2,"Low")</f>
+        <v>24.86</v>
+      </c>
+      <c r="J2" s="2" cm="1">
+        <f t="array" ref="J2">_FV(A2,"Price")</f>
+        <v>24.95</v>
+      </c>
+      <c r="K2" s="3" cm="1">
+        <f t="array" ref="K2">_FV(A2,"Change (%)",TRUE)</f>
+        <v>-2.0031E-2</v>
+      </c>
+      <c r="L2" s="2" cm="1">
+        <f t="array" ref="L2">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
+        <v>54.75</v>
+      </c>
+      <c r="M2" s="2" cm="1">
+        <f t="array" ref="M2">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
+        <v>22</v>
+      </c>
+      <c r="N2" s="3">
+        <f>(L2-J2)/L2</f>
+        <v>0.54429223744292243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="e" vm="34">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B3" s="4" t="str" cm="1">
+        <f t="array" ref="B3">_FV(A3,"Ticker symbol",TRUE)</f>
+        <v>CQP</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2" cm="1">
+        <f t="array" ref="G3">_FV(A3,"Open")</f>
+        <v>33.630000000000003</v>
+      </c>
+      <c r="H3" s="2" cm="1">
+        <f t="array" ref="H3">_FV(A3,"High")</f>
+        <v>34.1</v>
+      </c>
+      <c r="I3" s="2" cm="1">
+        <f t="array" ref="I3">_FV(A3,"Low")</f>
+        <v>33.409999999999997</v>
+      </c>
+      <c r="J3" s="2" cm="1">
+        <f t="array" ref="J3">_FV(A3,"Price")</f>
+        <v>33.549999999999997</v>
+      </c>
+      <c r="K3" s="3" cm="1">
+        <f t="array" ref="K3">_FV(A3,"Change (%)",TRUE)</f>
+        <v>-5.0419999999999996E-3</v>
+      </c>
+      <c r="L3" s="2" cm="1">
+        <f t="array" ref="L3">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
+        <v>49.3</v>
+      </c>
+      <c r="M3" s="2" cm="1">
+        <f t="array" ref="M3">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
+        <v>17.75</v>
+      </c>
+      <c r="N3" s="3">
+        <f>(L3-J3)/L3</f>
+        <v>0.31947261663286008</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="e" vm="35">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B4" s="4" t="str" cm="1">
+        <f t="array" ref="B4">_FV(A4,"Ticker symbol",TRUE)</f>
+        <v>T</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3" t="str" cm="1">
+        <f t="array" ref="F4">_FV(A4,"Industry")</f>
+        <v>Telecommunications Services</v>
+      </c>
+      <c r="G4" s="2" cm="1">
+        <f t="array" ref="G4">_FV(A4,"Open")</f>
+        <v>30.48</v>
+      </c>
+      <c r="H4" s="2" cm="1">
+        <f t="array" ref="H4">_FV(A4,"High")</f>
+        <v>30.53</v>
+      </c>
+      <c r="I4" s="2" cm="1">
+        <f t="array" ref="I4">_FV(A4,"Low")</f>
+        <v>30.184100000000001</v>
+      </c>
+      <c r="J4" s="2" cm="1">
+        <f t="array" ref="J4">_FV(A4,"Price")</f>
+        <v>30.25</v>
+      </c>
+      <c r="K4" s="3" cm="1">
+        <f t="array" ref="K4">_FV(A4,"Change (%)",TRUE)</f>
+        <v>-4.607E-3</v>
+      </c>
+      <c r="L4" s="2" cm="1">
+        <f t="array" ref="L4">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
+        <v>39.700000000000003</v>
+      </c>
+      <c r="M4" s="2" cm="1">
+        <f t="array" ref="M4">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
+        <v>26.08</v>
+      </c>
+      <c r="N4" s="3">
+        <f>(L4-J4)/L4</f>
+        <v>0.23803526448362725</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="e" vm="36">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B5" s="4" t="str" cm="1">
+        <f t="array" ref="B5">_FV(A5,"Ticker symbol",TRUE)</f>
+        <v>KO</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="3" t="str" cm="1">
+        <f t="array" ref="F5">_FV(A5,"Industry")</f>
+        <v>Beverages</v>
+      </c>
+      <c r="G5" s="2" cm="1">
+        <f t="array" ref="G5">_FV(A5,"Open")</f>
+        <v>46.47</v>
+      </c>
+      <c r="H5" s="2" cm="1">
+        <f t="array" ref="H5">_FV(A5,"High")</f>
+        <v>46.91</v>
+      </c>
+      <c r="I5" s="2" cm="1">
+        <f t="array" ref="I5">_FV(A5,"Low")</f>
+        <v>46.125</v>
+      </c>
+      <c r="J5" s="2" cm="1">
+        <f t="array" ref="J5">_FV(A5,"Price")</f>
+        <v>46.82</v>
+      </c>
+      <c r="K5" s="3" cm="1">
+        <f t="array" ref="K5">_FV(A5,"Change (%)",TRUE)</f>
+        <v>1.4518E-2</v>
+      </c>
+      <c r="L5" s="2" cm="1">
+        <f t="array" ref="L5">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
+        <v>60.13</v>
+      </c>
+      <c r="M5" s="2" cm="1">
+        <f t="array" ref="M5">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
+        <v>36.270000000000003</v>
+      </c>
+      <c r="N5" s="3">
+        <f>(L5-J5)/L5</f>
+        <v>0.22135373357724933</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="e" vm="37">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B6" s="4" t="str" cm="1">
+        <f t="array" ref="B6">_FV(A6,"Ticker symbol",TRUE)</f>
+        <v>BAC</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="3" t="str" cm="1">
+        <f t="array" ref="F6">_FV(A6,"Industry")</f>
+        <v>Banking Services</v>
+      </c>
+      <c r="G6" s="2" cm="1">
+        <f t="array" ref="G6">_FV(A6,"Open")</f>
+        <v>23.88</v>
+      </c>
+      <c r="H6" s="2" cm="1">
+        <f t="array" ref="H6">_FV(A6,"High")</f>
+        <v>23.975000000000001</v>
+      </c>
+      <c r="I6" s="2" cm="1">
+        <f t="array" ref="I6">_FV(A6,"Low")</f>
+        <v>23.2</v>
+      </c>
+      <c r="J6" s="2" cm="1">
+        <f t="array" ref="J6">_FV(A6,"Price")</f>
+        <v>23.22</v>
+      </c>
+      <c r="K6" s="3" cm="1">
+        <f t="array" ref="K6">_FV(A6,"Change (%)",TRUE)</f>
+        <v>-2.9670000000000002E-2</v>
+      </c>
+      <c r="L6" s="2" cm="1">
+        <f t="array" ref="L6">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
+        <v>35.72</v>
+      </c>
+      <c r="M6" s="2" cm="1">
+        <f t="array" ref="M6">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
+        <v>17.95</v>
+      </c>
+      <c r="N6" s="3">
+        <f>(L6-J6)/L6</f>
+        <v>0.34994400895856664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="e" vm="38">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B7" s="4" t="str" cm="1">
+        <f t="array" ref="B7">_FV(A7,"Ticker symbol",TRUE)</f>
+        <v>JPM</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="3" t="str" cm="1">
+        <f t="array" ref="F7">_FV(A7,"Industry")</f>
+        <v>Banking Services</v>
+      </c>
+      <c r="G7" s="2" cm="1">
+        <f t="array" ref="G7">_FV(A7,"Open")</f>
+        <v>100</v>
+      </c>
+      <c r="H7" s="2" cm="1">
+        <f t="array" ref="H7">_FV(A7,"High")</f>
+        <v>100.08</v>
+      </c>
+      <c r="I7" s="2" cm="1">
+        <f t="array" ref="I7">_FV(A7,"Low")</f>
+        <v>98.14</v>
+      </c>
+      <c r="J7" s="2" cm="1">
+        <f t="array" ref="J7">_FV(A7,"Price")</f>
+        <v>98.16</v>
+      </c>
+      <c r="K7" s="3" cm="1">
+        <f t="array" ref="K7">_FV(A7,"Change (%)",TRUE)</f>
+        <v>-1.8498000000000001E-2</v>
+      </c>
+      <c r="L7" s="2" cm="1">
+        <f t="array" ref="L7">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
+        <v>141.1</v>
+      </c>
+      <c r="M7" s="2" cm="1">
+        <f t="array" ref="M7">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
+        <v>76.91</v>
+      </c>
+      <c r="N7" s="3">
+        <f>(L7-J7)/L7</f>
+        <v>0.30432317505315376</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="e" vm="39">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B8" s="4" t="str" cm="1">
+        <f t="array" ref="B8">_FV(A8,"Ticker symbol",TRUE)</f>
+        <v>OXY</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="3" t="str" cm="1">
+        <f t="array" ref="F8">_FV(A8,"Industry")</f>
+        <v>Oil &amp; Gas</v>
+      </c>
+      <c r="G8" s="2" cm="1">
+        <f t="array" ref="G8">_FV(A8,"Open")</f>
+        <v>17.04</v>
+      </c>
+      <c r="H8" s="2" cm="1">
+        <f t="array" ref="H8">_FV(A8,"High")</f>
+        <v>17.350000000000001</v>
+      </c>
+      <c r="I8" s="2" cm="1">
+        <f t="array" ref="I8">_FV(A8,"Low")</f>
+        <v>16.16</v>
+      </c>
+      <c r="J8" s="2" cm="1">
+        <f t="array" ref="J8">_FV(A8,"Price")</f>
+        <v>16.28</v>
+      </c>
+      <c r="K8" s="3" cm="1">
+        <f t="array" ref="K8">_FV(A8,"Change (%)",TRUE)</f>
+        <v>-4.2915999999999996E-2</v>
+      </c>
+      <c r="L8" s="2" cm="1">
+        <f t="array" ref="L8">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
+        <v>54.05</v>
+      </c>
+      <c r="M8" s="2" cm="1">
+        <f t="array" ref="M8">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
+        <v>9</v>
+      </c>
+      <c r="N8" s="3">
+        <f>(L8-J8)/L8</f>
+        <v>0.69879740980573535</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="e" vm="40">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B9" s="4" t="str" cm="1">
+        <f t="array" ref="B9">_FV(A9,"Ticker symbol",TRUE)</f>
+        <v>MMP</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="2" cm="1">
+        <f t="array" ref="G9">_FV(A9,"Open")</f>
+        <v>43</v>
+      </c>
+      <c r="H9" s="2" cm="1">
+        <f t="array" ref="H9">_FV(A9,"High")</f>
+        <v>43.44</v>
+      </c>
+      <c r="I9" s="2" cm="1">
+        <f t="array" ref="I9">_FV(A9,"Low")</f>
+        <v>42.21</v>
+      </c>
+      <c r="J9" s="2" cm="1">
+        <f t="array" ref="J9">_FV(A9,"Price")</f>
+        <v>42.53</v>
+      </c>
+      <c r="K9" s="3" cm="1">
+        <f t="array" ref="K9">_FV(A9,"Change (%)",TRUE)</f>
+        <v>-1.1849E-2</v>
+      </c>
+      <c r="L9" s="2" cm="1">
+        <f t="array" ref="L9">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
+        <v>67.75</v>
+      </c>
+      <c r="M9" s="2" cm="1">
+        <f t="array" ref="M9">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
+        <v>22.02</v>
+      </c>
+      <c r="N9" s="3">
+        <f>(L9-J9)/L9</f>
+        <v>0.37225092250922509</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="e" vm="41">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B10" s="4" t="str" cm="1">
+        <f t="array" ref="B10">_FV(A10,"Ticker symbol",TRUE)</f>
+        <v>COP</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="3" t="str" cm="1">
+        <f t="array" ref="F10">_FV(A10,"Industry")</f>
+        <v>Oil &amp; Gas</v>
+      </c>
+      <c r="G10" s="2" cm="1">
+        <f t="array" ref="G10">_FV(A10,"Open")</f>
+        <v>41.35</v>
+      </c>
+      <c r="H10" s="2" cm="1">
+        <f t="array" ref="H10">_FV(A10,"High")</f>
+        <v>41.67</v>
+      </c>
+      <c r="I10" s="2" cm="1">
+        <f t="array" ref="I10">_FV(A10,"Low")</f>
+        <v>39.774999999999999</v>
+      </c>
+      <c r="J10" s="2" cm="1">
+        <f t="array" ref="J10">_FV(A10,"Price")</f>
+        <v>39.96</v>
+      </c>
+      <c r="K10" s="3" cm="1">
+        <f t="array" ref="K10">_FV(A10,"Change (%)",TRUE)</f>
+        <v>-3.9191999999999998E-2</v>
+      </c>
+      <c r="L10" s="2" cm="1">
+        <f t="array" ref="L10">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
+        <v>67.13</v>
+      </c>
+      <c r="M10" s="2" cm="1">
+        <f t="array" ref="M10">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
+        <v>20.84</v>
+      </c>
+      <c r="N10" s="3">
+        <f>(L10-J10)/L10</f>
+        <v>0.40473707731267683</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="e" vm="42">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B11" s="4" t="str" cm="1">
+        <f t="array" ref="B11">_FV(A11,"Ticker symbol",TRUE)</f>
+        <v>RDS.A</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="3" t="str" cm="1">
+        <f t="array" ref="F11">_FV(A11,"Industry")</f>
+        <v>Oil &amp; Gas</v>
+      </c>
+      <c r="G11" s="2" cm="1">
+        <f t="array" ref="G11">_FV(A11,"Open")</f>
+        <v>33.31</v>
+      </c>
+      <c r="H11" s="2" cm="1">
+        <f t="array" ref="H11">_FV(A11,"High")</f>
+        <v>33.479999999999997</v>
+      </c>
+      <c r="I11" s="2" cm="1">
+        <f t="array" ref="I11">_FV(A11,"Low")</f>
+        <v>32.82</v>
+      </c>
+      <c r="J11" s="2" cm="1">
+        <f t="array" ref="J11">_FV(A11,"Price")</f>
+        <v>32.909999999999997</v>
+      </c>
+      <c r="K11" s="3" cm="1">
+        <f t="array" ref="K11">_FV(A11,"Change (%)",TRUE)</f>
+        <v>-1.7024999999999998E-2</v>
+      </c>
+      <c r="L11" s="2" cm="1">
+        <f t="array" ref="L11">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
+        <v>64.33</v>
+      </c>
+      <c r="M11" s="2" cm="1">
+        <f t="array" ref="M11">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
+        <v>21.254999999999999</v>
+      </c>
+      <c r="N11" s="3">
+        <f>(L11-J11)/L11</f>
+        <v>0.48841908907197268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="e" vm="43">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B12" s="4" t="str" cm="1">
+        <f t="array" ref="B12">_FV(A12,"Ticker symbol",TRUE)</f>
+        <v>XOM</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="3" t="str" cm="1">
+        <f t="array" ref="F12">_FV(A12,"Industry")</f>
+        <v>Oil &amp; Gas</v>
+      </c>
+      <c r="G12" s="2" cm="1">
+        <f t="array" ref="G12">_FV(A12,"Open")</f>
+        <v>44.33</v>
+      </c>
+      <c r="H12" s="2" cm="1">
+        <f t="array" ref="H12">_FV(A12,"High")</f>
+        <v>44.685000000000002</v>
+      </c>
+      <c r="I12" s="2" cm="1">
+        <f t="array" ref="I12">_FV(A12,"Low")</f>
+        <v>43.39</v>
+      </c>
+      <c r="J12" s="2" cm="1">
+        <f t="array" ref="J12">_FV(A12,"Price")</f>
+        <v>43.52</v>
+      </c>
+      <c r="K12" s="3" cm="1">
+        <f t="array" ref="K12">_FV(A12,"Change (%)",TRUE)</f>
+        <v>-1.7163999999999999E-2</v>
+      </c>
+      <c r="L12" s="2" cm="1">
+        <f t="array" ref="L12">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
+        <v>76.05</v>
+      </c>
+      <c r="M12" s="2" cm="1">
+        <f t="array" ref="M12">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
+        <v>30.11</v>
+      </c>
+      <c r="N12" s="3">
+        <f>(L12-J12)/L12</f>
+        <v>0.42774490466798154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="e" vm="44">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B13" s="4" t="str" cm="1">
+        <f t="array" ref="B13">_FV(A13,"Ticker symbol",TRUE)</f>
+        <v>VLO</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="3" t="str" cm="1">
+        <f t="array" ref="F13">_FV(A13,"Industry")</f>
+        <v>Oil &amp; Gas</v>
+      </c>
+      <c r="G13" s="2" cm="1">
+        <f t="array" ref="G13">_FV(A13,"Open")</f>
+        <v>56.98</v>
+      </c>
+      <c r="H13" s="2" cm="1">
+        <f t="array" ref="H13">_FV(A13,"High")</f>
+        <v>57.92</v>
+      </c>
+      <c r="I13" s="2" cm="1">
+        <f t="array" ref="I13">_FV(A13,"Low")</f>
+        <v>55.323</v>
+      </c>
+      <c r="J13" s="2" cm="1">
+        <f t="array" ref="J13">_FV(A13,"Price")</f>
+        <v>55.47</v>
+      </c>
+      <c r="K13" s="3" cm="1">
+        <f t="array" ref="K13">_FV(A13,"Change (%)",TRUE)</f>
+        <v>-1.9618E-2</v>
+      </c>
+      <c r="L13" s="2" cm="1">
+        <f t="array" ref="L13">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
+        <v>101.99</v>
+      </c>
+      <c r="M13" s="2" cm="1">
+        <f t="array" ref="M13">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
+        <v>31</v>
+      </c>
+      <c r="N13" s="3">
+        <f>(L13-J13)/L13</f>
+        <v>0.45612314932836551</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1" t="e" vm="45">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B14" s="4" t="str" cm="1">
+        <f t="array" ref="B14">_FV(A14,"Ticker symbol",TRUE)</f>
+        <v>CVX</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="3" t="str" cm="1">
+        <f t="array" ref="F14">_FV(A14,"Industry")</f>
+        <v>Oil &amp; Gas</v>
+      </c>
+      <c r="G14" s="2" cm="1">
+        <f t="array" ref="G14">_FV(A14,"Open")</f>
+        <v>88.41</v>
+      </c>
+      <c r="H14" s="2" cm="1">
+        <f t="array" ref="H14">_FV(A14,"High")</f>
+        <v>89.11</v>
+      </c>
+      <c r="I14" s="2" cm="1">
+        <f t="array" ref="I14">_FV(A14,"Low")</f>
+        <v>86.91</v>
+      </c>
+      <c r="J14" s="2" cm="1">
+        <f t="array" ref="J14">_FV(A14,"Price")</f>
+        <v>87.19</v>
+      </c>
+      <c r="K14" s="3" cm="1">
+        <f t="array" ref="K14">_FV(A14,"Change (%)",TRUE)</f>
+        <v>-1.3241000000000001E-2</v>
+      </c>
+      <c r="L14" s="2" cm="1">
+        <f t="array" ref="L14">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
+        <v>127</v>
+      </c>
+      <c r="M14" s="2" cm="1">
+        <f t="array" ref="M14">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
+        <v>51.6</v>
+      </c>
+      <c r="N14" s="3">
+        <f>(L14-J14)/L14</f>
+        <v>0.31346456692913388</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1" t="e" vm="46">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B15" s="4" t="str" cm="1">
+        <f t="array" ref="B15">_FV(A15,"Ticker symbol",TRUE)</f>
+        <v>WYND</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="3" t="str" cm="1">
+        <f t="array" ref="F15">_FV(A15,"Industry")</f>
+        <v>Hotels &amp; Entertainment Services</v>
+      </c>
+      <c r="G15" s="2" cm="1">
+        <f t="array" ref="G15">_FV(A15,"Open")</f>
+        <v>31.3</v>
+      </c>
+      <c r="H15" s="2" cm="1">
+        <f t="array" ref="H15">_FV(A15,"High")</f>
+        <v>31.56</v>
+      </c>
+      <c r="I15" s="2" cm="1">
+        <f t="array" ref="I15">_FV(A15,"Low")</f>
+        <v>30.45</v>
+      </c>
+      <c r="J15" s="2" cm="1">
+        <f t="array" ref="J15">_FV(A15,"Price")</f>
+        <v>30.72</v>
+      </c>
+      <c r="K15" s="3" cm="1">
+        <f t="array" ref="K15">_FV(A15,"Change (%)",TRUE)</f>
+        <v>-2.1968000000000001E-2</v>
+      </c>
+      <c r="L15" s="2" cm="1">
+        <f t="array" ref="L15">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
+        <v>53.13</v>
+      </c>
+      <c r="M15" s="2" cm="1">
+        <f t="array" ref="M15">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
+        <v>13.74</v>
+      </c>
+      <c r="N15" s="3">
+        <f>(L15-J15)/L15</f>
+        <v>0.42179559570863923</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="1" t="e" vm="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B16" s="4" t="str" cm="1">
+        <f t="array" ref="B16">_FV(A16,"Ticker symbol",TRUE)</f>
+        <v>LVS</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="3" t="str" cm="1">
+        <f t="array" ref="F16">_FV(A16,"Industry")</f>
+        <v>Hotels &amp; Entertainment Services</v>
+      </c>
+      <c r="G16" s="2" cm="1">
+        <f t="array" ref="G16">_FV(A16,"Open")</f>
+        <v>49.87</v>
+      </c>
+      <c r="H16" s="2" cm="1">
+        <f t="array" ref="H16">_FV(A16,"High")</f>
+        <v>49.87</v>
+      </c>
+      <c r="I16" s="2" cm="1">
+        <f t="array" ref="I16">_FV(A16,"Low")</f>
+        <v>48.28</v>
+      </c>
+      <c r="J16" s="2" cm="1">
+        <f t="array" ref="J16">_FV(A16,"Price")</f>
+        <v>48.69</v>
+      </c>
+      <c r="K16" s="3" cm="1">
+        <f t="array" ref="K16">_FV(A16,"Change (%)",TRUE)</f>
+        <v>-2.0518999999999999E-2</v>
+      </c>
+      <c r="L16" s="2" cm="1">
+        <f t="array" ref="L16">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
+        <v>74.290000000000006</v>
+      </c>
+      <c r="M16" s="2" cm="1">
+        <f t="array" ref="M16">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
+        <v>33.299999999999997</v>
+      </c>
+      <c r="N16" s="3">
+        <f>(L16-J16)/L16</f>
+        <v>0.34459550410553247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1" t="e" vm="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B17" s="4" t="str" cm="1">
+        <f t="array" ref="B17">_FV(A17,"Ticker symbol",TRUE)</f>
+        <v>SIX</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="3" t="str" cm="1">
+        <f t="array" ref="F17">_FV(A17,"Industry")</f>
+        <v>Hotels &amp; Entertainment Services</v>
+      </c>
+      <c r="G17" s="2" cm="1">
+        <f t="array" ref="G17">_FV(A17,"Open")</f>
+        <v>21.03</v>
+      </c>
+      <c r="H17" s="2" cm="1">
+        <f t="array" ref="H17">_FV(A17,"High")</f>
+        <v>21.07</v>
+      </c>
+      <c r="I17" s="2" cm="1">
+        <f t="array" ref="I17">_FV(A17,"Low")</f>
+        <v>20.07</v>
+      </c>
+      <c r="J17" s="2" cm="1">
+        <f t="array" ref="J17">_FV(A17,"Price")</f>
+        <v>20.55</v>
+      </c>
+      <c r="K17" s="3" cm="1">
+        <f t="array" ref="K17">_FV(A17,"Change (%)",TRUE)</f>
+        <v>-2.9287000000000001E-2</v>
+      </c>
+      <c r="L17" s="2" cm="1">
+        <f t="array" ref="L17">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
+        <v>59.52</v>
+      </c>
+      <c r="M17" s="2" cm="1">
+        <f t="array" ref="M17">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
+        <v>8.75</v>
+      </c>
+      <c r="N17" s="3">
+        <f>(L17-J17)/L17</f>
+        <v>0.65473790322580638</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="1" t="e" vm="49">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B18" s="4" t="str" cm="1">
+        <f t="array" ref="B18">_FV(A18,"Ticker symbol",TRUE)</f>
+        <v>HRB</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="3" t="str" cm="1">
+        <f t="array" ref="F18">_FV(A18,"Industry")</f>
+        <v>Personal &amp; Household Products &amp; Services</v>
+      </c>
+      <c r="G18" s="2" cm="1">
+        <f t="array" ref="G18">_FV(A18,"Open")</f>
+        <v>14.99</v>
+      </c>
+      <c r="H18" s="2" cm="1">
+        <f t="array" ref="H18">_FV(A18,"High")</f>
+        <v>15.095000000000001</v>
+      </c>
+      <c r="I18" s="2" cm="1">
+        <f t="array" ref="I18">_FV(A18,"Low")</f>
+        <v>14.54</v>
+      </c>
+      <c r="J18" s="2" cm="1">
+        <f t="array" ref="J18">_FV(A18,"Price")</f>
+        <v>14.74</v>
+      </c>
+      <c r="K18" s="3" cm="1">
+        <f t="array" ref="K18">_FV(A18,"Change (%)",TRUE)</f>
+        <v>-1.4047E-2</v>
+      </c>
+      <c r="L18" s="2" cm="1">
+        <f t="array" ref="L18">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
+        <v>28.504999999999999</v>
+      </c>
+      <c r="M18" s="2" cm="1">
+        <f t="array" ref="M18">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
+        <v>11.290100000000001</v>
+      </c>
+      <c r="N18" s="3">
+        <f>(L18-J18)/L18</f>
+        <v>0.48289773723908086</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="1" t="e" vm="50">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B19" s="4" t="str" cm="1">
+        <f t="array" ref="B19">_FV(A19,"Ticker symbol",TRUE)</f>
+        <v>HMC</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="3" t="str" cm="1">
+        <f t="array" ref="F19">_FV(A19,"Industry")</f>
+        <v>Automobiles &amp; Auto Parts</v>
+      </c>
+      <c r="G19" s="2" cm="1">
+        <f t="array" ref="G19">_FV(A19,"Open")</f>
+        <v>26.35</v>
+      </c>
+      <c r="H19" s="2" cm="1">
+        <f t="array" ref="H19">_FV(A19,"High")</f>
+        <v>26.37</v>
+      </c>
+      <c r="I19" s="2" cm="1">
+        <f t="array" ref="I19">_FV(A19,"Low")</f>
+        <v>26.15</v>
+      </c>
+      <c r="J19" s="2" cm="1">
+        <f t="array" ref="J19">_FV(A19,"Price")</f>
+        <v>26.23</v>
+      </c>
+      <c r="K19" s="3" cm="1">
+        <f t="array" ref="K19">_FV(A19,"Change (%)",TRUE)</f>
+        <v>-7.9430000000000004E-3</v>
+      </c>
+      <c r="L19" s="2" cm="1">
+        <f t="array" ref="L19">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
+        <v>29.44</v>
+      </c>
+      <c r="M19" s="2" cm="1">
+        <f t="array" ref="M19">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
+        <v>19.38</v>
+      </c>
+      <c r="N19" s="3">
+        <f>(L19-J19)/L19</f>
+        <v>0.10903532608695654</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="1" t="e" vm="51">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B20" s="4" t="str" cm="1">
+        <f t="array" ref="B20">_FV(A20,"Ticker symbol",TRUE)</f>
+        <v>PAG</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="3" t="str" cm="1">
+        <f t="array" ref="F20">_FV(A20,"Industry")</f>
+        <v>Specialty Retailers</v>
+      </c>
+      <c r="G20" s="2" cm="1">
+        <f t="array" ref="G20">_FV(A20,"Open")</f>
+        <v>45.81</v>
+      </c>
+      <c r="H20" s="2" cm="1">
+        <f t="array" ref="H20">_FV(A20,"High")</f>
+        <v>46.38</v>
+      </c>
+      <c r="I20" s="2" cm="1">
+        <f t="array" ref="I20">_FV(A20,"Low")</f>
+        <v>45.3</v>
+      </c>
+      <c r="J20" s="2" cm="1">
+        <f t="array" ref="J20">_FV(A20,"Price")</f>
+        <v>46.02</v>
+      </c>
+      <c r="K20" s="3" cm="1">
+        <f t="array" ref="K20">_FV(A20,"Change (%)",TRUE)</f>
+        <v>-8.6169999999999997E-3</v>
+      </c>
+      <c r="L20" s="2" cm="1">
+        <f t="array" ref="L20">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
+        <v>53.81</v>
+      </c>
+      <c r="M20" s="2" cm="1">
+        <f t="array" ref="M20">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
+        <v>19.989999999999998</v>
+      </c>
+      <c r="N20" s="3">
+        <f>(L20-J20)/L20</f>
+        <v>0.14476863036610294</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="1" t="e" vm="52">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B21" s="4" t="str" cm="1">
+        <f t="array" ref="B21">_FV(A21,"Ticker symbol",TRUE)</f>
+        <v>GPC</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="3" t="str" cm="1">
+        <f t="array" ref="F21">_FV(A21,"Industry")</f>
+        <v>Automobiles &amp; Auto Parts</v>
+      </c>
+      <c r="G21" s="2" cm="1">
+        <f t="array" ref="G21">_FV(A21,"Open")</f>
+        <v>89.25</v>
+      </c>
+      <c r="H21" s="2" cm="1">
+        <f t="array" ref="H21">_FV(A21,"High")</f>
+        <v>89.25</v>
+      </c>
+      <c r="I21" s="2" cm="1">
+        <f t="array" ref="I21">_FV(A21,"Low")</f>
+        <v>87.47</v>
+      </c>
+      <c r="J21" s="2" cm="1">
+        <f t="array" ref="J21">_FV(A21,"Price")</f>
+        <v>87.86</v>
+      </c>
+      <c r="K21" s="3" cm="1">
+        <f t="array" ref="K21">_FV(A21,"Change (%)",TRUE)</f>
+        <v>-8.8000000000000005E-3</v>
+      </c>
+      <c r="L21" s="2" cm="1">
+        <f t="array" ref="L21">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
+        <v>108.58</v>
+      </c>
+      <c r="M21" s="2" cm="1">
+        <f t="array" ref="M21">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
+        <v>49.680999999999997</v>
+      </c>
+      <c r="N21" s="3">
+        <f>(L21-J21)/L21</f>
+        <v>0.19082703997052863</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="1" t="e" vm="53">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B22" s="4" t="str" cm="1">
+        <f t="array" ref="B22">_FV(A22,"Ticker symbol",TRUE)</f>
+        <v>DKS</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="3" t="str" cm="1">
+        <f t="array" ref="F22">_FV(A22,"Industry")</f>
+        <v>Specialty Retailers</v>
+      </c>
+      <c r="G22" s="2" cm="1">
+        <f t="array" ref="G22">_FV(A22,"Open")</f>
+        <v>41.44</v>
+      </c>
+      <c r="H22" s="2" cm="1">
+        <f t="array" ref="H22">_FV(A22,"High")</f>
+        <v>41.74</v>
+      </c>
+      <c r="I22" s="2" cm="1">
+        <f t="array" ref="I22">_FV(A22,"Low")</f>
+        <v>40.880000000000003</v>
+      </c>
+      <c r="J22" s="2" cm="1">
+        <f t="array" ref="J22">_FV(A22,"Price")</f>
+        <v>41</v>
+      </c>
+      <c r="K22" s="3" cm="1">
+        <f t="array" ref="K22">_FV(A22,"Change (%)",TRUE)</f>
+        <v>-6.783E-3</v>
+      </c>
+      <c r="L22" s="2" cm="1">
+        <f t="array" ref="L22">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
+        <v>49.8</v>
+      </c>
+      <c r="M22" s="2" cm="1">
+        <f t="array" ref="M22">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
+        <v>13.46</v>
+      </c>
+      <c r="N22" s="3">
+        <f>(L22-J22)/L22</f>
+        <v>0.1767068273092369</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="1" t="e" vm="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B23" s="4" t="str" cm="1">
+        <f t="array" ref="B23">_FV(A23,"Ticker symbol",TRUE)</f>
+        <v>CAKE</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="3" t="str" cm="1">
+        <f t="array" ref="F23">_FV(A23,"Industry")</f>
+        <v>Hotels &amp; Entertainment Services</v>
+      </c>
+      <c r="G23" s="2" cm="1">
+        <f t="array" ref="G23">_FV(A23,"Open")</f>
+        <v>22.26</v>
+      </c>
+      <c r="H23" s="2" cm="1">
+        <f t="array" ref="H23">_FV(A23,"High")</f>
+        <v>23.05</v>
+      </c>
+      <c r="I23" s="2" cm="1">
+        <f t="array" ref="I23">_FV(A23,"Low")</f>
+        <v>22.26</v>
+      </c>
+      <c r="J23" s="2" cm="1">
+        <f t="array" ref="J23">_FV(A23,"Price")</f>
+        <v>22.58</v>
+      </c>
+      <c r="K23" s="3" cm="1">
+        <f t="array" ref="K23">_FV(A23,"Change (%)",TRUE)</f>
+        <v>-2.65E-3</v>
+      </c>
+      <c r="L23" s="2" cm="1">
+        <f t="array" ref="L23">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
+        <v>45.24</v>
+      </c>
+      <c r="M23" s="2" cm="1">
+        <f t="array" ref="M23">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
+        <v>14.52</v>
+      </c>
+      <c r="N23" s="3">
+        <f>(L23-J23)/L23</f>
+        <v>0.50088417329796642</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="1" t="e" vm="55">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B24" s="4" t="str" cm="1">
+        <f t="array" ref="B24">_FV(A24,"Ticker symbol",TRUE)</f>
+        <v>SBUX</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="3" t="str" cm="1">
+        <f t="array" ref="F24">_FV(A24,"Industry")</f>
+        <v>Hotels &amp; Entertainment Services</v>
+      </c>
+      <c r="G24" s="2" cm="1">
+        <f t="array" ref="G24">_FV(A24,"Open")</f>
+        <v>74.430000000000007</v>
+      </c>
+      <c r="H24" s="2" cm="1">
+        <f t="array" ref="H24">_FV(A24,"High")</f>
+        <v>74.55</v>
+      </c>
+      <c r="I24" s="2" cm="1">
+        <f t="array" ref="I24">_FV(A24,"Low")</f>
+        <v>73.210099999999997</v>
+      </c>
+      <c r="J24" s="2" cm="1">
+        <f t="array" ref="J24">_FV(A24,"Price")</f>
+        <v>74.16</v>
+      </c>
+      <c r="K24" s="3" cm="1">
+        <f t="array" ref="K24">_FV(A24,"Change (%)",TRUE)</f>
+        <v>-3.0919999999999997E-3</v>
+      </c>
+      <c r="L24" s="2" cm="1">
+        <f t="array" ref="L24">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
+        <v>99.72</v>
+      </c>
+      <c r="M24" s="2" cm="1">
+        <f t="array" ref="M24">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
+        <v>50.02</v>
+      </c>
+      <c r="N24" s="3">
+        <f>(L24-J24)/L24</f>
+        <v>0.25631768953068595</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="1" t="e" vm="56">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B25" s="4" t="str" cm="1">
+        <f t="array" ref="B25">_FV(A25,"Ticker symbol",TRUE)</f>
+        <v>LOW</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="3" t="str" cm="1">
+        <f t="array" ref="F25">_FV(A25,"Industry")</f>
+        <v>Specialty Retailers</v>
+      </c>
+      <c r="G25" s="2" cm="1">
+        <f t="array" ref="G25">_FV(A25,"Open")</f>
+        <v>144.29</v>
+      </c>
+      <c r="H25" s="2" cm="1">
+        <f t="array" ref="H25">_FV(A25,"High")</f>
+        <v>144.63</v>
+      </c>
+      <c r="I25" s="2" cm="1">
+        <f t="array" ref="I25">_FV(A25,"Low")</f>
+        <v>141.88499999999999</v>
+      </c>
+      <c r="J25" s="2" cm="1">
+        <f t="array" ref="J25">_FV(A25,"Price")</f>
+        <v>144.38999999999999</v>
+      </c>
+      <c r="K25" s="3" cm="1">
+        <f t="array" ref="K25">_FV(A25,"Change (%)",TRUE)</f>
+        <v>1.1489000000000001E-2</v>
+      </c>
+      <c r="L25" s="2" cm="1">
+        <f t="array" ref="L25">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
+        <v>144.94</v>
+      </c>
+      <c r="M25" s="2" cm="1">
+        <f t="array" ref="M25">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
+        <v>60</v>
+      </c>
+      <c r="N25" s="3">
+        <f>(L25-J25)/L25</f>
+        <v>3.7946736580654851E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;R&amp;1#&amp;"Calibri"&amp;22&amp;KFF8939RESTRICTED</oddFooter>
   </headerFooter>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -4158,10 +9421,10 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
@@ -4178,7 +9441,7 @@
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
@@ -4186,19 +9449,22 @@
         <v>21</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -4206,7 +9472,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D2" s="3">
         <v>0.1</v>
@@ -4219,16 +9485,19 @@
         <f>E2*12</f>
         <v>1200</v>
       </c>
+      <c r="J2" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D3" s="3">
         <v>0.1</v>
@@ -4241,16 +9510,19 @@
         <f>E3*12</f>
         <v>1200</v>
       </c>
+      <c r="J3" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D4" s="3">
         <v>0.2</v>
@@ -4263,19 +9535,24 @@
         <f t="shared" ref="F4:F11" si="1">E4*12</f>
         <v>2400</v>
       </c>
-      <c r="K4" s="5"/>
+      <c r="J4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D5" s="3">
         <v>0.11</v>
@@ -4288,19 +9565,24 @@
         <f t="shared" si="1"/>
         <v>1320</v>
       </c>
-      <c r="K5" s="5"/>
+      <c r="J5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D6" s="3">
         <v>8.4000000000000005E-2</v>
@@ -4317,15 +9599,15 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D7" s="3">
         <v>3.5999999999999997E-2</v>
@@ -4342,15 +9624,15 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D8" s="3">
         <v>0.11</v>
@@ -4367,15 +9649,15 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D9" s="3">
         <v>0.11</v>
@@ -4392,15 +9674,15 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D10" s="3">
         <v>0.1</v>
@@ -4417,15 +9699,15 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D11" s="3">
         <v>0.05</v>
@@ -4442,9 +9724,9 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -4464,7 +9746,7 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" s="10" t="s">
         <v>2</v>
       </c>
@@ -4472,19 +9754,19 @@
         <v>21</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -4492,7 +9774,7 @@
         <v>18</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D17" s="3">
         <v>0.16</v>
@@ -4506,15 +9788,15 @@
         <v>960</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D18" s="3">
         <v>0.16</v>
@@ -4528,15 +9810,15 @@
         <v>960</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D19" s="3">
         <v>0.25</v>
@@ -4550,15 +9832,15 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D20" s="3">
         <v>0.11</v>
@@ -4572,15 +9854,15 @@
         <v>660</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="D21" s="3">
         <v>8.4000000000000005E-2</v>
@@ -4594,15 +9876,15 @@
         <v>504</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D22" s="3">
         <v>3.5999999999999997E-2</v>
@@ -4616,15 +9898,15 @@
         <v>216</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D23" s="3">
         <v>0.2</v>
@@ -4638,9 +9920,9 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -4667,6 +9949,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D95AC4467A64E54FAB628610D0FE135F" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="79e84842eaddaeb917644b39e1597e3c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e8f9595b-0d5a-46b2-8488-c972c1ea4246" xmlns:ns4="6bcbbac3-d60f-4c54-b2b4-d245c065548d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bb8f6ae9099bbec0b468ebfdbf5b501b" ns3:_="" ns4:_="">
     <xsd:import namespace="e8f9595b-0d5a-46b2-8488-c972c1ea4246"/>
@@ -4889,7 +10177,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -4898,52 +10186,14 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11321DBA-FDAB-45E8-A045-E3E44A7AE235}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e8f9595b-0d5a-46b2-8488-c972c1ea4246"/>
-    <ds:schemaRef ds:uri="6bcbbac3-d60f-4c54-b2b4-d245c065548d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{401ADED5-CC5A-4072-B36A-6DA217C5A368}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DB5870C-189D-475E-8E58-449C30115ACA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11321DBA-FDAB-45E8-A045-E3E44A7AE235}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{401ADED5-CC5A-4072-B36A-6DA217C5A368}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e8f9595b-0d5a-46b2-8488-c972c1ea4246"/>
-    <ds:schemaRef ds:uri="6bcbbac3-d60f-4c54-b2b4-d245c065548d"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DB5870C-189D-475E-8E58-449C30115ACA}"/>
 </file>
--- a/input/Watchlist.xlsx
+++ b/input/Watchlist.xlsx
@@ -1,30 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23115"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sivac\Documents\Analytics\us-stocks-analysis\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="125" documentId="13_ncr:1_{6E1C2BE8-C219-4F37-B9FE-44AAFDD9C31D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00432006-A320-4D68-8FB1-70155BB7901E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C20CFB-FE03-452E-9027-14D29E3DA195}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="32281" windowHeight="13148" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13148" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fund List" sheetId="1" r:id="rId1"/>
     <sheet name="Stock List" sheetId="2" r:id="rId2"/>
     <sheet name="Strategy" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +30,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
   <metadataTypes count="2">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
@@ -40,13 +38,13 @@
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="56">
+  <futureMetadata name="XLRICHVALUE" count="57">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -439,13 +437,20 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="225"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="56">
+  <valueMetadata count="57">
     <bk>
       <rc t="2" v="0"/>
     </bk>
@@ -613,6 +618,9 @@
     </bk>
     <bk>
       <rc t="2" v="55"/>
+    </bk>
+    <bk>
+      <rc t="2" v="56"/>
     </bk>
   </valueMetadata>
 </metadata>
@@ -824,10 +832,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -881,14 +889,14 @@
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="6" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -930,7 +938,7 @@
         <name val="Source Sans Pro"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -948,7 +956,7 @@
         <name val="Source Sans Pro"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -984,7 +992,7 @@
         <name val="Source Sans Pro"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1002,7 +1010,7 @@
         <name val="Source Sans Pro"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1020,7 +1028,7 @@
         <name val="Source Sans Pro"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1038,7 +1046,7 @@
         <name val="Source Sans Pro"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1222,7 +1230,7 @@
         <name val="Source Sans Pro"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1240,7 +1248,7 @@
         <name val="Source Sans Pro"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1276,7 +1284,7 @@
         <name val="Source Sans Pro"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1294,7 +1302,7 @@
         <name val="Source Sans Pro"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1312,7 +1320,7 @@
         <name val="Source Sans Pro"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1330,7 +1338,7 @@
         <name val="Source Sans Pro"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1577,7 +1585,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="220">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="226">
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a25bqh&amp;q=ARCX%3aVHT&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
@@ -4568,11 +4576,80 @@
   <rv s="2">
     <v>218</v>
   </rv>
+  <rv s="0">
+    <v>http://en.wikipedia.org/wiki/Costco</v>
+    <v>Wikipedia</v>
+  </rv>
+  <rv s="9">
+    <v>103</v>
+    <v>220</v>
+  </rv>
+  <rv s="14">
+    <v>Powered by Refinitiv</v>
+    <v>34</v>
+    <v>https://www.bing.com/th?id=AMMS_90a82bf7d9bf620ad2bd5ec79a4882af&amp;qlt=95</v>
+    <v>221</v>
+    <v>https://www.bing.com/images/search?form=xlimg&amp;q=costco</v>
+    <v>Image of COSTCO WHOLESALE CORPORATION</v>
+    <v/>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1q6k2&amp;q=XNAS%3aCOST&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="15">
+    <v>en-US</v>
+    <v>a1q6k2</v>
+    <v>268435456</v>
+    <v>268435457</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>31</v>
+    <v>COSTCO WHOLESALE CORPORATION (XNAS:COST)</v>
+    <v>21</v>
+    <v>32</v>
+    <v>Finance</v>
+    <v>33</v>
+    <v>329.32</v>
+    <v>262.70999999999998</v>
+    <v>0.68510000000000004</v>
+    <v>-0.34</v>
+    <v>-1.047E-3</v>
+    <v>USD</v>
+    <v>Costco Wholesale Corporation is engaged in the operation of membership warehouses in the United States and Puerto Rico, Canada, the United Kingdom, Mexico, Japan, Australia, Spain, and through its subsidiaries in Taiwan and Korea. As of August 28, 2016, the Company operated 715 warehouses across the world. The Company's average warehouse space is approximately 144,000 square feet. The Company's warehouses on average operate on a seven-day, 70-hour week. The Company offers merchandise in various categories, which include foods (including dry foods, packaged foods and groceries); sundries (including snack foods, candy, alcoholic and nonalcoholic beverages, and cleaning supplies); hardlines (including appliances, electronics, health and beauty aids, hardware, and garden and patio); fresh foods (including meat, produce, deli and bakery); softlines (including apparel and small appliances), and other (including gas stations and pharmacy).</v>
+    <v>149000</v>
+    <v>Nasdaq Stock Market</v>
+    <v>XNAS</v>
+    <v>XNAS</v>
+    <v>999 Lake Dr, ISSAQUAH, WA, 98027-8990 US</v>
+    <v>325.19</v>
+    <v>222</v>
+    <v>Diversified Retail</v>
+    <v>Stock</v>
+    <v>44032.56600875</v>
+    <v>223</v>
+    <v>324.14999999999998</v>
+    <v>COSTCO WHOLESALE CORPORATION</v>
+    <v>COSTCO WHOLESALE CORPORATION</v>
+    <v>325</v>
+    <v>38.588999999999999</v>
+    <v>324.79000000000002</v>
+    <v>324.45</v>
+    <v>441523700</v>
+    <v>COST</v>
+    <v>COSTCO WHOLESALE CORPORATION (XNAS:COST)</v>
+    <v>68771</v>
+    <v>2601846</v>
+    <v>1987</v>
+  </rv>
+  <rv s="2">
+    <v>224</v>
+  </rv>
 </rvData>
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="14">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="16">
   <s t="_hyperlink">
     <k n="Address" t="s"/>
     <k n="Text" t="s"/>
@@ -4955,12 +5032,66 @@
     <k n="Volume average"/>
     <k n="Year incorporated"/>
   </s>
+  <s t="_imageurl">
+    <k n="%ProviderInfo" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="Address" t="s"/>
+    <k n="Attribution" t="r"/>
+    <k n="More Images Address" t="s"/>
+    <k n="Text" t="s"/>
+    <k n="Blip Identifier" t="s"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%EntitySubDomainId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Image" t="r"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="P/E"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
 </rvStructures>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <spbArrays count="9">
+  <spbArrays count="10">
     <a count="35">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
@@ -5320,8 +5451,53 @@
       <v t="s">%ProviderInfo</v>
       <v t="s">_Display</v>
     </a>
+    <a count="43">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%EntitySubDomainId</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Beta</v>
+      <v t="s">P/E</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">Image</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+      <v t="s">_Display</v>
+    </a>
   </spbArrays>
-  <spbData count="31">
+  <spbData count="35">
     <spb s="0">
       <v>0</v>
     </spb>
@@ -5662,12 +5838,49 @@
       <v>1</v>
       <v>5</v>
     </spb>
+    <spb s="0">
+      <v>9</v>
+    </spb>
+    <spb s="20">
+      <v>1</v>
+      <v>2</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>10</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>4</v>
+      <v>5</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>7</v>
+      <v>8</v>
+      <v>9</v>
+      <v>11</v>
+      <v>9</v>
+      <v>4</v>
+    </spb>
+    <spb s="21">
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq Last Sale</v>
+      <v>GMT</v>
+    </spb>
+    <spb s="22">
+      <v>1</v>
+    </spb>
   </spbData>
 </supportingPropertyBags>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="20">
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="23">
   <s>
     <k n="^Order" t="spba"/>
   </s>
@@ -5939,6 +6152,40 @@
     <k n="Change (Extended hours)" t="i"/>
     <k n="Change % (Extended hours)" t="i"/>
   </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Image" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="_DisplayString" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="%EntityServiceId" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="%EntitySubDomainId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Last trade time" t="s"/>
+  </s>
+  <s>
+    <k n="%ProviderInfo" t="spb"/>
+  </s>
 </spbStructures>
 </file>
 
@@ -5946,7 +6193,7 @@
 <richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <dxfs count="9">
     <x:dxf>
-      <x:numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+      <x:numFmt numFmtId="166" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </x:dxf>
     <x:dxf>
       <x:numFmt numFmtId="4" formatCode="#,##0.00"/>
@@ -5958,10 +6205,10 @@
       <x:numFmt numFmtId="14" formatCode="0.00%"/>
     </x:dxf>
     <x:dxf>
-      <x:numFmt numFmtId="164" formatCode="_([$$-409]* #,##0_);_([$$-409]* \(#,##0\);_([$$-409]* &quot;-&quot;_);_(@_)"/>
+      <x:numFmt numFmtId="165" formatCode="_([$$-409]* #,##0_);_([$$-409]* \(#,##0\);_([$$-409]* &quot;-&quot;_);_(@_)"/>
     </x:dxf>
     <x:dxf>
-      <x:numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <x:numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
     </x:dxf>
     <x:dxf>
       <x:numFmt numFmtId="2" formatCode="0.00"/>
@@ -5970,7 +6217,7 @@
       <x:numFmt numFmtId="1" formatCode="0"/>
     </x:dxf>
     <x:dxf>
-      <x:numFmt numFmtId="175" formatCode="_-[$¥-411]* #,##0_-;\-[$¥-411]* #,##0_-;_-[$¥-411]* &quot;-&quot;_-;_-@_-"/>
+      <x:numFmt numFmtId="164" formatCode="_-[$¥-411]* #,##0_-;\-[$¥-411]* #,##0_-;_-[$¥-411]* &quot;-&quot;_-;_-@_-"/>
     </x:dxf>
   </dxfs>
   <richProperties>
@@ -6047,8 +6294,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D0CAA086-D84C-4EA4-B5F1-7030749A7F3E}" name="Table13" displayName="Table13" ref="A1:N25" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A1:N25" xr:uid="{7148AA24-1D57-4322-B6E6-30CB6857B1C8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D0CAA086-D84C-4EA4-B5F1-7030749A7F3E}" name="Table13" displayName="Table13" ref="A1:N26" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A1:N26" xr:uid="{7148AA24-1D57-4322-B6E6-30CB6857B1C8}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N2">
     <sortCondition ref="N1:N2"/>
   </sortState>
@@ -6395,21 +6642,21 @@
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="1" customWidth="1"/>
-    <col min="6" max="9" width="11.42578125" style="1"/>
-    <col min="10" max="10" width="11.42578125" style="3"/>
-    <col min="11" max="12" width="11.42578125" style="1"/>
-    <col min="13" max="13" width="11.42578125" style="3"/>
-    <col min="14" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="41.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="1" customWidth="1"/>
+    <col min="6" max="9" width="11.44140625" style="1"/>
+    <col min="10" max="10" width="11.44140625" style="3"/>
+    <col min="11" max="12" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="11.44140625" style="3"/>
+    <col min="14" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6450,7 +6697,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
@@ -6497,11 +6744,11 @@
         <v>138.11000000000001</v>
       </c>
       <c r="M2" s="3">
-        <f>(K2-I2)/K2</f>
+        <f t="shared" ref="M2:M32" si="0">(K2-I2)/K2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
@@ -6548,11 +6795,11 @@
         <v>35.74</v>
       </c>
       <c r="M3" s="3">
-        <f>(K3-I3)/K3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
@@ -6599,11 +6846,11 @@
         <v>14.809699999999999</v>
       </c>
       <c r="M4" s="3">
-        <f>(K4-I4)/K4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
@@ -6650,11 +6897,11 @@
         <v>183.25</v>
       </c>
       <c r="M5" s="3">
-        <f>(K5-I5)/K5</f>
+        <f t="shared" si="0"/>
         <v>2.6959991372798675E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="e" vm="5">
         <v>#VALUE!</v>
       </c>
@@ -6701,11 +6948,11 @@
         <v>108.08</v>
       </c>
       <c r="M6" s="3">
-        <f>(K6-I6)/K6</f>
+        <f t="shared" si="0"/>
         <v>4.6072911334812351E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
@@ -6752,11 +6999,11 @@
         <v>73.540000000000006</v>
       </c>
       <c r="M7" s="3">
-        <f>(K7-I7)/K7</f>
+        <f t="shared" si="0"/>
         <v>9.5165588123334605E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
@@ -6803,11 +7050,11 @@
         <v>13.99</v>
       </c>
       <c r="M8" s="3">
-        <f>(K8-I8)/K8</f>
+        <f t="shared" si="0"/>
         <v>1.2135761589404119E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
@@ -6854,11 +7101,11 @@
         <v>29.02</v>
       </c>
       <c r="M9" s="3">
-        <f>(K9-I9)/K9</f>
+        <f t="shared" si="0"/>
         <v>1.8174043190079141E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="e" vm="9">
         <v>#VALUE!</v>
       </c>
@@ -6905,11 +7152,11 @@
         <v>26.19</v>
       </c>
       <c r="M10" s="3">
-        <f>(K10-I10)/K10</f>
+        <f t="shared" si="0"/>
         <v>2.225963337074444E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
@@ -6956,11 +7203,11 @@
         <v>41.99</v>
       </c>
       <c r="M11" s="3">
-        <f>(K11-I11)/K11</f>
+        <f t="shared" si="0"/>
         <v>2.5619982158786879E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="e" vm="11">
         <v>#VALUE!</v>
       </c>
@@ -7007,11 +7254,11 @@
         <v>10.86</v>
       </c>
       <c r="M12" s="3">
-        <f>(K12-I12)/K12</f>
+        <f t="shared" si="0"/>
         <v>2.7520435967302588E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="e" vm="12">
         <v>#VALUE!</v>
       </c>
@@ -7058,11 +7305,11 @@
         <v>96</v>
       </c>
       <c r="M13" s="3">
-        <f>(K13-I13)/K13</f>
+        <f t="shared" si="0"/>
         <v>3.1220836566518754E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="e" vm="13">
         <v>#VALUE!</v>
       </c>
@@ -7109,11 +7356,11 @@
         <v>20.36</v>
       </c>
       <c r="M14" s="3">
-        <f>(K14-I14)/K14</f>
+        <f t="shared" si="0"/>
         <v>3.1667576394522348E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="e" vm="15">
         <v>#VALUE!</v>
       </c>
@@ -7160,11 +7407,11 @@
         <v>53</v>
       </c>
       <c r="M15" s="3">
-        <f>(K15-I15)/K15</f>
+        <f t="shared" si="0"/>
         <v>3.2638888888888974E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="e" vm="16">
         <v>#VALUE!</v>
       </c>
@@ -7211,11 +7458,11 @@
         <v>68.099999999999994</v>
       </c>
       <c r="M16" s="3">
-        <f>(K16-I16)/K16</f>
+        <f t="shared" si="0"/>
         <v>3.3448778709442233E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="e" vm="17">
         <v>#VALUE!</v>
       </c>
@@ -7262,11 +7509,11 @@
         <v>179.45</v>
       </c>
       <c r="M17" s="3">
-        <f>(K17-I17)/K17</f>
+        <f t="shared" si="0"/>
         <v>3.3511147585829612E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="e" vm="18">
         <v>#VALUE!</v>
       </c>
@@ -7313,11 +7560,11 @@
         <v>68.948099999999997</v>
       </c>
       <c r="M18" s="3">
-        <f>(K18-I18)/K18</f>
+        <f t="shared" si="0"/>
         <v>3.4228193468375336E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="e" vm="19">
         <v>#VALUE!</v>
       </c>
@@ -7364,11 +7611,11 @@
         <v>24</v>
       </c>
       <c r="M19" s="3">
-        <f>(K19-I19)/K19</f>
+        <f t="shared" si="0"/>
         <v>4.0619120916709425E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="e" vm="20">
         <v>#VALUE!</v>
       </c>
@@ -7415,11 +7662,11 @@
         <v>81.5</v>
       </c>
       <c r="M20" s="3">
-        <f>(K20-I20)/K20</f>
+        <f t="shared" si="0"/>
         <v>5.4384615384615392E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="e" vm="21">
         <v>#VALUE!</v>
       </c>
@@ -7466,11 +7713,11 @@
         <v>200.55</v>
       </c>
       <c r="M21" s="3">
-        <f>(K21-I21)/K21</f>
+        <f t="shared" si="0"/>
         <v>5.7671940691292958E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="e" vm="22">
         <v>#VALUE!</v>
       </c>
@@ -7517,11 +7764,11 @@
         <v>220.2756</v>
       </c>
       <c r="M22" s="3">
-        <f>(K22-I22)/K22</f>
+        <f t="shared" si="0"/>
         <v>5.7837332575524418E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="e" vm="23">
         <v>#VALUE!</v>
       </c>
@@ -7568,11 +7815,11 @@
         <v>109.49</v>
       </c>
       <c r="M23" s="3">
-        <f>(K23-I23)/K23</f>
+        <f t="shared" si="0"/>
         <v>5.839645751222651E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="e" vm="24">
         <v>#VALUE!</v>
       </c>
@@ -7619,11 +7866,11 @@
         <v>45</v>
       </c>
       <c r="M24" s="3">
-        <f>(K24-I24)/K24</f>
+        <f t="shared" si="0"/>
         <v>6.1834769386720674E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="e" vm="25">
         <v>#VALUE!</v>
       </c>
@@ -7670,11 +7917,11 @@
         <v>40.494999999999997</v>
       </c>
       <c r="M25" s="3">
-        <f>(K25-I25)/K25</f>
+        <f t="shared" si="0"/>
         <v>6.5107521553859807E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="e" vm="26">
         <v>#VALUE!</v>
       </c>
@@ -7721,11 +7968,11 @@
         <v>12.36</v>
       </c>
       <c r="M26" s="3">
-        <f>(K26-I26)/K26</f>
+        <f t="shared" si="0"/>
         <v>6.7270375161707724E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="e" vm="27">
         <v>#VALUE!</v>
       </c>
@@ -7772,11 +8019,11 @@
         <v>40.494999999999997</v>
       </c>
       <c r="M27" s="3">
-        <f>(K27-I27)/K27</f>
+        <f t="shared" si="0"/>
         <v>6.8514517887226192E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="e" vm="28">
         <v>#VALUE!</v>
       </c>
@@ -7823,11 +8070,11 @@
         <v>18.989999999999998</v>
       </c>
       <c r="M28" s="3">
-        <f>(K28-I28)/K28</f>
+        <f t="shared" si="0"/>
         <v>9.4224924012158068E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="e" vm="29">
         <v>#VALUE!</v>
       </c>
@@ -7874,11 +8121,11 @@
         <v>38.825000000000003</v>
       </c>
       <c r="M29" s="3">
-        <f>(K29-I29)/K29</f>
+        <f t="shared" si="0"/>
         <v>0.10292142377434524</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="e" vm="30">
         <v>#VALUE!</v>
       </c>
@@ -7925,11 +8172,11 @@
         <v>60.07</v>
       </c>
       <c r="M30" s="3">
-        <f>(K30-I30)/K30</f>
+        <f t="shared" si="0"/>
         <v>0.14189331646637143</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="e" vm="31">
         <v>#VALUE!</v>
       </c>
@@ -7976,11 +8223,11 @@
         <v>130.04</v>
       </c>
       <c r="M31" s="3">
-        <f>(K31-I31)/K31</f>
+        <f t="shared" si="0"/>
         <v>0.31564870601448652</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="e" vm="32">
         <v>#VALUE!</v>
       </c>
@@ -8027,7 +8274,7 @@
         <v>22.88</v>
       </c>
       <c r="M32" s="3">
-        <f>(K32-I32)/K32</f>
+        <f t="shared" si="0"/>
         <v>0.40864833675293299</v>
       </c>
     </row>
@@ -8048,28 +8295,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B40D47B-739C-4A46-AE44-24FC67F0C8A6}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="10" width="11.42578125" style="1"/>
-    <col min="11" max="11" width="11.42578125" style="3"/>
-    <col min="12" max="13" width="11.42578125" style="1"/>
-    <col min="14" max="14" width="11.42578125" style="3"/>
-    <col min="15" max="16384" width="11.42578125" style="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="1" customWidth="1"/>
+    <col min="7" max="10" width="11.44140625" style="1"/>
+    <col min="11" max="11" width="11.44140625" style="3"/>
+    <col min="12" max="13" width="11.44140625" style="1"/>
+    <col min="14" max="14" width="11.44140625" style="3"/>
+    <col min="15" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8113,7 +8360,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="e" vm="33">
         <v>#VALUE!</v>
       </c>
@@ -8154,20 +8401,20 @@
         <f t="array" ref="K2">_FV(A2,"Change (%)",TRUE)</f>
         <v>-2.0031E-2</v>
       </c>
-      <c r="L2" s="2" cm="1">
-        <f t="array" ref="L2">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>54.75</v>
-      </c>
-      <c r="M2" s="2" cm="1">
-        <f t="array" ref="M2">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>22</v>
-      </c>
-      <c r="N2" s="3">
-        <f>(L2-J2)/L2</f>
-        <v>0.54429223744292243</v>
+      <c r="L2" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="L2" ca="1">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M2" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="M2" ca="1">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N2" s="3" t="e">
+        <f t="shared" ref="N2:N25" ca="1" si="0">(L2-J2)/L2</f>
+        <v>#NAME?</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="e" vm="34">
         <v>#VALUE!</v>
       </c>
@@ -8207,20 +8454,20 @@
         <f t="array" ref="K3">_FV(A3,"Change (%)",TRUE)</f>
         <v>-5.0419999999999996E-3</v>
       </c>
-      <c r="L3" s="2" cm="1">
-        <f t="array" ref="L3">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>49.3</v>
-      </c>
-      <c r="M3" s="2" cm="1">
-        <f t="array" ref="M3">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>17.75</v>
-      </c>
-      <c r="N3" s="3">
-        <f>(L3-J3)/L3</f>
-        <v>0.31947261663286008</v>
+      <c r="L3" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="L3" ca="1">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="M3" ca="1">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N3" s="3" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="e" vm="35">
         <v>#VALUE!</v>
       </c>
@@ -8258,20 +8505,20 @@
         <f t="array" ref="K4">_FV(A4,"Change (%)",TRUE)</f>
         <v>-4.607E-3</v>
       </c>
-      <c r="L4" s="2" cm="1">
-        <f t="array" ref="L4">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>39.700000000000003</v>
-      </c>
-      <c r="M4" s="2" cm="1">
-        <f t="array" ref="M4">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>26.08</v>
-      </c>
-      <c r="N4" s="3">
-        <f>(L4-J4)/L4</f>
-        <v>0.23803526448362725</v>
+      <c r="L4" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="L4" ca="1">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M4" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="M4" ca="1">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N4" s="3" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="e" vm="36">
         <v>#VALUE!</v>
       </c>
@@ -8309,20 +8556,20 @@
         <f t="array" ref="K5">_FV(A5,"Change (%)",TRUE)</f>
         <v>1.4518E-2</v>
       </c>
-      <c r="L5" s="2" cm="1">
-        <f t="array" ref="L5">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>60.13</v>
-      </c>
-      <c r="M5" s="2" cm="1">
-        <f t="array" ref="M5">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>36.270000000000003</v>
-      </c>
-      <c r="N5" s="3">
-        <f>(L5-J5)/L5</f>
-        <v>0.22135373357724933</v>
+      <c r="L5" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="L5" ca="1">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M5" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="M5" ca="1">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N5" s="3" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="e" vm="37">
         <v>#VALUE!</v>
       </c>
@@ -8363,20 +8610,20 @@
         <f t="array" ref="K6">_FV(A6,"Change (%)",TRUE)</f>
         <v>-2.9670000000000002E-2</v>
       </c>
-      <c r="L6" s="2" cm="1">
-        <f t="array" ref="L6">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>35.72</v>
-      </c>
-      <c r="M6" s="2" cm="1">
-        <f t="array" ref="M6">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>17.95</v>
-      </c>
-      <c r="N6" s="3">
-        <f>(L6-J6)/L6</f>
-        <v>0.34994400895856664</v>
+      <c r="L6" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="L6" ca="1">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M6" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="M6" ca="1">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N6" s="3" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="e" vm="38">
         <v>#VALUE!</v>
       </c>
@@ -8417,20 +8664,20 @@
         <f t="array" ref="K7">_FV(A7,"Change (%)",TRUE)</f>
         <v>-1.8498000000000001E-2</v>
       </c>
-      <c r="L7" s="2" cm="1">
-        <f t="array" ref="L7">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>141.1</v>
-      </c>
-      <c r="M7" s="2" cm="1">
-        <f t="array" ref="M7">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>76.91</v>
-      </c>
-      <c r="N7" s="3">
-        <f>(L7-J7)/L7</f>
-        <v>0.30432317505315376</v>
+      <c r="L7" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="L7" ca="1">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M7" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="M7" ca="1">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N7" s="3" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="e" vm="39">
         <v>#VALUE!</v>
       </c>
@@ -8471,20 +8718,20 @@
         <f t="array" ref="K8">_FV(A8,"Change (%)",TRUE)</f>
         <v>-4.2915999999999996E-2</v>
       </c>
-      <c r="L8" s="2" cm="1">
-        <f t="array" ref="L8">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>54.05</v>
-      </c>
-      <c r="M8" s="2" cm="1">
-        <f t="array" ref="M8">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>9</v>
-      </c>
-      <c r="N8" s="3">
-        <f>(L8-J8)/L8</f>
-        <v>0.69879740980573535</v>
+      <c r="L8" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="L8" ca="1">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M8" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="M8" ca="1">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N8" s="3" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="e" vm="40">
         <v>#VALUE!</v>
       </c>
@@ -8524,20 +8771,20 @@
         <f t="array" ref="K9">_FV(A9,"Change (%)",TRUE)</f>
         <v>-1.1849E-2</v>
       </c>
-      <c r="L9" s="2" cm="1">
-        <f t="array" ref="L9">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>67.75</v>
-      </c>
-      <c r="M9" s="2" cm="1">
-        <f t="array" ref="M9">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>22.02</v>
-      </c>
-      <c r="N9" s="3">
-        <f>(L9-J9)/L9</f>
-        <v>0.37225092250922509</v>
+      <c r="L9" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="L9" ca="1">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M9" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="M9" ca="1">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N9" s="3" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="e" vm="41">
         <v>#VALUE!</v>
       </c>
@@ -8578,20 +8825,20 @@
         <f t="array" ref="K10">_FV(A10,"Change (%)",TRUE)</f>
         <v>-3.9191999999999998E-2</v>
       </c>
-      <c r="L10" s="2" cm="1">
-        <f t="array" ref="L10">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>67.13</v>
-      </c>
-      <c r="M10" s="2" cm="1">
-        <f t="array" ref="M10">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>20.84</v>
-      </c>
-      <c r="N10" s="3">
-        <f>(L10-J10)/L10</f>
-        <v>0.40473707731267683</v>
+      <c r="L10" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="L10" ca="1">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M10" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="M10" ca="1">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N10" s="3" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="e" vm="42">
         <v>#VALUE!</v>
       </c>
@@ -8632,20 +8879,20 @@
         <f t="array" ref="K11">_FV(A11,"Change (%)",TRUE)</f>
         <v>-1.7024999999999998E-2</v>
       </c>
-      <c r="L11" s="2" cm="1">
-        <f t="array" ref="L11">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>64.33</v>
-      </c>
-      <c r="M11" s="2" cm="1">
-        <f t="array" ref="M11">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>21.254999999999999</v>
-      </c>
-      <c r="N11" s="3">
-        <f>(L11-J11)/L11</f>
-        <v>0.48841908907197268</v>
+      <c r="L11" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="L11" ca="1">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M11" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="M11" ca="1">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N11" s="3" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="e" vm="43">
         <v>#VALUE!</v>
       </c>
@@ -8686,20 +8933,20 @@
         <f t="array" ref="K12">_FV(A12,"Change (%)",TRUE)</f>
         <v>-1.7163999999999999E-2</v>
       </c>
-      <c r="L12" s="2" cm="1">
-        <f t="array" ref="L12">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>76.05</v>
-      </c>
-      <c r="M12" s="2" cm="1">
-        <f t="array" ref="M12">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>30.11</v>
-      </c>
-      <c r="N12" s="3">
-        <f>(L12-J12)/L12</f>
-        <v>0.42774490466798154</v>
+      <c r="L12" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="L12" ca="1">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M12" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="M12" ca="1">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N12" s="3" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="e" vm="44">
         <v>#VALUE!</v>
       </c>
@@ -8740,20 +8987,20 @@
         <f t="array" ref="K13">_FV(A13,"Change (%)",TRUE)</f>
         <v>-1.9618E-2</v>
       </c>
-      <c r="L13" s="2" cm="1">
-        <f t="array" ref="L13">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>101.99</v>
-      </c>
-      <c r="M13" s="2" cm="1">
-        <f t="array" ref="M13">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>31</v>
-      </c>
-      <c r="N13" s="3">
-        <f>(L13-J13)/L13</f>
-        <v>0.45612314932836551</v>
+      <c r="L13" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="L13" ca="1">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M13" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="M13" ca="1">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N13" s="3" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="e" vm="45">
         <v>#VALUE!</v>
       </c>
@@ -8794,20 +9041,20 @@
         <f t="array" ref="K14">_FV(A14,"Change (%)",TRUE)</f>
         <v>-1.3241000000000001E-2</v>
       </c>
-      <c r="L14" s="2" cm="1">
-        <f t="array" ref="L14">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>127</v>
-      </c>
-      <c r="M14" s="2" cm="1">
-        <f t="array" ref="M14">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>51.6</v>
-      </c>
-      <c r="N14" s="3">
-        <f>(L14-J14)/L14</f>
-        <v>0.31346456692913388</v>
+      <c r="L14" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="L14" ca="1">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M14" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="M14" ca="1">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N14" s="3" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="e" vm="46">
         <v>#VALUE!</v>
       </c>
@@ -8848,20 +9095,20 @@
         <f t="array" ref="K15">_FV(A15,"Change (%)",TRUE)</f>
         <v>-2.1968000000000001E-2</v>
       </c>
-      <c r="L15" s="2" cm="1">
-        <f t="array" ref="L15">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>53.13</v>
-      </c>
-      <c r="M15" s="2" cm="1">
-        <f t="array" ref="M15">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>13.74</v>
-      </c>
-      <c r="N15" s="3">
-        <f>(L15-J15)/L15</f>
-        <v>0.42179559570863923</v>
+      <c r="L15" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="L15" ca="1">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M15" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="M15" ca="1">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N15" s="3" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="e" vm="47">
         <v>#VALUE!</v>
       </c>
@@ -8902,20 +9149,20 @@
         <f t="array" ref="K16">_FV(A16,"Change (%)",TRUE)</f>
         <v>-2.0518999999999999E-2</v>
       </c>
-      <c r="L16" s="2" cm="1">
-        <f t="array" ref="L16">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>74.290000000000006</v>
-      </c>
-      <c r="M16" s="2" cm="1">
-        <f t="array" ref="M16">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>33.299999999999997</v>
-      </c>
-      <c r="N16" s="3">
-        <f>(L16-J16)/L16</f>
-        <v>0.34459550410553247</v>
+      <c r="L16" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="L16" ca="1">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M16" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="M16" ca="1">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N16" s="3" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="e" vm="48">
         <v>#VALUE!</v>
       </c>
@@ -8956,20 +9203,20 @@
         <f t="array" ref="K17">_FV(A17,"Change (%)",TRUE)</f>
         <v>-2.9287000000000001E-2</v>
       </c>
-      <c r="L17" s="2" cm="1">
-        <f t="array" ref="L17">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>59.52</v>
-      </c>
-      <c r="M17" s="2" cm="1">
-        <f t="array" ref="M17">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>8.75</v>
-      </c>
-      <c r="N17" s="3">
-        <f>(L17-J17)/L17</f>
-        <v>0.65473790322580638</v>
+      <c r="L17" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="L17" ca="1">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M17" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="M17" ca="1">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N17" s="3" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="e" vm="49">
         <v>#VALUE!</v>
       </c>
@@ -9010,20 +9257,20 @@
         <f t="array" ref="K18">_FV(A18,"Change (%)",TRUE)</f>
         <v>-1.4047E-2</v>
       </c>
-      <c r="L18" s="2" cm="1">
-        <f t="array" ref="L18">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>28.504999999999999</v>
-      </c>
-      <c r="M18" s="2" cm="1">
-        <f t="array" ref="M18">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>11.290100000000001</v>
-      </c>
-      <c r="N18" s="3">
-        <f>(L18-J18)/L18</f>
-        <v>0.48289773723908086</v>
+      <c r="L18" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="L18" ca="1">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M18" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="M18" ca="1">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N18" s="3" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="e" vm="50">
         <v>#VALUE!</v>
       </c>
@@ -9064,20 +9311,20 @@
         <f t="array" ref="K19">_FV(A19,"Change (%)",TRUE)</f>
         <v>-7.9430000000000004E-3</v>
       </c>
-      <c r="L19" s="2" cm="1">
-        <f t="array" ref="L19">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>29.44</v>
-      </c>
-      <c r="M19" s="2" cm="1">
-        <f t="array" ref="M19">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>19.38</v>
-      </c>
-      <c r="N19" s="3">
-        <f>(L19-J19)/L19</f>
-        <v>0.10903532608695654</v>
+      <c r="L19" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="L19" ca="1">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M19" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="M19" ca="1">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N19" s="3" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="e" vm="51">
         <v>#VALUE!</v>
       </c>
@@ -9118,20 +9365,20 @@
         <f t="array" ref="K20">_FV(A20,"Change (%)",TRUE)</f>
         <v>-8.6169999999999997E-3</v>
       </c>
-      <c r="L20" s="2" cm="1">
-        <f t="array" ref="L20">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>53.81</v>
-      </c>
-      <c r="M20" s="2" cm="1">
-        <f t="array" ref="M20">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>19.989999999999998</v>
-      </c>
-      <c r="N20" s="3">
-        <f>(L20-J20)/L20</f>
-        <v>0.14476863036610294</v>
+      <c r="L20" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="L20" ca="1">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M20" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="M20" ca="1">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N20" s="3" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="e" vm="52">
         <v>#VALUE!</v>
       </c>
@@ -9172,20 +9419,20 @@
         <f t="array" ref="K21">_FV(A21,"Change (%)",TRUE)</f>
         <v>-8.8000000000000005E-3</v>
       </c>
-      <c r="L21" s="2" cm="1">
-        <f t="array" ref="L21">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>108.58</v>
-      </c>
-      <c r="M21" s="2" cm="1">
-        <f t="array" ref="M21">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>49.680999999999997</v>
-      </c>
-      <c r="N21" s="3">
-        <f>(L21-J21)/L21</f>
-        <v>0.19082703997052863</v>
+      <c r="L21" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="L21" ca="1">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M21" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="M21" ca="1">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N21" s="3" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="e" vm="53">
         <v>#VALUE!</v>
       </c>
@@ -9226,20 +9473,20 @@
         <f t="array" ref="K22">_FV(A22,"Change (%)",TRUE)</f>
         <v>-6.783E-3</v>
       </c>
-      <c r="L22" s="2" cm="1">
-        <f t="array" ref="L22">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>49.8</v>
-      </c>
-      <c r="M22" s="2" cm="1">
-        <f t="array" ref="M22">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>13.46</v>
-      </c>
-      <c r="N22" s="3">
-        <f>(L22-J22)/L22</f>
-        <v>0.1767068273092369</v>
+      <c r="L22" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="L22" ca="1">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M22" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="M22" ca="1">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N22" s="3" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="e" vm="54">
         <v>#VALUE!</v>
       </c>
@@ -9280,20 +9527,20 @@
         <f t="array" ref="K23">_FV(A23,"Change (%)",TRUE)</f>
         <v>-2.65E-3</v>
       </c>
-      <c r="L23" s="2" cm="1">
-        <f t="array" ref="L23">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>45.24</v>
-      </c>
-      <c r="M23" s="2" cm="1">
-        <f t="array" ref="M23">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>14.52</v>
-      </c>
-      <c r="N23" s="3">
-        <f>(L23-J23)/L23</f>
-        <v>0.50088417329796642</v>
+      <c r="L23" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="L23" ca="1">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M23" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="M23" ca="1">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N23" s="3" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="e" vm="55">
         <v>#VALUE!</v>
       </c>
@@ -9334,20 +9581,20 @@
         <f t="array" ref="K24">_FV(A24,"Change (%)",TRUE)</f>
         <v>-3.0919999999999997E-3</v>
       </c>
-      <c r="L24" s="2" cm="1">
-        <f t="array" ref="L24">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>99.72</v>
-      </c>
-      <c r="M24" s="2" cm="1">
-        <f t="array" ref="M24">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>50.02</v>
-      </c>
-      <c r="N24" s="3">
-        <f>(L24-J24)/L24</f>
-        <v>0.25631768953068595</v>
+      <c r="L24" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="L24" ca="1">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M24" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="M24" ca="1">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N24" s="3" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="e" vm="56">
         <v>#VALUE!</v>
       </c>
@@ -9388,17 +9635,62 @@
         <f t="array" ref="K25">_FV(A25,"Change (%)",TRUE)</f>
         <v>1.1489000000000001E-2</v>
       </c>
-      <c r="L25" s="2" cm="1">
-        <f t="array" ref="L25">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>144.94</v>
-      </c>
-      <c r="M25" s="2" cm="1">
-        <f t="array" ref="M25">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>60</v>
-      </c>
-      <c r="N25" s="3">
-        <f>(L25-J25)/L25</f>
-        <v>3.7946736580654851E-3</v>
+      <c r="L25" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="L25" ca="1">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M25" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="M25" ca="1">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N25" s="3" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="e" vm="57">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B26" s="4" t="e">
+        <f t="array" aca="1" ref="B26" ca="1">_FV(A26,"Ticker symbol",TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F26" s="3" t="e">
+        <f t="array" aca="1" ref="F26" ca="1">_FV(A26,"Industry")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G26" s="2" t="e">
+        <f t="array" aca="1" ref="G26" ca="1">_FV(A26,"Open")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H26" s="2" t="e">
+        <f t="array" aca="1" ref="H26" ca="1">_FV(A26,"High")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I26" s="2" t="e">
+        <f t="array" aca="1" ref="I26" ca="1">_FV(A26,"Low")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J26" s="2" t="e">
+        <f t="array" aca="1" ref="J26" ca="1">_FV(A26,"Price")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K26" s="3" t="e">
+        <f t="array" aca="1" ref="K26" ca="1">_FV(A26,"Change (%)",TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L26" s="2" t="e">
+        <f t="array" aca="1" ref="L26" ca="1">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M26" s="2" t="e">
+        <f t="array" aca="1" ref="M26" ca="1">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N26" s="3" t="e">
+        <f ca="1">(L26-J26)/L26</f>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
@@ -9424,24 +9716,24 @@
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="61.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="1" customWidth="1"/>
-    <col min="7" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="17.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="67.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="61.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" style="1" customWidth="1"/>
+    <col min="7" max="9" width="9.109375" style="1"/>
+    <col min="10" max="10" width="17.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="67.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
@@ -9464,7 +9756,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -9489,7 +9781,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -9514,7 +9806,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -9544,7 +9836,7 @@
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -9574,7 +9866,7 @@
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -9599,7 +9891,7 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -9624,7 +9916,7 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -9649,7 +9941,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -9674,7 +9966,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -9699,7 +9991,7 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -9724,7 +10016,7 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>56</v>
       </c>
@@ -9746,7 +10038,7 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>2</v>
       </c>
@@ -9766,7 +10058,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -9788,7 +10080,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -9810,7 +10102,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -9832,7 +10124,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
@@ -9854,7 +10146,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
@@ -9876,7 +10168,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
@@ -9898,7 +10190,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
@@ -9920,7 +10212,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>56</v>
       </c>
@@ -9949,12 +10241,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D95AC4467A64E54FAB628610D0FE135F" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="79e84842eaddaeb917644b39e1597e3c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e8f9595b-0d5a-46b2-8488-c972c1ea4246" xmlns:ns4="6bcbbac3-d60f-4c54-b2b4-d245c065548d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bb8f6ae9099bbec0b468ebfdbf5b501b" ns3:_="" ns4:_="">
     <xsd:import namespace="e8f9595b-0d5a-46b2-8488-c972c1ea4246"/>
@@ -10177,6 +10463,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -10187,13 +10479,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{401ADED5-CC5A-4072-B36A-6DA217C5A368}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11321DBA-FDAB-45E8-A045-E3E44A7AE235}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e8f9595b-0d5a-46b2-8488-c972c1ea4246"/>
+    <ds:schemaRef ds:uri="6bcbbac3-d60f-4c54-b2b4-d245c065548d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11321DBA-FDAB-45E8-A045-E3E44A7AE235}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{401ADED5-CC5A-4072-B36A-6DA217C5A368}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DB5870C-189D-475E-8E58-449C30115ACA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DB5870C-189D-475E-8E58-449C30115ACA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/input/Watchlist.xlsx
+++ b/input/Watchlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bayergroup-my.sharepoint.com/personal/sivacharan_chandrasekar_ext_bayer_com/Documents/Personal Data/Analytics/us-stocks-analysis/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="13_ncr:1_{B3C20CFB-FE03-452E-9027-14D29E3DA195}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{69FD5C45-55A4-42EC-938D-D964BC8B73B5}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="13_ncr:1_{B3C20CFB-FE03-452E-9027-14D29E3DA195}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{94357B68-09FE-4CCE-A829-D4AF0F6E5960}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="58">
+  <futureMetadata name="XLRICHVALUE" count="62">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -90,21 +90,21 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="20"/>
+          <xlrd:rvb i="18"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="23"/>
+          <xlrd:rvb i="21"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="26"/>
+          <xlrd:rvb i="24"/>
         </ext>
       </extLst>
     </bk>
@@ -279,14 +279,28 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="103"/>
+          <xlrd:rvb i="99"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="109"/>
+          <xlrd:rvb i="102"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="105"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="108"/>
         </ext>
       </extLst>
     </bk>
@@ -300,13 +314,6 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="118"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="121"/>
         </ext>
       </extLst>
@@ -314,7 +321,7 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="124"/>
+          <xlrd:rvb i="127"/>
         </ext>
       </extLst>
     </bk>
@@ -328,6 +335,13 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="133"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="136"/>
         </ext>
       </extLst>
@@ -356,35 +370,35 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="157"/>
+          <xlrd:rvb i="160"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="164"/>
+          <xlrd:rvb i="166"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="170"/>
+          <xlrd:rvb i="169"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="173"/>
+          <xlrd:rvb i="176"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="179"/>
+          <xlrd:rvb i="182"/>
         </ext>
       </extLst>
     </bk>
@@ -405,59 +419,73 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="194"/>
+          <xlrd:rvb i="197"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="200"/>
+          <xlrd:rvb i="203"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="207"/>
+          <xlrd:rvb i="206"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="213"/>
+          <xlrd:rvb i="212"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="220"/>
+          <xlrd:rvb i="219"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="226"/>
+          <xlrd:rvb i="225"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="229"/>
+          <xlrd:rvb i="232"/>
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="238"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="241"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="58">
+  <valueMetadata count="62">
     <bk>
       <rc t="2" v="0"/>
     </bk>
@@ -631,13 +659,25 @@
     </bk>
     <bk>
       <rc t="2" v="57"/>
+    </bk>
+    <bk>
+      <rc t="2" v="58"/>
+    </bk>
+    <bk>
+      <rc t="2" v="59"/>
+    </bk>
+    <bk>
+      <rc t="2" v="60"/>
+    </bk>
+    <bk>
+      <rc t="2" v="61"/>
     </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="77">
   <si>
     <t>Funds</t>
   </si>
@@ -857,13 +897,27 @@
   <si>
     <t>VGT (40%), FTEC (40%), FSCSX, ARKW (60%), ARKK (60%)</t>
   </si>
+  <si>
+    <t>Deviation from 52 Week High</t>
+  </si>
+  <si>
+    <t>Others - Mid Cap Growth</t>
+  </si>
+  <si>
+    <t>Others - Intl. Growth</t>
+  </si>
+  <si>
+    <t>Real Estate</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -958,11 +1012,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -983,35 +1038,29 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="35">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1331,21 +1380,13 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Source Sans Pro"/>
-        <scheme val="none"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1363,7 +1404,6 @@
         <name val="Source Sans Pro"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1381,7 +1421,25 @@
         <name val="Source Sans Pro"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Source Sans Pro"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1417,7 +1475,7 @@
         <name val="Source Sans Pro"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1435,7 +1493,7 @@
         <name val="Source Sans Pro"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1453,7 +1511,7 @@
         <name val="Source Sans Pro"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1471,7 +1529,7 @@
         <name val="Source Sans Pro"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1593,6 +1651,17 @@
         <name val="Source Sans Pro"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1711,7 +1780,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="230">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="242">
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a267oc&amp;q=ARCX%3aXLE&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
@@ -1731,26 +1800,26 @@
     <v>62.0443</v>
     <v>22.88</v>
     <v>1.1377999999999999</v>
-    <v>-0.56499999999999995</v>
-    <v>-1.5408E-2</v>
+    <v>2.37</v>
+    <v>6.5724000000000005E-2</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>1.4000000000000002E-3</v>
-    <v>36.979999999999997</v>
+    <v>38.548499999999997</v>
     <v>ETF</v>
-    <v>44032.82849925859</v>
+    <v>44033.714846816409</v>
     <v>0</v>
-    <v>36.06</v>
+    <v>36.65</v>
     <v>10403779192.91</v>
     <v>Sel Sector:Energy SPDR</v>
-    <v>36.6</v>
-    <v>36.67</v>
-    <v>36.104999999999997</v>
+    <v>36.700000000000003</v>
+    <v>36.06</v>
+    <v>38.43</v>
     <v>XLE</v>
     <v>Sel Sector:Energy SPDR (ARCX:XLE)</v>
-    <v>18562797</v>
-    <v>25621113</v>
+    <v>19138601</v>
+    <v>24711472</v>
   </rv>
   <rv s="2">
     <v>1</v>
@@ -1770,30 +1839,30 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>5</v>
+    <v>4</v>
     <v>273.16379999999998</v>
     <v>130.04</v>
     <v>0.39129999999999998</v>
-    <v>4.3899999999999997</v>
-    <v>2.315E-2</v>
+    <v>7.59</v>
+    <v>3.9049E-2</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>6.0000000000000001E-3</v>
-    <v>195.56989999999999</v>
+    <v>204.95</v>
     <v>ETF</v>
-    <v>44032.816242360939</v>
+    <v>44033.713738425926</v>
     <v>3</v>
-    <v>191.92</v>
+    <v>201.06829999999999</v>
     <v>263816104.05000001</v>
     <v>Aberdeen:SP Palladium</v>
-    <v>194.75</v>
-    <v>189.63</v>
-    <v>194.02</v>
+    <v>202.8</v>
+    <v>194.37</v>
+    <v>201.96</v>
     <v>PALL</v>
     <v>Aberdeen:SP Palladium (ARCX:PALL)</v>
-    <v>45478</v>
-    <v>21824</v>
+    <v>51239</v>
+    <v>23613</v>
   </rv>
   <rv s="2">
     <v>4</v>
@@ -1817,26 +1886,26 @@
     <v>94.86</v>
     <v>60.07</v>
     <v>0.88419999999999999</v>
-    <v>-0.505</v>
-    <v>-6.1909999999999995E-3</v>
+    <v>1.3893</v>
+    <v>1.7156000000000001E-2</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>8.0000000000000004E-4</v>
-    <v>81.472300000000004</v>
+    <v>82.4</v>
     <v>ETF</v>
-    <v>44032.829618055555</v>
+    <v>44033.715648148151</v>
     <v>6</v>
-    <v>80.824200000000005</v>
+    <v>81.5</v>
     <v>25574121725</v>
     <v>Vanguard Hi Dv Yld;ETF</v>
-    <v>81.290000000000006</v>
-    <v>81.569999999999993</v>
-    <v>81.064999999999998</v>
+    <v>81.62</v>
+    <v>80.98</v>
+    <v>82.369299999999996</v>
     <v>VYM</v>
     <v>Vanguard Hi Dv Yld;ETF (ARCX:VYM)</v>
-    <v>1450593</v>
-    <v>1780237</v>
+    <v>1122589</v>
+    <v>1751598</v>
   </rv>
   <rv s="2">
     <v>7</v>
@@ -1860,26 +1929,26 @@
     <v>24.18</v>
     <v>17.22</v>
     <v>0.73819999999999997</v>
-    <v>-9.9000000000000008E-3</v>
-    <v>-4.6109999999999999E-4</v>
+    <v>-0.1101</v>
+    <v>-5.1259999999999995E-3</v>
     <v>USD</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>6.0000000000000001E-3</v>
-    <v>21.484999999999999</v>
+    <v>21.49</v>
     <v>ETF</v>
-    <v>44032.828367928123</v>
+    <v>44033.714733796296</v>
     <v>9</v>
-    <v>21.21</v>
+    <v>21.33</v>
     <v>1108626120.3199999</v>
     <v>Glbl X NASDAQ 100 CC</v>
-    <v>21.3</v>
-    <v>21.47</v>
-    <v>21.460100000000001</v>
+    <v>21.48</v>
+    <v>21.48</v>
+    <v>21.369900000000001</v>
     <v>QYLD</v>
     <v>Glbl X NASDAQ 100 CC (XNAS:QYLD)</v>
-    <v>717787</v>
-    <v>606573</v>
+    <v>341277</v>
+    <v>608860</v>
   </rv>
   <rv s="2">
     <v>10</v>
@@ -1903,29 +1972,117 @@
     <v>59.56</v>
     <v>38.825000000000003</v>
     <v>0.91039999999999999</v>
-    <v>-0.41</v>
-    <v>-7.6810000000000003E-3</v>
+    <v>1.0449999999999999</v>
+    <v>1.976E-2</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>7.000000000000001E-4</v>
-    <v>53.29</v>
+    <v>53.97</v>
     <v>ETF</v>
-    <v>44032.827936666406</v>
+    <v>44033.714710948436</v>
     <v>12</v>
-    <v>52.766500000000001</v>
+    <v>53.34</v>
     <v>11125665085.860001</v>
     <v>Schwab Str:US Div Eq ETF</v>
-    <v>53.16</v>
-    <v>53.38</v>
-    <v>52.97</v>
+    <v>53.45</v>
+    <v>52.884999999999998</v>
+    <v>53.93</v>
     <v>SCHD</v>
     <v>Schwab Str:US Div Eq ETF (ARCX:SCHD)</v>
-    <v>1086713</v>
-    <v>1984033</v>
+    <v>811498</v>
+    <v>1914443</v>
   </rv>
   <rv s="2">
     <v>13</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=brfebh&amp;q=XNAS%3aWCLD&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="3">
+    <v>en-US</v>
+    <v>brfebh</v>
+    <v>268435456</v>
+    <v>268435459</v>
+    <v>1</v>
+    <v>5</v>
+    <v>WisdomTree:Cloud Cmptng (XNAS:WCLD)</v>
+    <v>2</v>
+    <v>6</v>
+    <v>Finance</v>
+    <v>7</v>
+    <v>42.77</v>
+    <v>18.989999999999998</v>
+    <v>-0.60499999999999998</v>
+    <v>-1.4695E-2</v>
+    <v>USD</v>
+    <v>Nasdaq Stock Market</v>
+    <v>XNAS</v>
+    <v>41.76</v>
+    <v>ETF</v>
+    <v>44033.704877603908</v>
+    <v>15</v>
+    <v>40.380099999999999</v>
+    <v>418823144.10000002</v>
+    <v>WisdomTree:Cloud Cmptng</v>
+    <v>41.65</v>
+    <v>41.17</v>
+    <v>40.564999999999998</v>
+    <v>WCLD</v>
+    <v>WisdomTree:Cloud Cmptng (XNAS:WCLD)</v>
+    <v>749388</v>
+    <v>844492</v>
+  </rv>
+  <rv s="2">
+    <v>16</v>
+  </rv>
+  <rv s="4">
+    <v>12</v>
+    <v>Expense ratio</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a266rw&amp;q=ARCX%3aXHB&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>en-US</v>
+    <v>a266rw</v>
+    <v>268435456</v>
+    <v>268435459</v>
+    <v>1</v>
+    <v>0</v>
+    <v>SPDR S&amp;P Homebuilders (ARCX:XHB)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>49.344999999999999</v>
+    <v>23.95</v>
+    <v>1.2615000000000001</v>
+    <v>0.25</v>
+    <v>5.3109999999999997E-3</v>
+    <v>USD</v>
+    <v>NYSE Arca</v>
+    <v>ARCX</v>
+    <v>3.4999999999999996E-3</v>
+    <v>47.42</v>
+    <v>ETF</v>
+    <v>44033.784557522653</v>
+    <v>19</v>
+    <v>46.95</v>
+    <v>808077459.72000003</v>
+    <v>SPDR S&amp;P Homebuilders</v>
+    <v>47.2</v>
+    <v>47.07</v>
+    <v>47.32</v>
+    <v>XHB</v>
+    <v>SPDR S&amp;P Homebuilders (ARCX:XHB)</v>
+    <v>1596736</v>
+    <v>2334418</v>
+  </rv>
+  <rv s="2">
+    <v>20</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a25lrw&amp;q=ARCX%3aVTI&amp;form=skydnc</v>
@@ -1946,29 +2103,29 @@
     <v>172.55670000000001</v>
     <v>109.49</v>
     <v>1.0003</v>
-    <v>1.6568000000000001</v>
-    <v>1.0158E-2</v>
+    <v>1.0322</v>
+    <v>6.2770000000000005E-3</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>4.0000000000000002E-4</v>
-    <v>164.82</v>
+    <v>165.9</v>
     <v>ETF</v>
-    <v>44032.828206018516</v>
-    <v>15</v>
-    <v>162.6</v>
+    <v>44033.715902777774</v>
+    <v>22</v>
+    <v>165.05199999999999</v>
     <v>143380330706</v>
     <v>Vanguard TSM Idx;ETF</v>
-    <v>163.07499999999999</v>
-    <v>163.11000000000001</v>
-    <v>164.76679999999999</v>
+    <v>165.625</v>
+    <v>164.45</v>
+    <v>165.48220000000001</v>
     <v>VTI</v>
     <v>Vanguard TSM Idx;ETF (ARCX:VTI)</v>
-    <v>2627134</v>
-    <v>3451561</v>
+    <v>1355234</v>
+    <v>3300814</v>
   </rv>
   <rv s="2">
-    <v>16</v>
+    <v>23</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1vwrw&amp;q=ARCX%3aIVV&amp;form=skydnc</v>
@@ -1989,29 +2146,29 @@
     <v>340.63119999999998</v>
     <v>220.2756</v>
     <v>1</v>
-    <v>3.3060999999999998</v>
-    <v>1.0238000000000001E-2</v>
+    <v>2.0299999999999998</v>
+    <v>6.2360000000000002E-3</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>4.0000000000000002E-4</v>
-    <v>326.36</v>
+    <v>328.22</v>
     <v>ETF</v>
-    <v>44032.828506944446</v>
-    <v>18</v>
-    <v>321.90100000000001</v>
+    <v>44033.714791666665</v>
+    <v>25</v>
+    <v>326.76</v>
     <v>194759762074.48001</v>
     <v>iShares:Core S&amp;P 500</v>
-    <v>322.70999999999998</v>
-    <v>322.94</v>
-    <v>326.24610000000001</v>
+    <v>327.71</v>
+    <v>325.55</v>
+    <v>327.58</v>
     <v>IVV</v>
     <v>iShares:Core S&amp;P 500 (ARCX:IVV)</v>
-    <v>1926976</v>
-    <v>4404169</v>
+    <v>1600150</v>
+    <v>4184263</v>
   </rv>
   <rv s="2">
-    <v>19</v>
+    <v>26</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a25hm7&amp;q=ARCX%3aVOO&amp;form=skydnc</v>
@@ -2032,74 +2189,71 @@
     <v>311.58999999999997</v>
     <v>200.55</v>
     <v>1.0004999999999999</v>
-    <v>2.94</v>
-    <v>9.9480000000000002E-3</v>
+    <v>1.825</v>
+    <v>6.1260000000000004E-3</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>4.0000000000000002E-4</v>
-    <v>298.68</v>
+    <v>300.35000000000002</v>
     <v>ETF</v>
-    <v>44032.82837598359</v>
-    <v>21</v>
-    <v>294.62</v>
+    <v>44033.714803240742</v>
+    <v>28</v>
+    <v>298.99200000000002</v>
     <v>147733916353</v>
     <v>Vanguard 500 Idx;ETF</v>
-    <v>295.3</v>
-    <v>295.54000000000002</v>
-    <v>298.48</v>
+    <v>299.87</v>
+    <v>297.92</v>
+    <v>299.745</v>
     <v>VOO</v>
     <v>Vanguard 500 Idx;ETF (ARCX:VOO)</v>
-    <v>2278713</v>
-    <v>3751517</v>
+    <v>1753772</v>
+    <v>3603826</v>
   </rv>
   <rv s="2">
-    <v>22</v>
+    <v>29</v>
   </rv>
   <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=brfebh&amp;q=XNAS%3aWCLD&amp;form=skydnc</v>
+    <v>https://www.bing.com/financeapi/forcetrigger?t=bprn6h&amp;q=XNAS%3aCLOU&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="3">
+  <rv s="5">
     <v>en-US</v>
-    <v>brfebh</v>
+    <v>bprn6h</v>
     <v>268435456</v>
     <v>268435459</v>
     <v>1</v>
-    <v>6</v>
-    <v>WisdomTree:Cloud Cmptng (XNAS:WCLD)</v>
+    <v>8</v>
+    <v>Glbl X Cloud Computing (XNAS:CLOU)</v>
     <v>2</v>
+    <v>9</v>
+    <v>Finance</v>
     <v>7</v>
-    <v>Finance</v>
-    <v>5</v>
-    <v>42.77</v>
-    <v>18.989999999999998</v>
-    <v>2.02</v>
-    <v>5.1623000000000002E-2</v>
+    <v>23.19</v>
+    <v>12.36</v>
+    <v>-0.34</v>
+    <v>-1.4886E-2</v>
     <v>USD</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
-    <v>41.17</v>
+    <v>6.8000000000000005E-3</v>
+    <v>23.09</v>
     <v>ETF</v>
-    <v>44032.818414524998</v>
-    <v>24</v>
-    <v>39.26</v>
-    <v>418823144.10000002</v>
-    <v>WisdomTree:Cloud Cmptng</v>
-    <v>39.270000000000003</v>
-    <v>39.130000000000003</v>
-    <v>41.15</v>
-    <v>WCLD</v>
-    <v>WisdomTree:Cloud Cmptng (XNAS:WCLD)</v>
-    <v>732337</v>
-    <v>827579</v>
+    <v>44033.705041342189</v>
+    <v>31</v>
+    <v>22.41</v>
+    <v>806018350.36000001</v>
+    <v>Glbl X Cloud Computing</v>
+    <v>23.06</v>
+    <v>22.84</v>
+    <v>22.5</v>
+    <v>CLOU</v>
+    <v>Glbl X Cloud Computing (XNAS:CLOU)</v>
+    <v>1082567</v>
+    <v>1180394</v>
   </rv>
   <rv s="2">
-    <v>25</v>
-  </rv>
-  <rv s="4">
-    <v>12</v>
-    <v>Expense ratio</v>
+    <v>32</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1nqf2&amp;q=ARCX%3aARKW&amp;form=skydnc</v>
@@ -2120,29 +2274,72 @@
     <v>100.91</v>
     <v>40.494999999999997</v>
     <v>1.194</v>
-    <v>4.67</v>
-    <v>4.9490999999999993E-2</v>
+    <v>-0.28000000000000003</v>
+    <v>-2.8299999999999996E-3</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>7.4999999999999997E-3</v>
-    <v>99.11</v>
+    <v>100.315</v>
     <v>ETF</v>
-    <v>44032.829513888886</v>
-    <v>28</v>
-    <v>94.81</v>
+    <v>44033.715833333335</v>
+    <v>34</v>
+    <v>98.3001</v>
     <v>1305706301.7460001</v>
     <v>ARK Next Gen Int ETF</v>
-    <v>94.85</v>
-    <v>94.36</v>
-    <v>99.03</v>
+    <v>100.13</v>
+    <v>98.93</v>
+    <v>98.65</v>
     <v>ARKW</v>
     <v>ARK Next Gen Int ETF (ARCX:ARKW)</v>
-    <v>599068</v>
-    <v>708895</v>
+    <v>390090</v>
+    <v>710344</v>
   </rv>
   <rv s="2">
-    <v>29</v>
+    <v>35</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1smu2&amp;q=ARCX%3aFBT&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>en-US</v>
+    <v>a1smu2</v>
+    <v>268435456</v>
+    <v>268435459</v>
+    <v>1</v>
+    <v>0</v>
+    <v>Frst Tr:NYSEArcaBiotech (ARCX:FBT)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>180.637</v>
+    <v>108.08</v>
+    <v>1.3794999999999999</v>
+    <v>-3.3149999999999999</v>
+    <v>-1.8405999999999999E-2</v>
+    <v>USD</v>
+    <v>NYSE Arca</v>
+    <v>ARCX</v>
+    <v>5.6000000000000008E-3</v>
+    <v>179.88</v>
+    <v>ETF</v>
+    <v>44033.715138888889</v>
+    <v>37</v>
+    <v>175.91</v>
+    <v>2154897908.5560002</v>
+    <v>Frst Tr:NYSEArcaBiotech</v>
+    <v>178.27</v>
+    <v>180.1</v>
+    <v>176.785</v>
+    <v>FBT</v>
+    <v>Frst Tr:NYSEArcaBiotech (ARCX:FBT)</v>
+    <v>32949</v>
+    <v>73270</v>
+  </rv>
+  <rv s="2">
+    <v>38</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a267a2&amp;q=ARCX%3aXITK&amp;form=skydnc</v>
@@ -2163,71 +2360,72 @@
     <v>159.9</v>
     <v>81.5</v>
     <v>1.1793</v>
-    <v>5.9066000000000001</v>
-    <v>3.9073000000000004E-2</v>
+    <v>-0.9073</v>
+    <v>-5.764E-3</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>4.5000000000000005E-3</v>
-    <v>157.07660000000001</v>
+    <v>158.44999999999999</v>
     <v>ETF</v>
-    <v>44032.827789351853</v>
-    <v>31</v>
-    <v>152</v>
+    <v>44033.71194107578</v>
+    <v>40</v>
+    <v>156.11500000000001</v>
     <v>145300746.91</v>
     <v>SPDR FS Innovative Tech</v>
-    <v>152</v>
-    <v>151.16999999999999</v>
-    <v>157.07660000000001</v>
+    <v>158.44999999999999</v>
+    <v>157.41</v>
+    <v>156.5027</v>
     <v>XITK</v>
     <v>SPDR FS Innovative Tech (ARCX:XITK)</v>
-    <v>14330</v>
-    <v>34600</v>
+    <v>9794</v>
+    <v>34316</v>
   </rv>
   <rv s="2">
-    <v>32</v>
+    <v>41</v>
   </rv>
   <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=bprn6h&amp;q=XNAS%3aCLOU&amp;form=skydnc</v>
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1nq3m&amp;q=BATS%3aARKG&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="5">
+  <rv s="1">
     <v>en-US</v>
-    <v>bprn6h</v>
+    <v>a1nq3m</v>
     <v>268435456</v>
     <v>268435459</v>
     <v>1</v>
-    <v>8</v>
-    <v>Glbl X Cloud Computing (XNAS:CLOU)</v>
+    <v>0</v>
+    <v>ARK Genomic Revolution (BATS:ARKG)</v>
     <v>2</v>
-    <v>9</v>
+    <v>3</v>
     <v>Finance</v>
-    <v>5</v>
-    <v>23.19</v>
-    <v>12.36</v>
-    <v>1.05</v>
-    <v>4.8253999999999998E-2</v>
+    <v>4</v>
+    <v>58.74</v>
+    <v>24</v>
+    <v>1.5559000000000001</v>
+    <v>-1.0399</v>
+    <v>-1.7760999999999999E-2</v>
     <v>USD</v>
-    <v>Nasdaq Stock Market</v>
-    <v>XNAS</v>
-    <v>6.8000000000000005E-3</v>
-    <v>22.82</v>
+    <v>CBOE BZX Exchange</v>
+    <v>BATS</v>
+    <v>7.4999999999999997E-3</v>
+    <v>59.414999999999999</v>
     <v>ETF</v>
-    <v>44032.818011608593</v>
-    <v>34</v>
-    <v>21.85</v>
-    <v>806018350.36000001</v>
-    <v>Glbl X Cloud Computing</v>
-    <v>21.86</v>
-    <v>21.76</v>
-    <v>22.81</v>
-    <v>CLOU</v>
-    <v>Glbl X Cloud Computing (XNAS:CLOU)</v>
-    <v>1092756</v>
-    <v>1155413</v>
+    <v>44033.715104166666</v>
+    <v>43</v>
+    <v>57.1</v>
+    <v>1323941282.4159999</v>
+    <v>ARK Genomic Revolution</v>
+    <v>59.4</v>
+    <v>58.55</v>
+    <v>57.510100000000001</v>
+    <v>ARKG</v>
+    <v>ARK Genomic Revolution (BATS:ARKG)</v>
+    <v>535762</v>
+    <v>772885</v>
   </rv>
   <rv s="2">
-    <v>35</v>
+    <v>44</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a232h7&amp;q=XNAS%3aSKYY&amp;form=skydnc</v>
@@ -2248,71 +2446,29 @@
     <v>78.92</v>
     <v>45</v>
     <v>0.90910000000000002</v>
-    <v>3.2281</v>
-    <v>4.3185000000000001E-2</v>
+    <v>-0.54649999999999999</v>
+    <v>-7.0169999999999998E-3</v>
     <v>USD</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>6.0000000000000001E-3</v>
-    <v>77.978099999999998</v>
+    <v>78.709999999999994</v>
     <v>ETF</v>
-    <v>44032.829016203701</v>
-    <v>37</v>
-    <v>75.090999999999994</v>
+    <v>44033.715406099218</v>
+    <v>46</v>
+    <v>77.040000000000006</v>
     <v>4448408839.3800001</v>
     <v>Frst Tr II:CloudComp</v>
-    <v>75.23</v>
-    <v>74.75</v>
-    <v>77.978099999999998</v>
+    <v>78.56</v>
+    <v>77.88</v>
+    <v>77.333500000000001</v>
     <v>SKYY</v>
     <v>Frst Tr II:CloudComp (XNAS:SKYY)</v>
-    <v>598059</v>
-    <v>540949</v>
+    <v>326162</v>
+    <v>546366</v>
   </rv>
   <rv s="2">
-    <v>38</v>
-  </rv>
-  <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=bokc77&amp;q=ARCX%3aGDAT&amp;form=skydnc</v>
-    <v>Learn more on Bing</v>
-  </rv>
-  <rv s="5">
-    <v>en-US</v>
-    <v>bokc77</v>
-    <v>268435456</v>
-    <v>268435459</v>
-    <v>1</v>
-    <v>8</v>
-    <v>Goldman:Data-Dvn Wld (ARCX:GDAT)</v>
-    <v>2</v>
-    <v>9</v>
-    <v>Finance</v>
-    <v>5</v>
-    <v>67.260000000000005</v>
-    <v>41.99</v>
-    <v>1.3131999999999999</v>
-    <v>2.0038E-2</v>
-    <v>USD</v>
-    <v>NYSE Arca</v>
-    <v>ARCX</v>
-    <v>5.0000000000000001E-3</v>
-    <v>66.849999999999994</v>
-    <v>ETF</v>
-    <v>44032.798022499999</v>
-    <v>40</v>
-    <v>65.599999999999994</v>
-    <v>32948625.699999999</v>
-    <v>Goldman:Data-Dvn Wld</v>
-    <v>65.599999999999994</v>
-    <v>65.536799999999999</v>
-    <v>66.849999999999994</v>
-    <v>GDAT</v>
-    <v>Goldman:Data-Dvn Wld (ARCX:GDAT)</v>
-    <v>10485</v>
-    <v>3229</v>
-  </rv>
-  <rv s="2">
-    <v>41</v>
+    <v>47</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1nq6h&amp;q=ARCX%3aARKK&amp;form=skydnc</v>
@@ -2333,72 +2489,247 @@
     <v>84.544399999999996</v>
     <v>33</v>
     <v>1.4609000000000001</v>
-    <v>3.54</v>
-    <v>4.3882000000000004E-2</v>
+    <v>-0.99790000000000001</v>
+    <v>-1.1875999999999999E-2</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>7.4999999999999997E-3</v>
-    <v>84.245000000000005</v>
+    <v>84.95</v>
     <v>ETF</v>
-    <v>44032.828564814816</v>
-    <v>43</v>
-    <v>81.12</v>
+    <v>44033.715648148151</v>
+    <v>49</v>
+    <v>82.7911</v>
     <v>4805316936.7559996</v>
     <v>ARK Innovation</v>
-    <v>81.23</v>
-    <v>80.67</v>
-    <v>84.21</v>
+    <v>84.93</v>
+    <v>84.03</v>
+    <v>83.0321</v>
     <v>ARKK</v>
     <v>ARK Innovation (ARCX:ARKK)</v>
-    <v>1668210</v>
-    <v>1722663</v>
+    <v>993327</v>
+    <v>1745239</v>
   </rv>
   <rv s="2">
-    <v>44</v>
+    <v>50</v>
   </rv>
   <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=a268hw&amp;q=ARCX%3aXLV&amp;form=skydnc</v>
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a26aur&amp;q=ARCX%3aXSD&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
   <rv s="1">
     <v>en-US</v>
-    <v>a268hw</v>
+    <v>a26aur</v>
     <v>268435456</v>
     <v>268435459</v>
     <v>1</v>
     <v>0</v>
-    <v>Sel Sector:H Care SPDR (ARCX:XLV)</v>
+    <v>SPDR S&amp;P Semiconductor (ARCX:XSD)</v>
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>106.25</v>
-    <v>73.540000000000006</v>
-    <v>0.96830000000000005</v>
-    <v>0.185</v>
-    <v>1.7469999999999999E-3</v>
+    <v>121.32</v>
+    <v>68.948099999999997</v>
+    <v>1.2555000000000001</v>
+    <v>-1.3324</v>
+    <v>-1.0995E-2</v>
+    <v>USD</v>
+    <v>NYSE Arca</v>
+    <v>ARCX</v>
+    <v>3.4999999999999996E-3</v>
+    <v>122.40989999999999</v>
+    <v>ETF</v>
+    <v>44033.711527777778</v>
+    <v>52</v>
+    <v>119.75</v>
+    <v>498411802.41000003</v>
+    <v>SPDR S&amp;P Semiconductor</v>
+    <v>122.15</v>
+    <v>121.18</v>
+    <v>119.8476</v>
+    <v>XSD</v>
+    <v>SPDR S&amp;P Semiconductor (ARCX:XSD)</v>
+    <v>18083</v>
+    <v>51942</v>
+  </rv>
+  <rv s="2">
+    <v>53</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a267zr&amp;q=ARCX%3aXLK&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>en-US</v>
+    <v>a267zr</v>
+    <v>268435456</v>
+    <v>268435459</v>
+    <v>1</v>
+    <v>0</v>
+    <v>Sel Sector:Tech SPDR (ARCX:XLK)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>109.82</v>
+    <v>68.099999999999994</v>
+    <v>0.98280000000000001</v>
+    <v>-0.69</v>
+    <v>-6.3E-3</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>1.4000000000000002E-3</v>
-    <v>106.49</v>
+    <v>110.3597</v>
     <v>ETF</v>
-    <v>44032.8291742125</v>
-    <v>46</v>
-    <v>105.53</v>
-    <v>23226194903.959999</v>
-    <v>Sel Sector:H Care SPDR</v>
-    <v>106.2</v>
-    <v>105.89</v>
-    <v>106.075</v>
-    <v>XLV</v>
-    <v>Sel Sector:H Care SPDR (ARCX:XLV)</v>
-    <v>5663064</v>
-    <v>9935188</v>
+    <v>44033.714988425927</v>
+    <v>55</v>
+    <v>108.55</v>
+    <v>31691450861.5</v>
+    <v>Sel Sector:Tech SPDR</v>
+    <v>110.29</v>
+    <v>109.52</v>
+    <v>108.83</v>
+    <v>XLK</v>
+    <v>Sel Sector:Tech SPDR (ARCX:XLK)</v>
+    <v>4754491</v>
+    <v>10549406</v>
   </rv>
   <rv s="2">
-    <v>47</v>
+    <v>56</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a25bf2&amp;q=ARCX%3aVGT&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>en-US</v>
+    <v>a25bf2</v>
+    <v>268435456</v>
+    <v>268435459</v>
+    <v>1</v>
+    <v>0</v>
+    <v>Vanguard InfoTch Idx;ETF (ARCX:VGT)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>293.04000000000002</v>
+    <v>179.45</v>
+    <v>1.0276000000000001</v>
+    <v>-1.81</v>
+    <v>-6.1900000000000002E-3</v>
+    <v>USD</v>
+    <v>NYSE Arca</v>
+    <v>ARCX</v>
+    <v>1E-3</v>
+    <v>294.94</v>
+    <v>ETF</v>
+    <v>44033.715868055559</v>
+    <v>58</v>
+    <v>289.87</v>
+    <v>32755672567</v>
+    <v>Vanguard InfoTch Idx;ETF</v>
+    <v>294.77</v>
+    <v>292.42</v>
+    <v>290.61</v>
+    <v>VGT</v>
+    <v>Vanguard InfoTch Idx;ETF (ARCX:VGT)</v>
+    <v>433463</v>
+    <v>761385</v>
+  </rv>
+  <rv s="2">
+    <v>59</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1tf77&amp;q=ARCX%3aFTEC&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>en-US</v>
+    <v>a1tf77</v>
+    <v>268435456</v>
+    <v>268435459</v>
+    <v>1</v>
+    <v>0</v>
+    <v>Fidelity MSCI Info Tech (ARCX:FTEC)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>86.58</v>
+    <v>53</v>
+    <v>1.0267999999999999</v>
+    <v>-0.5</v>
+    <v>-5.7869999999999996E-3</v>
+    <v>USD</v>
+    <v>NYSE Arca</v>
+    <v>ARCX</v>
+    <v>8.0000000000000004E-4</v>
+    <v>87.1</v>
+    <v>ETF</v>
+    <v>44033.713750000003</v>
+    <v>61</v>
+    <v>85.65</v>
+    <v>4067341583</v>
+    <v>Fidelity MSCI Info Tech</v>
+    <v>86.9</v>
+    <v>86.4</v>
+    <v>85.9</v>
+    <v>FTEC</v>
+    <v>Fidelity MSCI Info Tech (ARCX:FTEC)</v>
+    <v>226949</v>
+    <v>504663</v>
+  </rv>
+  <rv s="2">
+    <v>62</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1vyf2&amp;q=ARCX%3aIXJ&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="6">
+    <v>en-US</v>
+    <v>a1vyf2</v>
+    <v>268435456</v>
+    <v>268435459</v>
+    <v>1</v>
+    <v>10</v>
+    <v>iShares:Glbl HealthCare (ARCX:IXJ)</v>
+    <v>2</v>
+    <v>11</v>
+    <v>Finance</v>
+    <v>12</v>
+    <v>72.684600000000003</v>
+    <v>51.07</v>
+    <v>0.8831</v>
+    <v>-0.16</v>
+    <v>8.3129999999999999E-4</v>
+    <v>-2.212E-3</v>
+    <v>0.06</v>
+    <v>USD</v>
+    <v>NYSE Arca</v>
+    <v>ARCX</v>
+    <v>4.6999999999999993E-3</v>
+    <v>72.725099999999998</v>
+    <v>ETF</v>
+    <v>44033.84027780078</v>
+    <v>64</v>
+    <v>72.11</v>
+    <v>2170947957.6599998</v>
+    <v>iShares:Glbl HealthCare</v>
+    <v>72.64</v>
+    <v>72.34</v>
+    <v>72.180000000000007</v>
+    <v>72.239999999999995</v>
+    <v>IXJ</v>
+    <v>iShares:Glbl HealthCare (ARCX:IXJ)</v>
+    <v>95736</v>
+    <v>99452</v>
+  </rv>
+  <rv s="2">
+    <v>65</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a235f2&amp;q=XNAS%3aSMH&amp;form=skydnc</v>
@@ -2419,29 +2750,29 @@
     <v>164.0539</v>
     <v>96</v>
     <v>1.1604000000000001</v>
-    <v>3.61</v>
-    <v>2.2532999999999997E-2</v>
+    <v>-0.38</v>
+    <v>-2.3250000000000002E-3</v>
     <v>USD</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>3.4999999999999996E-3</v>
-    <v>163.84</v>
+    <v>165.13</v>
     <v>ETF</v>
-    <v>44032.828951805466</v>
-    <v>49</v>
-    <v>159.32</v>
+    <v>44033.715624999997</v>
+    <v>67</v>
+    <v>162.38999999999999</v>
     <v>2175612032.5799999</v>
     <v>VnEck Vctrs:Semicnd ETF</v>
-    <v>160.44999999999999</v>
-    <v>160.21</v>
-    <v>163.82</v>
+    <v>164.99</v>
+    <v>163.41</v>
+    <v>163.03</v>
     <v>SMH</v>
     <v>VnEck Vctrs:Semicnd ETF (XNAS:SMH)</v>
-    <v>2130273</v>
-    <v>3564172</v>
+    <v>1630227</v>
+    <v>3466047</v>
   </rv>
   <rv s="2">
-    <v>50</v>
+    <v>68</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=bqf977&amp;q=ARCX%3aIHAK&amp;form=skydnc</v>
@@ -2453,36 +2784,336 @@
     <v>268435456</v>
     <v>268435459</v>
     <v>1</v>
-    <v>6</v>
+    <v>5</v>
     <v>iShares:Cybersec &amp; Tech (ARCX:IHAK)</v>
     <v>2</v>
+    <v>6</v>
+    <v>Finance</v>
     <v>7</v>
-    <v>Finance</v>
-    <v>5</v>
     <v>33.1601</v>
     <v>20.36</v>
-    <v>1.0034000000000001</v>
-    <v>3.1248999999999999E-2</v>
+    <v>-0.19500000000000001</v>
+    <v>-5.8809999999999999E-3</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
-    <v>33.119999999999997</v>
+    <v>33.33</v>
     <v>ETF</v>
-    <v>44032.819030960156</v>
-    <v>52</v>
-    <v>32.119999999999997</v>
+    <v>44033.704844524997</v>
+    <v>70</v>
+    <v>32.958300000000001</v>
     <v>73096955</v>
     <v>iShares:Cybersec &amp; Tech</v>
-    <v>32.119999999999997</v>
-    <v>32.11</v>
-    <v>33.113399999999999</v>
+    <v>33.299999999999997</v>
+    <v>33.159999999999997</v>
+    <v>32.965000000000003</v>
     <v>IHAK</v>
     <v>iShares:Cybersec &amp; Tech (ARCX:IHAK)</v>
-    <v>78817</v>
-    <v>57903</v>
+    <v>35659</v>
+    <v>59665</v>
   </rv>
   <rv s="2">
-    <v>53</v>
+    <v>71</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=bokc77&amp;q=ARCX%3aGDAT&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="5">
+    <v>en-US</v>
+    <v>bokc77</v>
+    <v>268435456</v>
+    <v>268435459</v>
+    <v>1</v>
+    <v>8</v>
+    <v>Goldman:Data-Dvn Wld (ARCX:GDAT)</v>
+    <v>2</v>
+    <v>9</v>
+    <v>Finance</v>
+    <v>7</v>
+    <v>67.260000000000005</v>
+    <v>41.99</v>
+    <v>-0.28820000000000001</v>
+    <v>-4.2920000000000007E-3</v>
+    <v>USD</v>
+    <v>NYSE Arca</v>
+    <v>ARCX</v>
+    <v>5.0000000000000001E-3</v>
+    <v>67.62</v>
+    <v>ETF</v>
+    <v>44033.701885358591</v>
+    <v>73</v>
+    <v>66.760000000000005</v>
+    <v>32948625.699999999</v>
+    <v>Goldman:Data-Dvn Wld</v>
+    <v>67.62</v>
+    <v>67.153199999999998</v>
+    <v>66.864999999999995</v>
+    <v>GDAT</v>
+    <v>Goldman:Data-Dvn Wld (ARCX:GDAT)</v>
+    <v>2542</v>
+    <v>3584</v>
+  </rv>
+  <rv s="2">
+    <v>74</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1nq9c&amp;q=BATS%3aARKQ&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>en-US</v>
+    <v>a1nq9c</v>
+    <v>268435456</v>
+    <v>268435459</v>
+    <v>1</v>
+    <v>0</v>
+    <v>ARK Autonomous Tch &amp; Rob (BATS:ARKQ)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>54.16</v>
+    <v>26.19</v>
+    <v>1.1907000000000001</v>
+    <v>-0.19</v>
+    <v>-3.5110000000000002E-3</v>
+    <v>USD</v>
+    <v>CBOE BZX Exchange</v>
+    <v>BATS</v>
+    <v>7.4999999999999997E-3</v>
+    <v>54.85</v>
+    <v>ETF</v>
+    <v>44033.715208333335</v>
+    <v>76</v>
+    <v>53.797699999999999</v>
+    <v>316721107.10100001</v>
+    <v>ARK Autonomous Tch &amp; Rob</v>
+    <v>54.575000000000003</v>
+    <v>54.11</v>
+    <v>53.92</v>
+    <v>ARKQ</v>
+    <v>ARK Autonomous Tch &amp; Rob (BATS:ARKQ)</v>
+    <v>129630</v>
+    <v>185811</v>
+  </rv>
+  <rv s="2">
+    <v>77</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1rqkr&amp;q=BATS%3aEFG&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>en-US</v>
+    <v>a1rqkr</v>
+    <v>268435456</v>
+    <v>268435459</v>
+    <v>1</v>
+    <v>0</v>
+    <v>iShares:MSCI EAFE Gro (BATS:EFG)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>88.66</v>
+    <v>60.13</v>
+    <v>0.87560000000000004</v>
+    <v>0.74</v>
+    <v>8.4460000000000004E-3</v>
+    <v>USD</v>
+    <v>CBOE BZX Exchange</v>
+    <v>BATS</v>
+    <v>4.0000000000000001E-3</v>
+    <v>88.489900000000006</v>
+    <v>ETF</v>
+    <v>44033.777638888889</v>
+    <v>79</v>
+    <v>88.02</v>
+    <v>7355815737.4799995</v>
+    <v>iShares:MSCI EAFE Gro</v>
+    <v>88.15</v>
+    <v>87.62</v>
+    <v>88.36</v>
+    <v>EFG</v>
+    <v>iShares:MSCI EAFE Gro (BATS:EFG)</v>
+    <v>373781</v>
+    <v>400638</v>
+  </rv>
+  <rv s="2">
+    <v>80</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1sv3m&amp;q=ARCX%3aFHLC&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>en-US</v>
+    <v>a1sv3m</v>
+    <v>268435456</v>
+    <v>268435459</v>
+    <v>1</v>
+    <v>0</v>
+    <v>Fidelity MSCI Hlth Care (ARCX:FHLC)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>53.09</v>
+    <v>35.74</v>
+    <v>1.0129999999999999</v>
+    <v>0.11</v>
+    <v>2.0830000000000002E-3</v>
+    <v>USD</v>
+    <v>NYSE Arca</v>
+    <v>ARCX</v>
+    <v>8.0000000000000004E-4</v>
+    <v>53.126300000000001</v>
+    <v>ETF</v>
+    <v>44033.716157407405</v>
+    <v>82</v>
+    <v>52.75</v>
+    <v>1914528525</v>
+    <v>Fidelity MSCI Hlth Care</v>
+    <v>52.98</v>
+    <v>52.82</v>
+    <v>52.93</v>
+    <v>FHLC</v>
+    <v>Fidelity MSCI Hlth Care (ARCX:FHLC)</v>
+    <v>85872</v>
+    <v>175207</v>
+  </rv>
+  <rv s="2">
+    <v>83</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a25bqh&amp;q=ARCX%3aVHT&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>en-US</v>
+    <v>a25bqh</v>
+    <v>268435456</v>
+    <v>268435459</v>
+    <v>1</v>
+    <v>0</v>
+    <v>Vanguard Hlth Cr Idx;ETF (ARCX:VHT)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>205.61</v>
+    <v>138.11000000000001</v>
+    <v>1.0150999999999999</v>
+    <v>0.36</v>
+    <v>1.7589999999999999E-3</v>
+    <v>USD</v>
+    <v>NYSE Arca</v>
+    <v>ARCX</v>
+    <v>1E-3</v>
+    <v>205.71</v>
+    <v>ETF</v>
+    <v>44033.714895833335</v>
+    <v>85</v>
+    <v>204.29</v>
+    <v>10910012449</v>
+    <v>Vanguard Hlth Cr Idx;ETF</v>
+    <v>204.99</v>
+    <v>204.66</v>
+    <v>205.02</v>
+    <v>VHT</v>
+    <v>Vanguard Hlth Cr Idx;ETF (ARCX:VHT)</v>
+    <v>258046</v>
+    <v>246886</v>
+  </rv>
+  <rv s="2">
+    <v>86</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1ueyc&amp;q=ARCX%3aHACK&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>en-US</v>
+    <v>a1ueyc</v>
+    <v>268435456</v>
+    <v>268435459</v>
+    <v>1</v>
+    <v>0</v>
+    <v>ETFMG Prime Cybr Sec ETF (ARCX:HACK)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>47.41</v>
+    <v>29.02</v>
+    <v>0.872</v>
+    <v>0</v>
+    <v>0</v>
+    <v>USD</v>
+    <v>NYSE Arca</v>
+    <v>ARCX</v>
+    <v>7.1999999999999998E-3</v>
+    <v>47.71</v>
+    <v>ETF</v>
+    <v>44033.714368969529</v>
+    <v>88</v>
+    <v>47.130299999999998</v>
+    <v>1412750896.53</v>
+    <v>ETFMG Prime Cybr Sec ETF</v>
+    <v>47.69</v>
+    <v>47.32</v>
+    <v>47.32</v>
+    <v>HACK</v>
+    <v>ETFMG Prime Cybr Sec ETF (ARCX:HACK)</v>
+    <v>154062</v>
+    <v>184369</v>
+  </rv>
+  <rv s="2">
+    <v>89</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a268hw&amp;q=ARCX%3aXLV&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>en-US</v>
+    <v>a268hw</v>
+    <v>268435456</v>
+    <v>268435459</v>
+    <v>1</v>
+    <v>0</v>
+    <v>Sel Sector:H Care SPDR (ARCX:XLV)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>106.49</v>
+    <v>73.540000000000006</v>
+    <v>0.96830000000000005</v>
+    <v>0.44</v>
+    <v>4.156E-3</v>
+    <v>USD</v>
+    <v>NYSE Arca</v>
+    <v>ARCX</v>
+    <v>1.4000000000000002E-3</v>
+    <v>106.63</v>
+    <v>ETF</v>
+    <v>44033.715555555558</v>
+    <v>91</v>
+    <v>105.89</v>
+    <v>23226194903.959999</v>
+    <v>Sel Sector:H Care SPDR</v>
+    <v>106.18</v>
+    <v>105.87</v>
+    <v>106.31</v>
+    <v>XLV</v>
+    <v>Sel Sector:H Care SPDR (ARCX:XLV)</v>
+    <v>3456633</v>
+    <v>9430354</v>
+  </rv>
+  <rv s="2">
+    <v>92</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1vf8m&amp;q=ARCX%3aIHI&amp;form=skydnc</v>
@@ -2500,333 +3131,32 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>287.45999999999998</v>
+    <v>288.64</v>
     <v>183.25</v>
     <v>1.0038</v>
-    <v>1.24</v>
-    <v>4.3350000000000003E-3</v>
+    <v>1.7173</v>
+    <v>5.9870000000000001E-3</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>4.3E-3</v>
-    <v>288.64</v>
+    <v>289.77499999999998</v>
     <v>ETF</v>
-    <v>44032.829289779685</v>
-    <v>55</v>
-    <v>285.29000000000002</v>
+    <v>44033.715185185189</v>
+    <v>94</v>
+    <v>288</v>
     <v>6604812034.3599997</v>
     <v>iShares:US Med Dev ETF</v>
-    <v>286.5</v>
-    <v>286.06</v>
-    <v>287.3</v>
+    <v>288.64999999999998</v>
+    <v>286.83</v>
+    <v>288.54730000000001</v>
     <v>IHI</v>
     <v>iShares:US Med Dev ETF (ARCX:IHI)</v>
-    <v>149387</v>
-    <v>277430</v>
+    <v>82624</v>
+    <v>274816</v>
   </rv>
   <rv s="2">
-    <v>56</v>
-  </rv>
-  <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=a25bqh&amp;q=ARCX%3aVHT&amp;form=skydnc</v>
-    <v>Learn more on Bing</v>
-  </rv>
-  <rv s="1">
-    <v>en-US</v>
-    <v>a25bqh</v>
-    <v>268435456</v>
-    <v>268435459</v>
-    <v>1</v>
-    <v>0</v>
-    <v>Vanguard Hlth Cr Idx;ETF (ARCX:VHT)</v>
-    <v>2</v>
-    <v>3</v>
-    <v>Finance</v>
-    <v>4</v>
-    <v>204.95</v>
-    <v>138.11000000000001</v>
-    <v>1.0150999999999999</v>
-    <v>0.53</v>
-    <v>2.5940000000000004E-3</v>
-    <v>USD</v>
-    <v>NYSE Arca</v>
-    <v>ARCX</v>
-    <v>1E-3</v>
-    <v>205.58779999999999</v>
-    <v>ETF</v>
-    <v>44032.828645833331</v>
-    <v>58</v>
-    <v>203.72</v>
-    <v>10910012449</v>
-    <v>Vanguard Hlth Cr Idx;ETF</v>
-    <v>205</v>
-    <v>204.32</v>
-    <v>204.85</v>
-    <v>VHT</v>
-    <v>Vanguard Hlth Cr Idx;ETF (ARCX:VHT)</v>
-    <v>154880</v>
-    <v>252163</v>
-  </rv>
-  <rv s="2">
-    <v>59</v>
-  </rv>
-  <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=a1sv3m&amp;q=ARCX%3aFHLC&amp;form=skydnc</v>
-    <v>Learn more on Bing</v>
-  </rv>
-  <rv s="1">
-    <v>en-US</v>
-    <v>a1sv3m</v>
-    <v>268435456</v>
-    <v>268435459</v>
-    <v>1</v>
-    <v>0</v>
-    <v>Fidelity MSCI Hlth Care (ARCX:FHLC)</v>
-    <v>2</v>
-    <v>3</v>
-    <v>Finance</v>
-    <v>4</v>
-    <v>52.918999999999997</v>
-    <v>35.74</v>
-    <v>1.0129999999999999</v>
-    <v>0.14499999999999999</v>
-    <v>2.748E-3</v>
-    <v>USD</v>
-    <v>NYSE Arca</v>
-    <v>ARCX</v>
-    <v>8.0000000000000004E-4</v>
-    <v>53.09</v>
-    <v>ETF</v>
-    <v>44032.828388633592</v>
-    <v>61</v>
-    <v>52.6</v>
-    <v>1914528525</v>
-    <v>Fidelity MSCI Hlth Care</v>
-    <v>53</v>
-    <v>52.77</v>
-    <v>52.914999999999999</v>
-    <v>FHLC</v>
-    <v>Fidelity MSCI Hlth Care (ARCX:FHLC)</v>
-    <v>155062</v>
-    <v>176367</v>
-  </rv>
-  <rv s="2">
-    <v>62</v>
-  </rv>
-  <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=a1nq3m&amp;q=BATS%3aARKG&amp;form=skydnc</v>
-    <v>Learn more on Bing</v>
-  </rv>
-  <rv s="1">
-    <v>en-US</v>
-    <v>a1nq3m</v>
-    <v>268435456</v>
-    <v>268435459</v>
-    <v>1</v>
-    <v>0</v>
-    <v>ARK Genomic Revolution (BATS:ARKG)</v>
-    <v>2</v>
-    <v>3</v>
-    <v>Finance</v>
-    <v>4</v>
-    <v>58.64</v>
-    <v>24</v>
-    <v>1.5559000000000001</v>
-    <v>1.52</v>
-    <v>2.6610999999999999E-2</v>
-    <v>USD</v>
-    <v>CBOE BZX Exchange</v>
-    <v>BATS</v>
-    <v>7.4999999999999997E-3</v>
-    <v>58.74</v>
-    <v>ETF</v>
-    <v>44032.829270833332</v>
-    <v>64</v>
-    <v>57.481200000000001</v>
-    <v>1323941282.4159999</v>
-    <v>ARK Genomic Revolution</v>
-    <v>57.68</v>
-    <v>57.12</v>
-    <v>58.64</v>
-    <v>ARKG</v>
-    <v>ARK Genomic Revolution (BATS:ARKG)</v>
-    <v>877643</v>
-    <v>759783</v>
-  </rv>
-  <rv s="2">
-    <v>65</v>
-  </rv>
-  <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=a26aur&amp;q=ARCX%3aXSD&amp;form=skydnc</v>
-    <v>Learn more on Bing</v>
-  </rv>
-  <rv s="1">
-    <v>en-US</v>
-    <v>a26aur</v>
-    <v>268435456</v>
-    <v>268435459</v>
-    <v>1</v>
-    <v>0</v>
-    <v>SPDR S&amp;P Semiconductor (ARCX:XSD)</v>
-    <v>2</v>
-    <v>3</v>
-    <v>Finance</v>
-    <v>4</v>
-    <v>121.2308</v>
-    <v>68.948099999999997</v>
-    <v>1.2555000000000001</v>
-    <v>2.7307999999999999</v>
-    <v>2.3045E-2</v>
-    <v>USD</v>
-    <v>NYSE Arca</v>
-    <v>ARCX</v>
-    <v>3.4999999999999996E-3</v>
-    <v>121.2308</v>
-    <v>ETF</v>
-    <v>44032.828645833331</v>
-    <v>67</v>
-    <v>118.43</v>
-    <v>498411802.41000003</v>
-    <v>SPDR S&amp;P Semiconductor</v>
-    <v>118.68</v>
-    <v>118.5</v>
-    <v>121.2308</v>
-    <v>XSD</v>
-    <v>SPDR S&amp;P Semiconductor (ARCX:XSD)</v>
-    <v>71898</v>
-    <v>50963</v>
-  </rv>
-  <rv s="2">
-    <v>68</v>
-  </rv>
-  <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=a25bf2&amp;q=ARCX%3aVGT&amp;form=skydnc</v>
-    <v>Learn more on Bing</v>
-  </rv>
-  <rv s="1">
-    <v>en-US</v>
-    <v>a25bf2</v>
-    <v>268435456</v>
-    <v>268435459</v>
-    <v>1</v>
-    <v>0</v>
-    <v>Vanguard InfoTch Idx;ETF (ARCX:VGT)</v>
-    <v>2</v>
-    <v>3</v>
-    <v>Finance</v>
-    <v>5</v>
-    <v>292.63499999999999</v>
-    <v>179.45</v>
-    <v>1.0276000000000001</v>
-    <v>7.7750000000000004</v>
-    <v>2.7293999999999999E-2</v>
-    <v>USD</v>
-    <v>NYSE Arca</v>
-    <v>ARCX</v>
-    <v>1E-3</v>
-    <v>292.72500000000002</v>
-    <v>ETF</v>
-    <v>44032.819392024998</v>
-    <v>70</v>
-    <v>284.37</v>
-    <v>32755672567</v>
-    <v>Vanguard InfoTch Idx;ETF</v>
-    <v>285.64999999999998</v>
-    <v>284.86</v>
-    <v>292.63499999999999</v>
-    <v>VGT</v>
-    <v>Vanguard InfoTch Idx;ETF (ARCX:VGT)</v>
-    <v>556258</v>
-    <v>779734</v>
-  </rv>
-  <rv s="2">
-    <v>71</v>
-  </rv>
-  <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=a267zr&amp;q=ARCX%3aXLK&amp;form=skydnc</v>
-    <v>Learn more on Bing</v>
-  </rv>
-  <rv s="1">
-    <v>en-US</v>
-    <v>a267zr</v>
-    <v>268435456</v>
-    <v>268435459</v>
-    <v>1</v>
-    <v>0</v>
-    <v>Sel Sector:Tech SPDR (ARCX:XLK)</v>
-    <v>2</v>
-    <v>3</v>
-    <v>Finance</v>
-    <v>4</v>
-    <v>109.76</v>
-    <v>68.099999999999994</v>
-    <v>0.98280000000000001</v>
-    <v>2.94</v>
-    <v>2.7522999999999999E-2</v>
-    <v>USD</v>
-    <v>NYSE Arca</v>
-    <v>ARCX</v>
-    <v>1.4000000000000002E-3</v>
-    <v>109.82</v>
-    <v>ETF</v>
-    <v>44032.827746700779</v>
-    <v>73</v>
-    <v>106.54</v>
-    <v>31691450861.5</v>
-    <v>Sel Sector:Tech SPDR</v>
-    <v>107.14</v>
-    <v>106.82</v>
-    <v>109.76</v>
-    <v>XLK</v>
-    <v>Sel Sector:Tech SPDR (ARCX:XLK)</v>
-    <v>7157898</v>
-    <v>11074778</v>
-  </rv>
-  <rv s="2">
-    <v>74</v>
-  </rv>
-  <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=a1tf77&amp;q=ARCX%3aFTEC&amp;form=skydnc</v>
-    <v>Learn more on Bing</v>
-  </rv>
-  <rv s="1">
-    <v>en-US</v>
-    <v>a1tf77</v>
-    <v>268435456</v>
-    <v>268435459</v>
-    <v>1</v>
-    <v>0</v>
-    <v>Fidelity MSCI Info Tech (ARCX:FTEC)</v>
-    <v>2</v>
-    <v>3</v>
-    <v>Finance</v>
-    <v>4</v>
-    <v>86.5</v>
-    <v>53</v>
-    <v>1.0267999999999999</v>
-    <v>2.33</v>
-    <v>2.7682000000000002E-2</v>
-    <v>USD</v>
-    <v>NYSE Arca</v>
-    <v>ARCX</v>
-    <v>8.0000000000000004E-4</v>
-    <v>86.58</v>
-    <v>ETF</v>
-    <v>44032.828263888892</v>
-    <v>76</v>
-    <v>84.031000000000006</v>
-    <v>4067341583</v>
-    <v>Fidelity MSCI Info Tech</v>
-    <v>84.29</v>
-    <v>84.17</v>
-    <v>86.5</v>
-    <v>FTEC</v>
-    <v>Fidelity MSCI Info Tech (ARCX:FTEC)</v>
-    <v>422600</v>
-    <v>512473</v>
-  </rv>
-  <rv s="2">
-    <v>77</v>
+    <v>95</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a233ur&amp;q=ARCX%3aSLV&amp;form=skydnc</v>
@@ -2844,118 +3174,32 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>18.549299999999999</v>
+    <v>19.6401</v>
     <v>10.86</v>
     <v>1.4753000000000001</v>
-    <v>0.54930000000000001</v>
-    <v>3.0516999999999999E-2</v>
+    <v>1.1001000000000001</v>
+    <v>5.9337000000000001E-2</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>5.0000000000000001E-3</v>
-    <v>18.57</v>
+    <v>19.739999999999998</v>
     <v>ETF</v>
-    <v>44032.82916238359</v>
-    <v>79</v>
-    <v>18.23</v>
+    <v>44033.714998251562</v>
+    <v>97</v>
+    <v>19.420000000000002</v>
     <v>8883456887.2099991</v>
     <v>IShares:Silver Trust</v>
-    <v>18.37</v>
-    <v>18</v>
-    <v>18.549299999999999</v>
+    <v>19.52</v>
+    <v>18.54</v>
+    <v>19.6401</v>
     <v>SLV</v>
     <v>IShares:Silver Trust (ARCX:SLV)</v>
-    <v>39851666</v>
-    <v>28088270</v>
+    <v>46414488</v>
+    <v>28508134</v>
   </rv>
   <rv s="2">
-    <v>80</v>
-  </rv>
-  <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=a1nq9c&amp;q=BATS%3aARKQ&amp;form=skydnc</v>
-    <v>Learn more on Bing</v>
-  </rv>
-  <rv s="1">
-    <v>en-US</v>
-    <v>a1nq9c</v>
-    <v>268435456</v>
-    <v>268435459</v>
-    <v>1</v>
-    <v>0</v>
-    <v>ARK Autonomous Tch &amp; Rob (BATS:ARKQ)</v>
-    <v>2</v>
-    <v>3</v>
-    <v>Finance</v>
-    <v>4</v>
-    <v>54.094200000000001</v>
-    <v>26.19</v>
-    <v>1.1907000000000001</v>
-    <v>1.8142</v>
-    <v>3.4702000000000004E-2</v>
-    <v>USD</v>
-    <v>CBOE BZX Exchange</v>
-    <v>BATS</v>
-    <v>7.4999999999999997E-3</v>
-    <v>54.16</v>
-    <v>ETF</v>
-    <v>44032.829640937503</v>
-    <v>82</v>
-    <v>52.350099999999998</v>
-    <v>316721107.10100001</v>
-    <v>ARK Autonomous Tch &amp; Rob</v>
-    <v>52.56</v>
-    <v>52.28</v>
-    <v>54.094200000000001</v>
-    <v>ARKQ</v>
-    <v>ARK Autonomous Tch &amp; Rob (BATS:ARKQ)</v>
-    <v>255317</v>
-    <v>181640</v>
-  </rv>
-  <rv s="2">
-    <v>83</v>
-  </rv>
-  <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=a1ueyc&amp;q=ARCX%3aHACK&amp;form=skydnc</v>
-    <v>Learn more on Bing</v>
-  </rv>
-  <rv s="1">
-    <v>en-US</v>
-    <v>a1ueyc</v>
-    <v>268435456</v>
-    <v>268435459</v>
-    <v>1</v>
-    <v>0</v>
-    <v>ETFMG Prime Cybr Sec ETF (ARCX:HACK)</v>
-    <v>2</v>
-    <v>3</v>
-    <v>Finance</v>
-    <v>4</v>
-    <v>47.370100000000001</v>
-    <v>29.02</v>
-    <v>0.872</v>
-    <v>1.4400999999999999</v>
-    <v>3.1354E-2</v>
-    <v>USD</v>
-    <v>NYSE Arca</v>
-    <v>ARCX</v>
-    <v>7.1999999999999998E-3</v>
-    <v>47.4</v>
-    <v>ETF</v>
-    <v>44032.829117349218</v>
-    <v>85</v>
-    <v>45.96</v>
-    <v>1412750896.53</v>
-    <v>ETFMG Prime Cybr Sec ETF</v>
-    <v>46.1</v>
-    <v>45.93</v>
-    <v>47.370100000000001</v>
-    <v>HACK</v>
-    <v>ETFMG Prime Cybr Sec ETF (ARCX:HACK)</v>
-    <v>201452</v>
-    <v>180188</v>
-  </rv>
-  <rv s="2">
-    <v>86</v>
+    <v>98</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=b1o8hw&amp;q=ARCX%3aGLDM&amp;form=skydnc</v>
@@ -2973,74 +3217,31 @@
     <v>9</v>
     <v>Finance</v>
     <v>4</v>
-    <v>18.125</v>
+    <v>18.36</v>
     <v>14.01</v>
-    <v>0.08</v>
-    <v>4.4330000000000003E-3</v>
+    <v>0.23499999999999999</v>
+    <v>1.2966E-2</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>1.8E-3</v>
-    <v>18.14</v>
+    <v>18.36</v>
     <v>ETF</v>
-    <v>44032.829416342189</v>
-    <v>88</v>
-    <v>18.061699999999998</v>
+    <v>44033.714909432812</v>
+    <v>100</v>
+    <v>18.275200000000002</v>
     <v>2521087257.0999999</v>
     <v>SPDR Gold MiniShares Tr</v>
-    <v>18.100000000000001</v>
-    <v>18.045000000000002</v>
+    <v>18.29</v>
     <v>18.125</v>
+    <v>18.36</v>
     <v>GLDM</v>
     <v>SPDR Gold MiniShares Tr (ARCX:GLDM)</v>
-    <v>1619661</v>
-    <v>1959514</v>
+    <v>3905146</v>
+    <v>1953731</v>
   </rv>
   <rv s="2">
-    <v>89</v>
-  </rv>
-  <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=a1smu2&amp;q=ARCX%3aFBT&amp;form=skydnc</v>
-    <v>Learn more on Bing</v>
-  </rv>
-  <rv s="1">
-    <v>en-US</v>
-    <v>a1smu2</v>
-    <v>268435456</v>
-    <v>268435459</v>
-    <v>1</v>
-    <v>0</v>
-    <v>Frst Tr:NYSEArcaBiotech (ARCX:FBT)</v>
-    <v>2</v>
-    <v>3</v>
-    <v>Finance</v>
-    <v>4</v>
-    <v>180.19</v>
-    <v>108.08</v>
-    <v>1.3794999999999999</v>
-    <v>3.09</v>
-    <v>1.7447999999999998E-2</v>
-    <v>USD</v>
-    <v>NYSE Arca</v>
-    <v>ARCX</v>
-    <v>5.6999999999999993E-3</v>
-    <v>180.637</v>
-    <v>ETF</v>
-    <v>44032.828379629631</v>
-    <v>91</v>
-    <v>177.97380000000001</v>
-    <v>2154897908.5560002</v>
-    <v>Frst Tr:NYSEArcaBiotech</v>
-    <v>178.75</v>
-    <v>177.1</v>
-    <v>180.19</v>
-    <v>FBT</v>
-    <v>Frst Tr:NYSEArcaBiotech (ARCX:FBT)</v>
-    <v>46635</v>
-    <v>73494</v>
-  </rv>
-  <rv s="2">
-    <v>92</v>
+    <v>101</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a239nm&amp;q=XNAS%3aSNSR&amp;form=skydnc</v>
@@ -3058,32 +3259,75 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>25.839300000000001</v>
+    <v>25.95</v>
     <v>14.809699999999999</v>
     <v>1.1566000000000001</v>
-    <v>0.14929999999999999</v>
-    <v>5.8120000000000003E-3</v>
+    <v>0.17</v>
+    <v>6.594E-3</v>
     <v>USD</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>6.8999999999999999E-3</v>
+    <v>26.12</v>
+    <v>ETF</v>
+    <v>44033.714306133596</v>
+    <v>103</v>
     <v>25.88</v>
-    <v>ETF</v>
-    <v>44032.828402777777</v>
-    <v>94</v>
-    <v>25.580100000000002</v>
     <v>221536400</v>
     <v>Glbl X Itrnt of Things</v>
-    <v>25.62</v>
-    <v>25.69</v>
-    <v>25.839300000000001</v>
+    <v>26.05</v>
+    <v>25.78</v>
+    <v>25.95</v>
     <v>SNSR</v>
     <v>Glbl X Itrnt of Things (XNAS:SNSR)</v>
-    <v>86230</v>
-    <v>71483</v>
+    <v>25963</v>
+    <v>71137</v>
   </rv>
   <rv s="2">
-    <v>95</v>
+    <v>104</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1w6ww&amp;q=ARCX%3aJKH&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>en-US</v>
+    <v>a1w6ww</v>
+    <v>268435456</v>
+    <v>268435459</v>
+    <v>1</v>
+    <v>0</v>
+    <v>iShares:Mornstr MC-Gro (ARCX:JKH)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>312.17</v>
+    <v>183.43979999999999</v>
+    <v>0.98599999999999999</v>
+    <v>0.47</v>
+    <v>1.5079999999999998E-3</v>
+    <v>USD</v>
+    <v>NYSE Arca</v>
+    <v>ARCX</v>
+    <v>3.0000000000000001E-3</v>
+    <v>312.5016</v>
+    <v>ETF</v>
+    <v>44033.775266203702</v>
+    <v>106</v>
+    <v>310.23309999999998</v>
+    <v>806675466.22000003</v>
+    <v>iShares:Mornstr MC-Gro</v>
+    <v>311.8</v>
+    <v>311.7</v>
+    <v>312.17</v>
+    <v>JKH</v>
+    <v>iShares:Mornstr MC-Gro (ARCX:JKH)</v>
+    <v>13860</v>
+    <v>26035</v>
+  </rv>
+  <rv s="2">
+    <v>107</v>
   </rv>
   <rv s="0">
     <v>http://en.wikipedia.org/wiki/Public_domain</v>
@@ -3093,13 +3337,13 @@
     <v>http://en.wikipedia.org/wiki/Lowe's</v>
     <v>Wikipedia</v>
   </rv>
-  <rv s="6">
-    <v>97</v>
-    <v>98</v>
-  </rv>
   <rv s="7">
+    <v>109</v>
+    <v>110</v>
+  </rv>
+  <rv s="8">
     <v>https://www.bing.com/th?id=AMMS_4afbc0a090454dfb219470553edb70e4&amp;qlt=95</v>
-    <v>99</v>
+    <v>111</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=lowe%27s</v>
     <v>Image of LOWE`S COMPANIES, INC.</v>
   </rv>
@@ -3107,23 +3351,23 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1x2ur&amp;q=XNYS%3aLOW&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="8">
+  <rv s="9">
     <v>en-US</v>
     <v>a1x2ur</v>
     <v>268435456</v>
     <v>268435457</v>
     <v>1</v>
-    <v>10</v>
+    <v>13</v>
     <v>LOWE`S COMPANIES, INC. (XNYS:LOW)</v>
-    <v>12</v>
-    <v>13</v>
+    <v>15</v>
+    <v>16</v>
     <v>Finance</v>
-    <v>14</v>
-    <v>144.94</v>
+    <v>17</v>
+    <v>145.26</v>
     <v>60</v>
-    <v>1.4238</v>
-    <v>0.2</v>
-    <v>1.384E-3</v>
+    <v>1.419</v>
+    <v>1.1200000000000001</v>
+    <v>7.77E-3</v>
     <v>USD</v>
     <v>Lowe's Companies, Inc. (Lowe's) is a home improvement company. The Company operates approximately 2,370 home improvement and hardware stores. The Company offers a range of products for maintenance, repair, remodeling and decorating. The Company offers home improvement products in categories, including Lumber and Building Materials; Tools and Hardware; Appliances; Fashion Fixtures; Rough Plumbing and Electrical; Lawn and Garden; Seasonal and Outdoor Living; Paint; Flooring; Millwork, and Kitchens. The Company also supports the communities that focus on K-12 public education and community improvement projects. The Company serves its customers in the United States, Canada and Mexico.</v>
     <v>200000</v>
@@ -3131,41 +3375,41 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1000 Lowes Blvd, MOORESVILLE, NC, 28117-8520 US</v>
-    <v>144.69999999999999</v>
-    <v>100</v>
+    <v>145.91990000000001</v>
+    <v>112</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>44032.829118275004</v>
-    <v>101</v>
-    <v>142.9</v>
+    <v>44033.715618310154</v>
+    <v>113</v>
+    <v>143.51849999999999</v>
     <v>109014900000</v>
     <v>LOWE`S COMPANIES, INC.</v>
     <v>LOWE`S COMPANIES, INC.</v>
-    <v>143.58000000000001</v>
-    <v>24.366599999999998</v>
-    <v>144.49</v>
-    <v>144.69</v>
+    <v>143.96</v>
+    <v>24.224799999999998</v>
+    <v>144.13999999999999</v>
+    <v>145.26</v>
     <v>755002800</v>
     <v>LOW</v>
     <v>LOWE`S COMPANIES, INC. (XNYS:LOW)</v>
-    <v>2323152</v>
-    <v>4216456</v>
+    <v>1238626</v>
+    <v>4148693</v>
     <v>1952</v>
   </rv>
   <rv s="2">
-    <v>102</v>
+    <v>114</v>
   </rv>
   <rv s="0">
     <v>http://en.wikipedia.org/wiki/Costco</v>
     <v>Wikipedia</v>
   </rv>
-  <rv s="6">
-    <v>97</v>
-    <v>104</v>
-  </rv>
   <rv s="7">
+    <v>109</v>
+    <v>116</v>
+  </rv>
+  <rv s="8">
     <v>https://www.bing.com/th?id=AMMS_90a82bf7d9bf620ad2bd5ec79a4882af&amp;qlt=95</v>
-    <v>105</v>
+    <v>117</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=costco</v>
     <v>Image of COSTCO WHOLESALE CORPORATION</v>
   </rv>
@@ -3173,23 +3417,23 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1q6k2&amp;q=XNAS%3aCOST&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="8">
+  <rv s="9">
     <v>en-US</v>
     <v>a1q6k2</v>
     <v>268435456</v>
     <v>268435457</v>
     <v>1</v>
-    <v>10</v>
+    <v>13</v>
     <v>COSTCO WHOLESALE CORPORATION (XNAS:COST)</v>
-    <v>12</v>
-    <v>13</v>
+    <v>15</v>
+    <v>16</v>
     <v>Finance</v>
-    <v>14</v>
-    <v>329.32</v>
+    <v>17</v>
+    <v>330.66</v>
     <v>262.70999999999998</v>
-    <v>0.68510000000000004</v>
-    <v>2.31</v>
-    <v>7.1120000000000003E-3</v>
+    <v>0.68769999999999998</v>
+    <v>4.1500000000000004</v>
+    <v>1.2709999999999999E-2</v>
     <v>USD</v>
     <v>Costco Wholesale Corporation is engaged in the operation of membership warehouses in the United States and Puerto Rico, Canada, the United Kingdom, Mexico, Japan, Australia, Spain, and through its subsidiaries in Taiwan and Korea. As of August 28, 2016, the Company operated 715 warehouses across the world. The Company's average warehouse space is approximately 144,000 square feet. The Company's warehouses on average operate on a seven-day, 70-hour week. The Company offers merchandise in various categories, which include foods (including dry foods, packaged foods and groceries); sundries (including snack foods, candy, alcoholic and nonalcoholic beverages, and cleaning supplies); hardlines (including appliances, electronics, health and beauty aids, hardware, and garden and patio); fresh foods (including meat, produce, deli and bakery); softlines (including apparel and small appliances), and other (including gas stations and pharmacy).</v>
     <v>149000</v>
@@ -3197,41 +3441,41 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>999 Lake Dr, ISSAQUAH, WA, 98027-8990 US</v>
-    <v>327.43290000000002</v>
-    <v>106</v>
+    <v>331.15</v>
+    <v>118</v>
     <v>Diversified Retail</v>
     <v>Stock</v>
-    <v>44032.828020833331</v>
-    <v>107</v>
-    <v>322.66340000000002</v>
+    <v>44033.715150462966</v>
+    <v>119</v>
+    <v>326.5</v>
     <v>143402500000</v>
     <v>COSTCO WHOLESALE CORPORATION</v>
     <v>COSTCO WHOLESALE CORPORATION</v>
-    <v>325</v>
-    <v>38.414000000000001</v>
-    <v>324.79000000000002</v>
-    <v>327.10000000000002</v>
+    <v>327</v>
+    <v>38.617400000000004</v>
+    <v>326.51</v>
+    <v>330.66</v>
     <v>441523700</v>
     <v>COST</v>
     <v>COSTCO WHOLESALE CORPORATION (XNAS:COST)</v>
-    <v>1463486</v>
-    <v>2534864</v>
+    <v>972388</v>
+    <v>2448606</v>
     <v>1987</v>
   </rv>
   <rv s="2">
-    <v>108</v>
+    <v>120</v>
   </rv>
   <rv s="0">
     <v>http://en.wikipedia.org/wiki/Honda</v>
     <v>Wikipedia</v>
   </rv>
-  <rv s="6">
-    <v>97</v>
-    <v>110</v>
-  </rv>
   <rv s="7">
+    <v>109</v>
+    <v>122</v>
+  </rv>
+  <rv s="8">
     <v>https://www.bing.com/th?id=AMMS_65638ce82d623bac8d564989d24bda28&amp;qlt=95</v>
-    <v>111</v>
+    <v>123</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=honda</v>
     <v>Image of HONDA MOTOR CO., LTD.</v>
   </rv>
@@ -3239,23 +3483,23 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1uqyc&amp;q=XNYS%3aHMC&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="8">
+  <rv s="9">
     <v>en-US</v>
     <v>a1uqyc</v>
     <v>268435456</v>
     <v>268435457</v>
     <v>1</v>
-    <v>10</v>
+    <v>13</v>
     <v>HONDA MOTOR CO., LTD. (XNYS:HMC)</v>
-    <v>12</v>
     <v>15</v>
+    <v>18</v>
     <v>Finance</v>
-    <v>14</v>
+    <v>17</v>
     <v>29.44</v>
     <v>19.38</v>
-    <v>0.92720000000000002</v>
-    <v>-1.4999999999999999E-2</v>
-    <v>-5.7180000000000002E-4</v>
+    <v>0.92400000000000004</v>
+    <v>-0.19</v>
+    <v>-7.2459999999999998E-3</v>
     <v>USD</v>
     <v>HONDA MOTOR CO., LTD. is a Japan-based company principally engaged in the motorcycle business, the automobile business, the financial service business and the power product business. The Company operates in four business segments. The Motorcycle segment provides motorcycles, all-terrain vehicles (ATVs), side-by-side vehicles. The Automobile segment provides automobiles and related parts. The Company produces a range of motorcycles, with engine displacement ranging from the 50 cubic centimeters class to the 1,800 cubic centimeters class. Its automobiles use gasoline engines of three, four or six cylinder, diesel engines, gasoline-electric hybrid systems and gasoline-electric plug-in hybrid systems. The Financial Service segment is engaged in the sales financing and leasing. The Power Product segment and Others segment provides power products and related parts.</v>
     <v>218674</v>
@@ -3263,51 +3507,51 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>2-1-1, Minami-Aoyama, MINATO-KU, TOKYO-TO, 107-8556 JP</v>
-    <v>26.25</v>
-    <v>112</v>
+    <v>26.055</v>
+    <v>124</v>
     <v>Automobiles &amp; Auto Parts</v>
     <v>Stock</v>
-    <v>44032.829086851561</v>
-    <v>113</v>
-    <v>26.074999999999999</v>
+    <v>44033.715995370374</v>
+    <v>125</v>
+    <v>25.82</v>
     <v>47557170000</v>
     <v>HONDA MOTOR CO., LTD.</v>
     <v>HONDA MOTOR CO., LTD.</v>
-    <v>26.11</v>
-    <v>10.8908</v>
-    <v>26.234999999999999</v>
+    <v>25.84</v>
+    <v>10.886699999999999</v>
     <v>26.22</v>
+    <v>26.03</v>
     <v>1811428000</v>
     <v>HMC</v>
     <v>HONDA MOTOR CO., LTD. (XNYS:HMC)</v>
-    <v>269868</v>
-    <v>722514</v>
+    <v>612392</v>
+    <v>685213</v>
     <v>1948</v>
   </rv>
   <rv s="2">
-    <v>114</v>
+    <v>126</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1zfsm&amp;q=XNYS%3aPAG&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="9">
+  <rv s="10">
     <v>en-US</v>
     <v>a1zfsm</v>
     <v>268435456</v>
     <v>268435457</v>
     <v>1</v>
-    <v>16</v>
+    <v>19</v>
     <v>PENSKE AUTOMOTIVE GROUP, INC. (XNYS:PAG)</v>
+    <v>20</v>
+    <v>21</v>
+    <v>Finance</v>
     <v>17</v>
-    <v>18</v>
-    <v>Finance</v>
-    <v>14</v>
     <v>53.81</v>
     <v>19.989999999999998</v>
-    <v>1.7097</v>
-    <v>-0.85</v>
-    <v>-1.8466E-2</v>
+    <v>1.7057</v>
+    <v>1.01</v>
+    <v>2.239E-2</v>
     <v>USD</v>
     <v>Penske Automotive Group, Inc. is an international transportation services company. The Company operates automotive and commercial truck dealerships principally in the United States, Canada and Western Europe, and distributes commercial vehicles, diesel engines, gas engines, power systems, and related parts and services principally in Australia and New Zealand. The Company's segments include Retail Automotive, consisting of its retail automotive dealership operations; Retail Commercial Truck, consisting of its retail commercial truck dealership operations in the United States and Canada; Other, consisting of its commercial vehicle and power systems distribution operations and other non-automotive consolidated operations, and Non-Automotive Investments, consisting of its equity method investments in non-automotive operations. The Company holds interests in Penske Truck Leasing Co., L.P. (PTL), a provider of transportation services and supply chain management.</v>
     <v>27000</v>
@@ -3315,50 +3559,50 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>2555 S Telegraph Rd, BLOOMFIELD HILLS, MI, 48302-0912 US</v>
-    <v>46.01</v>
+    <v>46.24</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>44032.829131944447</v>
-    <v>116</v>
-    <v>44.76</v>
+    <v>44033.714593622659</v>
+    <v>128</v>
+    <v>45.23</v>
     <v>3702820000</v>
     <v>PENSKE AUTOMOTIVE GROUP, INC.</v>
     <v>PENSKE AUTOMOTIVE GROUP, INC.</v>
-    <v>45.97</v>
-    <v>8.7134999999999998</v>
-    <v>46.03</v>
-    <v>45.18</v>
+    <v>45.81</v>
+    <v>8.5393000000000008</v>
+    <v>45.11</v>
+    <v>46.12</v>
     <v>80461100</v>
     <v>PAG</v>
     <v>PENSKE AUTOMOTIVE GROUP, INC. (XNYS:PAG)</v>
-    <v>220550</v>
-    <v>428595</v>
+    <v>112118</v>
+    <v>422966</v>
     <v>1990</v>
   </rv>
   <rv s="2">
-    <v>117</v>
+    <v>129</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1r4dm&amp;q=XNYS%3aDKS&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="9">
+  <rv s="10">
     <v>en-US</v>
     <v>a1r4dm</v>
     <v>268435456</v>
     <v>268435457</v>
     <v>1</v>
-    <v>16</v>
+    <v>19</v>
     <v>DICK'S SPORTING GOODS, INC. (XNYS:DKS)</v>
+    <v>20</v>
+    <v>21</v>
+    <v>Finance</v>
     <v>17</v>
-    <v>18</v>
-    <v>Finance</v>
-    <v>14</v>
     <v>49.8</v>
     <v>13.46</v>
-    <v>1.5999000000000001</v>
-    <v>-0.39</v>
-    <v>-9.5079999999999991E-3</v>
+    <v>1.5858000000000001</v>
+    <v>2.4300000000000002</v>
+    <v>5.9881999999999998E-2</v>
     <v>USD</v>
     <v>Dick's Sporting Goods, Inc. is an omni-channel sporting goods retailer offering an assortment of sports equipment, apparel, footwear and accessories in its specialty retail stores primarily in the eastern United States. The Company also owns and operates Golf Galaxy, Field &amp; Stream and other specialty concept stores, and Dick's Team Sports HQ, an all-in-one youth sports digital platform offering free league management services, mobile applications for scheduling, communications and live scorekeeping, custom uniforms and FanWear and access to donations and sponsorships. The Company offers its products through a content-rich e-commerce platform that is integrated with its store network and provides customers with the convenience and expertise of a 24-hour storefront. It offers products to its customers through its retail stores and online. The Company offers hardlines, which include items, such as sporting goods equipment, fitness equipment, golf equipment, and hunting and fishing gear.</v>
     <v>15300</v>
@@ -3366,50 +3610,50 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>345 Court St, CORAOPOLIS, PA, 15108-3817 US</v>
-    <v>41.02</v>
+    <v>43.465000000000003</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>44032.829676527341</v>
-    <v>119</v>
-    <v>39.74</v>
+    <v>44033.716061307816</v>
+    <v>131</v>
+    <v>41.85</v>
     <v>3667339000</v>
     <v>DICK'S SPORTING GOODS, INC.</v>
     <v>DICK'S SPORTING GOODS, INC.</v>
-    <v>40.56</v>
-    <v>39.932200000000002</v>
-    <v>41.02</v>
-    <v>40.630000000000003</v>
+    <v>42.134999999999998</v>
+    <v>39.523200000000003</v>
+    <v>40.58</v>
+    <v>43.01</v>
     <v>89447300</v>
     <v>DKS</v>
     <v>DICK'S SPORTING GOODS, INC. (XNYS:DKS)</v>
-    <v>907318</v>
-    <v>2239162</v>
+    <v>2115425</v>
+    <v>2123294</v>
     <v>1996</v>
   </rv>
   <rv s="2">
-    <v>120</v>
+    <v>132</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1u4fr&amp;q=XNYS%3aGPC&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="9">
+  <rv s="10">
     <v>en-US</v>
     <v>a1u4fr</v>
     <v>268435456</v>
     <v>268435457</v>
     <v>1</v>
-    <v>16</v>
+    <v>19</v>
     <v>GENUINE PARTS COMPANY (XNYS:GPC)</v>
+    <v>20</v>
+    <v>21</v>
+    <v>Finance</v>
     <v>17</v>
-    <v>18</v>
-    <v>Finance</v>
-    <v>14</v>
     <v>108.58</v>
     <v>49.680999999999997</v>
-    <v>1.1086</v>
-    <v>-0.67500000000000004</v>
-    <v>-7.6839999999999999E-3</v>
+    <v>1.0992</v>
+    <v>1.6950000000000001</v>
+    <v>1.9474000000000002E-2</v>
     <v>USD</v>
     <v>Genuine Parts Company is a service organization engaged in the distribution of automotive replacement parts, industrial replacement parts, and electrical/electronic materials. The Company's segments include Automotive, Industrial and Other. The automotive segment distributes replacement parts for all makes and models of automobiles, trucks and other vehicles. The industrial segment distributes a range of industrial bearings, mechanical and fluid power transmission equipment, including hydraulic and pneumatic products, material handling components and related parts and supplies.</v>
     <v>55000</v>
@@ -3417,40 +3661,40 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>2999 Wildwood Pkwy, ATLANTA, GA, 30339-8580 US</v>
-    <v>87.58</v>
+    <v>88.93</v>
     <v>Automobiles &amp; Auto Parts</v>
     <v>Stock</v>
-    <v>44032.829583333332</v>
-    <v>122</v>
-    <v>86.13</v>
+    <v>44033.714699074073</v>
+    <v>134</v>
+    <v>87.08</v>
     <v>12674710000</v>
     <v>GENUINE PARTS COMPANY</v>
     <v>GENUINE PARTS COMPANY</v>
-    <v>87.58</v>
-    <v>21.512</v>
-    <v>87.85</v>
-    <v>87.174999999999997</v>
+    <v>87.13</v>
+    <v>21.308700000000002</v>
+    <v>87.04</v>
+    <v>88.734999999999999</v>
     <v>144260300</v>
     <v>GPC</v>
     <v>GENUINE PARTS COMPANY (XNYS:GPC)</v>
-    <v>418319</v>
-    <v>775657</v>
+    <v>165943</v>
+    <v>765834</v>
     <v>1928</v>
   </rv>
   <rv s="2">
-    <v>123</v>
+    <v>135</v>
   </rv>
   <rv s="0">
     <v>http://en.wikipedia.org/wiki/The_Coca-Cola_Company</v>
     <v>Wikipedia</v>
   </rv>
-  <rv s="6">
-    <v>97</v>
-    <v>125</v>
-  </rv>
   <rv s="7">
+    <v>109</v>
+    <v>137</v>
+  </rv>
+  <rv s="8">
     <v>https://www.bing.com/th?id=AMMS_c244bad2af0aa117b9f67bcd11fd44e9&amp;qlt=95</v>
-    <v>126</v>
+    <v>138</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=the+coca-cola+company</v>
     <v>Image of THE COCA-COLA COMPANY</v>
   </rv>
@@ -3458,23 +3702,23 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1wljc&amp;q=XNYS%3aKO&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="8">
+  <rv s="9">
     <v>en-US</v>
     <v>a1wljc</v>
     <v>268435456</v>
     <v>268435457</v>
     <v>1</v>
-    <v>10</v>
+    <v>13</v>
     <v>THE COCA-COLA COMPANY (XNYS:KO)</v>
-    <v>12</v>
-    <v>13</v>
+    <v>15</v>
+    <v>16</v>
     <v>Finance</v>
-    <v>14</v>
+    <v>17</v>
     <v>60.13</v>
     <v>36.270000000000003</v>
-    <v>0.54800000000000004</v>
-    <v>-0.54500000000000004</v>
-    <v>-1.1642999999999999E-2</v>
+    <v>0.54249999999999998</v>
+    <v>1.25</v>
+    <v>2.7132999999999997E-2</v>
     <v>USD</v>
     <v>The Coca-Cola Company is a beverage company. The Company owns or licenses and markets non-alcoholic beverage brands, primarily sparkling beverages and a range of still beverages, such as waters, flavored waters and enhanced waters, juices and juice drinks, ready-to-drink teas and coffees, sports drinks, dairy and energy drinks. The Company's segments include Europe, Middle East and Africa; Latin America; North America; Asia Pacific; Bottling Investments, and Corporate. The Company owns and markets a range of non-alcoholic sparkling beverage brands, including Coca-Cola, Diet Coke, Fanta and Sprite. The Company owns or licenses and markets over 500 non-alcoholic beverage brands. The Company markets, manufactures and sells beverage concentrates, which are referred to as beverage bases, and syrups, including fountain syrups, and finished sparkling and still beverages.</v>
     <v>86200</v>
@@ -3482,41 +3726,41 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1 Coca Cola Plz NW, ATLANTA, GA, 30313-2420 US</v>
-    <v>46.82</v>
-    <v>127</v>
+    <v>47.99</v>
+    <v>139</v>
     <v>Beverages</v>
     <v>Stock</v>
-    <v>44032.829640265627</v>
-    <v>128</v>
-    <v>45.85</v>
+    <v>44033.715647557816</v>
+    <v>140</v>
+    <v>46.935000000000002</v>
     <v>201086800000</v>
     <v>THE COCA-COLA COMPANY</v>
     <v>THE COCA-COLA COMPANY</v>
-    <v>46.79</v>
-    <v>20.184200000000001</v>
-    <v>46.81</v>
-    <v>46.265000000000001</v>
+    <v>47.56</v>
+    <v>19.882400000000001</v>
+    <v>46.07</v>
+    <v>47.32</v>
     <v>4294891000</v>
     <v>KO</v>
     <v>THE COCA-COLA COMPANY (XNYS:KO)</v>
-    <v>13335419</v>
-    <v>17073795</v>
+    <v>16234319</v>
+    <v>16866212</v>
     <v>1919</v>
   </rv>
   <rv s="2">
-    <v>129</v>
+    <v>141</v>
   </rv>
   <rv s="0">
     <v>http://en.wikipedia.org/wiki/AT&amp;T</v>
     <v>Wikipedia</v>
   </rv>
-  <rv s="6">
-    <v>97</v>
-    <v>131</v>
-  </rv>
   <rv s="7">
+    <v>109</v>
+    <v>143</v>
+  </rv>
+  <rv s="8">
     <v>https://www.bing.com/th?id=AMMS_25dbea32b4516ce1661da911a36f7ad2&amp;qlt=95</v>
-    <v>132</v>
+    <v>144</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=at%26t</v>
     <v>Image of AT&amp;T INC.</v>
   </rv>
@@ -3524,23 +3768,23 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=a23www&amp;q=XNYS%3aT&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="8">
+  <rv s="9">
     <v>en-US</v>
     <v>a23www</v>
     <v>268435456</v>
     <v>268435457</v>
     <v>1</v>
-    <v>10</v>
+    <v>13</v>
     <v>AT&amp;T INC. (XNYS:T)</v>
-    <v>12</v>
-    <v>13</v>
+    <v>15</v>
+    <v>16</v>
     <v>Finance</v>
-    <v>14</v>
+    <v>17</v>
     <v>39.700000000000003</v>
     <v>26.08</v>
-    <v>0.67520000000000002</v>
-    <v>-0.34499999999999997</v>
-    <v>-1.1401E-2</v>
+    <v>0.66639999999999999</v>
+    <v>0.53500000000000003</v>
+    <v>1.7917000000000002E-2</v>
     <v>USD</v>
     <v>AT&amp;T Inc. is a holding company. The Company is a provider of telecommunications, media and technology services globally. The Company operates through four segments: Communication segment, WarnerMedia segment, Latin America segment and Xandr segment. The Communications segment provides wireless and wireline telecom, video and broadband services to consumers.The business units of the Communication segment includes Mobility, Entertainment Group and Business Wireline. The WarnerMedia segment develops, produces and distributes feature films, television, gaming and other content over various physical and digital formats. The business units of the WarnerMedia segment includes Turner, Home Box Office and Warner Bros. Latin America segment provides entertainment services in Latin America and wireless services in Mexico. Viro and Mexico are the business units of the Latin America segment. The Xandr segment provides advertising services.</v>
     <v>244000</v>
@@ -3548,41 +3792,41 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>208 S Akard St, DALLAS, TX, 75202-4206 US</v>
-    <v>30.19</v>
-    <v>133</v>
+    <v>30.42</v>
+    <v>145</v>
     <v>Telecommunications Services</v>
     <v>Stock</v>
-    <v>44032.829531307812</v>
-    <v>134</v>
-    <v>29.8</v>
+    <v>44033.715878043753</v>
+    <v>146</v>
+    <v>29.85</v>
     <v>215531300000</v>
     <v>AT&amp;T INC.</v>
     <v>AT&amp;T INC.</v>
-    <v>30.19</v>
-    <v>15.389200000000001</v>
-    <v>30.26</v>
-    <v>29.914999999999999</v>
+    <v>29.85</v>
+    <v>15.185700000000001</v>
+    <v>29.86</v>
+    <v>30.395</v>
     <v>7125000000</v>
     <v>T</v>
     <v>AT&amp;T INC. (XNYS:T)</v>
-    <v>24410871</v>
-    <v>39413270</v>
+    <v>18481276</v>
+    <v>39258065</v>
     <v>1983</v>
   </rv>
   <rv s="2">
-    <v>135</v>
+    <v>147</v>
   </rv>
   <rv s="0">
     <v>http://pl.wikipedia.org/wiki/Starbucks</v>
     <v>Wikipedia</v>
   </rv>
-  <rv s="6">
-    <v>97</v>
-    <v>137</v>
-  </rv>
   <rv s="7">
+    <v>109</v>
+    <v>149</v>
+  </rv>
+  <rv s="8">
     <v>https://www.bing.com/th?id=AMMS_e27b6f4d10a663f3cbffe838112b48be&amp;qlt=95</v>
-    <v>138</v>
+    <v>150</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=starbucks</v>
     <v>Image of STARBUCKS CORPORATION</v>
   </rv>
@@ -3590,23 +3834,23 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=a22k9c&amp;q=XNAS%3aSBUX&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="8">
+  <rv s="9">
     <v>en-US</v>
     <v>a22k9c</v>
     <v>268435456</v>
     <v>268435457</v>
     <v>1</v>
-    <v>10</v>
+    <v>13</v>
     <v>STARBUCKS CORPORATION (XNAS:SBUX)</v>
-    <v>12</v>
-    <v>13</v>
+    <v>15</v>
+    <v>16</v>
     <v>Finance</v>
-    <v>14</v>
+    <v>17</v>
     <v>99.72</v>
     <v>50.02</v>
-    <v>0.77969999999999995</v>
-    <v>0.98250000000000004</v>
-    <v>1.3247999999999999E-2</v>
+    <v>0.77939999999999998</v>
+    <v>1.53</v>
+    <v>2.0411000000000002E-2</v>
     <v>USD</v>
     <v>Starbucks Corporation (Starbucks) is a roaster, marketer and retailer of coffee. As of October 2, 2016, the Company operated in 75 countries. The Company operates through four segments: Americas, which is inclusive of the United States, Canada, and Latin America; China/Asia Pacific (CAP); Europe, Middle East, and Africa (EMEA), and Channel Development. The Company's Americas, CAP, and EMEA segments include both company-operated and licensed stores. Its Channel Development segment includes roasted whole bean and ground coffees, Tazo teas, Starbucks- and Tazo-branded single-serve products, a range of ready-to-drink beverages, such as Frappuccino, Starbucks Doubleshot and Starbucks Refreshers beverages and other branded products sold across the world through channels, such as grocery stores, warehouse clubs, specialty retailers, convenience stores and the United States foodservice accounts.</v>
     <v>346000</v>
@@ -3614,41 +3858,41 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>2401 Utah Ave S, SEATTLE, WA, 98134-1436 US</v>
-    <v>75.22</v>
-    <v>139</v>
+    <v>76.8</v>
+    <v>151</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>44032.828460648147</v>
-    <v>140</v>
-    <v>73.64</v>
+    <v>44033.714907626563</v>
+    <v>152</v>
+    <v>75.34</v>
     <v>86641130000</v>
     <v>STARBUCKS CORPORATION</v>
     <v>STARBUCKS CORPORATION</v>
-    <v>74.16</v>
-    <v>26.389800000000001</v>
-    <v>74.16</v>
-    <v>75.142499999999998</v>
+    <v>75.739999999999995</v>
+    <v>26.674399999999999</v>
+    <v>74.959999999999994</v>
+    <v>76.489999999999995</v>
     <v>1168300000</v>
     <v>SBUX</v>
     <v>STARBUCKS CORPORATION (XNAS:SBUX)</v>
-    <v>7821415</v>
-    <v>9626367</v>
+    <v>5556977</v>
+    <v>9238481</v>
     <v>1985</v>
   </rv>
   <rv s="2">
-    <v>141</v>
+    <v>153</v>
   </rv>
   <rv s="0">
     <v>http://en.wikipedia.org/wiki/JPMorgan_Chase</v>
     <v>Wikipedia</v>
   </rv>
-  <rv s="6">
-    <v>97</v>
-    <v>143</v>
-  </rv>
   <rv s="7">
+    <v>109</v>
+    <v>155</v>
+  </rv>
+  <rv s="8">
     <v>https://www.bing.com/th?id=AMMS_06392bb84e5fdc62d2356a2306f4ae1e&amp;qlt=95</v>
-    <v>144</v>
+    <v>156</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=jpmorgan+chase</v>
     <v>Image of JPMORGAN CHASE &amp; CO.</v>
   </rv>
@@ -3656,23 +3900,23 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1waa2&amp;q=XNYS%3aJPM&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="8">
+  <rv s="9">
     <v>en-US</v>
     <v>a1waa2</v>
     <v>268435456</v>
     <v>268435457</v>
     <v>1</v>
-    <v>10</v>
+    <v>13</v>
     <v>JPMORGAN CHASE &amp; CO. (XNYS:JPM)</v>
-    <v>12</v>
-    <v>13</v>
+    <v>15</v>
+    <v>16</v>
     <v>Finance</v>
-    <v>14</v>
+    <v>17</v>
     <v>141.1</v>
     <v>76.91</v>
-    <v>1.1706000000000001</v>
-    <v>-0.67</v>
-    <v>-6.8259999999999996E-3</v>
+    <v>1.1632</v>
+    <v>2.42</v>
+    <v>2.4874E-2</v>
     <v>USD</v>
     <v>JPMorgan Chase &amp; Co. is a financial holding company. The Company is engaged in investment banking, financial services. It operates in four segments, as well as a Corporate segment. Its segments are Consumer &amp; Community Banking, Corporate &amp; Investment Bank, Commercial Banking and Asset Management. The Consumer &amp; Community Banking segment offers services to consumers and businesses through bank branches, automatic teller machines (ATMs), online, mobile and telephone banking. The Corporate &amp; Investment Bank segment, comprising Banking and Markets &amp; Investor Services, offers investment banking, market-making, prime brokerage, and treasury and securities products and services to corporations, investors, financial institutions, and government and municipal entities. The Commercial Banking segment provides financial solutions, including lending, treasury services, investment banking and asset management. The Asset Management segment comprises investment and wealth management.</v>
     <v>256720</v>
@@ -3680,41 +3924,41 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>383 Madison Ave, NEW YORK, NY, 10017-3217 US</v>
-    <v>98.39</v>
-    <v>145</v>
+    <v>100.05</v>
+    <v>157</v>
     <v>Banking Services</v>
     <v>Stock</v>
-    <v>44032.828686678127</v>
-    <v>146</v>
-    <v>97.26</v>
+    <v>44033.716089501562</v>
+    <v>158</v>
+    <v>97.65</v>
     <v>299095800000</v>
     <v>JPMORGAN CHASE &amp; CO.</v>
     <v>JPMORGAN CHASE &amp; CO.</v>
-    <v>97.3</v>
-    <v>13.2324</v>
-    <v>98.16</v>
-    <v>97.49</v>
+    <v>97.73</v>
+    <v>13.1165</v>
+    <v>97.29</v>
+    <v>99.71</v>
     <v>3047023000</v>
     <v>JPM</v>
     <v>JPMORGAN CHASE &amp; CO. (XNYS:JPM)</v>
-    <v>11977510</v>
-    <v>23850816</v>
+    <v>10015472</v>
+    <v>23434871</v>
     <v>1968</v>
   </rv>
   <rv s="2">
-    <v>147</v>
+    <v>159</v>
   </rv>
   <rv s="0">
     <v>http://en.wikipedia.org/wiki/Chevron_Corporation</v>
     <v>Wikipedia</v>
   </rv>
-  <rv s="6">
-    <v>97</v>
-    <v>149</v>
-  </rv>
   <rv s="7">
+    <v>109</v>
+    <v>161</v>
+  </rv>
+  <rv s="8">
     <v>https://www.bing.com/th?id=AMMS_2d49dc55c1faf81186e7649c0d153e02&amp;qlt=95</v>
-    <v>150</v>
+    <v>162</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=chevron+corporation</v>
     <v>Image of CHEVRON CORPORATION</v>
   </rv>
@@ -3722,23 +3966,23 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1qlz2&amp;q=XNYS%3aCVX&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="8">
+  <rv s="9">
     <v>en-US</v>
     <v>a1qlz2</v>
     <v>268435456</v>
     <v>268435457</v>
     <v>1</v>
-    <v>10</v>
+    <v>13</v>
     <v>CHEVRON CORPORATION (XNYS:CVX)</v>
-    <v>12</v>
-    <v>13</v>
+    <v>15</v>
+    <v>16</v>
     <v>Finance</v>
-    <v>14</v>
+    <v>17</v>
     <v>127</v>
     <v>51.6</v>
-    <v>1.2897000000000001</v>
-    <v>-1.84</v>
-    <v>-2.1097999999999999E-2</v>
+    <v>1.2721</v>
+    <v>6.15</v>
+    <v>7.2123999999999994E-2</v>
     <v>USD</v>
     <v>Chevron Corporation (Chevron) manages its investments in subsidiaries and affiliates, and provides administrative, financial, management and technology support to the United States and international subsidiaries that engage in integrated energy and chemicals operations. The Company operates through two business segments: Upstream and Downstream. Upstream operations consist primarily of exploring for, developing and producing crude oil and natural gas; liquefaction, transportation and regasification associated with liquefied natural gas; transporting crude oil by international oil export pipelines; processing, transporting, storage and marketing of natural gas, and a gas-to-liquids plant. Downstream operations consist primarily of refining of crude oil into petroleum products; marketing of crude oil and refined products; transporting of crude oil and refined products, and manufacturing and marketing of commodity petrochemicals.</v>
     <v>48200</v>
@@ -3746,69 +3990,69 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>6001 Bollinger Canyon Rd, SAN RAMON, CA, 94583-2324 US</v>
-    <v>87.44</v>
-    <v>151</v>
+    <v>91.52</v>
+    <v>163</v>
     <v>Oil &amp; Gas</v>
     <v>Stock</v>
-    <v>44032.828449339846</v>
-    <v>152</v>
-    <v>84.81</v>
+    <v>44033.715757962498</v>
+    <v>164</v>
+    <v>86.36</v>
     <v>162781900000</v>
     <v>CHEVRON CORPORATION</v>
     <v>CHEVRON CORPORATION</v>
-    <v>86.85</v>
-    <v>43.207599999999999</v>
-    <v>87.21</v>
-    <v>85.37</v>
+    <v>86.54</v>
+    <v>42.2562</v>
+    <v>85.27</v>
+    <v>91.42</v>
     <v>1866979000</v>
     <v>CVX</v>
     <v>CHEVRON CORPORATION (XNYS:CVX)</v>
-    <v>13342538</v>
-    <v>7760602</v>
+    <v>7827383</v>
+    <v>7978299</v>
     <v>1926</v>
   </rv>
   <rv s="2">
-    <v>153</v>
+    <v>165</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1qa5r&amp;q=XNYS%3aCQP&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="10">
+  <rv s="11">
     <v>en-US</v>
     <v>a1qa5r</v>
     <v>268435456</v>
     <v>268435459</v>
     <v>1</v>
-    <v>19</v>
+    <v>22</v>
     <v>CHENIERE ENERGY PARTNERS UNT (XNYS:CQP)</v>
     <v>2</v>
-    <v>20</v>
+    <v>23</v>
     <v>Finance</v>
     <v>4</v>
     <v>49.3</v>
     <v>17.75</v>
-    <v>0.56999999999999995</v>
-    <v>1.702E-2</v>
+    <v>0.98</v>
+    <v>2.8815E-2</v>
     <v>USD</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
-    <v>34.248199999999997</v>
+    <v>35.091999999999999</v>
     <v>ETF</v>
-    <v>44032.829741307811</v>
-    <v>155</v>
-    <v>33.382899999999999</v>
+    <v>44033.714618055557</v>
+    <v>167</v>
+    <v>34.107999999999997</v>
     <v>CHENIERE ENERGY PARTNERS UNT</v>
-    <v>33.619999999999997</v>
-    <v>33.49</v>
-    <v>34.06</v>
+    <v>34.33</v>
+    <v>34.01</v>
+    <v>34.99</v>
     <v>CQP</v>
     <v>CHENIERE ENERGY PARTNERS UNT (XNYS:CQP)</v>
-    <v>150160</v>
-    <v>383190</v>
+    <v>59717</v>
+    <v>372050</v>
   </rv>
   <rv s="2">
-    <v>156</v>
+    <v>168</v>
   </rv>
   <rv s="0">
     <v>https://creativecommons.org/licenses/by/2.0</v>
@@ -3818,13 +4062,13 @@
     <v>http://sv.wikipedia.org/wiki/Las_Vegas_Sands</v>
     <v>Wikipedia</v>
   </rv>
-  <rv s="6">
-    <v>158</v>
-    <v>159</v>
-  </rv>
   <rv s="7">
+    <v>170</v>
+    <v>171</v>
+  </rv>
+  <rv s="8">
     <v>https://www.bing.com/th?id=AMMS_0906c9459990b0fab2037038e2dfe1bd&amp;qlt=95</v>
-    <v>160</v>
+    <v>172</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=las+vegas+sands</v>
     <v>Image of LAS VEGAS SANDS CORP.</v>
   </rv>
@@ -3832,23 +4076,23 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1x7im&amp;q=XNYS%3aLVS&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="8">
+  <rv s="9">
     <v>en-US</v>
     <v>a1x7im</v>
     <v>268435456</v>
     <v>268435457</v>
     <v>1</v>
-    <v>10</v>
+    <v>13</v>
     <v>LAS VEGAS SANDS CORP. (XNYS:LVS)</v>
-    <v>12</v>
-    <v>13</v>
+    <v>15</v>
+    <v>16</v>
     <v>Finance</v>
-    <v>14</v>
+    <v>17</v>
     <v>74.290000000000006</v>
     <v>33.299999999999997</v>
-    <v>1.6073</v>
-    <v>-1.35</v>
-    <v>-2.7726000000000001E-2</v>
+    <v>1.5916999999999999</v>
+    <v>1.34</v>
+    <v>2.8354000000000001E-2</v>
     <v>USD</v>
     <v>Las Vegas Sands Corp. is a developer of destination properties (integrated resorts) that feature accommodations, gaming, entertainment and retail, convention and exhibition facilities, celebrity chef restaurants and other amenities. The Company owns and operates integrated resorts in Asia and the United States. The Company's principal operating and developmental activities occur in three geographic areas: Macao, Singapore and the United States. In Macao, the Company's segments include The Venetian Macao; Sands Cotai Central; The Parisian Macao; Four Seasons Macao; Sands Macao, and Other Asia (comprises the Company's ferry operations and various other operations). In Singapore, the Company's segments include Marina Bay Sands. In the United States, the Company's segment is Las Vegas Operating Properties. The Company also offers players club loyalty programs at its properties, which provides access to rewards, privileges and members-only events.</v>
     <v>50000</v>
@@ -3856,41 +4100,41 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>3355 Las Vegas Blvd S Rm 1A, LAS VEGAS, NV, 89109-8941 US</v>
-    <v>48.57</v>
-    <v>161</v>
+    <v>48.98</v>
+    <v>173</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>44032.829406527344</v>
-    <v>162</v>
-    <v>46.55</v>
+    <v>44033.715648148151</v>
+    <v>174</v>
+    <v>47.58</v>
     <v>37186000000</v>
     <v>LAS VEGAS SANDS CORP.</v>
     <v>LAS VEGAS SANDS CORP.</v>
-    <v>48.2</v>
-    <v>17.727599999999999</v>
-    <v>48.69</v>
-    <v>47.34</v>
+    <v>47.79</v>
+    <v>17.214300000000001</v>
+    <v>47.26</v>
+    <v>48.6</v>
     <v>763729700</v>
     <v>LVS</v>
     <v>LAS VEGAS SANDS CORP. (XNYS:LVS)</v>
-    <v>4139271</v>
-    <v>6258517</v>
+    <v>2669973</v>
+    <v>6209775</v>
     <v>2004</v>
   </rv>
   <rv s="2">
-    <v>163</v>
+    <v>175</v>
   </rv>
   <rv s="0">
     <v>http://en.wikipedia.org/wiki/Bank_of_America</v>
     <v>Wikipedia</v>
   </rv>
-  <rv s="6">
-    <v>97</v>
-    <v>165</v>
-  </rv>
   <rv s="7">
+    <v>109</v>
+    <v>177</v>
+  </rv>
+  <rv s="8">
     <v>https://www.bing.com/th?id=AMMS_0720042c42661f705c810fedd777349a&amp;qlt=95</v>
-    <v>166</v>
+    <v>178</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=bank+of+america</v>
     <v>Image of BANK OF AMERICA CORPORATION</v>
   </rv>
@@ -3898,23 +4142,23 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1o4sm&amp;q=XNYS%3aBAC&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="8">
+  <rv s="9">
     <v>en-US</v>
     <v>a1o4sm</v>
     <v>268435456</v>
     <v>268435457</v>
     <v>1</v>
-    <v>10</v>
+    <v>13</v>
     <v>BANK OF AMERICA CORPORATION (XNYS:BAC)</v>
-    <v>12</v>
-    <v>13</v>
+    <v>15</v>
+    <v>16</v>
     <v>Finance</v>
-    <v>14</v>
+    <v>17</v>
     <v>35.72</v>
     <v>17.95</v>
-    <v>1.5668</v>
-    <v>0.39</v>
-    <v>1.6798999999999998E-2</v>
+    <v>1.5609</v>
+    <v>0.85</v>
+    <v>3.6032000000000002E-2</v>
     <v>USD</v>
     <v>Bank of America Corporation is a bank holding company and a financial holding company. The Company is a financial institution, serving individual consumers and others with a range of banking, investing, asset management and other financial and risk management products and services. The Company, through its banking and various non-bank subsidiaries, throughout the United States and in international markets, provides a range of banking and non-bank financial services and products through four business segments: Consumer Banking, which comprises Deposits and Consumer Lending; Global Wealth &amp; Investment Management, which consists of two primary businesses: Merrill Lynch Global Wealth Management and U.S. Trust, Bank of America Private Wealth Management; Global Banking, which provides a range of lending-related products and services; Global Markets, which offers sales and trading services, and All Other, which consists of equity investments, residual expense allocations and other.</v>
     <v>209000</v>
@@ -3922,81 +4166,81 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>Bank of America Corporate Center, 100 N Tryon St, CHARLOTTE, NC, 28255-0001 US</v>
-    <v>23.7</v>
-    <v>167</v>
+    <v>24.48</v>
+    <v>179</v>
     <v>Banking Services</v>
     <v>Stock</v>
-    <v>44032.829183228903</v>
-    <v>168</v>
-    <v>23.11</v>
+    <v>44033.715596353904</v>
+    <v>180</v>
+    <v>23.69</v>
     <v>201180000000</v>
     <v>BANK OF AMERICA CORPORATION</v>
     <v>BANK OF AMERICA CORPORATION</v>
-    <v>23.18</v>
-    <v>11.152699999999999</v>
-    <v>23.215</v>
-    <v>23.605</v>
+    <v>23.75</v>
+    <v>11.3256</v>
+    <v>23.59</v>
+    <v>24.44</v>
     <v>8664082000</v>
     <v>BAC</v>
     <v>BANK OF AMERICA CORPORATION (XNYS:BAC)</v>
-    <v>52926099</v>
-    <v>70601711</v>
+    <v>44015701</v>
+    <v>70097081</v>
     <v>1998</v>
   </rv>
   <rv s="2">
-    <v>169</v>
+    <v>181</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1xrr7&amp;q=XNYS%3aMMP&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="10">
+  <rv s="11">
     <v>en-US</v>
     <v>a1xrr7</v>
     <v>268435456</v>
     <v>268435459</v>
     <v>1</v>
-    <v>19</v>
+    <v>22</v>
     <v>MAGELLAN MIDSTREAM PARTNERS UNT (XNYS:MMP)</v>
     <v>2</v>
-    <v>20</v>
+    <v>23</v>
     <v>Finance</v>
     <v>4</v>
     <v>67.75</v>
     <v>22.02</v>
-    <v>-1.24</v>
-    <v>-2.9163000000000001E-2</v>
+    <v>1.33</v>
+    <v>3.2336000000000004E-2</v>
     <v>USD</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
-    <v>42.79</v>
+    <v>42.59</v>
     <v>ETF</v>
-    <v>44032.828865740739</v>
-    <v>171</v>
-    <v>41.2</v>
+    <v>44033.715518483594</v>
+    <v>183</v>
+    <v>41.34</v>
     <v>MAGELLAN MIDSTREAM PARTNERS UNT</v>
-    <v>42.31</v>
-    <v>42.52</v>
-    <v>41.28</v>
+    <v>41.7</v>
+    <v>41.13</v>
+    <v>42.46</v>
     <v>MMP</v>
     <v>MAGELLAN MIDSTREAM PARTNERS UNT (XNYS:MMP)</v>
-    <v>768520</v>
-    <v>1406205</v>
+    <v>471046</v>
+    <v>1365996</v>
   </rv>
   <rv s="2">
-    <v>172</v>
+    <v>184</v>
   </rv>
   <rv s="0">
     <v>http://ja.wikipedia.org/wiki/コノコフィリップス</v>
     <v>Wikipedia</v>
   </rv>
-  <rv s="6">
-    <v>97</v>
-    <v>174</v>
-  </rv>
   <rv s="7">
+    <v>109</v>
+    <v>186</v>
+  </rv>
+  <rv s="8">
     <v>https://www.bing.com/th?id=AMMS_328c42228a7a7c01496b8aa73b7a09ba&amp;qlt=95</v>
-    <v>175</v>
+    <v>187</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=conocophillips</v>
     <v>Image of CONOCOPHILLIPS</v>
   </rv>
@@ -4004,23 +4248,23 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1q5nm&amp;q=XNYS%3aCOP&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="8">
+  <rv s="9">
     <v>en-US</v>
     <v>a1q5nm</v>
     <v>268435456</v>
     <v>268435457</v>
     <v>1</v>
-    <v>10</v>
+    <v>13</v>
     <v>CONOCOPHILLIPS (XNYS:COP)</v>
-    <v>12</v>
-    <v>13</v>
+    <v>15</v>
+    <v>16</v>
     <v>Finance</v>
-    <v>14</v>
+    <v>17</v>
     <v>67.13</v>
     <v>20.84</v>
-    <v>1.6801999999999999</v>
-    <v>-0.56869999999999998</v>
-    <v>-1.4228000000000001E-2</v>
+    <v>1.6606000000000001</v>
+    <v>2.4049999999999998</v>
+    <v>6.1148999999999995E-2</v>
     <v>USD</v>
     <v>ConocoPhillips is an independent exploration and production company. The Company explores for, produces, transports and markets crude oil, bitumen, natural gas, liquefied natural gas (LNG) and natural gas liquids. The Company operates through six segments: Alaska, Lower 48, Canada, Europe and North Africa, Asia Pacific and Middle East, and Other International. The Alaska segment explores for, produces, transports and markets crude oil, natural gas liquids, natural gas and LNG. The Lower 48 segment consists of operations located in the United States Lower 48 states and the Gulf of Mexico. Its Canadian operations consists of oil sands developments in the Athabasca Region of northeastern Alberta. The Europe and North Africa segment consists of operations and exploration activities in Norway and Libya. The Asia Pacific and Middle East segment has exploration and production operations in China, Indonesia and Malaysia.</v>
     <v>10400</v>
@@ -4028,41 +4272,41 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>925 N Eldridge Pkwy, HOUSTON, TX, 77079-2703 US</v>
-    <v>40.340000000000003</v>
-    <v>176</v>
+    <v>42.08</v>
+    <v>188</v>
     <v>Oil &amp; Gas</v>
     <v>Stock</v>
-    <v>44032.829121897659</v>
-    <v>177</v>
-    <v>39.244999999999997</v>
+    <v>44033.715019710158</v>
+    <v>189</v>
+    <v>40.04</v>
     <v>42854110000</v>
     <v>CONOCOPHILLIPS</v>
     <v>CONOCOPHILLIPS</v>
-    <v>39.9</v>
-    <v>12.5146</v>
-    <v>39.97</v>
-    <v>39.401299999999999</v>
+    <v>40.04</v>
+    <v>12.317299999999999</v>
+    <v>39.33</v>
+    <v>41.734999999999999</v>
     <v>1072425000</v>
     <v>COP</v>
     <v>CONOCOPHILLIPS (XNYS:COP)</v>
-    <v>5656529</v>
-    <v>6714401</v>
+    <v>4400798</v>
+    <v>6613566</v>
     <v>2001</v>
   </rv>
   <rv s="2">
-    <v>178</v>
+    <v>190</v>
   </rv>
   <rv s="0">
     <v>http://en.wikipedia.org/wiki/Wyndham_Destinations</v>
     <v>Wikipedia</v>
   </rv>
-  <rv s="6">
-    <v>97</v>
-    <v>180</v>
-  </rv>
   <rv s="7">
+    <v>109</v>
+    <v>192</v>
+  </rv>
+  <rv s="8">
     <v>https://www.bing.com/th?id=AMMS_5a814ff30fd1ffac245379798a819c9e&amp;qlt=95</v>
-    <v>181</v>
+    <v>193</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=wyndham+worldwide</v>
     <v>Image of WYNDHAM DESTINATIONS, INC.</v>
   </rv>
@@ -4070,23 +4314,23 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=b16nh7&amp;q=XNYS%3aWYND&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="8">
+  <rv s="9">
     <v>en-US</v>
     <v>b16nh7</v>
     <v>268435456</v>
     <v>268435457</v>
     <v>1</v>
-    <v>10</v>
+    <v>13</v>
     <v>WYNDHAM DESTINATIONS, INC. (XNYS:WYND)</v>
-    <v>12</v>
-    <v>13</v>
+    <v>15</v>
+    <v>16</v>
     <v>Finance</v>
-    <v>14</v>
+    <v>17</v>
     <v>53.13</v>
     <v>13.74</v>
-    <v>1.9696</v>
-    <v>-2.4249999999999998</v>
-    <v>-7.8886999999999999E-2</v>
+    <v>1.9323999999999999</v>
+    <v>2.04</v>
+    <v>7.2161000000000003E-2</v>
     <v>USD</v>
     <v>Wyndham Destinations, Inc., formerly Wyndham Worldwide Corporation, is a vacation ownership and exchange company. The Company operates across 110 countries at more than 220 vacation ownership resorts and 4,300 affiliated exchange properties. The Company, through its Wyndham Vacation Clubs business, markets and sells vacation ownership interests and provides consumer financing to owners at a portfolio of brands including: CLUB WYNDHAM, WorldMark by Wyndham, CLUB WYNDHAM ASIA, WorldMark South Pacific Club by Wyndham, Shell Vacations Club, Margaritaville Vacation Club by Wyndham and WYNDHAM CLUB BRASILSM. The Company’s Resort Condominiums International (RCI) exchanges includes RCI India, Dial An Exchange (dae), Love Home Swap, The Registry Collection, TripBeat, @Work International and Armed Forces Vacation Club.</v>
     <v>22500</v>
@@ -4094,41 +4338,41 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>6277 Sea Harbor Dr, ORLANDO, FL, 32821-8043 US</v>
-    <v>30.55</v>
-    <v>182</v>
+    <v>30.39</v>
+    <v>194</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>44032.829380983596</v>
-    <v>183</v>
-    <v>28.16</v>
+    <v>44033.715150462966</v>
+    <v>195</v>
+    <v>28.8</v>
     <v>2615342000</v>
     <v>WYNDHAM DESTINATIONS, INC.</v>
     <v>WYNDHAM DESTINATIONS, INC.</v>
-    <v>30.55</v>
-    <v>10.5274</v>
-    <v>30.74</v>
-    <v>28.315000000000001</v>
+    <v>29.46</v>
+    <v>9.6844000000000001</v>
+    <v>28.27</v>
+    <v>30.31</v>
     <v>85134820</v>
     <v>WYND</v>
     <v>WYNDHAM DESTINATIONS, INC. (XNYS:WYND)</v>
-    <v>1810946</v>
-    <v>1277392</v>
+    <v>854270</v>
+    <v>1277725</v>
     <v>2003</v>
   </rv>
   <rv s="2">
-    <v>184</v>
+    <v>196</v>
   </rv>
   <rv s="0">
     <v>http://en.wikipedia.org/wiki/ExxonMobil</v>
     <v>Wikipedia</v>
   </rv>
-  <rv s="6">
-    <v>97</v>
-    <v>186</v>
-  </rv>
   <rv s="7">
+    <v>109</v>
+    <v>198</v>
+  </rv>
+  <rv s="8">
     <v>https://www.bing.com/th?id=AMMS_a92fdfeb8644bf85ee9299accf15739c&amp;qlt=95</v>
-    <v>187</v>
+    <v>199</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=exxon+mobil</v>
     <v>Image of EXXON MOBIL CORPORATION</v>
   </rv>
@@ -4136,23 +4380,23 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=a269ec&amp;q=XNYS%3aXOM&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="8">
+  <rv s="9">
     <v>en-US</v>
     <v>a269ec</v>
     <v>268435456</v>
     <v>268435457</v>
     <v>1</v>
-    <v>10</v>
+    <v>13</v>
     <v>EXXON MOBIL CORPORATION (XNYS:XOM)</v>
-    <v>12</v>
-    <v>13</v>
+    <v>15</v>
+    <v>16</v>
     <v>Finance</v>
-    <v>14</v>
+    <v>17</v>
     <v>76.05</v>
     <v>30.11</v>
-    <v>1.3268</v>
-    <v>-0.92500000000000004</v>
-    <v>-2.1259E-2</v>
+    <v>1.3089</v>
+    <v>2.38</v>
+    <v>5.5993000000000001E-2</v>
     <v>USD</v>
     <v>Exxon Mobil Corporation is engaged in energy business. The Company is engaged in the exploration, production, transportation and sale of crude oil and natural gas, and the manufacture, transportation and sale of petroleum products. The Company also manufactures and markets commodity petrochemicals, including olefins, aromatics, polyethylene and polypropylene plastics, and a range of specialty products. The Company's segments include Upstream, Downstream, Chemical, and Corporate and Financing. The Upstream segment operates to explore for and produce crude oil and natural gas. The Downstream operates to manufacture and sell petroleum products. The Chemical segment operates to manufacture and sell petrochemicals. The Company has exploration and development activities in projects located in the United States, Canada/South America, Europe, Africa, Asia and Australia/Oceania.</v>
     <v>74900</v>
@@ -4160,51 +4404,51 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>5959 LAS COLINAS BLVD, IRVING, TX, 75039-2298 US</v>
-    <v>43.51</v>
-    <v>188</v>
+    <v>45.19</v>
+    <v>200</v>
     <v>Oil &amp; Gas</v>
     <v>Stock</v>
-    <v>44032.828628760937</v>
-    <v>189</v>
-    <v>42.48</v>
+    <v>44033.715401747657</v>
+    <v>201</v>
+    <v>43.11</v>
     <v>184011800000</v>
     <v>EXXON MOBIL CORPORATION</v>
     <v>EXXON MOBIL CORPORATION</v>
-    <v>43.23</v>
-    <v>17.7728</v>
-    <v>43.51</v>
-    <v>42.585000000000001</v>
+    <v>43.12</v>
+    <v>17.058299999999999</v>
+    <v>42.505000000000003</v>
+    <v>44.884999999999998</v>
     <v>4228211000</v>
     <v>XOM</v>
     <v>EXXON MOBIL CORPORATION (XNYS:XOM)</v>
-    <v>16397949</v>
-    <v>23213913</v>
+    <v>16124272</v>
+    <v>21868229</v>
     <v>1882</v>
   </rv>
   <rv s="2">
-    <v>190</v>
+    <v>202</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a25e77&amp;q=XNYS%3aVLO&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="9">
+  <rv s="10">
     <v>en-US</v>
     <v>a25e77</v>
     <v>268435456</v>
     <v>268435457</v>
     <v>1</v>
-    <v>16</v>
+    <v>19</v>
     <v>VALERO ENERGY CORPORATION (XNYS:VLO)</v>
+    <v>20</v>
+    <v>21</v>
+    <v>Finance</v>
     <v>17</v>
-    <v>18</v>
-    <v>Finance</v>
-    <v>14</v>
     <v>101.99</v>
     <v>31</v>
-    <v>1.9297</v>
-    <v>-1.1200000000000001</v>
-    <v>-2.0198000000000001E-2</v>
+    <v>1.9061999999999999</v>
+    <v>3.3357000000000001</v>
+    <v>6.1386000000000003E-2</v>
     <v>USD</v>
     <v>Valero Energy Corporation (Valero) is an independent petroleum refiner and ethanol producer. The Company's segments include refining, ethanol and Valero Energy Partners LP (VLP). The refining segment includes its refining operations and the associated marketing activities. The ethanol segment includes its ethanol operations and the associated marketing activities, and logistics assets that support its ethanol operations. The Company owns logistics assets (crude oil pipelines, refined petroleum product pipelines, terminals, tanks, marine docks, truck rack bays and other assets) that support its refining operations. Some of these assets are owned by VLP, which is a midstream master limited partnership owned by the Company. VLP's assets include crude oil and refined petroleum products pipeline and terminal systems in the United States Gulf Coast and the United States Mid-Continent regions. Its refineries produce conventional gasolines, premium gasolines and lubricants, among others.</v>
     <v>10222</v>
@@ -4212,40 +4456,40 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>PO Box 696000, SAN ANTONIO, TX, 78269-6000 US</v>
-    <v>56.14</v>
+    <v>57.83</v>
     <v>Oil &amp; Gas</v>
     <v>Stock</v>
-    <v>44032.829948876562</v>
-    <v>192</v>
-    <v>54.29</v>
+    <v>44033.716290138284</v>
+    <v>204</v>
+    <v>55.02</v>
     <v>22615040000</v>
     <v>VALERO ENERGY CORPORATION</v>
     <v>VALERO ENERGY CORPORATION</v>
-    <v>55.35</v>
-    <v>56.372</v>
-    <v>55.45</v>
-    <v>54.33</v>
+    <v>55.37</v>
+    <v>55.2134</v>
+    <v>54.34</v>
+    <v>57.675699999999999</v>
     <v>407698600</v>
     <v>VLO</v>
     <v>VALERO ENERGY CORPORATION (XNYS:VLO)</v>
-    <v>2011871</v>
-    <v>4536625</v>
+    <v>2031352</v>
+    <v>4486786</v>
     <v>1981</v>
   </rv>
   <rv s="2">
-    <v>193</v>
+    <v>205</v>
   </rv>
   <rv s="0">
     <v>http://en.wikipedia.org/wiki/H&amp;R_Block</v>
     <v>Wikipedia</v>
   </rv>
-  <rv s="6">
-    <v>97</v>
-    <v>195</v>
-  </rv>
   <rv s="7">
+    <v>109</v>
+    <v>207</v>
+  </rv>
+  <rv s="8">
     <v>https://www.bing.com/th?id=AMMS_d132f0c8d3455e1bb112e94f5d892d58&amp;qlt=95</v>
-    <v>196</v>
+    <v>208</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=h%26r+block</v>
     <v>Image of H &amp; R BLOCK, INC.</v>
   </rv>
@@ -4253,23 +4497,23 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1uuvh&amp;q=XNYS%3aHRB&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="8">
+  <rv s="9">
     <v>en-US</v>
     <v>a1uuvh</v>
     <v>268435456</v>
     <v>268435457</v>
     <v>1</v>
-    <v>10</v>
+    <v>13</v>
     <v>H &amp; R BLOCK, INC. (XNYS:HRB)</v>
-    <v>12</v>
-    <v>13</v>
+    <v>15</v>
+    <v>16</v>
     <v>Finance</v>
-    <v>14</v>
+    <v>17</v>
     <v>28.21</v>
     <v>11.290100000000001</v>
-    <v>0.7913</v>
-    <v>-0.56999999999999995</v>
-    <v>-3.8670000000000003E-2</v>
+    <v>0.7742</v>
+    <v>0.41</v>
+    <v>2.8996000000000001E-2</v>
     <v>USD</v>
     <v>H&amp;R Block, Inc. (H&amp;R Block), through its subsidiaries, provides tax preparation and other services. The Company provides assisted income tax return preparation, digital do-it-yourself (DIY) tax solutions and other services and products related to income tax return preparation to the general public primarily in the United States, Canada, Australia and their respective territories. Assisted income tax return preparation and related services are provided by tax professionals through a system of retail offices operated directly by the Company or its franchisees. It offers tax support, planning, and business accounting and advisory services to its clients. The Company offers a range of online tax services, including preparation of federal and state income tax returns, review of tax returns by a tax professional, access to tax tips, advice and tax-related news, use of calculators for tax planning, error checking and electronic filing.</v>
     <v>3500</v>
@@ -4277,29 +4521,29 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1 H And R Block Way, KANSAS CITY, MO, 64105-1905 US</v>
-    <v>14.695</v>
-    <v>197</v>
+    <v>14.77</v>
+    <v>209</v>
     <v>Personal &amp; Household Products &amp; Services</v>
     <v>Stock</v>
-    <v>44032.829057187497</v>
-    <v>198</v>
-    <v>14.06</v>
+    <v>44033.715441851564</v>
+    <v>210</v>
+    <v>14.29</v>
     <v>2837086000</v>
     <v>H &amp; R BLOCK, INC.</v>
     <v>H &amp; R BLOCK, INC.</v>
-    <v>14.57</v>
-    <v>154.637</v>
-    <v>14.74</v>
-    <v>14.17</v>
+    <v>14.33</v>
+    <v>148.3424</v>
+    <v>14.14</v>
+    <v>14.55</v>
     <v>192475300</v>
     <v>HRB</v>
     <v>H &amp; R BLOCK, INC. (XNYS:HRB)</v>
-    <v>2716413</v>
-    <v>4217638</v>
+    <v>1100698</v>
+    <v>4211955</v>
     <v>1955</v>
   </rv>
   <rv s="2">
-    <v>199</v>
+    <v>211</v>
   </rv>
   <rv s="0">
     <v>http://creativecommons.org/licenses/by-sa/3.0/</v>
@@ -4309,13 +4553,13 @@
     <v>http://sv.wikipedia.org/wiki/Shell</v>
     <v>Wikipedia</v>
   </rv>
-  <rv s="6">
-    <v>201</v>
-    <v>202</v>
-  </rv>
   <rv s="7">
+    <v>213</v>
+    <v>214</v>
+  </rv>
+  <rv s="8">
     <v>https://www.bing.com/th?id=AMMS_982b67ee8686548274ef55ed627e1e1f&amp;qlt=95</v>
-    <v>203</v>
+    <v>215</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=royal+dutch+shell</v>
     <v>Image of ROYAL DUTCH SHELL PLC</v>
   </rv>
@@ -4323,23 +4567,23 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=a21t52&amp;q=XNYS%3aRDS.A&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="8">
+  <rv s="9">
     <v>en-US</v>
     <v>a21t52</v>
     <v>268435456</v>
     <v>268435457</v>
     <v>1</v>
-    <v>10</v>
+    <v>13</v>
     <v>ROYAL DUTCH SHELL PLC (XNYS:RDS.A)</v>
-    <v>12</v>
-    <v>13</v>
+    <v>15</v>
+    <v>16</v>
     <v>Finance</v>
-    <v>14</v>
+    <v>17</v>
     <v>64.33</v>
     <v>21.254999999999999</v>
-    <v>0.81910000000000005</v>
-    <v>-0.54</v>
-    <v>-1.6413000000000001E-2</v>
+    <v>0.80969999999999998</v>
+    <v>1.24</v>
+    <v>3.8260000000000002E-2</v>
     <v>USD</v>
     <v>The Royal Dutch Shell plc is a company based in the Netherlands that explores for crude oil and natural gas around the world, both in conventional fields and from sources, such as tight rock, shale and coal formations. Its segments include Integrated Gas, Upstream, Downstream and Corporate. The Integrated Gas segment is engaged in the liquefaction and transportation of gas and the conversion of natural gas to liquids to provide fuels and other products, as well as projects with an integrated activity, ranging from producing to commercializing gas. The Upstream segment includes the operations of Upstream, which is engaged in the exploration for and extraction of crude oil, natural gas and natural gas liquids, and the marketing and transportation of oil and gas, and Oil Sands, which is engaged in the extraction of bitumen from mined oil sands and conversion into synthetic crude oil. The Downstream segment is engaged in oil products and chemicals manufacturing, and marketing activities.</v>
     <v>83000</v>
@@ -4347,41 +4591,41 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>Carel van Bylandtlaan 30, 'S-GRAVENHAGE, ZUID-HOLLAND, 2596 HR NL</v>
-    <v>32.99</v>
-    <v>204</v>
+    <v>33.880099999999999</v>
+    <v>216</v>
     <v>Oil &amp; Gas</v>
     <v>Stock</v>
-    <v>44032.829302210157</v>
-    <v>205</v>
-    <v>32.340000000000003</v>
+    <v>44033.715083124996</v>
+    <v>217</v>
+    <v>32.79</v>
     <v>125447300000</v>
     <v>ROYAL DUTCH SHELL PLC</v>
     <v>ROYAL DUTCH SHELL PLC</v>
-    <v>32.770000000000003</v>
-    <v>13.5555</v>
-    <v>32.9</v>
-    <v>32.36</v>
+    <v>32.840000000000003</v>
+    <v>13.349500000000001</v>
+    <v>32.409999999999997</v>
+    <v>33.65</v>
     <v>3903712000</v>
     <v>RDS.A</v>
     <v>ROYAL DUTCH SHELL PLC (XNYS:RDS.A)</v>
-    <v>4081285</v>
-    <v>5058725</v>
+    <v>4173493</v>
+    <v>4974810</v>
     <v>2002</v>
   </rv>
   <rv s="2">
-    <v>206</v>
+    <v>218</v>
   </rv>
   <rv s="0">
     <v>http://zh.wikipedia.org/wiki/芝樂坊餐館</v>
     <v>Wikipedia</v>
   </rv>
-  <rv s="6">
-    <v>97</v>
-    <v>208</v>
-  </rv>
   <rv s="7">
+    <v>109</v>
+    <v>220</v>
+  </rv>
+  <rv s="8">
     <v>https://www.bing.com/th?id=AMMS_b7e2eab1a0465d4acb936b45513ab111&amp;qlt=95</v>
-    <v>209</v>
+    <v>221</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=the+cheesecake+factory</v>
     <v>Image of THE CHEESECAKE FACTORY INCORPORATED</v>
   </rv>
@@ -4389,23 +4633,23 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1p5h7&amp;q=XNAS%3aCAKE&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="8">
+  <rv s="9">
     <v>en-US</v>
     <v>a1p5h7</v>
     <v>268435456</v>
     <v>268435457</v>
     <v>1</v>
-    <v>10</v>
+    <v>13</v>
     <v>THE CHEESECAKE FACTORY INCORPORATED (XNAS:CAKE)</v>
-    <v>12</v>
-    <v>13</v>
+    <v>15</v>
+    <v>16</v>
     <v>Finance</v>
-    <v>14</v>
+    <v>17</v>
     <v>45.24</v>
     <v>14.52</v>
-    <v>1.3856999999999999</v>
-    <v>-0.57999999999999996</v>
-    <v>-2.5686E-2</v>
+    <v>1.3673</v>
+    <v>0.755</v>
+    <v>3.4348999999999998E-2</v>
     <v>USD</v>
     <v>The Cheesecake Factory Inc. is an experiential dining company. The Company owns and operates approximately 294 restaurants throughout the United States and Canada under brands, including The Cheesecake Factory, North Italia and a collection within the Fox Restaurant Concepts (FRC) subsidiary. Its segments include The Cheesecake Factory, North Italia, other FRC brands and Other. The Company’s Cheesecake Factory menu features approximately 250 items and menu offerings include appetizers, pizza, seafood, steaks, chicken, burgers, small plates, pastas, salads and sandwiches. It also operates two bakery production facilities, one in Calabasas Hills, California, and one in Rocky Mount, North Carolina. Its cheesecakes include the Original Cheesecake, Ultimate Red Velvet Cake Cheesecake, Godiva Chocolate Cheesecake and Oreo Dream Extreme Cheesecake. The Company also operates Grand Lux Cafe, RockSugar Southeast Asian Kitchen and Social Monk Asian Kitchen.</v>
     <v>46250</v>
@@ -4413,29 +4657,29 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>26901 MALIBU HILLS RD, CALABASAS HILLS, CA, 91301-5354 US</v>
-    <v>22.75</v>
-    <v>210</v>
+    <v>22.83</v>
+    <v>222</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>44032.829150196092</v>
-    <v>211</v>
-    <v>21.38</v>
+    <v>44033.715462962966</v>
+    <v>223</v>
+    <v>22.02</v>
     <v>1026535000</v>
     <v>THE CHEESECAKE FACTORY INCORPORATED</v>
     <v>THE CHEESECAKE FACTORY INCORPORATED</v>
-    <v>22.38</v>
+    <v>22.17</v>
     <v>10.3302</v>
-    <v>22.58</v>
-    <v>22</v>
+    <v>21.98</v>
+    <v>22.734999999999999</v>
     <v>45462130</v>
     <v>CAKE</v>
     <v>THE CHEESECAKE FACTORY INCORPORATED (XNAS:CAKE)</v>
-    <v>1537114</v>
-    <v>3343458</v>
+    <v>815636</v>
+    <v>3273437</v>
     <v>1992</v>
   </rv>
   <rv s="2">
-    <v>212</v>
+    <v>224</v>
   </rv>
   <rv s="0">
     <v>https://creativecommons.org/licenses/by-sa/4.0</v>
@@ -4445,13 +4689,13 @@
     <v>http://en.wikipedia.org/wiki/Wells_Fargo</v>
     <v>Wikipedia</v>
   </rv>
-  <rv s="6">
-    <v>214</v>
-    <v>215</v>
-  </rv>
   <rv s="7">
+    <v>226</v>
+    <v>227</v>
+  </rv>
+  <rv s="8">
     <v>https://www.bing.com/th?id=AMMS_97bd8dad8c0360a49d8c3a8c9f408be5&amp;qlt=95</v>
-    <v>216</v>
+    <v>228</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=wells+fargo</v>
     <v>Image of WELLS FARGO &amp; COMPANY</v>
   </rv>
@@ -4459,23 +4703,23 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=a25tgh&amp;q=XNYS%3aWFC&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="8">
+  <rv s="9">
     <v>en-US</v>
     <v>a25tgh</v>
     <v>268435456</v>
     <v>268435457</v>
     <v>1</v>
-    <v>10</v>
+    <v>13</v>
     <v>WELLS FARGO &amp; COMPANY (XNYS:WFC)</v>
-    <v>12</v>
-    <v>13</v>
+    <v>15</v>
+    <v>16</v>
     <v>Finance</v>
-    <v>14</v>
+    <v>17</v>
     <v>54.75</v>
     <v>22</v>
-    <v>1.1341000000000001</v>
-    <v>-0.35499999999999998</v>
-    <v>-1.4223E-2</v>
+    <v>1.1207</v>
+    <v>1.4822</v>
+    <v>6.0350000000000001E-2</v>
     <v>USD</v>
     <v>Wells Fargo &amp; Company is a bank holding company. The Company is a diversified financial services company. It has three operating segments: Community Banking, Wholesale Banking, and Wealth and Investment Management. The Company offers its services under three categories: personal, small business and commercial. It provides retail, commercial and corporate banking services through banking locations and offices, the Internet and other distribution channels to individuals, businesses and institutions in all 50 states, the District of Columbia and in other countries. It provides other financial services through its subsidiaries engaged in various businesses, including wholesale banking, mortgage banking, consumer finance, equipment leasing, agricultural finance, commercial finance, securities brokerage and investment banking, computer and data processing services, investment advisory services, mortgage-backed securities servicing and venture capital investment.</v>
     <v>262800</v>
@@ -4483,41 +4727,41 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>420 Montgomery St, SAN FRANCISCO, CA, 94104-1207 US</v>
-    <v>24.88</v>
-    <v>217</v>
+    <v>26.28</v>
+    <v>229</v>
     <v>Banking Services</v>
     <v>Stock</v>
-    <v>44032.829080185154</v>
-    <v>218</v>
-    <v>24.4</v>
+    <v>44033.715476203128</v>
+    <v>230</v>
+    <v>24.71</v>
     <v>102783000000</v>
     <v>WELLS FARGO &amp; COMPANY</v>
     <v>WELLS FARGO &amp; COMPANY</v>
-    <v>24.72</v>
-    <v>28.630400000000002</v>
-    <v>24.96</v>
-    <v>24.605</v>
+    <v>24.74</v>
+    <v>28.194400000000002</v>
+    <v>24.56</v>
+    <v>26.042200000000001</v>
     <v>4119559000</v>
     <v>WFC</v>
     <v>WELLS FARGO &amp; COMPANY (XNYS:WFC)</v>
-    <v>33619769</v>
-    <v>50496363</v>
+    <v>32661046</v>
+    <v>49991600</v>
     <v>1929</v>
   </rv>
   <rv s="2">
-    <v>219</v>
+    <v>231</v>
   </rv>
   <rv s="0">
     <v>http://ja.wikipedia.org/wiki/シックス・フラッグス</v>
     <v>Wikipedia</v>
   </rv>
-  <rv s="6">
-    <v>97</v>
-    <v>221</v>
-  </rv>
   <rv s="7">
+    <v>109</v>
+    <v>233</v>
+  </rv>
+  <rv s="8">
     <v>https://www.bing.com/th?id=AMMS_f277632c13de4db2ca85eddfe0a297c9&amp;qlt=95</v>
-    <v>222</v>
+    <v>234</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=six+flags</v>
     <v>Image of SIX FLAGS ENTERTAINMENT CORPORATION</v>
   </rv>
@@ -4525,23 +4769,23 @@
     <v>https://www.bing.com/financeapi/forcetrigger?t=a22zu2&amp;q=XNYS%3aSIX&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="8">
+  <rv s="9">
     <v>en-US</v>
     <v>a22zu2</v>
     <v>268435456</v>
     <v>268435457</v>
     <v>1</v>
-    <v>10</v>
+    <v>13</v>
     <v>SIX FLAGS ENTERTAINMENT CORPORATION (XNYS:SIX)</v>
-    <v>12</v>
-    <v>13</v>
+    <v>15</v>
+    <v>16</v>
     <v>Finance</v>
-    <v>14</v>
+    <v>17</v>
     <v>59.52</v>
     <v>8.75</v>
-    <v>2.2052</v>
-    <v>-0.29499999999999998</v>
-    <v>-1.4355E-2</v>
+    <v>2.1918000000000002</v>
+    <v>0.52500000000000002</v>
+    <v>2.5952000000000003E-2</v>
     <v>USD</v>
     <v>Six Flags Entertainment Corporation (Six Flags) is a regional theme park operator. The Company operates in the theme parks segment. The Company operates approximately 19 regional theme and water parks. Its parks occupy approximately 4,500 acres of land. Its parks are located in geographically diverse markets across North America. Its parks offer a selection of thrill rides, water attractions, themed areas, concerts and shows, restaurants, game venues and retail outlets. Its parks offer approximately 830 rides, including over 135 roller coasters. The Company's parks include Six Flags America, Six Flags Discovery Kingdom, Six Flags Fiesta Texas, Six Flags Great Adventure &amp; Safari/ Six Flags Hurricane Harbor, Six Flags Great America, Six Flags St. Louis, Six Flags Magic Mountain/ Six Flags Hurricane Harbor, Six Flags Mexico and Six Flags New England.</v>
     <v>2450</v>
@@ -4549,51 +4793,51 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1000 Ballpark Way Suite 400, ARLINGTON, TX, 76011 US</v>
-    <v>20.73</v>
-    <v>223</v>
+    <v>20.85</v>
+    <v>235</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>44032.829246307811</v>
-    <v>224</v>
-    <v>19.89</v>
+    <v>44033.715798587502</v>
+    <v>236</v>
+    <v>20.29</v>
     <v>1740308000</v>
     <v>SIX FLAGS ENTERTAINMENT CORPORATION</v>
     <v>SIX FLAGS ENTERTAINMENT CORPORATION</v>
-    <v>20.41</v>
-    <v>10.698</v>
-    <v>20.55</v>
-    <v>20.254999999999999</v>
+    <v>20.46</v>
+    <v>10.526199999999999</v>
+    <v>20.23</v>
+    <v>20.754999999999999</v>
     <v>84686500</v>
     <v>SIX</v>
     <v>SIX FLAGS ENTERTAINMENT CORPORATION (XNYS:SIX)</v>
-    <v>1609384</v>
-    <v>2855922</v>
+    <v>662764</v>
+    <v>2801649</v>
     <v>1997</v>
   </rv>
   <rv s="2">
-    <v>225</v>
+    <v>237</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1zez2&amp;q=XNYS%3aOXY&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="9">
+  <rv s="10">
     <v>en-US</v>
     <v>a1zez2</v>
     <v>268435456</v>
     <v>268435457</v>
     <v>1</v>
-    <v>16</v>
+    <v>19</v>
     <v>OCCIDENTAL PETROLEUM CORPORATION (XNYS:OXY)</v>
+    <v>20</v>
+    <v>21</v>
+    <v>Finance</v>
     <v>17</v>
-    <v>18</v>
-    <v>Finance</v>
-    <v>14</v>
     <v>54.05</v>
     <v>9</v>
-    <v>1.9438</v>
-    <v>-0.56999999999999995</v>
-    <v>-3.5012000000000001E-2</v>
+    <v>1.9124000000000001</v>
+    <v>2.06</v>
+    <v>0.13129399999999999</v>
     <v>USD</v>
     <v>Occidental Petroleum Corp is an international oil and gas exploration and production company. The Company has operations in the United States, Middle East and Latin America. It operates through three segments: Oil and Gas, Chemical (OxyChem) and Midstream and Marketing. Its Oil and Gas segment explores for, develops and produces oil and condensate, natural gas liquids (NGLs) and natural gas. Its OxyChem segment primarily manufactures and markets basic chemicals and vinyls. OxyChem also manufactures polyvinyl chloride (PVC) resins, chlorine and caustic soda and has manufacturing facilities in the United States, Canada and Latin America. Midstream and Marketing segment purchases, markets, gathers, processes, transports and stores oil, condensate, NGL, natural gas, carbon dioxide and power. Through its subsidiary, Oxy Low Carbon Ventures, LLC it develops carbon capture, utilization and storage projects that source anthropogenic carbon dioxide.</v>
     <v>14400</v>
@@ -4601,34 +4845,34 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>5 Greenway Plz Ste 110, HOUSTON, TX, 77046-0521 US</v>
-    <v>16.45</v>
+    <v>18.03</v>
     <v>Oil &amp; Gas</v>
     <v>Stock</v>
-    <v>44032.829444444447</v>
-    <v>227</v>
-    <v>15.7</v>
+    <v>44033.715354964843</v>
+    <v>239</v>
+    <v>16.07</v>
     <v>14948330000</v>
     <v>OCCIDENTAL PETROLEUM CORPORATION</v>
     <v>OCCIDENTAL PETROLEUM CORPORATION</v>
-    <v>16.190000000000001</v>
+    <v>16.09</v>
     <v>0</v>
-    <v>16.28</v>
-    <v>15.71</v>
+    <v>15.69</v>
+    <v>17.75</v>
     <v>918202300</v>
     <v>OXY</v>
     <v>OCCIDENTAL PETROLEUM CORPORATION (XNYS:OXY)</v>
-    <v>19571363</v>
-    <v>30469635</v>
+    <v>31300773</v>
+    <v>29522526</v>
     <v>1986</v>
   </rv>
   <rv s="2">
-    <v>228</v>
+    <v>240</v>
   </rv>
 </rvData>
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="11">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="12">
   <s t="_hyperlink">
     <k n="Address" t="s"/>
     <k n="Text" t="s"/>
@@ -4740,6 +4984,45 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%EntitySubDomainId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change % (Extended hours)"/>
+    <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Currency" t="s"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="Expense ratio"/>
+    <k n="High"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Open"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
     <k n="Volume"/>
@@ -4882,7 +5165,7 @@
 
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <spbArrays count="6">
+  <spbArrays count="7">
     <a count="34">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
@@ -4981,6 +5264,45 @@
       <v t="s">Volume</v>
       <v t="s">Volume average</v>
       <v t="s">Market cap</v>
+      <v t="s">Instrument type</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">_Display</v>
+    </a>
+    <a count="37">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%EntitySubDomainId</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
+      <v t="s">Exchange</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
+      <v t="s">Expense ratio</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
       <v t="s">Instrument type</v>
       <v t="s">_Flags</v>
       <v t="s">UniqueName</v>
@@ -5111,7 +5433,7 @@
       <v t="s">_Display</v>
     </a>
   </spbArrays>
-  <spbData count="21">
+  <spbData count="24">
     <spb s="0">
       <v>0</v>
     </spb>
@@ -5151,13 +5473,6 @@
       <v>from previous close</v>
       <v>GMT</v>
     </spb>
-    <spb s="4">
-      <v>Delayed 15 minutes</v>
-      <v>from previous close</v>
-      <v>Source: Nasdaq</v>
-      <v>from previous close</v>
-      <v>GMT</v>
-    </spb>
     <spb s="0">
       <v>1</v>
     </spb>
@@ -5179,6 +5494,13 @@
       <v>8</v>
       <v>9</v>
       <v>9</v>
+    </spb>
+    <spb s="4">
+      <v>Delayed 15 minutes</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq</v>
+      <v>from previous close</v>
+      <v>GMT</v>
     </spb>
     <spb s="0">
       <v>2</v>
@@ -5207,15 +5529,52 @@
       <v>3</v>
     </spb>
     <spb s="7">
+      <v>1</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>5</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+      <v>1</v>
+      <v>4</v>
+      <v>7</v>
+      <v>8</v>
+      <v>9</v>
+      <v>9</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+    </spb>
+    <spb s="8">
+      <v>at close</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq</v>
+      <v>from previous close</v>
+      <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
+    </spb>
+    <spb s="0">
+      <v>4</v>
+    </spb>
+    <spb s="9">
       <v>0</v>
       <v>0</v>
     </spb>
-    <spb s="8">
-      <v>11</v>
+    <spb s="10">
+      <v>14</v>
       <v>1</v>
       <v>1</v>
     </spb>
-    <spb s="9">
+    <spb s="11">
       <v>1</v>
       <v>2</v>
       <v>2</v>
@@ -5240,14 +5599,14 @@
       <v>9</v>
       <v>4</v>
     </spb>
-    <spb s="10">
+    <spb s="12">
       <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
     </spb>
-    <spb s="9">
+    <spb s="11">
       <v>1</v>
       <v>2</v>
       <v>2</v>
@@ -5273,13 +5632,13 @@
       <v>4</v>
     </spb>
     <spb s="0">
-      <v>4</v>
+      <v>5</v>
     </spb>
-    <spb s="11">
+    <spb s="13">
       <v>1</v>
       <v>1</v>
     </spb>
-    <spb s="12">
+    <spb s="14">
       <v>1</v>
       <v>2</v>
       <v>2</v>
@@ -5304,9 +5663,9 @@
       <v>4</v>
     </spb>
     <spb s="0">
-      <v>5</v>
+      <v>6</v>
     </spb>
-    <spb s="13">
+    <spb s="15">
       <v>1</v>
       <v>1</v>
       <v>3</v>
@@ -5329,7 +5688,7 @@
 </file>
 
 <file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="14">
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="16">
   <s>
     <k n="^Order" t="spba"/>
   </s>
@@ -5407,6 +5766,40 @@
     <k n="Last trade time" t="i"/>
     <k n="%EntityServiceId" t="i"/>
     <k n="%EntitySubDomainId" t="i"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Expense ratio" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="_DisplayString" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="%EntityServiceId" t="i"/>
+    <k n="%EntitySubDomainId" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Exchange" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
   <s>
     <k n="ShowInDotNotation" t="b"/>
@@ -5558,43 +5951,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{69112644-6D4F-4AA0-8CCC-1CEE1E0148D7}" name="Table1" displayName="Table1" ref="A1:M33" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
-  <autoFilter ref="A1:M33" xr:uid="{95189E96-064D-425D-BE39-47B18B49F5F0}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M33">
-    <sortCondition descending="1" ref="M1:M33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{69112644-6D4F-4AA0-8CCC-1CEE1E0148D7}" name="Table1" displayName="Table1" ref="A1:M37" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+  <autoFilter ref="A1:M37" xr:uid="{95189E96-064D-425D-BE39-47B18B49F5F0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M37">
+    <sortCondition descending="1" ref="M1:M37"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{BB2FF6EB-53FD-4E78-BD0B-C24026A8DB98}" name="Funds" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{B45FB7AC-F148-421D-9B37-4E7E7D8C8E6A}" name="Ticker" dataDxfId="31">
+    <tableColumn id="1" xr3:uid="{BB2FF6EB-53FD-4E78-BD0B-C24026A8DB98}" name="Funds" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{B45FB7AC-F148-421D-9B37-4E7E7D8C8E6A}" name="Ticker" dataDxfId="30">
       <calculatedColumnFormula array="1">_FV(A2,"Ticker symbol",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0E04398C-EA9A-4618-BD02-DA8ABAA2CF7C}" name="Account" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{84FCDA56-42CA-4155-A371-09849AF21EE5}" name="Bucket" dataDxfId="29"/>
-    <tableColumn id="14" xr3:uid="{4B646908-1DAD-4E96-87A0-816CCAEC36A5}" name="Expense Ratio" dataDxfId="28">
+    <tableColumn id="3" xr3:uid="{0E04398C-EA9A-4618-BD02-DA8ABAA2CF7C}" name="Account" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{84FCDA56-42CA-4155-A371-09849AF21EE5}" name="Bucket" dataDxfId="28"/>
+    <tableColumn id="14" xr3:uid="{4B646908-1DAD-4E96-87A0-816CCAEC36A5}" name="Expense Ratio" dataDxfId="27">
       <calculatedColumnFormula array="1">_FV(A2,"Expense ratio",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{315E67EE-D83C-47DE-877C-398E379B6F15}" name="Open" dataDxfId="27">
+    <tableColumn id="5" xr3:uid="{315E67EE-D83C-47DE-877C-398E379B6F15}" name="Open" dataDxfId="26" dataCellStyle="Currency">
       <calculatedColumnFormula array="1">_FV(A2,"Open")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{94216B5A-94A5-40EA-8CFA-BB6BCBAE0B5C}" name="High" dataDxfId="26">
+    <tableColumn id="6" xr3:uid="{94216B5A-94A5-40EA-8CFA-BB6BCBAE0B5C}" name="High" dataDxfId="25" dataCellStyle="Currency">
       <calculatedColumnFormula array="1">_FV(A2,"High")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{0995BD2E-CC80-4453-962B-4B371F66AD96}" name="Low" dataDxfId="25">
+    <tableColumn id="7" xr3:uid="{0995BD2E-CC80-4453-962B-4B371F66AD96}" name="Low" dataDxfId="24" dataCellStyle="Currency">
       <calculatedColumnFormula array="1">_FV(A2,"Low")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{59B32FD1-E741-455C-AB3F-CC8305A4082D}" name="Close" dataDxfId="24">
+    <tableColumn id="8" xr3:uid="{59B32FD1-E741-455C-AB3F-CC8305A4082D}" name="Close" dataDxfId="23" dataCellStyle="Currency">
       <calculatedColumnFormula array="1">_FV(A2,"Price")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{BFFB38B1-DFB9-43B1-881D-A7371E276BF4}" name="Change (%)" dataDxfId="23">
+    <tableColumn id="9" xr3:uid="{BFFB38B1-DFB9-43B1-881D-A7371E276BF4}" name="Change (%)" dataDxfId="22">
       <calculatedColumnFormula array="1">_FV(A2,"Change (%)",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{FBDD8949-4F7E-41F5-AC1F-CA98CC4626EE}" name="52 week high" dataDxfId="22">
+    <tableColumn id="11" xr3:uid="{FBDD8949-4F7E-41F5-AC1F-CA98CC4626EE}" name="52 week high" dataDxfId="21" dataCellStyle="Currency">
       <calculatedColumnFormula array="1">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{CD345540-5848-4748-B639-D5DB23BDEE94}" name="52 week low" dataDxfId="21">
+    <tableColumn id="12" xr3:uid="{CD345540-5848-4748-B639-D5DB23BDEE94}" name="52 week low" dataDxfId="20" dataCellStyle="Currency">
       <calculatedColumnFormula array="1">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{D10DB507-EF50-48A6-9A07-64B0D17CC79B}" name="Exchange abbreviation" dataDxfId="20">
+    <tableColumn id="13" xr3:uid="{D10DB507-EF50-48A6-9A07-64B0D17CC79B}" name="Deviation from 52 Week High" dataDxfId="19" dataCellStyle="Percent">
       <calculatedColumnFormula>(K2-I2)/K2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5603,41 +5996,41 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D0CAA086-D84C-4EA4-B5F1-7030749A7F3E}" name="Table13" displayName="Table13" ref="A1:N26" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D0CAA086-D84C-4EA4-B5F1-7030749A7F3E}" name="Table13" displayName="Table13" ref="A1:N26" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:N26" xr:uid="{7148AA24-1D57-4322-B6E6-30CB6857B1C8}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{57268FAB-0DAA-4F5F-B46D-3806B1FBF806}" name="Funds" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{A08DC65A-57D6-483A-BC4A-A7473C7F025B}" name="Ticker" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{57268FAB-0DAA-4F5F-B46D-3806B1FBF806}" name="Funds" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{A08DC65A-57D6-483A-BC4A-A7473C7F025B}" name="Ticker" dataDxfId="14">
       <calculatedColumnFormula array="1">_FV(A2,"Ticker symbol",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B68D1E78-2858-40F0-938D-30A7BD84787D}" name="Account" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{15A75516-1C6A-4B58-B9D6-851E503B9FB8}" name="Bucket" dataDxfId="14"/>
-    <tableColumn id="15" xr3:uid="{47D0498E-EC1F-4FEA-A214-7DB4FEA6AF04}" name="Sector" dataDxfId="13"/>
-    <tableColumn id="14" xr3:uid="{B112A09B-C1DB-49F3-8BB2-F1FCBE93700E}" name="Industry" dataDxfId="12">
+    <tableColumn id="3" xr3:uid="{B68D1E78-2858-40F0-938D-30A7BD84787D}" name="Account" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{15A75516-1C6A-4B58-B9D6-851E503B9FB8}" name="Bucket" dataDxfId="12"/>
+    <tableColumn id="15" xr3:uid="{47D0498E-EC1F-4FEA-A214-7DB4FEA6AF04}" name="Sector" dataDxfId="11"/>
+    <tableColumn id="14" xr3:uid="{B112A09B-C1DB-49F3-8BB2-F1FCBE93700E}" name="Industry" dataDxfId="10">
       <calculatedColumnFormula array="1">_FV(A2,"Industry")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{0FA6A548-B1BE-4B6C-B4B8-163F5654ABD5}" name="Open" dataDxfId="11">
+    <tableColumn id="5" xr3:uid="{0FA6A548-B1BE-4B6C-B4B8-163F5654ABD5}" name="Open" dataDxfId="9">
       <calculatedColumnFormula array="1">_FV(A2,"Open")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{B8CB571D-5B2B-453B-82BA-5EA66AB797D7}" name="High" dataDxfId="10">
+    <tableColumn id="6" xr3:uid="{B8CB571D-5B2B-453B-82BA-5EA66AB797D7}" name="High" dataDxfId="8">
       <calculatedColumnFormula array="1">_FV(A2,"High")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F44149AE-6680-4B2A-93F2-98C9F6507E5A}" name="Low" dataDxfId="9">
+    <tableColumn id="7" xr3:uid="{F44149AE-6680-4B2A-93F2-98C9F6507E5A}" name="Low" dataDxfId="7">
       <calculatedColumnFormula array="1">_FV(A2,"Low")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{EE5B9F16-BFFA-4732-8F70-E2D37CF19600}" name="Close" dataDxfId="8">
+    <tableColumn id="8" xr3:uid="{EE5B9F16-BFFA-4732-8F70-E2D37CF19600}" name="Close" dataDxfId="6">
       <calculatedColumnFormula array="1">_FV(A2,"Price")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{2DE1F60D-5DEF-405B-808F-FEA1CD488B45}" name="Change (%)" dataDxfId="7">
+    <tableColumn id="9" xr3:uid="{2DE1F60D-5DEF-405B-808F-FEA1CD488B45}" name="Change (%)" dataDxfId="5">
       <calculatedColumnFormula array="1">_FV(A2,"Change (%)",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{AF24AD6C-48A4-4E24-9504-7E6E23ABFAFF}" name="52 week high" dataDxfId="6">
+    <tableColumn id="11" xr3:uid="{AF24AD6C-48A4-4E24-9504-7E6E23ABFAFF}" name="52 week high" dataDxfId="4">
       <calculatedColumnFormula array="1">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{C74C9A6D-67EB-491D-A6D1-55C66BF936BE}" name="52 week low" dataDxfId="5">
+    <tableColumn id="12" xr3:uid="{C74C9A6D-67EB-491D-A6D1-55C66BF936BE}" name="52 week low" dataDxfId="3">
       <calculatedColumnFormula array="1">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{79973E41-98D9-4950-8B9A-E0B263B075E3}" name="Exchange abbreviation" dataDxfId="4">
+    <tableColumn id="13" xr3:uid="{79973E41-98D9-4950-8B9A-E0B263B075E3}" name="Exchange abbreviation" dataDxfId="2">
       <calculatedColumnFormula>(L2-J2)/L2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5650,8 +6043,8 @@
   <autoFilter ref="A29:C35" xr:uid="{76A2AC23-EA1A-42A9-A4A0-BA4126640B6B}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{C5A951EA-02C9-4EEA-B580-3EE51E7FDF81}" name="Fund"/>
-    <tableColumn id="2" xr3:uid="{EDFF81EE-5847-4637-99DE-F7A607DAE56F}" name="Category" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{FE5FE4F2-8EE0-4222-A1A6-C6369FAE2A5F}" name="Notes" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{EDFF81EE-5847-4637-99DE-F7A607DAE56F}" name="Category" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{FE5FE4F2-8EE0-4222-A1A6-C6369FAE2A5F}" name="Notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5954,10 +6347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5965,55 +6358,55 @@
     <col min="1" max="1" width="41.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" style="1" customWidth="1"/>
-    <col min="6" max="9" width="11.42578125" style="1"/>
+    <col min="6" max="9" width="11.42578125" style="16"/>
     <col min="10" max="10" width="11.42578125" style="3"/>
-    <col min="11" max="11" width="16.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="15"/>
+    <col min="11" max="11" width="16.7109375" style="16" customWidth="1"/>
+    <col min="12" max="12" width="16" style="16" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" style="15" customWidth="1"/>
     <col min="14" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" s="17" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="15" t="s">
-        <v>12</v>
+      <c r="M1" s="20" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -6034,37 +6427,37 @@
         <f t="array" ref="E2">_FV(A2,"Expense ratio",TRUE)</f>
         <v>1.4000000000000002E-3</v>
       </c>
-      <c r="F2" s="2" cm="1">
+      <c r="F2" s="16" cm="1">
         <f t="array" ref="F2">_FV(A2,"Open")</f>
-        <v>36.6</v>
-      </c>
-      <c r="G2" s="2" cm="1">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="G2" s="16" cm="1">
         <f t="array" ref="G2">_FV(A2,"High")</f>
-        <v>36.979999999999997</v>
-      </c>
-      <c r="H2" s="2" cm="1">
+        <v>38.548499999999997</v>
+      </c>
+      <c r="H2" s="16" cm="1">
         <f t="array" ref="H2">_FV(A2,"Low")</f>
-        <v>36.06</v>
-      </c>
-      <c r="I2" s="2" cm="1">
+        <v>36.65</v>
+      </c>
+      <c r="I2" s="16" cm="1">
         <f t="array" ref="I2">_FV(A2,"Price")</f>
-        <v>36.104999999999997</v>
+        <v>38.43</v>
       </c>
       <c r="J2" s="3" cm="1">
         <f t="array" ref="J2">_FV(A2,"Change (%)",TRUE)</f>
-        <v>-1.5408E-2</v>
-      </c>
-      <c r="K2" s="2" cm="1">
+        <v>6.5724000000000005E-2</v>
+      </c>
+      <c r="K2" s="16" cm="1">
         <f t="array" ref="K2">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
         <v>62.0443</v>
       </c>
-      <c r="L2" s="2" cm="1">
+      <c r="L2" s="16" cm="1">
         <f t="array" ref="L2">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
         <v>22.88</v>
       </c>
       <c r="M2" s="15">
         <f>(K2-I2)/K2</f>
-        <v>0.41807708363217899</v>
+        <v>0.38060385885568859</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -6085,37 +6478,37 @@
         <f t="array" ref="E3">_FV(A3,"Expense ratio",TRUE)</f>
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F3" s="2" cm="1">
+      <c r="F3" s="16" cm="1">
         <f t="array" ref="F3">_FV(A3,"Open")</f>
-        <v>194.75</v>
-      </c>
-      <c r="G3" s="2" cm="1">
+        <v>202.8</v>
+      </c>
+      <c r="G3" s="16" cm="1">
         <f t="array" ref="G3">_FV(A3,"High")</f>
-        <v>195.56989999999999</v>
-      </c>
-      <c r="H3" s="2" cm="1">
+        <v>204.95</v>
+      </c>
+      <c r="H3" s="16" cm="1">
         <f t="array" ref="H3">_FV(A3,"Low")</f>
-        <v>191.92</v>
-      </c>
-      <c r="I3" s="2" cm="1">
+        <v>201.06829999999999</v>
+      </c>
+      <c r="I3" s="16" cm="1">
         <f t="array" ref="I3">_FV(A3,"Price")</f>
-        <v>194.02</v>
+        <v>201.96</v>
       </c>
       <c r="J3" s="3" cm="1">
         <f t="array" ref="J3">_FV(A3,"Change (%)",TRUE)</f>
-        <v>2.315E-2</v>
-      </c>
-      <c r="K3" s="2" cm="1">
+        <v>3.9049E-2</v>
+      </c>
+      <c r="K3" s="16" cm="1">
         <f t="array" ref="K3">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
         <v>273.16379999999998</v>
       </c>
-      <c r="L3" s="2" cm="1">
+      <c r="L3" s="16" cm="1">
         <f t="array" ref="L3">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
         <v>130.04</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="15">
         <f>(K3-I3)/K3</f>
-        <v>0.28973019118931564</v>
+        <v>0.26066338219046586</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -6136,37 +6529,37 @@
         <f t="array" ref="E4">_FV(A4,"Expense ratio",TRUE)</f>
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="F4" s="2" cm="1">
+      <c r="F4" s="16" cm="1">
         <f t="array" ref="F4">_FV(A4,"Open")</f>
-        <v>81.290000000000006</v>
-      </c>
-      <c r="G4" s="2" cm="1">
+        <v>81.62</v>
+      </c>
+      <c r="G4" s="16" cm="1">
         <f t="array" ref="G4">_FV(A4,"High")</f>
-        <v>81.472300000000004</v>
-      </c>
-      <c r="H4" s="2" cm="1">
+        <v>82.4</v>
+      </c>
+      <c r="H4" s="16" cm="1">
         <f t="array" ref="H4">_FV(A4,"Low")</f>
-        <v>80.824200000000005</v>
-      </c>
-      <c r="I4" s="2" cm="1">
+        <v>81.5</v>
+      </c>
+      <c r="I4" s="16" cm="1">
         <f t="array" ref="I4">_FV(A4,"Price")</f>
-        <v>81.064999999999998</v>
+        <v>82.369299999999996</v>
       </c>
       <c r="J4" s="3" cm="1">
         <f t="array" ref="J4">_FV(A4,"Change (%)",TRUE)</f>
-        <v>-6.1909999999999995E-3</v>
-      </c>
-      <c r="K4" s="2" cm="1">
+        <v>1.7156000000000001E-2</v>
+      </c>
+      <c r="K4" s="16" cm="1">
         <f t="array" ref="K4">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
         <v>94.86</v>
       </c>
-      <c r="L4" s="2" cm="1">
+      <c r="L4" s="16" cm="1">
         <f t="array" ref="L4">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
         <v>60.07</v>
       </c>
       <c r="M4" s="15">
         <f>(K4-I4)/K4</f>
-        <v>0.1454248366013072</v>
+        <v>0.13167510014758596</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -6187,37 +6580,37 @@
         <f t="array" ref="E5">_FV(A5,"Expense ratio",TRUE)</f>
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="16">
         <f t="array" ref="F5">_FV(A5,"Open")</f>
-        <v>21.3</v>
-      </c>
-      <c r="G5" s="2">
+        <v>21.48</v>
+      </c>
+      <c r="G5" s="16">
         <f t="array" ref="G5">_FV(A5,"High")</f>
-        <v>21.484999999999999</v>
-      </c>
-      <c r="H5" s="2">
+        <v>21.49</v>
+      </c>
+      <c r="H5" s="16">
         <f t="array" ref="H5">_FV(A5,"Low")</f>
-        <v>21.21</v>
-      </c>
-      <c r="I5" s="2">
+        <v>21.33</v>
+      </c>
+      <c r="I5" s="16">
         <f t="array" ref="I5">_FV(A5,"Price")</f>
-        <v>21.460100000000001</v>
+        <v>21.369900000000001</v>
       </c>
       <c r="J5" s="3">
         <f t="array" ref="J5">_FV(A5,"Change (%)",TRUE)</f>
-        <v>-4.6109999999999999E-4</v>
-      </c>
-      <c r="K5" s="2">
+        <v>-5.1259999999999995E-3</v>
+      </c>
+      <c r="K5" s="16">
         <f t="array" ref="K5">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
         <v>24.18</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="16">
         <f t="array" ref="L5">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
         <v>17.22</v>
       </c>
       <c r="M5" s="15">
         <f>(K5-I5)/K5</f>
-        <v>0.11248552522746068</v>
+        <v>0.11621588089330019</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -6238,148 +6631,148 @@
         <f t="array" ref="E6">_FV(A6,"Expense ratio",TRUE)</f>
         <v>7.000000000000001E-4</v>
       </c>
-      <c r="F6" s="2" cm="1">
+      <c r="F6" s="16" cm="1">
         <f t="array" ref="F6">_FV(A6,"Open")</f>
-        <v>53.16</v>
-      </c>
-      <c r="G6" s="2" cm="1">
+        <v>53.45</v>
+      </c>
+      <c r="G6" s="16" cm="1">
         <f t="array" ref="G6">_FV(A6,"High")</f>
-        <v>53.29</v>
-      </c>
-      <c r="H6" s="2" cm="1">
+        <v>53.97</v>
+      </c>
+      <c r="H6" s="16" cm="1">
         <f t="array" ref="H6">_FV(A6,"Low")</f>
-        <v>52.766500000000001</v>
-      </c>
-      <c r="I6" s="2" cm="1">
+        <v>53.34</v>
+      </c>
+      <c r="I6" s="16" cm="1">
         <f t="array" ref="I6">_FV(A6,"Price")</f>
-        <v>52.97</v>
+        <v>53.93</v>
       </c>
       <c r="J6" s="3" cm="1">
         <f t="array" ref="J6">_FV(A6,"Change (%)",TRUE)</f>
-        <v>-7.6810000000000003E-3</v>
-      </c>
-      <c r="K6" s="2" cm="1">
+        <v>1.976E-2</v>
+      </c>
+      <c r="K6" s="16" cm="1">
         <f t="array" ref="K6">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
         <v>59.56</v>
       </c>
-      <c r="L6" s="2" cm="1">
+      <c r="L6" s="16" cm="1">
         <f t="array" ref="L6">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
         <v>38.825000000000003</v>
       </c>
       <c r="M6" s="15">
         <f>(K6-I6)/K6</f>
-        <v>0.11064472800537278</v>
+        <v>9.4526527871054436E-2</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-      <c r="B7" s="4" t="str" cm="1">
+      <c r="B7" s="1" t="str" cm="1">
         <f t="array" ref="B7">_FV(A7,"Ticker symbol",TRUE)</f>
-        <v>VTI</v>
+        <v>WCLD</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="3" cm="1">
+        <v>19</v>
+      </c>
+      <c r="E7" s="1" t="e" cm="1" vm="7">
         <f t="array" ref="E7">_FV(A7,"Expense ratio",TRUE)</f>
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="F7" s="2" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F7" s="16" cm="1">
         <f t="array" ref="F7">_FV(A7,"Open")</f>
-        <v>163.07499999999999</v>
-      </c>
-      <c r="G7" s="2" cm="1">
+        <v>41.65</v>
+      </c>
+      <c r="G7" s="16" cm="1">
         <f t="array" ref="G7">_FV(A7,"High")</f>
-        <v>164.82</v>
-      </c>
-      <c r="H7" s="2" cm="1">
+        <v>41.76</v>
+      </c>
+      <c r="H7" s="16" cm="1">
         <f t="array" ref="H7">_FV(A7,"Low")</f>
-        <v>162.6</v>
-      </c>
-      <c r="I7" s="2" cm="1">
+        <v>40.380099999999999</v>
+      </c>
+      <c r="I7" s="16" cm="1">
         <f t="array" ref="I7">_FV(A7,"Price")</f>
-        <v>164.76679999999999</v>
+        <v>40.564999999999998</v>
       </c>
       <c r="J7" s="3" cm="1">
         <f t="array" ref="J7">_FV(A7,"Change (%)",TRUE)</f>
-        <v>1.0158E-2</v>
-      </c>
-      <c r="K7" s="2" cm="1">
+        <v>-1.4695E-2</v>
+      </c>
+      <c r="K7" s="16" cm="1">
         <f t="array" ref="K7">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>172.55670000000001</v>
-      </c>
-      <c r="L7" s="2" cm="1">
+        <v>42.77</v>
+      </c>
+      <c r="L7" s="16" cm="1">
         <f t="array" ref="L7">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>109.49</v>
-      </c>
-      <c r="M7" s="3">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="M7" s="15">
         <f>(K7-I7)/K7</f>
-        <v>4.5144001942549992E-2</v>
+        <v>5.1554828150572954E-2</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="e" vm="7">
+      <c r="A8" s="1" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
-      <c r="B8" s="1" t="str" cm="1">
+      <c r="B8" s="4" t="str">
         <f t="array" ref="B8">_FV(A8,"Ticker symbol",TRUE)</f>
-        <v>IVV</v>
+        <v>XHB</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="3" cm="1">
+        <v>76</v>
+      </c>
+      <c r="E8" s="3">
         <f t="array" ref="E8">_FV(A8,"Expense ratio",TRUE)</f>
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="F8" s="2" cm="1">
+        <v>3.4999999999999996E-3</v>
+      </c>
+      <c r="F8" s="16">
         <f t="array" ref="F8">_FV(A8,"Open")</f>
-        <v>322.70999999999998</v>
-      </c>
-      <c r="G8" s="2" cm="1">
+        <v>47.2</v>
+      </c>
+      <c r="G8" s="16">
         <f t="array" ref="G8">_FV(A8,"High")</f>
-        <v>326.36</v>
-      </c>
-      <c r="H8" s="2" cm="1">
+        <v>47.42</v>
+      </c>
+      <c r="H8" s="16">
         <f t="array" ref="H8">_FV(A8,"Low")</f>
-        <v>321.90100000000001</v>
-      </c>
-      <c r="I8" s="2" cm="1">
+        <v>46.95</v>
+      </c>
+      <c r="I8" s="16">
         <f t="array" ref="I8">_FV(A8,"Price")</f>
-        <v>326.24610000000001</v>
-      </c>
-      <c r="J8" s="3" cm="1">
+        <v>47.32</v>
+      </c>
+      <c r="J8" s="3">
         <f t="array" ref="J8">_FV(A8,"Change (%)",TRUE)</f>
-        <v>1.0238000000000001E-2</v>
-      </c>
-      <c r="K8" s="2" cm="1">
+        <v>5.3109999999999997E-3</v>
+      </c>
+      <c r="K8" s="16">
         <f t="array" ref="K8">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>340.63119999999998</v>
-      </c>
-      <c r="L8" s="2" cm="1">
+        <v>49.344999999999999</v>
+      </c>
+      <c r="L8" s="16">
         <f t="array" ref="L8">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>220.2756</v>
-      </c>
-      <c r="M8" s="3">
+        <v>23.95</v>
+      </c>
+      <c r="M8" s="15">
         <f>(K8-I8)/K8</f>
-        <v>4.2230717561984828E-2</v>
+        <v>4.1037592461242244E-2</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="e" vm="8">
+      <c r="A9" s="1" t="e" vm="9">
         <v>#VALUE!</v>
       </c>
-      <c r="B9" s="1" t="str" cm="1">
+      <c r="B9" s="4" t="str" cm="1">
         <f t="array" ref="B9">_FV(A9,"Ticker symbol",TRUE)</f>
-        <v>VOO</v>
+        <v>VTI</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>13</v>
@@ -6391,241 +6784,241 @@
         <f t="array" ref="E9">_FV(A9,"Expense ratio",TRUE)</f>
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F9" s="2" cm="1">
+      <c r="F9" s="16" cm="1">
         <f t="array" ref="F9">_FV(A9,"Open")</f>
-        <v>295.3</v>
-      </c>
-      <c r="G9" s="2" cm="1">
+        <v>165.625</v>
+      </c>
+      <c r="G9" s="16" cm="1">
         <f t="array" ref="G9">_FV(A9,"High")</f>
-        <v>298.68</v>
-      </c>
-      <c r="H9" s="2" cm="1">
+        <v>165.9</v>
+      </c>
+      <c r="H9" s="16" cm="1">
         <f t="array" ref="H9">_FV(A9,"Low")</f>
-        <v>294.62</v>
-      </c>
-      <c r="I9" s="2" cm="1">
+        <v>165.05199999999999</v>
+      </c>
+      <c r="I9" s="16" cm="1">
         <f t="array" ref="I9">_FV(A9,"Price")</f>
-        <v>298.48</v>
+        <v>165.48220000000001</v>
       </c>
       <c r="J9" s="3" cm="1">
         <f t="array" ref="J9">_FV(A9,"Change (%)",TRUE)</f>
-        <v>9.9480000000000002E-3</v>
-      </c>
-      <c r="K9" s="2" cm="1">
+        <v>6.2770000000000005E-3</v>
+      </c>
+      <c r="K9" s="16" cm="1">
         <f t="array" ref="K9">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>311.58999999999997</v>
-      </c>
-      <c r="L9" s="2" cm="1">
+        <v>172.55670000000001</v>
+      </c>
+      <c r="L9" s="16" cm="1">
         <f t="array" ref="L9">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>200.55</v>
-      </c>
-      <c r="M9" s="3">
+        <v>109.49</v>
+      </c>
+      <c r="M9" s="15">
         <f>(K9-I9)/K9</f>
-        <v>4.2074521005166912E-2</v>
+        <v>4.0998118299666139E-2</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="e" vm="9">
+      <c r="A10" s="1" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
       <c r="B10" s="1" t="str" cm="1">
         <f t="array" ref="B10">_FV(A10,"Ticker symbol",TRUE)</f>
-        <v>WCLD</v>
+        <v>IVV</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="1" t="e" cm="1" vm="10">
+        <v>18</v>
+      </c>
+      <c r="E10" s="3" cm="1">
         <f t="array" ref="E10">_FV(A10,"Expense ratio",TRUE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F10" s="2" cm="1">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F10" s="16" cm="1">
         <f t="array" ref="F10">_FV(A10,"Open")</f>
-        <v>39.270000000000003</v>
-      </c>
-      <c r="G10" s="2" cm="1">
+        <v>327.71</v>
+      </c>
+      <c r="G10" s="16" cm="1">
         <f t="array" ref="G10">_FV(A10,"High")</f>
-        <v>41.17</v>
-      </c>
-      <c r="H10" s="2" cm="1">
+        <v>328.22</v>
+      </c>
+      <c r="H10" s="16" cm="1">
         <f t="array" ref="H10">_FV(A10,"Low")</f>
-        <v>39.26</v>
-      </c>
-      <c r="I10" s="2" cm="1">
+        <v>326.76</v>
+      </c>
+      <c r="I10" s="16" cm="1">
         <f t="array" ref="I10">_FV(A10,"Price")</f>
-        <v>41.15</v>
+        <v>327.58</v>
       </c>
       <c r="J10" s="3" cm="1">
         <f t="array" ref="J10">_FV(A10,"Change (%)",TRUE)</f>
-        <v>5.1623000000000002E-2</v>
-      </c>
-      <c r="K10" s="2" cm="1">
+        <v>6.2360000000000002E-3</v>
+      </c>
+      <c r="K10" s="16" cm="1">
         <f t="array" ref="K10">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>42.77</v>
-      </c>
-      <c r="L10" s="2" cm="1">
+        <v>340.63119999999998</v>
+      </c>
+      <c r="L10" s="16" cm="1">
         <f t="array" ref="L10">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>18.989999999999998</v>
-      </c>
-      <c r="M10" s="3">
+        <v>220.2756</v>
+      </c>
+      <c r="M10" s="15">
         <f>(K10-I10)/K10</f>
-        <v>3.7877016600420962E-2</v>
+        <v>3.8314752142493101E-2</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="e" vm="11">
         <v>#VALUE!</v>
       </c>
-      <c r="B11" s="4" t="str" cm="1">
+      <c r="B11" s="1" t="str" cm="1">
         <f t="array" ref="B11">_FV(A11,"Ticker symbol",TRUE)</f>
-        <v>ARKW</v>
+        <v>VOO</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E11" s="3" cm="1">
         <f t="array" ref="E11">_FV(A11,"Expense ratio",TRUE)</f>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="F11" s="2" cm="1">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F11" s="16" cm="1">
         <f t="array" ref="F11">_FV(A11,"Open")</f>
-        <v>94.85</v>
-      </c>
-      <c r="G11" s="2" cm="1">
+        <v>299.87</v>
+      </c>
+      <c r="G11" s="16" cm="1">
         <f t="array" ref="G11">_FV(A11,"High")</f>
-        <v>99.11</v>
-      </c>
-      <c r="H11" s="2" cm="1">
+        <v>300.35000000000002</v>
+      </c>
+      <c r="H11" s="16" cm="1">
         <f t="array" ref="H11">_FV(A11,"Low")</f>
-        <v>94.81</v>
-      </c>
-      <c r="I11" s="2" cm="1">
+        <v>298.99200000000002</v>
+      </c>
+      <c r="I11" s="16" cm="1">
         <f t="array" ref="I11">_FV(A11,"Price")</f>
-        <v>99.03</v>
+        <v>299.745</v>
       </c>
       <c r="J11" s="3" cm="1">
         <f t="array" ref="J11">_FV(A11,"Change (%)",TRUE)</f>
-        <v>4.9490999999999993E-2</v>
-      </c>
-      <c r="K11" s="2" cm="1">
+        <v>6.1260000000000004E-3</v>
+      </c>
+      <c r="K11" s="16" cm="1">
         <f t="array" ref="K11">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>100.91</v>
-      </c>
-      <c r="L11" s="2" cm="1">
+        <v>311.58999999999997</v>
+      </c>
+      <c r="L11" s="16" cm="1">
         <f t="array" ref="L11">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>40.494999999999997</v>
-      </c>
-      <c r="M11" s="3">
+        <v>200.55</v>
+      </c>
+      <c r="M11" s="15">
         <f>(K11-I11)/K11</f>
-        <v>1.8630462788623483E-2</v>
+        <v>3.8014698802913992E-2</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="e" vm="12">
         <v>#VALUE!</v>
       </c>
-      <c r="B12" s="4" t="str" cm="1">
+      <c r="B12" s="1" t="str" cm="1">
         <f t="array" ref="B12">_FV(A12,"Ticker symbol",TRUE)</f>
-        <v>XITK</v>
+        <v>CLOU</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E12" s="3" cm="1">
         <f t="array" ref="E12">_FV(A12,"Expense ratio",TRUE)</f>
-        <v>4.5000000000000005E-3</v>
-      </c>
-      <c r="F12" s="2" cm="1">
+        <v>6.8000000000000005E-3</v>
+      </c>
+      <c r="F12" s="16" cm="1">
         <f t="array" ref="F12">_FV(A12,"Open")</f>
-        <v>152</v>
-      </c>
-      <c r="G12" s="2" cm="1">
+        <v>23.06</v>
+      </c>
+      <c r="G12" s="16" cm="1">
         <f t="array" ref="G12">_FV(A12,"High")</f>
-        <v>157.07660000000001</v>
-      </c>
-      <c r="H12" s="2" cm="1">
+        <v>23.09</v>
+      </c>
+      <c r="H12" s="16" cm="1">
         <f t="array" ref="H12">_FV(A12,"Low")</f>
-        <v>152</v>
-      </c>
-      <c r="I12" s="2" cm="1">
+        <v>22.41</v>
+      </c>
+      <c r="I12" s="16" cm="1">
         <f t="array" ref="I12">_FV(A12,"Price")</f>
-        <v>157.07660000000001</v>
+        <v>22.5</v>
       </c>
       <c r="J12" s="3" cm="1">
         <f t="array" ref="J12">_FV(A12,"Change (%)",TRUE)</f>
-        <v>3.9073000000000004E-2</v>
-      </c>
-      <c r="K12" s="2" cm="1">
+        <v>-1.4886E-2</v>
+      </c>
+      <c r="K12" s="16" cm="1">
         <f t="array" ref="K12">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>159.9</v>
-      </c>
-      <c r="L12" s="2" cm="1">
+        <v>23.19</v>
+      </c>
+      <c r="L12" s="16" cm="1">
         <f t="array" ref="L12">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>81.5</v>
-      </c>
-      <c r="M12" s="3">
+        <v>12.36</v>
+      </c>
+      <c r="M12" s="15">
         <f>(K12-I12)/K12</f>
-        <v>1.7657285803627219E-2</v>
+        <v>2.975420439844766E-2</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="e" vm="13">
         <v>#VALUE!</v>
       </c>
-      <c r="B13" s="1" t="str" cm="1">
+      <c r="B13" s="4" t="str" cm="1">
         <f t="array" ref="B13">_FV(A13,"Ticker symbol",TRUE)</f>
-        <v>CLOU</v>
+        <v>ARKW</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E13" s="3" cm="1">
         <f t="array" ref="E13">_FV(A13,"Expense ratio",TRUE)</f>
-        <v>6.8000000000000005E-3</v>
-      </c>
-      <c r="F13" s="2" cm="1">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="F13" s="16" cm="1">
         <f t="array" ref="F13">_FV(A13,"Open")</f>
-        <v>21.86</v>
-      </c>
-      <c r="G13" s="2" cm="1">
+        <v>100.13</v>
+      </c>
+      <c r="G13" s="16" cm="1">
         <f t="array" ref="G13">_FV(A13,"High")</f>
-        <v>22.82</v>
-      </c>
-      <c r="H13" s="2" cm="1">
+        <v>100.315</v>
+      </c>
+      <c r="H13" s="16" cm="1">
         <f t="array" ref="H13">_FV(A13,"Low")</f>
-        <v>21.85</v>
-      </c>
-      <c r="I13" s="2" cm="1">
+        <v>98.3001</v>
+      </c>
+      <c r="I13" s="16" cm="1">
         <f t="array" ref="I13">_FV(A13,"Price")</f>
-        <v>22.81</v>
+        <v>98.65</v>
       </c>
       <c r="J13" s="3" cm="1">
         <f t="array" ref="J13">_FV(A13,"Change (%)",TRUE)</f>
-        <v>4.8253999999999998E-2</v>
-      </c>
-      <c r="K13" s="2" cm="1">
+        <v>-2.8299999999999996E-3</v>
+      </c>
+      <c r="K13" s="16" cm="1">
         <f t="array" ref="K13">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>23.19</v>
-      </c>
-      <c r="L13" s="2" cm="1">
+        <v>100.91</v>
+      </c>
+      <c r="L13" s="16" cm="1">
         <f t="array" ref="L13">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>12.36</v>
-      </c>
-      <c r="M13" s="3">
+        <v>40.494999999999997</v>
+      </c>
+      <c r="M13" s="15">
         <f>(K13-I13)/K13</f>
-        <v>1.6386373436826328E-2</v>
+        <v>2.2396194628877129E-2</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -6634,49 +7027,49 @@
       </c>
       <c r="B14" s="1" t="str" cm="1">
         <f t="array" ref="B14">_FV(A14,"Ticker symbol",TRUE)</f>
-        <v>SKYY</v>
+        <v>FBT</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E14" s="3" cm="1">
         <f t="array" ref="E14">_FV(A14,"Expense ratio",TRUE)</f>
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="F14" s="2" cm="1">
+        <v>5.6000000000000008E-3</v>
+      </c>
+      <c r="F14" s="16" cm="1">
         <f t="array" ref="F14">_FV(A14,"Open")</f>
-        <v>75.23</v>
-      </c>
-      <c r="G14" s="2" cm="1">
+        <v>178.27</v>
+      </c>
+      <c r="G14" s="16" cm="1">
         <f t="array" ref="G14">_FV(A14,"High")</f>
-        <v>77.978099999999998</v>
-      </c>
-      <c r="H14" s="2" cm="1">
+        <v>179.88</v>
+      </c>
+      <c r="H14" s="16" cm="1">
         <f t="array" ref="H14">_FV(A14,"Low")</f>
-        <v>75.090999999999994</v>
-      </c>
-      <c r="I14" s="2" cm="1">
+        <v>175.91</v>
+      </c>
+      <c r="I14" s="16" cm="1">
         <f t="array" ref="I14">_FV(A14,"Price")</f>
-        <v>77.978099999999998</v>
+        <v>176.785</v>
       </c>
       <c r="J14" s="3" cm="1">
         <f t="array" ref="J14">_FV(A14,"Change (%)",TRUE)</f>
-        <v>4.3185000000000001E-2</v>
-      </c>
-      <c r="K14" s="2" cm="1">
+        <v>-1.8405999999999999E-2</v>
+      </c>
+      <c r="K14" s="16" cm="1">
         <f t="array" ref="K14">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>78.92</v>
-      </c>
-      <c r="L14" s="2" cm="1">
+        <v>180.637</v>
+      </c>
+      <c r="L14" s="16" cm="1">
         <f t="array" ref="L14">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>45</v>
-      </c>
-      <c r="M14" s="3">
+        <v>108.08</v>
+      </c>
+      <c r="M14" s="15">
         <f>(K14-I14)/K14</f>
-        <v>1.1934870755195184E-2</v>
+        <v>2.1324534840591925E-2</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -6685,7 +7078,7 @@
       </c>
       <c r="B15" s="4" t="str" cm="1">
         <f t="array" ref="B15">_FV(A15,"Ticker symbol",TRUE)</f>
-        <v>GDAT</v>
+        <v>XITK</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>13</v>
@@ -6695,39 +7088,39 @@
       </c>
       <c r="E15" s="3" cm="1">
         <f t="array" ref="E15">_FV(A15,"Expense ratio",TRUE)</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F15" s="2" cm="1">
+        <v>4.5000000000000005E-3</v>
+      </c>
+      <c r="F15" s="16" cm="1">
         <f t="array" ref="F15">_FV(A15,"Open")</f>
-        <v>65.599999999999994</v>
-      </c>
-      <c r="G15" s="2" cm="1">
+        <v>158.44999999999999</v>
+      </c>
+      <c r="G15" s="16" cm="1">
         <f t="array" ref="G15">_FV(A15,"High")</f>
-        <v>66.849999999999994</v>
-      </c>
-      <c r="H15" s="2" cm="1">
+        <v>158.44999999999999</v>
+      </c>
+      <c r="H15" s="16" cm="1">
         <f t="array" ref="H15">_FV(A15,"Low")</f>
-        <v>65.599999999999994</v>
-      </c>
-      <c r="I15" s="2" cm="1">
+        <v>156.11500000000001</v>
+      </c>
+      <c r="I15" s="16" cm="1">
         <f t="array" ref="I15">_FV(A15,"Price")</f>
-        <v>66.849999999999994</v>
+        <v>156.5027</v>
       </c>
       <c r="J15" s="3" cm="1">
         <f t="array" ref="J15">_FV(A15,"Change (%)",TRUE)</f>
-        <v>2.0038E-2</v>
-      </c>
-      <c r="K15" s="2" cm="1">
+        <v>-5.764E-3</v>
+      </c>
+      <c r="K15" s="16" cm="1">
         <f t="array" ref="K15">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>67.260000000000005</v>
-      </c>
-      <c r="L15" s="2" cm="1">
+        <v>159.9</v>
+      </c>
+      <c r="L15" s="16" cm="1">
         <f t="array" ref="L15">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>41.99</v>
-      </c>
-      <c r="M15" s="3">
+        <v>81.5</v>
+      </c>
+      <c r="M15" s="15">
         <f>(K15-I15)/K15</f>
-        <v>6.0957478441868978E-3</v>
+        <v>2.1246404002501572E-2</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -6736,49 +7129,49 @@
       </c>
       <c r="B16" s="1" t="str" cm="1">
         <f t="array" ref="B16">_FV(A16,"Ticker symbol",TRUE)</f>
-        <v>ARKK</v>
+        <v>ARKG</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" s="3" cm="1">
         <f t="array" ref="E16">_FV(A16,"Expense ratio",TRUE)</f>
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="F16" s="2" cm="1">
+      <c r="F16" s="16" cm="1">
         <f t="array" ref="F16">_FV(A16,"Open")</f>
-        <v>81.23</v>
-      </c>
-      <c r="G16" s="2" cm="1">
+        <v>59.4</v>
+      </c>
+      <c r="G16" s="16" cm="1">
         <f t="array" ref="G16">_FV(A16,"High")</f>
-        <v>84.245000000000005</v>
-      </c>
-      <c r="H16" s="2" cm="1">
+        <v>59.414999999999999</v>
+      </c>
+      <c r="H16" s="16" cm="1">
         <f t="array" ref="H16">_FV(A16,"Low")</f>
-        <v>81.12</v>
-      </c>
-      <c r="I16" s="2" cm="1">
+        <v>57.1</v>
+      </c>
+      <c r="I16" s="16" cm="1">
         <f t="array" ref="I16">_FV(A16,"Price")</f>
-        <v>84.21</v>
+        <v>57.510100000000001</v>
       </c>
       <c r="J16" s="3" cm="1">
         <f t="array" ref="J16">_FV(A16,"Change (%)",TRUE)</f>
-        <v>4.3882000000000004E-2</v>
-      </c>
-      <c r="K16" s="2" cm="1">
+        <v>-1.7760999999999999E-2</v>
+      </c>
+      <c r="K16" s="16" cm="1">
         <f t="array" ref="K16">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>84.544399999999996</v>
-      </c>
-      <c r="L16" s="2" cm="1">
+        <v>58.74</v>
+      </c>
+      <c r="L16" s="16" cm="1">
         <f t="array" ref="L16">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>33</v>
-      </c>
-      <c r="M16" s="3">
+        <v>24</v>
+      </c>
+      <c r="M16" s="15">
         <f>(K16-I16)/K16</f>
-        <v>3.9553181523554757E-3</v>
+        <v>2.0938032005447745E-2</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -6787,49 +7180,49 @@
       </c>
       <c r="B17" s="1" t="str" cm="1">
         <f t="array" ref="B17">_FV(A17,"Ticker symbol",TRUE)</f>
-        <v>XLV</v>
+        <v>SKYY</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E17" s="3" cm="1">
         <f t="array" ref="E17">_FV(A17,"Expense ratio",TRUE)</f>
-        <v>1.4000000000000002E-3</v>
-      </c>
-      <c r="F17" s="2" cm="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F17" s="16" cm="1">
         <f t="array" ref="F17">_FV(A17,"Open")</f>
-        <v>106.2</v>
-      </c>
-      <c r="G17" s="2" cm="1">
+        <v>78.56</v>
+      </c>
+      <c r="G17" s="16" cm="1">
         <f t="array" ref="G17">_FV(A17,"High")</f>
-        <v>106.49</v>
-      </c>
-      <c r="H17" s="2" cm="1">
+        <v>78.709999999999994</v>
+      </c>
+      <c r="H17" s="16" cm="1">
         <f t="array" ref="H17">_FV(A17,"Low")</f>
-        <v>105.53</v>
-      </c>
-      <c r="I17" s="2" cm="1">
+        <v>77.040000000000006</v>
+      </c>
+      <c r="I17" s="16" cm="1">
         <f t="array" ref="I17">_FV(A17,"Price")</f>
-        <v>106.075</v>
+        <v>77.333500000000001</v>
       </c>
       <c r="J17" s="3" cm="1">
         <f t="array" ref="J17">_FV(A17,"Change (%)",TRUE)</f>
-        <v>1.7469999999999999E-3</v>
-      </c>
-      <c r="K17" s="2" cm="1">
+        <v>-7.0169999999999998E-3</v>
+      </c>
+      <c r="K17" s="16" cm="1">
         <f t="array" ref="K17">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>106.25</v>
-      </c>
-      <c r="L17" s="2" cm="1">
+        <v>78.92</v>
+      </c>
+      <c r="L17" s="16" cm="1">
         <f t="array" ref="L17">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>73.540000000000006</v>
-      </c>
-      <c r="M17" s="3">
+        <v>45</v>
+      </c>
+      <c r="M17" s="15">
         <f>(K17-I17)/K17</f>
-        <v>1.6470588235293849E-3</v>
+        <v>2.0102635580334528E-2</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -6838,100 +7231,100 @@
       </c>
       <c r="B18" s="1" t="str" cm="1">
         <f t="array" ref="B18">_FV(A18,"Ticker symbol",TRUE)</f>
-        <v>SMH</v>
+        <v>ARKK</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E18" s="3" cm="1">
         <f t="array" ref="E18">_FV(A18,"Expense ratio",TRUE)</f>
-        <v>3.4999999999999996E-3</v>
-      </c>
-      <c r="F18" s="2" cm="1">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="F18" s="16" cm="1">
         <f t="array" ref="F18">_FV(A18,"Open")</f>
-        <v>160.44999999999999</v>
-      </c>
-      <c r="G18" s="2" cm="1">
+        <v>84.93</v>
+      </c>
+      <c r="G18" s="16" cm="1">
         <f t="array" ref="G18">_FV(A18,"High")</f>
-        <v>163.84</v>
-      </c>
-      <c r="H18" s="2" cm="1">
+        <v>84.95</v>
+      </c>
+      <c r="H18" s="16" cm="1">
         <f t="array" ref="H18">_FV(A18,"Low")</f>
-        <v>159.32</v>
-      </c>
-      <c r="I18" s="2" cm="1">
+        <v>82.7911</v>
+      </c>
+      <c r="I18" s="16" cm="1">
         <f t="array" ref="I18">_FV(A18,"Price")</f>
-        <v>163.82</v>
+        <v>83.0321</v>
       </c>
       <c r="J18" s="3" cm="1">
         <f t="array" ref="J18">_FV(A18,"Change (%)",TRUE)</f>
-        <v>2.2532999999999997E-2</v>
-      </c>
-      <c r="K18" s="2" cm="1">
+        <v>-1.1875999999999999E-2</v>
+      </c>
+      <c r="K18" s="16" cm="1">
         <f t="array" ref="K18">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>164.0539</v>
-      </c>
-      <c r="L18" s="2" cm="1">
+        <v>84.544399999999996</v>
+      </c>
+      <c r="L18" s="16" cm="1">
         <f t="array" ref="L18">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>96</v>
-      </c>
-      <c r="M18" s="3">
+        <v>33</v>
+      </c>
+      <c r="M18" s="15">
         <f>(K18-I18)/K18</f>
-        <v>1.4257509269819586E-3</v>
+        <v>1.7887642469518929E-2</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="e" vm="19">
         <v>#VALUE!</v>
       </c>
-      <c r="B19" s="4" t="str" cm="1">
+      <c r="B19" s="1" t="str" cm="1">
         <f t="array" ref="B19">_FV(A19,"Ticker symbol",TRUE)</f>
-        <v>IHAK</v>
+        <v>XSD</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="3" t="e" cm="1" vm="10">
+        <v>17</v>
+      </c>
+      <c r="E19" s="3" cm="1">
         <f t="array" ref="E19">_FV(A19,"Expense ratio",TRUE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F19" s="2" cm="1">
+        <v>3.4999999999999996E-3</v>
+      </c>
+      <c r="F19" s="16" cm="1">
         <f t="array" ref="F19">_FV(A19,"Open")</f>
-        <v>32.119999999999997</v>
-      </c>
-      <c r="G19" s="2" cm="1">
+        <v>122.15</v>
+      </c>
+      <c r="G19" s="16" cm="1">
         <f t="array" ref="G19">_FV(A19,"High")</f>
-        <v>33.119999999999997</v>
-      </c>
-      <c r="H19" s="2" cm="1">
+        <v>122.40989999999999</v>
+      </c>
+      <c r="H19" s="16" cm="1">
         <f t="array" ref="H19">_FV(A19,"Low")</f>
-        <v>32.119999999999997</v>
-      </c>
-      <c r="I19" s="2" cm="1">
+        <v>119.75</v>
+      </c>
+      <c r="I19" s="16" cm="1">
         <f t="array" ref="I19">_FV(A19,"Price")</f>
-        <v>33.113399999999999</v>
+        <v>119.8476</v>
       </c>
       <c r="J19" s="3" cm="1">
         <f t="array" ref="J19">_FV(A19,"Change (%)",TRUE)</f>
-        <v>3.1248999999999999E-2</v>
-      </c>
-      <c r="K19" s="2" cm="1">
+        <v>-1.0995E-2</v>
+      </c>
+      <c r="K19" s="16" cm="1">
         <f t="array" ref="K19">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>33.1601</v>
-      </c>
-      <c r="L19" s="2" cm="1">
+        <v>121.32</v>
+      </c>
+      <c r="L19" s="16" cm="1">
         <f t="array" ref="L19">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>20.36</v>
-      </c>
-      <c r="M19" s="3">
+        <v>68.948099999999997</v>
+      </c>
+      <c r="M19" s="15">
         <f>(K19-I19)/K19</f>
-        <v>1.40831903401984E-3</v>
+        <v>1.2136498516320419E-2</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -6940,49 +7333,49 @@
       </c>
       <c r="B20" s="1" t="str" cm="1">
         <f t="array" ref="B20">_FV(A20,"Ticker symbol",TRUE)</f>
-        <v>IHI</v>
+        <v>XLK</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E20" s="3" cm="1">
         <f t="array" ref="E20">_FV(A20,"Expense ratio",TRUE)</f>
-        <v>4.3E-3</v>
-      </c>
-      <c r="F20" s="2" cm="1">
+        <v>1.4000000000000002E-3</v>
+      </c>
+      <c r="F20" s="16" cm="1">
         <f t="array" ref="F20">_FV(A20,"Open")</f>
-        <v>286.5</v>
-      </c>
-      <c r="G20" s="2" cm="1">
+        <v>110.29</v>
+      </c>
+      <c r="G20" s="16" cm="1">
         <f t="array" ref="G20">_FV(A20,"High")</f>
-        <v>288.64</v>
-      </c>
-      <c r="H20" s="2" cm="1">
+        <v>110.3597</v>
+      </c>
+      <c r="H20" s="16" cm="1">
         <f t="array" ref="H20">_FV(A20,"Low")</f>
-        <v>285.29000000000002</v>
-      </c>
-      <c r="I20" s="2" cm="1">
+        <v>108.55</v>
+      </c>
+      <c r="I20" s="16" cm="1">
         <f t="array" ref="I20">_FV(A20,"Price")</f>
-        <v>287.3</v>
+        <v>108.83</v>
       </c>
       <c r="J20" s="3" cm="1">
         <f t="array" ref="J20">_FV(A20,"Change (%)",TRUE)</f>
-        <v>4.3350000000000003E-3</v>
-      </c>
-      <c r="K20" s="2" cm="1">
+        <v>-6.3E-3</v>
+      </c>
+      <c r="K20" s="16" cm="1">
         <f t="array" ref="K20">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>287.45999999999998</v>
-      </c>
-      <c r="L20" s="2" cm="1">
+        <v>109.82</v>
+      </c>
+      <c r="L20" s="16" cm="1">
         <f t="array" ref="L20">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>183.25</v>
-      </c>
-      <c r="M20" s="3">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="M20" s="15">
         <f>(K20-I20)/K20</f>
-        <v>5.565991790161003E-4</v>
+        <v>9.0147514114004273E-3</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -6991,49 +7384,49 @@
       </c>
       <c r="B21" s="1" t="str" cm="1">
         <f t="array" ref="B21">_FV(A21,"Ticker symbol",TRUE)</f>
-        <v>VHT</v>
+        <v>VGT</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E21" s="3" cm="1">
         <f t="array" ref="E21">_FV(A21,"Expense ratio",TRUE)</f>
         <v>1E-3</v>
       </c>
-      <c r="F21" s="2" cm="1">
+      <c r="F21" s="16" cm="1">
         <f t="array" ref="F21">_FV(A21,"Open")</f>
-        <v>205</v>
-      </c>
-      <c r="G21" s="2" cm="1">
+        <v>294.77</v>
+      </c>
+      <c r="G21" s="16" cm="1">
         <f t="array" ref="G21">_FV(A21,"High")</f>
-        <v>205.58779999999999</v>
-      </c>
-      <c r="H21" s="2" cm="1">
+        <v>294.94</v>
+      </c>
+      <c r="H21" s="16" cm="1">
         <f t="array" ref="H21">_FV(A21,"Low")</f>
-        <v>203.72</v>
-      </c>
-      <c r="I21" s="2" cm="1">
+        <v>289.87</v>
+      </c>
+      <c r="I21" s="16" cm="1">
         <f t="array" ref="I21">_FV(A21,"Price")</f>
-        <v>204.85</v>
+        <v>290.61</v>
       </c>
       <c r="J21" s="3" cm="1">
         <f t="array" ref="J21">_FV(A21,"Change (%)",TRUE)</f>
-        <v>2.5940000000000004E-3</v>
-      </c>
-      <c r="K21" s="2" cm="1">
+        <v>-6.1900000000000002E-3</v>
+      </c>
+      <c r="K21" s="16" cm="1">
         <f t="array" ref="K21">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>204.95</v>
-      </c>
-      <c r="L21" s="2" cm="1">
+        <v>293.04000000000002</v>
+      </c>
+      <c r="L21" s="16" cm="1">
         <f t="array" ref="L21">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>138.11000000000001</v>
-      </c>
-      <c r="M21" s="3">
+        <v>179.45</v>
+      </c>
+      <c r="M21" s="15">
         <f>(K21-I21)/K21</f>
-        <v>4.8792388387408793E-4</v>
+        <v>8.2923832923833159E-3</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -7042,58 +7435,58 @@
       </c>
       <c r="B22" s="1" t="str" cm="1">
         <f t="array" ref="B22">_FV(A22,"Ticker symbol",TRUE)</f>
-        <v>FHLC</v>
+        <v>FTEC</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E22" s="3" cm="1">
         <f t="array" ref="E22">_FV(A22,"Expense ratio",TRUE)</f>
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="F22" s="2" cm="1">
+      <c r="F22" s="16" cm="1">
         <f t="array" ref="F22">_FV(A22,"Open")</f>
-        <v>53</v>
-      </c>
-      <c r="G22" s="2" cm="1">
+        <v>86.9</v>
+      </c>
+      <c r="G22" s="16" cm="1">
         <f t="array" ref="G22">_FV(A22,"High")</f>
-        <v>53.09</v>
-      </c>
-      <c r="H22" s="2" cm="1">
+        <v>87.1</v>
+      </c>
+      <c r="H22" s="16" cm="1">
         <f t="array" ref="H22">_FV(A22,"Low")</f>
-        <v>52.6</v>
-      </c>
-      <c r="I22" s="2" cm="1">
+        <v>85.65</v>
+      </c>
+      <c r="I22" s="16" cm="1">
         <f t="array" ref="I22">_FV(A22,"Price")</f>
-        <v>52.914999999999999</v>
+        <v>85.9</v>
       </c>
       <c r="J22" s="3" cm="1">
         <f t="array" ref="J22">_FV(A22,"Change (%)",TRUE)</f>
-        <v>2.748E-3</v>
-      </c>
-      <c r="K22" s="2" cm="1">
+        <v>-5.7869999999999996E-3</v>
+      </c>
+      <c r="K22" s="16" cm="1">
         <f t="array" ref="K22">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>52.918999999999997</v>
-      </c>
-      <c r="L22" s="2" cm="1">
+        <v>86.58</v>
+      </c>
+      <c r="L22" s="16" cm="1">
         <f t="array" ref="L22">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>35.74</v>
-      </c>
-      <c r="M22" s="3">
+        <v>53</v>
+      </c>
+      <c r="M22" s="15">
         <f>(K22-I22)/K22</f>
-        <v>7.5587218201360253E-5</v>
+        <v>7.8540078540077687E-3</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="e" vm="23">
         <v>#VALUE!</v>
       </c>
-      <c r="B23" s="1" t="str" cm="1">
+      <c r="B23" s="4" t="str">
         <f t="array" ref="B23">_FV(A23,"Ticker symbol",TRUE)</f>
-        <v>ARKG</v>
+        <v>IXJ</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>13</v>
@@ -7101,41 +7494,41 @@
       <c r="D23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="3" cm="1">
+      <c r="E23" s="3">
         <f t="array" ref="E23">_FV(A23,"Expense ratio",TRUE)</f>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="F23" s="2" cm="1">
+        <v>4.6999999999999993E-3</v>
+      </c>
+      <c r="F23" s="16">
         <f t="array" ref="F23">_FV(A23,"Open")</f>
-        <v>57.68</v>
-      </c>
-      <c r="G23" s="2" cm="1">
+        <v>72.64</v>
+      </c>
+      <c r="G23" s="16">
         <f t="array" ref="G23">_FV(A23,"High")</f>
-        <v>58.74</v>
-      </c>
-      <c r="H23" s="2" cm="1">
+        <v>72.725099999999998</v>
+      </c>
+      <c r="H23" s="16">
         <f t="array" ref="H23">_FV(A23,"Low")</f>
-        <v>57.481200000000001</v>
-      </c>
-      <c r="I23" s="2" cm="1">
+        <v>72.11</v>
+      </c>
+      <c r="I23" s="16">
         <f t="array" ref="I23">_FV(A23,"Price")</f>
-        <v>58.64</v>
-      </c>
-      <c r="J23" s="3" cm="1">
+        <v>72.180000000000007</v>
+      </c>
+      <c r="J23" s="3">
         <f t="array" ref="J23">_FV(A23,"Change (%)",TRUE)</f>
-        <v>2.6610999999999999E-2</v>
-      </c>
-      <c r="K23" s="2" cm="1">
+        <v>-2.212E-3</v>
+      </c>
+      <c r="K23" s="16">
         <f t="array" ref="K23">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>58.64</v>
-      </c>
-      <c r="L23" s="2" cm="1">
+        <v>72.684600000000003</v>
+      </c>
+      <c r="L23" s="16">
         <f t="array" ref="L23">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>24</v>
-      </c>
-      <c r="M23" s="3">
+        <v>51.07</v>
+      </c>
+      <c r="M23" s="15">
         <f>(K23-I23)/K23</f>
-        <v>0</v>
+        <v>6.9423234082597466E-3</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -7144,7 +7537,7 @@
       </c>
       <c r="B24" s="1" t="str" cm="1">
         <f t="array" ref="B24">_FV(A24,"Ticker symbol",TRUE)</f>
-        <v>XSD</v>
+        <v>SMH</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>13</v>
@@ -7156,46 +7549,46 @@
         <f t="array" ref="E24">_FV(A24,"Expense ratio",TRUE)</f>
         <v>3.4999999999999996E-3</v>
       </c>
-      <c r="F24" s="2" cm="1">
+      <c r="F24" s="16" cm="1">
         <f t="array" ref="F24">_FV(A24,"Open")</f>
-        <v>118.68</v>
-      </c>
-      <c r="G24" s="2" cm="1">
+        <v>164.99</v>
+      </c>
+      <c r="G24" s="16" cm="1">
         <f t="array" ref="G24">_FV(A24,"High")</f>
-        <v>121.2308</v>
-      </c>
-      <c r="H24" s="2" cm="1">
+        <v>165.13</v>
+      </c>
+      <c r="H24" s="16" cm="1">
         <f t="array" ref="H24">_FV(A24,"Low")</f>
-        <v>118.43</v>
-      </c>
-      <c r="I24" s="2" cm="1">
+        <v>162.38999999999999</v>
+      </c>
+      <c r="I24" s="16" cm="1">
         <f t="array" ref="I24">_FV(A24,"Price")</f>
-        <v>121.2308</v>
+        <v>163.03</v>
       </c>
       <c r="J24" s="3" cm="1">
         <f t="array" ref="J24">_FV(A24,"Change (%)",TRUE)</f>
-        <v>2.3045E-2</v>
-      </c>
-      <c r="K24" s="2" cm="1">
+        <v>-2.3250000000000002E-3</v>
+      </c>
+      <c r="K24" s="16" cm="1">
         <f t="array" ref="K24">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>121.2308</v>
-      </c>
-      <c r="L24" s="2" cm="1">
+        <v>164.0539</v>
+      </c>
+      <c r="L24" s="16" cm="1">
         <f t="array" ref="L24">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>68.948099999999997</v>
-      </c>
-      <c r="M24" s="3">
+        <v>96</v>
+      </c>
+      <c r="M24" s="15">
         <f>(K24-I24)/K24</f>
-        <v>0</v>
+        <v>6.2412414456468127E-3</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="e" vm="25">
         <v>#VALUE!</v>
       </c>
-      <c r="B25" s="1" t="str" cm="1">
+      <c r="B25" s="4" t="str" cm="1">
         <f t="array" ref="B25">_FV(A25,"Ticker symbol",TRUE)</f>
-        <v>VGT</v>
+        <v>IHAK</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>13</v>
@@ -7203,50 +7596,50 @@
       <c r="D25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="3" cm="1">
+      <c r="E25" s="3" t="e" cm="1" vm="7">
         <f t="array" ref="E25">_FV(A25,"Expense ratio",TRUE)</f>
-        <v>1E-3</v>
-      </c>
-      <c r="F25" s="2" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F25" s="16" cm="1">
         <f t="array" ref="F25">_FV(A25,"Open")</f>
-        <v>285.64999999999998</v>
-      </c>
-      <c r="G25" s="2" cm="1">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="G25" s="16" cm="1">
         <f t="array" ref="G25">_FV(A25,"High")</f>
-        <v>292.72500000000002</v>
-      </c>
-      <c r="H25" s="2" cm="1">
+        <v>33.33</v>
+      </c>
+      <c r="H25" s="16" cm="1">
         <f t="array" ref="H25">_FV(A25,"Low")</f>
-        <v>284.37</v>
-      </c>
-      <c r="I25" s="2" cm="1">
+        <v>32.958300000000001</v>
+      </c>
+      <c r="I25" s="16" cm="1">
         <f t="array" ref="I25">_FV(A25,"Price")</f>
-        <v>292.63499999999999</v>
+        <v>32.965000000000003</v>
       </c>
       <c r="J25" s="3" cm="1">
         <f t="array" ref="J25">_FV(A25,"Change (%)",TRUE)</f>
-        <v>2.7293999999999999E-2</v>
-      </c>
-      <c r="K25" s="2" cm="1">
+        <v>-5.8809999999999999E-3</v>
+      </c>
+      <c r="K25" s="16" cm="1">
         <f t="array" ref="K25">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>292.63499999999999</v>
-      </c>
-      <c r="L25" s="2" cm="1">
+        <v>33.1601</v>
+      </c>
+      <c r="L25" s="16" cm="1">
         <f t="array" ref="L25">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>179.45</v>
-      </c>
-      <c r="M25" s="3">
+        <v>20.36</v>
+      </c>
+      <c r="M25" s="15">
         <f>(K25-I25)/K25</f>
-        <v>0</v>
+        <v>5.8835769494059581E-3</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="e" vm="26">
         <v>#VALUE!</v>
       </c>
-      <c r="B26" s="1" t="str" cm="1">
+      <c r="B26" s="4" t="str" cm="1">
         <f t="array" ref="B26">_FV(A26,"Ticker symbol",TRUE)</f>
-        <v>XLK</v>
+        <v>GDAT</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>13</v>
@@ -7256,48 +7649,48 @@
       </c>
       <c r="E26" s="3" cm="1">
         <f t="array" ref="E26">_FV(A26,"Expense ratio",TRUE)</f>
-        <v>1.4000000000000002E-3</v>
-      </c>
-      <c r="F26" s="2" cm="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F26" s="16" cm="1">
         <f t="array" ref="F26">_FV(A26,"Open")</f>
-        <v>107.14</v>
-      </c>
-      <c r="G26" s="2" cm="1">
+        <v>67.62</v>
+      </c>
+      <c r="G26" s="16" cm="1">
         <f t="array" ref="G26">_FV(A26,"High")</f>
-        <v>109.82</v>
-      </c>
-      <c r="H26" s="2" cm="1">
+        <v>67.62</v>
+      </c>
+      <c r="H26" s="16" cm="1">
         <f t="array" ref="H26">_FV(A26,"Low")</f>
-        <v>106.54</v>
-      </c>
-      <c r="I26" s="2" cm="1">
+        <v>66.760000000000005</v>
+      </c>
+      <c r="I26" s="16" cm="1">
         <f t="array" ref="I26">_FV(A26,"Price")</f>
-        <v>109.76</v>
+        <v>66.864999999999995</v>
       </c>
       <c r="J26" s="3" cm="1">
         <f t="array" ref="J26">_FV(A26,"Change (%)",TRUE)</f>
-        <v>2.7522999999999999E-2</v>
-      </c>
-      <c r="K26" s="2" cm="1">
+        <v>-4.2920000000000007E-3</v>
+      </c>
+      <c r="K26" s="16" cm="1">
         <f t="array" ref="K26">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>109.76</v>
-      </c>
-      <c r="L26" s="2" cm="1">
+        <v>67.260000000000005</v>
+      </c>
+      <c r="L26" s="16" cm="1">
         <f t="array" ref="L26">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>68.099999999999994</v>
-      </c>
-      <c r="M26" s="3">
+        <v>41.99</v>
+      </c>
+      <c r="M26" s="15">
         <f>(K26-I26)/K26</f>
-        <v>0</v>
+        <v>5.8727326791556678E-3</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="e" vm="27">
         <v>#VALUE!</v>
       </c>
-      <c r="B27" s="1" t="str" cm="1">
+      <c r="B27" s="4" t="str" cm="1">
         <f t="array" ref="B27">_FV(A27,"Ticker symbol",TRUE)</f>
-        <v>FTEC</v>
+        <v>ARKQ</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>13</v>
@@ -7307,243 +7700,243 @@
       </c>
       <c r="E27" s="3" cm="1">
         <f t="array" ref="E27">_FV(A27,"Expense ratio",TRUE)</f>
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="F27" s="2" cm="1">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="F27" s="16" cm="1">
         <f t="array" ref="F27">_FV(A27,"Open")</f>
-        <v>84.29</v>
-      </c>
-      <c r="G27" s="2" cm="1">
+        <v>54.575000000000003</v>
+      </c>
+      <c r="G27" s="16" cm="1">
         <f t="array" ref="G27">_FV(A27,"High")</f>
-        <v>86.58</v>
-      </c>
-      <c r="H27" s="2" cm="1">
+        <v>54.85</v>
+      </c>
+      <c r="H27" s="16" cm="1">
         <f t="array" ref="H27">_FV(A27,"Low")</f>
-        <v>84.031000000000006</v>
-      </c>
-      <c r="I27" s="2" cm="1">
+        <v>53.797699999999999</v>
+      </c>
+      <c r="I27" s="16" cm="1">
         <f t="array" ref="I27">_FV(A27,"Price")</f>
-        <v>86.5</v>
+        <v>53.92</v>
       </c>
       <c r="J27" s="3" cm="1">
         <f t="array" ref="J27">_FV(A27,"Change (%)",TRUE)</f>
-        <v>2.7682000000000002E-2</v>
-      </c>
-      <c r="K27" s="2" cm="1">
+        <v>-3.5110000000000002E-3</v>
+      </c>
+      <c r="K27" s="16" cm="1">
         <f t="array" ref="K27">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>86.5</v>
-      </c>
-      <c r="L27" s="2" cm="1">
+        <v>54.16</v>
+      </c>
+      <c r="L27" s="16" cm="1">
         <f t="array" ref="L27">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>53</v>
-      </c>
-      <c r="M27" s="3">
+        <v>26.19</v>
+      </c>
+      <c r="M27" s="15">
         <f>(K27-I27)/K27</f>
-        <v>0</v>
+        <v>4.4313146233381628E-3</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="e" vm="28">
         <v>#VALUE!</v>
       </c>
-      <c r="B28" s="1" t="str" cm="1">
+      <c r="B28" s="4" t="str">
         <f t="array" ref="B28">_FV(A28,"Ticker symbol",TRUE)</f>
-        <v>SLV</v>
+        <v>EFG</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="3" cm="1">
+        <v>75</v>
+      </c>
+      <c r="E28" s="3">
         <f t="array" ref="E28">_FV(A28,"Expense ratio",TRUE)</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F28" s="2" cm="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F28" s="16">
         <f t="array" ref="F28">_FV(A28,"Open")</f>
-        <v>18.37</v>
-      </c>
-      <c r="G28" s="2" cm="1">
+        <v>88.15</v>
+      </c>
+      <c r="G28" s="16">
         <f t="array" ref="G28">_FV(A28,"High")</f>
-        <v>18.57</v>
-      </c>
-      <c r="H28" s="2" cm="1">
+        <v>88.489900000000006</v>
+      </c>
+      <c r="H28" s="16">
         <f t="array" ref="H28">_FV(A28,"Low")</f>
-        <v>18.23</v>
-      </c>
-      <c r="I28" s="2" cm="1">
+        <v>88.02</v>
+      </c>
+      <c r="I28" s="16">
         <f t="array" ref="I28">_FV(A28,"Price")</f>
-        <v>18.549299999999999</v>
-      </c>
-      <c r="J28" s="3" cm="1">
+        <v>88.36</v>
+      </c>
+      <c r="J28" s="3">
         <f t="array" ref="J28">_FV(A28,"Change (%)",TRUE)</f>
-        <v>3.0516999999999999E-2</v>
-      </c>
-      <c r="K28" s="2" cm="1">
+        <v>8.4460000000000004E-3</v>
+      </c>
+      <c r="K28" s="16">
         <f t="array" ref="K28">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>18.549299999999999</v>
-      </c>
-      <c r="L28" s="2" cm="1">
+        <v>88.66</v>
+      </c>
+      <c r="L28" s="16">
         <f t="array" ref="L28">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>10.86</v>
-      </c>
-      <c r="M28" s="3">
+        <v>60.13</v>
+      </c>
+      <c r="M28" s="15">
         <f>(K28-I28)/K28</f>
-        <v>0</v>
+        <v>3.3837130611323839E-3</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="e" vm="29">
         <v>#VALUE!</v>
       </c>
-      <c r="B29" s="4" t="str" cm="1">
+      <c r="B29" s="1" t="str" cm="1">
         <f t="array" ref="B29">_FV(A29,"Ticker symbol",TRUE)</f>
-        <v>ARKQ</v>
+        <v>FHLC</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E29" s="3" cm="1">
         <f t="array" ref="E29">_FV(A29,"Expense ratio",TRUE)</f>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="F29" s="2" cm="1">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="F29" s="16" cm="1">
         <f t="array" ref="F29">_FV(A29,"Open")</f>
-        <v>52.56</v>
-      </c>
-      <c r="G29" s="2" cm="1">
+        <v>52.98</v>
+      </c>
+      <c r="G29" s="16" cm="1">
         <f t="array" ref="G29">_FV(A29,"High")</f>
-        <v>54.16</v>
-      </c>
-      <c r="H29" s="2" cm="1">
+        <v>53.126300000000001</v>
+      </c>
+      <c r="H29" s="16" cm="1">
         <f t="array" ref="H29">_FV(A29,"Low")</f>
-        <v>52.350099999999998</v>
-      </c>
-      <c r="I29" s="2" cm="1">
+        <v>52.75</v>
+      </c>
+      <c r="I29" s="16" cm="1">
         <f t="array" ref="I29">_FV(A29,"Price")</f>
-        <v>54.094200000000001</v>
+        <v>52.93</v>
       </c>
       <c r="J29" s="3" cm="1">
         <f t="array" ref="J29">_FV(A29,"Change (%)",TRUE)</f>
-        <v>3.4702000000000004E-2</v>
-      </c>
-      <c r="K29" s="2" cm="1">
+        <v>2.0830000000000002E-3</v>
+      </c>
+      <c r="K29" s="16" cm="1">
         <f t="array" ref="K29">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>54.094200000000001</v>
-      </c>
-      <c r="L29" s="2" cm="1">
+        <v>53.09</v>
+      </c>
+      <c r="L29" s="16" cm="1">
         <f t="array" ref="L29">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>26.19</v>
-      </c>
-      <c r="M29" s="3">
+        <v>35.74</v>
+      </c>
+      <c r="M29" s="15">
         <f>(K29-I29)/K29</f>
-        <v>0</v>
+        <v>3.0137502354493067E-3</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="e" vm="30">
         <v>#VALUE!</v>
       </c>
-      <c r="B30" s="4" t="str" cm="1">
+      <c r="B30" s="1" t="str" cm="1">
         <f t="array" ref="B30">_FV(A30,"Ticker symbol",TRUE)</f>
-        <v>HACK</v>
+        <v>VHT</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E30" s="3" cm="1">
         <f t="array" ref="E30">_FV(A30,"Expense ratio",TRUE)</f>
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="F30" s="2" cm="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F30" s="16" cm="1">
         <f t="array" ref="F30">_FV(A30,"Open")</f>
-        <v>46.1</v>
-      </c>
-      <c r="G30" s="2" cm="1">
+        <v>204.99</v>
+      </c>
+      <c r="G30" s="16" cm="1">
         <f t="array" ref="G30">_FV(A30,"High")</f>
-        <v>47.4</v>
-      </c>
-      <c r="H30" s="2" cm="1">
+        <v>205.71</v>
+      </c>
+      <c r="H30" s="16" cm="1">
         <f t="array" ref="H30">_FV(A30,"Low")</f>
-        <v>45.96</v>
-      </c>
-      <c r="I30" s="2" cm="1">
+        <v>204.29</v>
+      </c>
+      <c r="I30" s="16" cm="1">
         <f t="array" ref="I30">_FV(A30,"Price")</f>
-        <v>47.370100000000001</v>
+        <v>205.02</v>
       </c>
       <c r="J30" s="3" cm="1">
         <f t="array" ref="J30">_FV(A30,"Change (%)",TRUE)</f>
-        <v>3.1354E-2</v>
-      </c>
-      <c r="K30" s="2" cm="1">
+        <v>1.7589999999999999E-3</v>
+      </c>
+      <c r="K30" s="16" cm="1">
         <f t="array" ref="K30">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>47.370100000000001</v>
-      </c>
-      <c r="L30" s="2" cm="1">
+        <v>205.61</v>
+      </c>
+      <c r="L30" s="16" cm="1">
         <f t="array" ref="L30">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>29.02</v>
-      </c>
-      <c r="M30" s="3">
+        <v>138.11000000000001</v>
+      </c>
+      <c r="M30" s="15">
         <f>(K30-I30)/K30</f>
-        <v>0</v>
+        <v>2.8695102378289159E-3</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="e" vm="31">
         <v>#VALUE!</v>
       </c>
-      <c r="B31" s="1" t="str" cm="1">
+      <c r="B31" s="4" t="str" cm="1">
         <f t="array" ref="B31">_FV(A31,"Ticker symbol",TRUE)</f>
-        <v>GLDM</v>
+        <v>HACK</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E31" s="3" cm="1">
         <f t="array" ref="E31">_FV(A31,"Expense ratio",TRUE)</f>
-        <v>1.8E-3</v>
-      </c>
-      <c r="F31" s="2" cm="1">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="F31" s="16" cm="1">
         <f t="array" ref="F31">_FV(A31,"Open")</f>
-        <v>18.100000000000001</v>
-      </c>
-      <c r="G31" s="2" cm="1">
+        <v>47.69</v>
+      </c>
+      <c r="G31" s="16" cm="1">
         <f t="array" ref="G31">_FV(A31,"High")</f>
-        <v>18.14</v>
-      </c>
-      <c r="H31" s="2" cm="1">
+        <v>47.71</v>
+      </c>
+      <c r="H31" s="16" cm="1">
         <f t="array" ref="H31">_FV(A31,"Low")</f>
-        <v>18.061699999999998</v>
-      </c>
-      <c r="I31" s="2" cm="1">
+        <v>47.130299999999998</v>
+      </c>
+      <c r="I31" s="16" cm="1">
         <f t="array" ref="I31">_FV(A31,"Price")</f>
-        <v>18.125</v>
+        <v>47.32</v>
       </c>
       <c r="J31" s="3" cm="1">
         <f t="array" ref="J31">_FV(A31,"Change (%)",TRUE)</f>
-        <v>4.4330000000000003E-3</v>
-      </c>
-      <c r="K31" s="2" cm="1">
+        <v>0</v>
+      </c>
+      <c r="K31" s="16" cm="1">
         <f t="array" ref="K31">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>18.125</v>
-      </c>
-      <c r="L31" s="2" cm="1">
+        <v>47.41</v>
+      </c>
+      <c r="L31" s="16" cm="1">
         <f t="array" ref="L31">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>14.01</v>
-      </c>
-      <c r="M31" s="3">
+        <v>29.02</v>
+      </c>
+      <c r="M31" s="15">
         <f>(K31-I31)/K31</f>
-        <v>0</v>
+        <v>1.8983336848765306E-3</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -7552,7 +7945,7 @@
       </c>
       <c r="B32" s="1" t="str" cm="1">
         <f t="array" ref="B32">_FV(A32,"Ticker symbol",TRUE)</f>
-        <v>FBT</v>
+        <v>XLV</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>13</v>
@@ -7562,95 +7955,299 @@
       </c>
       <c r="E32" s="3" cm="1">
         <f t="array" ref="E32">_FV(A32,"Expense ratio",TRUE)</f>
-        <v>5.6999999999999993E-3</v>
-      </c>
-      <c r="F32" s="2" cm="1">
+        <v>1.4000000000000002E-3</v>
+      </c>
+      <c r="F32" s="16" cm="1">
         <f t="array" ref="F32">_FV(A32,"Open")</f>
-        <v>178.75</v>
-      </c>
-      <c r="G32" s="2" cm="1">
+        <v>106.18</v>
+      </c>
+      <c r="G32" s="16" cm="1">
         <f t="array" ref="G32">_FV(A32,"High")</f>
-        <v>180.637</v>
-      </c>
-      <c r="H32" s="2" cm="1">
+        <v>106.63</v>
+      </c>
+      <c r="H32" s="16" cm="1">
         <f t="array" ref="H32">_FV(A32,"Low")</f>
-        <v>177.97380000000001</v>
-      </c>
-      <c r="I32" s="2" cm="1">
+        <v>105.89</v>
+      </c>
+      <c r="I32" s="16" cm="1">
         <f t="array" ref="I32">_FV(A32,"Price")</f>
-        <v>180.19</v>
+        <v>106.31</v>
       </c>
       <c r="J32" s="3" cm="1">
         <f t="array" ref="J32">_FV(A32,"Change (%)",TRUE)</f>
-        <v>1.7447999999999998E-2</v>
-      </c>
-      <c r="K32" s="2" cm="1">
+        <v>4.156E-3</v>
+      </c>
+      <c r="K32" s="16" cm="1">
         <f t="array" ref="K32">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>180.19</v>
-      </c>
-      <c r="L32" s="2" cm="1">
+        <v>106.49</v>
+      </c>
+      <c r="L32" s="16" cm="1">
         <f t="array" ref="L32">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
-        <v>108.08</v>
-      </c>
-      <c r="M32" s="3">
+        <v>73.540000000000006</v>
+      </c>
+      <c r="M32" s="15">
         <f>(K32-I32)/K32</f>
-        <v>0</v>
+        <v>1.6902995586439349E-3</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="e" vm="33">
         <v>#VALUE!</v>
       </c>
-      <c r="B33" s="4" t="str" cm="1">
+      <c r="B33" s="1" t="str" cm="1">
         <f t="array" ref="B33">_FV(A33,"Ticker symbol",TRUE)</f>
-        <v>SNSR</v>
+        <v>IHI</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E33" s="3" cm="1">
         <f t="array" ref="E33">_FV(A33,"Expense ratio",TRUE)</f>
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="F33" s="2" cm="1">
+        <v>4.3E-3</v>
+      </c>
+      <c r="F33" s="16" cm="1">
         <f t="array" ref="F33">_FV(A33,"Open")</f>
-        <v>25.62</v>
-      </c>
-      <c r="G33" s="2" cm="1">
+        <v>288.64999999999998</v>
+      </c>
+      <c r="G33" s="16" cm="1">
         <f t="array" ref="G33">_FV(A33,"High")</f>
-        <v>25.88</v>
-      </c>
-      <c r="H33" s="2" cm="1">
+        <v>289.77499999999998</v>
+      </c>
+      <c r="H33" s="16" cm="1">
         <f t="array" ref="H33">_FV(A33,"Low")</f>
-        <v>25.580100000000002</v>
-      </c>
-      <c r="I33" s="2" cm="1">
+        <v>288</v>
+      </c>
+      <c r="I33" s="16" cm="1">
         <f t="array" ref="I33">_FV(A33,"Price")</f>
-        <v>25.839300000000001</v>
+        <v>288.54730000000001</v>
       </c>
       <c r="J33" s="3" cm="1">
         <f t="array" ref="J33">_FV(A33,"Change (%)",TRUE)</f>
-        <v>5.8120000000000003E-3</v>
-      </c>
-      <c r="K33" s="2" cm="1">
+        <v>5.9870000000000001E-3</v>
+      </c>
+      <c r="K33" s="16" cm="1">
         <f t="array" ref="K33">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>25.839300000000001</v>
-      </c>
-      <c r="L33" s="2" cm="1">
+        <v>288.64</v>
+      </c>
+      <c r="L33" s="16" cm="1">
         <f t="array" ref="L33">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
+        <v>183.25</v>
+      </c>
+      <c r="M33" s="15">
+        <f>(K33-I33)/K33</f>
+        <v>3.2116130820391962E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="e" vm="34">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B34" s="1" t="str" cm="1">
+        <f t="array" ref="B34">_FV(A34,"Ticker symbol",TRUE)</f>
+        <v>SLV</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="3" cm="1">
+        <f t="array" ref="E34">_FV(A34,"Expense ratio",TRUE)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F34" s="16" cm="1">
+        <f t="array" ref="F34">_FV(A34,"Open")</f>
+        <v>19.52</v>
+      </c>
+      <c r="G34" s="16" cm="1">
+        <f t="array" ref="G34">_FV(A34,"High")</f>
+        <v>19.739999999999998</v>
+      </c>
+      <c r="H34" s="16" cm="1">
+        <f t="array" ref="H34">_FV(A34,"Low")</f>
+        <v>19.420000000000002</v>
+      </c>
+      <c r="I34" s="16" cm="1">
+        <f t="array" ref="I34">_FV(A34,"Price")</f>
+        <v>19.6401</v>
+      </c>
+      <c r="J34" s="3" cm="1">
+        <f t="array" ref="J34">_FV(A34,"Change (%)",TRUE)</f>
+        <v>5.9337000000000001E-2</v>
+      </c>
+      <c r="K34" s="16" cm="1">
+        <f t="array" ref="K34">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
+        <v>19.6401</v>
+      </c>
+      <c r="L34" s="16" cm="1">
+        <f t="array" ref="L34">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
+        <v>10.86</v>
+      </c>
+      <c r="M34" s="15">
+        <f>(K34-I34)/K34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="e" vm="35">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B35" s="1" t="str" cm="1">
+        <f t="array" ref="B35">_FV(A35,"Ticker symbol",TRUE)</f>
+        <v>GLDM</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="3" cm="1">
+        <f t="array" ref="E35">_FV(A35,"Expense ratio",TRUE)</f>
+        <v>1.8E-3</v>
+      </c>
+      <c r="F35" s="16" cm="1">
+        <f t="array" ref="F35">_FV(A35,"Open")</f>
+        <v>18.29</v>
+      </c>
+      <c r="G35" s="16" cm="1">
+        <f t="array" ref="G35">_FV(A35,"High")</f>
+        <v>18.36</v>
+      </c>
+      <c r="H35" s="16" cm="1">
+        <f t="array" ref="H35">_FV(A35,"Low")</f>
+        <v>18.275200000000002</v>
+      </c>
+      <c r="I35" s="16" cm="1">
+        <f t="array" ref="I35">_FV(A35,"Price")</f>
+        <v>18.36</v>
+      </c>
+      <c r="J35" s="3" cm="1">
+        <f t="array" ref="J35">_FV(A35,"Change (%)",TRUE)</f>
+        <v>1.2966E-2</v>
+      </c>
+      <c r="K35" s="16" cm="1">
+        <f t="array" ref="K35">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
+        <v>18.36</v>
+      </c>
+      <c r="L35" s="16" cm="1">
+        <f t="array" ref="L35">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
+        <v>14.01</v>
+      </c>
+      <c r="M35" s="15">
+        <f>(K35-I35)/K35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="e" vm="36">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B36" s="4" t="str" cm="1">
+        <f t="array" ref="B36">_FV(A36,"Ticker symbol",TRUE)</f>
+        <v>SNSR</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="3" cm="1">
+        <f t="array" ref="E36">_FV(A36,"Expense ratio",TRUE)</f>
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="F36" s="16" cm="1">
+        <f t="array" ref="F36">_FV(A36,"Open")</f>
+        <v>26.05</v>
+      </c>
+      <c r="G36" s="16" cm="1">
+        <f t="array" ref="G36">_FV(A36,"High")</f>
+        <v>26.12</v>
+      </c>
+      <c r="H36" s="16" cm="1">
+        <f t="array" ref="H36">_FV(A36,"Low")</f>
+        <v>25.88</v>
+      </c>
+      <c r="I36" s="16" cm="1">
+        <f t="array" ref="I36">_FV(A36,"Price")</f>
+        <v>25.95</v>
+      </c>
+      <c r="J36" s="3" cm="1">
+        <f t="array" ref="J36">_FV(A36,"Change (%)",TRUE)</f>
+        <v>6.594E-3</v>
+      </c>
+      <c r="K36" s="16" cm="1">
+        <f t="array" ref="K36">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
+        <v>25.95</v>
+      </c>
+      <c r="L36" s="16" cm="1">
+        <f t="array" ref="L36">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
         <v>14.809699999999999</v>
       </c>
-      <c r="M33" s="3">
-        <f>(K33-I33)/K33</f>
+      <c r="M36" s="15">
+        <f>(K36-I36)/K36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="e" vm="37">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B37" s="4" t="str">
+        <f t="array" ref="B37">_FV(A37,"Ticker symbol",TRUE)</f>
+        <v>JKH</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E37" s="3">
+        <f t="array" ref="E37">_FV(A37,"Expense ratio",TRUE)</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F37" s="16">
+        <f t="array" ref="F37">_FV(A37,"Open")</f>
+        <v>311.8</v>
+      </c>
+      <c r="G37" s="16">
+        <f t="array" ref="G37">_FV(A37,"High")</f>
+        <v>312.5016</v>
+      </c>
+      <c r="H37" s="16">
+        <f t="array" ref="H37">_FV(A37,"Low")</f>
+        <v>310.23309999999998</v>
+      </c>
+      <c r="I37" s="16">
+        <f t="array" ref="I37">_FV(A37,"Price")</f>
+        <v>312.17</v>
+      </c>
+      <c r="J37" s="3">
+        <f t="array" ref="J37">_FV(A37,"Change (%)",TRUE)</f>
+        <v>1.5079999999999998E-3</v>
+      </c>
+      <c r="K37" s="16">
+        <f t="array" ref="K37">_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE)</f>
+        <v>312.17</v>
+      </c>
+      <c r="L37" s="16">
+        <f t="array" ref="L37">_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE)</f>
+        <v>183.43979999999999</v>
+      </c>
+      <c r="M37" s="15">
+        <f>(K37-I37)/K37</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7731,7 +8328,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="e" vm="34">
+      <c r="A2" s="1" t="e" vm="38">
         <v>#VALUE!</v>
       </c>
       <c r="B2" s="4" t="str" cm="1">
@@ -7753,27 +8350,27 @@
       </c>
       <c r="G2" s="2" cm="1">
         <f t="array" ref="G2">_FV(A2,"Open")</f>
-        <v>143.58000000000001</v>
+        <v>143.96</v>
       </c>
       <c r="H2" s="2" cm="1">
         <f t="array" ref="H2">_FV(A2,"High")</f>
-        <v>144.69999999999999</v>
+        <v>145.91990000000001</v>
       </c>
       <c r="I2" s="2" cm="1">
         <f t="array" ref="I2">_FV(A2,"Low")</f>
-        <v>142.9</v>
+        <v>143.51849999999999</v>
       </c>
       <c r="J2" s="2" cm="1">
         <f t="array" ref="J2">_FV(A2,"Price")</f>
-        <v>144.69</v>
+        <v>145.26</v>
       </c>
       <c r="K2" s="3" cm="1">
         <f t="array" ref="K2">_FV(A2,"Change (%)",TRUE)</f>
-        <v>1.384E-3</v>
+        <v>7.77E-3</v>
       </c>
       <c r="L2" s="2" cm="1">
         <f t="array" ref="L2">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>144.94</v>
+        <v>145.26</v>
       </c>
       <c r="M2" s="2" cm="1">
         <f t="array" ref="M2">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
@@ -7781,11 +8378,11 @@
       </c>
       <c r="N2" s="3">
         <f t="shared" ref="N2:N26" si="0">(L2-J2)/L2</f>
-        <v>1.7248516627570028E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="e" vm="35">
+      <c r="A3" s="1" t="e" vm="39">
         <v>#VALUE!</v>
       </c>
       <c r="B3" s="4" t="str">
@@ -7804,27 +8401,27 @@
       </c>
       <c r="G3" s="2">
         <f t="array" ref="G3">_FV(A3,"Open")</f>
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H3" s="2">
         <f t="array" ref="H3">_FV(A3,"High")</f>
-        <v>327.43290000000002</v>
+        <v>331.15</v>
       </c>
       <c r="I3" s="2">
         <f t="array" ref="I3">_FV(A3,"Low")</f>
-        <v>322.66340000000002</v>
+        <v>326.5</v>
       </c>
       <c r="J3" s="2">
         <f t="array" ref="J3">_FV(A3,"Price")</f>
-        <v>327.10000000000002</v>
+        <v>330.66</v>
       </c>
       <c r="K3" s="3">
         <f t="array" ref="K3">_FV(A3,"Change (%)",TRUE)</f>
-        <v>7.1120000000000003E-3</v>
+        <v>1.2709999999999999E-2</v>
       </c>
       <c r="L3" s="2">
         <f t="array" ref="L3">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
-        <v>329.32</v>
+        <v>330.66</v>
       </c>
       <c r="M3" s="2">
         <f t="array" ref="M3">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</f>
@@ -7832,11 +8429,11 @@
       </c>
       <c r="N3" s="3">
         <f t="shared" si="0"/>
-        <v>6.7411636098626574E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="e" vm="36">
+      <c r="A4" s="1" t="e" vm="40">
         <v>#VALUE!</v>
       </c>
       <c r="B4" s="4" t="str" cm="1">
@@ -7858,23 +8455,23 @@
       </c>
       <c r="G4" s="2" cm="1">
         <f t="array" ref="G4">_FV(A4,"Open")</f>
-        <v>26.11</v>
+        <v>25.84</v>
       </c>
       <c r="H4" s="2" cm="1">
         <f t="array" ref="H4">_FV(A4,"High")</f>
-        <v>26.25</v>
+        <v>26.055</v>
       </c>
       <c r="I4" s="2" cm="1">
         <f t="array" ref="I4">_FV(A4,"Low")</f>
-        <v>26.074999999999999</v>
+        <v>25.82</v>
       </c>
       <c r="J4" s="2" cm="1">
         <f t="array" ref="J4">_FV(A4,"Price")</f>
-        <v>26.22</v>
+        <v>26.03</v>
       </c>
       <c r="K4" s="3" cm="1">
         <f t="array" ref="K4">_FV(A4,"Change (%)",TRUE)</f>
-        <v>-5.7180000000000002E-4</v>
+        <v>-7.2459999999999998E-3</v>
       </c>
       <c r="L4" s="2" cm="1">
         <f t="array" ref="L4">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
@@ -7886,11 +8483,11 @@
       </c>
       <c r="N4" s="3">
         <f t="shared" si="0"/>
-        <v>0.10937500000000008</v>
+        <v>0.11582880434782608</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="e" vm="37">
+      <c r="A5" s="1" t="e" vm="41">
         <v>#VALUE!</v>
       </c>
       <c r="B5" s="4" t="str" cm="1">
@@ -7912,23 +8509,23 @@
       </c>
       <c r="G5" s="2" cm="1">
         <f t="array" ref="G5">_FV(A5,"Open")</f>
-        <v>45.97</v>
+        <v>45.81</v>
       </c>
       <c r="H5" s="2" cm="1">
         <f t="array" ref="H5">_FV(A5,"High")</f>
-        <v>46.01</v>
+        <v>46.24</v>
       </c>
       <c r="I5" s="2" cm="1">
         <f t="array" ref="I5">_FV(A5,"Low")</f>
-        <v>44.76</v>
+        <v>45.23</v>
       </c>
       <c r="J5" s="2" cm="1">
         <f t="array" ref="J5">_FV(A5,"Price")</f>
-        <v>45.18</v>
+        <v>46.12</v>
       </c>
       <c r="K5" s="3" cm="1">
         <f t="array" ref="K5">_FV(A5,"Change (%)",TRUE)</f>
-        <v>-1.8466E-2</v>
+        <v>2.239E-2</v>
       </c>
       <c r="L5" s="2" cm="1">
         <f t="array" ref="L5">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
@@ -7940,11 +8537,11 @@
       </c>
       <c r="N5" s="3">
         <f t="shared" si="0"/>
-        <v>0.16037911168927713</v>
+        <v>0.14291023973239184</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="e" vm="38">
+      <c r="A6" s="1" t="e" vm="42">
         <v>#VALUE!</v>
       </c>
       <c r="B6" s="4" t="str" cm="1">
@@ -7966,23 +8563,23 @@
       </c>
       <c r="G6" s="2" cm="1">
         <f t="array" ref="G6">_FV(A6,"Open")</f>
-        <v>40.56</v>
+        <v>42.134999999999998</v>
       </c>
       <c r="H6" s="2" cm="1">
         <f t="array" ref="H6">_FV(A6,"High")</f>
-        <v>41.02</v>
+        <v>43.465000000000003</v>
       </c>
       <c r="I6" s="2" cm="1">
         <f t="array" ref="I6">_FV(A6,"Low")</f>
-        <v>39.74</v>
+        <v>41.85</v>
       </c>
       <c r="J6" s="2" cm="1">
         <f t="array" ref="J6">_FV(A6,"Price")</f>
-        <v>40.630000000000003</v>
+        <v>43.01</v>
       </c>
       <c r="K6" s="3" cm="1">
         <f t="array" ref="K6">_FV(A6,"Change (%)",TRUE)</f>
-        <v>-9.5079999999999991E-3</v>
+        <v>5.9881999999999998E-2</v>
       </c>
       <c r="L6" s="2" cm="1">
         <f t="array" ref="L6">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
@@ -7994,11 +8591,11 @@
       </c>
       <c r="N6" s="3">
         <f t="shared" si="0"/>
-        <v>0.18413654618473885</v>
+        <v>0.1363453815261044</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="e" vm="39">
+      <c r="A7" s="1" t="e" vm="43">
         <v>#VALUE!</v>
       </c>
       <c r="B7" s="4" t="str" cm="1">
@@ -8020,23 +8617,23 @@
       </c>
       <c r="G7" s="2" cm="1">
         <f t="array" ref="G7">_FV(A7,"Open")</f>
-        <v>87.58</v>
+        <v>87.13</v>
       </c>
       <c r="H7" s="2" cm="1">
         <f t="array" ref="H7">_FV(A7,"High")</f>
-        <v>87.58</v>
+        <v>88.93</v>
       </c>
       <c r="I7" s="2" cm="1">
         <f t="array" ref="I7">_FV(A7,"Low")</f>
-        <v>86.13</v>
+        <v>87.08</v>
       </c>
       <c r="J7" s="2" cm="1">
         <f t="array" ref="J7">_FV(A7,"Price")</f>
-        <v>87.174999999999997</v>
+        <v>88.734999999999999</v>
       </c>
       <c r="K7" s="3" cm="1">
         <f t="array" ref="K7">_FV(A7,"Change (%)",TRUE)</f>
-        <v>-7.6839999999999999E-3</v>
+        <v>1.9474000000000002E-2</v>
       </c>
       <c r="L7" s="2" cm="1">
         <f t="array" ref="L7">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
@@ -8048,11 +8645,11 @@
       </c>
       <c r="N7" s="3">
         <f t="shared" si="0"/>
-        <v>0.19713575244059681</v>
+        <v>0.18276846564744889</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="e" vm="40">
+      <c r="A8" s="1" t="e" vm="44">
         <v>#VALUE!</v>
       </c>
       <c r="B8" s="4" t="str" cm="1">
@@ -8071,23 +8668,23 @@
       </c>
       <c r="G8" s="2" cm="1">
         <f t="array" ref="G8">_FV(A8,"Open")</f>
-        <v>46.79</v>
+        <v>47.56</v>
       </c>
       <c r="H8" s="2" cm="1">
         <f t="array" ref="H8">_FV(A8,"High")</f>
-        <v>46.82</v>
+        <v>47.99</v>
       </c>
       <c r="I8" s="2" cm="1">
         <f t="array" ref="I8">_FV(A8,"Low")</f>
-        <v>45.85</v>
+        <v>46.935000000000002</v>
       </c>
       <c r="J8" s="2" cm="1">
         <f t="array" ref="J8">_FV(A8,"Price")</f>
-        <v>46.265000000000001</v>
+        <v>47.32</v>
       </c>
       <c r="K8" s="3" cm="1">
         <f t="array" ref="K8">_FV(A8,"Change (%)",TRUE)</f>
-        <v>-1.1642999999999999E-2</v>
+        <v>2.7132999999999997E-2</v>
       </c>
       <c r="L8" s="2" cm="1">
         <f t="array" ref="L8">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
@@ -8099,11 +8696,11 @@
       </c>
       <c r="N8" s="3">
         <f t="shared" si="0"/>
-        <v>0.23058373524031267</v>
+        <v>0.21303841676367871</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="e" vm="41">
+      <c r="A9" s="1" t="e" vm="45">
         <v>#VALUE!</v>
       </c>
       <c r="B9" s="4" t="str" cm="1">
@@ -8122,23 +8719,23 @@
       </c>
       <c r="G9" s="2" cm="1">
         <f t="array" ref="G9">_FV(A9,"Open")</f>
-        <v>30.19</v>
+        <v>29.85</v>
       </c>
       <c r="H9" s="2" cm="1">
         <f t="array" ref="H9">_FV(A9,"High")</f>
-        <v>30.19</v>
+        <v>30.42</v>
       </c>
       <c r="I9" s="2" cm="1">
         <f t="array" ref="I9">_FV(A9,"Low")</f>
-        <v>29.8</v>
+        <v>29.85</v>
       </c>
       <c r="J9" s="2" cm="1">
         <f t="array" ref="J9">_FV(A9,"Price")</f>
-        <v>29.914999999999999</v>
+        <v>30.395</v>
       </c>
       <c r="K9" s="3" cm="1">
         <f t="array" ref="K9">_FV(A9,"Change (%)",TRUE)</f>
-        <v>-1.1401E-2</v>
+        <v>1.7917000000000002E-2</v>
       </c>
       <c r="L9" s="2" cm="1">
         <f t="array" ref="L9">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
@@ -8150,11 +8747,11 @@
       </c>
       <c r="N9" s="3">
         <f t="shared" si="0"/>
-        <v>0.24647355163727966</v>
+        <v>0.23438287153652398</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="e" vm="42">
+      <c r="A10" s="1" t="e" vm="46">
         <v>#VALUE!</v>
       </c>
       <c r="B10" s="4" t="str" cm="1">
@@ -8176,23 +8773,23 @@
       </c>
       <c r="G10" s="2" cm="1">
         <f t="array" ref="G10">_FV(A10,"Open")</f>
-        <v>74.16</v>
+        <v>75.739999999999995</v>
       </c>
       <c r="H10" s="2" cm="1">
         <f t="array" ref="H10">_FV(A10,"High")</f>
-        <v>75.22</v>
+        <v>76.8</v>
       </c>
       <c r="I10" s="2" cm="1">
         <f t="array" ref="I10">_FV(A10,"Low")</f>
-        <v>73.64</v>
+        <v>75.34</v>
       </c>
       <c r="J10" s="2" cm="1">
         <f t="array" ref="J10">_FV(A10,"Price")</f>
-        <v>75.142499999999998</v>
+        <v>76.489999999999995</v>
       </c>
       <c r="K10" s="3" cm="1">
         <f t="array" ref="K10">_FV(A10,"Change (%)",TRUE)</f>
-        <v>1.3247999999999999E-2</v>
+        <v>2.0411000000000002E-2</v>
       </c>
       <c r="L10" s="2" cm="1">
         <f t="array" ref="L10">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
@@ -8204,11 +8801,11 @@
       </c>
       <c r="N10" s="3">
         <f t="shared" si="0"/>
-        <v>0.24646510228640192</v>
+        <v>0.23295226634576818</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="e" vm="43">
+      <c r="A11" s="1" t="e" vm="47">
         <v>#VALUE!</v>
       </c>
       <c r="B11" s="4" t="str" cm="1">
@@ -8230,23 +8827,23 @@
       </c>
       <c r="G11" s="2" cm="1">
         <f t="array" ref="G11">_FV(A11,"Open")</f>
-        <v>97.3</v>
+        <v>97.73</v>
       </c>
       <c r="H11" s="2" cm="1">
         <f t="array" ref="H11">_FV(A11,"High")</f>
-        <v>98.39</v>
+        <v>100.05</v>
       </c>
       <c r="I11" s="2" cm="1">
         <f t="array" ref="I11">_FV(A11,"Low")</f>
-        <v>97.26</v>
+        <v>97.65</v>
       </c>
       <c r="J11" s="2" cm="1">
         <f t="array" ref="J11">_FV(A11,"Price")</f>
-        <v>97.49</v>
+        <v>99.71</v>
       </c>
       <c r="K11" s="3" cm="1">
         <f t="array" ref="K11">_FV(A11,"Change (%)",TRUE)</f>
-        <v>-6.8259999999999996E-3</v>
+        <v>2.4874E-2</v>
       </c>
       <c r="L11" s="2" cm="1">
         <f t="array" ref="L11">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
@@ -8258,11 +8855,11 @@
       </c>
       <c r="N11" s="3">
         <f t="shared" si="0"/>
-        <v>0.30907158043940469</v>
+        <v>0.29333805811481223</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="e" vm="44">
+      <c r="A12" s="1" t="e" vm="48">
         <v>#VALUE!</v>
       </c>
       <c r="B12" s="4" t="str" cm="1">
@@ -8284,23 +8881,23 @@
       </c>
       <c r="G12" s="2" cm="1">
         <f t="array" ref="G12">_FV(A12,"Open")</f>
-        <v>86.85</v>
+        <v>86.54</v>
       </c>
       <c r="H12" s="2" cm="1">
         <f t="array" ref="H12">_FV(A12,"High")</f>
-        <v>87.44</v>
+        <v>91.52</v>
       </c>
       <c r="I12" s="2" cm="1">
         <f t="array" ref="I12">_FV(A12,"Low")</f>
-        <v>84.81</v>
+        <v>86.36</v>
       </c>
       <c r="J12" s="2" cm="1">
         <f t="array" ref="J12">_FV(A12,"Price")</f>
-        <v>85.37</v>
+        <v>91.42</v>
       </c>
       <c r="K12" s="3" cm="1">
         <f t="array" ref="K12">_FV(A12,"Change (%)",TRUE)</f>
-        <v>-2.1097999999999999E-2</v>
+        <v>7.2123999999999994E-2</v>
       </c>
       <c r="L12" s="2" cm="1">
         <f t="array" ref="L12">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
@@ -8312,11 +8909,11 @@
       </c>
       <c r="N12" s="3">
         <f t="shared" si="0"/>
-        <v>0.32779527559055116</v>
+        <v>0.28015748031496063</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="e" vm="45">
+      <c r="A13" s="1" t="e" vm="49">
         <v>#VALUE!</v>
       </c>
       <c r="B13" s="4" t="str" cm="1">
@@ -8337,23 +8934,23 @@
       </c>
       <c r="G13" s="2" cm="1">
         <f t="array" ref="G13">_FV(A13,"Open")</f>
-        <v>33.619999999999997</v>
+        <v>34.33</v>
       </c>
       <c r="H13" s="2" cm="1">
         <f t="array" ref="H13">_FV(A13,"High")</f>
-        <v>34.248199999999997</v>
+        <v>35.091999999999999</v>
       </c>
       <c r="I13" s="2" cm="1">
         <f t="array" ref="I13">_FV(A13,"Low")</f>
-        <v>33.382899999999999</v>
+        <v>34.107999999999997</v>
       </c>
       <c r="J13" s="2" cm="1">
         <f t="array" ref="J13">_FV(A13,"Price")</f>
-        <v>34.06</v>
+        <v>34.99</v>
       </c>
       <c r="K13" s="3" cm="1">
         <f t="array" ref="K13">_FV(A13,"Change (%)",TRUE)</f>
-        <v>1.702E-2</v>
+        <v>2.8815E-2</v>
       </c>
       <c r="L13" s="2" cm="1">
         <f t="array" ref="L13">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
@@ -8365,11 +8962,11 @@
       </c>
       <c r="N13" s="3">
         <f t="shared" si="0"/>
-        <v>0.30912778904665306</v>
+        <v>0.29026369168356991</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="e" vm="46">
+      <c r="A14" s="1" t="e" vm="50">
         <v>#VALUE!</v>
       </c>
       <c r="B14" s="4" t="str" cm="1">
@@ -8391,23 +8988,23 @@
       </c>
       <c r="G14" s="2" cm="1">
         <f t="array" ref="G14">_FV(A14,"Open")</f>
-        <v>48.2</v>
+        <v>47.79</v>
       </c>
       <c r="H14" s="2" cm="1">
         <f t="array" ref="H14">_FV(A14,"High")</f>
-        <v>48.57</v>
+        <v>48.98</v>
       </c>
       <c r="I14" s="2" cm="1">
         <f t="array" ref="I14">_FV(A14,"Low")</f>
-        <v>46.55</v>
+        <v>47.58</v>
       </c>
       <c r="J14" s="2" cm="1">
         <f t="array" ref="J14">_FV(A14,"Price")</f>
-        <v>47.34</v>
+        <v>48.6</v>
       </c>
       <c r="K14" s="3" cm="1">
         <f t="array" ref="K14">_FV(A14,"Change (%)",TRUE)</f>
-        <v>-2.7726000000000001E-2</v>
+        <v>2.8354000000000001E-2</v>
       </c>
       <c r="L14" s="2" cm="1">
         <f t="array" ref="L14">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
@@ -8419,11 +9016,11 @@
       </c>
       <c r="N14" s="3">
         <f t="shared" si="0"/>
-        <v>0.36276753264234757</v>
+        <v>0.34580697267465343</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="e" vm="47">
+      <c r="A15" s="1" t="e" vm="51">
         <v>#VALUE!</v>
       </c>
       <c r="B15" s="4" t="str" cm="1">
@@ -8445,23 +9042,23 @@
       </c>
       <c r="G15" s="2" cm="1">
         <f t="array" ref="G15">_FV(A15,"Open")</f>
-        <v>23.18</v>
+        <v>23.75</v>
       </c>
       <c r="H15" s="2" cm="1">
         <f t="array" ref="H15">_FV(A15,"High")</f>
-        <v>23.7</v>
+        <v>24.48</v>
       </c>
       <c r="I15" s="2" cm="1">
         <f t="array" ref="I15">_FV(A15,"Low")</f>
-        <v>23.11</v>
+        <v>23.69</v>
       </c>
       <c r="J15" s="2" cm="1">
         <f t="array" ref="J15">_FV(A15,"Price")</f>
-        <v>23.605</v>
+        <v>24.44</v>
       </c>
       <c r="K15" s="3" cm="1">
         <f t="array" ref="K15">_FV(A15,"Change (%)",TRUE)</f>
-        <v>1.6798999999999998E-2</v>
+        <v>3.6032000000000002E-2</v>
       </c>
       <c r="L15" s="2" cm="1">
         <f t="array" ref="L15">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
@@ -8473,11 +9070,11 @@
       </c>
       <c r="N15" s="3">
         <f t="shared" si="0"/>
-        <v>0.33916573348264273</v>
+        <v>0.31578947368421045</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="e" vm="48">
+      <c r="A16" s="1" t="e" vm="52">
         <v>#VALUE!</v>
       </c>
       <c r="B16" s="4" t="str" cm="1">
@@ -8498,23 +9095,23 @@
       </c>
       <c r="G16" s="2" cm="1">
         <f t="array" ref="G16">_FV(A16,"Open")</f>
-        <v>42.31</v>
+        <v>41.7</v>
       </c>
       <c r="H16" s="2" cm="1">
         <f t="array" ref="H16">_FV(A16,"High")</f>
-        <v>42.79</v>
+        <v>42.59</v>
       </c>
       <c r="I16" s="2" cm="1">
         <f t="array" ref="I16">_FV(A16,"Low")</f>
-        <v>41.2</v>
+        <v>41.34</v>
       </c>
       <c r="J16" s="2" cm="1">
         <f t="array" ref="J16">_FV(A16,"Price")</f>
-        <v>41.28</v>
+        <v>42.46</v>
       </c>
       <c r="K16" s="3" cm="1">
         <f t="array" ref="K16">_FV(A16,"Change (%)",TRUE)</f>
-        <v>-2.9163000000000001E-2</v>
+        <v>3.2336000000000004E-2</v>
       </c>
       <c r="L16" s="2" cm="1">
         <f t="array" ref="L16">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
@@ -8526,11 +9123,11 @@
       </c>
       <c r="N16" s="3">
         <f t="shared" si="0"/>
-        <v>0.39070110701107008</v>
+        <v>0.37328413284132839</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="e" vm="49">
+      <c r="A17" s="1" t="e" vm="53">
         <v>#VALUE!</v>
       </c>
       <c r="B17" s="4" t="str" cm="1">
@@ -8552,23 +9149,23 @@
       </c>
       <c r="G17" s="2" cm="1">
         <f t="array" ref="G17">_FV(A17,"Open")</f>
-        <v>39.9</v>
+        <v>40.04</v>
       </c>
       <c r="H17" s="2" cm="1">
         <f t="array" ref="H17">_FV(A17,"High")</f>
-        <v>40.340000000000003</v>
+        <v>42.08</v>
       </c>
       <c r="I17" s="2" cm="1">
         <f t="array" ref="I17">_FV(A17,"Low")</f>
-        <v>39.244999999999997</v>
+        <v>40.04</v>
       </c>
       <c r="J17" s="2" cm="1">
         <f t="array" ref="J17">_FV(A17,"Price")</f>
-        <v>39.401299999999999</v>
+        <v>41.734999999999999</v>
       </c>
       <c r="K17" s="3" cm="1">
         <f t="array" ref="K17">_FV(A17,"Change (%)",TRUE)</f>
-        <v>-1.4228000000000001E-2</v>
+        <v>6.1148999999999995E-2</v>
       </c>
       <c r="L17" s="2" cm="1">
         <f t="array" ref="L17">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
@@ -8580,11 +9177,11 @@
       </c>
       <c r="N17" s="3">
         <f t="shared" si="0"/>
-        <v>0.4130597348428422</v>
+        <v>0.37829584388499921</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="e" vm="50">
+      <c r="A18" s="1" t="e" vm="54">
         <v>#VALUE!</v>
       </c>
       <c r="B18" s="4" t="str" cm="1">
@@ -8606,23 +9203,23 @@
       </c>
       <c r="G18" s="2" cm="1">
         <f t="array" ref="G18">_FV(A18,"Open")</f>
-        <v>30.55</v>
+        <v>29.46</v>
       </c>
       <c r="H18" s="2" cm="1">
         <f t="array" ref="H18">_FV(A18,"High")</f>
-        <v>30.55</v>
+        <v>30.39</v>
       </c>
       <c r="I18" s="2" cm="1">
         <f t="array" ref="I18">_FV(A18,"Low")</f>
-        <v>28.16</v>
+        <v>28.8</v>
       </c>
       <c r="J18" s="2" cm="1">
         <f t="array" ref="J18">_FV(A18,"Price")</f>
-        <v>28.315000000000001</v>
+        <v>30.31</v>
       </c>
       <c r="K18" s="3" cm="1">
         <f t="array" ref="K18">_FV(A18,"Change (%)",TRUE)</f>
-        <v>-7.8886999999999999E-2</v>
+        <v>7.2161000000000003E-2</v>
       </c>
       <c r="L18" s="2" cm="1">
         <f t="array" ref="L18">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
@@ -8634,11 +9231,11 @@
       </c>
       <c r="N18" s="3">
         <f t="shared" si="0"/>
-        <v>0.46706192358366272</v>
+        <v>0.42951251646903826</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="e" vm="51">
+      <c r="A19" s="1" t="e" vm="55">
         <v>#VALUE!</v>
       </c>
       <c r="B19" s="4" t="str" cm="1">
@@ -8660,23 +9257,23 @@
       </c>
       <c r="G19" s="2" cm="1">
         <f t="array" ref="G19">_FV(A19,"Open")</f>
-        <v>43.23</v>
+        <v>43.12</v>
       </c>
       <c r="H19" s="2" cm="1">
         <f t="array" ref="H19">_FV(A19,"High")</f>
-        <v>43.51</v>
+        <v>45.19</v>
       </c>
       <c r="I19" s="2" cm="1">
         <f t="array" ref="I19">_FV(A19,"Low")</f>
-        <v>42.48</v>
+        <v>43.11</v>
       </c>
       <c r="J19" s="2" cm="1">
         <f t="array" ref="J19">_FV(A19,"Price")</f>
-        <v>42.585000000000001</v>
+        <v>44.884999999999998</v>
       </c>
       <c r="K19" s="3" cm="1">
         <f t="array" ref="K19">_FV(A19,"Change (%)",TRUE)</f>
-        <v>-2.1259E-2</v>
+        <v>5.5993000000000001E-2</v>
       </c>
       <c r="L19" s="2" cm="1">
         <f t="array" ref="L19">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
@@ -8688,11 +9285,11 @@
       </c>
       <c r="N19" s="3">
         <f t="shared" si="0"/>
-        <v>0.44003944773175541</v>
+        <v>0.40979618671926366</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="e" vm="52">
+      <c r="A20" s="1" t="e" vm="56">
         <v>#VALUE!</v>
       </c>
       <c r="B20" s="4" t="str" cm="1">
@@ -8714,23 +9311,23 @@
       </c>
       <c r="G20" s="2" cm="1">
         <f t="array" ref="G20">_FV(A20,"Open")</f>
-        <v>55.35</v>
+        <v>55.37</v>
       </c>
       <c r="H20" s="2" cm="1">
         <f t="array" ref="H20">_FV(A20,"High")</f>
-        <v>56.14</v>
+        <v>57.83</v>
       </c>
       <c r="I20" s="2" cm="1">
         <f t="array" ref="I20">_FV(A20,"Low")</f>
-        <v>54.29</v>
+        <v>55.02</v>
       </c>
       <c r="J20" s="2" cm="1">
         <f t="array" ref="J20">_FV(A20,"Price")</f>
-        <v>54.33</v>
+        <v>57.675699999999999</v>
       </c>
       <c r="K20" s="3" cm="1">
         <f t="array" ref="K20">_FV(A20,"Change (%)",TRUE)</f>
-        <v>-2.0198000000000001E-2</v>
+        <v>6.1386000000000003E-2</v>
       </c>
       <c r="L20" s="2" cm="1">
         <f t="array" ref="L20">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
@@ -8742,11 +9339,11 @@
       </c>
       <c r="N20" s="3">
         <f t="shared" si="0"/>
-        <v>0.46730071575644672</v>
+        <v>0.43449651926659477</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="e" vm="53">
+      <c r="A21" s="1" t="e" vm="57">
         <v>#VALUE!</v>
       </c>
       <c r="B21" s="4" t="str" cm="1">
@@ -8768,23 +9365,23 @@
       </c>
       <c r="G21" s="2" cm="1">
         <f t="array" ref="G21">_FV(A21,"Open")</f>
-        <v>14.57</v>
+        <v>14.33</v>
       </c>
       <c r="H21" s="2" cm="1">
         <f t="array" ref="H21">_FV(A21,"High")</f>
-        <v>14.695</v>
+        <v>14.77</v>
       </c>
       <c r="I21" s="2" cm="1">
         <f t="array" ref="I21">_FV(A21,"Low")</f>
-        <v>14.06</v>
+        <v>14.29</v>
       </c>
       <c r="J21" s="2" cm="1">
         <f t="array" ref="J21">_FV(A21,"Price")</f>
-        <v>14.17</v>
+        <v>14.55</v>
       </c>
       <c r="K21" s="3" cm="1">
         <f t="array" ref="K21">_FV(A21,"Change (%)",TRUE)</f>
-        <v>-3.8670000000000003E-2</v>
+        <v>2.8996000000000001E-2</v>
       </c>
       <c r="L21" s="2" cm="1">
         <f t="array" ref="L21">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
@@ -8796,11 +9393,11 @@
       </c>
       <c r="N21" s="3">
         <f t="shared" si="0"/>
-        <v>0.49769585253456222</v>
+        <v>0.48422545196738742</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="e" vm="54">
+      <c r="A22" s="1" t="e" vm="58">
         <v>#VALUE!</v>
       </c>
       <c r="B22" s="4" t="str" cm="1">
@@ -8822,23 +9419,23 @@
       </c>
       <c r="G22" s="2" cm="1">
         <f t="array" ref="G22">_FV(A22,"Open")</f>
-        <v>32.770000000000003</v>
+        <v>32.840000000000003</v>
       </c>
       <c r="H22" s="2" cm="1">
         <f t="array" ref="H22">_FV(A22,"High")</f>
-        <v>32.99</v>
+        <v>33.880099999999999</v>
       </c>
       <c r="I22" s="2" cm="1">
         <f t="array" ref="I22">_FV(A22,"Low")</f>
-        <v>32.340000000000003</v>
+        <v>32.79</v>
       </c>
       <c r="J22" s="2" cm="1">
         <f t="array" ref="J22">_FV(A22,"Price")</f>
-        <v>32.36</v>
+        <v>33.65</v>
       </c>
       <c r="K22" s="3" cm="1">
         <f t="array" ref="K22">_FV(A22,"Change (%)",TRUE)</f>
-        <v>-1.6413000000000001E-2</v>
+        <v>3.8260000000000002E-2</v>
       </c>
       <c r="L22" s="2" cm="1">
         <f t="array" ref="L22">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
@@ -8850,11 +9447,11 @@
       </c>
       <c r="N22" s="3">
         <f t="shared" si="0"/>
-        <v>0.49696875485776465</v>
+        <v>0.47691590237836157</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="e" vm="55">
+      <c r="A23" s="1" t="e" vm="59">
         <v>#VALUE!</v>
       </c>
       <c r="B23" s="4" t="str" cm="1">
@@ -8876,23 +9473,23 @@
       </c>
       <c r="G23" s="2" cm="1">
         <f t="array" ref="G23">_FV(A23,"Open")</f>
-        <v>22.38</v>
+        <v>22.17</v>
       </c>
       <c r="H23" s="2" cm="1">
         <f t="array" ref="H23">_FV(A23,"High")</f>
-        <v>22.75</v>
+        <v>22.83</v>
       </c>
       <c r="I23" s="2" cm="1">
         <f t="array" ref="I23">_FV(A23,"Low")</f>
-        <v>21.38</v>
+        <v>22.02</v>
       </c>
       <c r="J23" s="2" cm="1">
         <f t="array" ref="J23">_FV(A23,"Price")</f>
-        <v>22</v>
+        <v>22.734999999999999</v>
       </c>
       <c r="K23" s="3" cm="1">
         <f t="array" ref="K23">_FV(A23,"Change (%)",TRUE)</f>
-        <v>-2.5686E-2</v>
+        <v>3.4348999999999998E-2</v>
       </c>
       <c r="L23" s="2" cm="1">
         <f t="array" ref="L23">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
@@ -8904,11 +9501,11 @@
       </c>
       <c r="N23" s="3">
         <f t="shared" si="0"/>
-        <v>0.51370468611847919</v>
+        <v>0.49745800176834665</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="e" vm="56">
+      <c r="A24" s="1" t="e" vm="60">
         <v>#VALUE!</v>
       </c>
       <c r="B24" s="1" t="str" cm="1">
@@ -8930,23 +9527,23 @@
       </c>
       <c r="G24" s="2" cm="1">
         <f t="array" ref="G24">_FV(A24,"Open")</f>
-        <v>24.72</v>
+        <v>24.74</v>
       </c>
       <c r="H24" s="2" cm="1">
         <f t="array" ref="H24">_FV(A24,"High")</f>
-        <v>24.88</v>
+        <v>26.28</v>
       </c>
       <c r="I24" s="2" cm="1">
         <f t="array" ref="I24">_FV(A24,"Low")</f>
-        <v>24.4</v>
+        <v>24.71</v>
       </c>
       <c r="J24" s="2" cm="1">
         <f t="array" ref="J24">_FV(A24,"Price")</f>
-        <v>24.605</v>
+        <v>26.042200000000001</v>
       </c>
       <c r="K24" s="3" cm="1">
         <f t="array" ref="K24">_FV(A24,"Change (%)",TRUE)</f>
-        <v>-1.4223E-2</v>
+        <v>6.0350000000000001E-2</v>
       </c>
       <c r="L24" s="2" cm="1">
         <f t="array" ref="L24">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
@@ -8958,11 +9555,11 @@
       </c>
       <c r="N24" s="3">
         <f t="shared" si="0"/>
-        <v>0.55059360730593609</v>
+        <v>0.52434337899543382</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="e" vm="57">
+      <c r="A25" s="1" t="e" vm="61">
         <v>#VALUE!</v>
       </c>
       <c r="B25" s="4" t="str" cm="1">
@@ -8984,23 +9581,23 @@
       </c>
       <c r="G25" s="2" cm="1">
         <f t="array" ref="G25">_FV(A25,"Open")</f>
-        <v>20.41</v>
+        <v>20.46</v>
       </c>
       <c r="H25" s="2" cm="1">
         <f t="array" ref="H25">_FV(A25,"High")</f>
-        <v>20.73</v>
+        <v>20.85</v>
       </c>
       <c r="I25" s="2" cm="1">
         <f t="array" ref="I25">_FV(A25,"Low")</f>
-        <v>19.89</v>
+        <v>20.29</v>
       </c>
       <c r="J25" s="2" cm="1">
         <f t="array" ref="J25">_FV(A25,"Price")</f>
-        <v>20.254999999999999</v>
+        <v>20.754999999999999</v>
       </c>
       <c r="K25" s="3" cm="1">
         <f t="array" ref="K25">_FV(A25,"Change (%)",TRUE)</f>
-        <v>-1.4355E-2</v>
+        <v>2.5952000000000003E-2</v>
       </c>
       <c r="L25" s="2" cm="1">
         <f t="array" ref="L25">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
@@ -9012,11 +9609,11 @@
       </c>
       <c r="N25" s="3">
         <f t="shared" si="0"/>
-        <v>0.6596942204301075</v>
+        <v>0.65129368279569888</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="e" vm="58">
+      <c r="A26" s="1" t="e" vm="62">
         <v>#VALUE!</v>
       </c>
       <c r="B26" s="4" t="str" cm="1">
@@ -9038,23 +9635,23 @@
       </c>
       <c r="G26" s="2" cm="1">
         <f t="array" ref="G26">_FV(A26,"Open")</f>
-        <v>16.190000000000001</v>
+        <v>16.09</v>
       </c>
       <c r="H26" s="2" cm="1">
         <f t="array" ref="H26">_FV(A26,"High")</f>
-        <v>16.45</v>
+        <v>18.03</v>
       </c>
       <c r="I26" s="2" cm="1">
         <f t="array" ref="I26">_FV(A26,"Low")</f>
-        <v>15.7</v>
+        <v>16.07</v>
       </c>
       <c r="J26" s="2" cm="1">
         <f t="array" ref="J26">_FV(A26,"Price")</f>
-        <v>15.71</v>
+        <v>17.75</v>
       </c>
       <c r="K26" s="3" cm="1">
         <f t="array" ref="K26">_FV(A26,"Change (%)",TRUE)</f>
-        <v>-3.5012000000000001E-2</v>
+        <v>0.13129399999999999</v>
       </c>
       <c r="L26" s="2" cm="1">
         <f t="array" ref="L26">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</f>
@@ -9066,12 +9663,12 @@
       </c>
       <c r="N26" s="3">
         <f t="shared" si="0"/>
-        <v>0.70934320074005552</v>
+        <v>0.67160037002775208</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -9561,11 +10158,11 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">

--- a/input/Watchlist.xlsx
+++ b/input/Watchlist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssoma\OneDrive - Bayer\Personal Data\Analytics\us-stocks-analysis\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bayergroup-my.sharepoint.com/personal/sivacharan_chandrasekar_ext_bayer_com/Documents/Personal Data/Analytics/us-stocks-analysis/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A259AFBD-2F1F-43A4-8040-58927886A03B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{A259AFBD-2F1F-43A4-8040-58927886A03B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{9270F764-42D1-4F89-B58A-37580100E994}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fund List" sheetId="1" r:id="rId1"/>
@@ -763,7 +763,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="427">
   <si>
     <t>Funds</t>
   </si>
@@ -1926,12 +1926,6 @@
     <t>Bond</t>
   </si>
   <si>
-    <t>AGG</t>
-  </si>
-  <si>
-    <t>BND</t>
-  </si>
-  <si>
     <t>FNBGX</t>
   </si>
   <si>
@@ -2016,9 +2010,6 @@
     <t>Retirement</t>
   </si>
   <si>
-    <t>QQQ</t>
-  </si>
-  <si>
     <t>ARKK, ARKW</t>
   </si>
   <si>
@@ -2032,6 +2023,27 @@
   </si>
   <si>
     <t>FUAMX</t>
+  </si>
+  <si>
+    <t>EFG</t>
+  </si>
+  <si>
+    <t>SPEM</t>
+  </si>
+  <si>
+    <t>SCHE</t>
+  </si>
+  <si>
+    <t>ACWX</t>
+  </si>
+  <si>
+    <t>IMTM, EFG</t>
+  </si>
+  <si>
+    <t>FLTW, FLSW</t>
+  </si>
+  <si>
+    <t>https://money.usnews.com/funds/etfs/international-stock</t>
   </si>
 </sst>
 </file>
@@ -2133,7 +2145,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2191,6 +2203,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2275,7 +2293,7 @@
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2427,6 +2445,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -8401,7 +8420,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>3</v>
@@ -8422,7 +8441,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="81" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="L1" s="19" t="s">
         <v>9</v>
@@ -8449,7 +8468,7 @@
         <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
@@ -8507,7 +8526,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>14</v>
@@ -8565,7 +8584,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>14</v>
@@ -8623,7 +8642,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>14</v>
@@ -8681,7 +8700,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>14</v>
@@ -8739,7 +8758,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>15</v>
@@ -8797,7 +8816,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -8855,7 +8874,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>15</v>
@@ -8913,7 +8932,7 @@
         <v>13</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>15</v>
@@ -8971,7 +8990,7 @@
         <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>16</v>
@@ -9029,7 +9048,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>16</v>
@@ -9087,7 +9106,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>16</v>
@@ -9145,7 +9164,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>16</v>
@@ -9203,7 +9222,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>16</v>
@@ -9261,7 +9280,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>16</v>
@@ -9319,10 +9338,10 @@
         <v>13</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -9377,10 +9396,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F18" s="3">
         <f t="shared" si="0"/>
@@ -9435,10 +9454,10 @@
         <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" si="0"/>
@@ -9493,10 +9512,10 @@
         <v>13</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F20" s="3">
         <f t="shared" si="0"/>
@@ -9551,10 +9570,10 @@
         <v>13</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F21" s="3">
         <f t="shared" si="0"/>
@@ -9609,10 +9628,10 @@
         <v>13</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F22" s="3">
         <f t="shared" si="0"/>
@@ -9667,10 +9686,10 @@
         <v>13</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F23" s="3" t="str">
         <f t="shared" si="0"/>
@@ -9725,10 +9744,10 @@
         <v>13</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" si="0"/>
@@ -9783,10 +9802,10 @@
         <v>13</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F25" s="3">
         <f t="shared" si="0"/>
@@ -9841,10 +9860,10 @@
         <v>13</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F26" s="3">
         <f t="shared" si="0"/>
@@ -9899,7 +9918,7 @@
         <v>13</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>17</v>
@@ -9957,7 +9976,7 @@
         <v>13</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>17</v>
@@ -10015,7 +10034,7 @@
         <v>13</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>18</v>
@@ -10073,7 +10092,7 @@
         <v>13</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>18</v>
@@ -10131,7 +10150,7 @@
         <v>13</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>18</v>
@@ -10189,7 +10208,7 @@
         <v>13</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>19</v>
@@ -10247,7 +10266,7 @@
         <v>13</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>19</v>
@@ -10305,7 +10324,7 @@
         <v>13</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>20</v>
@@ -10363,7 +10382,7 @@
         <v>13</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>20</v>
@@ -10421,7 +10440,7 @@
         <v>13</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>20</v>
@@ -10479,7 +10498,7 @@
         <v>13</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>20</v>
@@ -10537,7 +10556,7 @@
         <v>13</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>20</v>
@@ -10595,7 +10614,7 @@
         <v>13</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>20</v>
@@ -10653,7 +10672,7 @@
         <v>13</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>20</v>
@@ -10711,7 +10730,7 @@
         <v>13</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>20</v>
@@ -10769,7 +10788,7 @@
         <v>13</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>21</v>
@@ -10827,7 +10846,7 @@
         <v>13</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>21</v>
@@ -10885,7 +10904,7 @@
         <v>13</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>386</v>
@@ -10943,7 +10962,7 @@
         <v>13</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>386</v>
@@ -11001,7 +11020,7 @@
         <v>13</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>386</v>
@@ -17323,7 +17342,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D2" s="3">
         <v>0.09</v>
@@ -17345,7 +17364,7 @@
         <v>321</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D3" s="3">
         <v>0.09</v>
@@ -17367,7 +17386,7 @@
         <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D4" s="3">
         <v>0.18</v>
@@ -17389,7 +17408,7 @@
         <v>322</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D5" s="3">
         <v>0.12</v>
@@ -17411,7 +17430,7 @@
         <v>323</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D6" s="3">
         <v>8.4000000000000005E-2</v>
@@ -17455,7 +17474,7 @@
         <v>326</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D8" s="3">
         <v>0.09</v>
@@ -17477,7 +17496,7 @@
         <v>327</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D9" s="3">
         <v>0.18</v>
@@ -17499,7 +17518,7 @@
         <v>328</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D10" s="3">
         <v>0.08</v>
@@ -17521,7 +17540,7 @@
         <v>329</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D11" s="3">
         <v>0.05</v>
@@ -17576,7 +17595,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>21</v>
@@ -17598,7 +17617,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>321</v>
@@ -17620,7 +17639,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>20</v>
@@ -17642,7 +17661,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>322</v>
@@ -17664,7 +17683,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>323</v>
@@ -17686,7 +17705,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>336</v>
@@ -17708,7 +17727,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>338</v>
@@ -17871,11 +17890,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9442434-AE3F-49F6-94ED-A6D1C7BB92DA}">
-  <dimension ref="A1:AK27"/>
+  <dimension ref="A1:AK36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -18149,7 +18168,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C3" s="48">
         <v>1.4999999999999999E-4</v>
@@ -18216,68 +18235,68 @@
         <v>21</v>
       </c>
       <c r="U3" s="47" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="V3" s="48">
         <v>1.4999999999999999E-4</v>
       </c>
       <c r="W3" s="48">
-        <v>0.11409999999999999</v>
+        <v>0.1368</v>
       </c>
       <c r="X3" s="49">
-        <v>0.05</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="Y3" s="50">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Z3" s="50">
         <f t="shared" ref="Z3:Z23" si="8">Y3*12</f>
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="AA3" s="51">
         <f t="shared" ref="AA3:AJ3" si="9">IF(MID(Z$1,1,2) &lt;&gt; "CY",($Y3*12*(1+$W3)) - ($Y3*12*(1+$W3))*$V3, (Z3+($Y3*12))*(1+$W3) - (Z3+($Y3*12))*(1+$W3)*$V3)</f>
-        <v>668.35973100000001</v>
+        <v>613.77991920000011</v>
       </c>
       <c r="AB3" s="51">
         <f t="shared" si="9"/>
-        <v>1412.8676143706541</v>
+        <v>1311.4202695947383</v>
       </c>
       <c r="AC3" s="51">
         <f t="shared" si="9"/>
-        <v>2242.1994287989705</v>
+        <v>2104.3788582909269</v>
       </c>
       <c r="AD3" s="51">
         <f t="shared" si="9"/>
-        <v>3166.0194094673893</v>
+        <v>3005.6789666222103</v>
       </c>
       <c r="AE3" s="51">
         <f t="shared" si="9"/>
-        <v>4195.0928657540062</v>
+        <v>4030.1232400787403</v>
       </c>
       <c r="AF3" s="51">
         <f t="shared" si="9"/>
-        <v>5341.4116297922783</v>
+        <v>5194.5368019066145</v>
       </c>
       <c r="AG3" s="51">
         <f t="shared" si="9"/>
-        <v>6618.3337977470646</v>
+        <v>6518.0435831919785</v>
       </c>
       <c r="AH3" s="51">
         <f t="shared" si="9"/>
-        <v>8040.7393922173942</v>
+        <v>8022.3804077808354</v>
       </c>
       <c r="AI3" s="51">
         <f t="shared" si="9"/>
-        <v>9625.2037597058679</v>
+        <v>9732.2539904581172</v>
       </c>
       <c r="AJ3" s="51">
         <f t="shared" si="9"/>
-        <v>11390.190723762005</v>
+        <v>11675.746711602334</v>
       </c>
       <c r="AK3" s="51">
         <f t="shared" ref="AK3:AK23" si="10">Z3*10</f>
-        <v>6000</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.2">
@@ -18358,62 +18377,62 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="W4" s="35">
-        <v>0.1113</v>
+        <v>0.13550000000000001</v>
       </c>
       <c r="X4" s="36">
-        <v>2.5000000000000001E-2</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="Y4" s="37">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>22.5</v>
       </c>
       <c r="Z4" s="37">
         <f t="shared" si="8"/>
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="AA4" s="38">
         <f t="shared" ref="AA4:AJ4" si="12">IF(MID(Z$1,1,2) &lt;&gt; "CY",($Y4*12*(1+$W4)) - ($Y4*12*(1+$W4))*$V4, (Z4+($Y4*12))*(1+$W4) - (Z4+($Y4*12))*(1+$W4)*$V4)</f>
-        <v>333.28998300000001</v>
+        <v>306.49302449999999</v>
       </c>
       <c r="AB4" s="38">
         <f t="shared" si="12"/>
-        <v>703.5640255604676</v>
+        <v>654.4114469709541</v>
       </c>
       <c r="AC4" s="38">
         <f t="shared" si="12"/>
-        <v>1114.926123394866</v>
+        <v>1049.3542972761077</v>
       </c>
       <c r="AD4" s="38">
         <f t="shared" si="12"/>
-        <v>1571.9356787084357</v>
+        <v>1497.6773665156531</v>
       </c>
       <c r="AE4" s="38">
         <f t="shared" si="12"/>
-        <v>2079.65803511276</v>
+        <v>2006.5954903836207</v>
       </c>
       <c r="AF4" s="38">
         <f t="shared" si="12"/>
-        <v>2643.7206202284838</v>
+        <v>2584.2986570768026</v>
       </c>
       <c r="AG4" s="38">
         <f t="shared" si="12"/>
-        <v>3270.3753182423357</v>
+        <v>3240.0838082731761</v>
       </c>
       <c r="AH4" s="38">
         <f t="shared" si="12"/>
-        <v>3966.5677637353588</v>
+        <v>3984.5044542449032</v>
       </c>
       <c r="AI4" s="38">
         <f t="shared" si="12"/>
-        <v>4740.0143248123513</v>
+        <v>4829.5405108527493</v>
       </c>
       <c r="AJ4" s="38">
         <f t="shared" si="12"/>
-        <v>5599.2876287882173</v>
+        <v>5788.7910915982748</v>
       </c>
       <c r="AK4" s="38">
         <f t="shared" si="10"/>
-        <v>3000</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.2">
@@ -18494,62 +18513,62 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="W5" s="35">
-        <v>0.113</v>
+        <v>0.13</v>
       </c>
       <c r="X5" s="36">
-        <v>2.5000000000000001E-2</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="Y5" s="37">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>22.5</v>
       </c>
       <c r="Z5" s="37">
         <f t="shared" si="8"/>
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="AA5" s="38">
         <f t="shared" ref="AA5:AJ5" si="14">IF(MID(Z$1,1,2) &lt;&gt; "CY",($Y5*12*(1+$W5)) - ($Y5*12*(1+$W5))*$V5, (Z5+($Y5*12))*(1+$W5) - (Z5+($Y5*12))*(1+$W5)*$V5)</f>
-        <v>333.79982999999999</v>
+        <v>305.00846999999999</v>
       </c>
       <c r="AB5" s="38">
         <f t="shared" si="14"/>
-        <v>705.20758502676301</v>
+        <v>649.56464322866987</v>
       </c>
       <c r="AC5" s="38">
         <f t="shared" si="14"/>
-        <v>1118.4604033221469</v>
+        <v>1038.7963144343423</v>
       </c>
       <c r="AD5" s="38">
         <f t="shared" si="14"/>
-        <v>1578.2728049688803</v>
+        <v>1478.4961533602136</v>
       </c>
       <c r="AE5" s="38">
         <f t="shared" si="14"/>
-        <v>2089.8904766407845</v>
+        <v>1975.2079131010521</v>
       </c>
       <c r="AF5" s="38">
         <f t="shared" si="14"/>
-        <v>2659.1501160710427</v>
+        <v>2536.3238163216479</v>
       </c>
       <c r="AG5" s="38">
         <f t="shared" si="14"/>
-        <v>3292.5460189633141</v>
+        <v>3170.1945686697286</v>
       </c>
       <c r="AH5" s="38">
         <f t="shared" si="14"/>
-        <v>3997.3041679904363</v>
+        <v>3886.2536366380136</v>
       </c>
       <c r="AI5" s="38">
         <f t="shared" si="14"/>
-        <v>4781.4646691116632</v>
+        <v>4695.1576394181347</v>
       </c>
       <c r="AJ5" s="38">
         <f t="shared" si="14"/>
-        <v>5653.9734756682647</v>
+        <v>5608.9449441027291</v>
       </c>
       <c r="AK5" s="38">
         <f t="shared" si="10"/>
-        <v>3000</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.2">
@@ -18557,7 +18576,7 @@
         <v>321</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C6" s="35">
         <v>1.4999999999999999E-4</v>
@@ -18624,68 +18643,68 @@
         <v>321</v>
       </c>
       <c r="U6" s="23" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="V6" s="35">
         <v>1.4999999999999999E-4</v>
       </c>
       <c r="W6" s="35">
-        <v>0.1164</v>
+        <v>0.13969999999999999</v>
       </c>
       <c r="X6" s="36">
-        <v>0.05</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="Y6" s="37">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Z6" s="37">
         <f t="shared" si="8"/>
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="AA6" s="38">
         <f t="shared" ref="AA6:AJ6" si="16">IF(MID(Z$1,1,2) &lt;&gt; "CY",($Y6*12*(1+$W6)) - ($Y6*12*(1+$W6))*$V6, (Z6+($Y6*12))*(1+$W6) - (Z6+($Y6*12))*(1+$W6)*$V6)</f>
-        <v>669.73952400000007</v>
+        <v>615.34568430000002</v>
       </c>
       <c r="AB6" s="38">
         <f t="shared" si="16"/>
-        <v>1417.3245740129112</v>
+        <v>1316.5499642752502</v>
       </c>
       <c r="AC6" s="38">
         <f t="shared" si="16"/>
-        <v>2251.8033332548498</v>
+        <v>2115.5926077853596</v>
       </c>
       <c r="AD6" s="38">
         <f t="shared" si="16"/>
-        <v>3183.2756782595275</v>
+        <v>3026.1249082587101</v>
       </c>
       <c r="AE6" s="38">
         <f t="shared" si="16"/>
-        <v>4223.0154198638547</v>
+        <v>4063.7029110587605</v>
       </c>
       <c r="AF6" s="38">
         <f t="shared" si="16"/>
-        <v>5383.6067525737972</v>
+        <v>5246.0531817025094</v>
       </c>
       <c r="AG6" s="38">
         <f t="shared" si="16"/>
-        <v>6679.0965637866011</v>
+        <v>6593.3756564646719</v>
       </c>
       <c r="AH6" s="38">
         <f t="shared" si="16"/>
-        <v>8125.1644463007906</v>
+        <v>8128.688749437435</v>
       </c>
       <c r="AI6" s="38">
         <f t="shared" si="16"/>
-        <v>9739.3124718120253</v>
+        <v>9878.2226120486848</v>
       </c>
       <c r="AJ6" s="38">
         <f t="shared" si="16"/>
-        <v>11541.077022264415</v>
+        <v>11871.867263705242</v>
       </c>
       <c r="AK6" s="38">
         <f t="shared" si="10"/>
-        <v>6000</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.2">
@@ -18766,62 +18785,62 @@
         <v>1E-3</v>
       </c>
       <c r="W7" s="48">
-        <v>0.1716</v>
+        <v>0.193</v>
       </c>
       <c r="X7" s="49">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="Y7" s="50">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="Z7" s="50">
         <f t="shared" si="8"/>
-        <v>1200</v>
+        <v>1080</v>
       </c>
       <c r="AA7" s="51">
         <f t="shared" ref="AA7:AJ7" si="18">IF(MID(Z$1,1,2) &lt;&gt; "CY",($Y7*12*(1+$W7)) - ($Y7*12*(1+$W7))*$V7, (Z7+($Y7*12))*(1+$W7) - (Z7+($Y7*12))*(1+$W7)*$V7)</f>
-        <v>1404.5140800000001</v>
+        <v>1287.15156</v>
       </c>
       <c r="AB7" s="51">
         <f t="shared" si="18"/>
-        <v>3048.3972474318721</v>
+        <v>2821.1877992689206</v>
       </c>
       <c r="AC7" s="51">
         <f t="shared" si="18"/>
-        <v>4972.444792876091</v>
+        <v>4649.4629274832942</v>
       </c>
       <c r="AD7" s="51">
         <f t="shared" si="18"/>
-        <v>7224.4046830142943</v>
+        <v>6828.4140232150821</v>
       </c>
       <c r="AE7" s="51">
         <f t="shared" si="18"/>
-        <v>9860.1624940929269</v>
+        <v>9425.3031917658973</v>
       </c>
       <c r="AF7" s="51">
         <f t="shared" si="18"/>
-        <v>12945.128291701194</v>
+        <v>12520.293881068939</v>
       </c>
       <c r="AG7" s="51">
         <f t="shared" si="18"/>
-        <v>16555.85987425056</v>
+        <v>16208.925449515129</v>
       </c>
       <c r="AH7" s="51">
         <f t="shared" si="18"/>
-        <v>20781.962663243285</v>
+        <v>20605.062373210279</v>
       </c>
       <c r="AI7" s="51">
         <f t="shared" si="18"/>
-        <v>25728.313388799575</v>
+        <v>25844.409131828626</v>
       </c>
       <c r="AJ7" s="51">
         <f t="shared" si="18"/>
-        <v>31517.662754351266</v>
+        <v>32088.699274177281</v>
       </c>
       <c r="AK7" s="51">
         <f t="shared" si="10"/>
-        <v>12000</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.2">
@@ -18902,62 +18921,62 @@
         <v>8.4000000000000003E-4</v>
       </c>
       <c r="W8" s="48">
-        <v>0.16980000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="X8" s="49">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="Y8" s="50">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="Z8" s="50">
         <f t="shared" si="8"/>
-        <v>1200</v>
+        <v>1080</v>
       </c>
       <c r="AA8" s="51">
         <f t="shared" ref="AA8:AJ8" si="20">IF(MID(Z$1,1,2) &lt;&gt; "CY",($Y8*12*(1+$W8)) - ($Y8*12*(1+$W8))*$V8, (Z8+($Y8*12))*(1+$W8) - (Z8+($Y8*12))*(1+$W8)*$V8)</f>
-        <v>1402.5808416</v>
+        <v>1294.9113600000001</v>
       </c>
       <c r="AB8" s="51">
         <f t="shared" si="20"/>
-        <v>3041.9416892861368</v>
+        <v>2847.4997213491197</v>
       </c>
       <c r="AC8" s="51">
         <f t="shared" si="20"/>
-        <v>4958.0551204808962</v>
+        <v>4709.0407458998234</v>
       </c>
       <c r="AD8" s="51">
         <f t="shared" si="20"/>
-        <v>7197.6417779194044</v>
+        <v>6941.0135420079214</v>
       </c>
       <c r="AE8" s="51">
         <f t="shared" si="20"/>
-        <v>9815.3095602745998</v>
+        <v>9617.1310687591613</v>
       </c>
       <c r="AF8" s="51">
         <f t="shared" si="20"/>
-        <v>12874.885127945394</v>
+        <v>12825.774574393685</v>
       </c>
       <c r="AG8" s="51">
         <f t="shared" si="20"/>
-        <v>16450.97019014748</v>
+        <v>16672.912468501432</v>
       </c>
       <c r="AH8" s="51">
         <f t="shared" si="20"/>
-        <v>20630.760520294636</v>
+        <v>21285.600026433469</v>
       </c>
       <c r="AI8" s="51">
         <f t="shared" si="20"/>
-        <v>25516.172052769089</v>
+        <v>26816.175506893516</v>
       </c>
       <c r="AJ8" s="51">
         <f t="shared" si="20"/>
-        <v>31226.325901752723</v>
+        <v>33447.291263361272</v>
       </c>
       <c r="AK8" s="51">
         <f t="shared" si="10"/>
-        <v>12000</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.2">
@@ -19038,7 +19057,7 @@
         <v>1E-3</v>
       </c>
       <c r="W9" s="35">
-        <v>0.13320000000000001</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="X9" s="36">
         <v>4.2000000000000003E-2</v>
@@ -19053,43 +19072,43 @@
       </c>
       <c r="AA9" s="38">
         <f t="shared" ref="AA9:AJ9" si="22">IF(MID(Z$1,1,2) &lt;&gt; "CY",($Y9*12*(1+$W9)) - ($Y9*12*(1+$W9))*$V9, (Z9+($Y9*12))*(1+$W9) - (Z9+($Y9*12))*(1+$W9)*$V9)</f>
-        <v>570.56166719999999</v>
+        <v>587.07633599999997</v>
       </c>
       <c r="AB9" s="38">
         <f t="shared" si="22"/>
-        <v>1216.4755879897691</v>
+        <v>1270.922812768224</v>
       </c>
       <c r="AC9" s="38">
         <f t="shared" si="22"/>
-        <v>1947.6932933736962</v>
+        <v>2067.4904396880611</v>
       </c>
       <c r="AD9" s="38">
         <f t="shared" si="22"/>
-        <v>2775.4805812110217</v>
+        <v>2995.3594948236027</v>
       </c>
       <c r="AE9" s="38">
         <f t="shared" si="22"/>
-        <v>3712.5910872337013</v>
+        <v>4076.1729177933562</v>
       </c>
       <c r="AF9" s="38">
         <f t="shared" si="22"/>
-        <v>4773.462779033176</v>
+        <v>5335.1411405249055</v>
       </c>
       <c r="AG9" s="38">
         <f t="shared" si="22"/>
-        <v>5974.4404003791942</v>
+        <v>6801.630131282187</v>
       </c>
       <c r="AH9" s="38">
         <f t="shared" si="22"/>
-        <v>7334.0272930479932</v>
+        <v>8509.8463683419559</v>
       </c>
       <c r="AI9" s="38">
         <f t="shared" si="22"/>
-        <v>8873.1704759535023</v>
+        <v>10499.634720621234</v>
       </c>
       <c r="AJ9" s="38">
         <f t="shared" si="22"/>
-        <v>10615.583373767158</v>
+        <v>12817.407846160113</v>
       </c>
       <c r="AK9" s="38">
         <f t="shared" si="10"/>
@@ -19174,7 +19193,7 @@
         <v>8.4000000000000003E-4</v>
       </c>
       <c r="W10" s="35">
-        <v>0.13827</v>
+        <v>0.16</v>
       </c>
       <c r="X10" s="36">
         <v>4.2000000000000003E-2</v>
@@ -19189,43 +19208,43 @@
       </c>
       <c r="AA10" s="38">
         <f t="shared" ref="AA10:AJ10" si="24">IF(MID(Z$1,1,2) &lt;&gt; "CY",($Y10*12*(1+$W10)) - ($Y10*12*(1+$W10))*$V10, (Z10+($Y10*12))*(1+$W10) - (Z10+($Y10*12))*(1+$W10)*$V10)</f>
-        <v>573.2061820127999</v>
+        <v>584.1489024</v>
       </c>
       <c r="AB10" s="38">
         <f t="shared" si="24"/>
-        <v>1225.1215135558377</v>
+        <v>1261.1924344935012</v>
       </c>
       <c r="AC10" s="38">
         <f t="shared" si="24"/>
-        <v>1966.5538512332055</v>
+        <v>2045.9032205042906</v>
       </c>
       <c r="AD10" s="38">
         <f t="shared" si="24"/>
-        <v>2809.7951200841362</v>
+        <v>2955.403110086917</v>
       </c>
       <c r="AE10" s="38">
         <f t="shared" si="24"/>
-        <v>3768.8250967382451</v>
+        <v>4009.5367653103549</v>
       </c>
       <c r="AF10" s="38">
         <f t="shared" si="24"/>
-        <v>4859.5431748210349</v>
+        <v>5231.3046575358931</v>
       </c>
       <c r="AG10" s="38">
         <f t="shared" si="24"/>
-        <v>6100.0319549602718</v>
+        <v>6647.3649218833325</v>
       </c>
       <c r="AH10" s="38">
         <f t="shared" si="24"/>
-        <v>7510.8570293517951</v>
+        <v>8288.6150194047823</v>
       </c>
       <c r="AI10" s="38">
         <f t="shared" si="24"/>
-        <v>9115.407930899195</v>
+        <v>10190.865898434638</v>
       </c>
       <c r="AJ10" s="38">
         <f t="shared" si="24"/>
-        <v>10940.285899393601</v>
+        <v>12395.623364852745</v>
       </c>
       <c r="AK10" s="38">
         <f t="shared" si="10"/>
@@ -19310,7 +19329,7 @@
         <v>4.3E-3</v>
       </c>
       <c r="W11" s="48">
-        <v>0.15260000000000001</v>
+        <v>0.18970000000000001</v>
       </c>
       <c r="X11" s="49">
         <v>3.5999999999999997E-2</v>
@@ -19325,43 +19344,43 @@
       </c>
       <c r="AA11" s="51">
         <f t="shared" ref="AA11:AJ11" si="26">IF(MID(Z$1,1,2) &lt;&gt; "CY",($Y11*12*(1+$W11)) - ($Y11*12*(1+$W11))*$V11, (Z11+($Y11*12))*(1+$W11) - (Z11+($Y11*12))*(1+$W11)*$V11)</f>
-        <v>495.78213024000001</v>
+        <v>511.74041327999993</v>
       </c>
       <c r="AB11" s="51">
         <f t="shared" si="26"/>
-        <v>1064.7634280763712</v>
+        <v>1117.9400674095953</v>
       </c>
       <c r="AC11" s="51">
         <f t="shared" si="26"/>
-        <v>1717.7512982338619</v>
+        <v>1836.0346542949476</v>
       </c>
       <c r="AD11" s="51">
         <f t="shared" si="26"/>
-        <v>2467.1487919550691</v>
+        <v>2686.6782206533758</v>
       </c>
       <c r="AE11" s="51">
         <f t="shared" si="26"/>
-        <v>3327.190194347701</v>
+        <v>3694.3372257511423</v>
       </c>
       <c r="AF11" s="51">
         <f t="shared" si="26"/>
-        <v>4314.2113947477383</v>
+        <v>4887.9942528669853</v>
       </c>
       <c r="AG11" s="51">
         <f t="shared" si="26"/>
-        <v>5446.9601755958229</v>
+        <v>6301.9816148365189</v>
       </c>
       <c r="AH11" s="51">
         <f t="shared" si="26"/>
-        <v>6746.9523135486616</v>
+        <v>7976.9688300841708</v>
       </c>
       <c r="AI11" s="51">
         <f t="shared" si="26"/>
-        <v>8238.880256718825</v>
+        <v>9961.1323712173871</v>
       </c>
       <c r="AJ11" s="51">
         <f t="shared" si="26"/>
-        <v>9951.082140583374</v>
+        <v>12311.541330834565</v>
       </c>
       <c r="AK11" s="51">
         <f t="shared" si="10"/>
@@ -19446,62 +19465,62 @@
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="W12" s="35">
-        <v>0.1893</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="X12" s="36">
-        <v>5.5E-2</v>
+        <v>0.06</v>
       </c>
       <c r="Y12" s="37">
         <f t="shared" si="2"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Z12" s="37">
         <f t="shared" si="8"/>
-        <v>660</v>
+        <v>720</v>
       </c>
       <c r="AA12" s="38">
         <f t="shared" ref="AA12:AJ12" si="28">IF(MID(Z$1,1,2) &lt;&gt; "CY",($Y12*12*(1+$W12)) - ($Y12*12*(1+$W12))*$V12, (Z12+($Y12*12))*(1+$W12) - (Z12+($Y12*12))*(1+$W12)*$V12)</f>
-        <v>782.19071699999995</v>
+        <v>857.38860000000011</v>
       </c>
       <c r="AB12" s="38">
         <f t="shared" si="28"/>
-        <v>1709.1942287590516</v>
+        <v>1878.3819491805004</v>
       </c>
       <c r="AC12" s="38">
         <f t="shared" si="28"/>
-        <v>2807.8208068262193</v>
+        <v>3094.198696768251</v>
       </c>
       <c r="AD12" s="38">
         <f t="shared" si="28"/>
-        <v>4109.8443080589686</v>
+        <v>4542.014556588827</v>
       </c>
       <c r="AE12" s="38">
         <f t="shared" si="28"/>
-        <v>5652.9211201500211</v>
+        <v>6266.0990192407162</v>
       </c>
       <c r="AF12" s="38">
         <f t="shared" si="28"/>
-        <v>7481.6792383857392</v>
+        <v>8319.1689688446822</v>
       </c>
       <c r="AG12" s="38">
         <f t="shared" si="28"/>
-        <v>9649.0089712984172</v>
+        <v>10764.000593557203</v>
       </c>
       <c r="AH12" s="38">
         <f t="shared" si="28"/>
-        <v>12217.592604271729</v>
+        <v>13675.348876818305</v>
       </c>
       <c r="AI12" s="38">
         <f t="shared" si="28"/>
-        <v>15261.717261165455</v>
+        <v>17142.233361120583</v>
       </c>
       <c r="AJ12" s="38">
         <f t="shared" si="28"/>
-        <v>18869.42339451861</v>
+        <v>21270.66007550621</v>
       </c>
       <c r="AK12" s="38">
         <f t="shared" si="10"/>
-        <v>6600</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.2">
@@ -19582,62 +19601,62 @@
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="W13" s="35">
-        <v>0.16209999999999999</v>
+        <v>0.18540000000000001</v>
       </c>
       <c r="X13" s="36">
-        <v>5.5E-2</v>
+        <v>0.06</v>
       </c>
       <c r="Y13" s="37">
         <f t="shared" si="2"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Z13" s="37">
         <f t="shared" si="8"/>
-        <v>660</v>
+        <v>720</v>
       </c>
       <c r="AA13" s="38">
         <f t="shared" ref="AA13:AJ13" si="30">IF(MID(Z$1,1,2) &lt;&gt; "CY",($Y13*12*(1+$W13)) - ($Y13*12*(1+$W13))*$V13, (Z13+($Y13*12))*(1+$W13) - (Z13+($Y13*12))*(1+$W13)*$V13)</f>
-        <v>764.30154900000002</v>
+        <v>850.50079200000005</v>
       </c>
       <c r="AB13" s="38">
         <f t="shared" si="30"/>
-        <v>1649.3876971875748</v>
+        <v>1855.1557881008712</v>
       </c>
       <c r="AC13" s="38">
         <f t="shared" si="30"/>
-        <v>2674.3463548515247</v>
+        <v>3041.9056073655211</v>
       </c>
       <c r="AD13" s="38">
         <f t="shared" si="30"/>
-        <v>3861.2819453265511</v>
+        <v>4443.7551367966898</v>
       </c>
       <c r="AE13" s="38">
         <f t="shared" si="30"/>
-        <v>5235.7921125436606</v>
+        <v>6099.6914354717401</v>
       </c>
       <c r="AF13" s="38">
         <f t="shared" si="30"/>
-        <v>6827.5197639380331</v>
+        <v>8055.7680098115716</v>
       </c>
       <c r="AG13" s="38">
         <f t="shared" si="30"/>
-        <v>8670.7923541605342</v>
+        <v>10366.385614934728</v>
       </c>
       <c r="AH13" s="38">
         <f t="shared" si="30"/>
-        <v>10805.36219648826</v>
+        <v>13095.805202665824</v>
       </c>
       <c r="AI13" s="38">
         <f t="shared" si="30"/>
-        <v>13277.26376760912</v>
+        <v>16319.935093034728</v>
       </c>
       <c r="AJ13" s="38">
         <f t="shared" si="30"/>
-        <v>16139.806494553373</v>
+        <v>20128.442072575875</v>
       </c>
       <c r="AK13" s="38">
         <f t="shared" si="10"/>
-        <v>6600</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.2">
@@ -19718,7 +19737,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="W14" s="48">
-        <v>9.0499999999999997E-2</v>
+        <v>0.1142</v>
       </c>
       <c r="X14" s="49">
         <v>4.4999999999999998E-2</v>
@@ -19733,43 +19752,43 @@
       </c>
       <c r="AA14" s="51">
         <f t="shared" ref="AA14:AJ14" si="32">IF(MID(Z$1,1,2) &lt;&gt; "CY",($Y14*12*(1+$W14)) - ($Y14*12*(1+$W14))*$V14, (Z14+($Y14*12))*(1+$W14) - (Z14+($Y14*12))*(1+$W14)*$V14)</f>
-        <v>588.51667799999996</v>
+        <v>601.30699919999995</v>
       </c>
       <c r="AB14" s="51">
         <f t="shared" si="32"/>
-        <v>1229.9090488965846</v>
+        <v>1270.8812719535349</v>
       </c>
       <c r="AC14" s="51">
         <f t="shared" si="32"/>
-        <v>1928.9277663310327</v>
+        <v>2016.4733028627024</v>
       </c>
       <c r="AD14" s="51">
         <f t="shared" si="32"/>
-        <v>2690.750309746481</v>
+        <v>2846.7135005171936</v>
       </c>
       <c r="AE14" s="51">
         <f t="shared" si="32"/>
-        <v>3521.0193328508703</v>
+        <v>3771.2120965668919</v>
       </c>
       <c r="AF14" s="51">
         <f t="shared" si="32"/>
-        <v>4425.8844575243893</v>
+        <v>4800.6703864840338</v>
       </c>
       <c r="AG14" s="51">
         <f t="shared" si="32"/>
-        <v>5412.0478227297881</v>
+        <v>5947.0045996537383</v>
       </c>
       <c r="AH14" s="51">
         <f t="shared" si="32"/>
-        <v>6486.8137257964227</v>
+        <v>7223.4838326192348</v>
       </c>
       <c r="AI14" s="51">
         <f t="shared" si="32"/>
-        <v>7658.1427237602111</v>
+        <v>8644.8836420925691</v>
       </c>
       <c r="AJ14" s="51">
         <f t="shared" si="32"/>
-        <v>8934.7105954763538</v>
+        <v>10227.657075607131</v>
       </c>
       <c r="AK14" s="51">
         <f t="shared" si="10"/>
@@ -19854,7 +19873,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="W15" s="53">
-        <v>0.11899999999999999</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="X15" s="54">
         <v>4.4999999999999998E-2</v>
@@ -19869,43 +19888,43 @@
       </c>
       <c r="AA15" s="51">
         <f t="shared" ref="AA15:AJ15" si="34">IF(MID(Z$1,1,2) &lt;&gt; "CY",($Y15*12*(1+$W15)) - ($Y15*12*(1+$W15))*$V15, (Z15+($Y15*12))*(1+$W15) - (Z15+($Y15*12))*(1+$W15)*$V15)</f>
-        <v>603.89744399999995</v>
+        <v>612.53225999999995</v>
       </c>
       <c r="AB15" s="51">
         <f t="shared" si="34"/>
-        <v>1279.2532270920983</v>
+        <v>1307.3392406309399</v>
       </c>
       <c r="AC15" s="51">
         <f t="shared" si="34"/>
-        <v>2034.5229144993882</v>
+        <v>2095.4720000932471</v>
       </c>
       <c r="AD15" s="51">
         <f t="shared" si="34"/>
-        <v>2879.1626066400204</v>
+        <v>2989.465963673772</v>
       </c>
       <c r="AE15" s="51">
         <f t="shared" si="34"/>
-        <v>3823.7473310560849</v>
+        <v>4003.5403024484694</v>
       </c>
       <c r="AF15" s="51">
         <f t="shared" si="34"/>
-        <v>4880.1034434936892</v>
+        <v>5153.8240923330459</v>
       </c>
       <c r="AG15" s="51">
         <f t="shared" si="34"/>
-        <v>6061.4566958174764</v>
+        <v>6458.6128505911283</v>
       </c>
       <c r="AH15" s="51">
         <f t="shared" si="34"/>
-        <v>7382.5978245941842</v>
+        <v>7938.6595300696781</v>
       </c>
       <c r="AI15" s="51">
         <f t="shared" si="34"/>
-        <v>8860.0677335414603</v>
+        <v>9617.5045994891079</v>
       </c>
       <c r="AJ15" s="51">
         <f t="shared" si="34"/>
-        <v>10512.364588356593</v>
+        <v>11521.850459787885</v>
       </c>
       <c r="AK15" s="51">
         <f t="shared" si="10"/>
@@ -19917,7 +19936,7 @@
         <v>385</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C16" s="35">
         <v>7.4999999999999997E-3</v>
@@ -19984,68 +20003,68 @@
         <v>385</v>
       </c>
       <c r="U16" s="23" t="s">
-        <v>68</v>
+        <v>415</v>
       </c>
       <c r="V16" s="35">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="W16" s="35">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="X16" s="36">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="Y16" s="37">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="Z16" s="37">
         <f t="shared" si="8"/>
-        <v>1200</v>
+        <v>1080</v>
       </c>
       <c r="AA16" s="38">
         <f t="shared" ref="AA16:AJ16" si="36">IF(MID(Z$1,1,2) &lt;&gt; "CY",($Y16*12*(1+$W16)) - ($Y16*12*(1+$W16))*$V16, (Z16+($Y16*12))*(1+$W16) - (Z16+($Y16*12))*(1+$W16)*$V16)</f>
-        <v>1488.75</v>
+        <v>1350.5940000000001</v>
       </c>
       <c r="AB16" s="38">
         <f t="shared" si="36"/>
-        <v>3335.73046875</v>
+        <v>3039.5793266999999</v>
       </c>
       <c r="AC16" s="38">
         <f t="shared" si="36"/>
-        <v>5627.1406127929686</v>
+        <v>5151.7399270046853</v>
       </c>
       <c r="AD16" s="38">
         <f t="shared" si="36"/>
-        <v>8469.9213227462769</v>
+        <v>7793.1023657157093</v>
       </c>
       <c r="AE16" s="38">
         <f t="shared" si="36"/>
-        <v>11996.746141032099</v>
+        <v>11096.25816344578</v>
       </c>
       <c r="AF16" s="38">
         <f t="shared" si="36"/>
-        <v>16372.21318121795</v>
+        <v>15227.01964629712</v>
       </c>
       <c r="AG16" s="38">
         <f t="shared" si="36"/>
-        <v>21800.526977948521</v>
+        <v>20392.743418676862</v>
       </c>
       <c r="AH16" s="38">
         <f t="shared" si="36"/>
-        <v>28535.028782017383</v>
+        <v>26852.73928222635</v>
       </c>
       <c r="AI16" s="38">
         <f t="shared" si="36"/>
-        <v>36890.020082690316</v>
+        <v>34931.287109388162</v>
       </c>
       <c r="AJ16" s="38">
         <f t="shared" si="36"/>
-        <v>47255.431165087677</v>
+        <v>45033.915094645366</v>
       </c>
       <c r="AK16" s="38">
         <f t="shared" si="10"/>
-        <v>12000</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.2">
@@ -20053,7 +20072,7 @@
         <v>385</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C17" s="35">
         <v>7.6E-3</v>
@@ -20120,68 +20139,68 @@
         <v>385</v>
       </c>
       <c r="U17" s="23" t="s">
-        <v>37</v>
+        <v>416</v>
       </c>
       <c r="V17" s="35">
         <v>7.6E-3</v>
       </c>
       <c r="W17" s="35">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="X17" s="36">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="Y17" s="37">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="Z17" s="37">
         <f t="shared" si="8"/>
-        <v>1200</v>
+        <v>1080</v>
       </c>
       <c r="AA17" s="38">
         <f t="shared" ref="AA17:AJ17" si="38">IF(MID(Z$1,1,2) &lt;&gt; "CY",($Y17*12*(1+$W17)) - ($Y17*12*(1+$W17))*$V17, (Z17+($Y17*12))*(1+$W17) - (Z17+($Y17*12))*(1+$W17)*$V17)</f>
-        <v>1488.6</v>
+        <v>1318.3041600000001</v>
       </c>
       <c r="AB17" s="38">
         <f t="shared" si="38"/>
-        <v>3335.2082999999998</v>
+        <v>2927.4947695123201</v>
       </c>
       <c r="AC17" s="38">
         <f t="shared" si="38"/>
-        <v>5625.92589615</v>
+        <v>4891.7565053947519</v>
       </c>
       <c r="AD17" s="38">
         <f t="shared" si="38"/>
-        <v>8467.5610741740747</v>
+        <v>7289.4365218231142</v>
       </c>
       <c r="AE17" s="38">
         <f t="shared" si="38"/>
-        <v>11992.60951251294</v>
+        <v>10216.169429236428</v>
       </c>
       <c r="AF17" s="38">
         <f t="shared" si="38"/>
-        <v>16365.432100272301</v>
+        <v>13788.691806136305</v>
       </c>
       <c r="AG17" s="38">
         <f t="shared" si="38"/>
-        <v>21789.91852038779</v>
+        <v>18149.498390543893</v>
       </c>
       <c r="AH17" s="38">
         <f t="shared" si="38"/>
-        <v>28518.993924541053</v>
+        <v>23472.525669414183</v>
       </c>
       <c r="AI17" s="38">
         <f t="shared" si="38"/>
-        <v>36866.411963393177</v>
+        <v>29970.089563421763</v>
       </c>
       <c r="AJ17" s="38">
         <f t="shared" si="38"/>
-        <v>47221.384040589241</v>
+        <v>37901.353925769901</v>
       </c>
       <c r="AK17" s="38">
         <f t="shared" si="10"/>
-        <v>12000</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.2">
@@ -20189,7 +20208,7 @@
         <v>386</v>
       </c>
       <c r="B18" s="47" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C18" s="48">
         <v>3.5E-4</v>
@@ -20256,13 +20275,13 @@
         <v>386</v>
       </c>
       <c r="U18" s="47" t="s">
-        <v>387</v>
+        <v>418</v>
       </c>
       <c r="V18" s="48">
         <v>3.5E-4</v>
       </c>
       <c r="W18" s="48">
-        <v>2.3599999999999999E-2</v>
+        <v>3.7900000000000003E-2</v>
       </c>
       <c r="X18" s="49">
         <v>0.01</v>
@@ -20277,43 +20296,43 @@
       </c>
       <c r="AA18" s="51">
         <f t="shared" ref="AA18:AJ18" si="40">IF(MID(Z$1,1,2) &lt;&gt; "CY",($Y18*12*(1+$W18)) - ($Y18*12*(1+$W18))*$V18, (Z18+($Y18*12))*(1+$W18) - (Z18+($Y18*12))*(1+$W18)*$V18)</f>
-        <v>122.7890088</v>
+        <v>124.5044082</v>
       </c>
       <c r="AB18" s="51">
         <f t="shared" si="40"/>
-        <v>248.43184781738734</v>
+        <v>253.68230537693523</v>
       </c>
       <c r="AC18" s="51">
         <f t="shared" si="40"/>
-        <v>376.99484503207862</v>
+        <v>387.70911904805837</v>
       </c>
       <c r="AD18" s="51">
         <f t="shared" si="40"/>
-        <v>508.54587000165452</v>
+        <v>526.76686170684877</v>
       </c>
       <c r="AE18" s="51">
         <f t="shared" si="40"/>
-        <v>643.15436969030679</v>
+        <v>671.04437800152039</v>
       </c>
       <c r="AF18" s="51">
         <f t="shared" si="40"/>
-        <v>780.89140513051279</v>
+        <v>820.73760119180326</v>
       </c>
       <c r="AG18" s="51">
         <f t="shared" si="40"/>
-        <v>921.82968893679083</v>
+        <v>976.04981923227569</v>
       </c>
       <c r="AH18" s="51">
         <f t="shared" si="40"/>
-        <v>1066.0436236913406</v>
+        <v>1137.1919508435956</v>
       </c>
       <c r="AI18" s="51">
         <f t="shared" si="40"/>
-        <v>1213.6093412218327</v>
+        <v>1304.3828319465449</v>
       </c>
       <c r="AJ18" s="51">
         <f t="shared" si="40"/>
-        <v>1364.6047427920819</v>
+        <v>1477.8495128478719</v>
       </c>
       <c r="AK18" s="51">
         <f t="shared" si="10"/>
@@ -20325,7 +20344,7 @@
         <v>386</v>
       </c>
       <c r="B19" s="47" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C19" s="48">
         <v>3.5E-4</v>
@@ -20392,13 +20411,13 @@
         <v>386</v>
       </c>
       <c r="U19" s="47" t="s">
-        <v>388</v>
+        <v>419</v>
       </c>
       <c r="V19" s="48">
         <v>3.5E-4</v>
       </c>
       <c r="W19" s="48">
-        <v>2.4E-2</v>
+        <v>4.0399999999999998E-2</v>
       </c>
       <c r="X19" s="49">
         <v>0.01</v>
@@ -20413,43 +20432,43 @@
       </c>
       <c r="AA19" s="51">
         <f t="shared" ref="AA19:AJ19" si="42">IF(MID(Z$1,1,2) &lt;&gt; "CY",($Y19*12*(1+$W19)) - ($Y19*12*(1+$W19))*$V19, (Z19+($Y19*12))*(1+$W19) - (Z19+($Y19*12))*(1+$W19)*$V19)</f>
-        <v>122.836992</v>
+        <v>124.80430319999999</v>
       </c>
       <c r="AB19" s="51">
         <f t="shared" si="42"/>
-        <v>248.57804703006721</v>
+        <v>254.60525401031273</v>
       </c>
       <c r="AC19" s="51">
         <f t="shared" si="42"/>
-        <v>377.29182178673324</v>
+        <v>389.60289751513398</v>
       </c>
       <c r="AD19" s="51">
         <f t="shared" si="42"/>
-        <v>509.04859612068651</v>
+        <v>530.00528777564421</v>
       </c>
       <c r="AE19" s="51">
         <f t="shared" si="42"/>
-        <v>643.92031141073335</v>
+        <v>676.02880847628956</v>
       </c>
       <c r="AF19" s="51">
         <f t="shared" si="42"/>
-        <v>781.98060984498136</v>
+        <v>827.89850640841303</v>
       </c>
       <c r="AG19" s="51">
         <f t="shared" si="42"/>
-        <v>923.30487463069255</v>
+        <v>985.84843830518935</v>
       </c>
       <c r="AH19" s="51">
         <f t="shared" si="42"/>
-        <v>1067.9702711547618</v>
+        <v>1150.1220315623946</v>
       </c>
       <c r="AI19" s="51">
         <f t="shared" si="42"/>
-        <v>1216.0557891172941</v>
+        <v>1320.9724594009422</v>
       </c>
       <c r="AJ19" s="51">
         <f t="shared" si="42"/>
-        <v>1367.6422856612896</v>
+        <v>1498.663031049374</v>
       </c>
       <c r="AK19" s="51">
         <f t="shared" si="10"/>
@@ -20461,7 +20480,7 @@
         <v>386</v>
       </c>
       <c r="B20" s="47" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C20" s="48">
         <v>2.9999999999999997E-4</v>
@@ -20528,16 +20547,15 @@
         <v>386</v>
       </c>
       <c r="U20" s="47" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="V20" s="48">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="W20" s="48">
-        <v>0.1076</v>
+        <v>7.6300000000000007E-2</v>
       </c>
       <c r="X20" s="49">
-        <f>0.1*0.6</f>
         <v>0.06</v>
       </c>
       <c r="Y20" s="50">
@@ -20550,43 +20568,43 @@
       </c>
       <c r="AA20" s="51">
         <f t="shared" ref="AA20:AJ20" si="44">IF(MID(Z$1,1,2) &lt;&gt; "CY",($Y20*12*(1+$W20)) - ($Y20*12*(1+$W20))*$V20, (Z20+($Y20*12))*(1+$W20) - (Z20+($Y20*12))*(1+$W20)*$V20)</f>
-        <v>797.23275839999997</v>
+        <v>774.70351920000007</v>
       </c>
       <c r="AB20" s="51">
         <f t="shared" si="44"/>
-        <v>1679.9828571028786</v>
+        <v>1608.2667728956458</v>
       </c>
       <c r="AC20" s="51">
         <f t="shared" si="44"/>
-        <v>2657.4235462233901</v>
+        <v>2505.1617536092836</v>
       </c>
       <c r="AD20" s="51">
         <f t="shared" si="44"/>
-        <v>3739.7120695010876</v>
+        <v>3470.2002229310488</v>
       </c>
       <c r="AE20" s="51">
         <f t="shared" si="44"/>
-        <v>4938.0952150529502</v>
+        <v>4508.5595261907065</v>
       </c>
       <c r="AF20" s="51">
         <f t="shared" si="44"/>
-        <v>6265.0261883145895</v>
+        <v>5625.8103684536463</v>
       </c>
       <c r="AG20" s="51">
         <f t="shared" si="44"/>
-        <v>7734.2940216753859</v>
+        <v>6827.9467008567899</v>
       </c>
       <c r="AH20" s="51">
         <f t="shared" si="44"/>
-        <v>9361.166865590134</v>
+        <v>8121.4178776219242</v>
       </c>
       <c r="AI20" s="51">
         <f t="shared" si="44"/>
-        <v>11162.550650201532</v>
+        <v>9513.1632562659706</v>
       </c>
       <c r="AJ20" s="51">
         <f t="shared" si="44"/>
-        <v>13157.164766233167</v>
+        <v>11010.649426635247</v>
       </c>
       <c r="AK20" s="51">
         <f t="shared" si="10"/>
@@ -20598,7 +20616,7 @@
         <v>329</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C21" s="35">
         <v>1.8E-3</v>
@@ -20665,68 +20683,68 @@
         <v>329</v>
       </c>
       <c r="U21" s="23" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="V21" s="35">
         <v>1.8E-3</v>
       </c>
       <c r="W21" s="35">
-        <v>2.5499999999999998E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="X21" s="36">
-        <v>0</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="Y21" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Z21" s="37">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AA21" s="38">
         <f t="shared" ref="AA21:AJ21" si="46">IF(MID(Z$1,1,2) &lt;&gt; "CY",($Y21*12*(1+$W21)) - ($Y21*12*(1+$W21))*$V21, (Z21+($Y21*12))*(1+$W21) - (Z21+($Y21*12))*(1+$W21)*$V21)</f>
-        <v>0</v>
+        <v>312.63623999999999</v>
       </c>
       <c r="AB21" s="38">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>638.44096853779206</v>
       </c>
       <c r="AC21" s="38">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>977.96885288537862</v>
       </c>
       <c r="AD21" s="38">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>1331.7979233439928</v>
       </c>
       <c r="AE21" s="38">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>1700.5305573135804</v>
       </c>
       <c r="AF21" s="38">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>2084.7945048120741</v>
       </c>
       <c r="AG21" s="38">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>2485.2439571903624</v>
       </c>
       <c r="AH21" s="38">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>2902.5606608623866</v>
       </c>
       <c r="AI21" s="38">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>3337.4550779464394</v>
       </c>
       <c r="AJ21" s="38">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>3790.6675957936059</v>
       </c>
       <c r="AK21" s="38">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.2">
@@ -20734,7 +20752,7 @@
         <v>329</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C22" s="39">
         <v>5.0000000000000001E-3</v>
@@ -20801,76 +20819,76 @@
         <v>329</v>
       </c>
       <c r="U22" s="25" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="V22" s="39">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="W22" s="39">
-        <v>1.2500000000000001E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="X22" s="40">
-        <v>0</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="Y22" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Z22" s="37">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AA22" s="38">
         <f t="shared" ref="AA22:AJ23" si="48">IF(MID(Z$1,1,2) &lt;&gt; "CY",($Y22*12*(1+$W22)) - ($Y22*12*(1+$W22))*$V22, (Z22+($Y22*12))*(1+$W22) - (Z22+($Y22*12))*(1+$W22)*$V22)</f>
-        <v>0</v>
+        <v>303.90285</v>
       </c>
       <c r="AB22" s="38">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>611.75932412707493</v>
       </c>
       <c r="AC22" s="38">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>923.62085705430604</v>
       </c>
       <c r="AD22" s="38">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>1239.539552594154</v>
       </c>
       <c r="AE22" s="38">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>1559.5681924036276</v>
       </c>
       <c r="AF22" s="38">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>1883.7602448027026</v>
       </c>
       <c r="AG22" s="38">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>2212.1698737074635</v>
       </c>
       <c r="AH22" s="38">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>2544.8519476794609</v>
       </c>
       <c r="AI22" s="38">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>2881.862049092797</v>
       </c>
       <c r="AJ22" s="38">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>3223.25648342047</v>
       </c>
       <c r="AK22" s="38">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C23" s="35"/>
       <c r="D23" s="35"/>
@@ -20888,80 +20906,64 @@
       <c r="P23" s="38"/>
       <c r="Q23" s="38"/>
       <c r="R23" s="38"/>
-      <c r="T23" s="23" t="s">
-        <v>385</v>
-      </c>
-      <c r="U23" s="23" t="s">
-        <v>417</v>
-      </c>
-      <c r="V23" s="35">
-        <v>2E-3</v>
-      </c>
-      <c r="W23" s="35">
-        <v>0.19900000000000001</v>
-      </c>
-      <c r="X23" s="36">
-        <v>0.1</v>
-      </c>
-      <c r="Y23" s="37">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="Z23" s="37">
-        <f t="shared" si="8"/>
-        <v>1200</v>
-      </c>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="35"/>
+      <c r="W23" s="35"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="37"/>
+      <c r="Z23" s="37"/>
       <c r="AA23" s="38">
         <f t="shared" si="48"/>
-        <v>1435.9224000000002</v>
+        <v>0</v>
       </c>
       <c r="AB23" s="38">
         <f t="shared" si="48"/>
-        <v>3154.1500156848006</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="38">
         <f t="shared" si="48"/>
-        <v>5210.1846170684639</v>
+        <v>0</v>
       </c>
       <c r="AD23" s="38">
         <f t="shared" si="48"/>
-        <v>7670.4397331533582</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="38">
         <f t="shared" si="48"/>
-        <v>10614.385925570776</v>
+        <v>0</v>
       </c>
       <c r="AF23" s="38">
         <f t="shared" si="48"/>
-        <v>14137.117827309841</v>
+        <v>0</v>
       </c>
       <c r="AG23" s="38">
         <f t="shared" si="48"/>
-        <v>18352.425866394609</v>
+        <v>0</v>
       </c>
       <c r="AH23" s="38">
         <f t="shared" si="48"/>
-        <v>23396.471896579522</v>
+        <v>0</v>
       </c>
       <c r="AI23" s="38">
         <f t="shared" si="48"/>
-        <v>29432.187464390849</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="38">
         <f t="shared" si="48"/>
-        <v>36654.536784265023</v>
+        <v>0</v>
       </c>
       <c r="AK23" s="38">
         <f t="shared" si="10"/>
-        <v>12000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C24" s="35"/>
       <c r="D24" s="35"/>
@@ -20980,10 +20982,10 @@
       <c r="Q24" s="38"/>
       <c r="R24" s="38"/>
       <c r="T24" s="23" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="U24" s="23" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="V24" s="35"/>
       <c r="W24" s="35"/>
@@ -21004,10 +21006,10 @@
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C25" s="35"/>
       <c r="D25" s="35"/>
@@ -21026,10 +21028,10 @@
       <c r="Q25" s="38"/>
       <c r="R25" s="38"/>
       <c r="T25" s="23" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="U25" s="23" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="V25" s="35"/>
       <c r="W25" s="35"/>
@@ -21095,17 +21097,52 @@
       <c r="AI26" s="41"/>
       <c r="AJ26" s="41">
         <f>SUM(AJ2:AJ25)</f>
-        <v>341034.56977015134</v>
+        <v>316212.90983632038</v>
       </c>
       <c r="AK26" s="41">
         <f>SUM(AK2:AK25)</f>
-        <v>132000</v>
+        <v>120600</v>
       </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="Q27" s="83">
         <f>Q26-R26</f>
         <v>196556.03502084804</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A30" s="21" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A31" s="21" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A32" s="21" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="85" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="85" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="21" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="21" t="s">
+        <v>426</v>
       </c>
     </row>
   </sheetData>
@@ -21121,7 +21158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08A42C0D-8FE3-45A5-B249-37C5FF5CEED1}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
@@ -21135,16 +21172,16 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="29"/>
       <c r="B1" s="29" t="s">
+        <v>391</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>392</v>
+      </c>
+      <c r="D1" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="E1" s="29" t="s">
         <v>394</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>395</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>396</v>
       </c>
       <c r="F1" s="29" t="s">
         <v>359</v>
@@ -21225,7 +21262,7 @@
     </row>
     <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="55" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -21241,9 +21278,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21470,27 +21510,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{401ADED5-CC5A-4072-B36A-6DA217C5A368}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DB5870C-189D-475E-8E58-449C30115ACA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="e8f9595b-0d5a-46b2-8488-c972c1ea4246"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="6bcbbac3-d60f-4c54-b2b4-d245c065548d"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -21515,9 +21543,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DB5870C-189D-475E-8E58-449C30115ACA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{401ADED5-CC5A-4072-B36A-6DA217C5A368}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="e8f9595b-0d5a-46b2-8488-c972c1ea4246"/>
+    <ds:schemaRef ds:uri="6bcbbac3-d60f-4c54-b2b4-d245c065548d"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/input/Watchlist.xlsx
+++ b/input/Watchlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23120"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bayergroup-my.sharepoint.com/personal/sivacharan_chandrasekar_ext_bayer_com/Documents/Personal Data/Analytics/us-stocks-analysis/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssoma\OneDrive - Bayer\Personal Data\Analytics\us-stocks-analysis\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{A259AFBD-2F1F-43A4-8040-58927886A03B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BC115BD5-D20C-4716-B016-6379ACDD3F90}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{A259AFBD-2F1F-43A4-8040-58927886A03B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{0DA8173F-C062-4081-948D-20278E95ACEC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fund List" sheetId="1" r:id="rId1"/>
@@ -23,14 +23,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ARK Comparison'!$A$1:$M$132</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
   <metadataTypes count="2">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
@@ -46,7 +44,7 @@
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -765,7 +763,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="437">
   <si>
     <t>Funds</t>
   </si>
@@ -2055,6 +2053,27 @@
   </si>
   <si>
     <t>https://www.begintoinvest.com/expense-ratio-calculator/</t>
+  </si>
+  <si>
+    <t>IBB - Biotech</t>
+  </si>
+  <si>
+    <t>XBI</t>
+  </si>
+  <si>
+    <t>Biotech</t>
+  </si>
+  <si>
+    <t>FBT</t>
+  </si>
+  <si>
+    <t>QTUM</t>
+  </si>
+  <si>
+    <t>Tech &amp; Semiconductor</t>
+  </si>
+  <si>
+    <t>This has 40% international mix with just 1 year of performance data</t>
   </si>
 </sst>
 </file>
@@ -2062,14 +2081,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="168" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="169" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2301,7 +2320,7 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="86">
@@ -2352,7 +2371,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="8" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2448,10 +2467,10 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="12" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2879,7 +2898,7 @@
         <name val="Source Sans Pro"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -3387,6 +3406,9 @@
   <types>
     <type name="_imageurl">
       <keyFlags>
+        <key name="Attribution Size">
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
         <key name="Blip Identifier">
           <flag name="ShowInCardView" value="0"/>
         </key>
@@ -3434,12 +3456,12 @@
           <flag name="ShowInDotNotation" value="0"/>
           <flag name="ShowInAutoComplete" value="0"/>
         </key>
-        <key name="%DataProviderExternalLinkLogo">
+        <key name="%DataProviderExternalLink">
           <flag name="ShowInCardView" value="0"/>
           <flag name="ShowInDotNotation" value="0"/>
           <flag name="ShowInAutoComplete" value="0"/>
         </key>
-        <key name="%DataProviderExternalLink">
+        <key name="%DataProviderExternalLinkLogo">
           <flag name="ShowInCardView" value="0"/>
           <flag name="ShowInDotNotation" value="0"/>
           <flag name="ShowInAutoComplete" value="0"/>
@@ -5444,9 +5466,9 @@
   <rv s="8">
     <v>https://www.bing.com/th?id=AMMS_65638ce82d623bac8d564989d24bda28&amp;qlt=95</v>
     <v>140</v>
+    <v/>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=honda</v>
     <v>Image of HONDA MOTOR CO., LTD.</v>
-    <v/>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1uqyc&amp;q=XNYS%3aHMC&amp;form=skydnc</v>
@@ -5515,9 +5537,9 @@
   <rv s="8">
     <v>https://www.bing.com/th?id=AMMS_97bd8dad8c0360a49d8c3a8c9f408be5&amp;qlt=95</v>
     <v>147</v>
+    <v/>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=wells+fargo</v>
     <v>Image of WELLS FARGO &amp; COMPANY</v>
-    <v/>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a25tgh&amp;q=XNYS%3aWFC&amp;form=skydnc</v>
@@ -5582,9 +5604,9 @@
   <rv s="8">
     <v>https://www.bing.com/th?id=AMMS_0720042c42661f705c810fedd777349a&amp;qlt=95</v>
     <v>153</v>
+    <v/>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=bank+of+america</v>
     <v>Image of BANK OF AMERICA CORPORATION</v>
-    <v/>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1o4sm&amp;q=XNYS%3aBAC&amp;form=skydnc</v>
@@ -5649,9 +5671,9 @@
   <rv s="8">
     <v>https://www.bing.com/th?id=AMMS_06392bb84e5fdc62d2356a2306f4ae1e&amp;qlt=95</v>
     <v>159</v>
+    <v/>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=jpmorgan+chase</v>
     <v>Image of JPMORGAN CHASE &amp; CO.</v>
-    <v/>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1waa2&amp;q=XNYS%3aJPM&amp;form=skydnc</v>
@@ -5716,9 +5738,9 @@
   <rv s="8">
     <v>https://www.bing.com/th?id=AMMS_c244bad2af0aa117b9f67bcd11fd44e9&amp;qlt=95</v>
     <v>165</v>
+    <v/>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=the+coca-cola+company</v>
     <v>Image of THE COCA-COLA COMPANY</v>
-    <v/>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1wljc&amp;q=XNYS%3aKO&amp;form=skydnc</v>
@@ -5783,9 +5805,9 @@
   <rv s="8">
     <v>https://www.bing.com/th?id=AMMS_90a82bf7d9bf620ad2bd5ec79a4882af&amp;qlt=95</v>
     <v>171</v>
+    <v/>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=costco</v>
     <v>Image of COSTCO WHOLESALE CORPORATION</v>
-    <v/>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1q6k2&amp;q=XNAS%3aCOST&amp;form=skydnc</v>
@@ -5890,9 +5912,9 @@
   <rv s="8">
     <v>https://www.bing.com/th?id=AMMS_f277632c13de4db2ca85eddfe0a297c9&amp;qlt=95</v>
     <v>180</v>
+    <v/>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=six+flags</v>
     <v>Image of SIX FLAGS ENTERTAINMENT CORPORATION</v>
-    <v/>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a22zu2&amp;q=XNYS%3aSIX&amp;form=skydnc</v>
@@ -5957,9 +5979,9 @@
   <rv s="8">
     <v>https://www.bing.com/th?id=AMMS_b7e2eab1a0465d4acb936b45513ab111&amp;qlt=95</v>
     <v>186</v>
+    <v/>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=the+cheesecake+factory</v>
     <v>Image of THE CHEESECAKE FACTORY INCORPORATED</v>
-    <v/>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1p5h7&amp;q=XNAS%3aCAKE&amp;form=skydnc</v>
@@ -6024,9 +6046,9 @@
   <rv s="8">
     <v>https://www.bing.com/th?id=AMMS_5a814ff30fd1ffac245379798a819c9e&amp;qlt=95</v>
     <v>192</v>
+    <v/>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=wyndham+worldwide</v>
     <v>Image of WYNDHAM DESTINATIONS, INC.</v>
-    <v/>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=b16nh7&amp;q=XNYS%3aWYND&amp;form=skydnc</v>
@@ -6095,9 +6117,9 @@
   <rv s="8">
     <v>https://www.bing.com/th?id=AMMS_0906c9459990b0fab2037038e2dfe1bd&amp;qlt=95</v>
     <v>199</v>
+    <v/>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=las+vegas+sands</v>
     <v>Image of LAS VEGAS SANDS CORP.</v>
-    <v/>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1x7im&amp;q=XNYS%3aLVS&amp;form=skydnc</v>
@@ -6162,9 +6184,9 @@
   <rv s="8">
     <v>https://www.bing.com/th?id=AMMS_e27b6f4d10a663f3cbffe838112b48be&amp;qlt=95</v>
     <v>205</v>
+    <v/>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=starbucks</v>
     <v>Image of STARBUCKS CORPORATION</v>
-    <v/>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a22k9c&amp;q=XNAS%3aSBUX&amp;form=skydnc</v>
@@ -6284,9 +6306,9 @@
   <rv s="8">
     <v>https://www.bing.com/th?id=AMMS_982b67ee8686548274ef55ed627e1e1f&amp;qlt=95</v>
     <v>215</v>
+    <v/>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=royal+dutch+shell</v>
     <v>Image of ROYAL DUTCH SHELL PLC</v>
-    <v/>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a21t52&amp;q=XNYS%3aRDS.A&amp;form=skydnc</v>
@@ -6402,9 +6424,9 @@
   <rv s="8">
     <v>https://www.bing.com/th?id=AMMS_a92fdfeb8644bf85ee9299accf15739c&amp;qlt=95</v>
     <v>224</v>
+    <v/>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=exxon+mobil</v>
     <v>Image of EXXON MOBIL CORPORATION</v>
-    <v/>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a269ec&amp;q=XNYS%3aXOM&amp;form=skydnc</v>
@@ -6469,9 +6491,9 @@
   <rv s="8">
     <v>https://www.bing.com/th?id=AMMS_328c42228a7a7c01496b8aa73b7a09ba&amp;qlt=95</v>
     <v>230</v>
+    <v/>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=conocophillips</v>
     <v>Image of CONOCOPHILLIPS</v>
-    <v/>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1q5nm&amp;q=XNYS%3aCOP&amp;form=skydnc</v>
@@ -6576,9 +6598,9 @@
   <rv s="8">
     <v>https://www.bing.com/th?id=AMMS_2d49dc55c1faf81186e7649c0d153e02&amp;qlt=95</v>
     <v>239</v>
+    <v/>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=chevron+corporation</v>
     <v>Image of CHEVRON CORPORATION</v>
-    <v/>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1qlz2&amp;q=XNYS%3aCVX&amp;form=skydnc</v>
@@ -6643,9 +6665,9 @@
   <rv s="8">
     <v>https://www.bing.com/th?id=AMMS_d132f0c8d3455e1bb112e94f5d892d58&amp;qlt=95</v>
     <v>245</v>
+    <v/>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=h%26r+block</v>
     <v>Image of H &amp; R BLOCK, INC.</v>
-    <v/>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1uuvh&amp;q=XNYS%3aHRB&amp;form=skydnc</v>
@@ -6812,9 +6834,9 @@
   <rv s="8">
     <v>https://www.bing.com/th?id=AMMS_4afbc0a090454dfb219470553edb70e4&amp;qlt=95</v>
     <v>257</v>
+    <v/>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=lowe%27s</v>
     <v>Image of LOWE`S COMPANIES, INC.</v>
-    <v/>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1x2ur&amp;q=XNYS%3aLOW&amp;form=skydnc</v>
@@ -6879,9 +6901,9 @@
   <rv s="8">
     <v>https://www.bing.com/th?id=AMMS_25dbea32b4516ce1661da911a36f7ad2&amp;qlt=95</v>
     <v>263</v>
+    <v/>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=at%26t</v>
     <v>Image of AT&amp;T INC.</v>
-    <v/>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a23www&amp;q=XNYS%3aT&amp;form=skydnc</v>
@@ -7139,9 +7161,9 @@
   <s t="_imageurl">
     <k n="Address" t="s"/>
     <k n="Attribution" t="r"/>
+    <k n="Blip Identifier" t="s"/>
     <k n="More Images Address" t="s"/>
     <k n="Text" t="s"/>
-    <k n="Blip Identifier" t="s"/>
   </s>
   <s t="_linkedentitycore">
     <k n="%EntityCulture" t="s"/>
@@ -7964,13 +7986,13 @@
       <x:numFmt numFmtId="165" formatCode="_([$$-409]* #,##0_);_([$$-409]* \(#,##0\);_([$$-409]* &quot;-&quot;_);_(@_)"/>
     </x:dxf>
     <x:dxf>
-      <x:numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <x:numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
     </x:dxf>
     <x:dxf>
       <x:numFmt numFmtId="2" formatCode="0.00"/>
     </x:dxf>
     <x:dxf>
-      <x:numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <x:numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </x:dxf>
     <x:dxf>
       <x:numFmt numFmtId="1" formatCode="0"/>
@@ -8112,8 +8134,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{66674435-6956-4569-B586-8504E039F3C5}" name="Table4" displayName="Table4" ref="A29:C38" totalsRowShown="0">
-  <autoFilter ref="A29:C38" xr:uid="{76A2AC23-EA1A-42A9-A4A0-BA4126640B6B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{66674435-6956-4569-B586-8504E039F3C5}" name="Table4" displayName="Table4" ref="A29:C41" totalsRowShown="0">
+  <autoFilter ref="A29:C41" xr:uid="{76A2AC23-EA1A-42A9-A4A0-BA4126640B6B}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{C5A951EA-02C9-4EEA-B580-3EE51E7FDF81}" name="Fund"/>
     <tableColumn id="2" xr3:uid="{EDFF81EE-5847-4637-99DE-F7A607DAE56F}" name="Category" dataDxfId="1"/>
@@ -8426,7 +8448,7 @@
       <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -8442,7 +8464,7 @@
     <col min="16" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="17" customFormat="1" ht="44.25" customHeight="1">
+    <row r="1" spans="1:15" s="17" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -8489,7 +8511,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" hidden="1">
+    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
@@ -8547,7 +8569,7 @@
         <v>0.25420205752006669</v>
       </c>
     </row>
-    <row r="3" spans="1:15" hidden="1">
+    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
@@ -8605,7 +8627,7 @@
         <v>1.2657342657342641E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" hidden="1">
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
@@ -8663,7 +8685,7 @@
         <v>4.3300984763585942E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" hidden="1">
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
@@ -8721,7 +8743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" hidden="1">
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="e" vm="5">
         <v>#VALUE!</v>
       </c>
@@ -8779,7 +8801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" hidden="1">
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
@@ -8837,7 +8859,7 @@
         <v>0.39543197360595578</v>
       </c>
     </row>
-    <row r="8" spans="1:15" hidden="1">
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
@@ -8895,7 +8917,7 @@
         <v>0.12977124183006541</v>
       </c>
     </row>
-    <row r="9" spans="1:15" hidden="1">
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
@@ -8953,7 +8975,7 @@
         <v>0.11538461538461535</v>
       </c>
     </row>
-    <row r="10" spans="1:15" hidden="1">
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="e" vm="9">
         <v>#VALUE!</v>
       </c>
@@ -9011,7 +9033,7 @@
         <v>8.9994963062458064E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" hidden="1">
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
@@ -9069,7 +9091,7 @@
         <v>2.8327529797328291E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" hidden="1">
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="e" vm="11">
         <v>#VALUE!</v>
       </c>
@@ -9127,7 +9149,7 @@
         <v>3.4513531091734205E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:15" hidden="1">
+    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="e" vm="12">
         <v>#VALUE!</v>
       </c>
@@ -9185,7 +9207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" hidden="1">
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="e" vm="13">
         <v>#VALUE!</v>
       </c>
@@ -9243,7 +9265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" hidden="1">
+    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="e" vm="14">
         <v>#VALUE!</v>
       </c>
@@ -9301,7 +9323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" hidden="1">
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="e" vm="15">
         <v>#VALUE!</v>
       </c>
@@ -9359,7 +9381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" hidden="1">
+    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="e" vm="16">
         <v>#VALUE!</v>
       </c>
@@ -9417,7 +9439,7 @@
         <v>4.4306757072714587E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:15" hidden="1">
+    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="e" vm="17">
         <v>#VALUE!</v>
       </c>
@@ -9475,7 +9497,7 @@
         <v>2.4148339801638732E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:15" hidden="1">
+    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="e" vm="18">
         <v>#VALUE!</v>
       </c>
@@ -9533,7 +9555,7 @@
         <v>1.9918905220476468E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:15" hidden="1">
+    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="e" vm="19">
         <v>#VALUE!</v>
       </c>
@@ -9591,7 +9613,7 @@
         <v>4.1428571428571488E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:15" hidden="1">
+    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="e" vm="20">
         <v>#VALUE!</v>
       </c>
@@ -9649,7 +9671,7 @@
         <v>3.0125854722029454E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:15" hidden="1">
+    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="e" vm="21">
         <v>#VALUE!</v>
       </c>
@@ -9707,7 +9729,7 @@
         <v>2.7251324308416688E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:15" hidden="1">
+    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="e" vm="22">
         <v>#VALUE!</v>
       </c>
@@ -9765,7 +9787,7 @@
         <v>2.3583589171085651E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" hidden="1">
+    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="e" vm="23">
         <v>#VALUE!</v>
       </c>
@@ -9823,7 +9845,7 @@
         <v>8.9334548769371379E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="e" vm="24">
         <v>#VALUE!</v>
       </c>
@@ -9881,7 +9903,7 @@
         <v>4.2860365441010091E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:15" hidden="1">
+    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="e" vm="25">
         <v>#VALUE!</v>
       </c>
@@ -9939,7 +9961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" hidden="1">
+    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="e" vm="26">
         <v>#VALUE!</v>
       </c>
@@ -9997,7 +10019,7 @@
         <v>0.20768150822302442</v>
       </c>
     </row>
-    <row r="28" spans="1:15" hidden="1">
+    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="e" vm="27">
         <v>#VALUE!</v>
       </c>
@@ -10055,7 +10077,7 @@
         <v>2.1440875468639602E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:15" hidden="1">
+    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="e" vm="28">
         <v>#VALUE!</v>
       </c>
@@ -10113,7 +10135,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:15" hidden="1">
+    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="e" vm="29">
         <v>#VALUE!</v>
       </c>
@@ -10171,7 +10193,7 @@
         <v>3.9797293964851106E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:15" hidden="1">
+    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="e" vm="30">
         <v>#VALUE!</v>
       </c>
@@ -10229,7 +10251,7 @@
         <v>3.9763792162777971E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:15" hidden="1">
+    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="e" vm="31">
         <v>#VALUE!</v>
       </c>
@@ -10287,7 +10309,7 @@
         <v>1.4131677830419898E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:15" hidden="1">
+    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="e" vm="32">
         <v>#VALUE!</v>
       </c>
@@ -10345,7 +10367,7 @@
         <v>9.8080765272142417E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:15" hidden="1">
+    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="e" vm="33">
         <v>#VALUE!</v>
       </c>
@@ -10403,7 +10425,7 @@
         <v>2.6178236397748616E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:15" hidden="1">
+    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="e" vm="34">
         <v>#VALUE!</v>
       </c>
@@ -10461,7 +10483,7 @@
         <v>1.9206377967022924E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:15" hidden="1">
+    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="e" vm="35">
         <v>#VALUE!</v>
       </c>
@@ -10519,7 +10541,7 @@
         <v>1.8207092968061316E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:15" hidden="1">
+    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="e" vm="36">
         <v>#VALUE!</v>
       </c>
@@ -10577,7 +10599,7 @@
         <v>1.7680826636050428E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:15" hidden="1">
+    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="e" vm="37">
         <v>#VALUE!</v>
       </c>
@@ -10635,7 +10657,7 @@
         <v>4.584442472641264E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:15" hidden="1">
+    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="e" vm="38">
         <v>#VALUE!</v>
       </c>
@@ -10693,7 +10715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" hidden="1">
+    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="e" vm="39">
         <v>#VALUE!</v>
       </c>
@@ -10751,7 +10773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" hidden="1">
+    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="e" vm="40">
         <v>#VALUE!</v>
       </c>
@@ -10809,7 +10831,7 @@
         <v>3.89855376231383E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:15" hidden="1">
+    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="e" vm="41">
         <v>#VALUE!</v>
       </c>
@@ -10867,7 +10889,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:15" hidden="1">
+    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="e" vm="42">
         <v>#VALUE!</v>
       </c>
@@ -10925,7 +10947,7 @@
         <v>4.1010867732171608E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:15" hidden="1">
+    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="e" vm="43">
         <v>#VALUE!</v>
       </c>
@@ -10983,7 +11005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" hidden="1">
+    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="e" vm="44">
         <v>#VALUE!</v>
       </c>
@@ -11041,7 +11063,7 @@
         <v>1.6793551276308943E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:15" hidden="1">
+    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="e" vm="45">
         <v>#VALUE!</v>
       </c>
@@ -11126,7 +11148,7 @@
       <selection pane="bottomLeft" activeCell="J1" sqref="J1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" style="56" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" style="56" customWidth="1"/>
@@ -11153,7 +11175,7 @@
     <col min="23" max="16384" width="9.140625" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
         <v>31</v>
       </c>
@@ -11197,7 +11219,7 @@
       <c r="U1" s="57"/>
       <c r="V1" s="57"/>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
         <v>44</v>
       </c>
@@ -11256,7 +11278,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="56" t="s">
         <v>54</v>
       </c>
@@ -11296,7 +11318,7 @@
       <c r="U3" s="57"/>
       <c r="V3" s="57"/>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="56" t="s">
         <v>56</v>
       </c>
@@ -11336,7 +11358,7 @@
       <c r="U4" s="57"/>
       <c r="V4" s="57"/>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="56" t="s">
         <v>58</v>
       </c>
@@ -11380,7 +11402,7 @@
       <c r="U5" s="57"/>
       <c r="V5" s="57"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="56" t="s">
         <v>60</v>
       </c>
@@ -11420,7 +11442,7 @@
       <c r="U6" s="57"/>
       <c r="V6" s="57"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="56" t="s">
         <v>62</v>
       </c>
@@ -11460,7 +11482,7 @@
       <c r="U7" s="57"/>
       <c r="V7" s="57"/>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="56" t="s">
         <v>64</v>
       </c>
@@ -11500,7 +11522,7 @@
       <c r="U8" s="57"/>
       <c r="V8" s="57"/>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="56" t="s">
         <v>66</v>
       </c>
@@ -11540,7 +11562,7 @@
       <c r="U9" s="57"/>
       <c r="V9" s="57"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="56" t="s">
         <v>69</v>
       </c>
@@ -11584,7 +11606,7 @@
       <c r="U10" s="57"/>
       <c r="V10" s="57"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="56" t="s">
         <v>71</v>
       </c>
@@ -11628,7 +11650,7 @@
       <c r="U11" s="57"/>
       <c r="V11" s="57"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="56" t="s">
         <v>73</v>
       </c>
@@ -11668,7 +11690,7 @@
       <c r="U12" s="57"/>
       <c r="V12" s="57"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="56" t="s">
         <v>75</v>
       </c>
@@ -11727,7 +11749,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="56" t="s">
         <v>81</v>
       </c>
@@ -11767,7 +11789,7 @@
       <c r="U14" s="57"/>
       <c r="V14" s="57"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="56" t="s">
         <v>83</v>
       </c>
@@ -11807,7 +11829,7 @@
       <c r="U15" s="57"/>
       <c r="V15" s="57"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="56" t="s">
         <v>85</v>
       </c>
@@ -11847,7 +11869,7 @@
       <c r="U16" s="57"/>
       <c r="V16" s="57"/>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="56" t="s">
         <v>87</v>
       </c>
@@ -11887,7 +11909,7 @@
       <c r="U17" s="57"/>
       <c r="V17" s="57"/>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="56" t="s">
         <v>89</v>
       </c>
@@ -11931,7 +11953,7 @@
       <c r="U18" s="57"/>
       <c r="V18" s="57"/>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="56" t="s">
         <v>91</v>
       </c>
@@ -11971,7 +11993,7 @@
       <c r="U19" s="57"/>
       <c r="V19" s="57"/>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="56" t="s">
         <v>93</v>
       </c>
@@ -12011,7 +12033,7 @@
       <c r="U20" s="57"/>
       <c r="V20" s="57"/>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="56" t="s">
         <v>95</v>
       </c>
@@ -12051,7 +12073,7 @@
       <c r="U21" s="57"/>
       <c r="V21" s="57"/>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="56" t="s">
         <v>97</v>
       </c>
@@ -12091,7 +12113,7 @@
       <c r="U22" s="57"/>
       <c r="V22" s="57"/>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="56" t="s">
         <v>99</v>
       </c>
@@ -12131,7 +12153,7 @@
       <c r="U23" s="57"/>
       <c r="V23" s="57"/>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="56" t="s">
         <v>101</v>
       </c>
@@ -12171,7 +12193,7 @@
       <c r="U24" s="57"/>
       <c r="V24" s="57"/>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="56" t="s">
         <v>103</v>
       </c>
@@ -12211,7 +12233,7 @@
       <c r="U25" s="57"/>
       <c r="V25" s="57"/>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="56" t="s">
         <v>105</v>
       </c>
@@ -12264,7 +12286,7 @@
       <c r="U26" s="57"/>
       <c r="V26" s="57"/>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="56" t="s">
         <v>109</v>
       </c>
@@ -12304,7 +12326,7 @@
       <c r="U27" s="57"/>
       <c r="V27" s="57"/>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="56" t="s">
         <v>111</v>
       </c>
@@ -12345,7 +12367,7 @@
       <c r="U28" s="57"/>
       <c r="V28" s="57"/>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="56" t="s">
         <v>113</v>
       </c>
@@ -12386,7 +12408,7 @@
       <c r="U29" s="57"/>
       <c r="V29" s="57"/>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="56" t="s">
         <v>115</v>
       </c>
@@ -12427,7 +12449,7 @@
       <c r="U30" s="57"/>
       <c r="V30" s="57"/>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="56" t="s">
         <v>117</v>
       </c>
@@ -12468,7 +12490,7 @@
       <c r="U31" s="57"/>
       <c r="V31" s="57"/>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="56" t="s">
         <v>119</v>
       </c>
@@ -12509,7 +12531,7 @@
       <c r="U32" s="57"/>
       <c r="V32" s="57"/>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="56" t="s">
         <v>121</v>
       </c>
@@ -12550,7 +12572,7 @@
       <c r="U33" s="57"/>
       <c r="V33" s="57"/>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="56" t="s">
         <v>123</v>
       </c>
@@ -12591,7 +12613,7 @@
       <c r="U34" s="57"/>
       <c r="V34" s="57"/>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="56" t="s">
         <v>125</v>
       </c>
@@ -12635,7 +12657,7 @@
       <c r="U35" s="57"/>
       <c r="V35" s="57"/>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="56" t="s">
         <v>127</v>
       </c>
@@ -12675,7 +12697,7 @@
       <c r="U36" s="57"/>
       <c r="V36" s="57"/>
     </row>
-    <row r="37" spans="1:22">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="56" t="s">
         <v>129</v>
       </c>
@@ -12715,7 +12737,7 @@
       <c r="U37" s="57"/>
       <c r="V37" s="57"/>
     </row>
-    <row r="38" spans="1:22">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="56" t="s">
         <v>131</v>
       </c>
@@ -12755,7 +12777,7 @@
       <c r="U38" s="57"/>
       <c r="V38" s="57"/>
     </row>
-    <row r="39" spans="1:22">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="56" t="s">
         <v>133</v>
       </c>
@@ -12796,7 +12818,7 @@
       <c r="U39" s="57"/>
       <c r="V39" s="57"/>
     </row>
-    <row r="40" spans="1:22">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="56" t="s">
         <v>135</v>
       </c>
@@ -12837,7 +12859,7 @@
       <c r="U40" s="57"/>
       <c r="V40" s="57"/>
     </row>
-    <row r="41" spans="1:22">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="56" t="s">
         <v>137</v>
       </c>
@@ -12878,7 +12900,7 @@
       <c r="U41" s="57"/>
       <c r="V41" s="57"/>
     </row>
-    <row r="42" spans="1:22">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="56" t="s">
         <v>139</v>
       </c>
@@ -12920,7 +12942,7 @@
       </c>
       <c r="V42" s="57"/>
     </row>
-    <row r="43" spans="1:22">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="56" t="s">
         <v>141</v>
       </c>
@@ -12958,7 +12980,7 @@
       </c>
       <c r="V43" s="57"/>
     </row>
-    <row r="44" spans="1:22">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="56" t="s">
         <v>143</v>
       </c>
@@ -12996,7 +13018,7 @@
       </c>
       <c r="V44" s="57"/>
     </row>
-    <row r="45" spans="1:22">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="56" t="s">
         <v>145</v>
       </c>
@@ -13033,7 +13055,7 @@
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:22">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="56" t="s">
         <v>147</v>
       </c>
@@ -13070,7 +13092,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:22">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="56" t="s">
         <v>149</v>
       </c>
@@ -13111,7 +13133,7 @@
         <v>1.6999999999999999E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:22">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="56" t="s">
         <v>151</v>
       </c>
@@ -13148,7 +13170,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="56" t="s">
         <v>153</v>
       </c>
@@ -13185,7 +13207,7 @@
         <v>2.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="56" t="s">
         <v>155</v>
       </c>
@@ -13222,7 +13244,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="56" t="s">
         <v>157</v>
       </c>
@@ -13259,7 +13281,7 @@
         <v>1.06E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="56" t="s">
         <v>159</v>
       </c>
@@ -13296,7 +13318,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="56" t="s">
         <v>161</v>
       </c>
@@ -13333,7 +13355,7 @@
         <v>1.9199999999999998E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="56" t="s">
         <v>163</v>
       </c>
@@ -13370,7 +13392,7 @@
         <v>1.9800000000000002E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="56" t="s">
         <v>165</v>
       </c>
@@ -13407,7 +13429,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="56" t="s">
         <v>167</v>
       </c>
@@ -13444,7 +13466,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="56" t="s">
         <v>169</v>
       </c>
@@ -13481,7 +13503,7 @@
         <v>3.8699999999999998E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="56" t="s">
         <v>171</v>
       </c>
@@ -13518,7 +13540,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="56" t="s">
         <v>173</v>
       </c>
@@ -13555,7 +13577,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="56" t="s">
         <v>175</v>
       </c>
@@ -13592,7 +13614,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="56" t="s">
         <v>177</v>
       </c>
@@ -13629,7 +13651,7 @@
         <v>1.8599999999999998E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="56" t="s">
         <v>179</v>
       </c>
@@ -13666,7 +13688,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="56" t="s">
         <v>181</v>
       </c>
@@ -13703,7 +13725,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="56" t="s">
         <v>183</v>
       </c>
@@ -13740,7 +13762,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="56" t="s">
         <v>185</v>
       </c>
@@ -13777,7 +13799,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="56" t="s">
         <v>187</v>
       </c>
@@ -13814,7 +13836,7 @@
         <v>1.15E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="56" t="s">
         <v>189</v>
       </c>
@@ -13851,7 +13873,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="56" t="s">
         <v>191</v>
       </c>
@@ -13888,7 +13910,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="56" t="s">
         <v>193</v>
       </c>
@@ -13925,7 +13947,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="56" t="s">
         <v>195</v>
       </c>
@@ -13962,7 +13984,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="56" t="s">
         <v>197</v>
       </c>
@@ -13999,7 +14021,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="56" t="s">
         <v>199</v>
       </c>
@@ -14036,7 +14058,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="56" t="s">
         <v>201</v>
       </c>
@@ -14073,7 +14095,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="56" t="s">
         <v>203</v>
       </c>
@@ -14110,7 +14132,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="56" t="s">
         <v>205</v>
       </c>
@@ -14147,7 +14169,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="56" t="s">
         <v>207</v>
       </c>
@@ -14184,7 +14206,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="56" t="s">
         <v>209</v>
       </c>
@@ -14217,7 +14239,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="56" t="s">
         <v>210</v>
       </c>
@@ -14250,7 +14272,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="56" t="s">
         <v>212</v>
       </c>
@@ -14283,7 +14305,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="56" t="s">
         <v>214</v>
       </c>
@@ -14316,7 +14338,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="56" t="s">
         <v>216</v>
       </c>
@@ -14349,7 +14371,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="56" t="s">
         <v>218</v>
       </c>
@@ -14382,7 +14404,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="56" t="s">
         <v>220</v>
       </c>
@@ -14415,7 +14437,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="56" t="s">
         <v>222</v>
       </c>
@@ -14448,7 +14470,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="56" t="s">
         <v>224</v>
       </c>
@@ -14481,7 +14503,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="56" t="s">
         <v>226</v>
       </c>
@@ -14514,7 +14536,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="56" t="s">
         <v>228</v>
       </c>
@@ -14547,7 +14569,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="56" t="s">
         <v>230</v>
       </c>
@@ -14580,7 +14602,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="56" t="s">
         <v>232</v>
       </c>
@@ -14613,7 +14635,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="56" t="s">
         <v>234</v>
       </c>
@@ -14646,7 +14668,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="56" t="s">
         <v>236</v>
       </c>
@@ -14679,7 +14701,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="56" t="s">
         <v>238</v>
       </c>
@@ -14712,7 +14734,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="56" t="s">
         <v>240</v>
       </c>
@@ -14745,7 +14767,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="56" t="s">
         <v>242</v>
       </c>
@@ -14778,7 +14800,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="56" t="s">
         <v>244</v>
       </c>
@@ -14811,7 +14833,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="56" t="s">
         <v>246</v>
       </c>
@@ -14844,7 +14866,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="56" t="s">
         <v>248</v>
       </c>
@@ -14873,7 +14895,7 @@
         <v>6.2799999999999995E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="56" t="s">
         <v>250</v>
       </c>
@@ -14902,7 +14924,7 @@
         <v>7.9200000000000007E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="56" t="s">
         <v>252</v>
       </c>
@@ -14931,7 +14953,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="56" t="s">
         <v>254</v>
       </c>
@@ -14960,7 +14982,7 @@
         <v>3.6600000000000001E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="56" t="s">
         <v>256</v>
       </c>
@@ -14989,7 +15011,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="56" t="s">
         <v>258</v>
       </c>
@@ -15018,7 +15040,7 @@
         <v>9.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="56" t="s">
         <v>260</v>
       </c>
@@ -15047,7 +15069,7 @@
         <v>1.5800000000000002E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="56" t="s">
         <v>262</v>
       </c>
@@ -15076,7 +15098,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="56" t="s">
         <v>264</v>
       </c>
@@ -15105,7 +15127,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="56" t="s">
         <v>266</v>
       </c>
@@ -15134,7 +15156,7 @@
         <v>2.6100000000000002E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="56" t="s">
         <v>268</v>
       </c>
@@ -15163,7 +15185,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="56" t="s">
         <v>270</v>
       </c>
@@ -15192,7 +15214,7 @@
         <v>1.66E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="56" t="s">
         <v>272</v>
       </c>
@@ -15221,7 +15243,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="56" t="s">
         <v>274</v>
       </c>
@@ -15250,7 +15272,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="56" t="s">
         <v>276</v>
       </c>
@@ -15279,7 +15301,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="56" t="s">
         <v>278</v>
       </c>
@@ -15308,7 +15330,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="56" t="s">
         <v>280</v>
       </c>
@@ -15337,7 +15359,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="56" t="s">
         <v>282</v>
       </c>
@@ -15366,7 +15388,7 @@
         <v>1.01E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="56" t="s">
         <v>284</v>
       </c>
@@ -15395,7 +15417,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="56" t="s">
         <v>286</v>
       </c>
@@ -15424,7 +15446,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="56" t="s">
         <v>288</v>
       </c>
@@ -15453,7 +15475,7 @@
         <v>1.6400000000000001E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="56" t="s">
         <v>290</v>
       </c>
@@ -15482,7 +15504,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="56" t="s">
         <v>292</v>
       </c>
@@ -15511,7 +15533,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="56" t="s">
         <v>294</v>
       </c>
@@ -15540,7 +15562,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="56" t="s">
         <v>296</v>
       </c>
@@ -15569,7 +15591,7 @@
         <v>6.3E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="56" t="s">
         <v>298</v>
       </c>
@@ -15598,7 +15620,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="56" t="s">
         <v>300</v>
       </c>
@@ -15627,7 +15649,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="57" t="s">
         <v>302</v>
       </c>
@@ -15656,7 +15678,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="57" t="s">
         <v>304</v>
       </c>
@@ -15685,7 +15707,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="57" t="s">
         <v>306</v>
       </c>
@@ -15714,7 +15736,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="57" t="s">
         <v>308</v>
       </c>
@@ -15743,7 +15765,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="57" t="s">
         <v>310</v>
       </c>
@@ -15772,7 +15794,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="57" t="s">
         <v>312</v>
       </c>
@@ -15801,7 +15823,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="57" t="s">
         <v>314</v>
       </c>
@@ -15830,7 +15852,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="56" t="s">
         <v>316</v>
       </c>
@@ -15859,7 +15881,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="56" t="s">
         <v>318</v>
       </c>
@@ -15910,7 +15932,7 @@
       <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -15925,7 +15947,7 @@
     <col min="15" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15969,7 +15991,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="e" vm="46">
         <v>#VALUE!</v>
       </c>
@@ -16023,7 +16045,7 @@
         <v>0.17977528089887637</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="e" vm="47">
         <v>#VALUE!</v>
       </c>
@@ -16077,7 +16099,7 @@
         <v>0.11481317934782616</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="e" vm="48">
         <v>#VALUE!</v>
       </c>
@@ -16131,7 +16153,7 @@
         <v>0.52456621004566206</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="e" vm="49">
         <v>#VALUE!</v>
       </c>
@@ -16185,7 +16207,7 @@
         <v>0.31760918253079506</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="e" vm="50">
         <v>#VALUE!</v>
       </c>
@@ -16239,7 +16261,7 @@
         <v>0.30226789510985114</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="e" vm="51">
         <v>#VALUE!</v>
       </c>
@@ -16290,7 +16312,7 @@
         <v>0.19640778313653753</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="e" vm="52">
         <v>#VALUE!</v>
       </c>
@@ -16341,7 +16363,7 @@
         <v>1.0860056110289971E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="e" vm="53">
         <v>#VALUE!</v>
       </c>
@@ -16394,7 +16416,7 @@
         <v>0.30081541582150101</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="e" vm="54">
         <v>#VALUE!</v>
       </c>
@@ -16448,7 +16470,7 @@
         <v>0.65314180107526876</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="e" vm="55">
         <v>#VALUE!</v>
       </c>
@@ -16502,7 +16524,7 @@
         <v>0.47424845269672861</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="e" vm="56">
         <v>#VALUE!</v>
       </c>
@@ -16556,7 +16578,7 @@
         <v>0.43308865047995482</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="e" vm="57">
         <v>#VALUE!</v>
       </c>
@@ -16610,7 +16632,7 @@
         <v>0.39534257638982367</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="e" vm="58">
         <v>#VALUE!</v>
       </c>
@@ -16664,7 +16686,7 @@
         <v>0.23565984757320499</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="e" vm="59">
         <v>#VALUE!</v>
       </c>
@@ -16718,7 +16740,7 @@
         <v>0.68897317298797411</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="e" vm="60">
         <v>#VALUE!</v>
       </c>
@@ -16772,7 +16794,7 @@
         <v>0.49615575936577022</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="e" vm="61">
         <v>#VALUE!</v>
       </c>
@@ -16826,7 +16848,7 @@
         <v>0.4397489949995097</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="e" vm="62">
         <v>#VALUE!</v>
       </c>
@@ -16880,7 +16902,7 @@
         <v>0.429585798816568</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="e" vm="63">
         <v>#VALUE!</v>
       </c>
@@ -16934,7 +16956,7 @@
         <v>0.39594816028601221</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="e" vm="64">
         <v>#VALUE!</v>
       </c>
@@ -16987,7 +17009,7 @@
         <v>0.37653136531365311</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="e" vm="65">
         <v>#VALUE!</v>
       </c>
@@ -17041,7 +17063,7 @@
         <v>0.28739763779527555</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="e" vm="66">
         <v>#VALUE!</v>
       </c>
@@ -17095,7 +17117,7 @@
         <v>0.48044096728307256</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="e" vm="67">
         <v>#VALUE!</v>
       </c>
@@ -17149,7 +17171,7 @@
         <v>0.10314068017097201</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="e" vm="68">
         <v>#VALUE!</v>
       </c>
@@ -17203,7 +17225,7 @@
         <v>8.6445783132530124E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="e" vm="69">
         <v>#VALUE!</v>
       </c>
@@ -17257,7 +17279,7 @@
         <v>7.1739859202145035E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="e" vm="70">
         <v>#VALUE!</v>
       </c>
@@ -17325,13 +17347,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13513A75-7FB1-4B44-A9EF-B1F8874E7B1E}">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
@@ -17347,7 +17369,7 @@
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
@@ -17367,7 +17389,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -17389,7 +17411,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -17411,7 +17433,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -17433,7 +17455,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -17455,7 +17477,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -17477,7 +17499,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -17499,7 +17521,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -17521,7 +17543,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -17543,7 +17565,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -17565,7 +17587,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -17587,7 +17609,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>348</v>
       </c>
@@ -17606,7 +17628,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>2</v>
       </c>
@@ -17626,7 +17648,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>349</v>
       </c>
@@ -17648,7 +17670,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>349</v>
       </c>
@@ -17670,7 +17692,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>349</v>
       </c>
@@ -17692,7 +17714,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>349</v>
       </c>
@@ -17714,7 +17736,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>349</v>
       </c>
@@ -17736,7 +17758,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>349</v>
       </c>
@@ -17758,7 +17780,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>349</v>
       </c>
@@ -17780,7 +17802,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>348</v>
       </c>
@@ -17799,14 +17821,14 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="18.75">
+    <row r="28" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="85" t="s">
         <v>359</v>
       </c>
       <c r="B28" s="85"/>
       <c r="C28" s="85"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>360</v>
       </c>
@@ -17817,7 +17839,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>363</v>
       </c>
@@ -17826,7 +17848,7 @@
       </c>
       <c r="C30" s="12"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>365</v>
       </c>
@@ -17835,7 +17857,7 @@
       </c>
       <c r="C31" s="12"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>366</v>
       </c>
@@ -17844,7 +17866,7 @@
       </c>
       <c r="C32" s="12"/>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>367</v>
       </c>
@@ -17853,7 +17875,7 @@
       </c>
       <c r="C33" s="12"/>
     </row>
-    <row r="34" spans="1:3" ht="60">
+    <row r="34" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>368</v>
       </c>
@@ -17864,7 +17886,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="60">
+    <row r="35" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>371</v>
       </c>
@@ -17875,7 +17897,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30">
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>80</v>
       </c>
@@ -17886,7 +17908,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>77</v>
       </c>
@@ -17897,7 +17919,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>376</v>
       </c>
@@ -17905,6 +17927,35 @@
         <v>377</v>
       </c>
       <c r="C38" s="12"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C39" s="12"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C40" s="12"/>
+    </row>
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>436</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -17923,14 +17974,14 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9442434-AE3F-49F6-94ED-A6D1C7BB92DA}">
-  <dimension ref="A1:AK40"/>
+  <dimension ref="A1:AK41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A40" sqref="A40"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="12.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.140625" style="21" customWidth="1"/>
     <col min="2" max="2" width="15.140625" style="21" bestFit="1" customWidth="1"/>
@@ -17950,7 +18001,7 @@
     <col min="37" max="16384" width="10.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="46" customFormat="1" ht="29.25" customHeight="1">
+    <row r="1" spans="1:37" s="46" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>4</v>
       </c>
@@ -18060,7 +18111,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" s="47" t="s">
         <v>29</v>
       </c>
@@ -18144,7 +18195,7 @@
         <v>0.05</v>
       </c>
       <c r="Y2" s="50">
-        <f t="shared" ref="Y2:Y23" si="2">X2*1000</f>
+        <f t="shared" ref="Y2:Y22" si="2">X2*1000</f>
         <v>50</v>
       </c>
       <c r="Z2" s="50">
@@ -18196,7 +18247,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="47" t="s">
         <v>29</v>
       </c>
@@ -18284,7 +18335,7 @@
         <v>45</v>
       </c>
       <c r="Z3" s="50">
-        <f t="shared" ref="Z3:Z23" si="8">Y3*12</f>
+        <f t="shared" ref="Z3:Z22" si="8">Y3*12</f>
         <v>540</v>
       </c>
       <c r="AA3" s="51">
@@ -18332,7 +18383,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>331</v>
       </c>
@@ -18468,7 +18519,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
         <v>331</v>
       </c>
@@ -18604,7 +18655,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
         <v>331</v>
       </c>
@@ -18740,7 +18791,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" s="47" t="s">
         <v>28</v>
       </c>
@@ -18876,7 +18927,7 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="47" t="s">
         <v>28</v>
       </c>
@@ -19012,7 +19063,7 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
         <v>20</v>
       </c>
@@ -19148,7 +19199,7 @@
         <v>5040</v>
       </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
         <v>20</v>
       </c>
@@ -19284,7 +19335,7 @@
         <v>5040</v>
       </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="47" t="s">
         <v>401</v>
       </c>
@@ -19420,7 +19471,7 @@
         <v>4320</v>
       </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
         <v>334</v>
       </c>
@@ -19556,7 +19607,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
         <v>334</v>
       </c>
@@ -19692,7 +19743,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" s="47" t="s">
         <v>18</v>
       </c>
@@ -19828,7 +19879,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" s="52" t="s">
         <v>18</v>
       </c>
@@ -19964,7 +20015,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
         <v>406</v>
       </c>
@@ -20100,7 +20151,7 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="17" spans="1:37">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
         <v>406</v>
       </c>
@@ -20236,7 +20287,7 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="18" spans="1:37">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" s="47" t="s">
         <v>30</v>
       </c>
@@ -20372,7 +20423,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="19" spans="1:37">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" s="47" t="s">
         <v>30</v>
       </c>
@@ -20508,7 +20559,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" s="47" t="s">
         <v>30</v>
       </c>
@@ -20644,7 +20695,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="21" spans="1:37">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
         <v>346</v>
       </c>
@@ -20780,7 +20831,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="22" spans="1:37">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22" s="25" t="s">
         <v>346</v>
       </c>
@@ -20916,7 +20967,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="23" spans="1:37">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="s">
         <v>414</v>
       </c>
@@ -20991,7 +21042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:37">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="s">
         <v>414</v>
       </c>
@@ -21037,7 +21088,7 @@
       <c r="AJ24" s="38"/>
       <c r="AK24" s="38"/>
     </row>
-    <row r="25" spans="1:37">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="s">
         <v>414</v>
       </c>
@@ -21083,7 +21134,7 @@
       <c r="AJ25" s="38"/>
       <c r="AK25" s="38"/>
     </row>
-    <row r="26" spans="1:37">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" s="24" t="s">
         <v>348</v>
       </c>
@@ -21137,65 +21188,70 @@
         <v>120600</v>
       </c>
     </row>
-    <row r="27" spans="1:37">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="Q27" s="83">
         <f>Q26-R26</f>
         <v>196556.03502084804</v>
       </c>
     </row>
-    <row r="30" spans="1:37">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="31" spans="1:37">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="32" spans="1:37">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32" s="21" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="84" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="84" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="21" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="21" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="21" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="21" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="21" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="21" t="s">
         <v>421</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="21" t="s">
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -21215,14 +21271,14 @@
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="9.140625" style="28"/>
     <col min="6" max="6" width="10.7109375" style="28" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="29"/>
       <c r="B1" s="29" t="s">
         <v>425</v>
@@ -21240,7 +21296,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="27"/>
       <c r="B2" s="30">
         <v>78.319999999999993</v>
@@ -21257,7 +21313,7 @@
         <v>0.37198333333333333</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="27"/>
       <c r="B3" s="30">
         <v>84.28</v>
@@ -21274,7 +21330,7 @@
         <v>0.47854999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="27"/>
       <c r="B4" s="30">
         <v>74.39</v>
@@ -21291,7 +21347,7 @@
         <v>0.43246666666666672</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="27"/>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -21302,7 +21358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
@@ -21313,7 +21369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15">
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="55" t="s">
         <v>429</v>
       </c>
@@ -21331,18 +21387,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21569,13 +21625,45 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{401ADED5-CC5A-4072-B36A-6DA217C5A368}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DB5870C-189D-475E-8E58-449C30115ACA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DB5870C-189D-475E-8E58-449C30115ACA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{401ADED5-CC5A-4072-B36A-6DA217C5A368}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e8f9595b-0d5a-46b2-8488-c972c1ea4246"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6bcbbac3-d60f-4c54-b2b4-d245c065548d"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11321DBA-FDAB-45E8-A045-E3E44A7AE235}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11321DBA-FDAB-45E8-A045-E3E44A7AE235}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e8f9595b-0d5a-46b2-8488-c972c1ea4246"/>
+    <ds:schemaRef ds:uri="6bcbbac3-d60f-4c54-b2b4-d245c065548d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/input/Watchlist.xlsx
+++ b/input/Watchlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bayergroup-my.sharepoint.com/personal/sivacharan_chandrasekar_ext_bayer_com/Documents/Personal Data/Analytics/us-stocks-analysis/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{A259AFBD-2F1F-43A4-8040-58927886A03B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{773C19DD-C457-4093-A6A9-FE16754F388F}"/>
+  <xr:revisionPtr revIDLastSave="138" documentId="13_ncr:1_{A259AFBD-2F1F-43A4-8040-58927886A03B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B9866240-A632-43B9-B3F6-1762442ACB5E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fund List" sheetId="1" r:id="rId1"/>
@@ -766,7 +766,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="450">
   <si>
     <t>Funds</t>
   </si>
@@ -2022,6 +2022,15 @@
     <t>ZZZ</t>
   </si>
   <si>
+    <t>FIGFX</t>
+  </si>
+  <si>
+    <t>FPBFX</t>
+  </si>
+  <si>
+    <t>IMTM</t>
+  </si>
+  <si>
     <t>EFG</t>
   </si>
   <si>
@@ -2043,9 +2052,6 @@
     <t>https://money.usnews.com/funds/etfs/international-stock</t>
   </si>
   <si>
-    <t>FPBFX</t>
-  </si>
-  <si>
     <t>FSTSX</t>
   </si>
   <si>
@@ -2055,7 +2061,10 @@
     <t>FIVFX</t>
   </si>
   <si>
-    <t>FIGFX</t>
+    <t>FSCPX</t>
+  </si>
+  <si>
+    <t>Select Consumer Discretionary</t>
   </si>
   <si>
     <t>% in Portfolio</t>
@@ -2388,7 +2397,7 @@
     <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2548,11 +2557,14 @@
     <xf numFmtId="10" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="8" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -17417,8 +17429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13513A75-7FB1-4B44-A9EF-B1F8874E7B1E}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -17890,11 +17902,11 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="18.75">
-      <c r="A28" s="93" t="s">
+      <c r="A28" s="95" t="s">
         <v>359</v>
       </c>
-      <c r="B28" s="93"/>
-      <c r="C28" s="93"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="95"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
@@ -18024,11 +18036,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9442434-AE3F-49F6-94ED-A6D1C7BB92DA}">
-  <dimension ref="A1:AK42"/>
+  <dimension ref="A1:AK43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
+      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="12.75" outlineLevelCol="1"/>
@@ -18039,14 +18051,14 @@
     <col min="4" max="4" width="12.140625" style="22" customWidth="1"/>
     <col min="5" max="5" width="12.140625" style="26" customWidth="1"/>
     <col min="6" max="7" width="14.42578125" style="21" customWidth="1"/>
-    <col min="8" max="16" width="0" style="21" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="16" width="10.140625" style="21" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="17" max="17" width="10.140625" style="21" collapsed="1"/>
     <col min="18" max="18" width="12.140625" style="21" customWidth="1"/>
     <col min="19" max="19" width="10.140625" style="21"/>
     <col min="20" max="20" width="14" style="21" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.5703125" style="21" customWidth="1"/>
     <col min="22" max="26" width="10.140625" style="21"/>
-    <col min="27" max="35" width="0" style="21" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="35" width="10.140625" style="21" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="36" max="36" width="10.140625" style="21" collapsed="1"/>
     <col min="37" max="16384" width="10.140625" style="21"/>
   </cols>
@@ -18242,59 +18254,59 @@
         <v>0.1101</v>
       </c>
       <c r="X2" s="49">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="Y2" s="50">
         <f t="shared" ref="Y2:Y23" si="2">X2*1000</f>
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="Z2" s="50">
         <f>Y2*12</f>
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="AA2" s="51">
         <f>IF(MID(Z$1,1,2) &lt;&gt; "CY",($Y2*12*(1+$W2)) - ($Y2*12*(1+$W2))*$V2, (Z2+($Y2*12))*(1+$W2) - (Z2+($Y2*12))*(1+$W2)*$V2)</f>
-        <v>665.86018200000001</v>
+        <v>266.34407280000005</v>
       </c>
       <c r="AB2" s="51">
         <f t="shared" ref="AB2:AJ2" si="3">IF(MID(AA$1,1,2) &lt;&gt; "CY",($Y2*12*(1+$W2)) - ($Y2*12*(1+$W2))*$V2, (AA2+($Y2*12))*(1+$W2) - (AA2+($Y2*12))*(1+$W2)*$V2)</f>
-        <v>1404.8098186217885</v>
+        <v>561.92392744871552</v>
       </c>
       <c r="AC2" s="51">
         <f t="shared" si="3"/>
-        <v>2224.8717178381521</v>
+        <v>889.94868713526091</v>
       </c>
       <c r="AD2" s="51">
         <f t="shared" si="3"/>
-        <v>3134.9493269439413</v>
+        <v>1253.9797307775766</v>
       </c>
       <c r="AE2" s="51">
         <f t="shared" si="3"/>
-        <v>4144.923397666118</v>
+        <v>1657.9693590664472</v>
       </c>
       <c r="AF2" s="51">
         <f t="shared" si="3"/>
-        <v>5265.7592619100333</v>
+        <v>2106.3037047640132</v>
       </c>
       <c r="AG2" s="51">
         <f t="shared" si="3"/>
-        <v>6509.6258828393338</v>
+        <v>2603.8503531357337</v>
       </c>
       <c r="AH2" s="51">
         <f t="shared" si="3"/>
-        <v>7890.0279738321833</v>
+        <v>3156.0111895328732</v>
       </c>
       <c r="AI2" s="51">
         <f t="shared" si="3"/>
-        <v>9421.9526197349824</v>
+        <v>3768.7810478939928</v>
       </c>
       <c r="AJ2" s="51">
         <f t="shared" si="3"/>
-        <v>11122.031992286855</v>
+        <v>4448.8127969147408</v>
       </c>
       <c r="AK2" s="51">
         <f>Z2*10</f>
-        <v>6000</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="3" spans="1:37">
@@ -18378,59 +18390,59 @@
         <v>0.1368</v>
       </c>
       <c r="X3" s="49">
-        <v>4.4999999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="Y3" s="50">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="Z3" s="50">
         <f t="shared" ref="Z3:Z23" si="8">Y3*12</f>
-        <v>540</v>
+        <v>720</v>
       </c>
       <c r="AA3" s="51">
         <f t="shared" ref="AA3:AJ3" si="9">IF(MID(Z$1,1,2) &lt;&gt; "CY",($Y3*12*(1+$W3)) - ($Y3*12*(1+$W3))*$V3, (Z3+($Y3*12))*(1+$W3) - (Z3+($Y3*12))*(1+$W3)*$V3)</f>
-        <v>613.77991920000011</v>
+        <v>818.37322559999996</v>
       </c>
       <c r="AB3" s="51">
         <f t="shared" si="9"/>
-        <v>1311.4202695947383</v>
+        <v>1748.5603594596505</v>
       </c>
       <c r="AC3" s="51">
         <f t="shared" si="9"/>
-        <v>2104.3788582909269</v>
+        <v>2805.8384777212359</v>
       </c>
       <c r="AD3" s="51">
         <f t="shared" si="9"/>
-        <v>3005.6789666222103</v>
+        <v>4007.5719554962802</v>
       </c>
       <c r="AE3" s="51">
         <f t="shared" si="9"/>
-        <v>4030.1232400787403</v>
+        <v>5373.4976534383195</v>
       </c>
       <c r="AF3" s="51">
         <f t="shared" si="9"/>
-        <v>5194.5368019066145</v>
+        <v>6926.0490692088179</v>
       </c>
       <c r="AG3" s="51">
         <f t="shared" si="9"/>
-        <v>6518.0435831919785</v>
+        <v>8690.7247775893029</v>
       </c>
       <c r="AH3" s="51">
         <f t="shared" si="9"/>
-        <v>8022.3804077808354</v>
+        <v>10696.507210374446</v>
       </c>
       <c r="AI3" s="51">
         <f t="shared" si="9"/>
-        <v>9732.2539904581172</v>
+        <v>12976.338653944158</v>
       </c>
       <c r="AJ3" s="51">
         <f t="shared" si="9"/>
-        <v>11675.746711602334</v>
+        <v>15567.662282136449</v>
       </c>
       <c r="AK3" s="51">
         <f t="shared" ref="AK3:AK23" si="10">Z3*10</f>
-        <v>5400</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="4" spans="1:37">
@@ -18514,59 +18526,59 @@
         <v>0.13550000000000001</v>
       </c>
       <c r="X4" s="36">
-        <v>2.2499999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="Y4" s="37">
         <f t="shared" si="2"/>
-        <v>22.5</v>
+        <v>10</v>
       </c>
       <c r="Z4" s="37">
         <f t="shared" si="8"/>
-        <v>270</v>
+        <v>120</v>
       </c>
       <c r="AA4" s="38">
         <f t="shared" ref="AA4:AJ4" si="12">IF(MID(Z$1,1,2) &lt;&gt; "CY",($Y4*12*(1+$W4)) - ($Y4*12*(1+$W4))*$V4, (Z4+($Y4*12))*(1+$W4) - (Z4+($Y4*12))*(1+$W4)*$V4)</f>
-        <v>306.49302449999999</v>
+        <v>136.219122</v>
       </c>
       <c r="AB4" s="38">
         <f t="shared" si="12"/>
-        <v>654.4114469709541</v>
+        <v>290.84953198709064</v>
       </c>
       <c r="AC4" s="38">
         <f t="shared" si="12"/>
-        <v>1049.3542972761077</v>
+        <v>466.37968767826999</v>
       </c>
       <c r="AD4" s="38">
         <f t="shared" si="12"/>
-        <v>1497.6773665156531</v>
+        <v>665.63438511806794</v>
       </c>
       <c r="AE4" s="38">
         <f t="shared" si="12"/>
-        <v>2006.5954903836207</v>
+        <v>891.82021794827563</v>
       </c>
       <c r="AF4" s="38">
         <f t="shared" si="12"/>
-        <v>2584.2986570768026</v>
+        <v>1148.5771809230228</v>
       </c>
       <c r="AG4" s="38">
         <f t="shared" si="12"/>
-        <v>3240.0838082731761</v>
+        <v>1440.037248121411</v>
       </c>
       <c r="AH4" s="38">
         <f t="shared" si="12"/>
-        <v>3984.5044542449032</v>
+        <v>1770.8908685532897</v>
       </c>
       <c r="AI4" s="38">
         <f t="shared" si="12"/>
-        <v>4829.5405108527493</v>
+        <v>2146.4624492678877</v>
       </c>
       <c r="AJ4" s="38">
         <f t="shared" si="12"/>
-        <v>5788.7910915982748</v>
+        <v>2572.7960407103433</v>
       </c>
       <c r="AK4" s="38">
         <f t="shared" si="10"/>
-        <v>2700</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="5" spans="1:37">
@@ -18650,59 +18662,59 @@
         <v>0.13</v>
       </c>
       <c r="X5" s="36">
-        <v>2.2499999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="Y5" s="37">
         <f t="shared" si="2"/>
-        <v>22.5</v>
+        <v>10</v>
       </c>
       <c r="Z5" s="37">
         <f t="shared" si="8"/>
-        <v>270</v>
+        <v>120</v>
       </c>
       <c r="AA5" s="38">
         <f t="shared" ref="AA5:AJ5" si="14">IF(MID(Z$1,1,2) &lt;&gt; "CY",($Y5*12*(1+$W5)) - ($Y5*12*(1+$W5))*$V5, (Z5+($Y5*12))*(1+$W5) - (Z5+($Y5*12))*(1+$W5)*$V5)</f>
-        <v>305.00846999999999</v>
+        <v>135.55931999999999</v>
       </c>
       <c r="AB5" s="38">
         <f t="shared" si="14"/>
-        <v>649.56464322866987</v>
+        <v>288.69539699052001</v>
       </c>
       <c r="AC5" s="38">
         <f t="shared" si="14"/>
-        <v>1038.7963144343423</v>
+        <v>461.68725085970777</v>
       </c>
       <c r="AD5" s="38">
         <f t="shared" si="14"/>
-        <v>1478.4961533602136</v>
+        <v>657.10940149342821</v>
       </c>
       <c r="AE5" s="38">
         <f t="shared" si="14"/>
-        <v>1975.2079131010521</v>
+        <v>877.87018360046761</v>
       </c>
       <c r="AF5" s="38">
         <f t="shared" si="14"/>
-        <v>2536.3238163216479</v>
+        <v>1127.2550294762877</v>
       </c>
       <c r="AG5" s="38">
         <f t="shared" si="14"/>
-        <v>3170.1945686697286</v>
+        <v>1408.9753638532127</v>
       </c>
       <c r="AH5" s="38">
         <f t="shared" si="14"/>
-        <v>3886.2536366380136</v>
+        <v>1727.223838505784</v>
       </c>
       <c r="AI5" s="38">
         <f t="shared" si="14"/>
-        <v>4695.1576394181347</v>
+        <v>2086.736728630282</v>
       </c>
       <c r="AJ5" s="38">
         <f t="shared" si="14"/>
-        <v>5608.9449441027291</v>
+        <v>2492.8644196012128</v>
       </c>
       <c r="AK5" s="38">
         <f t="shared" si="10"/>
-        <v>2700</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="6" spans="1:37">
@@ -18786,59 +18798,59 @@
         <v>0.13969999999999999</v>
       </c>
       <c r="X6" s="36">
-        <v>4.4999999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="Y6" s="37">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="Z6" s="37">
         <f t="shared" si="8"/>
-        <v>540</v>
+        <v>720</v>
       </c>
       <c r="AA6" s="38">
         <f t="shared" ref="AA6:AJ6" si="16">IF(MID(Z$1,1,2) &lt;&gt; "CY",($Y6*12*(1+$W6)) - ($Y6*12*(1+$W6))*$V6, (Z6+($Y6*12))*(1+$W6) - (Z6+($Y6*12))*(1+$W6)*$V6)</f>
-        <v>615.34568430000002</v>
+        <v>820.46091239999998</v>
       </c>
       <c r="AB6" s="38">
         <f t="shared" si="16"/>
-        <v>1316.5499642752502</v>
+        <v>1755.3999523670004</v>
       </c>
       <c r="AC6" s="38">
         <f t="shared" si="16"/>
-        <v>2115.5926077853596</v>
+        <v>2820.7901437138134</v>
       </c>
       <c r="AD6" s="38">
         <f t="shared" si="16"/>
-        <v>3026.1249082587101</v>
+        <v>4034.8332110116144</v>
       </c>
       <c r="AE6" s="38">
         <f t="shared" si="16"/>
-        <v>4063.7029110587605</v>
+        <v>5418.2705480783479</v>
       </c>
       <c r="AF6" s="38">
         <f t="shared" si="16"/>
-        <v>5246.0531817025094</v>
+        <v>6994.7375756033462</v>
       </c>
       <c r="AG6" s="38">
         <f t="shared" si="16"/>
-        <v>6593.3756564646719</v>
+        <v>8791.1675419528947</v>
       </c>
       <c r="AH6" s="38">
         <f t="shared" si="16"/>
-        <v>8128.688749437435</v>
+        <v>10838.251665916579</v>
       </c>
       <c r="AI6" s="38">
         <f t="shared" si="16"/>
-        <v>9878.2226120486848</v>
+        <v>13170.963482731577</v>
       </c>
       <c r="AJ6" s="38">
         <f t="shared" si="16"/>
-        <v>11871.867263705242</v>
+        <v>15829.156351606987</v>
       </c>
       <c r="AK6" s="38">
         <f t="shared" si="10"/>
-        <v>5400</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="7" spans="1:37">
@@ -18922,59 +18934,59 @@
         <v>0.193</v>
       </c>
       <c r="X7" s="49">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="Y7" s="50">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="Z7" s="50">
         <f t="shared" si="8"/>
-        <v>1080</v>
+        <v>480</v>
       </c>
       <c r="AA7" s="51">
         <f t="shared" ref="AA7:AJ7" si="18">IF(MID(Z$1,1,2) &lt;&gt; "CY",($Y7*12*(1+$W7)) - ($Y7*12*(1+$W7))*$V7, (Z7+($Y7*12))*(1+$W7) - (Z7+($Y7*12))*(1+$W7)*$V7)</f>
-        <v>1287.15156</v>
+        <v>572.06736000000001</v>
       </c>
       <c r="AB7" s="51">
         <f t="shared" si="18"/>
-        <v>2821.1877992689206</v>
+        <v>1253.8612441195201</v>
       </c>
       <c r="AC7" s="51">
         <f t="shared" si="18"/>
-        <v>4649.4629274832942</v>
+        <v>2066.427967770353</v>
       </c>
       <c r="AD7" s="51">
         <f t="shared" si="18"/>
-        <v>6828.4140232150821</v>
+        <v>3034.8506769844812</v>
       </c>
       <c r="AE7" s="51">
         <f t="shared" si="18"/>
-        <v>9425.3031917658973</v>
+        <v>4189.0236407848442</v>
       </c>
       <c r="AF7" s="51">
         <f t="shared" si="18"/>
-        <v>12520.293881068939</v>
+        <v>5564.5750582528635</v>
       </c>
       <c r="AG7" s="51">
         <f t="shared" si="18"/>
-        <v>16208.925449515129</v>
+        <v>7203.966866451171</v>
       </c>
       <c r="AH7" s="51">
         <f t="shared" si="18"/>
-        <v>20605.062373210279</v>
+        <v>9157.8054992045709</v>
       </c>
       <c r="AI7" s="51">
         <f t="shared" si="18"/>
-        <v>25844.409131828626</v>
+        <v>11486.404058590502</v>
       </c>
       <c r="AJ7" s="51">
         <f t="shared" si="18"/>
-        <v>32088.699274177281</v>
+        <v>14261.644121856571</v>
       </c>
       <c r="AK7" s="51">
         <f t="shared" si="10"/>
-        <v>10800</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="8" spans="1:37">
@@ -19058,59 +19070,59 @@
         <v>0.2</v>
       </c>
       <c r="X8" s="49">
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Y8" s="50">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="Z8" s="50">
         <f t="shared" si="8"/>
-        <v>1080</v>
+        <v>840</v>
       </c>
       <c r="AA8" s="51">
         <f t="shared" ref="AA8:AJ8" si="20">IF(MID(Z$1,1,2) &lt;&gt; "CY",($Y8*12*(1+$W8)) - ($Y8*12*(1+$W8))*$V8, (Z8+($Y8*12))*(1+$W8) - (Z8+($Y8*12))*(1+$W8)*$V8)</f>
-        <v>1294.9113600000001</v>
+        <v>1007.15328</v>
       </c>
       <c r="AB8" s="51">
         <f t="shared" si="20"/>
-        <v>2847.4997213491197</v>
+        <v>2214.7220054937602</v>
       </c>
       <c r="AC8" s="51">
         <f t="shared" si="20"/>
-        <v>4709.0407458998234</v>
+        <v>3662.5872468109742</v>
       </c>
       <c r="AD8" s="51">
         <f t="shared" si="20"/>
-        <v>6941.0135420079214</v>
+        <v>5398.5660882283828</v>
       </c>
       <c r="AE8" s="51">
         <f t="shared" si="20"/>
-        <v>9617.1310687591613</v>
+        <v>7479.9908312571251</v>
       </c>
       <c r="AF8" s="51">
         <f t="shared" si="20"/>
-        <v>12825.774574393685</v>
+        <v>9975.6024467506413</v>
       </c>
       <c r="AG8" s="51">
         <f t="shared" si="20"/>
-        <v>16672.912468501432</v>
+        <v>12967.820808834444</v>
       </c>
       <c r="AH8" s="51">
         <f t="shared" si="20"/>
-        <v>21285.600026433469</v>
+        <v>16555.466687226028</v>
       </c>
       <c r="AI8" s="51">
         <f t="shared" si="20"/>
-        <v>26816.175506893516</v>
+        <v>20857.025394250508</v>
       </c>
       <c r="AJ8" s="51">
         <f t="shared" si="20"/>
-        <v>33447.291263361272</v>
+        <v>26014.559871503203</v>
       </c>
       <c r="AK8" s="51">
         <f t="shared" si="10"/>
-        <v>10800</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="9" spans="1:37">
@@ -19194,59 +19206,59 @@
         <v>0.16600000000000001</v>
       </c>
       <c r="X9" s="36">
-        <v>4.2000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="Y9" s="37">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="Z9" s="37">
         <f t="shared" si="8"/>
-        <v>504</v>
+        <v>360</v>
       </c>
       <c r="AA9" s="38">
         <f t="shared" ref="AA9:AJ9" si="22">IF(MID(Z$1,1,2) &lt;&gt; "CY",($Y9*12*(1+$W9)) - ($Y9*12*(1+$W9))*$V9, (Z9+($Y9*12))*(1+$W9) - (Z9+($Y9*12))*(1+$W9)*$V9)</f>
-        <v>587.07633599999997</v>
+        <v>419.34023999999999</v>
       </c>
       <c r="AB9" s="38">
         <f t="shared" si="22"/>
-        <v>1270.922812768224</v>
+        <v>907.80200912015994</v>
       </c>
       <c r="AC9" s="38">
         <f t="shared" si="22"/>
-        <v>2067.4904396880611</v>
+        <v>1476.7788854914725</v>
       </c>
       <c r="AD9" s="38">
         <f t="shared" si="22"/>
-        <v>2995.3594948236027</v>
+        <v>2139.5424963025739</v>
       </c>
       <c r="AE9" s="38">
         <f t="shared" si="22"/>
-        <v>4076.1729177933562</v>
+        <v>2911.5520841381121</v>
       </c>
       <c r="AF9" s="38">
         <f t="shared" si="22"/>
-        <v>5335.1411405249055</v>
+        <v>3810.8151003749335</v>
       </c>
       <c r="AG9" s="38">
         <f t="shared" si="22"/>
-        <v>6801.630131282187</v>
+        <v>4858.3072366301349</v>
       </c>
       <c r="AH9" s="38">
         <f t="shared" si="22"/>
-        <v>8509.8463683419559</v>
+        <v>6078.4616916728255</v>
       </c>
       <c r="AI9" s="38">
         <f t="shared" si="22"/>
-        <v>10499.634720621234</v>
+        <v>7499.7390861580234</v>
       </c>
       <c r="AJ9" s="38">
         <f t="shared" si="22"/>
-        <v>12817.407846160113</v>
+        <v>9155.291318685795</v>
       </c>
       <c r="AK9" s="38">
         <f t="shared" si="10"/>
-        <v>5040</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="10" spans="1:37">
@@ -19330,59 +19342,59 @@
         <v>0.16</v>
       </c>
       <c r="X10" s="36">
-        <v>4.2000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="Y10" s="37">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="Z10" s="37">
         <f t="shared" si="8"/>
-        <v>504</v>
+        <v>360</v>
       </c>
       <c r="AA10" s="38">
         <f t="shared" ref="AA10:AJ10" si="24">IF(MID(Z$1,1,2) &lt;&gt; "CY",($Y10*12*(1+$W10)) - ($Y10*12*(1+$W10))*$V10, (Z10+($Y10*12))*(1+$W10) - (Z10+($Y10*12))*(1+$W10)*$V10)</f>
-        <v>584.1489024</v>
+        <v>417.24921599999999</v>
       </c>
       <c r="AB10" s="38">
         <f t="shared" si="24"/>
-        <v>1261.1924344935012</v>
+        <v>900.85173892392947</v>
       </c>
       <c r="AC10" s="38">
         <f t="shared" si="24"/>
-        <v>2045.9032205042906</v>
+        <v>1461.3594432173509</v>
       </c>
       <c r="AD10" s="38">
         <f t="shared" si="24"/>
-        <v>2955.403110086917</v>
+        <v>2111.0022214906558</v>
       </c>
       <c r="AE10" s="38">
         <f t="shared" si="24"/>
-        <v>4009.5367653103549</v>
+        <v>2863.9548323645404</v>
       </c>
       <c r="AF10" s="38">
         <f t="shared" si="24"/>
-        <v>5231.3046575358931</v>
+        <v>3736.6461839542103</v>
       </c>
       <c r="AG10" s="38">
         <f t="shared" si="24"/>
-        <v>6647.3649218833325</v>
+        <v>4748.1178013452381</v>
       </c>
       <c r="AH10" s="38">
         <f t="shared" si="24"/>
-        <v>8288.6150194047823</v>
+        <v>5920.4392995748449</v>
       </c>
       <c r="AI10" s="38">
         <f t="shared" si="24"/>
-        <v>10190.865898434638</v>
+        <v>7279.1899274533134</v>
       </c>
       <c r="AJ10" s="38">
         <f t="shared" si="24"/>
-        <v>12395.623364852745</v>
+        <v>8854.0166891805329</v>
       </c>
       <c r="AK10" s="38">
         <f t="shared" si="10"/>
-        <v>5040</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="11" spans="1:37">
@@ -19466,59 +19478,59 @@
         <v>0.18970000000000001</v>
       </c>
       <c r="X11" s="49">
-        <v>3.5999999999999997E-2</v>
+        <v>0.04</v>
       </c>
       <c r="Y11" s="50">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z11" s="50">
         <f t="shared" si="8"/>
-        <v>432</v>
+        <v>480</v>
       </c>
       <c r="AA11" s="51">
         <f t="shared" ref="AA11:AJ11" si="26">IF(MID(Z$1,1,2) &lt;&gt; "CY",($Y11*12*(1+$W11)) - ($Y11*12*(1+$W11))*$V11, (Z11+($Y11*12))*(1+$W11) - (Z11+($Y11*12))*(1+$W11)*$V11)</f>
-        <v>511.74041327999993</v>
+        <v>568.60045920000005</v>
       </c>
       <c r="AB11" s="51">
         <f t="shared" si="26"/>
-        <v>1117.9400674095953</v>
+        <v>1242.1556304551059</v>
       </c>
       <c r="AC11" s="51">
         <f t="shared" si="26"/>
-        <v>1836.0346542949476</v>
+        <v>2040.0385047721641</v>
       </c>
       <c r="AD11" s="51">
         <f t="shared" si="26"/>
-        <v>2686.6782206533758</v>
+        <v>2985.1980229481956</v>
       </c>
       <c r="AE11" s="51">
         <f t="shared" si="26"/>
-        <v>3694.3372257511423</v>
+        <v>4104.8191397234914</v>
       </c>
       <c r="AF11" s="51">
         <f t="shared" si="26"/>
-        <v>4887.9942528669853</v>
+        <v>5431.104725407763</v>
       </c>
       <c r="AG11" s="51">
         <f t="shared" si="26"/>
-        <v>6301.9816148365189</v>
+        <v>7002.2017942627999</v>
       </c>
       <c r="AH11" s="51">
         <f t="shared" si="26"/>
-        <v>7976.9688300841708</v>
+        <v>8863.2987000935263</v>
       </c>
       <c r="AI11" s="51">
         <f t="shared" si="26"/>
-        <v>9961.1323712173871</v>
+        <v>11067.924856908212</v>
       </c>
       <c r="AJ11" s="51">
         <f t="shared" si="26"/>
-        <v>12311.541330834565</v>
+        <v>13679.490367593966</v>
       </c>
       <c r="AK11" s="51">
         <f t="shared" si="10"/>
-        <v>4320</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="12" spans="1:37">
@@ -19602,59 +19614,59 @@
         <v>0.19500000000000001</v>
       </c>
       <c r="X12" s="36">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="Y12" s="37">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="Z12" s="37">
         <f t="shared" si="8"/>
-        <v>720</v>
+        <v>600</v>
       </c>
       <c r="AA12" s="38">
         <f t="shared" ref="AA12:AJ12" si="28">IF(MID(Z$1,1,2) &lt;&gt; "CY",($Y12*12*(1+$W12)) - ($Y12*12*(1+$W12))*$V12, (Z12+($Y12*12))*(1+$W12) - (Z12+($Y12*12))*(1+$W12)*$V12)</f>
-        <v>857.38860000000011</v>
+        <v>714.4905</v>
       </c>
       <c r="AB12" s="38">
         <f t="shared" si="28"/>
-        <v>1878.3819491805004</v>
+        <v>1565.3182909837499</v>
       </c>
       <c r="AC12" s="38">
         <f t="shared" si="28"/>
-        <v>3094.198696768251</v>
+        <v>2578.4989139735412</v>
       </c>
       <c r="AD12" s="38">
         <f t="shared" si="28"/>
-        <v>4542.014556588827</v>
+        <v>3785.0121304906875</v>
       </c>
       <c r="AE12" s="38">
         <f t="shared" si="28"/>
-        <v>6266.0990192407162</v>
+        <v>5221.7491827005952</v>
       </c>
       <c r="AF12" s="38">
         <f t="shared" si="28"/>
-        <v>8319.1689688446822</v>
+        <v>6932.640807370567</v>
       </c>
       <c r="AG12" s="38">
         <f t="shared" si="28"/>
-        <v>10764.000593557203</v>
+        <v>8970.000494631</v>
       </c>
       <c r="AH12" s="38">
         <f t="shared" si="28"/>
-        <v>13675.348876818305</v>
+        <v>11396.124064015252</v>
       </c>
       <c r="AI12" s="38">
         <f t="shared" si="28"/>
-        <v>17142.233361120583</v>
+        <v>14285.194467600482</v>
       </c>
       <c r="AJ12" s="38">
         <f t="shared" si="28"/>
-        <v>21270.66007550621</v>
+        <v>17725.550062921837</v>
       </c>
       <c r="AK12" s="38">
         <f t="shared" si="10"/>
-        <v>7200</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="13" spans="1:37">
@@ -19738,59 +19750,59 @@
         <v>0.18540000000000001</v>
       </c>
       <c r="X13" s="36">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="Y13" s="37">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="Z13" s="37">
         <f t="shared" si="8"/>
-        <v>720</v>
+        <v>600</v>
       </c>
       <c r="AA13" s="38">
         <f t="shared" ref="AA13:AJ13" si="30">IF(MID(Z$1,1,2) &lt;&gt; "CY",($Y13*12*(1+$W13)) - ($Y13*12*(1+$W13))*$V13, (Z13+($Y13*12))*(1+$W13) - (Z13+($Y13*12))*(1+$W13)*$V13)</f>
-        <v>850.50079200000005</v>
+        <v>708.75066000000004</v>
       </c>
       <c r="AB13" s="38">
         <f t="shared" si="30"/>
-        <v>1855.1557881008712</v>
+        <v>1545.9631567507263</v>
       </c>
       <c r="AC13" s="38">
         <f t="shared" si="30"/>
-        <v>3041.9056073655211</v>
+        <v>2534.9213394712679</v>
       </c>
       <c r="AD13" s="38">
         <f t="shared" si="30"/>
-        <v>4443.7551367966898</v>
+        <v>3703.1292806639085</v>
       </c>
       <c r="AE13" s="38">
         <f t="shared" si="30"/>
-        <v>6099.6914354717401</v>
+        <v>5083.0761962264514</v>
       </c>
       <c r="AF13" s="38">
         <f t="shared" si="30"/>
-        <v>8055.7680098115716</v>
+        <v>6713.1400081763113</v>
       </c>
       <c r="AG13" s="38">
         <f t="shared" si="30"/>
-        <v>10366.385614934728</v>
+        <v>8638.6546791122764</v>
       </c>
       <c r="AH13" s="38">
         <f t="shared" si="30"/>
-        <v>13095.805202665824</v>
+        <v>10913.171002221525</v>
       </c>
       <c r="AI13" s="38">
         <f t="shared" si="30"/>
-        <v>16319.935093034728</v>
+        <v>13599.945910862278</v>
       </c>
       <c r="AJ13" s="38">
         <f t="shared" si="30"/>
-        <v>20128.442072575875</v>
+        <v>16773.701727146567</v>
       </c>
       <c r="AK13" s="38">
         <f t="shared" si="10"/>
-        <v>7200</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="14" spans="1:37">
@@ -19874,59 +19886,59 @@
         <v>0.1142</v>
       </c>
       <c r="X14" s="49">
-        <v>4.4999999999999998E-2</v>
+        <v>0.03</v>
       </c>
       <c r="Y14" s="50">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="Z14" s="50">
         <f t="shared" si="8"/>
-        <v>540</v>
+        <v>360</v>
       </c>
       <c r="AA14" s="51">
         <f t="shared" ref="AA14:AJ14" si="32">IF(MID(Z$1,1,2) &lt;&gt; "CY",($Y14*12*(1+$W14)) - ($Y14*12*(1+$W14))*$V14, (Z14+($Y14*12))*(1+$W14) - (Z14+($Y14*12))*(1+$W14)*$V14)</f>
-        <v>601.30699919999995</v>
+        <v>400.8713328</v>
       </c>
       <c r="AB14" s="51">
         <f t="shared" si="32"/>
-        <v>1270.8812719535349</v>
+        <v>847.25418130235664</v>
       </c>
       <c r="AC14" s="51">
         <f t="shared" si="32"/>
-        <v>2016.4733028627024</v>
+        <v>1344.3155352418016</v>
       </c>
       <c r="AD14" s="51">
         <f t="shared" si="32"/>
-        <v>2846.7135005171936</v>
+        <v>1897.8090003447958</v>
       </c>
       <c r="AE14" s="51">
         <f t="shared" si="32"/>
-        <v>3771.2120965668919</v>
+        <v>2514.1413977112611</v>
       </c>
       <c r="AF14" s="51">
         <f t="shared" si="32"/>
-        <v>4800.6703864840338</v>
+        <v>3200.4469243226895</v>
       </c>
       <c r="AG14" s="51">
         <f t="shared" si="32"/>
-        <v>5947.0045996537383</v>
+        <v>3964.669733102493</v>
       </c>
       <c r="AH14" s="51">
         <f t="shared" si="32"/>
-        <v>7223.4838326192348</v>
+        <v>4815.6558884128253</v>
       </c>
       <c r="AI14" s="51">
         <f t="shared" si="32"/>
-        <v>8644.8836420925691</v>
+        <v>5763.2557613950494</v>
       </c>
       <c r="AJ14" s="51">
         <f t="shared" si="32"/>
-        <v>10227.657075607131</v>
+        <v>6818.4380504047567</v>
       </c>
       <c r="AK14" s="51">
         <f t="shared" si="10"/>
-        <v>5400</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="15" spans="1:37">
@@ -20010,59 +20022,59 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="X15" s="54">
-        <v>4.4999999999999998E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Y15" s="50">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Z15" s="50">
         <f t="shared" si="8"/>
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="AA15" s="51">
         <f t="shared" ref="AA15:AJ15" si="34">IF(MID(Z$1,1,2) &lt;&gt; "CY",($Y15*12*(1+$W15)) - ($Y15*12*(1+$W15))*$V15, (Z15+($Y15*12))*(1+$W15) - (Z15+($Y15*12))*(1+$W15)*$V15)</f>
-        <v>612.53225999999995</v>
+        <v>680.59140000000002</v>
       </c>
       <c r="AB15" s="51">
         <f t="shared" si="34"/>
-        <v>1307.3392406309399</v>
+        <v>1452.5991562566001</v>
       </c>
       <c r="AC15" s="51">
         <f t="shared" si="34"/>
-        <v>2095.4720000932471</v>
+        <v>2328.3022223258299</v>
       </c>
       <c r="AD15" s="51">
         <f t="shared" si="34"/>
-        <v>2989.465963673772</v>
+        <v>3321.6288485264131</v>
       </c>
       <c r="AE15" s="51">
         <f t="shared" si="34"/>
-        <v>4003.5403024484694</v>
+        <v>4448.3781138316326</v>
       </c>
       <c r="AF15" s="51">
         <f t="shared" si="34"/>
-        <v>5153.8240923330459</v>
+        <v>5726.471213703383</v>
       </c>
       <c r="AG15" s="51">
         <f t="shared" si="34"/>
-        <v>6458.6128505911283</v>
+        <v>7176.2365006568079</v>
       </c>
       <c r="AH15" s="51">
         <f t="shared" si="34"/>
-        <v>7938.6595300696781</v>
+        <v>8820.7328111885308</v>
       </c>
       <c r="AI15" s="51">
         <f t="shared" si="34"/>
-        <v>9617.5045994891079</v>
+        <v>10686.116221654564</v>
       </c>
       <c r="AJ15" s="51">
         <f t="shared" si="34"/>
-        <v>11521.850459787885</v>
+        <v>12802.056066430983</v>
       </c>
       <c r="AK15" s="51">
         <f t="shared" si="10"/>
-        <v>5400</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="16" spans="1:37">
@@ -20826,59 +20838,59 @@
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="X21" s="36">
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Y21" s="37">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="Z21" s="37">
         <f t="shared" si="8"/>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="AA21" s="38">
         <f t="shared" ref="AA21:AJ21" si="46">IF(MID(Z$1,1,2) &lt;&gt; "CY",($Y21*12*(1+$W21)) - ($Y21*12*(1+$W21))*$V21, (Z21+($Y21*12))*(1+$W21) - (Z21+($Y21*12))*(1+$W21)*$V21)</f>
-        <v>312.63623999999999</v>
+        <v>625.27247999999997</v>
       </c>
       <c r="AB21" s="38">
         <f t="shared" si="46"/>
-        <v>638.44096853779206</v>
+        <v>1276.8819370755841</v>
       </c>
       <c r="AC21" s="38">
         <f t="shared" si="46"/>
-        <v>977.96885288537862</v>
+        <v>1955.9377057707572</v>
       </c>
       <c r="AD21" s="38">
         <f t="shared" si="46"/>
-        <v>1331.7979233439928</v>
+        <v>2663.5958466879856</v>
       </c>
       <c r="AE21" s="38">
         <f t="shared" si="46"/>
-        <v>1700.5305573135804</v>
+        <v>3401.0611146271608</v>
       </c>
       <c r="AF21" s="38">
         <f t="shared" si="46"/>
-        <v>2084.7945048120741</v>
+        <v>4169.5890096241483</v>
       </c>
       <c r="AG21" s="38">
         <f t="shared" si="46"/>
-        <v>2485.2439571903624</v>
+        <v>4970.4879143807248</v>
       </c>
       <c r="AH21" s="38">
         <f t="shared" si="46"/>
-        <v>2902.5606608623866</v>
+        <v>5805.1213217247732</v>
       </c>
       <c r="AI21" s="38">
         <f t="shared" si="46"/>
-        <v>3337.4550779464394</v>
+        <v>6674.9101558928787</v>
       </c>
       <c r="AJ21" s="38">
         <f t="shared" si="46"/>
-        <v>3790.6675957936059</v>
+        <v>7581.3351915872117</v>
       </c>
       <c r="AK21" s="38">
         <f t="shared" si="10"/>
-        <v>3000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="22" spans="1:37">
@@ -20962,59 +20974,59 @@
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="X22" s="40">
-        <v>2.5000000000000001E-2</v>
+        <v>0.04</v>
       </c>
       <c r="Y22" s="37">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="Z22" s="37">
         <f t="shared" si="8"/>
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="AA22" s="38">
         <f t="shared" ref="AA22:AJ23" si="48">IF(MID(Z$1,1,2) &lt;&gt; "CY",($Y22*12*(1+$W22)) - ($Y22*12*(1+$W22))*$V22, (Z22+($Y22*12))*(1+$W22) - (Z22+($Y22*12))*(1+$W22)*$V22)</f>
-        <v>303.90285</v>
+        <v>486.24455999999998</v>
       </c>
       <c r="AB22" s="38">
         <f t="shared" si="48"/>
-        <v>611.75932412707493</v>
+        <v>978.81491860331994</v>
       </c>
       <c r="AC22" s="38">
         <f t="shared" si="48"/>
-        <v>923.62085705430604</v>
+        <v>1477.7933712868899</v>
       </c>
       <c r="AD22" s="38">
         <f t="shared" si="48"/>
-        <v>1239.539552594154</v>
+        <v>1983.2632841506465</v>
       </c>
       <c r="AE22" s="38">
         <f t="shared" si="48"/>
-        <v>1559.5681924036276</v>
+        <v>2495.3091078458042</v>
       </c>
       <c r="AF22" s="38">
         <f t="shared" si="48"/>
-        <v>1883.7602448027026</v>
+        <v>3014.0163916843244</v>
       </c>
       <c r="AG22" s="38">
         <f t="shared" si="48"/>
-        <v>2212.1698737074635</v>
+        <v>3539.4717979319416</v>
       </c>
       <c r="AH22" s="38">
         <f t="shared" si="48"/>
-        <v>2544.8519476794609</v>
+        <v>4071.7631162871371</v>
       </c>
       <c r="AI22" s="38">
         <f t="shared" si="48"/>
-        <v>2881.862049092797</v>
+        <v>4610.9792785484742</v>
       </c>
       <c r="AJ22" s="38">
         <f t="shared" si="48"/>
-        <v>3223.25648342047</v>
+        <v>5157.2103734727507</v>
       </c>
       <c r="AK22" s="38">
         <f t="shared" si="10"/>
-        <v>3000</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="23" spans="1:37">
@@ -21040,56 +21052,72 @@
       <c r="P23" s="38"/>
       <c r="Q23" s="38"/>
       <c r="R23" s="38"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="35"/>
-      <c r="X23" s="36"/>
-      <c r="Y23" s="37"/>
-      <c r="Z23" s="37"/>
+      <c r="T23" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="U23" s="23" t="s">
+        <v>418</v>
+      </c>
+      <c r="V23" s="35">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="W23" s="35">
+        <v>9.2100000000000001E-2</v>
+      </c>
+      <c r="X23" s="36">
+        <v>0.05</v>
+      </c>
+      <c r="Y23" s="37">
+        <f t="shared" ref="Y23:Y24" si="49">X23*1000</f>
+        <v>50</v>
+      </c>
+      <c r="Z23" s="37">
+        <f t="shared" ref="Z23:Z24" si="50">Y23*12</f>
+        <v>600</v>
+      </c>
       <c r="AA23" s="38">
-        <f t="shared" si="48"/>
-        <v>0</v>
+        <f t="shared" ref="AA23:AA24" si="51">IF(MID(Z$1,1,2) &lt;&gt; "CY",($Y23*12*(1+$W23)) - ($Y23*12*(1+$W23))*$V23, (Z23+($Y23*12))*(1+$W23) - (Z23+($Y23*12))*(1+$W23)*$V23)</f>
+        <v>648.77292599999998</v>
       </c>
       <c r="AB23" s="38">
-        <f t="shared" si="48"/>
-        <v>0</v>
+        <f t="shared" ref="AB23:AB24" si="52">IF(MID(AA$1,1,2) &lt;&gt; "CY",($Y23*12*(1+$W23)) - ($Y23*12*(1+$W23))*$V23, (AA23+($Y23*12))*(1+$W23) - (AA23+($Y23*12))*(1+$W23)*$V23)</f>
+        <v>1350.2834418510026</v>
       </c>
       <c r="AC23" s="38">
-        <f t="shared" si="48"/>
-        <v>0</v>
+        <f t="shared" ref="AC23:AC24" si="53">IF(MID(AB$1,1,2) &lt;&gt; "CY",($Y23*12*(1+$W23)) - ($Y23*12*(1+$W23))*$V23, (AB23+($Y23*12))*(1+$W23) - (AB23+($Y23*12))*(1+$W23)*$V23)</f>
+        <v>2108.8184918317097</v>
       </c>
       <c r="AD23" s="38">
-        <f t="shared" si="48"/>
-        <v>0</v>
+        <f t="shared" ref="AD23:AD24" si="54">IF(MID(AC$1,1,2) &lt;&gt; "CY",($Y23*12*(1+$W23)) - ($Y23*12*(1+$W23))*$V23, (AC23+($Y23*12))*(1+$W23) - (AC23+($Y23*12))*(1+$W23)*$V23)</f>
+        <v>2929.0134982476093</v>
       </c>
       <c r="AE23" s="38">
-        <f t="shared" si="48"/>
-        <v>0</v>
+        <f t="shared" ref="AE23:AE24" si="55">IF(MID(AD$1,1,2) &lt;&gt; "CY",($Y23*12*(1+$W23)) - ($Y23*12*(1+$W23))*$V23, (AD23+($Y23*12))*(1+$W23) - (AD23+($Y23*12))*(1+$W23)*$V23)</f>
+        <v>3815.8806885859958</v>
       </c>
       <c r="AF23" s="38">
-        <f t="shared" si="48"/>
-        <v>0</v>
+        <f t="shared" ref="AF23:AF24" si="56">IF(MID(AE$1,1,2) &lt;&gt; "CY",($Y23*12*(1+$W23)) - ($Y23*12*(1+$W23))*$V23, (AE23+($Y23*12))*(1+$W23) - (AE23+($Y23*12))*(1+$W23)*$V23)</f>
+        <v>4774.8397253347184</v>
       </c>
       <c r="AG23" s="38">
-        <f t="shared" si="48"/>
-        <v>0</v>
+        <f t="shared" ref="AG23:AG24" si="57">IF(MID(AF$1,1,2) &lt;&gt; "CY",($Y23*12*(1+$W23)) - ($Y23*12*(1+$W23))*$V23, (AF23+($Y23*12))*(1+$W23) - (AF23+($Y23*12))*(1+$W23)*$V23)</f>
+        <v>5811.7508256440697</v>
       </c>
       <c r="AH23" s="38">
-        <f t="shared" si="48"/>
-        <v>0</v>
+        <f t="shared" ref="AH23:AH24" si="58">IF(MID(AG$1,1,2) &lt;&gt; "CY",($Y23*12*(1+$W23)) - ($Y23*12*(1+$W23))*$V23, (AG23+($Y23*12))*(1+$W23) - (AG23+($Y23*12))*(1+$W23)*$V23)</f>
+        <v>6932.950573226698</v>
       </c>
       <c r="AI23" s="38">
-        <f t="shared" si="48"/>
-        <v>0</v>
+        <f t="shared" ref="AI23:AI24" si="59">IF(MID(AH$1,1,2) &lt;&gt; "CY",($Y23*12*(1+$W23)) - ($Y23*12*(1+$W23))*$V23, (AH23+($Y23*12))*(1+$W23) - (AH23+($Y23*12))*(1+$W23)*$V23)</f>
+        <v>8145.29064134277</v>
       </c>
       <c r="AJ23" s="38">
-        <f t="shared" si="48"/>
-        <v>0</v>
+        <f t="shared" ref="AJ23:AJ24" si="60">IF(MID(AI$1,1,2) &lt;&gt; "CY",($Y23*12*(1+$W23)) - ($Y23*12*(1+$W23))*$V23, (AI23+($Y23*12))*(1+$W23) - (AI23+($Y23*12))*(1+$W23)*$V23)</f>
+        <v>9456.1796635072769</v>
       </c>
       <c r="AK23" s="38">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" ref="AK23:AK24" si="61">Z23*10</f>
+        <v>6000</v>
       </c>
     </row>
     <row r="24" spans="1:37">
@@ -21116,27 +21144,72 @@
       <c r="Q24" s="38"/>
       <c r="R24" s="38"/>
       <c r="T24" s="23" t="s">
-        <v>417</v>
+        <v>366</v>
       </c>
       <c r="U24" s="23" t="s">
-        <v>417</v>
-      </c>
-      <c r="V24" s="35"/>
-      <c r="W24" s="35"/>
-      <c r="X24" s="36"/>
-      <c r="Y24" s="37"/>
-      <c r="Z24" s="37"/>
-      <c r="AA24" s="38"/>
-      <c r="AB24" s="38"/>
-      <c r="AC24" s="38"/>
-      <c r="AD24" s="38"/>
-      <c r="AE24" s="38"/>
-      <c r="AF24" s="38"/>
-      <c r="AG24" s="38"/>
-      <c r="AH24" s="38"/>
-      <c r="AI24" s="38"/>
-      <c r="AJ24" s="38"/>
-      <c r="AK24" s="38"/>
+        <v>419</v>
+      </c>
+      <c r="V24" s="35">
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="W24" s="35">
+        <v>0.1099</v>
+      </c>
+      <c r="X24" s="36">
+        <v>0.05</v>
+      </c>
+      <c r="Y24" s="37">
+        <f t="shared" si="49"/>
+        <v>50</v>
+      </c>
+      <c r="Z24" s="37">
+        <f t="shared" si="50"/>
+        <v>600</v>
+      </c>
+      <c r="AA24" s="38">
+        <f t="shared" si="51"/>
+        <v>659.48038200000008</v>
+      </c>
+      <c r="AB24" s="38">
+        <f t="shared" si="52"/>
+        <v>1384.3376724047769</v>
+      </c>
+      <c r="AC24" s="38">
+        <f t="shared" si="53"/>
+        <v>2181.0529436908223</v>
+      </c>
+      <c r="AD24" s="38">
+        <f t="shared" si="54"/>
+        <v>3056.7497627790804</v>
+      </c>
+      <c r="AE24" s="38">
+        <f t="shared" si="55"/>
+        <v>4019.2578840599294</v>
+      </c>
+      <c r="AF24" s="38">
+        <f t="shared" si="56"/>
+        <v>5077.1832565605901</v>
+      </c>
+      <c r="AG24" s="38">
+        <f t="shared" si="57"/>
+        <v>6239.9849712009709</v>
+      </c>
+      <c r="AH24" s="38">
+        <f t="shared" si="58"/>
+        <v>7518.0598361364591</v>
+      </c>
+      <c r="AI24" s="38">
+        <f t="shared" si="59"/>
+        <v>8922.835336390217</v>
+      </c>
+      <c r="AJ24" s="38">
+        <f t="shared" si="60"/>
+        <v>10466.871808942866</v>
+      </c>
+      <c r="AK24" s="38">
+        <f t="shared" si="61"/>
+        <v>6000</v>
+      </c>
     </row>
     <row r="25" spans="1:37">
       <c r="A25" s="23" t="s">
@@ -21162,27 +21235,72 @@
       <c r="Q25" s="38"/>
       <c r="R25" s="38"/>
       <c r="T25" s="23" t="s">
-        <v>417</v>
+        <v>366</v>
       </c>
       <c r="U25" s="23" t="s">
-        <v>417</v>
-      </c>
-      <c r="V25" s="35"/>
-      <c r="W25" s="35"/>
-      <c r="X25" s="36"/>
-      <c r="Y25" s="37"/>
-      <c r="Z25" s="37"/>
-      <c r="AA25" s="38"/>
-      <c r="AB25" s="38"/>
-      <c r="AC25" s="38"/>
-      <c r="AD25" s="38"/>
-      <c r="AE25" s="38"/>
-      <c r="AF25" s="38"/>
-      <c r="AG25" s="38"/>
-      <c r="AH25" s="38"/>
-      <c r="AI25" s="38"/>
-      <c r="AJ25" s="38"/>
-      <c r="AK25" s="38"/>
+        <v>420</v>
+      </c>
+      <c r="V25" s="35">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="W25" s="35">
+        <v>0.03</v>
+      </c>
+      <c r="X25" s="36">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="37">
+        <f t="shared" ref="Y25" si="62">X25*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="37">
+        <f t="shared" ref="Z25" si="63">Y25*12</f>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="38">
+        <f t="shared" ref="AA25" si="64">IF(MID(Z$1,1,2) &lt;&gt; "CY",($Y25*12*(1+$W25)) - ($Y25*12*(1+$W25))*$V25, (Z25+($Y25*12))*(1+$W25) - (Z25+($Y25*12))*(1+$W25)*$V25)</f>
+        <v>0</v>
+      </c>
+      <c r="AB25" s="38">
+        <f t="shared" ref="AB25" si="65">IF(MID(AA$1,1,2) &lt;&gt; "CY",($Y25*12*(1+$W25)) - ($Y25*12*(1+$W25))*$V25, (AA25+($Y25*12))*(1+$W25) - (AA25+($Y25*12))*(1+$W25)*$V25)</f>
+        <v>0</v>
+      </c>
+      <c r="AC25" s="38">
+        <f t="shared" ref="AC25" si="66">IF(MID(AB$1,1,2) &lt;&gt; "CY",($Y25*12*(1+$W25)) - ($Y25*12*(1+$W25))*$V25, (AB25+($Y25*12))*(1+$W25) - (AB25+($Y25*12))*(1+$W25)*$V25)</f>
+        <v>0</v>
+      </c>
+      <c r="AD25" s="38">
+        <f t="shared" ref="AD25" si="67">IF(MID(AC$1,1,2) &lt;&gt; "CY",($Y25*12*(1+$W25)) - ($Y25*12*(1+$W25))*$V25, (AC25+($Y25*12))*(1+$W25) - (AC25+($Y25*12))*(1+$W25)*$V25)</f>
+        <v>0</v>
+      </c>
+      <c r="AE25" s="38">
+        <f t="shared" ref="AE25" si="68">IF(MID(AD$1,1,2) &lt;&gt; "CY",($Y25*12*(1+$W25)) - ($Y25*12*(1+$W25))*$V25, (AD25+($Y25*12))*(1+$W25) - (AD25+($Y25*12))*(1+$W25)*$V25)</f>
+        <v>0</v>
+      </c>
+      <c r="AF25" s="38">
+        <f t="shared" ref="AF25" si="69">IF(MID(AE$1,1,2) &lt;&gt; "CY",($Y25*12*(1+$W25)) - ($Y25*12*(1+$W25))*$V25, (AE25+($Y25*12))*(1+$W25) - (AE25+($Y25*12))*(1+$W25)*$V25)</f>
+        <v>0</v>
+      </c>
+      <c r="AG25" s="38">
+        <f t="shared" ref="AG25" si="70">IF(MID(AF$1,1,2) &lt;&gt; "CY",($Y25*12*(1+$W25)) - ($Y25*12*(1+$W25))*$V25, (AF25+($Y25*12))*(1+$W25) - (AF25+($Y25*12))*(1+$W25)*$V25)</f>
+        <v>0</v>
+      </c>
+      <c r="AH25" s="38">
+        <f t="shared" ref="AH25" si="71">IF(MID(AG$1,1,2) &lt;&gt; "CY",($Y25*12*(1+$W25)) - ($Y25*12*(1+$W25))*$V25, (AG25+($Y25*12))*(1+$W25) - (AG25+($Y25*12))*(1+$W25)*$V25)</f>
+        <v>0</v>
+      </c>
+      <c r="AI25" s="38">
+        <f t="shared" ref="AI25" si="72">IF(MID(AH$1,1,2) &lt;&gt; "CY",($Y25*12*(1+$W25)) - ($Y25*12*(1+$W25))*$V25, (AH25+($Y25*12))*(1+$W25) - (AH25+($Y25*12))*(1+$W25)*$V25)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="38">
+        <f t="shared" ref="AJ25" si="73">IF(MID(AI$1,1,2) &lt;&gt; "CY",($Y25*12*(1+$W25)) - ($Y25*12*(1+$W25))*$V25, (AI25+($Y25*12))*(1+$W25) - (AI25+($Y25*12))*(1+$W25)*$V25)</f>
+        <v>0</v>
+      </c>
+      <c r="AK25" s="38">
+        <f t="shared" ref="AK25" si="74">Z25*10</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:37">
       <c r="A26" s="24" t="s">
@@ -21191,18 +21309,54 @@
       <c r="B26" s="24"/>
       <c r="C26" s="32"/>
       <c r="D26" s="32"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="41"/>
+      <c r="E26" s="33">
+        <f>SUM(E2:E25)</f>
+        <v>1</v>
+      </c>
+      <c r="F26" s="96">
+        <f>SUM(F2:F25)</f>
+        <v>1000</v>
+      </c>
+      <c r="G26" s="96">
+        <f>SUM(G2:G25)</f>
+        <v>12000</v>
+      </c>
+      <c r="H26" s="41">
+        <f>SUM(H2:H25)</f>
+        <v>13948.902125880004</v>
+      </c>
+      <c r="I26" s="41">
+        <f>SUM(I2:I25)</f>
+        <v>30202.099332069753</v>
+      </c>
+      <c r="J26" s="41">
+        <f>SUM(J2:J25)</f>
+        <v>49183.830093024953</v>
+      </c>
+      <c r="K26" s="41">
+        <f>SUM(K2:K25)</f>
+        <v>71401.09876040036</v>
+      </c>
+      <c r="L26" s="41">
+        <f>SUM(L2:L25)</f>
+        <v>97460.507536066056</v>
+      </c>
+      <c r="M26" s="41">
+        <f>SUM(M2:M25)</f>
+        <v>128088.6262893145</v>
+      </c>
+      <c r="N26" s="41">
+        <f>SUM(N2:N25)</f>
+        <v>164156.66432364527</v>
+      </c>
+      <c r="O26" s="41">
+        <f>SUM(O2:O25)</f>
+        <v>206710.37703890569</v>
+      </c>
+      <c r="P26" s="41">
+        <f>SUM(P2:P25)</f>
+        <v>257006.3473097331</v>
+      </c>
       <c r="Q26" s="41">
         <f>SUM(Q2:Q25)</f>
         <v>316556.03502084804</v>
@@ -21217,96 +21371,131 @@
       <c r="U26" s="24"/>
       <c r="V26" s="32"/>
       <c r="W26" s="32"/>
-      <c r="X26" s="33"/>
+      <c r="X26" s="33">
+        <f>SUM(X2:X25)</f>
+        <v>1.0000000000000002</v>
+      </c>
       <c r="Y26" s="34"/>
       <c r="Z26" s="34"/>
-      <c r="AA26" s="41"/>
-      <c r="AB26" s="41"/>
-      <c r="AC26" s="41"/>
-      <c r="AD26" s="41"/>
-      <c r="AE26" s="41"/>
-      <c r="AF26" s="41"/>
-      <c r="AG26" s="41"/>
-      <c r="AH26" s="41"/>
-      <c r="AI26" s="41"/>
+      <c r="AA26" s="41">
+        <f>SUM(AA2:AA25)</f>
+        <v>13778.7518394</v>
+      </c>
+      <c r="AB26" s="41">
+        <f t="shared" ref="AB26:AI26" si="75">SUM(AB2:AB25)</f>
+        <v>29649.902980088784</v>
+      </c>
+      <c r="AC26" s="41">
+        <f t="shared" si="75"/>
+        <v>47987.447021335138</v>
+      </c>
+      <c r="AD26" s="41">
+        <f t="shared" si="75"/>
+        <v>69238.001101694754</v>
+      </c>
+      <c r="AE26" s="41">
+        <f t="shared" si="75"/>
+        <v>93935.682481339521</v>
+      </c>
+      <c r="AF26" s="41">
+        <f t="shared" si="75"/>
+        <v>122720.15133997994</v>
+      </c>
+      <c r="AG26" s="41">
+        <f t="shared" si="75"/>
+        <v>156358.51347645163</v>
+      </c>
+      <c r="AH26" s="41">
+        <f t="shared" si="75"/>
+        <v>195771.93207553643</v>
+      </c>
+      <c r="AI26" s="41">
+        <f t="shared" si="75"/>
+        <v>242067.98867993851</v>
+      </c>
       <c r="AJ26" s="41">
         <f>SUM(AJ2:AJ25)</f>
-        <v>316212.90983632038</v>
+        <v>296580.06819515186</v>
       </c>
       <c r="AK26" s="41">
         <f>SUM(AK2:AK25)</f>
-        <v>120600</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="27" spans="1:37">
-      <c r="Q27" s="83">
-        <f>Q26-R26</f>
-        <v>196556.03502084804</v>
-      </c>
+      <c r="Q27" s="83"/>
     </row>
     <row r="30" spans="1:37">
       <c r="A30" s="21" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="31" spans="1:37">
       <c r="A31" s="21" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="32" spans="1:37">
       <c r="A32" s="21" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="84" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" s="84" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" s="21" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" s="21" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="95" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="94" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" s="21" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" s="21" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="21" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="21" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="94" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="95" t="s">
-        <v>429</v>
+    <row r="41" spans="1:2">
+      <c r="A41" s="93" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="94" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="21" t="s">
+        <v>431</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -21322,8 +21511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B424152A-978C-4A19-9197-2A399EA74810}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15"/>
@@ -21336,19 +21525,19 @@
         <v>360</v>
       </c>
       <c r="B1" s="86" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C1" s="86" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="D1" s="86" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="E1" s="86" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="F1" s="86" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25">
@@ -21382,7 +21571,7 @@
         <v>100</v>
       </c>
       <c r="D3" s="87" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="E3" s="88">
         <v>2.2499999999999999E-2</v>
@@ -21393,7 +21582,7 @@
     </row>
     <row r="4" spans="1:6" ht="14.25">
       <c r="A4" s="87" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B4" s="88">
         <v>2.2499999999999999E-2</v>
@@ -21402,7 +21591,7 @@
         <v>100</v>
       </c>
       <c r="D4" s="87" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="E4" s="88">
         <v>2.2499999999999999E-2</v>
@@ -21462,7 +21651,7 @@
         <v>100</v>
       </c>
       <c r="D7" s="87" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="E7" s="88">
         <v>2.2499999999999999E-2</v>
@@ -21473,7 +21662,7 @@
     </row>
     <row r="8" spans="1:6" ht="14.25">
       <c r="A8" s="87" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B8" s="88">
         <v>2.2499999999999999E-2</v>
@@ -21482,7 +21671,7 @@
         <v>100</v>
       </c>
       <c r="D8" s="87" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="E8" s="88">
         <v>2.2499999999999999E-2</v>
@@ -21673,7 +21862,7 @@
     </row>
     <row r="18" spans="1:6" ht="14.25">
       <c r="A18" s="87" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B18" s="88">
         <v>1.4999999999999999E-2</v>
@@ -21693,7 +21882,7 @@
     </row>
     <row r="19" spans="1:6" ht="14.25">
       <c r="A19" s="87" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B19" s="88">
         <v>1.4999999999999999E-2</v>
@@ -21813,7 +22002,7 @@
     </row>
     <row r="25" spans="1:6" ht="14.25">
       <c r="A25" s="87" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B25" s="88">
         <v>0.01</v>
@@ -21833,7 +22022,7 @@
     </row>
     <row r="26" spans="1:6" ht="14.25">
       <c r="A26" s="87" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B26" s="88">
         <v>0.01</v>
@@ -21913,16 +22102,16 @@
     <row r="1" spans="1:6">
       <c r="A1" s="29"/>
       <c r="B1" s="29" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="F1" s="29" t="s">
         <v>381</v>
@@ -22003,7 +22192,7 @@
     </row>
     <row r="9" spans="1:6" ht="15">
       <c r="A9" s="55" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -22019,6 +22208,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D95AC4467A64E54FAB628610D0FE135F" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="79e84842eaddaeb917644b39e1597e3c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e8f9595b-0d5a-46b2-8488-c972c1ea4246" xmlns:ns4="6bcbbac3-d60f-4c54-b2b4-d245c065548d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bb8f6ae9099bbec0b468ebfdbf5b501b" ns3:_="" ns4:_="">
     <xsd:import namespace="e8f9595b-0d5a-46b2-8488-c972c1ea4246"/>
@@ -22241,15 +22439,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -22257,11 +22446,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11321DBA-FDAB-45E8-A045-E3E44A7AE235}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DB5870C-189D-475E-8E58-449C30115ACA}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DB5870C-189D-475E-8E58-449C30115ACA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11321DBA-FDAB-45E8-A045-E3E44A7AE235}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/input/Watchlist.xlsx
+++ b/input/Watchlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssoma\OneDrive - Bayer\Personal Data-R90PQ30R\Analytics\us-stocks-analysis\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="722" documentId="13_ncr:1_{A259AFBD-2F1F-43A4-8040-58927886A03B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{376AC5B9-1E05-4AE5-9879-C994D2D2AA88}"/>
+  <xr:revisionPtr revIDLastSave="724" documentId="13_ncr:1_{A259AFBD-2F1F-43A4-8040-58927886A03B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{485B905D-B7D0-4474-ADD9-EE244A370B1C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fund List" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="21" r:id="rId9"/>
+    <pivotCache cacheId="0" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -789,7 +789,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="536">
   <si>
     <t>Funds</t>
   </si>
@@ -2391,6 +2391,12 @@
   </si>
   <si>
     <t>ISHARES MSCI EMERGING MARKETS ASIA ETF</t>
+  </si>
+  <si>
+    <t>FSKAX (10%), FZROX (6%)</t>
+  </si>
+  <si>
+    <t>FXAIX (10%), FNILX (6%)</t>
   </si>
 </sst>
 </file>
@@ -2405,7 +2411,7 @@
     <numFmt numFmtId="168" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="169" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="170" formatCode="0.0%"/>
-    <numFmt numFmtId="173" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -2865,14 +2871,11 @@
     <xf numFmtId="167" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2881,7 +2884,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="13" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="4" fillId="13" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="4" fillId="13" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="13" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="14" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2894,7 +2897,7 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="13" fillId="13" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="13" fillId="13" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="13" fillId="13" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="13" fillId="13" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="13" fillId="14" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2916,6 +2919,9 @@
     <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -2923,60 +2929,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="42">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="39">
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
@@ -3299,6 +3252,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -3596,6 +3559,26 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -4077,7 +4060,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{03CB7FE0-41D1-435D-B030-06F23C6C3345}" name="PivotTable1" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{03CB7FE0-41D1-435D-B030-06F23C6C3345}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="P3:Q12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -4184,7 +4167,7 @@
     <dataField name="Sum of Percent" fld="1" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="6">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -9350,48 +9333,48 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{69112644-6D4F-4AA0-8CCC-1CEE1E0148D7}" name="Table1" displayName="Table1" ref="A1:O48" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{69112644-6D4F-4AA0-8CCC-1CEE1E0148D7}" name="Table1" displayName="Table1" ref="A1:O48" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
   <autoFilter ref="A1:O48" xr:uid="{95189E96-064D-425D-BE39-47B18B49F5F0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O46">
     <sortCondition ref="E2:E46"/>
     <sortCondition descending="1" ref="O2:O46"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{BB2FF6EB-53FD-4E78-BD0B-C24026A8DB98}" name="Funds" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{B45FB7AC-F148-421D-9B37-4E7E7D8C8E6A}" name="Ticker" dataDxfId="38">
+    <tableColumn id="1" xr3:uid="{BB2FF6EB-53FD-4E78-BD0B-C24026A8DB98}" name="Funds" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{B45FB7AC-F148-421D-9B37-4E7E7D8C8E6A}" name="Ticker" dataDxfId="33">
       <calculatedColumnFormula array="1">_FV(A2,"Ticker symbol",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0E04398C-EA9A-4618-BD02-DA8ABAA2CF7C}" name="Account" dataDxfId="37"/>
-    <tableColumn id="10" xr3:uid="{07652F3D-BD92-4EA5-B3CD-C8CA26C51045}" name="Portfolio" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{84FCDA56-42CA-4155-A371-09849AF21EE5}" name="Bucket" dataDxfId="35"/>
-    <tableColumn id="14" xr3:uid="{4B646908-1DAD-4E96-87A0-816CCAEC36A5}" name="Expense Ratio" dataDxfId="34">
+    <tableColumn id="3" xr3:uid="{0E04398C-EA9A-4618-BD02-DA8ABAA2CF7C}" name="Account" dataDxfId="32"/>
+    <tableColumn id="10" xr3:uid="{07652F3D-BD92-4EA5-B3CD-C8CA26C51045}" name="Portfolio" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{84FCDA56-42CA-4155-A371-09849AF21EE5}" name="Bucket" dataDxfId="30"/>
+    <tableColumn id="14" xr3:uid="{4B646908-1DAD-4E96-87A0-816CCAEC36A5}" name="Expense Ratio" dataDxfId="29">
       <calculatedColumnFormula>IFERROR(_FV(A2,"Expense ratio",TRUE),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{315E67EE-D83C-47DE-877C-398E379B6F15}" name="Open" dataDxfId="33" dataCellStyle="Currency">
+    <tableColumn id="5" xr3:uid="{315E67EE-D83C-47DE-877C-398E379B6F15}" name="Open" dataDxfId="28" dataCellStyle="Currency">
       <calculatedColumnFormula array="1">IFERROR(_FV(A2,"Open"),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{94216B5A-94A5-40EA-8CFA-BB6BCBAE0B5C}" name="High" dataDxfId="32" dataCellStyle="Currency">
+    <tableColumn id="6" xr3:uid="{94216B5A-94A5-40EA-8CFA-BB6BCBAE0B5C}" name="High" dataDxfId="27" dataCellStyle="Currency">
       <calculatedColumnFormula array="1">IFERROR(_FV(A2,"High"),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{0995BD2E-CC80-4453-962B-4B371F66AD96}" name="Low" dataDxfId="31" dataCellStyle="Currency">
+    <tableColumn id="7" xr3:uid="{0995BD2E-CC80-4453-962B-4B371F66AD96}" name="Low" dataDxfId="26" dataCellStyle="Currency">
       <calculatedColumnFormula array="1">IFERROR(_FV(A2,"Low"),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{59B32FD1-E741-455C-AB3F-CC8305A4082D}" name="Close" dataDxfId="30" dataCellStyle="Currency">
+    <tableColumn id="8" xr3:uid="{59B32FD1-E741-455C-AB3F-CC8305A4082D}" name="Close" dataDxfId="25" dataCellStyle="Currency">
       <calculatedColumnFormula array="1">IFERROR(_FV(A2,"Price"),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{B7EF52F1-C3EC-4E9C-9810-4A9443FB6AC8}" name="Bid Price" dataDxfId="29" dataCellStyle="Currency">
+    <tableColumn id="15" xr3:uid="{B7EF52F1-C3EC-4E9C-9810-4A9443FB6AC8}" name="Bid Price" dataDxfId="24" dataCellStyle="Currency">
       <calculatedColumnFormula>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{BFFB38B1-DFB9-43B1-881D-A7371E276BF4}" name="Change (%)" dataDxfId="28">
+    <tableColumn id="9" xr3:uid="{BFFB38B1-DFB9-43B1-881D-A7371E276BF4}" name="Change (%)" dataDxfId="23">
       <calculatedColumnFormula array="1">IFERROR(_FV(A2,"Change (%)",TRUE),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{FBDD8949-4F7E-41F5-AC1F-CA98CC4626EE}" name="52 week high" dataDxfId="27" dataCellStyle="Currency">
+    <tableColumn id="11" xr3:uid="{FBDD8949-4F7E-41F5-AC1F-CA98CC4626EE}" name="52 week high" dataDxfId="22" dataCellStyle="Currency">
       <calculatedColumnFormula>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{CD345540-5848-4748-B639-D5DB23BDEE94}" name="52 week low" dataDxfId="26" dataCellStyle="Currency">
+    <tableColumn id="12" xr3:uid="{CD345540-5848-4748-B639-D5DB23BDEE94}" name="52 week low" dataDxfId="21" dataCellStyle="Currency">
       <calculatedColumnFormula>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{D10DB507-EF50-48A6-9A07-64B0D17CC79B}" name="Deviation from 52 Week High" dataDxfId="25" dataCellStyle="Percent">
+    <tableColumn id="13" xr3:uid="{D10DB507-EF50-48A6-9A07-64B0D17CC79B}" name="Deviation from 52 Week High" dataDxfId="20" dataCellStyle="Percent">
       <calculatedColumnFormula>IFERROR((M2-J2)/M2,"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9400,45 +9383,45 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D0CAA086-D84C-4EA4-B5F1-7030749A7F3E}" name="Table13" displayName="Table13" ref="A1:N26" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D0CAA086-D84C-4EA4-B5F1-7030749A7F3E}" name="Table13" displayName="Table13" ref="A1:N26" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="A1:N26" xr:uid="{7148AA24-1D57-4322-B6E6-30CB6857B1C8}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N26">
     <sortCondition ref="F2:F26"/>
     <sortCondition descending="1" ref="N2:N26"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{57268FAB-0DAA-4F5F-B46D-3806B1FBF806}" name="Funds" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{A08DC65A-57D6-483A-BC4A-A7473C7F025B}" name="Ticker" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{57268FAB-0DAA-4F5F-B46D-3806B1FBF806}" name="Funds" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{A08DC65A-57D6-483A-BC4A-A7473C7F025B}" name="Ticker" dataDxfId="15">
       <calculatedColumnFormula array="1">_FV(A2,"Ticker symbol",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B68D1E78-2858-40F0-938D-30A7BD84787D}" name="Account" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{15A75516-1C6A-4B58-B9D6-851E503B9FB8}" name="Bucket" dataDxfId="19"/>
-    <tableColumn id="15" xr3:uid="{47D0498E-EC1F-4FEA-A214-7DB4FEA6AF04}" name="Sector" dataDxfId="18"/>
-    <tableColumn id="14" xr3:uid="{B112A09B-C1DB-49F3-8BB2-F1FCBE93700E}" name="Industry" dataDxfId="17">
+    <tableColumn id="3" xr3:uid="{B68D1E78-2858-40F0-938D-30A7BD84787D}" name="Account" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{15A75516-1C6A-4B58-B9D6-851E503B9FB8}" name="Bucket" dataDxfId="13"/>
+    <tableColumn id="15" xr3:uid="{47D0498E-EC1F-4FEA-A214-7DB4FEA6AF04}" name="Sector" dataDxfId="12"/>
+    <tableColumn id="14" xr3:uid="{B112A09B-C1DB-49F3-8BB2-F1FCBE93700E}" name="Industry" dataDxfId="11">
       <calculatedColumnFormula array="1">_FV(A2,"Industry")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{0FA6A548-B1BE-4B6C-B4B8-163F5654ABD5}" name="Open" dataDxfId="16">
+    <tableColumn id="5" xr3:uid="{0FA6A548-B1BE-4B6C-B4B8-163F5654ABD5}" name="Open" dataDxfId="10">
       <calculatedColumnFormula array="1">_FV(A2,"Open")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{B8CB571D-5B2B-453B-82BA-5EA66AB797D7}" name="High" dataDxfId="15">
+    <tableColumn id="6" xr3:uid="{B8CB571D-5B2B-453B-82BA-5EA66AB797D7}" name="High" dataDxfId="9">
       <calculatedColumnFormula array="1">_FV(A2,"High")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F44149AE-6680-4B2A-93F2-98C9F6507E5A}" name="Low" dataDxfId="14">
+    <tableColumn id="7" xr3:uid="{F44149AE-6680-4B2A-93F2-98C9F6507E5A}" name="Low" dataDxfId="8">
       <calculatedColumnFormula array="1">_FV(A2,"Low")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{EE5B9F16-BFFA-4732-8F70-E2D37CF19600}" name="Close" dataDxfId="13">
+    <tableColumn id="8" xr3:uid="{EE5B9F16-BFFA-4732-8F70-E2D37CF19600}" name="Close" dataDxfId="7">
       <calculatedColumnFormula array="1">_FV(A2,"Price")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{2DE1F60D-5DEF-405B-808F-FEA1CD488B45}" name="Change (%)" dataDxfId="12">
+    <tableColumn id="9" xr3:uid="{2DE1F60D-5DEF-405B-808F-FEA1CD488B45}" name="Change (%)" dataDxfId="6">
       <calculatedColumnFormula array="1">_FV(A2,"Change (%)",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{AF24AD6C-48A4-4E24-9504-7E6E23ABFAFF}" name="52 week high" dataDxfId="11">
+    <tableColumn id="11" xr3:uid="{AF24AD6C-48A4-4E24-9504-7E6E23ABFAFF}" name="52 week high" dataDxfId="5">
       <calculatedColumnFormula array="1">_FV(Table13[[#This Row],[Funds]],"52 week high",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{C74C9A6D-67EB-491D-A6D1-55C66BF936BE}" name="52 week low" dataDxfId="10">
+    <tableColumn id="12" xr3:uid="{C74C9A6D-67EB-491D-A6D1-55C66BF936BE}" name="52 week low" dataDxfId="4">
       <calculatedColumnFormula array="1">_FV(Table13[[#This Row],[Funds]],"52 week low",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{79973E41-98D9-4950-8B9A-E0B263B075E3}" name="Deviation from 52 Week High" dataDxfId="9">
+    <tableColumn id="13" xr3:uid="{79973E41-98D9-4950-8B9A-E0B263B075E3}" name="Deviation from 52 Week High" dataDxfId="3">
       <calculatedColumnFormula>(L2-J2)/L2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9451,8 +9434,8 @@
   <autoFilter ref="A29:C39" xr:uid="{76A2AC23-EA1A-42A9-A4A0-BA4126640B6B}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{C5A951EA-02C9-4EEA-B580-3EE51E7FDF81}" name="Fund"/>
-    <tableColumn id="2" xr3:uid="{EDFF81EE-5847-4637-99DE-F7A607DAE56F}" name="Category" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{FE5FE4F2-8EE0-4222-A1A6-C6369FAE2A5F}" name="Notes" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{EDFF81EE-5847-4637-99DE-F7A607DAE56F}" name="Category" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{FE5FE4F2-8EE0-4222-A1A6-C6369FAE2A5F}" name="Notes" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9757,8 +9740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12438,7 +12421,7 @@
       <c r="A47" s="14" t="e" vm="46">
         <v>#VALUE!</v>
       </c>
-      <c r="B47" s="116" t="str">
+      <c r="B47" s="115" t="str">
         <f t="array" ref="B47">_FV(A47,"Ticker symbol",TRUE)</f>
         <v>FPBFX</v>
       </c>
@@ -12451,52 +12434,52 @@
       <c r="E47" s="14" t="s">
         <v>366</v>
       </c>
-      <c r="F47" s="91">
+      <c r="F47" s="90">
         <f>IFERROR(_FV(A47,"Expense ratio",TRUE),"")</f>
         <v>1.11E-2</v>
       </c>
-      <c r="G47" s="117" t="str">
+      <c r="G47" s="116" t="str">
         <f t="array" ref="G47">IFERROR(_FV(A47,"Open"),"")</f>
         <v/>
       </c>
-      <c r="H47" s="117" t="str">
+      <c r="H47" s="116" t="str">
         <f t="array" ref="H47">IFERROR(_FV(A47,"High"),"")</f>
         <v/>
       </c>
-      <c r="I47" s="117" t="str">
+      <c r="I47" s="116" t="str">
         <f t="array" ref="I47">IFERROR(_FV(A47,"Low"),"")</f>
         <v/>
       </c>
-      <c r="J47" s="117">
+      <c r="J47" s="116">
         <f t="array" ref="J47">IFERROR(_FV(A47,"Price"),"")</f>
         <v>38.18</v>
       </c>
-      <c r="K47" s="118" t="str">
+      <c r="K47" s="117" t="str">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
         <v/>
       </c>
-      <c r="L47" s="91">
+      <c r="L47" s="90">
         <f t="array" ref="L47">IFERROR(_FV(A47,"Change (%)",TRUE),"")</f>
         <v>3.1530000000000004E-3</v>
       </c>
-      <c r="M47" s="117" t="str">
+      <c r="M47" s="116" t="str">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
         <v/>
       </c>
-      <c r="N47" s="117" t="str">
+      <c r="N47" s="116" t="str">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
         <v/>
       </c>
-      <c r="O47" s="92" t="str">
+      <c r="O47" s="91" t="str">
         <f>IFERROR((M47-J47)/M47,"")</f>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="119" t="e" vm="47">
+      <c r="A48" s="118" t="e" vm="47">
         <v>#VALUE!</v>
       </c>
-      <c r="B48" s="120" t="str">
+      <c r="B48" s="119" t="str">
         <f t="array" ref="B48">_FV(A48,"Ticker symbol",TRUE)</f>
         <v>FIGFX</v>
       </c>
@@ -12509,53 +12492,53 @@
       <c r="E48" s="14" t="s">
         <v>366</v>
       </c>
-      <c r="F48" s="121">
+      <c r="F48" s="120">
         <f>IFERROR(_FV(A48,"Expense ratio",TRUE),"")</f>
         <v>1.03E-2</v>
       </c>
-      <c r="G48" s="122" t="str">
+      <c r="G48" s="121" t="str">
         <f t="array" ref="G48">IFERROR(_FV(A48,"Open"),"")</f>
         <v/>
       </c>
-      <c r="H48" s="122" t="str">
+      <c r="H48" s="121" t="str">
         <f t="array" ref="H48">IFERROR(_FV(A48,"High"),"")</f>
         <v/>
       </c>
-      <c r="I48" s="122" t="str">
+      <c r="I48" s="121" t="str">
         <f t="array" ref="I48">IFERROR(_FV(A48,"Low"),"")</f>
         <v/>
       </c>
-      <c r="J48" s="122">
+      <c r="J48" s="121">
         <f t="array" ref="J48">IFERROR(_FV(A48,"Price"),"")</f>
         <v>16.579999999999998</v>
       </c>
-      <c r="K48" s="123" t="str">
+      <c r="K48" s="122" t="str">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
         <v/>
       </c>
-      <c r="L48" s="121">
+      <c r="L48" s="120">
         <f t="array" ref="L48">IFERROR(_FV(A48,"Change (%)",TRUE),"")</f>
         <v>7.9030000000000003E-3</v>
       </c>
-      <c r="M48" s="122" t="str">
+      <c r="M48" s="121" t="str">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
         <v/>
       </c>
-      <c r="N48" s="122" t="str">
+      <c r="N48" s="121" t="str">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
         <v/>
       </c>
-      <c r="O48" s="124" t="str">
+      <c r="O48" s="123" t="str">
         <f>IFERROR((M48-J48)/M48,"")</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A48">
-    <cfRule type="duplicateValues" dxfId="4" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="14"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -18761,7 +18744,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -18778,8 +18761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13513A75-7FB1-4B44-A9EF-B1F8874E7B1E}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19085,7 +19068,7 @@
         <v>30</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>350</v>
+        <v>534</v>
       </c>
       <c r="D17" s="3">
         <v>0.16</v>
@@ -19107,7 +19090,7 @@
         <v>331</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>351</v>
+        <v>535</v>
       </c>
       <c r="D18" s="3">
         <v>0.16</v>
@@ -19251,11 +19234,11 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="90" t="s">
+      <c r="A28" s="124" t="s">
         <v>359</v>
       </c>
-      <c r="B28" s="90"/>
-      <c r="C28" s="90"/>
+      <c r="B28" s="124"/>
+      <c r="C28" s="124"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -19388,7 +19371,7 @@
   <dimension ref="A1:AK43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
@@ -22603,7 +22586,7 @@
         <v>0</v>
       </c>
       <c r="Z25" s="32">
-        <f t="shared" ref="Z25:Z26" si="63">Y25*12</f>
+        <f t="shared" ref="Z25" si="63">Y25*12</f>
         <v>0</v>
       </c>
       <c r="AA25" s="33">
@@ -23457,1069 +23440,1069 @@
   <cols>
     <col min="1" max="1" width="9.140625" style="14"/>
     <col min="2" max="2" width="48.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="93" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="95" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="94" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="93" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="95" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="92" customWidth="1"/>
-    <col min="9" max="20" width="9.140625" style="92"/>
-    <col min="21" max="21" width="10.42578125" style="92" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" style="92"/>
-    <col min="23" max="23" width="7.7109375" style="92" customWidth="1"/>
-    <col min="24" max="24" width="9.7109375" style="92" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.7109375" style="92" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.28515625" style="92" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.28515625" style="92" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.140625" style="92" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.7109375" style="92" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.5703125" style="92" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.85546875" style="92" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.5703125" style="92" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="5.28515625" style="92" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="92" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="94" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="93" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="92" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="94" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="91" customWidth="1"/>
+    <col min="9" max="20" width="9.140625" style="91"/>
+    <col min="21" max="21" width="10.42578125" style="91" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" style="91"/>
+    <col min="23" max="23" width="7.7109375" style="91" customWidth="1"/>
+    <col min="24" max="24" width="9.7109375" style="91" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" style="91" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.28515625" style="91" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.28515625" style="91" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.140625" style="91" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.7109375" style="91" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.5703125" style="91" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.85546875" style="91" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.5703125" style="91" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.28515625" style="91" bestFit="1" customWidth="1"/>
     <col min="34" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+    <row r="1" spans="1:33" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="106" t="s">
         <v>360</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="106" t="s">
         <v>454</v>
       </c>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="107" t="s">
         <v>446</v>
       </c>
-      <c r="D1" s="109" t="s">
+      <c r="D1" s="108" t="s">
         <v>520</v>
       </c>
-      <c r="E1" s="110" t="s">
+      <c r="E1" s="109" t="s">
         <v>464</v>
       </c>
-      <c r="F1" s="108" t="s">
+      <c r="F1" s="107" t="s">
         <v>462</v>
       </c>
-      <c r="G1" s="109" t="s">
+      <c r="G1" s="108" t="s">
         <v>465</v>
       </c>
-      <c r="H1" s="111" t="s">
+      <c r="H1" s="110" t="s">
         <v>457</v>
       </c>
-      <c r="I1" s="111" t="s">
+      <c r="I1" s="110" t="s">
         <v>447</v>
       </c>
-      <c r="J1" s="111" t="s">
+      <c r="J1" s="110" t="s">
         <v>448</v>
       </c>
-      <c r="K1" s="111" t="s">
+      <c r="K1" s="110" t="s">
         <v>449</v>
       </c>
-      <c r="L1" s="112" t="s">
+      <c r="L1" s="111" t="s">
         <v>507</v>
       </c>
-      <c r="M1" s="112" t="s">
+      <c r="M1" s="111" t="s">
         <v>505</v>
       </c>
-      <c r="N1" s="112" t="s">
+      <c r="N1" s="111" t="s">
         <v>484</v>
       </c>
-      <c r="O1" s="112" t="s">
+      <c r="O1" s="111" t="s">
         <v>452</v>
       </c>
-      <c r="P1" s="112" t="s">
+      <c r="P1" s="111" t="s">
         <v>451</v>
       </c>
-      <c r="Q1" s="112" t="s">
+      <c r="Q1" s="111" t="s">
         <v>458</v>
       </c>
-      <c r="R1" s="112" t="s">
+      <c r="R1" s="111" t="s">
         <v>453</v>
       </c>
-      <c r="S1" s="112" t="s">
+      <c r="S1" s="111" t="s">
         <v>515</v>
       </c>
-      <c r="T1" s="112" t="s">
+      <c r="T1" s="111" t="s">
         <v>459</v>
       </c>
-      <c r="U1" s="112" t="s">
+      <c r="U1" s="111" t="s">
         <v>528</v>
       </c>
-      <c r="V1" s="112" t="s">
+      <c r="V1" s="111" t="s">
         <v>450</v>
       </c>
-      <c r="W1" s="113" t="s">
+      <c r="W1" s="112" t="s">
         <v>466</v>
       </c>
-      <c r="X1" s="113" t="s">
+      <c r="X1" s="112" t="s">
         <v>467</v>
       </c>
-      <c r="Y1" s="113" t="s">
+      <c r="Y1" s="112" t="s">
         <v>468</v>
       </c>
-      <c r="Z1" s="113" t="s">
+      <c r="Z1" s="112" t="s">
         <v>469</v>
       </c>
-      <c r="AA1" s="113" t="s">
+      <c r="AA1" s="112" t="s">
         <v>470</v>
       </c>
-      <c r="AB1" s="113" t="s">
+      <c r="AB1" s="112" t="s">
         <v>471</v>
       </c>
-      <c r="AC1" s="113" t="s">
+      <c r="AC1" s="112" t="s">
         <v>324</v>
       </c>
-      <c r="AD1" s="113" t="s">
+      <c r="AD1" s="112" t="s">
         <v>472</v>
       </c>
-      <c r="AE1" s="113" t="s">
+      <c r="AE1" s="112" t="s">
         <v>473</v>
       </c>
-      <c r="AF1" s="113" t="s">
+      <c r="AF1" s="112" t="s">
         <v>474</v>
       </c>
-      <c r="AG1" s="113" t="s">
+      <c r="AG1" s="112" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="99" t="s">
         <v>478</v>
       </c>
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="99" t="s">
         <v>477</v>
       </c>
-      <c r="C2" s="101">
+      <c r="C2" s="100">
         <v>1.3599999999999999E-2</v>
       </c>
-      <c r="D2" s="102">
+      <c r="D2" s="101">
         <v>50</v>
       </c>
-      <c r="E2" s="103">
+      <c r="E2" s="102">
         <v>1.5986</v>
       </c>
-      <c r="F2" s="101" t="s">
+      <c r="F2" s="100" t="s">
         <v>463</v>
       </c>
-      <c r="G2" s="102">
+      <c r="G2" s="101">
         <v>5</v>
       </c>
-      <c r="H2" s="104">
+      <c r="H2" s="103">
         <v>0.3755</v>
       </c>
-      <c r="I2" s="104">
+      <c r="I2" s="103">
         <v>0.18959999999999999</v>
       </c>
-      <c r="J2" s="104">
+      <c r="J2" s="103">
         <v>0.1489</v>
       </c>
-      <c r="K2" s="104">
+      <c r="K2" s="103">
         <v>0.1497</v>
       </c>
-      <c r="L2" s="105">
+      <c r="L2" s="104">
         <v>0</v>
       </c>
-      <c r="M2" s="105">
+      <c r="M2" s="104">
         <v>0.08</v>
       </c>
-      <c r="N2" s="105">
+      <c r="N2" s="104">
         <v>0</v>
       </c>
-      <c r="O2" s="105">
+      <c r="O2" s="104">
         <v>0.36709999999999998</v>
       </c>
-      <c r="P2" s="105">
+      <c r="P2" s="104">
         <v>0.12</v>
       </c>
-      <c r="Q2" s="105">
+      <c r="Q2" s="104">
         <v>4.5900000000000003E-2</v>
       </c>
-      <c r="R2" s="105">
+      <c r="R2" s="104">
         <v>0</v>
       </c>
-      <c r="S2" s="105">
+      <c r="S2" s="104">
         <v>0</v>
       </c>
-      <c r="T2" s="105">
+      <c r="T2" s="104">
         <v>2.1499999999999998E-2</v>
       </c>
-      <c r="U2" s="105">
+      <c r="U2" s="104">
         <v>0</v>
       </c>
-      <c r="V2" s="105">
+      <c r="V2" s="104">
         <v>0.28000000000000003</v>
       </c>
-      <c r="W2" s="106">
+      <c r="W2" s="105">
         <v>0.19670000000000001</v>
       </c>
-      <c r="X2" s="106">
+      <c r="X2" s="105">
         <v>0.22969999999999999</v>
       </c>
-      <c r="Y2" s="106">
+      <c r="Y2" s="105">
         <v>0.14149999999999999</v>
       </c>
-      <c r="Z2" s="106">
+      <c r="Z2" s="105">
         <v>0.15049999999999999</v>
       </c>
-      <c r="AA2" s="106">
+      <c r="AA2" s="105">
         <v>0.14630000000000001</v>
       </c>
-      <c r="AB2" s="106">
+      <c r="AB2" s="105">
         <v>0.1353</v>
       </c>
-      <c r="AC2" s="106">
+      <c r="AC2" s="105">
         <v>0</v>
       </c>
-      <c r="AD2" s="106">
+      <c r="AD2" s="105">
         <v>0</v>
       </c>
-      <c r="AE2" s="106">
+      <c r="AE2" s="105">
         <v>0</v>
       </c>
-      <c r="AF2" s="106">
+      <c r="AF2" s="105">
         <v>0</v>
       </c>
-      <c r="AG2" s="106">
+      <c r="AG2" s="105">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="114" t="s">
         <v>419</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="99" t="s">
         <v>476</v>
       </c>
-      <c r="C3" s="101">
+      <c r="C3" s="100">
         <v>9.7000000000000003E-3</v>
       </c>
-      <c r="D3" s="102">
+      <c r="D3" s="101">
         <v>110</v>
       </c>
-      <c r="E3" s="103">
+      <c r="E3" s="102">
         <v>0.24</v>
       </c>
-      <c r="F3" s="101" t="s">
+      <c r="F3" s="100" t="s">
         <v>463</v>
       </c>
-      <c r="G3" s="102">
+      <c r="G3" s="101">
         <v>5</v>
       </c>
-      <c r="H3" s="104">
+      <c r="H3" s="103">
         <v>0.2135</v>
       </c>
-      <c r="I3" s="104">
+      <c r="I3" s="103">
         <v>9.8799999999999999E-2</v>
       </c>
-      <c r="J3" s="104">
+      <c r="J3" s="103">
         <v>0.1051</v>
       </c>
-      <c r="K3" s="104">
+      <c r="K3" s="103">
         <v>0.1099</v>
       </c>
-      <c r="L3" s="105">
+      <c r="L3" s="104">
         <v>0</v>
       </c>
-      <c r="M3" s="105">
+      <c r="M3" s="104">
         <v>0.32500000000000001</v>
       </c>
-      <c r="N3" s="105">
+      <c r="N3" s="104">
         <v>0</v>
       </c>
-      <c r="O3" s="105">
+      <c r="O3" s="104">
         <v>0.27400000000000002</v>
       </c>
-      <c r="P3" s="105">
+      <c r="P3" s="104">
         <v>0.02</v>
       </c>
-      <c r="Q3" s="105">
+      <c r="Q3" s="104">
         <v>5.7200000000000001E-2</v>
       </c>
-      <c r="R3" s="105">
+      <c r="R3" s="104">
         <v>0.29289999999999999</v>
       </c>
-      <c r="S3" s="105">
+      <c r="S3" s="104">
         <v>0</v>
       </c>
-      <c r="T3" s="105">
+      <c r="T3" s="104">
         <v>0</v>
       </c>
-      <c r="U3" s="105">
+      <c r="U3" s="104">
         <v>0</v>
       </c>
-      <c r="V3" s="105">
+      <c r="V3" s="104">
         <v>0.01</v>
       </c>
-      <c r="W3" s="106">
+      <c r="W3" s="105">
         <v>0.16819999999999999</v>
       </c>
-      <c r="X3" s="106">
+      <c r="X3" s="105">
         <v>0.1457</v>
       </c>
-      <c r="Y3" s="106">
+      <c r="Y3" s="105">
         <v>0.12939999999999999</v>
       </c>
-      <c r="Z3" s="106">
+      <c r="Z3" s="105">
         <v>0.1011</v>
       </c>
-      <c r="AA3" s="106">
+      <c r="AA3" s="105">
         <v>0.1492</v>
       </c>
-      <c r="AB3" s="106">
+      <c r="AB3" s="105">
         <v>9.0399999999999994E-2</v>
       </c>
-      <c r="AC3" s="106">
+      <c r="AC3" s="105">
         <v>2.0400000000000001E-2</v>
       </c>
-      <c r="AD3" s="106">
+      <c r="AD3" s="105">
         <v>0.1242</v>
       </c>
-      <c r="AE3" s="106">
+      <c r="AE3" s="105">
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="AF3" s="106">
+      <c r="AF3" s="105">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="AG3" s="106">
+      <c r="AG3" s="105">
         <v>4.24E-2</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="99" t="s">
         <v>430</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="99" t="s">
         <v>460</v>
       </c>
-      <c r="C4" s="101">
+      <c r="C4" s="100">
         <v>1.01E-2</v>
       </c>
-      <c r="D4" s="102">
+      <c r="D4" s="101">
         <v>95</v>
       </c>
-      <c r="E4" s="103">
+      <c r="E4" s="102">
         <v>1.37</v>
       </c>
-      <c r="F4" s="101" t="s">
+      <c r="F4" s="100" t="s">
         <v>463</v>
       </c>
-      <c r="G4" s="102">
+      <c r="G4" s="101">
         <v>5</v>
       </c>
-      <c r="H4" s="104">
+      <c r="H4" s="103">
         <v>0.14554</v>
       </c>
-      <c r="I4" s="104">
+      <c r="I4" s="103">
         <v>0.1027</v>
       </c>
-      <c r="J4" s="104">
+      <c r="J4" s="103">
         <v>9.2100000000000001E-2</v>
       </c>
-      <c r="K4" s="104">
+      <c r="K4" s="103">
         <v>0.1052</v>
       </c>
-      <c r="L4" s="105">
+      <c r="L4" s="104">
         <v>0</v>
       </c>
-      <c r="M4" s="105">
+      <c r="M4" s="104">
         <v>0.05</v>
       </c>
-      <c r="N4" s="105">
+      <c r="N4" s="104">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="O4" s="105">
+      <c r="O4" s="104">
         <v>0.10879999999999999</v>
       </c>
-      <c r="P4" s="105">
+      <c r="P4" s="104">
         <v>0.49</v>
       </c>
-      <c r="Q4" s="105">
+      <c r="Q4" s="104">
         <v>2.24E-2</v>
       </c>
-      <c r="R4" s="105">
+      <c r="R4" s="104">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="S4" s="105">
+      <c r="S4" s="104">
         <v>0</v>
       </c>
-      <c r="T4" s="105">
+      <c r="T4" s="104">
         <v>0.01</v>
       </c>
-      <c r="U4" s="105">
+      <c r="U4" s="104">
         <v>0</v>
       </c>
-      <c r="V4" s="105">
+      <c r="V4" s="104">
         <v>0.16</v>
       </c>
-      <c r="W4" s="106">
+      <c r="W4" s="105">
         <v>0.1714</v>
       </c>
-      <c r="X4" s="106">
+      <c r="X4" s="105">
         <v>0.1206</v>
       </c>
-      <c r="Y4" s="106">
+      <c r="Y4" s="105">
         <v>0.12659999999999999</v>
       </c>
-      <c r="Z4" s="106">
+      <c r="Z4" s="105">
         <v>7.1900000000000006E-2</v>
       </c>
-      <c r="AA4" s="106">
+      <c r="AA4" s="105">
         <v>0.11940000000000001</v>
       </c>
-      <c r="AB4" s="106">
+      <c r="AB4" s="105">
         <v>0.1193</v>
       </c>
-      <c r="AC4" s="106">
+      <c r="AC4" s="105">
         <v>1.2699999999999999E-2</v>
       </c>
-      <c r="AD4" s="106">
+      <c r="AD4" s="105">
         <v>0.13120000000000001</v>
       </c>
-      <c r="AE4" s="106">
+      <c r="AE4" s="105">
         <v>5.04E-2</v>
       </c>
-      <c r="AF4" s="106">
+      <c r="AF4" s="105">
         <v>4.3299999999999998E-2</v>
       </c>
-      <c r="AG4" s="106">
+      <c r="AG4" s="105">
         <v>1.8800000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="114" t="s">
         <v>418</v>
       </c>
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="99" t="s">
         <v>461</v>
       </c>
-      <c r="C5" s="101">
+      <c r="C5" s="100">
         <v>9.9000000000000008E-3</v>
       </c>
-      <c r="D5" s="102">
+      <c r="D5" s="101">
         <v>84</v>
       </c>
-      <c r="E5" s="103">
+      <c r="E5" s="102">
         <v>0.24</v>
       </c>
-      <c r="F5" s="101" t="s">
+      <c r="F5" s="100" t="s">
         <v>463</v>
       </c>
-      <c r="G5" s="102">
+      <c r="G5" s="101">
         <v>4</v>
       </c>
-      <c r="H5" s="104">
+      <c r="H5" s="103">
         <v>0.13370000000000001</v>
       </c>
-      <c r="I5" s="104">
+      <c r="I5" s="103">
         <v>8.7400000000000005E-2</v>
       </c>
-      <c r="J5" s="104">
+      <c r="J5" s="103">
         <v>7.4399999999999994E-2</v>
       </c>
-      <c r="K5" s="104">
+      <c r="K5" s="103">
         <v>9.2100000000000001E-2</v>
       </c>
-      <c r="L5" s="105">
+      <c r="L5" s="104">
         <v>0</v>
       </c>
-      <c r="M5" s="105">
+      <c r="M5" s="104">
         <v>0.05</v>
       </c>
-      <c r="N5" s="105">
+      <c r="N5" s="104">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="O5" s="105">
+      <c r="O5" s="104">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="P5" s="105">
+      <c r="P5" s="104">
         <v>0.45900000000000002</v>
       </c>
-      <c r="Q5" s="105">
+      <c r="Q5" s="104">
         <v>1.04E-2</v>
       </c>
-      <c r="R5" s="105">
+      <c r="R5" s="104">
         <v>0.12590000000000001</v>
       </c>
-      <c r="S5" s="105">
+      <c r="S5" s="104">
         <v>0</v>
       </c>
-      <c r="T5" s="105">
+      <c r="T5" s="104">
         <v>0</v>
       </c>
-      <c r="U5" s="105">
+      <c r="U5" s="104">
         <v>0</v>
       </c>
-      <c r="V5" s="105">
+      <c r="V5" s="104">
         <v>0.18</v>
       </c>
-      <c r="W5" s="106">
+      <c r="W5" s="105">
         <v>0.2487</v>
       </c>
-      <c r="X5" s="106">
+      <c r="X5" s="105">
         <v>5.8200000000000002E-2</v>
       </c>
-      <c r="Y5" s="106">
+      <c r="Y5" s="105">
         <v>0.1643</v>
       </c>
-      <c r="Z5" s="106">
+      <c r="Z5" s="105">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="AA5" s="106">
+      <c r="AA5" s="105">
         <v>0.13500000000000001</v>
       </c>
-      <c r="AB5" s="106">
+      <c r="AB5" s="105">
         <v>7.1499999999999994E-2</v>
       </c>
-      <c r="AC5" s="106">
+      <c r="AC5" s="105">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="AD5" s="106">
+      <c r="AD5" s="105">
         <v>0.1835</v>
       </c>
-      <c r="AE5" s="106">
+      <c r="AE5" s="105">
         <v>6.3700000000000007E-2</v>
       </c>
-      <c r="AF5" s="106">
+      <c r="AF5" s="105">
         <v>0</v>
       </c>
-      <c r="AG5" s="106">
+      <c r="AG5" s="105">
         <v>1.18E-2</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="99" t="s">
         <v>421</v>
       </c>
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="99" t="s">
         <v>516</v>
       </c>
-      <c r="C6" s="101">
+      <c r="C6" s="100">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D6" s="102">
+      <c r="D6" s="101">
         <v>448</v>
       </c>
-      <c r="E6" s="103">
+      <c r="E6" s="102">
         <v>0.22</v>
       </c>
-      <c r="F6" s="101" t="s">
+      <c r="F6" s="100" t="s">
         <v>463</v>
       </c>
-      <c r="G6" s="102">
+      <c r="G6" s="101">
         <v>3</v>
       </c>
-      <c r="H6" s="104">
+      <c r="H6" s="103">
         <v>3.8399999999999997E-2</v>
       </c>
-      <c r="I6" s="104">
+      <c r="I6" s="103">
         <v>5.6399999999999999E-2</v>
       </c>
-      <c r="J6" s="104">
+      <c r="J6" s="103">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="K6" s="104">
+      <c r="K6" s="103">
         <v>7.4800000000000005E-2</v>
       </c>
-      <c r="L6" s="105">
+      <c r="L6" s="104">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="M6" s="105">
+      <c r="M6" s="104">
         <v>0.1105</v>
       </c>
-      <c r="N6" s="105">
+      <c r="N6" s="104">
         <v>0</v>
       </c>
-      <c r="O6" s="105">
+      <c r="O6" s="104">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="P6" s="105">
+      <c r="P6" s="104">
         <v>0.59960000000000002</v>
       </c>
-      <c r="Q6" s="105">
+      <c r="Q6" s="104">
         <v>0</v>
       </c>
-      <c r="R6" s="105">
+      <c r="R6" s="104">
         <v>0.24709999999999999</v>
       </c>
-      <c r="S6" s="105">
+      <c r="S6" s="104">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="T6" s="105">
+      <c r="T6" s="104">
         <v>0</v>
       </c>
-      <c r="U6" s="105">
+      <c r="U6" s="104">
         <v>0</v>
       </c>
-      <c r="V6" s="105">
+      <c r="V6" s="104">
         <v>1.21E-2</v>
       </c>
-      <c r="W6" s="106">
+      <c r="W6" s="105">
         <v>0.14230000000000001</v>
       </c>
-      <c r="X6" s="106">
+      <c r="X6" s="105">
         <v>0.1182</v>
       </c>
-      <c r="Y6" s="106">
+      <c r="Y6" s="105">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="Z6" s="106">
+      <c r="Z6" s="105">
         <v>4.1300000000000003E-2</v>
       </c>
-      <c r="AA6" s="106">
+      <c r="AA6" s="105">
         <v>0.19819999999999999</v>
       </c>
-      <c r="AB6" s="106">
+      <c r="AB6" s="105">
         <v>0.1673</v>
       </c>
-      <c r="AC6" s="106">
+      <c r="AC6" s="105">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="AD6" s="106">
+      <c r="AD6" s="105">
         <v>0.15079999999999999</v>
       </c>
-      <c r="AE6" s="106">
+      <c r="AE6" s="105">
         <v>5.6399999999999999E-2</v>
       </c>
-      <c r="AF6" s="106">
+      <c r="AF6" s="105">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="AG6" s="106">
+      <c r="AG6" s="105">
         <v>1.9599999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="99" t="s">
         <v>455</v>
       </c>
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="99" t="s">
         <v>456</v>
       </c>
-      <c r="C7" s="101">
+      <c r="C7" s="100">
         <v>9.4000000000000004E-3</v>
       </c>
-      <c r="D7" s="102">
+      <c r="D7" s="101">
         <v>86</v>
       </c>
-      <c r="E7" s="103">
+      <c r="E7" s="102">
         <v>0.43</v>
       </c>
-      <c r="F7" s="101" t="s">
+      <c r="F7" s="100" t="s">
         <v>463</v>
       </c>
-      <c r="G7" s="102">
+      <c r="G7" s="101">
         <v>5</v>
       </c>
-      <c r="H7" s="104">
+      <c r="H7" s="103">
         <v>0.218</v>
       </c>
-      <c r="I7" s="104">
+      <c r="I7" s="103">
         <v>0.1055</v>
       </c>
-      <c r="J7" s="104">
+      <c r="J7" s="103">
         <v>0.11219999999999999</v>
       </c>
-      <c r="K7" s="104">
+      <c r="K7" s="103">
         <v>6.3799999999999996E-2</v>
       </c>
-      <c r="L7" s="105">
+      <c r="L7" s="104">
         <v>0</v>
       </c>
-      <c r="M7" s="105">
+      <c r="M7" s="104">
         <v>0.17</v>
       </c>
-      <c r="N7" s="105">
+      <c r="N7" s="104">
         <v>0</v>
       </c>
-      <c r="O7" s="105">
+      <c r="O7" s="104">
         <v>0.35199999999999998</v>
       </c>
-      <c r="P7" s="105">
+      <c r="P7" s="104">
         <v>0.06</v>
       </c>
-      <c r="Q7" s="105">
+      <c r="Q7" s="104">
         <v>0.1116</v>
       </c>
-      <c r="R7" s="105">
+      <c r="R7" s="104">
         <v>0</v>
       </c>
-      <c r="S7" s="105">
+      <c r="S7" s="104">
         <v>0</v>
       </c>
-      <c r="T7" s="105">
+      <c r="T7" s="104">
         <v>0.05</v>
       </c>
-      <c r="U7" s="105">
+      <c r="U7" s="104">
         <v>0</v>
       </c>
-      <c r="V7" s="105">
+      <c r="V7" s="104">
         <v>0.08</v>
       </c>
-      <c r="W7" s="106">
+      <c r="W7" s="105">
         <v>0.2185</v>
       </c>
-      <c r="X7" s="106">
+      <c r="X7" s="105">
         <v>0.1825</v>
       </c>
-      <c r="Y7" s="106">
+      <c r="Y7" s="105">
         <v>0.15820000000000001</v>
       </c>
-      <c r="Z7" s="106">
+      <c r="Z7" s="105">
         <v>0.13300000000000001</v>
       </c>
-      <c r="AA7" s="106">
+      <c r="AA7" s="105">
         <v>6.9800000000000001E-2</v>
       </c>
-      <c r="AB7" s="106">
+      <c r="AB7" s="105">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="AC7" s="106">
+      <c r="AC7" s="105">
         <v>6.7900000000000002E-2</v>
       </c>
-      <c r="AD7" s="106">
+      <c r="AD7" s="105">
         <v>4.48E-2</v>
       </c>
-      <c r="AE7" s="106">
+      <c r="AE7" s="105">
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="AF7" s="106">
+      <c r="AF7" s="105">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="AG7" s="106">
+      <c r="AG7" s="105">
         <v>0.01</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="99" t="s">
         <v>429</v>
       </c>
-      <c r="B8" s="100" t="s">
+      <c r="B8" s="99" t="s">
         <v>530</v>
       </c>
-      <c r="C8" s="101">
+      <c r="C8" s="100">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="D8" s="102">
+      <c r="D8" s="101">
         <v>1236</v>
       </c>
-      <c r="E8" s="103">
+      <c r="E8" s="102">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F8" s="101" t="s">
+      <c r="F8" s="100" t="s">
         <v>531</v>
       </c>
-      <c r="G8" s="102">
+      <c r="G8" s="101">
         <v>3</v>
       </c>
-      <c r="H8" s="104">
+      <c r="H8" s="103">
         <v>4.19E-2</v>
       </c>
-      <c r="I8" s="104">
+      <c r="I8" s="103">
         <v>5.0500000000000003E-2</v>
       </c>
-      <c r="J8" s="104">
+      <c r="J8" s="103">
         <v>4.87E-2</v>
       </c>
-      <c r="K8" s="104">
+      <c r="K8" s="103">
         <v>6.1699999999999998E-2</v>
       </c>
-      <c r="L8" s="105">
+      <c r="L8" s="104">
         <v>0</v>
       </c>
-      <c r="M8" s="105">
+      <c r="M8" s="104">
         <v>0.2908</v>
       </c>
-      <c r="N8" s="105">
+      <c r="N8" s="104">
         <v>0</v>
       </c>
-      <c r="O8" s="105">
+      <c r="O8" s="104">
         <v>0.53300000000000003</v>
       </c>
-      <c r="P8" s="105">
+      <c r="P8" s="104">
         <v>2.7099999999999999E-2</v>
       </c>
-      <c r="Q8" s="105">
+      <c r="Q8" s="104">
         <v>0.14149999999999999</v>
       </c>
-      <c r="R8" s="105">
+      <c r="R8" s="104">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="S8" s="105">
+      <c r="S8" s="104">
         <v>0</v>
       </c>
-      <c r="T8" s="105">
+      <c r="T8" s="104">
         <v>0</v>
       </c>
-      <c r="U8" s="105">
+      <c r="U8" s="104">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="V8" s="105">
+      <c r="V8" s="104">
         <v>1.8E-3</v>
       </c>
-      <c r="W8" s="106">
+      <c r="W8" s="105">
         <v>0.18310000000000001</v>
       </c>
-      <c r="X8" s="106">
+      <c r="X8" s="105">
         <v>0.18970000000000001</v>
       </c>
-      <c r="Y8" s="106">
+      <c r="Y8" s="105">
         <v>0.17460000000000001</v>
       </c>
-      <c r="Z8" s="106">
+      <c r="Z8" s="105">
         <v>0.13489999999999999</v>
       </c>
-      <c r="AA8" s="106">
+      <c r="AA8" s="105">
         <v>5.0500000000000003E-2</v>
       </c>
-      <c r="AB8" s="106">
+      <c r="AB8" s="105">
         <v>5.96E-2</v>
       </c>
-      <c r="AC8" s="106">
+      <c r="AC8" s="105">
         <v>4.3400000000000001E-2</v>
       </c>
-      <c r="AD8" s="106">
+      <c r="AD8" s="105">
         <v>5.62E-2</v>
       </c>
-      <c r="AE8" s="106">
+      <c r="AE8" s="105">
         <v>4.5400000000000003E-2</v>
       </c>
-      <c r="AF8" s="106">
+      <c r="AF8" s="105">
         <v>1.77E-2</v>
       </c>
-      <c r="AG8" s="106">
+      <c r="AG8" s="105">
         <v>3.1199999999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A9" s="100" t="s">
+      <c r="A9" s="99" t="s">
         <v>420</v>
       </c>
-      <c r="B9" s="100" t="s">
+      <c r="B9" s="99" t="s">
         <v>479</v>
       </c>
-      <c r="C9" s="101">
+      <c r="C9" s="100">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="D9" s="102">
+      <c r="D9" s="101">
         <v>293</v>
       </c>
-      <c r="E9" s="103">
+      <c r="E9" s="102">
         <v>1.05</v>
       </c>
-      <c r="F9" s="101" t="s">
+      <c r="F9" s="100" t="s">
         <v>463</v>
       </c>
-      <c r="G9" s="102">
+      <c r="G9" s="101">
         <v>3</v>
       </c>
-      <c r="H9" s="104">
+      <c r="H9" s="103">
         <v>6.8500000000000005E-2</v>
       </c>
-      <c r="I9" s="104">
+      <c r="I9" s="103">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="J9" s="104">
+      <c r="J9" s="103">
         <v>5.2699999999999997E-2</v>
       </c>
-      <c r="K9" s="104"/>
-      <c r="L9" s="105">
+      <c r="K9" s="103"/>
+      <c r="L9" s="104">
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="M9" s="105">
+      <c r="M9" s="104">
         <v>6.0600000000000001E-2</v>
       </c>
-      <c r="N9" s="105">
+      <c r="N9" s="104">
         <v>8.09E-2</v>
       </c>
-      <c r="O9" s="105">
+      <c r="O9" s="104">
         <v>7.9000000000000008E-3</v>
       </c>
-      <c r="P9" s="105">
+      <c r="P9" s="104">
         <v>0.54800000000000004</v>
       </c>
-      <c r="Q9" s="105">
+      <c r="Q9" s="104">
         <v>0</v>
       </c>
-      <c r="R9" s="105">
+      <c r="R9" s="104">
         <v>0.22969999999999999</v>
       </c>
-      <c r="S9" s="105">
+      <c r="S9" s="104">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="T9" s="105">
+      <c r="T9" s="104">
         <v>0</v>
       </c>
-      <c r="U9" s="105">
+      <c r="U9" s="104">
         <v>0</v>
       </c>
-      <c r="V9" s="105">
+      <c r="V9" s="104">
         <v>4.1599999999999998E-2</v>
       </c>
-      <c r="W9" s="106">
+      <c r="W9" s="105">
         <v>0.18329999999999999</v>
       </c>
-      <c r="X9" s="106">
+      <c r="X9" s="105">
         <v>7.8799999999999995E-2</v>
       </c>
-      <c r="Y9" s="106">
+      <c r="Y9" s="105">
         <v>5.0900000000000001E-2</v>
       </c>
-      <c r="Z9" s="106">
+      <c r="Z9" s="105">
         <v>5.5500000000000001E-2</v>
       </c>
-      <c r="AA9" s="106">
+      <c r="AA9" s="105">
         <v>0.26950000000000002</v>
       </c>
-      <c r="AB9" s="106">
+      <c r="AB9" s="105">
         <v>6.6600000000000006E-2</v>
       </c>
-      <c r="AC9" s="106">
+      <c r="AC9" s="105">
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="AD9" s="106">
+      <c r="AD9" s="105">
         <v>0.1022</v>
       </c>
-      <c r="AE9" s="106">
+      <c r="AE9" s="105">
         <v>0.1086</v>
       </c>
-      <c r="AF9" s="106">
+      <c r="AF9" s="105">
         <v>5.6599999999999998E-2</v>
       </c>
-      <c r="AG9" s="106">
+      <c r="AG9" s="105">
         <v>1.1599999999999999E-2</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" s="100" t="s">
+      <c r="A10" s="99" t="s">
         <v>480</v>
       </c>
-      <c r="B10" s="100" t="s">
+      <c r="B10" s="99" t="s">
         <v>533</v>
       </c>
-      <c r="C10" s="101">
+      <c r="C10" s="100">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D10" s="102">
+      <c r="D10" s="101">
         <v>883</v>
       </c>
-      <c r="E10" s="103">
+      <c r="E10" s="102">
         <v>0.16</v>
       </c>
-      <c r="F10" s="101" t="s">
+      <c r="F10" s="100" t="s">
         <v>531</v>
       </c>
-      <c r="G10" s="102">
+      <c r="G10" s="101">
         <v>3</v>
       </c>
-      <c r="H10" s="104">
+      <c r="H10" s="103">
         <v>3.0599999999999999E-2</v>
       </c>
-      <c r="I10" s="104">
+      <c r="I10" s="103">
         <v>3.2199999999999999E-2</v>
       </c>
-      <c r="J10" s="104">
+      <c r="J10" s="103">
         <v>4.1399999999999999E-2</v>
       </c>
-      <c r="K10" s="104"/>
-      <c r="L10" s="105">
+      <c r="K10" s="103"/>
+      <c r="L10" s="104">
         <v>0</v>
       </c>
-      <c r="M10" s="105">
+      <c r="M10" s="104">
         <v>0.39419999999999999</v>
       </c>
-      <c r="N10" s="105">
+      <c r="N10" s="104">
         <v>0</v>
       </c>
-      <c r="O10" s="105">
+      <c r="O10" s="104">
         <v>0.47170000000000001</v>
       </c>
-      <c r="P10" s="105">
+      <c r="P10" s="104">
         <v>2.4500000000000001E-2</v>
       </c>
-      <c r="Q10" s="105">
+      <c r="Q10" s="104">
         <v>9.7199999999999995E-2</v>
       </c>
-      <c r="R10" s="105">
+      <c r="R10" s="104">
         <v>2E-3</v>
       </c>
-      <c r="S10" s="105">
+      <c r="S10" s="104">
         <v>0</v>
       </c>
-      <c r="T10" s="105">
+      <c r="T10" s="104">
         <v>0</v>
       </c>
-      <c r="U10" s="105">
+      <c r="U10" s="104">
         <v>0</v>
       </c>
-      <c r="V10" s="105">
+      <c r="V10" s="104">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="W10" s="106">
+      <c r="W10" s="105">
         <v>0.2104</v>
       </c>
-      <c r="X10" s="106">
+      <c r="X10" s="105">
         <v>0.18629999999999999</v>
       </c>
-      <c r="Y10" s="106">
+      <c r="Y10" s="105">
         <v>0.15629999999999999</v>
       </c>
-      <c r="Z10" s="106">
+      <c r="Z10" s="105">
         <v>0.1424</v>
       </c>
-      <c r="AA10" s="106">
+      <c r="AA10" s="105">
         <v>4.6300000000000001E-2</v>
       </c>
-      <c r="AB10" s="106">
+      <c r="AB10" s="105">
         <v>5.67E-2</v>
       </c>
-      <c r="AC10" s="106">
+      <c r="AC10" s="105">
         <v>4.07E-2</v>
       </c>
-      <c r="AD10" s="106">
+      <c r="AD10" s="105">
         <v>5.0099999999999999E-2</v>
       </c>
-      <c r="AE10" s="106">
+      <c r="AE10" s="105">
         <v>4.7100000000000003E-2</v>
       </c>
-      <c r="AF10" s="106">
+      <c r="AF10" s="105">
         <v>1.89E-2</v>
       </c>
-      <c r="AG10" s="106">
+      <c r="AG10" s="105">
         <v>2.76E-2</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11" s="100"/>
-      <c r="B11" s="100"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="104"/>
-      <c r="K11" s="104"/>
-      <c r="L11" s="105"/>
-      <c r="M11" s="105"/>
-      <c r="N11" s="105"/>
-      <c r="O11" s="105"/>
-      <c r="P11" s="105"/>
-      <c r="Q11" s="105"/>
-      <c r="R11" s="105"/>
-      <c r="S11" s="105"/>
-      <c r="T11" s="105"/>
-      <c r="U11" s="105"/>
-      <c r="V11" s="105"/>
-      <c r="W11" s="106"/>
-      <c r="X11" s="106"/>
-      <c r="Y11" s="106"/>
-      <c r="Z11" s="106"/>
-      <c r="AA11" s="106"/>
-      <c r="AB11" s="106"/>
-      <c r="AC11" s="106"/>
-      <c r="AD11" s="106"/>
-      <c r="AE11" s="106"/>
-      <c r="AF11" s="106"/>
-      <c r="AG11" s="106"/>
+      <c r="A11" s="99"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="103"/>
+      <c r="K11" s="103"/>
+      <c r="L11" s="104"/>
+      <c r="M11" s="104"/>
+      <c r="N11" s="104"/>
+      <c r="O11" s="104"/>
+      <c r="P11" s="104"/>
+      <c r="Q11" s="104"/>
+      <c r="R11" s="104"/>
+      <c r="S11" s="104"/>
+      <c r="T11" s="104"/>
+      <c r="U11" s="104"/>
+      <c r="V11" s="104"/>
+      <c r="W11" s="105"/>
+      <c r="X11" s="105"/>
+      <c r="Y11" s="105"/>
+      <c r="Z11" s="105"/>
+      <c r="AA11" s="105"/>
+      <c r="AB11" s="105"/>
+      <c r="AC11" s="105"/>
+      <c r="AD11" s="105"/>
+      <c r="AE11" s="105"/>
+      <c r="AF11" s="105"/>
+      <c r="AG11" s="105"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AG10" xr:uid="{354A7ECD-5F19-4009-838D-52EE93D742A5}">
@@ -24553,7 +24536,7 @@
     <col min="11" max="11" width="11.28515625" style="14" bestFit="1" customWidth="1"/>
     <col min="12" max="15" width="9.140625" style="14"/>
     <col min="16" max="16" width="13.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.85546875" style="92" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.85546875" style="91" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
@@ -24561,7 +24544,7 @@
       <c r="A1" s="14" t="s">
         <v>453</v>
       </c>
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="90" t="s">
         <v>453</v>
       </c>
       <c r="I1" s="14" t="s">
@@ -24573,7 +24556,7 @@
       <c r="K1" s="14" t="s">
         <v>504</v>
       </c>
-      <c r="P1" s="97" t="s">
+      <c r="P1" s="96" t="s">
         <v>508</v>
       </c>
       <c r="Q1" t="s">
@@ -24585,41 +24568,41 @@
       <c r="A2" s="14" t="s">
         <v>481</v>
       </c>
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="90" t="s">
         <v>451</v>
       </c>
       <c r="I2" s="14" t="s">
         <v>452</v>
       </c>
-      <c r="J2" s="91">
+      <c r="J2" s="90">
         <v>0.47170000000000001</v>
       </c>
       <c r="K2" s="14" t="str">
-        <f>IFERROR(VLOOKUP(I2,A:B,2,FALSE),"")</f>
+        <f t="shared" ref="K2:K22" si="0">IFERROR(VLOOKUP(I2,A:B,2,FALSE),"")</f>
         <v>China</v>
       </c>
       <c r="P2"/>
-      <c r="Q2" s="99"/>
+      <c r="Q2" s="98"/>
       <c r="R2"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="90" t="s">
         <v>451</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>521</v>
       </c>
-      <c r="J3" s="91">
+      <c r="J3" s="90">
         <v>0.1641</v>
       </c>
       <c r="K3" s="14" t="str">
-        <f>IFERROR(VLOOKUP(I3,A:B,2,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v>Asia</v>
       </c>
-      <c r="P3" s="97" t="s">
+      <c r="P3" s="96" t="s">
         <v>510</v>
       </c>
       <c r="Q3" t="s">
@@ -24631,44 +24614,44 @@
       <c r="A4" s="14" t="s">
         <v>483</v>
       </c>
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="90" t="s">
         <v>451</v>
       </c>
       <c r="I4" s="14" t="s">
         <v>502</v>
       </c>
-      <c r="J4" s="91">
+      <c r="J4" s="90">
         <v>0.14430000000000001</v>
       </c>
       <c r="K4" s="14" t="str">
-        <f>IFERROR(VLOOKUP(I4,A:B,2,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v>Asia</v>
       </c>
-      <c r="P4" s="98"/>
-      <c r="Q4" s="96"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="95"/>
       <c r="R4"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>484</v>
       </c>
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="90" t="s">
         <v>484</v>
       </c>
       <c r="I5" s="14" t="s">
         <v>458</v>
       </c>
-      <c r="J5" s="91">
+      <c r="J5" s="90">
         <v>9.7199999999999995E-2</v>
       </c>
       <c r="K5" s="14" t="str">
-        <f>IFERROR(VLOOKUP(I5,A:B,2,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v>India</v>
       </c>
-      <c r="P5" s="98" t="s">
+      <c r="P5" s="97" t="s">
         <v>505</v>
       </c>
-      <c r="Q5" s="96">
+      <c r="Q5" s="95">
         <v>0.39420000000000005</v>
       </c>
       <c r="R5"/>
@@ -24677,23 +24660,23 @@
       <c r="A6" s="14" t="s">
         <v>485</v>
       </c>
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="90" t="s">
         <v>451</v>
       </c>
       <c r="I6" s="14" t="s">
         <v>522</v>
       </c>
-      <c r="J6" s="91">
+      <c r="J6" s="90">
         <v>2.6800000000000001E-2</v>
       </c>
       <c r="K6" s="14" t="str">
-        <f>IFERROR(VLOOKUP(I6,A:B,2,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v>Asia</v>
       </c>
-      <c r="P6" s="98" t="s">
+      <c r="P6" s="97" t="s">
         <v>452</v>
       </c>
-      <c r="Q6" s="96">
+      <c r="Q6" s="95">
         <v>0.47170000000000001</v>
       </c>
       <c r="R6"/>
@@ -24702,23 +24685,23 @@
       <c r="A7" s="14" t="s">
         <v>486</v>
       </c>
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="90" t="s">
         <v>451</v>
       </c>
       <c r="I7" s="14" t="s">
         <v>519</v>
       </c>
-      <c r="J7" s="91">
+      <c r="J7" s="90">
         <v>2.35E-2</v>
       </c>
       <c r="K7" s="14" t="str">
-        <f>IFERROR(VLOOKUP(I7,A:B,2,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v>Asia</v>
       </c>
-      <c r="P7" s="98" t="s">
+      <c r="P7" s="97" t="s">
         <v>451</v>
       </c>
-      <c r="Q7" s="96">
+      <c r="Q7" s="95">
         <v>2.4499999999999997E-2</v>
       </c>
       <c r="R7"/>
@@ -24727,23 +24710,23 @@
       <c r="A8" s="14" t="s">
         <v>487</v>
       </c>
-      <c r="B8" s="91" t="s">
+      <c r="B8" s="90" t="s">
         <v>451</v>
       </c>
       <c r="I8" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="J8" s="91">
+      <c r="J8" s="90">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="K8" s="14" t="str">
-        <f>IFERROR(VLOOKUP(I8,A:B,2,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v>Europe</v>
       </c>
-      <c r="P8" s="98" t="s">
+      <c r="P8" s="97" t="s">
         <v>458</v>
       </c>
-      <c r="Q8" s="96">
+      <c r="Q8" s="95">
         <v>9.7199999999999995E-2</v>
       </c>
       <c r="R8"/>
@@ -24752,23 +24735,23 @@
       <c r="A9" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="B9" s="91" t="s">
+      <c r="B9" s="90" t="s">
         <v>450</v>
       </c>
       <c r="I9" s="14" t="s">
         <v>523</v>
       </c>
-      <c r="J9" s="91">
+      <c r="J9" s="90">
         <v>1.38E-2</v>
       </c>
       <c r="K9" s="14" t="str">
-        <f>IFERROR(VLOOKUP(I9,A:B,2,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v>Asia</v>
       </c>
-      <c r="P9" s="98" t="s">
+      <c r="P9" s="97" t="s">
         <v>453</v>
       </c>
-      <c r="Q9" s="96">
+      <c r="Q9" s="95">
         <v>2E-3</v>
       </c>
       <c r="R9"/>
@@ -24777,23 +24760,23 @@
       <c r="A10" s="14" t="s">
         <v>489</v>
       </c>
-      <c r="B10" s="91" t="s">
+      <c r="B10" s="90" t="s">
         <v>505</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>493</v>
       </c>
-      <c r="J10" s="91">
+      <c r="J10" s="90">
         <v>1.06E-2</v>
       </c>
       <c r="K10" s="14" t="str">
-        <f>IFERROR(VLOOKUP(I10,A:B,2,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v>Asia</v>
       </c>
-      <c r="P10" s="98" t="s">
+      <c r="P10" s="97" t="s">
         <v>450</v>
       </c>
-      <c r="Q10" s="96">
+      <c r="Q10" s="95">
         <v>2.7000000000000001E-3</v>
       </c>
       <c r="R10"/>
@@ -24802,46 +24785,46 @@
       <c r="A11" s="14" t="s">
         <v>490</v>
       </c>
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="90" t="s">
         <v>451</v>
       </c>
       <c r="I11" s="14" t="s">
         <v>524</v>
       </c>
-      <c r="J11" s="91">
+      <c r="J11" s="90">
         <v>1.01E-2</v>
       </c>
       <c r="K11" s="14" t="str">
-        <f>IFERROR(VLOOKUP(I11,A:B,2,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v>Asia</v>
       </c>
-      <c r="P11" s="98" t="s">
+      <c r="P11" s="97" t="s">
         <v>511</v>
       </c>
-      <c r="Q11" s="96"/>
+      <c r="Q11" s="95"/>
       <c r="R11"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>491</v>
       </c>
-      <c r="B12" s="91" t="s">
+      <c r="B12" s="90" t="s">
         <v>451</v>
       </c>
       <c r="I12" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="J12" s="91">
+      <c r="J12" s="90">
         <v>2.7000000000000001E-3</v>
       </c>
       <c r="K12" s="14" t="str">
-        <f>IFERROR(VLOOKUP(I12,A:B,2,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v>US</v>
       </c>
-      <c r="P12" s="98" t="s">
+      <c r="P12" s="97" t="s">
         <v>512</v>
       </c>
-      <c r="Q12" s="96">
+      <c r="Q12" s="95">
         <v>0.99230000000000007</v>
       </c>
       <c r="R12"/>
@@ -24850,17 +24833,17 @@
       <c r="A13" s="14" t="s">
         <v>492</v>
       </c>
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="90" t="s">
         <v>451</v>
       </c>
       <c r="I13" s="14" t="s">
         <v>453</v>
       </c>
-      <c r="J13" s="91">
+      <c r="J13" s="90">
         <v>2E-3</v>
       </c>
       <c r="K13" s="14" t="str">
-        <f>IFERROR(VLOOKUP(I13,A:B,2,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v>Japan</v>
       </c>
       <c r="P13"/>
@@ -24871,122 +24854,122 @@
       <c r="A14" s="14" t="s">
         <v>493</v>
       </c>
-      <c r="B14" s="91" t="s">
+      <c r="B14" s="90" t="s">
         <v>505</v>
       </c>
       <c r="I14" s="14" t="s">
         <v>481</v>
       </c>
-      <c r="J14" s="91">
+      <c r="J14" s="90">
         <v>1.4E-3</v>
       </c>
       <c r="K14" s="14" t="str">
-        <f>IFERROR(VLOOKUP(I14,A:B,2,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v>Europe</v>
       </c>
       <c r="P14"/>
-      <c r="Q14" s="99"/>
+      <c r="Q14" s="98"/>
       <c r="R14"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>494</v>
       </c>
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="90" t="s">
         <v>507</v>
       </c>
       <c r="I15" s="14" t="s">
         <v>486</v>
       </c>
-      <c r="J15" s="91">
+      <c r="J15" s="90">
         <v>1E-3</v>
       </c>
       <c r="K15" s="14" t="str">
-        <f>IFERROR(VLOOKUP(I15,A:B,2,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v>Europe</v>
       </c>
       <c r="P15"/>
-      <c r="Q15" s="99"/>
+      <c r="Q15" s="98"/>
       <c r="R15"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>495</v>
       </c>
-      <c r="B16" s="91" t="s">
+      <c r="B16" s="90" t="s">
         <v>505</v>
       </c>
       <c r="I16" s="14" t="s">
         <v>485</v>
       </c>
-      <c r="J16" s="91">
+      <c r="J16" s="90">
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="K16" s="14" t="str">
-        <f>IFERROR(VLOOKUP(I16,A:B,2,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v>Europe</v>
       </c>
       <c r="P16"/>
-      <c r="Q16" s="99"/>
+      <c r="Q16" s="98"/>
       <c r="R16"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>452</v>
       </c>
-      <c r="B17" s="91" t="s">
+      <c r="B17" s="90" t="s">
         <v>452</v>
       </c>
       <c r="I17" s="14" t="s">
         <v>532</v>
       </c>
-      <c r="J17" s="91">
+      <c r="J17" s="90">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="K17" s="14" t="str">
-        <f>IFERROR(VLOOKUP(I17,A:B,2,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="P17"/>
-      <c r="Q17" s="99"/>
+      <c r="Q17" s="98"/>
       <c r="R17"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>496</v>
       </c>
-      <c r="B18" s="91" t="s">
+      <c r="B18" s="90" t="s">
         <v>451</v>
       </c>
       <c r="I18" s="14" t="s">
         <v>501</v>
       </c>
-      <c r="J18" s="91">
+      <c r="J18" s="90">
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="K18" s="14" t="str">
-        <f>IFERROR(VLOOKUP(I18,A:B,2,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v>Asia</v>
       </c>
       <c r="P18"/>
-      <c r="Q18" s="99"/>
+      <c r="Q18" s="98"/>
       <c r="R18"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>497</v>
       </c>
-      <c r="B19" s="91" t="s">
+      <c r="B19" s="90" t="s">
         <v>451</v>
       </c>
       <c r="I19" s="14" t="s">
         <v>526</v>
       </c>
-      <c r="J19" s="91">
+      <c r="J19" s="90">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="K19" s="14" t="str">
-        <f>IFERROR(VLOOKUP(I19,A:B,2,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v>Asia</v>
       </c>
     </row>
@@ -24994,17 +24977,17 @@
       <c r="A20" s="14" t="s">
         <v>498</v>
       </c>
-      <c r="B20" s="91" t="s">
+      <c r="B20" s="90" t="s">
         <v>506</v>
       </c>
       <c r="I20" s="14" t="s">
         <v>525</v>
       </c>
-      <c r="J20" s="91">
+      <c r="J20" s="90">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="K20" s="14" t="str">
-        <f>IFERROR(VLOOKUP(I20,A:B,2,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v>Asia</v>
       </c>
     </row>
@@ -25012,17 +24995,17 @@
       <c r="A21" s="14" t="s">
         <v>499</v>
       </c>
-      <c r="B21" s="91" t="s">
+      <c r="B21" s="90" t="s">
         <v>451</v>
       </c>
       <c r="I21" s="14" t="s">
         <v>487</v>
       </c>
-      <c r="J21" s="91">
+      <c r="J21" s="90">
         <v>1E-4</v>
       </c>
       <c r="K21" s="14" t="str">
-        <f>IFERROR(VLOOKUP(I21,A:B,2,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v>Europe</v>
       </c>
     </row>
@@ -25030,12 +25013,12 @@
       <c r="A22" s="14" t="s">
         <v>500</v>
       </c>
-      <c r="B22" s="91" t="s">
+      <c r="B22" s="90" t="s">
         <v>451</v>
       </c>
-      <c r="J22" s="91"/>
+      <c r="J22" s="90"/>
       <c r="K22" s="14" t="str">
-        <f>IFERROR(VLOOKUP(I22,A:B,2,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -25043,28 +25026,28 @@
       <c r="A23" s="14" t="s">
         <v>501</v>
       </c>
-      <c r="B23" s="91" t="s">
+      <c r="B23" s="90" t="s">
         <v>505</v>
       </c>
-      <c r="J23" s="91"/>
+      <c r="J23" s="90"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>502</v>
       </c>
-      <c r="B24" s="91" t="s">
+      <c r="B24" s="90" t="s">
         <v>505</v>
       </c>
-      <c r="J24" s="91"/>
+      <c r="J24" s="90"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>503</v>
       </c>
-      <c r="B25" s="91" t="s">
+      <c r="B25" s="90" t="s">
         <v>505</v>
       </c>
-      <c r="J25" s="91"/>
+      <c r="J25" s="90"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
@@ -25073,7 +25056,7 @@
       <c r="B26" s="14" t="s">
         <v>458</v>
       </c>
-      <c r="J26" s="91"/>
+      <c r="J26" s="90"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
@@ -25082,7 +25065,7 @@
       <c r="B27" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="J27" s="91"/>
+      <c r="J27" s="90"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -25182,21 +25165,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D95AC4467A64E54FAB628610D0FE135F" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="79e84842eaddaeb917644b39e1597e3c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e8f9595b-0d5a-46b2-8488-c972c1ea4246" xmlns:ns4="6bcbbac3-d60f-4c54-b2b4-d245c065548d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bb8f6ae9099bbec0b468ebfdbf5b501b" ns3:_="" ns4:_="">
     <xsd:import namespace="e8f9595b-0d5a-46b2-8488-c972c1ea4246"/>
@@ -25419,32 +25387,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DB5870C-189D-475E-8E58-449C30115ACA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{401ADED5-CC5A-4072-B36A-6DA217C5A368}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6bcbbac3-d60f-4c54-b2b4-d245c065548d"/>
-    <ds:schemaRef ds:uri="e8f9595b-0d5a-46b2-8488-c972c1ea4246"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11321DBA-FDAB-45E8-A045-E3E44A7AE235}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25461,4 +25419,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{401ADED5-CC5A-4072-B36A-6DA217C5A368}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="e8f9595b-0d5a-46b2-8488-c972c1ea4246"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6bcbbac3-d60f-4c54-b2b4-d245c065548d"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DB5870C-189D-475E-8E58-449C30115ACA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/input/Watchlist.xlsx
+++ b/input/Watchlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssoma\OneDrive - Bayer\Personal Data-R90PQ30R\Analytics\us-stocks-analysis\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="724" documentId="13_ncr:1_{A259AFBD-2F1F-43A4-8040-58927886A03B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{485B905D-B7D0-4474-ADD9-EE244A370B1C}"/>
+  <xr:revisionPtr revIDLastSave="725" documentId="13_ncr:1_{A259AFBD-2F1F-43A4-8040-58927886A03B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{F64513F3-B6FE-425D-A1A0-69F1C0DAC71B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fund List" sheetId="1" r:id="rId1"/>
@@ -2718,7 +2718,7 @@
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2913,7 +2913,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2922,6 +2921,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -4332,6 +4333,52 @@
     <v>1</v>
   </rv>
   <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1n26h&amp;q=ARCX%3aAGG&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="3">
+    <v>en-US</v>
+    <v>a1n26h</v>
+    <v>268435456</v>
+    <v>268435459</v>
+    <v>1</v>
+    <v>5</v>
+    <v>iShares:Core US Agg Bd (ARCX:AGG)</v>
+    <v>6</v>
+    <v>7</v>
+    <v>Finance</v>
+    <v>8</v>
+    <v>119.63</v>
+    <v>105.56</v>
+    <v>1.0009999999999999</v>
+    <v>0.19</v>
+    <v>0</v>
+    <v>1.591E-3</v>
+    <v>0</v>
+    <v>USD</v>
+    <v>NYSE Arca</v>
+    <v>ARCX</v>
+    <v>4.0000000000000002E-4</v>
+    <v>119.73</v>
+    <v>ETF</v>
+    <v>44049.833336654687</v>
+    <v>3</v>
+    <v>119.53</v>
+    <v>79985963525.529999</v>
+    <v>iShares:Core US Agg Bd</v>
+    <v>119.59</v>
+    <v>119.39</v>
+    <v>119.58</v>
+    <v>119.58</v>
+    <v>AGG</v>
+    <v>iShares:Core US Agg Bd (ARCX:AGG)</v>
+    <v>4608572</v>
+    <v>6504324</v>
+  </rv>
+  <rv s="2">
+    <v>4</v>
+  </rv>
+  <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1oopr&amp;q=XNAS%3aBND&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
@@ -4361,7 +4408,7 @@
     <v>89.58</v>
     <v>ETF</v>
     <v>44049.842604166668</v>
-    <v>3</v>
+    <v>6</v>
     <v>89.44</v>
     <v>56046091916</v>
     <v>Vanguard Tot Bd;ETF</v>
@@ -4373,52 +4420,6 @@
     <v>Vanguard Tot Bd;ETF (XNAS:BND)</v>
     <v>3933404</v>
     <v>3826897</v>
-  </rv>
-  <rv s="2">
-    <v>4</v>
-  </rv>
-  <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=a1n26h&amp;q=ARCX%3aAGG&amp;form=skydnc</v>
-    <v>Learn more on Bing</v>
-  </rv>
-  <rv s="3">
-    <v>en-US</v>
-    <v>a1n26h</v>
-    <v>268435456</v>
-    <v>268435459</v>
-    <v>1</v>
-    <v>5</v>
-    <v>iShares:Core US Agg Bd (ARCX:AGG)</v>
-    <v>6</v>
-    <v>7</v>
-    <v>Finance</v>
-    <v>8</v>
-    <v>119.63</v>
-    <v>105.56</v>
-    <v>1.0009999999999999</v>
-    <v>0.19</v>
-    <v>0</v>
-    <v>1.591E-3</v>
-    <v>0</v>
-    <v>USD</v>
-    <v>NYSE Arca</v>
-    <v>ARCX</v>
-    <v>4.0000000000000002E-4</v>
-    <v>119.73</v>
-    <v>ETF</v>
-    <v>44049.833336654687</v>
-    <v>6</v>
-    <v>119.53</v>
-    <v>79985963525.529999</v>
-    <v>iShares:Core US Agg Bd</v>
-    <v>119.59</v>
-    <v>119.39</v>
-    <v>119.58</v>
-    <v>119.58</v>
-    <v>AGG</v>
-    <v>iShares:Core US Agg Bd (ARCX:AGG)</v>
-    <v>4608572</v>
-    <v>6504324</v>
   </rv>
   <rv s="2">
     <v>7</v>
@@ -4470,6 +4471,52 @@
     <v>10</v>
   </rv>
   <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1tqp2&amp;q=ARCX%3aGDX&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="3">
+    <v>en-US</v>
+    <v>a1tqp2</v>
+    <v>268435456</v>
+    <v>268435459</v>
+    <v>1</v>
+    <v>5</v>
+    <v>VnEck Vctrs:Gold Miners (ARCX:GDX)</v>
+    <v>6</v>
+    <v>7</v>
+    <v>Finance</v>
+    <v>8</v>
+    <v>45.78</v>
+    <v>16.18</v>
+    <v>0.97650000000000003</v>
+    <v>-0.24</v>
+    <v>-2.2599999999999999E-4</v>
+    <v>-5.3959999999999998E-3</v>
+    <v>-0.01</v>
+    <v>USD</v>
+    <v>NYSE Arca</v>
+    <v>ARCX</v>
+    <v>5.3E-3</v>
+    <v>45.32</v>
+    <v>ETF</v>
+    <v>44049.8426464</v>
+    <v>12</v>
+    <v>43.58</v>
+    <v>18410347875.619999</v>
+    <v>VnEck Vctrs:Gold Miners</v>
+    <v>45.32</v>
+    <v>44.48</v>
+    <v>44.24</v>
+    <v>44.23</v>
+    <v>GDX</v>
+    <v>VnEck Vctrs:Gold Miners (ARCX:GDX)</v>
+    <v>27587673</v>
+    <v>33246748</v>
+  </rv>
+  <rv s="2">
+    <v>13</v>
+  </rv>
+  <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a233ur&amp;q=ARCX%3aSLV&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
@@ -4499,7 +4546,7 @@
     <v>26.9</v>
     <v>ETF</v>
     <v>44049.844635740628</v>
-    <v>12</v>
+    <v>15</v>
     <v>25.88</v>
     <v>13669514095.42</v>
     <v>IShares:Silver Trust</v>
@@ -4511,52 +4558,6 @@
     <v>IShares:Silver Trust (ARCX:SLV)</v>
     <v>106266628</v>
     <v>54873834</v>
-  </rv>
-  <rv s="2">
-    <v>13</v>
-  </rv>
-  <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=a1tqp2&amp;q=ARCX%3aGDX&amp;form=skydnc</v>
-    <v>Learn more on Bing</v>
-  </rv>
-  <rv s="3">
-    <v>en-US</v>
-    <v>a1tqp2</v>
-    <v>268435456</v>
-    <v>268435459</v>
-    <v>1</v>
-    <v>5</v>
-    <v>VnEck Vctrs:Gold Miners (ARCX:GDX)</v>
-    <v>6</v>
-    <v>7</v>
-    <v>Finance</v>
-    <v>8</v>
-    <v>45.78</v>
-    <v>16.18</v>
-    <v>0.97650000000000003</v>
-    <v>-0.24</v>
-    <v>-2.2599999999999999E-4</v>
-    <v>-5.3959999999999998E-3</v>
-    <v>-0.01</v>
-    <v>USD</v>
-    <v>NYSE Arca</v>
-    <v>ARCX</v>
-    <v>5.3E-3</v>
-    <v>45.32</v>
-    <v>ETF</v>
-    <v>44049.8426464</v>
-    <v>15</v>
-    <v>43.58</v>
-    <v>18410347875.619999</v>
-    <v>VnEck Vctrs:Gold Miners</v>
-    <v>45.32</v>
-    <v>44.48</v>
-    <v>44.24</v>
-    <v>44.23</v>
-    <v>GDX</v>
-    <v>VnEck Vctrs:Gold Miners (ARCX:GDX)</v>
-    <v>27587673</v>
-    <v>33246748</v>
   </rv>
   <rv s="2">
     <v>16</v>
@@ -4929,6 +4930,98 @@
     <v>40</v>
   </rv>
   <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1vf8m&amp;q=ARCX%3aIHI&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="3">
+    <v>en-US</v>
+    <v>a1vf8m</v>
+    <v>268435456</v>
+    <v>268435459</v>
+    <v>1</v>
+    <v>5</v>
+    <v>iShares:US Med Dev ETF (ARCX:IHI)</v>
+    <v>6</v>
+    <v>7</v>
+    <v>Finance</v>
+    <v>8</v>
+    <v>296.755</v>
+    <v>183.25</v>
+    <v>1.0275000000000001</v>
+    <v>-3.76</v>
+    <v>-8.5470000000000001E-4</v>
+    <v>-1.2692000000000002E-2</v>
+    <v>-0.25</v>
+    <v>USD</v>
+    <v>NYSE Arca</v>
+    <v>ARCX</v>
+    <v>4.3E-3</v>
+    <v>294.26</v>
+    <v>ETF</v>
+    <v>44049.833341180471</v>
+    <v>42</v>
+    <v>289.60000000000002</v>
+    <v>7783988070.3500004</v>
+    <v>iShares:US Med Dev ETF</v>
+    <v>294.14</v>
+    <v>296.25</v>
+    <v>292.49</v>
+    <v>292.24</v>
+    <v>IHI</v>
+    <v>iShares:US Med Dev ETF (ARCX:IHI)</v>
+    <v>142598</v>
+    <v>263353</v>
+  </rv>
+  <rv s="2">
+    <v>43</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a268hw&amp;q=ARCX%3aXLV&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="3">
+    <v>en-US</v>
+    <v>a268hw</v>
+    <v>268435456</v>
+    <v>268435459</v>
+    <v>1</v>
+    <v>5</v>
+    <v>Sel Sector:H Care SPDR (ARCX:XLV)</v>
+    <v>6</v>
+    <v>7</v>
+    <v>Finance</v>
+    <v>8</v>
+    <v>107.53</v>
+    <v>73.540000000000006</v>
+    <v>0.96240000000000003</v>
+    <v>-0.63</v>
+    <v>6.6040000000000001E-4</v>
+    <v>-5.9080000000000001E-3</v>
+    <v>7.0000000000000007E-2</v>
+    <v>USD</v>
+    <v>NYSE Arca</v>
+    <v>ARCX</v>
+    <v>1.4000000000000002E-3</v>
+    <v>106.96</v>
+    <v>ETF</v>
+    <v>44049.84214303203</v>
+    <v>45</v>
+    <v>105.3</v>
+    <v>23991476873.860001</v>
+    <v>Sel Sector:H Care SPDR</v>
+    <v>106.44</v>
+    <v>106.63</v>
+    <v>106</v>
+    <v>106.07</v>
+    <v>XLV</v>
+    <v>Sel Sector:H Care SPDR (ARCX:XLV)</v>
+    <v>5322404</v>
+    <v>7331933</v>
+  </rv>
+  <rv s="2">
+    <v>46</v>
+  </rv>
+  <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1sv3m&amp;q=ARCX%3aFHLC&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
@@ -4958,7 +5051,7 @@
     <v>53.2</v>
     <v>ETF</v>
     <v>44049.833341492966</v>
-    <v>42</v>
+    <v>48</v>
     <v>52.488199999999999</v>
     <v>2010030134.77</v>
     <v>Fidelity MSCI Hlth Care</v>
@@ -4972,7 +5065,7 @@
     <v>176699</v>
   </rv>
   <rv s="2">
-    <v>43</v>
+    <v>49</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a25bqh&amp;q=ARCX%3aVHT&amp;form=skydnc</v>
@@ -5004,7 +5097,7 @@
     <v>206.34</v>
     <v>ETF</v>
     <v>44049.833337603908</v>
-    <v>45</v>
+    <v>51</v>
     <v>203.125</v>
     <v>10910012449</v>
     <v>Vanguard Hlth Cr Idx;ETF</v>
@@ -5018,99 +5111,93 @@
     <v>247406</v>
   </rv>
   <rv s="2">
-    <v>46</v>
+    <v>52</v>
   </rv>
   <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=a268hw&amp;q=ARCX%3aXLV&amp;form=skydnc</v>
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a7lbmw&amp;q=Fidelity+Pacific+Basin&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="3">
+  <rv s="1">
     <v>en-US</v>
-    <v>a268hw</v>
+    <v>a7lbmw</v>
     <v>268435456</v>
-    <v>268435459</v>
+    <v>268435461</v>
     <v>1</v>
+    <v>0</v>
+    <v>Fidelity Pacific Basin</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>0.12</v>
+    <v>3.1530000000000004E-3</v>
+    <v>US</v>
+    <v>USD</v>
+    <v>1.11E-2</v>
+    <v>Mutual Fund</v>
+    <v>44048</v>
+    <v>44049.209566421872</v>
+    <v>54</v>
+    <v>Fidelity Pacific Basin</v>
+    <v>997137586.61000001</v>
+    <v>38.06</v>
+    <v>38.18</v>
     <v>5</v>
-    <v>Sel Sector:H Care SPDR (ARCX:XLV)</v>
-    <v>6</v>
-    <v>7</v>
+    <v>6.3836000000000004E-2</v>
+    <v>8.9189999999999998E-3</v>
+    <v>0.21285699999999999</v>
+    <v>0.19303300000000001</v>
+    <v>9.8711999999999994E-2</v>
+    <v>0.104993</v>
+    <v>8.1089000000000008E-2</v>
+    <v>FPBFX</v>
+    <v>Fidelity Pacific Basin</v>
+  </rv>
+  <rv s="2">
+    <v>55</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a8msgh&amp;q=Fidelity+Intl+Growth&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>en-US</v>
+    <v>a8msgh</v>
+    <v>268435456</v>
+    <v>268435461</v>
+    <v>1</v>
+    <v>0</v>
+    <v>Fidelity Intl Growth</v>
+    <v>2</v>
+    <v>3</v>
     <v>Finance</v>
-    <v>8</v>
-    <v>107.53</v>
-    <v>73.540000000000006</v>
-    <v>0.96240000000000003</v>
-    <v>-0.63</v>
-    <v>6.6040000000000001E-4</v>
-    <v>-5.9080000000000001E-3</v>
-    <v>7.0000000000000007E-2</v>
+    <v>4</v>
+    <v>0.13</v>
+    <v>7.9030000000000003E-3</v>
+    <v>US</v>
     <v>USD</v>
-    <v>NYSE Arca</v>
-    <v>ARCX</v>
-    <v>1.4000000000000002E-3</v>
-    <v>106.96</v>
-    <v>ETF</v>
-    <v>44049.84214303203</v>
-    <v>48</v>
-    <v>105.3</v>
-    <v>23991476873.860001</v>
-    <v>Sel Sector:H Care SPDR</v>
-    <v>106.44</v>
-    <v>106.63</v>
-    <v>106</v>
-    <v>106.07</v>
-    <v>XLV</v>
-    <v>Sel Sector:H Care SPDR (ARCX:XLV)</v>
-    <v>5322404</v>
-    <v>7331933</v>
+    <v>1.03E-2</v>
+    <v>Mutual Fund</v>
+    <v>44048</v>
+    <v>44049.212667552347</v>
+    <v>57</v>
+    <v>Fidelity Intl Growth</v>
+    <v>1294994461.3499999</v>
+    <v>16.45</v>
+    <v>16.579999999999998</v>
+    <v>4.6497999999999999</v>
+    <v>4.6452E-2</v>
+    <v>-1.1578E-2</v>
+    <v>0.133299</v>
+    <v>0.14548</v>
+    <v>8.7362999999999996E-2</v>
+    <v>7.4273999999999993E-2</v>
+    <v>1.8204999999999999E-2</v>
+    <v>FIGFX</v>
+    <v>Fidelity Intl Growth</v>
   </rv>
   <rv s="2">
-    <v>49</v>
-  </rv>
-  <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=a1vf8m&amp;q=ARCX%3aIHI&amp;form=skydnc</v>
-    <v>Learn more on Bing</v>
-  </rv>
-  <rv s="3">
-    <v>en-US</v>
-    <v>a1vf8m</v>
-    <v>268435456</v>
-    <v>268435459</v>
-    <v>1</v>
-    <v>5</v>
-    <v>iShares:US Med Dev ETF (ARCX:IHI)</v>
-    <v>6</v>
-    <v>7</v>
-    <v>Finance</v>
-    <v>8</v>
-    <v>296.755</v>
-    <v>183.25</v>
-    <v>1.0275000000000001</v>
-    <v>-3.76</v>
-    <v>-8.5470000000000001E-4</v>
-    <v>-1.2692000000000002E-2</v>
-    <v>-0.25</v>
-    <v>USD</v>
-    <v>NYSE Arca</v>
-    <v>ARCX</v>
-    <v>4.3E-3</v>
-    <v>294.26</v>
-    <v>ETF</v>
-    <v>44049.833341180471</v>
-    <v>51</v>
-    <v>289.60000000000002</v>
-    <v>7783988070.3500004</v>
-    <v>iShares:US Med Dev ETF</v>
-    <v>294.14</v>
-    <v>296.25</v>
-    <v>292.49</v>
-    <v>292.24</v>
-    <v>IHI</v>
-    <v>iShares:US Med Dev ETF (ARCX:IHI)</v>
-    <v>142598</v>
-    <v>263353</v>
-  </rv>
-  <rv s="2">
-    <v>52</v>
+    <v>58</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=brfebh&amp;q=XNAS%3aWCLD&amp;form=skydnc</v>
@@ -5138,7 +5225,7 @@
     <v>42.74</v>
     <v>ETF</v>
     <v>44049.833233784375</v>
-    <v>54</v>
+    <v>60</v>
     <v>41.56</v>
     <v>642471573.85000002</v>
     <v>WisdomTree:Cloud Cmptng</v>
@@ -5151,7 +5238,7 @@
     <v>791812</v>
   </rv>
   <rv s="2">
-    <v>55</v>
+    <v>61</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=bprn6h&amp;q=XNAS%3aCLOU&amp;form=skydnc</v>
@@ -5182,7 +5269,7 @@
     <v>23.3</v>
     <v>ETF</v>
     <v>44049.83334354141</v>
-    <v>57</v>
+    <v>63</v>
     <v>22.75</v>
     <v>1025570756.61</v>
     <v>Glbl X Cloud Computing</v>
@@ -5196,7 +5283,7 @@
     <v>1310798</v>
   </rv>
   <rv s="2">
-    <v>58</v>
+    <v>64</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a232h7&amp;q=XNAS%3aSKYY&amp;form=skydnc</v>
@@ -5228,7 +5315,7 @@
     <v>79.25</v>
     <v>ETF</v>
     <v>44049.833350717185</v>
-    <v>60</v>
+    <v>66</v>
     <v>78.040000000000006</v>
     <v>4744149675.9840002</v>
     <v>Frst Tr II:CloudComp</v>
@@ -5242,7 +5329,7 @@
     <v>543402</v>
   </rv>
   <rv s="2">
-    <v>61</v>
+    <v>67</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1nq3m&amp;q=BATS%3aARKG&amp;form=skydnc</v>
@@ -5274,7 +5361,7 @@
     <v>58.704999999999998</v>
     <v>ETF</v>
     <v>44049.839409722219</v>
-    <v>63</v>
+    <v>69</v>
     <v>57.320900000000002</v>
     <v>1589789769.7579999</v>
     <v>ARK Genomic Revolution</v>
@@ -5288,7 +5375,99 @@
     <v>874565</v>
   </rv>
   <rv s="2">
-    <v>64</v>
+    <v>70</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1nq9c&amp;q=BATS%3aARKQ&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="3">
+    <v>en-US</v>
+    <v>a1nq9c</v>
+    <v>268435456</v>
+    <v>268435459</v>
+    <v>1</v>
+    <v>5</v>
+    <v>ARK Autonomous Tch &amp; Rob (BATS:ARKQ)</v>
+    <v>6</v>
+    <v>7</v>
+    <v>Finance</v>
+    <v>8</v>
+    <v>54.96</v>
+    <v>26.19</v>
+    <v>1.2032</v>
+    <v>-0.85</v>
+    <v>1.515E-4</v>
+    <v>-1.5466000000000001E-2</v>
+    <v>8.2000000000000007E-3</v>
+    <v>USD</v>
+    <v>CBOE BZX Exchange</v>
+    <v>BATS</v>
+    <v>7.4999999999999997E-3</v>
+    <v>54.65</v>
+    <v>ETF</v>
+    <v>44049.833337337499</v>
+    <v>72</v>
+    <v>53.81</v>
+    <v>447869134.74000001</v>
+    <v>ARK Autonomous Tch &amp; Rob</v>
+    <v>54.56</v>
+    <v>54.96</v>
+    <v>54.11</v>
+    <v>54.118200000000002</v>
+    <v>ARKQ</v>
+    <v>ARK Autonomous Tch &amp; Rob (BATS:ARKQ)</v>
+    <v>212365</v>
+    <v>214191</v>
+  </rv>
+  <rv s="2">
+    <v>73</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1nq6h&amp;q=ARCX%3aARKK&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="3">
+    <v>en-US</v>
+    <v>a1nq6h</v>
+    <v>268435456</v>
+    <v>268435459</v>
+    <v>1</v>
+    <v>5</v>
+    <v>ARK Innovation (ARCX:ARKK)</v>
+    <v>6</v>
+    <v>7</v>
+    <v>Finance</v>
+    <v>8</v>
+    <v>85.83</v>
+    <v>33</v>
+    <v>1.4745999999999999</v>
+    <v>-0.8</v>
+    <v>4.7149999999999997E-4</v>
+    <v>-9.3430000000000006E-3</v>
+    <v>0.04</v>
+    <v>USD</v>
+    <v>NYSE Arca</v>
+    <v>ARCX</v>
+    <v>7.4999999999999997E-3</v>
+    <v>86.11</v>
+    <v>ETF</v>
+    <v>44049.836747685185</v>
+    <v>75</v>
+    <v>84.394999999999996</v>
+    <v>6132346915.7229996</v>
+    <v>ARK Innovation</v>
+    <v>85.6</v>
+    <v>85.63</v>
+    <v>84.83</v>
+    <v>84.87</v>
+    <v>ARKK</v>
+    <v>ARK Innovation (ARCX:ARKK)</v>
+    <v>1549083</v>
+    <v>1886477</v>
+  </rv>
+  <rv s="2">
+    <v>76</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1nqf2&amp;q=ARCX%3aARKW&amp;form=skydnc</v>
@@ -5320,7 +5499,7 @@
     <v>103.6174</v>
     <v>ETF</v>
     <v>44049.843611111108</v>
-    <v>66</v>
+    <v>78</v>
     <v>102.28</v>
     <v>1919966486.9979999</v>
     <v>ARK Next Gen Int ETF</v>
@@ -5334,53 +5513,7 @@
     <v>790937</v>
   </rv>
   <rv s="2">
-    <v>67</v>
-  </rv>
-  <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=a1nq6h&amp;q=ARCX%3aARKK&amp;form=skydnc</v>
-    <v>Learn more on Bing</v>
-  </rv>
-  <rv s="3">
-    <v>en-US</v>
-    <v>a1nq6h</v>
-    <v>268435456</v>
-    <v>268435459</v>
-    <v>1</v>
-    <v>5</v>
-    <v>ARK Innovation (ARCX:ARKK)</v>
-    <v>6</v>
-    <v>7</v>
-    <v>Finance</v>
-    <v>8</v>
-    <v>85.83</v>
-    <v>33</v>
-    <v>1.4745999999999999</v>
-    <v>-0.8</v>
-    <v>4.7149999999999997E-4</v>
-    <v>-9.3430000000000006E-3</v>
-    <v>0.04</v>
-    <v>USD</v>
-    <v>NYSE Arca</v>
-    <v>ARCX</v>
-    <v>7.4999999999999997E-3</v>
-    <v>86.11</v>
-    <v>ETF</v>
-    <v>44049.836747685185</v>
-    <v>69</v>
-    <v>84.394999999999996</v>
-    <v>6132346915.7229996</v>
-    <v>ARK Innovation</v>
-    <v>85.6</v>
-    <v>85.63</v>
-    <v>84.83</v>
-    <v>84.87</v>
-    <v>ARKK</v>
-    <v>ARK Innovation (ARCX:ARKK)</v>
-    <v>1549083</v>
-    <v>1886477</v>
-  </rv>
-  <rv s="2">
-    <v>70</v>
+    <v>79</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=bosz7w&amp;q=ARCX%3aARKF&amp;form=skydnc</v>
@@ -5410,7 +5543,7 @@
     <v>38.545000000000002</v>
     <v>ETF</v>
     <v>44049.843298611115</v>
-    <v>72</v>
+    <v>81</v>
     <v>38.119999999999997</v>
     <v>347308305.00999999</v>
     <v>Ark Fintech Innovation</v>
@@ -5424,53 +5557,7 @@
     <v>370798</v>
   </rv>
   <rv s="2">
-    <v>73</v>
-  </rv>
-  <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=a1nq9c&amp;q=BATS%3aARKQ&amp;form=skydnc</v>
-    <v>Learn more on Bing</v>
-  </rv>
-  <rv s="3">
-    <v>en-US</v>
-    <v>a1nq9c</v>
-    <v>268435456</v>
-    <v>268435459</v>
-    <v>1</v>
-    <v>5</v>
-    <v>ARK Autonomous Tch &amp; Rob (BATS:ARKQ)</v>
-    <v>6</v>
-    <v>7</v>
-    <v>Finance</v>
-    <v>8</v>
-    <v>54.96</v>
-    <v>26.19</v>
-    <v>1.2032</v>
-    <v>-0.85</v>
-    <v>1.515E-4</v>
-    <v>-1.5466000000000001E-2</v>
-    <v>8.2000000000000007E-3</v>
-    <v>USD</v>
-    <v>CBOE BZX Exchange</v>
-    <v>BATS</v>
-    <v>7.4999999999999997E-3</v>
-    <v>54.65</v>
-    <v>ETF</v>
-    <v>44049.833337337499</v>
-    <v>75</v>
-    <v>53.81</v>
-    <v>447869134.74000001</v>
-    <v>ARK Autonomous Tch &amp; Rob</v>
-    <v>54.56</v>
-    <v>54.96</v>
-    <v>54.11</v>
-    <v>54.118200000000002</v>
-    <v>ARKQ</v>
-    <v>ARK Autonomous Tch &amp; Rob (BATS:ARKQ)</v>
-    <v>212365</v>
-    <v>214191</v>
-  </rv>
-  <rv s="2">
-    <v>76</v>
+    <v>82</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1rqkr&amp;q=BATS%3aEFG&amp;form=skydnc</v>
@@ -5502,7 +5589,7 @@
     <v>88.48</v>
     <v>ETF</v>
     <v>44049.833340717189</v>
-    <v>78</v>
+    <v>84</v>
     <v>87.72</v>
     <v>7994332434.7600002</v>
     <v>iShares:MSCI EAFE Gro</v>
@@ -5516,7 +5603,7 @@
     <v>395292</v>
   </rv>
   <rv s="2">
-    <v>79</v>
+    <v>85</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1w6ww&amp;q=ARCX%3aJKH&amp;form=skydnc</v>
@@ -5548,7 +5635,7 @@
     <v>322.83</v>
     <v>ETF</v>
     <v>44049.833338680466</v>
-    <v>81</v>
+    <v>87</v>
     <v>317.71929999999998</v>
     <v>929475920.65999997</v>
     <v>iShares:Mornstr MC-Gro</v>
@@ -5562,7 +5649,7 @@
     <v>38910</v>
   </rv>
   <rv s="2">
-    <v>82</v>
+    <v>88</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a25gmw&amp;q=ARCX%3aVNQ&amp;form=skydnc</v>
@@ -5594,7 +5681,7 @@
     <v>81.454999999999998</v>
     <v>ETF</v>
     <v>44049.833969478903</v>
-    <v>84</v>
+    <v>90</v>
     <v>80.709999999999994</v>
     <v>28295956262</v>
     <v>Vanguard RE Idx;ETF</v>
@@ -5608,7 +5695,7 @@
     <v>4529930</v>
   </rv>
   <rv s="2">
-    <v>85</v>
+    <v>91</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a266rw&amp;q=ARCX%3aXHB&amp;form=skydnc</v>
@@ -5640,7 +5727,7 @@
     <v>50.87</v>
     <v>ETF</v>
     <v>44049.833339409372</v>
-    <v>87</v>
+    <v>93</v>
     <v>50.45</v>
     <v>1012013660.28</v>
     <v>SPDR S&amp;P Homebuilders</v>
@@ -5654,7 +5741,7 @@
     <v>2361511</v>
   </rv>
   <rv s="2">
-    <v>88</v>
+    <v>94</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=bjq3u2&amp;q=Fidelity+ZERO+Lrg+Cap+Ix&amp;form=skydnc</v>
@@ -5680,7 +5767,7 @@
     <v>Mutual Fund</v>
     <v>44048</v>
     <v>44049.220729801564</v>
-    <v>90</v>
+    <v>96</v>
     <v>Fidelity ZERO Lrg Cap Ix</v>
     <v>2180973903.3600001</v>
     <v>11.79</v>
@@ -5697,7 +5784,7 @@
     <v>Fidelity ZERO Lrg Cap Ix</v>
   </rv>
   <rv s="2">
-    <v>91</v>
+    <v>97</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1vwrw&amp;q=ARCX%3aIVV&amp;form=skydnc</v>
@@ -5729,7 +5816,7 @@
     <v>335.8</v>
     <v>ETF</v>
     <v>44049.84206084453</v>
-    <v>93</v>
+    <v>99</v>
     <v>332.48</v>
     <v>206131307981.39001</v>
     <v>iShares:Core S&amp;P 500</v>
@@ -5743,7 +5830,7 @@
     <v>3422388</v>
   </rv>
   <rv s="2">
-    <v>94</v>
+    <v>100</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a25hm7&amp;q=ARCX%3aVOO&amp;form=skydnc</v>
@@ -5775,7 +5862,7 @@
     <v>307.2756</v>
     <v>ETF</v>
     <v>44049.843252314815</v>
-    <v>96</v>
+    <v>102</v>
     <v>304.25</v>
     <v>147733916353</v>
     <v>Vanguard 500 Idx;ETF</v>
@@ -5789,7 +5876,53 @@
     <v>3292851</v>
   </rv>
   <rv s="2">
-    <v>97</v>
+    <v>103</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a235f2&amp;q=XNAS%3aSMH&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="3">
+    <v>en-US</v>
+    <v>a235f2</v>
+    <v>268435456</v>
+    <v>268435459</v>
+    <v>1</v>
+    <v>5</v>
+    <v>VnEck Vctrs:Semicnd ETF (XNAS:SMH)</v>
+    <v>6</v>
+    <v>7</v>
+    <v>Finance</v>
+    <v>8</v>
+    <v>173.09</v>
+    <v>96</v>
+    <v>1.1674</v>
+    <v>-0.3</v>
+    <v>0</v>
+    <v>-1.7460000000000002E-3</v>
+    <v>0</v>
+    <v>USD</v>
+    <v>Nasdaq Stock Market</v>
+    <v>XNAS</v>
+    <v>3.4999999999999996E-3</v>
+    <v>171.745</v>
+    <v>ETF</v>
+    <v>44049.833391203705</v>
+    <v>105</v>
+    <v>169.74</v>
+    <v>2656727686.5599999</v>
+    <v>VnEck Vctrs:Semicnd ETF</v>
+    <v>171.72</v>
+    <v>171.79</v>
+    <v>171.49</v>
+    <v>171.49</v>
+    <v>SMH</v>
+    <v>VnEck Vctrs:Semicnd ETF (XNAS:SMH)</v>
+    <v>2219090</v>
+    <v>3217747</v>
+  </rv>
+  <rv s="2">
+    <v>106</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a26aur&amp;q=ARCX%3aXSD&amp;form=skydnc</v>
@@ -5821,7 +5954,7 @@
     <v>126.4796</v>
     <v>ETF</v>
     <v>44049.833339212499</v>
-    <v>99</v>
+    <v>108</v>
     <v>125.255</v>
     <v>536082029.20999998</v>
     <v>SPDR S&amp;P Semiconductor</v>
@@ -5835,53 +5968,51 @@
     <v>54488</v>
   </rv>
   <rv s="2">
-    <v>100</v>
+    <v>109</v>
   </rv>
   <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=a235f2&amp;q=XNAS%3aSMH&amp;form=skydnc</v>
+    <v>https://www.bing.com/financeapi/forcetrigger?t=bqf977&amp;q=ARCX%3aIHAK&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="3">
+  <rv s="6">
     <v>en-US</v>
-    <v>a235f2</v>
+    <v>bqf977</v>
     <v>268435456</v>
     <v>268435459</v>
     <v>1</v>
-    <v>5</v>
-    <v>VnEck Vctrs:Semicnd ETF (XNAS:SMH)</v>
+    <v>15</v>
+    <v>iShares:Cybersec &amp; Tech (ARCX:IHAK)</v>
     <v>6</v>
-    <v>7</v>
+    <v>16</v>
     <v>Finance</v>
     <v>8</v>
-    <v>173.09</v>
-    <v>96</v>
-    <v>1.1674</v>
-    <v>-0.3</v>
-    <v>0</v>
-    <v>-1.7460000000000002E-3</v>
-    <v>0</v>
+    <v>34.402799999999999</v>
+    <v>20.36</v>
+    <v>-0.35</v>
+    <v>2.9490000000000001E-4</v>
+    <v>-1.0216000000000001E-2</v>
+    <v>0.01</v>
     <v>USD</v>
-    <v>Nasdaq Stock Market</v>
-    <v>XNAS</v>
-    <v>3.4999999999999996E-3</v>
-    <v>171.745</v>
+    <v>NYSE Arca</v>
+    <v>ARCX</v>
+    <v>34.24</v>
     <v>ETF</v>
-    <v>44049.833391203705</v>
-    <v>102</v>
-    <v>169.74</v>
-    <v>2656727686.5599999</v>
-    <v>VnEck Vctrs:Semicnd ETF</v>
-    <v>171.72</v>
-    <v>171.79</v>
-    <v>171.49</v>
-    <v>171.49</v>
-    <v>SMH</v>
-    <v>VnEck Vctrs:Semicnd ETF (XNAS:SMH)</v>
-    <v>2219090</v>
-    <v>3217747</v>
+    <v>44049.833341990627</v>
+    <v>111</v>
+    <v>33.660800000000002</v>
+    <v>109489372.44</v>
+    <v>iShares:Cybersec &amp; Tech</v>
+    <v>34.15</v>
+    <v>34.26</v>
+    <v>33.909999999999997</v>
+    <v>33.92</v>
+    <v>IHAK</v>
+    <v>iShares:Cybersec &amp; Tech (ARCX:IHAK)</v>
+    <v>84188</v>
+    <v>68142</v>
   </rv>
   <rv s="2">
-    <v>103</v>
+    <v>112</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a267a2&amp;q=ARCX%3aXITK&amp;form=skydnc</v>
@@ -5913,7 +6044,7 @@
     <v>167.35499999999999</v>
     <v>ETF</v>
     <v>44049.833336758595</v>
-    <v>105</v>
+    <v>114</v>
     <v>164.03100000000001</v>
     <v>209748828.72999999</v>
     <v>SPDR FS Innovative Tech</v>
@@ -5927,187 +6058,50 @@
     <v>29849</v>
   </rv>
   <rv s="2">
-    <v>106</v>
+    <v>115</v>
   </rv>
   <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=a267zr&amp;q=ARCX%3aXLK&amp;form=skydnc</v>
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a239nm&amp;q=XNAS%3aSNSR&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
   <rv s="3">
     <v>en-US</v>
-    <v>a267zr</v>
+    <v>a239nm</v>
     <v>268435456</v>
     <v>268435459</v>
     <v>1</v>
     <v>5</v>
-    <v>Sel Sector:Tech SPDR (ARCX:XLK)</v>
+    <v>Glbl X Itrnt of Things (XNAS:SNSR)</v>
     <v>6</v>
     <v>7</v>
     <v>Finance</v>
     <v>8</v>
-    <v>115.49</v>
-    <v>68.099999999999994</v>
-    <v>0.98119999999999996</v>
-    <v>1.66</v>
-    <v>8.6589999999999996E-5</v>
-    <v>1.4582999999999999E-2</v>
-    <v>0.01</v>
+    <v>27.12</v>
+    <v>14.809699999999999</v>
+    <v>1.1518999999999999</v>
+    <v>-0.11</v>
+    <v>-3.7120000000000002E-4</v>
+    <v>-4.0670000000000003E-3</v>
+    <v>-0.01</v>
     <v>USD</v>
-    <v>NYSE Arca</v>
-    <v>ARCX</v>
-    <v>1.4000000000000002E-3</v>
-    <v>115.57</v>
+    <v>Nasdaq Stock Market</v>
+    <v>XNAS</v>
+    <v>6.8999999999999999E-3</v>
+    <v>26.992999999999999</v>
     <v>ETF</v>
-    <v>44049.842522870313</v>
-    <v>108</v>
-    <v>113.52</v>
-    <v>33228536246.509998</v>
-    <v>Sel Sector:Tech SPDR</v>
-    <v>113.77</v>
-    <v>113.83</v>
-    <v>115.49</v>
-    <v>115.5</v>
-    <v>XLK</v>
-    <v>Sel Sector:Tech SPDR (ARCX:XLK)</v>
-    <v>8182648</v>
-    <v>9564996</v>
-  </rv>
-  <rv s="2">
-    <v>109</v>
-  </rv>
-  <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=a25bf2&amp;q=ARCX%3aVGT&amp;form=skydnc</v>
-    <v>Learn more on Bing</v>
-  </rv>
-  <rv s="3">
-    <v>en-US</v>
-    <v>a25bf2</v>
-    <v>268435456</v>
-    <v>268435459</v>
-    <v>1</v>
-    <v>5</v>
-    <v>Vanguard InfoTch Idx;ETF (ARCX:VGT)</v>
-    <v>6</v>
-    <v>7</v>
-    <v>Finance</v>
-    <v>8</v>
-    <v>308.2</v>
-    <v>179.45</v>
-    <v>1.0274000000000001</v>
-    <v>3.66</v>
-    <v>1.9470000000000002E-4</v>
-    <v>1.2017999999999999E-2</v>
-    <v>0.06</v>
-    <v>USD</v>
-    <v>NYSE Arca</v>
-    <v>ARCX</v>
-    <v>1E-3</v>
-    <v>308.47000000000003</v>
-    <v>ETF</v>
-    <v>44049.836701388886</v>
-    <v>111</v>
-    <v>303.39499999999998</v>
-    <v>32755672567</v>
-    <v>Vanguard InfoTch Idx;ETF</v>
-    <v>304.70999999999998</v>
-    <v>304.54000000000002</v>
-    <v>308.2</v>
-    <v>308.26</v>
-    <v>VGT</v>
-    <v>Vanguard InfoTch Idx;ETF (ARCX:VGT)</v>
-    <v>552930</v>
-    <v>757056</v>
-  </rv>
-  <rv s="2">
-    <v>112</v>
-  </rv>
-  <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=a1tf77&amp;q=ARCX%3aFTEC&amp;form=skydnc</v>
-    <v>Learn more on Bing</v>
-  </rv>
-  <rv s="3">
-    <v>en-US</v>
-    <v>a1tf77</v>
-    <v>268435456</v>
-    <v>268435459</v>
-    <v>1</v>
-    <v>5</v>
-    <v>Fidelity MSCI Info Tech (ARCX:FTEC)</v>
-    <v>6</v>
-    <v>7</v>
-    <v>Finance</v>
-    <v>8</v>
-    <v>91</v>
-    <v>53</v>
-    <v>1.0266999999999999</v>
-    <v>1.06</v>
-    <v>3.8460000000000002E-4</v>
-    <v>1.1786000000000001E-2</v>
-    <v>3.5000000000000003E-2</v>
-    <v>USD</v>
-    <v>NYSE Arca</v>
-    <v>ARCX</v>
-    <v>8.0000000000000004E-4</v>
-    <v>91.12</v>
-    <v>ETF</v>
-    <v>44049.833338043747</v>
-    <v>114</v>
-    <v>89.630099999999999</v>
-    <v>4288252306.8600001</v>
-    <v>Fidelity MSCI Info Tech</v>
-    <v>89.93</v>
-    <v>89.94</v>
-    <v>91</v>
-    <v>91.034999999999997</v>
-    <v>FTEC</v>
-    <v>Fidelity MSCI Info Tech (ARCX:FTEC)</v>
-    <v>286875</v>
-    <v>494600</v>
-  </rv>
-  <rv s="2">
-    <v>115</v>
-  </rv>
-  <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=bokc77&amp;q=ARCX%3aGDAT&amp;form=skydnc</v>
-    <v>Learn more on Bing</v>
-  </rv>
-  <rv s="4">
-    <v>en-US</v>
-    <v>bokc77</v>
-    <v>268435456</v>
-    <v>268435459</v>
-    <v>1</v>
-    <v>9</v>
-    <v>Goldman:Data-Dvn Wld (ARCX:GDAT)</v>
-    <v>6</v>
-    <v>10</v>
-    <v>Finance</v>
-    <v>14</v>
-    <v>69.739999999999995</v>
-    <v>41.99</v>
-    <v>0.18229999999999999</v>
-    <v>-2.8660000000000001E-3</v>
-    <v>2.6210000000000001E-3</v>
-    <v>-0.19989999999999999</v>
-    <v>USD</v>
-    <v>NYSE Arca</v>
-    <v>ARCX</v>
-    <v>5.0000000000000001E-3</v>
-    <v>69.739999999999995</v>
-    <v>ETF</v>
-    <v>44049.833334883595</v>
+    <v>44049.833350832814</v>
     <v>117</v>
-    <v>69.11</v>
-    <v>39031484.68</v>
-    <v>Goldman:Data-Dvn Wld</v>
-    <v>69.430000000000007</v>
-    <v>69.557699999999997</v>
-    <v>69.739999999999995</v>
-    <v>69.540099999999995</v>
-    <v>GDAT</v>
-    <v>Goldman:Data-Dvn Wld (ARCX:GDAT)</v>
-    <v>1489</v>
-    <v>4351</v>
+    <v>26.72</v>
+    <v>212294600</v>
+    <v>Glbl X Itrnt of Things</v>
+    <v>26.83</v>
+    <v>27.05</v>
+    <v>26.94</v>
+    <v>26.93</v>
+    <v>SNSR</v>
+    <v>Glbl X Itrnt of Things (XNAS:SNSR)</v>
+    <v>88009</v>
+    <v>57414</v>
   </rv>
   <rv s="2">
     <v>118</v>
@@ -6159,94 +6153,187 @@
     <v>121</v>
   </rv>
   <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=bqf977&amp;q=ARCX%3aIHAK&amp;form=skydnc</v>
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a267zr&amp;q=ARCX%3aXLK&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="6">
+  <rv s="3">
     <v>en-US</v>
-    <v>bqf977</v>
+    <v>a267zr</v>
     <v>268435456</v>
     <v>268435459</v>
     <v>1</v>
-    <v>15</v>
-    <v>iShares:Cybersec &amp; Tech (ARCX:IHAK)</v>
+    <v>5</v>
+    <v>Sel Sector:Tech SPDR (ARCX:XLK)</v>
     <v>6</v>
-    <v>16</v>
+    <v>7</v>
     <v>Finance</v>
     <v>8</v>
-    <v>34.402799999999999</v>
-    <v>20.36</v>
-    <v>-0.35</v>
-    <v>2.9490000000000001E-4</v>
-    <v>-1.0216000000000001E-2</v>
+    <v>115.49</v>
+    <v>68.099999999999994</v>
+    <v>0.98119999999999996</v>
+    <v>1.66</v>
+    <v>8.6589999999999996E-5</v>
+    <v>1.4582999999999999E-2</v>
     <v>0.01</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
-    <v>34.24</v>
+    <v>1.4000000000000002E-3</v>
+    <v>115.57</v>
     <v>ETF</v>
-    <v>44049.833341990627</v>
+    <v>44049.842522870313</v>
     <v>123</v>
-    <v>33.660800000000002</v>
-    <v>109489372.44</v>
-    <v>iShares:Cybersec &amp; Tech</v>
-    <v>34.15</v>
-    <v>34.26</v>
-    <v>33.909999999999997</v>
-    <v>33.92</v>
-    <v>IHAK</v>
-    <v>iShares:Cybersec &amp; Tech (ARCX:IHAK)</v>
-    <v>84188</v>
-    <v>68142</v>
+    <v>113.52</v>
+    <v>33228536246.509998</v>
+    <v>Sel Sector:Tech SPDR</v>
+    <v>113.77</v>
+    <v>113.83</v>
+    <v>115.49</v>
+    <v>115.5</v>
+    <v>XLK</v>
+    <v>Sel Sector:Tech SPDR (ARCX:XLK)</v>
+    <v>8182648</v>
+    <v>9564996</v>
   </rv>
   <rv s="2">
     <v>124</v>
   </rv>
   <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=a239nm&amp;q=XNAS%3aSNSR&amp;form=skydnc</v>
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a25bf2&amp;q=ARCX%3aVGT&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
   <rv s="3">
     <v>en-US</v>
-    <v>a239nm</v>
+    <v>a25bf2</v>
     <v>268435456</v>
     <v>268435459</v>
     <v>1</v>
     <v>5</v>
-    <v>Glbl X Itrnt of Things (XNAS:SNSR)</v>
+    <v>Vanguard InfoTch Idx;ETF (ARCX:VGT)</v>
     <v>6</v>
     <v>7</v>
     <v>Finance</v>
     <v>8</v>
-    <v>27.12</v>
-    <v>14.809699999999999</v>
-    <v>1.1518999999999999</v>
-    <v>-0.11</v>
-    <v>-3.7120000000000002E-4</v>
-    <v>-4.0670000000000003E-3</v>
-    <v>-0.01</v>
+    <v>308.2</v>
+    <v>179.45</v>
+    <v>1.0274000000000001</v>
+    <v>3.66</v>
+    <v>1.9470000000000002E-4</v>
+    <v>1.2017999999999999E-2</v>
+    <v>0.06</v>
     <v>USD</v>
-    <v>Nasdaq Stock Market</v>
-    <v>XNAS</v>
-    <v>6.8999999999999999E-3</v>
-    <v>26.992999999999999</v>
+    <v>NYSE Arca</v>
+    <v>ARCX</v>
+    <v>1E-3</v>
+    <v>308.47000000000003</v>
     <v>ETF</v>
-    <v>44049.833350832814</v>
+    <v>44049.836701388886</v>
     <v>126</v>
-    <v>26.72</v>
-    <v>212294600</v>
-    <v>Glbl X Itrnt of Things</v>
-    <v>26.83</v>
-    <v>27.05</v>
-    <v>26.94</v>
-    <v>26.93</v>
-    <v>SNSR</v>
-    <v>Glbl X Itrnt of Things (XNAS:SNSR)</v>
-    <v>88009</v>
-    <v>57414</v>
+    <v>303.39499999999998</v>
+    <v>32755672567</v>
+    <v>Vanguard InfoTch Idx;ETF</v>
+    <v>304.70999999999998</v>
+    <v>304.54000000000002</v>
+    <v>308.2</v>
+    <v>308.26</v>
+    <v>VGT</v>
+    <v>Vanguard InfoTch Idx;ETF (ARCX:VGT)</v>
+    <v>552930</v>
+    <v>757056</v>
   </rv>
   <rv s="2">
     <v>127</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1tf77&amp;q=ARCX%3aFTEC&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="3">
+    <v>en-US</v>
+    <v>a1tf77</v>
+    <v>268435456</v>
+    <v>268435459</v>
+    <v>1</v>
+    <v>5</v>
+    <v>Fidelity MSCI Info Tech (ARCX:FTEC)</v>
+    <v>6</v>
+    <v>7</v>
+    <v>Finance</v>
+    <v>8</v>
+    <v>91</v>
+    <v>53</v>
+    <v>1.0266999999999999</v>
+    <v>1.06</v>
+    <v>3.8460000000000002E-4</v>
+    <v>1.1786000000000001E-2</v>
+    <v>3.5000000000000003E-2</v>
+    <v>USD</v>
+    <v>NYSE Arca</v>
+    <v>ARCX</v>
+    <v>8.0000000000000004E-4</v>
+    <v>91.12</v>
+    <v>ETF</v>
+    <v>44049.833338043747</v>
+    <v>129</v>
+    <v>89.630099999999999</v>
+    <v>4288252306.8600001</v>
+    <v>Fidelity MSCI Info Tech</v>
+    <v>89.93</v>
+    <v>89.94</v>
+    <v>91</v>
+    <v>91.034999999999997</v>
+    <v>FTEC</v>
+    <v>Fidelity MSCI Info Tech (ARCX:FTEC)</v>
+    <v>286875</v>
+    <v>494600</v>
+  </rv>
+  <rv s="2">
+    <v>130</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=bokc77&amp;q=ARCX%3aGDAT&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="4">
+    <v>en-US</v>
+    <v>bokc77</v>
+    <v>268435456</v>
+    <v>268435459</v>
+    <v>1</v>
+    <v>9</v>
+    <v>Goldman:Data-Dvn Wld (ARCX:GDAT)</v>
+    <v>6</v>
+    <v>10</v>
+    <v>Finance</v>
+    <v>14</v>
+    <v>69.739999999999995</v>
+    <v>41.99</v>
+    <v>0.18229999999999999</v>
+    <v>-2.8660000000000001E-3</v>
+    <v>2.6210000000000001E-3</v>
+    <v>-0.19989999999999999</v>
+    <v>USD</v>
+    <v>NYSE Arca</v>
+    <v>ARCX</v>
+    <v>5.0000000000000001E-3</v>
+    <v>69.739999999999995</v>
+    <v>ETF</v>
+    <v>44049.833334883595</v>
+    <v>132</v>
+    <v>69.11</v>
+    <v>39031484.68</v>
+    <v>Goldman:Data-Dvn Wld</v>
+    <v>69.430000000000007</v>
+    <v>69.557699999999997</v>
+    <v>69.739999999999995</v>
+    <v>69.540099999999995</v>
+    <v>GDAT</v>
+    <v>Goldman:Data-Dvn Wld (ARCX:GDAT)</v>
+    <v>1489</v>
+    <v>4351</v>
+  </rv>
+  <rv s="2">
+    <v>133</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=bdl4cw&amp;q=Fidelity+ZERO+Tot+Mkt+Ix&amp;form=skydnc</v>
@@ -6272,7 +6359,7 @@
     <v>Mutual Fund</v>
     <v>44048</v>
     <v>44049.22062527344</v>
-    <v>129</v>
+    <v>135</v>
     <v>Fidelity ZERO Tot Mkt Ix</v>
     <v>5711071047.2399998</v>
     <v>11.69</v>
@@ -6289,7 +6376,7 @@
     <v>Fidelity ZERO Tot Mkt Ix</v>
   </rv>
   <rv s="2">
-    <v>130</v>
+    <v>136</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a25lrw&amp;q=ARCX%3aVTI&amp;form=skydnc</v>
@@ -6321,7 +6408,7 @@
     <v>169.77500000000001</v>
     <v>ETF</v>
     <v>44049.843668981484</v>
-    <v>132</v>
+    <v>138</v>
     <v>168.27500000000001</v>
     <v>143380330706</v>
     <v>Vanguard TSM Idx;ETF</v>
@@ -6333,92 +6420,6 @@
     <v>Vanguard TSM Idx;ETF (ARCX:VTI)</v>
     <v>2149883</v>
     <v>2855497</v>
-  </rv>
-  <rv s="2">
-    <v>133</v>
-  </rv>
-  <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=a7lbmw&amp;q=Fidelity+Pacific+Basin&amp;form=skydnc</v>
-    <v>Learn more on Bing</v>
-  </rv>
-  <rv s="1">
-    <v>en-US</v>
-    <v>a7lbmw</v>
-    <v>268435456</v>
-    <v>268435461</v>
-    <v>1</v>
-    <v>0</v>
-    <v>Fidelity Pacific Basin</v>
-    <v>2</v>
-    <v>3</v>
-    <v>Finance</v>
-    <v>4</v>
-    <v>0.12</v>
-    <v>3.1530000000000004E-3</v>
-    <v>US</v>
-    <v>USD</v>
-    <v>1.11E-2</v>
-    <v>Mutual Fund</v>
-    <v>44048</v>
-    <v>44049.209566421872</v>
-    <v>135</v>
-    <v>Fidelity Pacific Basin</v>
-    <v>997137586.61000001</v>
-    <v>38.06</v>
-    <v>38.18</v>
-    <v>5</v>
-    <v>6.3836000000000004E-2</v>
-    <v>8.9189999999999998E-3</v>
-    <v>0.21285699999999999</v>
-    <v>0.19303300000000001</v>
-    <v>9.8711999999999994E-2</v>
-    <v>0.104993</v>
-    <v>8.1089000000000008E-2</v>
-    <v>FPBFX</v>
-    <v>Fidelity Pacific Basin</v>
-  </rv>
-  <rv s="2">
-    <v>136</v>
-  </rv>
-  <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=a8msgh&amp;q=Fidelity+Intl+Growth&amp;form=skydnc</v>
-    <v>Learn more on Bing</v>
-  </rv>
-  <rv s="1">
-    <v>en-US</v>
-    <v>a8msgh</v>
-    <v>268435456</v>
-    <v>268435461</v>
-    <v>1</v>
-    <v>0</v>
-    <v>Fidelity Intl Growth</v>
-    <v>2</v>
-    <v>3</v>
-    <v>Finance</v>
-    <v>4</v>
-    <v>0.13</v>
-    <v>7.9030000000000003E-3</v>
-    <v>US</v>
-    <v>USD</v>
-    <v>1.03E-2</v>
-    <v>Mutual Fund</v>
-    <v>44048</v>
-    <v>44049.212667552347</v>
-    <v>138</v>
-    <v>Fidelity Intl Growth</v>
-    <v>1294994461.3499999</v>
-    <v>16.45</v>
-    <v>16.579999999999998</v>
-    <v>4.6497999999999999</v>
-    <v>4.6452E-2</v>
-    <v>-1.1578E-2</v>
-    <v>0.133299</v>
-    <v>0.14548</v>
-    <v>8.7362999999999996E-2</v>
-    <v>7.4273999999999993E-2</v>
-    <v>1.8204999999999999E-2</v>
-    <v>FIGFX</v>
-    <v>Fidelity Intl Growth</v>
   </rv>
   <rv s="2">
     <v>139</v>
@@ -9335,7 +9336,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{69112644-6D4F-4AA0-8CCC-1CEE1E0148D7}" name="Table1" displayName="Table1" ref="A1:O48" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
   <autoFilter ref="A1:O48" xr:uid="{95189E96-064D-425D-BE39-47B18B49F5F0}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O46">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O48">
     <sortCondition ref="E2:E46"/>
     <sortCondition descending="1" ref="O2:O46"/>
   </sortState>
@@ -9740,8 +9741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9825,7 +9826,7 @@
         <v>17</v>
       </c>
       <c r="F2" s="3">
-        <f t="shared" ref="F2:F46" si="0">IFERROR(_FV(A2,"Expense ratio",TRUE),"")</f>
+        <f>IFERROR(_FV(A2,"Expense ratio",TRUE),"")</f>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G2" s="16" t="str">
@@ -9861,7 +9862,7 @@
         <v/>
       </c>
       <c r="O2" s="15" t="str">
-        <f t="shared" ref="O2:O46" si="1">IFERROR((M2-J2)/M2,"")</f>
+        <f>IFERROR((M2-J2)/M2,"")</f>
         <v/>
       </c>
     </row>
@@ -9871,7 +9872,7 @@
       </c>
       <c r="B3" s="4" t="str">
         <f t="array" ref="B3">_FV(A3,"Ticker symbol",TRUE)</f>
-        <v>BND</v>
+        <v>AGG</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
@@ -9883,44 +9884,44 @@
         <v>17</v>
       </c>
       <c r="F3" s="3">
-        <f t="shared" si="0"/>
-        <v>5.0000000000000001E-4</v>
+        <f>IFERROR(_FV(A3,"Expense ratio",TRUE),"")</f>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="G3" s="16">
         <f t="array" ref="G3">IFERROR(_FV(A3,"Open"),"")</f>
-        <v>89.49</v>
+        <v>119.59</v>
       </c>
       <c r="H3" s="16">
         <f t="array" ref="H3">IFERROR(_FV(A3,"High"),"")</f>
-        <v>89.58</v>
+        <v>119.73</v>
       </c>
       <c r="I3" s="16">
         <f t="array" ref="I3">IFERROR(_FV(A3,"Low"),"")</f>
-        <v>89.44</v>
+        <v>119.53</v>
       </c>
       <c r="J3" s="16">
         <f t="array" ref="J3">IFERROR(_FV(A3,"Price"),"")</f>
-        <v>89.48</v>
+        <v>119.58</v>
       </c>
       <c r="K3" s="76">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>89.460000000000008</v>
+        <v>119.55500000000001</v>
       </c>
       <c r="L3" s="3">
         <f t="array" ref="L3">IFERROR(_FV(A3,"Change (%)",TRUE),"")</f>
-        <v>1.567E-3</v>
+        <v>1.591E-3</v>
       </c>
       <c r="M3" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>89.48</v>
+        <v>119.63</v>
       </c>
       <c r="N3" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
-        <v>76.489999999999995</v>
+        <v>105.56</v>
       </c>
       <c r="O3" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IFERROR((M3-J3)/M3,"")</f>
+        <v>4.1795536236727542E-4</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -9929,7 +9930,7 @@
       </c>
       <c r="B4" s="4" t="str">
         <f t="array" ref="B4">_FV(A4,"Ticker symbol",TRUE)</f>
-        <v>AGG</v>
+        <v>BND</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>15</v>
@@ -9941,44 +9942,44 @@
         <v>17</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" si="0"/>
-        <v>4.0000000000000002E-4</v>
+        <f>IFERROR(_FV(A4,"Expense ratio",TRUE),"")</f>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="G4" s="16">
         <f t="array" ref="G4">IFERROR(_FV(A4,"Open"),"")</f>
-        <v>119.59</v>
+        <v>89.49</v>
       </c>
       <c r="H4" s="16">
         <f t="array" ref="H4">IFERROR(_FV(A4,"High"),"")</f>
-        <v>119.73</v>
+        <v>89.58</v>
       </c>
       <c r="I4" s="16">
         <f t="array" ref="I4">IFERROR(_FV(A4,"Low"),"")</f>
-        <v>119.53</v>
+        <v>89.44</v>
       </c>
       <c r="J4" s="16">
         <f t="array" ref="J4">IFERROR(_FV(A4,"Price"),"")</f>
-        <v>119.58</v>
+        <v>89.48</v>
       </c>
       <c r="K4" s="76">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>119.55500000000001</v>
+        <v>89.460000000000008</v>
       </c>
       <c r="L4" s="3">
         <f t="array" ref="L4">IFERROR(_FV(A4,"Change (%)",TRUE),"")</f>
-        <v>1.591E-3</v>
+        <v>1.567E-3</v>
       </c>
       <c r="M4" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>119.63</v>
+        <v>89.48</v>
       </c>
       <c r="N4" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
-        <v>105.56</v>
+        <v>76.489999999999995</v>
       </c>
       <c r="O4" s="15">
-        <f t="shared" si="1"/>
-        <v>4.1795536236727542E-4</v>
+        <f>IFERROR((M4-J4)/M4,"")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -9999,7 +10000,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" si="0"/>
+        <f>IFERROR(_FV(A5,"Expense ratio",TRUE),"")</f>
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G5" s="16">
@@ -10035,7 +10036,7 @@
         <v>132.58000000000001</v>
       </c>
       <c r="O5" s="15">
-        <f t="shared" si="1"/>
+        <f>IFERROR((M5-J5)/M5,"")</f>
         <v>0.23492790772422983</v>
       </c>
     </row>
@@ -10043,9 +10044,9 @@
       <c r="A6" s="1" t="e" vm="5">
         <v>#VALUE!</v>
       </c>
-      <c r="B6" s="1" t="str" cm="1">
+      <c r="B6" s="4" t="str">
         <f t="array" ref="B6">_FV(A6,"Ticker symbol",TRUE)</f>
-        <v>SLV</v>
+        <v>GDX</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
@@ -10057,53 +10058,53 @@
         <v>19</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" si="0"/>
-        <v>5.0000000000000001E-3</v>
+        <f>IFERROR(_FV(A6,"Expense ratio",TRUE),"")</f>
+        <v>5.3E-3</v>
       </c>
       <c r="G6" s="16">
         <f t="array" ref="G6">IFERROR(_FV(A6,"Open"),"")</f>
-        <v>26.33</v>
+        <v>45.32</v>
       </c>
       <c r="H6" s="16">
         <f t="array" ref="H6">IFERROR(_FV(A6,"High"),"")</f>
-        <v>26.9</v>
+        <v>45.32</v>
       </c>
       <c r="I6" s="16">
         <f t="array" ref="I6">IFERROR(_FV(A6,"Low"),"")</f>
-        <v>25.88</v>
+        <v>43.58</v>
       </c>
       <c r="J6" s="16">
         <f t="array" ref="J6">IFERROR(_FV(A6,"Price"),"")</f>
-        <v>26.86</v>
+        <v>44.24</v>
       </c>
       <c r="K6" s="16">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>26.369999999999997</v>
+        <v>43.91</v>
       </c>
       <c r="L6" s="3">
         <f t="array" ref="L6">IFERROR(_FV(A6,"Change (%)",TRUE),"")</f>
-        <v>7.2255E-2</v>
+        <v>-5.3959999999999998E-3</v>
       </c>
       <c r="M6" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>26.86</v>
+        <v>45.78</v>
       </c>
       <c r="N6" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
-        <v>10.86</v>
+        <v>16.18</v>
       </c>
       <c r="O6" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IFERROR((M6-J6)/M6,"")</f>
+        <v>3.3639143730886834E-2</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-      <c r="B7" s="4" t="str">
+      <c r="B7" s="1" t="str" cm="1">
         <f t="array" ref="B7">_FV(A7,"Ticker symbol",TRUE)</f>
-        <v>GDX</v>
+        <v>SLV</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>15</v>
@@ -10115,44 +10116,44 @@
         <v>19</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" si="0"/>
-        <v>5.3E-3</v>
+        <f>IFERROR(_FV(A7,"Expense ratio",TRUE),"")</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G7" s="16">
         <f t="array" ref="G7">IFERROR(_FV(A7,"Open"),"")</f>
-        <v>45.32</v>
+        <v>26.33</v>
       </c>
       <c r="H7" s="16">
         <f t="array" ref="H7">IFERROR(_FV(A7,"High"),"")</f>
-        <v>45.32</v>
+        <v>26.9</v>
       </c>
       <c r="I7" s="16">
         <f t="array" ref="I7">IFERROR(_FV(A7,"Low"),"")</f>
-        <v>43.58</v>
+        <v>25.88</v>
       </c>
       <c r="J7" s="16">
         <f t="array" ref="J7">IFERROR(_FV(A7,"Price"),"")</f>
-        <v>44.24</v>
+        <v>26.86</v>
       </c>
       <c r="K7" s="16">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>43.91</v>
+        <v>26.369999999999997</v>
       </c>
       <c r="L7" s="3">
         <f t="array" ref="L7">IFERROR(_FV(A7,"Change (%)",TRUE),"")</f>
-        <v>-5.3959999999999998E-3</v>
+        <v>7.2255E-2</v>
       </c>
       <c r="M7" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>45.78</v>
+        <v>26.86</v>
       </c>
       <c r="N7" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
-        <v>16.18</v>
+        <v>10.86</v>
       </c>
       <c r="O7" s="15">
-        <f t="shared" si="1"/>
-        <v>3.3639143730886834E-2</v>
+        <f>IFERROR((M7-J7)/M7,"")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -10173,7 +10174,7 @@
         <v>19</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" si="0"/>
+        <f>IFERROR(_FV(A8,"Expense ratio",TRUE),"")</f>
         <v>1.8E-3</v>
       </c>
       <c r="G8" s="16">
@@ -10209,7 +10210,7 @@
         <v>14.38</v>
       </c>
       <c r="O8" s="15">
-        <f t="shared" si="1"/>
+        <f>IFERROR((M8-J8)/M8,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -10231,7 +10232,7 @@
         <v>19</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" si="0"/>
+        <f>IFERROR(_FV(A9,"Expense ratio",TRUE),"")</f>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="G9" s="16">
@@ -10267,7 +10268,7 @@
         <v>13.8</v>
       </c>
       <c r="O9" s="15">
-        <f t="shared" si="1"/>
+        <f>IFERROR((M9-J9)/M9,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -10289,7 +10290,7 @@
         <v>20</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" si="0"/>
+        <f>IFERROR(_FV(A10,"Expense ratio",TRUE),"")</f>
         <v>1.4000000000000002E-3</v>
       </c>
       <c r="G10" s="16">
@@ -10325,7 +10326,7 @@
         <v>22.88</v>
       </c>
       <c r="O10" s="15">
-        <f t="shared" si="1"/>
+        <f>IFERROR((M10-J10)/M10,"")</f>
         <v>0.39920649303577899</v>
       </c>
     </row>
@@ -10347,7 +10348,7 @@
         <v>20</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" si="0"/>
+        <f>IFERROR(_FV(A11,"Expense ratio",TRUE),"")</f>
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="G11" s="76">
@@ -10383,7 +10384,7 @@
         <v>60.07</v>
       </c>
       <c r="O11" s="15">
-        <f t="shared" si="1"/>
+        <f>IFERROR((M11-J11)/M11,"")</f>
         <v>0.13430318363904697</v>
       </c>
     </row>
@@ -10405,7 +10406,7 @@
         <v>20</v>
       </c>
       <c r="F12" s="3">
-        <f t="shared" si="0"/>
+        <f>IFERROR(_FV(A12,"Expense ratio",TRUE),"")</f>
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G12" s="16">
@@ -10441,7 +10442,7 @@
         <v>17.22</v>
       </c>
       <c r="O12" s="15">
-        <f t="shared" si="1"/>
+        <f>IFERROR((M12-J12)/M12,"")</f>
         <v>9.8428453267162902E-2</v>
       </c>
     </row>
@@ -10463,7 +10464,7 @@
         <v>20</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" si="0"/>
+        <f>IFERROR(_FV(A13,"Expense ratio",TRUE),"")</f>
         <v>7.000000000000001E-4</v>
       </c>
       <c r="G13" s="76">
@@ -10499,7 +10500,7 @@
         <v>38.825000000000003</v>
       </c>
       <c r="O13" s="15">
-        <f t="shared" si="1"/>
+        <f>IFERROR((M13-J13)/M13,"")</f>
         <v>6.9509738079247818E-2</v>
       </c>
     </row>
@@ -10521,7 +10522,7 @@
         <v>21</v>
       </c>
       <c r="F14" s="3">
-        <f t="shared" si="0"/>
+        <f>IFERROR(_FV(A14,"Expense ratio",TRUE),"")</f>
         <v>5.6000000000000008E-3</v>
       </c>
       <c r="G14" s="16">
@@ -10557,7 +10558,7 @@
         <v>108.08</v>
       </c>
       <c r="O14" s="15">
-        <f t="shared" si="1"/>
+        <f>IFERROR((M14-J14)/M14,"")</f>
         <v>7.9479840785664058E-2</v>
       </c>
     </row>
@@ -10579,7 +10580,7 @@
         <v>21</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" si="0"/>
+        <f>IFERROR(_FV(A15,"Expense ratio",TRUE),"")</f>
         <v>4.6999999999999993E-3</v>
       </c>
       <c r="G15" s="16">
@@ -10615,7 +10616,7 @@
         <v>51.07</v>
       </c>
       <c r="O15" s="15">
-        <f t="shared" si="1"/>
+        <f>IFERROR((M15-J15)/M15,"")</f>
         <v>1.5019545984500362E-2</v>
       </c>
     </row>
@@ -10625,7 +10626,7 @@
       </c>
       <c r="B16" s="1" t="str" cm="1">
         <f t="array" ref="B16">_FV(A16,"Ticker symbol",TRUE)</f>
-        <v>FHLC</v>
+        <v>IHI</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>15</v>
@@ -10637,44 +10638,44 @@
         <v>21</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" si="0"/>
-        <v>8.0000000000000004E-4</v>
+        <f>IFERROR(_FV(A16,"Expense ratio",TRUE),"")</f>
+        <v>4.3E-3</v>
       </c>
       <c r="G16" s="76">
         <f t="array" ref="G16">IFERROR(_FV(A16,"Open"),"")</f>
-        <v>53.2</v>
+        <v>294.14</v>
       </c>
       <c r="H16" s="76">
         <f t="array" ref="H16">IFERROR(_FV(A16,"High"),"")</f>
-        <v>53.2</v>
+        <v>294.26</v>
       </c>
       <c r="I16" s="76">
         <f t="array" ref="I16">IFERROR(_FV(A16,"Low"),"")</f>
-        <v>52.488199999999999</v>
+        <v>289.60000000000002</v>
       </c>
       <c r="J16" s="76">
         <f t="array" ref="J16">IFERROR(_FV(A16,"Price"),"")</f>
-        <v>52.83</v>
+        <v>292.49</v>
       </c>
       <c r="K16" s="76">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>52.659099999999995</v>
+        <v>291.04500000000002</v>
       </c>
       <c r="L16" s="3">
         <f t="array" ref="L16">IFERROR(_FV(A16,"Change (%)",TRUE),"")</f>
-        <v>-6.3949999999999996E-3</v>
+        <v>-1.2692000000000002E-2</v>
       </c>
       <c r="M16" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>53.515000000000001</v>
+        <v>296.755</v>
       </c>
       <c r="N16" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
-        <v>35.74</v>
+        <v>183.25</v>
       </c>
       <c r="O16" s="15">
-        <f t="shared" si="1"/>
-        <v>1.2800149490797014E-2</v>
+        <f>IFERROR((M16-J16)/M16,"")</f>
+        <v>1.437212515374631E-2</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -10683,56 +10684,56 @@
       </c>
       <c r="B17" s="1" t="str" cm="1">
         <f t="array" ref="B17">_FV(A17,"Ticker symbol",TRUE)</f>
-        <v>VHT</v>
+        <v>XLV</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" si="0"/>
-        <v>1E-3</v>
-      </c>
-      <c r="G17" s="76">
+        <f>IFERROR(_FV(A17,"Expense ratio",TRUE),"")</f>
+        <v>1.4000000000000002E-3</v>
+      </c>
+      <c r="G17" s="16">
         <f t="array" ref="G17">IFERROR(_FV(A17,"Open"),"")</f>
-        <v>205.49</v>
-      </c>
-      <c r="H17" s="76">
+        <v>106.44</v>
+      </c>
+      <c r="H17" s="16">
         <f t="array" ref="H17">IFERROR(_FV(A17,"High"),"")</f>
-        <v>206.34</v>
-      </c>
-      <c r="I17" s="76">
+        <v>106.96</v>
+      </c>
+      <c r="I17" s="16">
         <f t="array" ref="I17">IFERROR(_FV(A17,"Low"),"")</f>
-        <v>203.125</v>
-      </c>
-      <c r="J17" s="76">
+        <v>105.3</v>
+      </c>
+      <c r="J17" s="16">
         <f t="array" ref="J17">IFERROR(_FV(A17,"Price"),"")</f>
-        <v>204.61</v>
-      </c>
-      <c r="K17" s="76">
+        <v>106</v>
+      </c>
+      <c r="K17" s="16">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>203.86750000000001</v>
+        <v>105.65</v>
       </c>
       <c r="L17" s="3">
         <f t="array" ref="L17">IFERROR(_FV(A17,"Change (%)",TRUE),"")</f>
-        <v>-6.313E-3</v>
+        <v>-5.9080000000000001E-3</v>
       </c>
       <c r="M17" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>207.22</v>
+        <v>107.53</v>
       </c>
       <c r="N17" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
-        <v>138.11000000000001</v>
+        <v>73.540000000000006</v>
       </c>
       <c r="O17" s="15">
-        <f t="shared" si="1"/>
-        <v>1.2595309333075887E-2</v>
+        <f>IFERROR((M17-J17)/M17,"")</f>
+        <v>1.4228587370966252E-2</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -10741,56 +10742,56 @@
       </c>
       <c r="B18" s="1" t="str" cm="1">
         <f t="array" ref="B18">_FV(A18,"Ticker symbol",TRUE)</f>
-        <v>XLV</v>
+        <v>FHLC</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F18" s="3">
-        <f t="shared" si="0"/>
-        <v>1.4000000000000002E-3</v>
-      </c>
-      <c r="G18" s="16">
+        <f>IFERROR(_FV(A18,"Expense ratio",TRUE),"")</f>
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="G18" s="76">
         <f t="array" ref="G18">IFERROR(_FV(A18,"Open"),"")</f>
-        <v>106.44</v>
-      </c>
-      <c r="H18" s="16">
+        <v>53.2</v>
+      </c>
+      <c r="H18" s="76">
         <f t="array" ref="H18">IFERROR(_FV(A18,"High"),"")</f>
-        <v>106.96</v>
-      </c>
-      <c r="I18" s="16">
+        <v>53.2</v>
+      </c>
+      <c r="I18" s="76">
         <f t="array" ref="I18">IFERROR(_FV(A18,"Low"),"")</f>
-        <v>105.3</v>
-      </c>
-      <c r="J18" s="16">
+        <v>52.488199999999999</v>
+      </c>
+      <c r="J18" s="76">
         <f t="array" ref="J18">IFERROR(_FV(A18,"Price"),"")</f>
-        <v>106</v>
-      </c>
-      <c r="K18" s="16">
+        <v>52.83</v>
+      </c>
+      <c r="K18" s="76">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>105.65</v>
+        <v>52.659099999999995</v>
       </c>
       <c r="L18" s="3">
         <f t="array" ref="L18">IFERROR(_FV(A18,"Change (%)",TRUE),"")</f>
-        <v>-5.9080000000000001E-3</v>
+        <v>-6.3949999999999996E-3</v>
       </c>
       <c r="M18" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>107.53</v>
+        <v>53.515000000000001</v>
       </c>
       <c r="N18" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
-        <v>73.540000000000006</v>
+        <v>35.74</v>
       </c>
       <c r="O18" s="15">
-        <f t="shared" si="1"/>
-        <v>1.4228587370966252E-2</v>
+        <f>IFERROR((M18-J18)/M18,"")</f>
+        <v>1.2800149490797014E-2</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -10799,7 +10800,7 @@
       </c>
       <c r="B19" s="1" t="str" cm="1">
         <f t="array" ref="B19">_FV(A19,"Ticker symbol",TRUE)</f>
-        <v>IHI</v>
+        <v>VHT</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>15</v>
@@ -10811,53 +10812,53 @@
         <v>21</v>
       </c>
       <c r="F19" s="3">
-        <f t="shared" si="0"/>
-        <v>4.3E-3</v>
+        <f>IFERROR(_FV(A19,"Expense ratio",TRUE),"")</f>
+        <v>1E-3</v>
       </c>
       <c r="G19" s="76">
         <f t="array" ref="G19">IFERROR(_FV(A19,"Open"),"")</f>
-        <v>294.14</v>
+        <v>205.49</v>
       </c>
       <c r="H19" s="76">
         <f t="array" ref="H19">IFERROR(_FV(A19,"High"),"")</f>
-        <v>294.26</v>
+        <v>206.34</v>
       </c>
       <c r="I19" s="76">
         <f t="array" ref="I19">IFERROR(_FV(A19,"Low"),"")</f>
-        <v>289.60000000000002</v>
+        <v>203.125</v>
       </c>
       <c r="J19" s="76">
         <f t="array" ref="J19">IFERROR(_FV(A19,"Price"),"")</f>
-        <v>292.49</v>
+        <v>204.61</v>
       </c>
       <c r="K19" s="76">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>291.04500000000002</v>
+        <v>203.86750000000001</v>
       </c>
       <c r="L19" s="3">
         <f t="array" ref="L19">IFERROR(_FV(A19,"Change (%)",TRUE),"")</f>
-        <v>-1.2692000000000002E-2</v>
+        <v>-6.313E-3</v>
       </c>
       <c r="M19" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>296.755</v>
+        <v>207.22</v>
       </c>
       <c r="N19" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
-        <v>183.25</v>
+        <v>138.11000000000001</v>
       </c>
       <c r="O19" s="15">
-        <f t="shared" si="1"/>
-        <v>1.437212515374631E-2</v>
+        <f>IFERROR((M19-J19)/M19,"")</f>
+        <v>1.2595309333075887E-2</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="e" vm="19">
+      <c r="A20" s="14" t="e" vm="19">
         <v>#VALUE!</v>
       </c>
-      <c r="B20" s="1" t="str" cm="1">
+      <c r="B20" s="115" t="str">
         <f t="array" ref="B20">_FV(A20,"Ticker symbol",TRUE)</f>
-        <v>WCLD</v>
+        <v>FPBFX</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>15</v>
@@ -10865,106 +10866,106 @@
       <c r="D20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="E20" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="F20" s="90">
+        <f>IFERROR(_FV(A20,"Expense ratio",TRUE),"")</f>
+        <v>1.11E-2</v>
+      </c>
+      <c r="G20" s="116" t="str">
+        <f t="array" ref="G20">IFERROR(_FV(A20,"Open"),"")</f>
         <v/>
       </c>
-      <c r="G20" s="76">
-        <f t="array" ref="G20">IFERROR(_FV(A20,"Open"),"")</f>
-        <v>42.57</v>
-      </c>
-      <c r="H20" s="76">
+      <c r="H20" s="116" t="str">
         <f t="array" ref="H20">IFERROR(_FV(A20,"High"),"")</f>
-        <v>42.74</v>
-      </c>
-      <c r="I20" s="76">
+        <v/>
+      </c>
+      <c r="I20" s="116" t="str">
         <f t="array" ref="I20">IFERROR(_FV(A20,"Low"),"")</f>
-        <v>41.56</v>
-      </c>
-      <c r="J20" s="76">
+        <v/>
+      </c>
+      <c r="J20" s="116">
         <f t="array" ref="J20">IFERROR(_FV(A20,"Price"),"")</f>
-        <v>42.156300000000002</v>
-      </c>
-      <c r="K20" s="76">
+        <v>38.18</v>
+      </c>
+      <c r="K20" s="117" t="str">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>41.858150000000002</v>
-      </c>
-      <c r="L20" s="3">
+        <v/>
+      </c>
+      <c r="L20" s="90">
         <f t="array" ref="L20">IFERROR(_FV(A20,"Change (%)",TRUE),"")</f>
-        <v>-2.6413000000000002E-2</v>
-      </c>
-      <c r="M20" s="16">
+        <v>3.1530000000000004E-3</v>
+      </c>
+      <c r="M20" s="116" t="str">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>43.61</v>
-      </c>
-      <c r="N20" s="16">
+        <v/>
+      </c>
+      <c r="N20" s="116" t="str">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
-        <v>18.989999999999998</v>
-      </c>
-      <c r="O20" s="15">
-        <f t="shared" si="1"/>
-        <v>3.3334097684017377E-2</v>
+        <v/>
+      </c>
+      <c r="O20" s="91" t="str">
+        <f>IFERROR((M20-J20)/M20,"")</f>
+        <v/>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="e" vm="20">
+      <c r="A21" s="124" t="e" vm="20">
         <v>#VALUE!</v>
       </c>
-      <c r="B21" s="1" t="str" cm="1">
+      <c r="B21" s="118" t="str">
         <f t="array" ref="B21">_FV(A21,"Ticker symbol",TRUE)</f>
-        <v>CLOU</v>
+        <v>FIGFX</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="3">
-        <f t="shared" si="0"/>
-        <v>6.8000000000000005E-3</v>
-      </c>
-      <c r="G21" s="16">
+        <v>16</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="F21" s="119">
+        <f>IFERROR(_FV(A21,"Expense ratio",TRUE),"")</f>
+        <v>1.03E-2</v>
+      </c>
+      <c r="G21" s="120" t="str">
         <f t="array" ref="G21">IFERROR(_FV(A21,"Open"),"")</f>
-        <v>23.26</v>
-      </c>
-      <c r="H21" s="16">
+        <v/>
+      </c>
+      <c r="H21" s="120" t="str">
         <f t="array" ref="H21">IFERROR(_FV(A21,"High"),"")</f>
-        <v>23.3</v>
-      </c>
-      <c r="I21" s="16">
+        <v/>
+      </c>
+      <c r="I21" s="120" t="str">
         <f t="array" ref="I21">IFERROR(_FV(A21,"Low"),"")</f>
-        <v>22.75</v>
-      </c>
-      <c r="J21" s="16">
+        <v/>
+      </c>
+      <c r="J21" s="120">
         <f t="array" ref="J21">IFERROR(_FV(A21,"Price"),"")</f>
-        <v>22.96</v>
-      </c>
-      <c r="K21" s="16">
+        <v>16.579999999999998</v>
+      </c>
+      <c r="K21" s="121" t="str">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>22.855</v>
-      </c>
-      <c r="L21" s="3">
+        <v/>
+      </c>
+      <c r="L21" s="119">
         <f t="array" ref="L21">IFERROR(_FV(A21,"Change (%)",TRUE),"")</f>
-        <v>-1.6701999999999998E-2</v>
-      </c>
-      <c r="M21" s="16">
+        <v>7.9030000000000003E-3</v>
+      </c>
+      <c r="M21" s="120" t="str">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>23.45</v>
-      </c>
-      <c r="N21" s="16">
+        <v/>
+      </c>
+      <c r="N21" s="120" t="str">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
-        <v>12.36</v>
-      </c>
-      <c r="O21" s="15">
-        <f t="shared" si="1"/>
-        <v>2.0895522388059636E-2</v>
+        <v/>
+      </c>
+      <c r="O21" s="122" t="str">
+        <f>IFERROR((M21-J21)/M21,"")</f>
+        <v/>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -10973,7 +10974,7 @@
       </c>
       <c r="B22" s="1" t="str" cm="1">
         <f t="array" ref="B22">_FV(A22,"Ticker symbol",TRUE)</f>
-        <v>SKYY</v>
+        <v>WCLD</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>15</v>
@@ -10984,54 +10985,54 @@
       <c r="E22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="3">
-        <f t="shared" si="0"/>
-        <v>6.0000000000000001E-3</v>
+      <c r="F22" s="1" t="str">
+        <f>IFERROR(_FV(A22,"Expense ratio",TRUE),"")</f>
+        <v/>
       </c>
       <c r="G22" s="76">
         <f t="array" ref="G22">IFERROR(_FV(A22,"Open"),"")</f>
-        <v>78.7</v>
+        <v>42.57</v>
       </c>
       <c r="H22" s="76">
         <f t="array" ref="H22">IFERROR(_FV(A22,"High"),"")</f>
-        <v>79.25</v>
+        <v>42.74</v>
       </c>
       <c r="I22" s="76">
         <f t="array" ref="I22">IFERROR(_FV(A22,"Low"),"")</f>
-        <v>78.040000000000006</v>
+        <v>41.56</v>
       </c>
       <c r="J22" s="76">
         <f t="array" ref="J22">IFERROR(_FV(A22,"Price"),"")</f>
-        <v>78.89</v>
+        <v>42.156300000000002</v>
       </c>
       <c r="K22" s="76">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>78.465000000000003</v>
+        <v>41.858150000000002</v>
       </c>
       <c r="L22" s="3">
         <f t="array" ref="L22">IFERROR(_FV(A22,"Change (%)",TRUE),"")</f>
-        <v>-8.0470000000000003E-3</v>
+        <v>-2.6413000000000002E-2</v>
       </c>
       <c r="M22" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>79.88</v>
+        <v>43.61</v>
       </c>
       <c r="N22" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
-        <v>45</v>
+        <v>18.989999999999998</v>
       </c>
       <c r="O22" s="15">
-        <f t="shared" si="1"/>
-        <v>1.2393590385578305E-2</v>
+        <f>IFERROR((M22-J22)/M22,"")</f>
+        <v>3.3334097684017377E-2</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="e" vm="22">
         <v>#VALUE!</v>
       </c>
-      <c r="B23" s="4" t="str">
+      <c r="B23" s="1" t="str" cm="1">
         <f t="array" ref="B23">_FV(A23,"Ticker symbol",TRUE)</f>
-        <v>ARKG</v>
+        <v>CLOU</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>15</v>
@@ -11040,56 +11041,56 @@
         <v>18</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F23" s="3">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
+        <f>IFERROR(_FV(A23,"Expense ratio",TRUE),"")</f>
+        <v>6.8000000000000005E-3</v>
       </c>
       <c r="G23" s="16">
         <f t="array" ref="G23">IFERROR(_FV(A23,"Open"),"")</f>
-        <v>58.56</v>
+        <v>23.26</v>
       </c>
       <c r="H23" s="16">
         <f t="array" ref="H23">IFERROR(_FV(A23,"High"),"")</f>
-        <v>58.704999999999998</v>
+        <v>23.3</v>
       </c>
       <c r="I23" s="16">
         <f t="array" ref="I23">IFERROR(_FV(A23,"Low"),"")</f>
-        <v>57.320900000000002</v>
+        <v>22.75</v>
       </c>
       <c r="J23" s="16">
         <f t="array" ref="J23">IFERROR(_FV(A23,"Price"),"")</f>
-        <v>57.67</v>
+        <v>22.96</v>
       </c>
       <c r="K23" s="16">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>57.495450000000005</v>
+        <v>22.855</v>
       </c>
       <c r="L23" s="3">
         <f t="array" ref="L23">IFERROR(_FV(A23,"Change (%)",TRUE),"")</f>
-        <v>-7.7429999999999999E-3</v>
+        <v>-1.6701999999999998E-2</v>
       </c>
       <c r="M23" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>59.5</v>
+        <v>23.45</v>
       </c>
       <c r="N23" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
-        <v>24</v>
+        <v>12.36</v>
       </c>
       <c r="O23" s="15">
-        <f t="shared" si="1"/>
-        <v>3.0756302521008375E-2</v>
+        <f>IFERROR((M23-J23)/M23,"")</f>
+        <v>2.0895522388059636E-2</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="e" vm="23">
         <v>#VALUE!</v>
       </c>
-      <c r="B24" s="4" t="str">
+      <c r="B24" s="1" t="str" cm="1">
         <f t="array" ref="B24">_FV(A24,"Ticker symbol",TRUE)</f>
-        <v>ARKW</v>
+        <v>SKYY</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>15</v>
@@ -11098,47 +11099,47 @@
         <v>16</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F24" s="3">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
+        <f>IFERROR(_FV(A24,"Expense ratio",TRUE),"")</f>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="G24" s="76">
         <f t="array" ref="G24">IFERROR(_FV(A24,"Open"),"")</f>
-        <v>103.41500000000001</v>
+        <v>78.7</v>
       </c>
       <c r="H24" s="76">
         <f t="array" ref="H24">IFERROR(_FV(A24,"High"),"")</f>
-        <v>103.6174</v>
+        <v>79.25</v>
       </c>
       <c r="I24" s="76">
         <f t="array" ref="I24">IFERROR(_FV(A24,"Low"),"")</f>
-        <v>102.28</v>
+        <v>78.040000000000006</v>
       </c>
       <c r="J24" s="76">
         <f t="array" ref="J24">IFERROR(_FV(A24,"Price"),"")</f>
-        <v>103.19</v>
+        <v>78.89</v>
       </c>
       <c r="K24" s="76">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>102.735</v>
+        <v>78.465000000000003</v>
       </c>
       <c r="L24" s="3">
         <f t="array" ref="L24">IFERROR(_FV(A24,"Change (%)",TRUE),"")</f>
-        <v>-2.2239999999999998E-3</v>
+        <v>-8.0470000000000003E-3</v>
       </c>
       <c r="M24" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>103.97920000000001</v>
+        <v>79.88</v>
       </c>
       <c r="N24" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
-        <v>40.494999999999997</v>
+        <v>45</v>
       </c>
       <c r="O24" s="15">
-        <f t="shared" si="1"/>
-        <v>7.5899795343684897E-3</v>
+        <f>IFERROR((M24-J24)/M24,"")</f>
+        <v>1.2393590385578305E-2</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -11147,65 +11148,65 @@
       </c>
       <c r="B25" s="4" t="str">
         <f t="array" ref="B25">_FV(A25,"Ticker symbol",TRUE)</f>
-        <v>ARKK</v>
+        <v>ARKG</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F25" s="3">
-        <f t="shared" si="0"/>
+        <f>IFERROR(_FV(A25,"Expense ratio",TRUE),"")</f>
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="G25" s="76">
+      <c r="G25" s="16">
         <f t="array" ref="G25">IFERROR(_FV(A25,"Open"),"")</f>
-        <v>85.6</v>
-      </c>
-      <c r="H25" s="76">
+        <v>58.56</v>
+      </c>
+      <c r="H25" s="16">
         <f t="array" ref="H25">IFERROR(_FV(A25,"High"),"")</f>
-        <v>86.11</v>
-      </c>
-      <c r="I25" s="76">
+        <v>58.704999999999998</v>
+      </c>
+      <c r="I25" s="16">
         <f t="array" ref="I25">IFERROR(_FV(A25,"Low"),"")</f>
-        <v>84.394999999999996</v>
-      </c>
-      <c r="J25" s="76">
+        <v>57.320900000000002</v>
+      </c>
+      <c r="J25" s="16">
         <f t="array" ref="J25">IFERROR(_FV(A25,"Price"),"")</f>
-        <v>84.83</v>
-      </c>
-      <c r="K25" s="76">
+        <v>57.67</v>
+      </c>
+      <c r="K25" s="16">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>84.612499999999997</v>
+        <v>57.495450000000005</v>
       </c>
       <c r="L25" s="3">
         <f t="array" ref="L25">IFERROR(_FV(A25,"Change (%)",TRUE),"")</f>
-        <v>-9.3430000000000006E-3</v>
+        <v>-7.7429999999999999E-3</v>
       </c>
       <c r="M25" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>85.83</v>
+        <v>59.5</v>
       </c>
       <c r="N25" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="O25" s="15">
-        <f t="shared" si="1"/>
-        <v>1.165093790050099E-2</v>
+        <f>IFERROR((M25-J25)/M25,"")</f>
+        <v>3.0756302521008375E-2</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="e" vm="25">
         <v>#VALUE!</v>
       </c>
-      <c r="B26" s="4" t="str" cm="1">
+      <c r="B26" s="4" t="str">
         <f t="array" ref="B26">_FV(A26,"Ticker symbol",TRUE)</f>
-        <v>ARKF</v>
+        <v>ARKQ</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>15</v>
@@ -11216,45 +11217,45 @@
       <c r="E26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="F26" s="3">
+        <f>IFERROR(_FV(A26,"Expense ratio",TRUE),"")</f>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="G26" s="76">
         <f t="array" ref="G26">IFERROR(_FV(A26,"Open"),"")</f>
-        <v>38.479999999999997</v>
+        <v>54.56</v>
       </c>
       <c r="H26" s="76">
         <f t="array" ref="H26">IFERROR(_FV(A26,"High"),"")</f>
-        <v>38.545000000000002</v>
+        <v>54.65</v>
       </c>
       <c r="I26" s="76">
         <f t="array" ref="I26">IFERROR(_FV(A26,"Low"),"")</f>
-        <v>38.119999999999997</v>
+        <v>53.81</v>
       </c>
       <c r="J26" s="76">
         <f t="array" ref="J26">IFERROR(_FV(A26,"Price"),"")</f>
-        <v>38.47</v>
+        <v>54.11</v>
       </c>
       <c r="K26" s="76">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>38.295000000000002</v>
+        <v>53.96</v>
       </c>
       <c r="L26" s="3">
         <f t="array" ref="L26">IFERROR(_FV(A26,"Change (%)",TRUE),"")</f>
-        <v>5.4890000000000008E-3</v>
+        <v>-1.5466000000000001E-2</v>
       </c>
       <c r="M26" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>38.47</v>
+        <v>54.96</v>
       </c>
       <c r="N26" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
-        <v>16.940000000000001</v>
+        <v>26.19</v>
       </c>
       <c r="O26" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IFERROR((M26-J26)/M26,"")</f>
+        <v>1.5465793304221277E-2</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -11263,7 +11264,7 @@
       </c>
       <c r="B27" s="4" t="str">
         <f t="array" ref="B27">_FV(A27,"Ticker symbol",TRUE)</f>
-        <v>ARKQ</v>
+        <v>ARKK</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>15</v>
@@ -11275,44 +11276,44 @@
         <v>23</v>
       </c>
       <c r="F27" s="3">
-        <f t="shared" si="0"/>
+        <f>IFERROR(_FV(A27,"Expense ratio",TRUE),"")</f>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="G27" s="76">
         <f t="array" ref="G27">IFERROR(_FV(A27,"Open"),"")</f>
-        <v>54.56</v>
+        <v>85.6</v>
       </c>
       <c r="H27" s="76">
         <f t="array" ref="H27">IFERROR(_FV(A27,"High"),"")</f>
-        <v>54.65</v>
+        <v>86.11</v>
       </c>
       <c r="I27" s="76">
         <f t="array" ref="I27">IFERROR(_FV(A27,"Low"),"")</f>
-        <v>53.81</v>
+        <v>84.394999999999996</v>
       </c>
       <c r="J27" s="76">
         <f t="array" ref="J27">IFERROR(_FV(A27,"Price"),"")</f>
-        <v>54.11</v>
+        <v>84.83</v>
       </c>
       <c r="K27" s="76">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>53.96</v>
+        <v>84.612499999999997</v>
       </c>
       <c r="L27" s="3">
         <f t="array" ref="L27">IFERROR(_FV(A27,"Change (%)",TRUE),"")</f>
-        <v>-1.5466000000000001E-2</v>
+        <v>-9.3430000000000006E-3</v>
       </c>
       <c r="M27" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>54.96</v>
+        <v>85.83</v>
       </c>
       <c r="N27" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
-        <v>26.19</v>
+        <v>33</v>
       </c>
       <c r="O27" s="15">
-        <f t="shared" si="1"/>
-        <v>1.5465793304221277E-2</v>
+        <f>IFERROR((M27-J27)/M27,"")</f>
+        <v>1.165093790050099E-2</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -11321,114 +11322,114 @@
       </c>
       <c r="B28" s="4" t="str">
         <f t="array" ref="B28">_FV(A28,"Ticker symbol",TRUE)</f>
-        <v>EFG</v>
+        <v>ARKW</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F28" s="3">
-        <f t="shared" si="0"/>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G28" s="16">
+        <f>IFERROR(_FV(A28,"Expense ratio",TRUE),"")</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="G28" s="76">
         <f t="array" ref="G28">IFERROR(_FV(A28,"Open"),"")</f>
-        <v>88.01</v>
-      </c>
-      <c r="H28" s="16">
+        <v>103.41500000000001</v>
+      </c>
+      <c r="H28" s="76">
         <f t="array" ref="H28">IFERROR(_FV(A28,"High"),"")</f>
-        <v>88.48</v>
-      </c>
-      <c r="I28" s="16">
+        <v>103.6174</v>
+      </c>
+      <c r="I28" s="76">
         <f t="array" ref="I28">IFERROR(_FV(A28,"Low"),"")</f>
-        <v>87.72</v>
-      </c>
-      <c r="J28" s="16">
+        <v>102.28</v>
+      </c>
+      <c r="J28" s="76">
         <f t="array" ref="J28">IFERROR(_FV(A28,"Price"),"")</f>
-        <v>88.33</v>
-      </c>
-      <c r="K28" s="16">
+        <v>103.19</v>
+      </c>
+      <c r="K28" s="76">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>88.025000000000006</v>
+        <v>102.735</v>
       </c>
       <c r="L28" s="3">
         <f t="array" ref="L28">IFERROR(_FV(A28,"Change (%)",TRUE),"")</f>
-        <v>1.132E-4</v>
+        <v>-2.2239999999999998E-3</v>
       </c>
       <c r="M28" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>89.16</v>
+        <v>103.97920000000001</v>
       </c>
       <c r="N28" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
-        <v>60.13</v>
+        <v>40.494999999999997</v>
       </c>
       <c r="O28" s="15">
-        <f t="shared" si="1"/>
-        <v>9.3091072229699225E-3</v>
+        <f>IFERROR((M28-J28)/M28,"")</f>
+        <v>7.5899795343684897E-3</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="e" vm="28">
         <v>#VALUE!</v>
       </c>
-      <c r="B29" s="4" t="str">
+      <c r="B29" s="4" t="str" cm="1">
         <f t="array" ref="B29">_FV(A29,"Ticker symbol",TRUE)</f>
-        <v>JKH</v>
+        <v>ARKF</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F29" s="3">
-        <f t="shared" si="0"/>
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G29" s="16">
+        <v>23</v>
+      </c>
+      <c r="F29" s="3" t="str">
+        <f>IFERROR(_FV(A29,"Expense ratio",TRUE),"")</f>
+        <v/>
+      </c>
+      <c r="G29" s="76">
         <f t="array" ref="G29">IFERROR(_FV(A29,"Open"),"")</f>
-        <v>322.19</v>
-      </c>
-      <c r="H29" s="16">
+        <v>38.479999999999997</v>
+      </c>
+      <c r="H29" s="76">
         <f t="array" ref="H29">IFERROR(_FV(A29,"High"),"")</f>
-        <v>322.83</v>
-      </c>
-      <c r="I29" s="16">
+        <v>38.545000000000002</v>
+      </c>
+      <c r="I29" s="76">
         <f t="array" ref="I29">IFERROR(_FV(A29,"Low"),"")</f>
-        <v>317.71929999999998</v>
-      </c>
-      <c r="J29" s="16">
+        <v>38.119999999999997</v>
+      </c>
+      <c r="J29" s="76">
         <f t="array" ref="J29">IFERROR(_FV(A29,"Price"),"")</f>
-        <v>320.23</v>
-      </c>
-      <c r="K29" s="16">
+        <v>38.47</v>
+      </c>
+      <c r="K29" s="76">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>318.97465</v>
+        <v>38.295000000000002</v>
       </c>
       <c r="L29" s="3">
         <f t="array" ref="L29">IFERROR(_FV(A29,"Change (%)",TRUE),"")</f>
-        <v>-5.744E-3</v>
+        <v>5.4890000000000008E-3</v>
       </c>
       <c r="M29" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>322.7</v>
+        <v>38.47</v>
       </c>
       <c r="N29" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
-        <v>183.43979999999999</v>
+        <v>16.940000000000001</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="1"/>
-        <v>7.6541679578555023E-3</v>
+        <f>IFERROR((M29-J29)/M29,"")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -11437,7 +11438,7 @@
       </c>
       <c r="B30" s="4" t="str">
         <f t="array" ref="B30">_FV(A30,"Ticker symbol",TRUE)</f>
-        <v>VNQ</v>
+        <v>EFG</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>15</v>
@@ -11446,47 +11447,47 @@
         <v>18</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F30" s="3">
-        <f t="shared" si="0"/>
-        <v>1.1999999999999999E-3</v>
+        <f>IFERROR(_FV(A30,"Expense ratio",TRUE),"")</f>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="G30" s="16">
         <f t="array" ref="G30">IFERROR(_FV(A30,"Open"),"")</f>
-        <v>80.89</v>
+        <v>88.01</v>
       </c>
       <c r="H30" s="16">
         <f t="array" ref="H30">IFERROR(_FV(A30,"High"),"")</f>
-        <v>81.454999999999998</v>
+        <v>88.48</v>
       </c>
       <c r="I30" s="16">
         <f t="array" ref="I30">IFERROR(_FV(A30,"Low"),"")</f>
-        <v>80.709999999999994</v>
+        <v>87.72</v>
       </c>
       <c r="J30" s="16">
         <f t="array" ref="J30">IFERROR(_FV(A30,"Price"),"")</f>
-        <v>81.22</v>
+        <v>88.33</v>
       </c>
       <c r="K30" s="16">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>80.965000000000003</v>
+        <v>88.025000000000006</v>
       </c>
       <c r="L30" s="3">
         <f t="array" ref="L30">IFERROR(_FV(A30,"Change (%)",TRUE),"")</f>
-        <v>1.356E-3</v>
+        <v>1.132E-4</v>
       </c>
       <c r="M30" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>99.72</v>
+        <v>89.16</v>
       </c>
       <c r="N30" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
-        <v>55.58</v>
+        <v>60.13</v>
       </c>
       <c r="O30" s="15">
-        <f t="shared" si="1"/>
-        <v>0.18551945447252308</v>
+        <f>IFERROR((M30-J30)/M30,"")</f>
+        <v>9.3091072229699225E-3</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -11495,7 +11496,7 @@
       </c>
       <c r="B31" s="4" t="str">
         <f t="array" ref="B31">_FV(A31,"Ticker symbol",TRUE)</f>
-        <v>XHB</v>
+        <v>JKH</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>15</v>
@@ -11504,172 +11505,172 @@
         <v>18</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F31" s="3">
-        <f t="shared" si="0"/>
-        <v>3.4999999999999996E-3</v>
+        <f>IFERROR(_FV(A31,"Expense ratio",TRUE),"")</f>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="G31" s="16">
         <f t="array" ref="G31">IFERROR(_FV(A31,"Open"),"")</f>
-        <v>50.7</v>
+        <v>322.19</v>
       </c>
       <c r="H31" s="16">
         <f t="array" ref="H31">IFERROR(_FV(A31,"High"),"")</f>
-        <v>50.87</v>
+        <v>322.83</v>
       </c>
       <c r="I31" s="16">
         <f t="array" ref="I31">IFERROR(_FV(A31,"Low"),"")</f>
-        <v>50.45</v>
+        <v>317.71929999999998</v>
       </c>
       <c r="J31" s="16">
         <f t="array" ref="J31">IFERROR(_FV(A31,"Price"),"")</f>
-        <v>50.7</v>
+        <v>320.23</v>
       </c>
       <c r="K31" s="16">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>50.575000000000003</v>
+        <v>318.97465</v>
       </c>
       <c r="L31" s="3">
         <f t="array" ref="L31">IFERROR(_FV(A31,"Change (%)",TRUE),"")</f>
-        <v>1.973E-4</v>
+        <v>-5.744E-3</v>
       </c>
       <c r="M31" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>50.734999999999999</v>
+        <v>322.7</v>
       </c>
       <c r="N31" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
-        <v>23.95</v>
+        <v>183.43979999999999</v>
       </c>
       <c r="O31" s="15">
-        <f t="shared" si="1"/>
-        <v>6.8985907164672493E-4</v>
+        <f>IFERROR((M31-J31)/M31,"")</f>
+        <v>7.6541679578555023E-3</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="e" vm="31">
         <v>#VALUE!</v>
       </c>
-      <c r="B32" s="4" t="str" cm="1">
+      <c r="B32" s="4" t="str">
         <f t="array" ref="B32">_FV(A32,"Ticker symbol",TRUE)</f>
-        <v>FNILX</v>
+        <v>VNQ</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F32" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="76" t="str">
+        <f>IFERROR(_FV(A32,"Expense ratio",TRUE),"")</f>
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="G32" s="16">
         <f t="array" ref="G32">IFERROR(_FV(A32,"Open"),"")</f>
-        <v/>
-      </c>
-      <c r="H32" s="76" t="str">
+        <v>80.89</v>
+      </c>
+      <c r="H32" s="16">
         <f t="array" ref="H32">IFERROR(_FV(A32,"High"),"")</f>
-        <v/>
-      </c>
-      <c r="I32" s="76" t="str">
+        <v>81.454999999999998</v>
+      </c>
+      <c r="I32" s="16">
         <f t="array" ref="I32">IFERROR(_FV(A32,"Low"),"")</f>
-        <v/>
-      </c>
-      <c r="J32" s="76">
+        <v>80.709999999999994</v>
+      </c>
+      <c r="J32" s="16">
         <f t="array" ref="J32">IFERROR(_FV(A32,"Price"),"")</f>
-        <v>11.86</v>
-      </c>
-      <c r="K32" s="76" t="str">
+        <v>81.22</v>
+      </c>
+      <c r="K32" s="16">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v/>
+        <v>80.965000000000003</v>
       </c>
       <c r="L32" s="3">
         <f t="array" ref="L32">IFERROR(_FV(A32,"Change (%)",TRUE),"")</f>
-        <v>5.9370000000000004E-3</v>
-      </c>
-      <c r="M32" s="16" t="str">
+        <v>1.356E-3</v>
+      </c>
+      <c r="M32" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v/>
-      </c>
-      <c r="N32" s="16" t="str">
+        <v>99.72</v>
+      </c>
+      <c r="N32" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
-        <v/>
-      </c>
-      <c r="O32" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>55.58</v>
+      </c>
+      <c r="O32" s="15">
+        <f>IFERROR((M32-J32)/M32,"")</f>
+        <v>0.18551945447252308</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="e" vm="32">
         <v>#VALUE!</v>
       </c>
-      <c r="B33" s="1" t="str" cm="1">
+      <c r="B33" s="4" t="str">
         <f t="array" ref="B33">_FV(A33,"Ticker symbol",TRUE)</f>
-        <v>IVV</v>
+        <v>XHB</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F33" s="3">
-        <f t="shared" si="0"/>
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="G33" s="76">
+        <f>IFERROR(_FV(A33,"Expense ratio",TRUE),"")</f>
+        <v>3.4999999999999996E-3</v>
+      </c>
+      <c r="G33" s="16">
         <f t="array" ref="G33">IFERROR(_FV(A33,"Open"),"")</f>
-        <v>332.83499999999998</v>
-      </c>
-      <c r="H33" s="76">
+        <v>50.7</v>
+      </c>
+      <c r="H33" s="16">
         <f t="array" ref="H33">IFERROR(_FV(A33,"High"),"")</f>
-        <v>335.8</v>
-      </c>
-      <c r="I33" s="76">
+        <v>50.87</v>
+      </c>
+      <c r="I33" s="16">
         <f t="array" ref="I33">IFERROR(_FV(A33,"Low"),"")</f>
-        <v>332.48</v>
-      </c>
-      <c r="J33" s="76">
+        <v>50.45</v>
+      </c>
+      <c r="J33" s="16">
         <f t="array" ref="J33">IFERROR(_FV(A33,"Price"),"")</f>
-        <v>335.69</v>
-      </c>
-      <c r="K33" s="76">
+        <v>50.7</v>
+      </c>
+      <c r="K33" s="16">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>334.08500000000004</v>
+        <v>50.575000000000003</v>
       </c>
       <c r="L33" s="3">
         <f t="array" ref="L33">IFERROR(_FV(A33,"Change (%)",TRUE),"")</f>
-        <v>6.8379999999999995E-3</v>
+        <v>1.973E-4</v>
       </c>
       <c r="M33" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>340.63119999999998</v>
+        <v>50.734999999999999</v>
       </c>
       <c r="N33" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
-        <v>220.2756</v>
+        <v>23.95</v>
       </c>
       <c r="O33" s="15">
-        <f t="shared" si="1"/>
-        <v>1.4506011193337489E-2</v>
+        <f>IFERROR((M33-J33)/M33,"")</f>
+        <v>6.8985907164672493E-4</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="e" vm="33">
         <v>#VALUE!</v>
       </c>
-      <c r="B34" s="1" t="str" cm="1">
+      <c r="B34" s="4" t="str" cm="1">
         <f t="array" ref="B34">_FV(A34,"Ticker symbol",TRUE)</f>
-        <v>VOO</v>
+        <v>FNILX</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>15</v>
@@ -11681,44 +11682,44 @@
         <v>27</v>
       </c>
       <c r="F34" s="3">
-        <f t="shared" si="0"/>
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="G34" s="76">
+        <f>IFERROR(_FV(A34,"Expense ratio",TRUE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="76" t="str">
         <f t="array" ref="G34">IFERROR(_FV(A34,"Open"),"")</f>
-        <v>304.52</v>
-      </c>
-      <c r="H34" s="76">
+        <v/>
+      </c>
+      <c r="H34" s="76" t="str">
         <f t="array" ref="H34">IFERROR(_FV(A34,"High"),"")</f>
-        <v>307.2756</v>
-      </c>
-      <c r="I34" s="76">
+        <v/>
+      </c>
+      <c r="I34" s="76" t="str">
         <f t="array" ref="I34">IFERROR(_FV(A34,"Low"),"")</f>
-        <v>304.25</v>
+        <v/>
       </c>
       <c r="J34" s="76">
         <f t="array" ref="J34">IFERROR(_FV(A34,"Price"),"")</f>
-        <v>307.18</v>
-      </c>
-      <c r="K34" s="76">
+        <v>11.86</v>
+      </c>
+      <c r="K34" s="76" t="str">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>305.71500000000003</v>
+        <v/>
       </c>
       <c r="L34" s="3">
         <f t="array" ref="L34">IFERROR(_FV(A34,"Change (%)",TRUE),"")</f>
-        <v>6.8830000000000002E-3</v>
-      </c>
-      <c r="M34" s="16">
+        <v>5.9370000000000004E-3</v>
+      </c>
+      <c r="M34" s="16" t="str">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>311.58999999999997</v>
-      </c>
-      <c r="N34" s="16">
+        <v/>
+      </c>
+      <c r="N34" s="16" t="str">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
-        <v>200.55</v>
-      </c>
-      <c r="O34" s="15">
-        <f t="shared" si="1"/>
-        <v>1.415321415963275E-2</v>
+        <v/>
+      </c>
+      <c r="O34" s="15" t="str">
+        <f>IFERROR((M34-J34)/M34,"")</f>
+        <v/>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -11727,7 +11728,7 @@
       </c>
       <c r="B35" s="1" t="str" cm="1">
         <f t="array" ref="B35">_FV(A35,"Ticker symbol",TRUE)</f>
-        <v>XSD</v>
+        <v>IVV</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>15</v>
@@ -11736,47 +11737,47 @@
         <v>16</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F35" s="3">
-        <f t="shared" si="0"/>
-        <v>3.4999999999999996E-3</v>
+        <f>IFERROR(_FV(A35,"Expense ratio",TRUE),"")</f>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="G35" s="76">
         <f t="array" ref="G35">IFERROR(_FV(A35,"Open"),"")</f>
-        <v>126</v>
+        <v>332.83499999999998</v>
       </c>
       <c r="H35" s="76">
         <f t="array" ref="H35">IFERROR(_FV(A35,"High"),"")</f>
-        <v>126.4796</v>
+        <v>335.8</v>
       </c>
       <c r="I35" s="76">
         <f t="array" ref="I35">IFERROR(_FV(A35,"Low"),"")</f>
-        <v>125.255</v>
+        <v>332.48</v>
       </c>
       <c r="J35" s="76">
         <f t="array" ref="J35">IFERROR(_FV(A35,"Price"),"")</f>
-        <v>126.33</v>
+        <v>335.69</v>
       </c>
       <c r="K35" s="76">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>125.79249999999999</v>
+        <v>334.08500000000004</v>
       </c>
       <c r="L35" s="3">
         <f t="array" ref="L35">IFERROR(_FV(A35,"Change (%)",TRUE),"")</f>
-        <v>7.9219999999999996E-4</v>
+        <v>6.8379999999999995E-3</v>
       </c>
       <c r="M35" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>126.64</v>
+        <v>340.63119999999998</v>
       </c>
       <c r="N35" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
-        <v>68.948099999999997</v>
+        <v>220.2756</v>
       </c>
       <c r="O35" s="15">
-        <f t="shared" si="1"/>
-        <v>2.4478837650031763E-3</v>
+        <f>IFERROR((M35-J35)/M35,"")</f>
+        <v>1.4506011193337489E-2</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -11785,7 +11786,7 @@
       </c>
       <c r="B36" s="1" t="str" cm="1">
         <f t="array" ref="B36">_FV(A36,"Ticker symbol",TRUE)</f>
-        <v>SMH</v>
+        <v>VOO</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>15</v>
@@ -11794,105 +11795,105 @@
         <v>16</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F36" s="3">
-        <f t="shared" si="0"/>
-        <v>3.4999999999999996E-3</v>
+        <f>IFERROR(_FV(A36,"Expense ratio",TRUE),"")</f>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="G36" s="76">
         <f t="array" ref="G36">IFERROR(_FV(A36,"Open"),"")</f>
-        <v>171.72</v>
+        <v>304.52</v>
       </c>
       <c r="H36" s="76">
         <f t="array" ref="H36">IFERROR(_FV(A36,"High"),"")</f>
-        <v>171.745</v>
+        <v>307.2756</v>
       </c>
       <c r="I36" s="76">
         <f t="array" ref="I36">IFERROR(_FV(A36,"Low"),"")</f>
-        <v>169.74</v>
+        <v>304.25</v>
       </c>
       <c r="J36" s="76">
         <f t="array" ref="J36">IFERROR(_FV(A36,"Price"),"")</f>
-        <v>171.49</v>
+        <v>307.18</v>
       </c>
       <c r="K36" s="76">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>170.61500000000001</v>
+        <v>305.71500000000003</v>
       </c>
       <c r="L36" s="3">
         <f t="array" ref="L36">IFERROR(_FV(A36,"Change (%)",TRUE),"")</f>
-        <v>-1.7460000000000002E-3</v>
+        <v>6.8830000000000002E-3</v>
       </c>
       <c r="M36" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>173.09</v>
+        <v>311.58999999999997</v>
       </c>
       <c r="N36" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
-        <v>96</v>
+        <v>200.55</v>
       </c>
       <c r="O36" s="15">
-        <f t="shared" si="1"/>
-        <v>9.2437460280778462E-3</v>
+        <f>IFERROR((M36-J36)/M36,"")</f>
+        <v>1.415321415963275E-2</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="e" vm="36">
         <v>#VALUE!</v>
       </c>
-      <c r="B37" s="4" t="str" cm="1">
+      <c r="B37" s="1" t="str" cm="1">
         <f t="array" ref="B37">_FV(A37,"Ticker symbol",TRUE)</f>
-        <v>XITK</v>
+        <v>SMH</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F37" s="3">
-        <f t="shared" si="0"/>
-        <v>4.5000000000000005E-3</v>
-      </c>
-      <c r="G37" s="16">
+        <f>IFERROR(_FV(A37,"Expense ratio",TRUE),"")</f>
+        <v>3.4999999999999996E-3</v>
+      </c>
+      <c r="G37" s="76">
         <f t="array" ref="G37">IFERROR(_FV(A37,"Open"),"")</f>
-        <v>166.22</v>
-      </c>
-      <c r="H37" s="16">
+        <v>171.72</v>
+      </c>
+      <c r="H37" s="76">
         <f t="array" ref="H37">IFERROR(_FV(A37,"High"),"")</f>
-        <v>167.35499999999999</v>
-      </c>
-      <c r="I37" s="16">
+        <v>171.745</v>
+      </c>
+      <c r="I37" s="76">
         <f t="array" ref="I37">IFERROR(_FV(A37,"Low"),"")</f>
-        <v>164.03100000000001</v>
-      </c>
-      <c r="J37" s="16">
+        <v>169.74</v>
+      </c>
+      <c r="J37" s="76">
         <f t="array" ref="J37">IFERROR(_FV(A37,"Price"),"")</f>
-        <v>165.9</v>
-      </c>
-      <c r="K37" s="16">
+        <v>171.49</v>
+      </c>
+      <c r="K37" s="76">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>164.96550000000002</v>
+        <v>170.61500000000001</v>
       </c>
       <c r="L37" s="3">
         <f t="array" ref="L37">IFERROR(_FV(A37,"Change (%)",TRUE),"")</f>
-        <v>-5.6940000000000003E-3</v>
+        <v>-1.7460000000000002E-3</v>
       </c>
       <c r="M37" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>167.37</v>
+        <v>173.09</v>
       </c>
       <c r="N37" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
-        <v>81.5</v>
+        <v>96</v>
       </c>
       <c r="O37" s="15">
-        <f t="shared" si="1"/>
-        <v>8.7829360100376338E-3</v>
+        <f>IFERROR((M37-J37)/M37,"")</f>
+        <v>9.2437460280778462E-3</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -11901,172 +11902,172 @@
       </c>
       <c r="B38" s="1" t="str" cm="1">
         <f t="array" ref="B38">_FV(A38,"Ticker symbol",TRUE)</f>
-        <v>XLK</v>
+        <v>XSD</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F38" s="3">
-        <f t="shared" si="0"/>
-        <v>1.4000000000000002E-3</v>
-      </c>
-      <c r="G38" s="16">
+        <f>IFERROR(_FV(A38,"Expense ratio",TRUE),"")</f>
+        <v>3.4999999999999996E-3</v>
+      </c>
+      <c r="G38" s="76">
         <f t="array" ref="G38">IFERROR(_FV(A38,"Open"),"")</f>
-        <v>113.77</v>
-      </c>
-      <c r="H38" s="16">
+        <v>126</v>
+      </c>
+      <c r="H38" s="76">
         <f t="array" ref="H38">IFERROR(_FV(A38,"High"),"")</f>
-        <v>115.57</v>
-      </c>
-      <c r="I38" s="16">
+        <v>126.4796</v>
+      </c>
+      <c r="I38" s="76">
         <f t="array" ref="I38">IFERROR(_FV(A38,"Low"),"")</f>
-        <v>113.52</v>
-      </c>
-      <c r="J38" s="16">
+        <v>125.255</v>
+      </c>
+      <c r="J38" s="76">
         <f t="array" ref="J38">IFERROR(_FV(A38,"Price"),"")</f>
-        <v>115.49</v>
-      </c>
-      <c r="K38" s="16">
+        <v>126.33</v>
+      </c>
+      <c r="K38" s="76">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>114.505</v>
+        <v>125.79249999999999</v>
       </c>
       <c r="L38" s="3">
         <f t="array" ref="L38">IFERROR(_FV(A38,"Change (%)",TRUE),"")</f>
-        <v>1.4582999999999999E-2</v>
+        <v>7.9219999999999996E-4</v>
       </c>
       <c r="M38" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>115.49</v>
+        <v>126.64</v>
       </c>
       <c r="N38" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
-        <v>68.099999999999994</v>
+        <v>68.948099999999997</v>
       </c>
       <c r="O38" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IFERROR((M38-J38)/M38,"")</f>
+        <v>2.4478837650031763E-3</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="e" vm="38">
         <v>#VALUE!</v>
       </c>
-      <c r="B39" s="1" t="str" cm="1">
+      <c r="B39" s="4" t="str" cm="1">
         <f t="array" ref="B39">_FV(A39,"Ticker symbol",TRUE)</f>
-        <v>VGT</v>
+        <v>IHAK</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F39" s="3">
-        <f t="shared" si="0"/>
-        <v>1E-3</v>
-      </c>
-      <c r="G39" s="76">
+      <c r="F39" s="3" t="str">
+        <f>IFERROR(_FV(A39,"Expense ratio",TRUE),"")</f>
+        <v/>
+      </c>
+      <c r="G39" s="16">
         <f t="array" ref="G39">IFERROR(_FV(A39,"Open"),"")</f>
-        <v>304.70999999999998</v>
-      </c>
-      <c r="H39" s="76">
+        <v>34.15</v>
+      </c>
+      <c r="H39" s="16">
         <f t="array" ref="H39">IFERROR(_FV(A39,"High"),"")</f>
-        <v>308.47000000000003</v>
-      </c>
-      <c r="I39" s="76">
+        <v>34.24</v>
+      </c>
+      <c r="I39" s="16">
         <f t="array" ref="I39">IFERROR(_FV(A39,"Low"),"")</f>
-        <v>303.39499999999998</v>
-      </c>
-      <c r="J39" s="76">
+        <v>33.660800000000002</v>
+      </c>
+      <c r="J39" s="16">
         <f t="array" ref="J39">IFERROR(_FV(A39,"Price"),"")</f>
-        <v>308.2</v>
-      </c>
-      <c r="K39" s="76">
+        <v>33.909999999999997</v>
+      </c>
+      <c r="K39" s="16">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>305.79750000000001</v>
+        <v>33.785399999999996</v>
       </c>
       <c r="L39" s="3">
         <f t="array" ref="L39">IFERROR(_FV(A39,"Change (%)",TRUE),"")</f>
-        <v>1.2017999999999999E-2</v>
+        <v>-1.0216000000000001E-2</v>
       </c>
       <c r="M39" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>308.2</v>
+        <v>34.402799999999999</v>
       </c>
       <c r="N39" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
-        <v>179.45</v>
+        <v>20.36</v>
       </c>
       <c r="O39" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IFERROR((M39-J39)/M39,"")</f>
+        <v>1.4324415454556099E-2</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="e" vm="39">
         <v>#VALUE!</v>
       </c>
-      <c r="B40" s="1" t="str" cm="1">
+      <c r="B40" s="4" t="str" cm="1">
         <f t="array" ref="B40">_FV(A40,"Ticker symbol",TRUE)</f>
-        <v>FTEC</v>
+        <v>XITK</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F40" s="3">
-        <f t="shared" si="0"/>
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="G40" s="76">
+        <f>IFERROR(_FV(A40,"Expense ratio",TRUE),"")</f>
+        <v>4.5000000000000005E-3</v>
+      </c>
+      <c r="G40" s="16">
         <f t="array" ref="G40">IFERROR(_FV(A40,"Open"),"")</f>
-        <v>89.93</v>
-      </c>
-      <c r="H40" s="76">
+        <v>166.22</v>
+      </c>
+      <c r="H40" s="16">
         <f t="array" ref="H40">IFERROR(_FV(A40,"High"),"")</f>
-        <v>91.12</v>
-      </c>
-      <c r="I40" s="76">
+        <v>167.35499999999999</v>
+      </c>
+      <c r="I40" s="16">
         <f t="array" ref="I40">IFERROR(_FV(A40,"Low"),"")</f>
-        <v>89.630099999999999</v>
-      </c>
-      <c r="J40" s="76">
+        <v>164.03100000000001</v>
+      </c>
+      <c r="J40" s="16">
         <f t="array" ref="J40">IFERROR(_FV(A40,"Price"),"")</f>
-        <v>91</v>
-      </c>
-      <c r="K40" s="76">
+        <v>165.9</v>
+      </c>
+      <c r="K40" s="16">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>90.315049999999999</v>
+        <v>164.96550000000002</v>
       </c>
       <c r="L40" s="3">
         <f t="array" ref="L40">IFERROR(_FV(A40,"Change (%)",TRUE),"")</f>
-        <v>1.1786000000000001E-2</v>
+        <v>-5.6940000000000003E-3</v>
       </c>
       <c r="M40" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>91</v>
+        <v>167.37</v>
       </c>
       <c r="N40" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
-        <v>53</v>
+        <v>81.5</v>
       </c>
       <c r="O40" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IFERROR((M40-J40)/M40,"")</f>
+        <v>8.7829360100376338E-3</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -12075,7 +12076,7 @@
       </c>
       <c r="B41" s="4" t="str" cm="1">
         <f t="array" ref="B41">_FV(A41,"Ticker symbol",TRUE)</f>
-        <v>GDAT</v>
+        <v>SNSR</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>15</v>
@@ -12087,44 +12088,44 @@
         <v>29</v>
       </c>
       <c r="F41" s="3">
-        <f t="shared" si="0"/>
-        <v>5.0000000000000001E-3</v>
+        <f>IFERROR(_FV(A41,"Expense ratio",TRUE),"")</f>
+        <v>6.8999999999999999E-3</v>
       </c>
       <c r="G41" s="16">
         <f t="array" ref="G41">IFERROR(_FV(A41,"Open"),"")</f>
-        <v>69.430000000000007</v>
+        <v>26.83</v>
       </c>
       <c r="H41" s="16">
         <f t="array" ref="H41">IFERROR(_FV(A41,"High"),"")</f>
-        <v>69.739999999999995</v>
+        <v>26.992999999999999</v>
       </c>
       <c r="I41" s="16">
         <f t="array" ref="I41">IFERROR(_FV(A41,"Low"),"")</f>
-        <v>69.11</v>
+        <v>26.72</v>
       </c>
       <c r="J41" s="16">
         <f t="array" ref="J41">IFERROR(_FV(A41,"Price"),"")</f>
-        <v>69.739999999999995</v>
+        <v>26.94</v>
       </c>
       <c r="K41" s="16">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>69.424999999999997</v>
+        <v>26.83</v>
       </c>
       <c r="L41" s="3">
         <f t="array" ref="L41">IFERROR(_FV(A41,"Change (%)",TRUE),"")</f>
-        <v>2.6210000000000001E-3</v>
+        <v>-4.0670000000000003E-3</v>
       </c>
       <c r="M41" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>69.739999999999995</v>
+        <v>27.12</v>
       </c>
       <c r="N41" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
-        <v>41.99</v>
+        <v>14.809699999999999</v>
       </c>
       <c r="O41" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IFERROR((M41-J41)/M41,"")</f>
+        <v>6.6371681415929099E-3</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -12145,7 +12146,7 @@
         <v>29</v>
       </c>
       <c r="F42" s="3">
-        <f t="shared" si="0"/>
+        <f>IFERROR(_FV(A42,"Expense ratio",TRUE),"")</f>
         <v>7.1999999999999998E-3</v>
       </c>
       <c r="G42" s="16">
@@ -12181,7 +12182,7 @@
         <v>29.02</v>
       </c>
       <c r="O42" s="15">
-        <f t="shared" si="1"/>
+        <f>IFERROR((M42-J42)/M42,"")</f>
         <v>4.862236628849311E-3</v>
       </c>
     </row>
@@ -12189,9 +12190,9 @@
       <c r="A43" s="1" t="e" vm="42">
         <v>#VALUE!</v>
       </c>
-      <c r="B43" s="4" t="str" cm="1">
+      <c r="B43" s="1" t="str" cm="1">
         <f t="array" ref="B43">_FV(A43,"Ticker symbol",TRUE)</f>
-        <v>IHAK</v>
+        <v>XLK</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>15</v>
@@ -12202,112 +12203,112 @@
       <c r="E43" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F43" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="F43" s="3">
+        <f>IFERROR(_FV(A43,"Expense ratio",TRUE),"")</f>
+        <v>1.4000000000000002E-3</v>
       </c>
       <c r="G43" s="16">
         <f t="array" ref="G43">IFERROR(_FV(A43,"Open"),"")</f>
-        <v>34.15</v>
+        <v>113.77</v>
       </c>
       <c r="H43" s="16">
         <f t="array" ref="H43">IFERROR(_FV(A43,"High"),"")</f>
-        <v>34.24</v>
+        <v>115.57</v>
       </c>
       <c r="I43" s="16">
         <f t="array" ref="I43">IFERROR(_FV(A43,"Low"),"")</f>
-        <v>33.660800000000002</v>
+        <v>113.52</v>
       </c>
       <c r="J43" s="16">
         <f t="array" ref="J43">IFERROR(_FV(A43,"Price"),"")</f>
-        <v>33.909999999999997</v>
+        <v>115.49</v>
       </c>
       <c r="K43" s="16">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>33.785399999999996</v>
+        <v>114.505</v>
       </c>
       <c r="L43" s="3">
         <f t="array" ref="L43">IFERROR(_FV(A43,"Change (%)",TRUE),"")</f>
-        <v>-1.0216000000000001E-2</v>
+        <v>1.4582999999999999E-2</v>
       </c>
       <c r="M43" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>34.402799999999999</v>
+        <v>115.49</v>
       </c>
       <c r="N43" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
-        <v>20.36</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="O43" s="15">
-        <f t="shared" si="1"/>
-        <v>1.4324415454556099E-2</v>
+        <f>IFERROR((M43-J43)/M43,"")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="e" vm="43">
         <v>#VALUE!</v>
       </c>
-      <c r="B44" s="4" t="str" cm="1">
+      <c r="B44" s="1" t="str" cm="1">
         <f t="array" ref="B44">_FV(A44,"Ticker symbol",TRUE)</f>
-        <v>SNSR</v>
+        <v>VGT</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F44" s="3">
-        <f t="shared" si="0"/>
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="G44" s="16">
+        <f>IFERROR(_FV(A44,"Expense ratio",TRUE),"")</f>
+        <v>1E-3</v>
+      </c>
+      <c r="G44" s="76">
         <f t="array" ref="G44">IFERROR(_FV(A44,"Open"),"")</f>
-        <v>26.83</v>
-      </c>
-      <c r="H44" s="16">
+        <v>304.70999999999998</v>
+      </c>
+      <c r="H44" s="76">
         <f t="array" ref="H44">IFERROR(_FV(A44,"High"),"")</f>
-        <v>26.992999999999999</v>
-      </c>
-      <c r="I44" s="16">
+        <v>308.47000000000003</v>
+      </c>
+      <c r="I44" s="76">
         <f t="array" ref="I44">IFERROR(_FV(A44,"Low"),"")</f>
-        <v>26.72</v>
-      </c>
-      <c r="J44" s="16">
+        <v>303.39499999999998</v>
+      </c>
+      <c r="J44" s="76">
         <f t="array" ref="J44">IFERROR(_FV(A44,"Price"),"")</f>
-        <v>26.94</v>
-      </c>
-      <c r="K44" s="16">
+        <v>308.2</v>
+      </c>
+      <c r="K44" s="76">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v>26.83</v>
+        <v>305.79750000000001</v>
       </c>
       <c r="L44" s="3">
         <f t="array" ref="L44">IFERROR(_FV(A44,"Change (%)",TRUE),"")</f>
-        <v>-4.0670000000000003E-3</v>
+        <v>1.2017999999999999E-2</v>
       </c>
       <c r="M44" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v>27.12</v>
+        <v>308.2</v>
       </c>
       <c r="N44" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
-        <v>14.809699999999999</v>
+        <v>179.45</v>
       </c>
       <c r="O44" s="15">
-        <f t="shared" si="1"/>
-        <v>6.6371681415929099E-3</v>
+        <f>IFERROR((M44-J44)/M44,"")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="e" vm="44">
         <v>#VALUE!</v>
       </c>
-      <c r="B45" s="4" t="str" cm="1">
+      <c r="B45" s="1" t="str" cm="1">
         <f t="array" ref="B45">_FV(A45,"Ticker symbol",TRUE)</f>
-        <v>FZROX</v>
+        <v>FTEC</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>15</v>
@@ -12316,47 +12317,47 @@
         <v>16</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F45" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="76" t="str">
+        <f>IFERROR(_FV(A45,"Expense ratio",TRUE),"")</f>
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="G45" s="76">
         <f t="array" ref="G45">IFERROR(_FV(A45,"Open"),"")</f>
-        <v/>
-      </c>
-      <c r="H45" s="76" t="str">
+        <v>89.93</v>
+      </c>
+      <c r="H45" s="76">
         <f t="array" ref="H45">IFERROR(_FV(A45,"High"),"")</f>
-        <v/>
-      </c>
-      <c r="I45" s="76" t="str">
+        <v>91.12</v>
+      </c>
+      <c r="I45" s="76">
         <f t="array" ref="I45">IFERROR(_FV(A45,"Low"),"")</f>
-        <v/>
+        <v>89.630099999999999</v>
       </c>
       <c r="J45" s="76">
         <f t="array" ref="J45">IFERROR(_FV(A45,"Price"),"")</f>
-        <v>11.78</v>
-      </c>
-      <c r="K45" s="76" t="str">
+        <v>91</v>
+      </c>
+      <c r="K45" s="76">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v/>
+        <v>90.315049999999999</v>
       </c>
       <c r="L45" s="3">
         <f t="array" ref="L45">IFERROR(_FV(A45,"Change (%)",TRUE),"")</f>
-        <v>7.6990000000000001E-3</v>
-      </c>
-      <c r="M45" s="16" t="str">
+        <v>1.1786000000000001E-2</v>
+      </c>
+      <c r="M45" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v/>
-      </c>
-      <c r="N45" s="16" t="str">
+        <v>91</v>
+      </c>
+      <c r="N45" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
-        <v/>
-      </c>
-      <c r="O45" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>53</v>
+      </c>
+      <c r="O45" s="15">
+        <f>IFERROR((M45-J45)/M45,"")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -12365,172 +12366,172 @@
       </c>
       <c r="B46" s="4" t="str" cm="1">
         <f t="array" ref="B46">_FV(A46,"Ticker symbol",TRUE)</f>
-        <v>VTI</v>
+        <v>GDAT</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" s="3">
+        <f>IFERROR(_FV(A46,"Expense ratio",TRUE),"")</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G46" s="16">
+        <f t="array" ref="G46">IFERROR(_FV(A46,"Open"),"")</f>
+        <v>69.430000000000007</v>
+      </c>
+      <c r="H46" s="16">
+        <f t="array" ref="H46">IFERROR(_FV(A46,"High"),"")</f>
+        <v>69.739999999999995</v>
+      </c>
+      <c r="I46" s="16">
+        <f t="array" ref="I46">IFERROR(_FV(A46,"Low"),"")</f>
+        <v>69.11</v>
+      </c>
+      <c r="J46" s="16">
+        <f t="array" ref="J46">IFERROR(_FV(A46,"Price"),"")</f>
+        <v>69.739999999999995</v>
+      </c>
+      <c r="K46" s="16">
+        <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
+        <v>69.424999999999997</v>
+      </c>
+      <c r="L46" s="3">
+        <f t="array" ref="L46">IFERROR(_FV(A46,"Change (%)",TRUE),"")</f>
+        <v>2.6210000000000001E-3</v>
+      </c>
+      <c r="M46" s="16">
+        <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
+        <v>69.739999999999995</v>
+      </c>
+      <c r="N46" s="16">
+        <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
+        <v>41.99</v>
+      </c>
+      <c r="O46" s="15">
+        <f>IFERROR((M46-J46)/M46,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="e" vm="46">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B47" s="4" t="str" cm="1">
+        <f t="array" ref="B47">_FV(A47,"Ticker symbol",TRUE)</f>
+        <v>FZROX</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F46" s="3">
-        <f t="shared" si="0"/>
+      <c r="F47" s="3">
+        <f>IFERROR(_FV(A47,"Expense ratio",TRUE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="G47" s="76" t="str">
+        <f t="array" ref="G47">IFERROR(_FV(A47,"Open"),"")</f>
+        <v/>
+      </c>
+      <c r="H47" s="76" t="str">
+        <f t="array" ref="H47">IFERROR(_FV(A47,"High"),"")</f>
+        <v/>
+      </c>
+      <c r="I47" s="76" t="str">
+        <f t="array" ref="I47">IFERROR(_FV(A47,"Low"),"")</f>
+        <v/>
+      </c>
+      <c r="J47" s="76">
+        <f t="array" ref="J47">IFERROR(_FV(A47,"Price"),"")</f>
+        <v>11.78</v>
+      </c>
+      <c r="K47" s="76" t="str">
+        <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
+        <v/>
+      </c>
+      <c r="L47" s="3">
+        <f t="array" ref="L47">IFERROR(_FV(A47,"Change (%)",TRUE),"")</f>
+        <v>7.6990000000000001E-3</v>
+      </c>
+      <c r="M47" s="16" t="str">
+        <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
+        <v/>
+      </c>
+      <c r="N47" s="16" t="str">
+        <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
+        <v/>
+      </c>
+      <c r="O47" s="15" t="str">
+        <f>IFERROR((M47-J47)/M47,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="125" t="e" vm="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B48" s="4" t="str" cm="1">
+        <f t="array" ref="B48">_FV(A48,"Ticker symbol",TRUE)</f>
+        <v>VTI</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F48" s="3">
+        <f>IFERROR(_FV(A48,"Expense ratio",TRUE),"")</f>
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="G46" s="76">
-        <f t="array" ref="G46">IFERROR(_FV(A46,"Open"),"")</f>
+      <c r="G48" s="76">
+        <f t="array" ref="G48">IFERROR(_FV(A48,"Open"),"")</f>
         <v>168.61</v>
       </c>
-      <c r="H46" s="76">
-        <f t="array" ref="H46">IFERROR(_FV(A46,"High"),"")</f>
+      <c r="H48" s="76">
+        <f t="array" ref="H48">IFERROR(_FV(A48,"High"),"")</f>
         <v>169.77500000000001</v>
       </c>
-      <c r="I46" s="76">
-        <f t="array" ref="I46">IFERROR(_FV(A46,"Low"),"")</f>
+      <c r="I48" s="76">
+        <f t="array" ref="I48">IFERROR(_FV(A48,"Low"),"")</f>
         <v>168.27500000000001</v>
       </c>
-      <c r="J46" s="76">
-        <f t="array" ref="J46">IFERROR(_FV(A46,"Price"),"")</f>
+      <c r="J48" s="76">
+        <f t="array" ref="J48">IFERROR(_FV(A48,"Price"),"")</f>
         <v>169.65</v>
       </c>
-      <c r="K46" s="76">
+      <c r="K48" s="76">
         <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
         <v>168.96250000000001</v>
       </c>
-      <c r="L46" s="3">
-        <f t="array" ref="L46">IFERROR(_FV(A46,"Change (%)",TRUE),"")</f>
+      <c r="L48" s="3">
+        <f t="array" ref="L48">IFERROR(_FV(A48,"Change (%)",TRUE),"")</f>
         <v>4.8570000000000002E-3</v>
       </c>
-      <c r="M46" s="16">
+      <c r="M48" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
         <v>172.55670000000001</v>
       </c>
-      <c r="N46" s="16">
+      <c r="N48" s="16">
         <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
         <v>109.49</v>
       </c>
-      <c r="O46" s="15">
-        <f t="shared" si="1"/>
+      <c r="O48" s="15">
+        <f>IFERROR((M48-J48)/M48,"")</f>
         <v>1.68448979378952E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="14" t="e" vm="46">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B47" s="115" t="str">
-        <f t="array" ref="B47">_FV(A47,"Ticker symbol",TRUE)</f>
-        <v>FPBFX</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>366</v>
-      </c>
-      <c r="F47" s="90">
-        <f>IFERROR(_FV(A47,"Expense ratio",TRUE),"")</f>
-        <v>1.11E-2</v>
-      </c>
-      <c r="G47" s="116" t="str">
-        <f t="array" ref="G47">IFERROR(_FV(A47,"Open"),"")</f>
-        <v/>
-      </c>
-      <c r="H47" s="116" t="str">
-        <f t="array" ref="H47">IFERROR(_FV(A47,"High"),"")</f>
-        <v/>
-      </c>
-      <c r="I47" s="116" t="str">
-        <f t="array" ref="I47">IFERROR(_FV(A47,"Low"),"")</f>
-        <v/>
-      </c>
-      <c r="J47" s="116">
-        <f t="array" ref="J47">IFERROR(_FV(A47,"Price"),"")</f>
-        <v>38.18</v>
-      </c>
-      <c r="K47" s="117" t="str">
-        <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v/>
-      </c>
-      <c r="L47" s="90">
-        <f t="array" ref="L47">IFERROR(_FV(A47,"Change (%)",TRUE),"")</f>
-        <v>3.1530000000000004E-3</v>
-      </c>
-      <c r="M47" s="116" t="str">
-        <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v/>
-      </c>
-      <c r="N47" s="116" t="str">
-        <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
-        <v/>
-      </c>
-      <c r="O47" s="91" t="str">
-        <f>IFERROR((M47-J47)/M47,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="118" t="e" vm="47">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B48" s="119" t="str">
-        <f t="array" ref="B48">_FV(A48,"Ticker symbol",TRUE)</f>
-        <v>FIGFX</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>366</v>
-      </c>
-      <c r="F48" s="120">
-        <f>IFERROR(_FV(A48,"Expense ratio",TRUE),"")</f>
-        <v>1.03E-2</v>
-      </c>
-      <c r="G48" s="121" t="str">
-        <f t="array" ref="G48">IFERROR(_FV(A48,"Open"),"")</f>
-        <v/>
-      </c>
-      <c r="H48" s="121" t="str">
-        <f t="array" ref="H48">IFERROR(_FV(A48,"High"),"")</f>
-        <v/>
-      </c>
-      <c r="I48" s="121" t="str">
-        <f t="array" ref="I48">IFERROR(_FV(A48,"Low"),"")</f>
-        <v/>
-      </c>
-      <c r="J48" s="121">
-        <f t="array" ref="J48">IFERROR(_FV(A48,"Price"),"")</f>
-        <v>16.579999999999998</v>
-      </c>
-      <c r="K48" s="122" t="str">
-        <f>IFERROR((Table1[[#This Row],[Close]]+Table1[[#This Row],[Low]])/2,"")</f>
-        <v/>
-      </c>
-      <c r="L48" s="120">
-        <f t="array" ref="L48">IFERROR(_FV(A48,"Change (%)",TRUE),"")</f>
-        <v>7.9030000000000003E-3</v>
-      </c>
-      <c r="M48" s="121" t="str">
-        <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week high",TRUE),"")</f>
-        <v/>
-      </c>
-      <c r="N48" s="121" t="str">
-        <f>IFERROR(_FV(Table1[[#This Row],[Funds]],"52 week low",TRUE),"")</f>
-        <v/>
-      </c>
-      <c r="O48" s="123" t="str">
-        <f>IFERROR((M48-J48)/M48,"")</f>
-        <v/>
       </c>
     </row>
   </sheetData>
@@ -18761,7 +18762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13513A75-7FB1-4B44-A9EF-B1F8874E7B1E}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
@@ -19234,11 +19235,11 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="124" t="s">
+      <c r="A28" s="123" t="s">
         <v>359</v>
       </c>
-      <c r="B28" s="124"/>
-      <c r="C28" s="124"/>
+      <c r="B28" s="123"/>
+      <c r="C28" s="123"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -25165,6 +25166,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D95AC4467A64E54FAB628610D0FE135F" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="79e84842eaddaeb917644b39e1597e3c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e8f9595b-0d5a-46b2-8488-c972c1ea4246" xmlns:ns4="6bcbbac3-d60f-4c54-b2b4-d245c065548d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bb8f6ae9099bbec0b468ebfdbf5b501b" ns3:_="" ns4:_="">
     <xsd:import namespace="e8f9595b-0d5a-46b2-8488-c972c1ea4246"/>
@@ -25387,22 +25403,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DB5870C-189D-475E-8E58-449C30115ACA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{401ADED5-CC5A-4072-B36A-6DA217C5A368}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="e8f9595b-0d5a-46b2-8488-c972c1ea4246"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="6bcbbac3-d60f-4c54-b2b4-d245c065548d"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11321DBA-FDAB-45E8-A045-E3E44A7AE235}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25419,29 +25445,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{401ADED5-CC5A-4072-B36A-6DA217C5A368}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="e8f9595b-0d5a-46b2-8488-c972c1ea4246"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6bcbbac3-d60f-4c54-b2b4-d245c065548d"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DB5870C-189D-475E-8E58-449C30115ACA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>